--- a/examples/housing_different_levels_results.xlsx
+++ b/examples/housing_different_levels_results.xlsx
@@ -523,31 +523,31 @@
         <v>44348</v>
       </c>
       <c r="B2" t="n">
-        <v>0.144457505346324</v>
+        <v>0.2159605762784906</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7894736842105271</v>
+        <v>-0.3499999999999986</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.016656581920986</v>
+        <v>5.950334146049205</v>
       </c>
       <c r="E2" t="n">
-        <v>5.7172532081604</v>
+        <v>2.605320930480957</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2237062901885605</v>
+        <v>4.522953371747015</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05736073026911168</v>
+        <v>0.05736073044115261</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02113147377487934</v>
+        <v>0.01205397708987732</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3127214592923317</v>
+        <v>0.09512509460317353</v>
       </c>
       <c r="J2" t="n">
-        <v>1.936478723790831</v>
+        <v>2.249170598914738</v>
       </c>
       <c r="K2" t="n">
         <v>97.2290968349859</v>
@@ -562,7 +562,7 @@
         <v>120.5133424676788</v>
       </c>
       <c r="O2" t="n">
-        <v>121.0422867713166</v>
+        <v>120.2058796877672</v>
       </c>
     </row>
     <row r="3">
@@ -570,31 +570,31 @@
         <v>44378</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1447112969000557</v>
+        <v>0.2163283098992963</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.678947368421053</v>
+        <v>0.009999999999999431</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.031778846698589</v>
+        <v>1.911043856914492</v>
       </c>
       <c r="E3" t="n">
-        <v>12.35723495483398</v>
+        <v>13.59173965454102</v>
       </c>
       <c r="F3" t="n">
-        <v>1.247124510395749</v>
+        <v>2.554790203761022</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05736075335821986</v>
+        <v>0.05736075353223408</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02115331248237595</v>
+        <v>0.01205193294762807</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3177549269526643</v>
+        <v>0.09524699879305282</v>
       </c>
       <c r="J3" t="n">
-        <v>4.196784072404862</v>
+        <v>3.015698296625599</v>
       </c>
       <c r="K3" t="n">
         <v>97.52752199089267</v>
@@ -609,7 +609,7 @@
         <v>118.6748958252556</v>
       </c>
       <c r="O3" t="n">
-        <v>116.1475737845387</v>
+        <v>120.0958123504019</v>
       </c>
     </row>
     <row r="4">
@@ -617,31 +617,31 @@
         <v>44409</v>
       </c>
       <c r="B4" t="n">
-        <v>0.144802316411571</v>
+        <v>0.2166659961649486</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.310526315789472</v>
+        <v>-2.849999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.484292970800278</v>
+        <v>-3.156598495203612</v>
       </c>
       <c r="E4" t="n">
-        <v>-13.84823417663574</v>
+        <v>-6.973344802856445</v>
       </c>
       <c r="F4" t="n">
-        <v>-4.640236124495786</v>
+        <v>-1.808378483560016</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05736077654685123</v>
+        <v>0.05736077672276896</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02116830292692384</v>
+        <v>0.01204989079356267</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.468587963775501</v>
+        <v>0.09535888789376008</v>
       </c>
       <c r="J4" t="n">
-        <v>-6.591525445259579</v>
+        <v>-2.500842760073597</v>
       </c>
       <c r="K4" t="n">
         <v>97.63610105955703</v>
@@ -656,7 +656,7 @@
         <v>118.0798404258526</v>
       </c>
       <c r="O4" t="n">
-        <v>114.5540738316936</v>
+        <v>120.0653991884817</v>
       </c>
     </row>
     <row r="5">
@@ -664,31 +664,31 @@
         <v>44440</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1451094365030912</v>
+        <v>0.2169194799444938</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.7894736842105271</v>
+        <v>0.0299999999999983</v>
       </c>
       <c r="D5" t="n">
-        <v>2.682858934014573</v>
+        <v>-5.666893700706981</v>
       </c>
       <c r="E5" t="n">
-        <v>7.768058776855469</v>
+        <v>5.380267143249512</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.00675541875899</v>
+        <v>-0.3135598110615716</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05736079937918989</v>
+        <v>0.05736079955651682</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0211889773442806</v>
+        <v>0.01204784511072887</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9204695702460145</v>
+        <v>0.09544270820391317</v>
       </c>
       <c r="J5" t="n">
-        <v>1.188913581346127</v>
+        <v>-0.1933292122387719</v>
       </c>
       <c r="K5" t="n">
         <v>97.70789236788656</v>
@@ -703,7 +703,7 @@
         <v>115.8238186974665</v>
       </c>
       <c r="O5" t="n">
-        <v>108.7739082568577</v>
+        <v>119.8023012497163</v>
       </c>
     </row>
     <row r="6">
@@ -711,31 +711,31 @@
         <v>44470</v>
       </c>
       <c r="B6" t="n">
-        <v>0.145398994714057</v>
+        <v>0.2172233706317854</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.515789473684209</v>
+        <v>-3.439999999999998</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9106908527861224</v>
+        <v>-5.764082549298242</v>
       </c>
       <c r="E6" t="n">
-        <v>7.188450813293457</v>
+        <v>6.592167377471924</v>
       </c>
       <c r="F6" t="n">
-        <v>1.396515600481371</v>
+        <v>2.399713220561923</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05736082244377058</v>
+        <v>0.0573608226213308</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02120809202188667</v>
+        <v>0.0120458087996127</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3297532557505932</v>
+        <v>0.09554333401757631</v>
       </c>
       <c r="J6" t="n">
-        <v>2.527817295760276</v>
+        <v>-0.2301351860707184</v>
       </c>
       <c r="K6" t="n">
         <v>97.77255506308472</v>
@@ -750,7 +750,7 @@
         <v>117.4837382154931</v>
       </c>
       <c r="O6" t="n">
-        <v>112.9364910495767</v>
+        <v>120.0469712025408</v>
       </c>
     </row>
     <row r="7">
@@ -758,31 +758,31 @@
         <v>44501</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1456320691269468</v>
+        <v>0.2175082412052234</v>
       </c>
       <c r="C7" t="n">
-        <v>-6.810526315789476</v>
+        <v>-7.1</v>
       </c>
       <c r="D7" t="n">
-        <v>-8.322543376777087</v>
+        <v>-8.35612321688931</v>
       </c>
       <c r="E7" t="n">
-        <v>-7.536147594451904</v>
+        <v>-8.018988609313965</v>
       </c>
       <c r="F7" t="n">
-        <v>-10.92007671288169</v>
+        <v>-8.012389807975438</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05736084502946148</v>
+        <v>0.05736084520612547</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02122639266278981</v>
+        <v>0.01204379254340893</v>
       </c>
       <c r="I7" t="n">
-        <v>-2.747985379694946</v>
+        <v>0.09563762631825261</v>
       </c>
       <c r="J7" t="n">
-        <v>-8.004300525393464</v>
+        <v>-5.446891828471207</v>
       </c>
       <c r="K7" t="n">
         <v>97.83583639870257</v>
@@ -797,7 +797,7 @@
         <v>110.2552204989131</v>
       </c>
       <c r="O7" t="n">
-        <v>94.544436990493</v>
+        <v>119.1314681950471</v>
       </c>
     </row>
     <row r="8">
@@ -805,31 +805,31 @@
         <v>44531</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1460190469016993</v>
+        <v>0.217938795937954</v>
       </c>
       <c r="C8" t="n">
-        <v>-6.057894736842106</v>
+        <v>-3.97</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.639552464604502</v>
+        <v>-3.202316107302563</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.760273098945618</v>
+        <v>-6.977509498596191</v>
       </c>
       <c r="F8" t="n">
-        <v>-8.678855440719365</v>
+        <v>-4.399304889118136</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05736086805686336</v>
+        <v>0.05736086823192113</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02124643522619607</v>
+        <v>0.01204176522905698</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.520315053773814</v>
+        <v>0.09578047646631067</v>
       </c>
       <c r="J8" t="n">
-        <v>-5.024951464131716</v>
+        <v>-3.1387880501847</v>
       </c>
       <c r="K8" t="n">
         <v>97.89885005893183</v>
@@ -844,7 +844,7 @@
         <v>105.1471618698803</v>
       </c>
       <c r="O8" t="n">
-        <v>81.53356116646013</v>
+        <v>118.4924807145869</v>
       </c>
     </row>
     <row r="9">
@@ -852,31 +852,31 @@
         <v>44562</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1463032232801424</v>
+        <v>0.2184105808403274</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.063157894736843</v>
+        <v>-1.540000000000002</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.144917679948771</v>
+        <v>0.2647421761536179</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.441939115524292</v>
+        <v>-8.124106407165527</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.063579514971292</v>
+        <v>-0.5729719089267513</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05736089100224759</v>
+        <v>0.05736089117635143</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02126595551020927</v>
+        <v>0.01203975046591665</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3554302778121048</v>
+        <v>0.09593707416086517</v>
       </c>
       <c r="J9" t="n">
-        <v>-2.100687438351081</v>
+        <v>-1.598154556176248</v>
       </c>
       <c r="K9" t="n">
         <v>97.96181184989064</v>
@@ -891,7 +891,7 @@
         <v>103.5822925635865</v>
       </c>
       <c r="O9" t="n">
-        <v>77.51408201829267</v>
+        <v>118.3157098707237</v>
       </c>
     </row>
     <row r="10">
@@ -899,31 +899,31 @@
         <v>44593</v>
       </c>
       <c r="B10" t="n">
-        <v>0.14652604262659</v>
+        <v>0.2189048886737055</v>
       </c>
       <c r="C10" t="n">
-        <v>3.915789473684209</v>
+        <v>4.13</v>
       </c>
       <c r="D10" t="n">
-        <v>2.416273585936492</v>
+        <v>1.664922360016853</v>
       </c>
       <c r="E10" t="n">
-        <v>4.976735591888428</v>
+        <v>13.14702987670898</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3899838607898446</v>
+        <v>4.527423048051627</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05736091353412623</v>
+        <v>0.05736091370590368</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02128444041192523</v>
+        <v>0.01203774698603866</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8316396466275143</v>
+        <v>0.09610118312188261</v>
       </c>
       <c r="J10" t="n">
-        <v>2.228196980338181</v>
+        <v>3.991328610730921</v>
       </c>
       <c r="K10" t="n">
         <v>98.0247635897901</v>
@@ -938,7 +938,7 @@
         <v>104.1928360626991</v>
       </c>
       <c r="O10" t="n">
-        <v>79.01503610870508</v>
+        <v>118.4227357648864</v>
       </c>
     </row>
     <row r="11">
@@ -946,31 +946,31 @@
         <v>44621</v>
       </c>
       <c r="B11" t="n">
-        <v>0.147121555585727</v>
+        <v>0.2194995309658054</v>
       </c>
       <c r="C11" t="n">
-        <v>10.18947368421053</v>
+        <v>8.02</v>
       </c>
       <c r="D11" t="n">
-        <v>18.29573526151919</v>
+        <v>9.297720624423924</v>
       </c>
       <c r="E11" t="n">
-        <v>1.573006629943848</v>
+        <v>14.72685050964355</v>
       </c>
       <c r="F11" t="n">
-        <v>21.41385292146586</v>
+        <v>19.63859330417052</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05736093624855237</v>
+        <v>0.05736093641907108</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02130639280928648</v>
+        <v>0.01203572095745642</v>
       </c>
       <c r="I11" t="n">
-        <v>6.124800863525678</v>
+        <v>0.09629872944744432</v>
       </c>
       <c r="J11" t="n">
-        <v>11.3387209732356</v>
+        <v>8.851326900159298</v>
       </c>
       <c r="K11" t="n">
         <v>98.08771338202779</v>
@@ -985,7 +985,7 @@
         <v>113.8046978351142</v>
       </c>
       <c r="O11" t="n">
-        <v>103.358142354015</v>
+        <v>119.7040593639259</v>
       </c>
     </row>
     <row r="12">
@@ -993,31 +993,31 @@
         <v>44652</v>
       </c>
       <c r="B12" t="n">
-        <v>0.147388807157725</v>
+        <v>0.2199399428006643</v>
       </c>
       <c r="C12" t="n">
-        <v>7.347368421052631</v>
+        <v>9.34</v>
       </c>
       <c r="D12" t="n">
-        <v>4.537236973047269</v>
+        <v>4.386382704120387</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.47393262386322</v>
+        <v>9.602319717407227</v>
       </c>
       <c r="F12" t="n">
-        <v>1.935684093329387</v>
+        <v>3.071209795705204</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05736095848351427</v>
+        <v>0.05736095865357879</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02132310523557379</v>
+        <v>0.01203374163844728</v>
       </c>
       <c r="I12" t="n">
-        <v>1.538640345588785</v>
+        <v>0.09644488103089681</v>
       </c>
       <c r="J12" t="n">
-        <v>1.297348710984288</v>
+        <v>4.674434567427338</v>
       </c>
       <c r="K12" t="n">
         <v>98.15066279685391</v>
@@ -1032,7 +1032,7 @@
         <v>118.9584882628226</v>
       </c>
       <c r="O12" t="n">
-        <v>116.3882462594608</v>
+        <v>120.4037894627188</v>
       </c>
     </row>
     <row r="13">
@@ -1040,31 +1040,31 @@
         <v>44682</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1477967832499161</v>
+        <v>0.2204445500496206</v>
       </c>
       <c r="C13" t="n">
-        <v>5.836842105263156</v>
+        <v>3.969999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>5.763726682230893</v>
+        <v>8.253674551746993</v>
       </c>
       <c r="E13" t="n">
-        <v>5.017786979675293</v>
+        <v>10.23368358612061</v>
       </c>
       <c r="F13" t="n">
-        <v>7.337700779003018</v>
+        <v>8.019115168760948</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05736098141137413</v>
+        <v>0.05736098158198932</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02134303442247187</v>
+        <v>0.01203173857481943</v>
       </c>
       <c r="I13" t="n">
-        <v>1.947476899354913</v>
+        <v>0.09661242340214311</v>
       </c>
       <c r="J13" t="n">
-        <v>5.515246056295896</v>
+        <v>5.291880085389495</v>
       </c>
       <c r="K13" t="n">
         <v>98.21361213854642</v>
@@ -1079,7 +1079,7 @@
         <v>121.0481529779039</v>
       </c>
       <c r="O13" t="n">
-        <v>121.6426868085886</v>
+        <v>120.7037782609586</v>
       </c>
     </row>
     <row r="14">
@@ -1087,31 +1087,31 @@
         <v>44713</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1480255791340568</v>
+        <v>0.2208323600135884</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5894736842105265</v>
+        <v>0.8500000000000014</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.913975457555348</v>
+        <v>7.121139387091595</v>
       </c>
       <c r="E14" t="n">
-        <v>7.036519527435303</v>
+        <v>14.37446022033691</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3662875725629353</v>
+        <v>2.122266168813373</v>
       </c>
       <c r="G14" t="n">
-        <v>0.05736100400120711</v>
+        <v>0.05736100417343787</v>
       </c>
       <c r="H14" t="n">
-        <v>0.02136176292611935</v>
+        <v>0.01202975101037396</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.6117508968760071</v>
+        <v>0.09674103839913341</v>
       </c>
       <c r="J14" t="n">
-        <v>2.044385381324073</v>
+        <v>4.209530834395133</v>
       </c>
       <c r="K14" t="n">
         <v>98.27656146606735</v>
@@ -1126,7 +1126,7 @@
         <v>120.4803283986579</v>
       </c>
       <c r="O14" t="n">
-        <v>120.153362845521</v>
+        <v>120.6570749647094</v>
       </c>
     </row>
     <row r="15">
@@ -1134,31 +1134,31 @@
         <v>44743</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1480926654057271</v>
+        <v>0.2211382043148831</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.08421052631578956</v>
+        <v>-0.6799999999999997</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.056392913155046</v>
+        <v>2.988194614863885</v>
       </c>
       <c r="E15" t="n">
-        <v>-2.099327087402344</v>
+        <v>4.421060085296631</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.789302044450814</v>
+        <v>1.730202081357248</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05736102633666307</v>
+        <v>0.05736102651077446</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02138072438717842</v>
+        <v>0.01202776768857916</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.659217054143735</v>
+        <v>0.0968423328380789</v>
       </c>
       <c r="J15" t="n">
-        <v>-1.49549790099306</v>
+        <v>1.4742933125747</v>
       </c>
       <c r="K15" t="n">
         <v>98.33951079084214</v>
@@ -1173,7 +1173,7 @@
         <v>118.9397713507707</v>
       </c>
       <c r="O15" t="n">
-        <v>116.1955891615565</v>
+        <v>120.4834704407378</v>
       </c>
     </row>
     <row r="16">
@@ -1181,31 +1181,31 @@
         <v>44774</v>
       </c>
       <c r="B16" t="n">
-        <v>0.148163461588581</v>
+        <v>0.2213570516079528</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.910526315789472</v>
+        <v>-2.849999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.05930014468535472</v>
+        <v>-4.522987553826191</v>
       </c>
       <c r="E16" t="n">
-        <v>-11.1968297958374</v>
+        <v>-6.916018009185791</v>
       </c>
       <c r="F16" t="n">
-        <v>-6.375074452651265</v>
+        <v>-2.609928566009909</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05736104820206459</v>
+        <v>0.05736104837818609</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02139943460193194</v>
+        <v>0.01202579350977828</v>
       </c>
       <c r="I16" t="n">
-        <v>0.006486779372880604</v>
+        <v>0.09691463116530574</v>
       </c>
       <c r="J16" t="n">
-        <v>-6.401043179534648</v>
+        <v>-2.87670676160569</v>
       </c>
       <c r="K16" t="n">
         <v>98.40246011508481</v>
@@ -1220,7 +1220,7 @@
         <v>118.1312065485064</v>
       </c>
       <c r="O16" t="n">
-        <v>114.0953519684562</v>
+        <v>120.405360532756</v>
       </c>
     </row>
     <row r="17">
@@ -1228,31 +1228,31 @@
         <v>44805</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1484366657527971</v>
+        <v>0.2216223980446728</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.431578947368422</v>
+        <v>-0.8900000000000006</v>
       </c>
       <c r="D17" t="n">
-        <v>3.251162234129848</v>
+        <v>-5.51271382932108</v>
       </c>
       <c r="E17" t="n">
-        <v>11.01536273956299</v>
+        <v>11.07903099060059</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.276726242373937</v>
+        <v>-0.8748925200896756</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05736107074032804</v>
+        <v>0.0573610709175994</v>
       </c>
       <c r="H17" t="n">
-        <v>0.02141845888051108</v>
+        <v>0.01202381744977288</v>
       </c>
       <c r="I17" t="n">
-        <v>1.109980587916896</v>
+        <v>0.09700242880401501</v>
       </c>
       <c r="J17" t="n">
-        <v>2.150240473802294</v>
+        <v>0.4936313380933499</v>
       </c>
       <c r="K17" t="n">
         <v>98.46540943922436</v>
@@ -1267,7 +1267,7 @@
         <v>116.1105697515144</v>
       </c>
       <c r="O17" t="n">
-        <v>108.9193062914944</v>
+        <v>120.1691255207257</v>
       </c>
     </row>
     <row r="18">
@@ -1275,31 +1275,31 @@
         <v>44835</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1486678792524572</v>
+        <v>0.2218875027020601</v>
       </c>
       <c r="C18" t="n">
-        <v>-3.515789473684209</v>
+        <v>-3.439999999999998</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9157862751119241</v>
+        <v>-6.595827745011652</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1175083518028259</v>
+        <v>2.912221193313599</v>
       </c>
       <c r="F18" t="n">
-        <v>1.396515600481371</v>
+        <v>2.399713220561923</v>
       </c>
       <c r="G18" t="n">
-        <v>0.05736109298283626</v>
+        <v>0.0573610931603305</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02143731921051995</v>
+        <v>0.01202184883155155</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3315282291017601</v>
+        <v>0.09709014823131407</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3134162449788158</v>
+        <v>-0.9800187422723962</v>
       </c>
       <c r="K18" t="n">
         <v>98.52835876334393</v>
@@ -1314,7 +1314,7 @@
         <v>117.161848286463</v>
       </c>
       <c r="O18" t="n">
-        <v>111.5386913158847</v>
+        <v>120.3336479995505</v>
       </c>
     </row>
     <row r="19">
@@ -1322,31 +1322,31 @@
         <v>44866</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1488878825310422</v>
+        <v>0.2221837465218357</v>
       </c>
       <c r="C19" t="n">
-        <v>-6.810526315789476</v>
+        <v>-8.830000000000002</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.01337621739702</v>
+        <v>-7.961872128057017</v>
       </c>
       <c r="E19" t="n">
-        <v>-7.783946990966797</v>
+        <v>-3.412827491760254</v>
       </c>
       <c r="F19" t="n">
-        <v>-8.969156628077242</v>
+        <v>-6.323057299734075</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05736111492643434</v>
+        <v>0.05736111510307415</v>
       </c>
       <c r="H19" t="n">
-        <v>0.02145601486292747</v>
+        <v>0.01201988768092122</v>
       </c>
       <c r="I19" t="n">
-        <v>-2.311519695869219</v>
+        <v>0.09718824976861036</v>
       </c>
       <c r="J19" t="n">
-        <v>-7.20347066879166</v>
+        <v>-4.680311428214088</v>
       </c>
       <c r="K19" t="n">
         <v>98.59130808745961</v>
@@ -1361,7 +1361,7 @@
         <v>110.5217187530512</v>
       </c>
       <c r="O19" t="n">
-        <v>94.64001281515817</v>
+        <v>119.4947608574653</v>
       </c>
     </row>
     <row r="20">
@@ -1369,31 +1369,31 @@
         <v>44896</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1492199906440135</v>
+        <v>0.2225821943657706</v>
       </c>
       <c r="C20" t="n">
-        <v>-6.057894736842106</v>
+        <v>-3.97</v>
       </c>
       <c r="D20" t="n">
-        <v>-5.937136682545268</v>
+        <v>-3.938514201613873</v>
       </c>
       <c r="E20" t="n">
-        <v>-8.225974082946777</v>
+        <v>-1.480825424194336</v>
       </c>
       <c r="F20" t="n">
-        <v>-8.678855440719365</v>
+        <v>-5.633568872797852</v>
       </c>
       <c r="G20" t="n">
-        <v>0.05736113718874222</v>
+        <v>0.05736113736385032</v>
       </c>
       <c r="H20" t="n">
-        <v>0.02147484642072328</v>
+        <v>0.01201792803799151</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.952766899645267</v>
+        <v>0.09732041992253748</v>
       </c>
       <c r="J20" t="n">
-        <v>-7.10003288417984</v>
+        <v>-2.587345931158039</v>
       </c>
       <c r="K20" t="n">
         <v>98.65425741157456</v>
@@ -1408,7 +1408,7 @@
         <v>105.1808473436567</v>
       </c>
       <c r="O20" t="n">
-        <v>81.03839024680609</v>
+        <v>118.8253729917275</v>
       </c>
     </row>
     <row r="21">
@@ -1416,31 +1416,31 @@
         <v>44927</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1495086032041826</v>
+        <v>0.2230393577378891</v>
       </c>
       <c r="C21" t="n">
-        <v>-3.063157894736843</v>
+        <v>-1.540000000000002</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.445565848140819</v>
+        <v>-0.1192085897255089</v>
       </c>
       <c r="E21" t="n">
-        <v>-4.260453701019287</v>
+        <v>-3.334112882614136</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.063579514971292</v>
+        <v>-0.5729719089267513</v>
       </c>
       <c r="G21" t="n">
-        <v>0.05736115950770276</v>
+        <v>0.05736115968190109</v>
       </c>
       <c r="H21" t="n">
-        <v>0.02149364897439199</v>
+        <v>0.01201597604602966</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.4555703465529081</v>
+        <v>0.09747216448860661</v>
       </c>
       <c r="J21" t="n">
-        <v>-2.994951574345524</v>
+        <v>-0.8954662755997536</v>
       </c>
       <c r="K21" t="n">
         <v>98.71720673568936</v>
@@ -1455,7 +1455,7 @@
         <v>103.5412214712057</v>
       </c>
       <c r="O21" t="n">
-        <v>76.82921505220671</v>
+        <v>118.6388440964284</v>
       </c>
     </row>
     <row r="22">
@@ -1463,31 +1463,31 @@
         <v>44958</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1497047755897256</v>
+        <v>0.2235270850355562</v>
       </c>
       <c r="C22" t="n">
-        <v>3.915789473684209</v>
+        <v>4.970000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>4.58199141943953</v>
+        <v>2.130171006797716</v>
       </c>
       <c r="E22" t="n">
-        <v>11.24258995056152</v>
+        <v>7.984479904174805</v>
       </c>
       <c r="F22" t="n">
-        <v>3.240917940834816</v>
+        <v>7.343904599704579</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05736118136207005</v>
+        <v>0.0573611815340492</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02151223381186895</v>
+        <v>0.01201402945341101</v>
       </c>
       <c r="I22" t="n">
-        <v>1.553621611537823</v>
+        <v>0.09763409867433881</v>
       </c>
       <c r="J22" t="n">
-        <v>5.484140807018438</v>
+        <v>3.858148162180404</v>
       </c>
       <c r="K22" t="n">
         <v>98.78015605980413</v>
@@ -1502,7 +1502,7 @@
         <v>104.7124250652831</v>
       </c>
       <c r="O22" t="n">
-        <v>79.75292730791219</v>
+        <v>118.8190118195351</v>
       </c>
     </row>
     <row r="23">
@@ -1510,31 +1510,31 @@
         <v>44986</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1505219586091755</v>
+        <v>0.2241006348295684</v>
       </c>
       <c r="C23" t="n">
-        <v>7.842105263157895</v>
+        <v>7.280000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>20.07019181909927</v>
+        <v>10.87580677674121</v>
       </c>
       <c r="E23" t="n">
-        <v>7.939310073852539</v>
+        <v>22.16579627990723</v>
       </c>
       <c r="F23" t="n">
-        <v>23.16054293799657</v>
+        <v>23.40470566838927</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05736120397811334</v>
+        <v>0.0573612041488919</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02153117026796991</v>
+        <v>0.01201208005113585</v>
       </c>
       <c r="I23" t="n">
-        <v>6.716361397781784</v>
+        <v>0.09782463967653206</v>
       </c>
       <c r="J23" t="n">
-        <v>13.90178153765485</v>
+        <v>10.81936705539781</v>
       </c>
       <c r="K23" t="n">
         <v>98.8431053839189</v>
@@ -1549,7 +1549,7 @@
         <v>113.4669278837371</v>
       </c>
       <c r="O23" t="n">
-        <v>101.9203612171651</v>
+        <v>119.9884854450638</v>
       </c>
     </row>
     <row r="24">
@@ -1557,31 +1557,31 @@
         <v>45017</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1506679799185662</v>
+        <v>0.2245478290691949</v>
       </c>
       <c r="C24" t="n">
-        <v>8.752631578947371</v>
+        <v>8.940000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>7.420327303179005</v>
+        <v>6.904109248309029</v>
       </c>
       <c r="E24" t="n">
-        <v>4.637042999267578</v>
+        <v>4.471473217010498</v>
       </c>
       <c r="F24" t="n">
-        <v>6.884066502190629</v>
+        <v>6.733126526849147</v>
       </c>
       <c r="G24" t="n">
-        <v>0.05736122534862484</v>
+        <v>0.05736122551896977</v>
       </c>
       <c r="H24" t="n">
-        <v>0.02154946724804319</v>
+        <v>0.01201014716470183</v>
       </c>
       <c r="I24" t="n">
-        <v>2.499745998591891</v>
+        <v>0.0979730672509555</v>
       </c>
       <c r="J24" t="n">
-        <v>5.566540245725872</v>
+        <v>4.835140693879279</v>
       </c>
       <c r="K24" t="n">
         <v>98.90605470803365</v>
@@ -1596,7 +1596,7 @@
         <v>118.734750196541</v>
       </c>
       <c r="O24" t="n">
-        <v>115.2398376398006</v>
+        <v>120.7030919340023</v>
       </c>
     </row>
     <row r="25">
@@ -1604,31 +1604,31 @@
         <v>45047</v>
       </c>
       <c r="B25" t="n">
-        <v>0.150968675935431</v>
+        <v>0.2250024158589667</v>
       </c>
       <c r="C25" t="n">
-        <v>4.789473684210525</v>
+        <v>3.969999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>4.256901455840787</v>
+        <v>8.018089681937507</v>
       </c>
       <c r="E25" t="n">
-        <v>6.941272258758545</v>
+        <v>16.07535552978516</v>
       </c>
       <c r="F25" t="n">
-        <v>5.00125422857268</v>
+        <v>7.288716996852383</v>
       </c>
       <c r="G25" t="n">
-        <v>0.05736124736037687</v>
+        <v>0.05736124753136687</v>
       </c>
       <c r="H25" t="n">
-        <v>0.02156805571691933</v>
+        <v>0.01200821257580742</v>
       </c>
       <c r="I25" t="n">
-        <v>1.445276919639361</v>
+        <v>0.09812395865538033</v>
       </c>
       <c r="J25" t="n">
-        <v>4.960937398894993</v>
+        <v>6.074408329769225</v>
       </c>
       <c r="K25" t="n">
         <v>98.96900403214842</v>
@@ -1643,7 +1643,7 @@
         <v>121.420914770659</v>
       </c>
       <c r="O25" t="n">
-        <v>122.0079831102964</v>
+        <v>121.0808992062218</v>
       </c>
     </row>
     <row r="26">
@@ -1651,31 +1651,31 @@
         <v>45078</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1510793529803607</v>
+        <v>0.2253661429076317</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5894736842105265</v>
+        <v>0.5700000000000003</v>
       </c>
       <c r="D26" t="n">
-        <v>-2.850496578601383</v>
+        <v>5.382751932082185</v>
       </c>
       <c r="E26" t="n">
-        <v>7.129596710205078</v>
+        <v>2.21213436126709</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.407346042230265</v>
+        <v>1.323809749763939</v>
       </c>
       <c r="G26" t="n">
-        <v>0.05736126907802355</v>
+        <v>0.05736126925043541</v>
       </c>
       <c r="H26" t="n">
-        <v>0.02158647776747102</v>
+        <v>0.01200628527679726</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.9238496105852959</v>
+        <v>0.09824456581162144</v>
       </c>
       <c r="J26" t="n">
-        <v>1.595811518441445</v>
+        <v>1.737300232080879</v>
       </c>
       <c r="K26" t="n">
         <v>99.03195335626319</v>
@@ -1690,7 +1690,7 @@
         <v>120.3496129107444</v>
       </c>
       <c r="O26" t="n">
-        <v>119.2410125264713</v>
+        <v>120.9685130136507</v>
       </c>
     </row>
   </sheetData>
@@ -1704,7 +1704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC15"/>
+  <dimension ref="A1:AD15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1830,30 +1830,35 @@
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
+          <t>weights</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>integration</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>LevelTestSetRMSE</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>LevelTestSetMAPE</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>LevelTestSetMAE</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>LevelTestSetR2</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>best_model</t>
         </is>
@@ -1872,12 +1877,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'dayofyearsin', 'dayofyearcos', 'weeksin', 'weekcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 19, 'weights': 'uniform'}</t>
+          <t>{'n_neighbors': 10, 'weights': 'uniform'}</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1895,32 +1900,32 @@
         <v>12</v>
       </c>
       <c r="I2" t="n">
-        <v>15.27086012558131</v>
+        <v>15.82121834752305</v>
       </c>
       <c r="J2" t="n">
-        <v>6.116862914335578</v>
+        <v>2.879756346463232</v>
       </c>
       <c r="K2" t="n">
-        <v>12.37543859649122</v>
+        <v>12.81999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06208858049200605</v>
+        <v>-0.006733855290852686</v>
       </c>
       <c r="M2" t="n">
-        <v>0.947368421052632</v>
+        <v>-0.05</v>
       </c>
       <c r="N2" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O2" t="n">
-        <v>10.33634957171926</v>
+        <v>9.884424914093533</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="n">
-        <v>8.104383619476499</v>
+        <v>7.739625668449198</v>
       </c>
       <c r="R2" t="n">
-        <v>0.6283849982904763</v>
+        <v>0.6601700325516441</v>
       </c>
       <c r="S2" t="n">
         <v>6</v>
@@ -1931,24 +1936,25 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>13.1541256005081</v>
+        <v>13.27025872644036</v>
       </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="n">
-        <v>11.20614896830788</v>
-      </c>
+      <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="n">
-        <v>0.07614999293216947</v>
+        <v>11.1462564717188</v>
       </c>
       <c r="AA2" t="n">
-        <v>9.37105263157895</v>
+        <v>0.07670785825239984</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.1269721937321748</v>
-      </c>
-      <c r="AC2" t="b">
+        <v>9.398333333333326</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.1362792422223517</v>
+      </c>
+      <c r="AD2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1965,12 +1971,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'dayofyearsin', 'dayofyearcos', 'weeksin', 'weekcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'kernel': 'poly', 'degree': 2, 'gamma': 'scale', 'C': 3.0, 'epsilon': 0.1}</t>
+          <t>{'kernel': 'linear', 'C': 0.5, 'epsilon': 0.1}</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1988,32 +1994,32 @@
         <v>12</v>
       </c>
       <c r="I3" t="n">
-        <v>16.67679416471487</v>
+        <v>15.42743090957689</v>
       </c>
       <c r="J3" t="n">
-        <v>2.173282542983413</v>
+        <v>2.663201748036615</v>
       </c>
       <c r="K3" t="n">
-        <v>12.60394886731435</v>
+        <v>12.55213186407106</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.1185617444957223</v>
+        <v>0.04275733880856225</v>
       </c>
       <c r="M3" t="n">
-        <v>-1.431076006180849</v>
+        <v>5.825054634025459</v>
       </c>
       <c r="N3" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O3" t="n">
-        <v>11.10398695965936</v>
+        <v>13.18354951791877</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
-        <v>8.506418513781915</v>
+        <v>10.0775715972081</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5711388096507252</v>
+        <v>0.3954620485378314</v>
       </c>
       <c r="S3" t="n">
         <v>6</v>
@@ -2024,47 +2030,56 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>9.79856723849492</v>
+        <v>13.2846482085337</v>
       </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="n">
-        <v>14.36407502130457</v>
-      </c>
+      <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="n">
-        <v>0.1042913105473886</v>
+        <v>16.46356518161705</v>
       </c>
       <c r="AA3" t="n">
-        <v>12.73157297618536</v>
+        <v>0.1061648555155583</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.434401143973113</v>
-      </c>
-      <c r="AC3" t="b">
+        <v>13.61220523137098</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-0.8843564925973237</v>
+      </c>
+      <c r="AD3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>mlp</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>combo</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'how': 'simple', 'models': 'top_3', 'determine_best_by': 'ValidationMetricValue'}</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>{'activation': 'tanh', 'hidden_layer_sizes': (25,), 'solver': 'lbfgs', 'random_state': 20}</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="F4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -2073,78 +2088,83 @@
         <v>12</v>
       </c>
       <c r="I4" t="n">
-        <v>16.39547848760271</v>
+        <v>16.28407189340217</v>
       </c>
       <c r="J4" t="n">
-        <v>1.403087228375663</v>
+        <v>1.0548228534847</v>
       </c>
       <c r="K4" t="n">
-        <v>12.44817595255033</v>
+        <v>12.37770713692645</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.08114269082373204</v>
+        <v>-0.06649996955191884</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.4915165937821116</v>
+        <v>-0.06624285807981778</v>
       </c>
       <c r="N4" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O4" t="n">
-        <v>14.20183347937835</v>
+        <v>16.82587646781341</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
-        <v>10.64860760441622</v>
+        <v>12.42182181574862</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2984676659125913</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+        <v>0.01527661245887613</v>
+      </c>
+      <c r="S4" t="n">
+        <v>6</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="U4" t="n">
+        <v>9.860091463813326</v>
+      </c>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>['svr', 'mlp', 'elasticnet']</t>
-        </is>
-      </c>
+      <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="n">
-        <v>15.91941963209188</v>
-      </c>
+      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="n">
-        <v>0.1136683777695746</v>
+        <v>17.47830864520502</v>
       </c>
       <c r="AA4" t="n">
-        <v>13.34530786074923</v>
+        <v>0.1205706720336819</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.7618533439960546</v>
-      </c>
-      <c r="AC4" t="b">
+        <v>13.98439294545111</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-1.12380237365424</v>
+      </c>
+      <c r="AD4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>elasticnet</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>elasticnet</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'dayofyearsin', 'dayofyearcos', 'weeksin', 'weekcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'activation': 'tanh', 'hidden_layer_sizes': (25, 25), 'solver': 'lbfgs', 'random_state': 20}</t>
+          <t>{'alpha': 0.1, 'l1_ratio': 0.0}</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -2162,32 +2182,32 @@
         <v>12</v>
       </c>
       <c r="I5" t="n">
-        <v>16.27657072564657</v>
+        <v>16.26947225343302</v>
       </c>
       <c r="J5" t="n">
-        <v>1.029874943975803</v>
+        <v>1.006104198063623</v>
       </c>
       <c r="K5" t="n">
-        <v>12.37268301763728</v>
+        <v>12.36789597267848</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.06551764121800896</v>
+        <v>-0.06458846538547647</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.03609810604567087</v>
+        <v>-0.00737566899760278</v>
       </c>
       <c r="N5" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O5" t="n">
-        <v>16.79726494829365</v>
+        <v>16.95547409271852</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>12.43976962745388</v>
+        <v>12.63620530149774</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01862270594844906</v>
+        <v>4.896157603140328e-05</v>
       </c>
       <c r="S5" t="n">
         <v>6</v>
@@ -2198,89 +2218,84 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>9.871696761360008</v>
+        <v>9.899292150601859</v>
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="n">
-        <v>17.60582137832415</v>
-      </c>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
-        <v>0.1212831729100068</v>
+        <v>17.72904696611337</v>
       </c>
       <c r="AA5" t="n">
-        <v>14.05975473543426</v>
+        <v>0.1219620529587611</v>
       </c>
       <c r="AB5" t="n">
-        <v>-1.154903746518434</v>
-      </c>
-      <c r="AC5" t="b">
+        <v>14.13156041252731</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-1.185174251735035</v>
+      </c>
+      <c r="AD5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>prophet</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>elasticnet</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'dayofyearsin', 'dayofyearcos', 'weeksin', 'weekcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
-        </is>
-      </c>
+          <t>prophet</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'alpha': 0.1, 'l1_ratio': 0.0}</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+          <t>{'n_changepoints': 0}</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="b">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>12</v>
       </c>
       <c r="I6" t="n">
-        <v>16.26947225346298</v>
+        <v>28.98872871441157</v>
       </c>
       <c r="J6" t="n">
-        <v>1.006104198167773</v>
+        <v>0.2119884645128811</v>
       </c>
       <c r="K6" t="n">
-        <v>12.36789597269937</v>
+        <v>26.11818847473322</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.06458846538939822</v>
+        <v>-4.842162510707955</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.007375669119814882</v>
+        <v>119.9019776087841</v>
       </c>
       <c r="N6" t="n">
-        <v>7.299999999999983</v>
+        <v>143.1</v>
       </c>
       <c r="O6" t="n">
-        <v>16.95547408481336</v>
-      </c>
-      <c r="P6" t="inlineStr"/>
+        <v>31.50848739942518</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.2517766915560388</v>
+      </c>
       <c r="Q6" t="n">
-        <v>12.6362052927504</v>
+        <v>24.979385265179</v>
       </c>
       <c r="R6" t="n">
-        <v>4.896250844654837e-05</v>
+        <v>0.3145971129101873</v>
       </c>
       <c r="S6" t="n">
         <v>6</v>
@@ -2291,31 +2306,34 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>9.899292150575807</v>
-      </c>
-      <c r="V6" t="inlineStr"/>
+        <v>33.21559034959205</v>
+      </c>
+      <c r="V6" t="b">
+        <v>1</v>
+      </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="n">
-        <v>17.72904696556408</v>
-      </c>
+      <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>0.121962052955747</v>
+        <v>28.98872871441157</v>
       </c>
       <c r="AA6" t="n">
-        <v>14.13156041220811</v>
+        <v>0.2119884645128811</v>
       </c>
       <c r="AB6" t="n">
-        <v>-1.185174251599632</v>
-      </c>
-      <c r="AC6" t="b">
+        <v>26.11818847473322</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>-4.842162510707955</v>
+      </c>
+      <c r="AD6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>weighted</t>
+          <t>avg_level</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2326,7 +2344,7 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'how': 'weighted', 'models': ('mlr', 'knn', 'svr', 'xgboost', 'gbt', 'elasticnet', 'mlp'), 'determine_best_by': 'ValidationMetricValue'}</t>
+          <t>{'how': 'simple', 'models': ('arima', 'hwes', 'prophet'), 'determine_best_by': 'ValidationMetricValue'}</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -2334,38 +2352,40 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>12</v>
       </c>
       <c r="I7" t="n">
-        <v>14.24854670240043</v>
+        <v>30.20105209678834</v>
       </c>
       <c r="J7" t="n">
-        <v>2.798600076251085</v>
+        <v>0.2254291810116202</v>
       </c>
       <c r="K7" t="n">
-        <v>10.23185877738527</v>
+        <v>28.76940478637961</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1834628180457977</v>
+        <v>-5.341024606358312</v>
       </c>
       <c r="M7" t="n">
-        <v>8.672464958038521</v>
+        <v>101.7412359485154</v>
       </c>
       <c r="N7" t="n">
-        <v>7.299999999999983</v>
+        <v>143.1</v>
       </c>
       <c r="O7" t="n">
-        <v>6.894026750475829</v>
-      </c>
-      <c r="P7" t="inlineStr"/>
+        <v>16.22892076253472</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.1221112722022012</v>
+      </c>
       <c r="Q7" t="n">
-        <v>5.423744516466339</v>
+        <v>12.66618281126648</v>
       </c>
       <c r="R7" t="n">
-        <v>0.8346878443756627</v>
+        <v>0.8181680905548865</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
@@ -2373,41 +2393,42 @@
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr">
         <is>
-          <t>['svr', 'mlp', 'elasticnet', 'mlr', 'knn', 'xgboost', 'gbt']</t>
+          <t>['arima', 'hwes', 'prophet']</t>
         </is>
       </c>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="n">
-        <v>24.73161937424864</v>
-      </c>
+      <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>0.1486910788435468</v>
+        <v>30.20105209678834</v>
       </c>
       <c r="AA7" t="n">
-        <v>18.91470940025439</v>
+        <v>0.2254291810116202</v>
       </c>
       <c r="AB7" t="n">
-        <v>-3.252265779776684</v>
-      </c>
-      <c r="AC7" t="b">
+        <v>28.76940478637961</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-5.341024606358312</v>
+      </c>
+      <c r="AD7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>prophet</t>
+          <t>arima</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>prophet</t>
+          <t>arima</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'n_changepoints': 0}</t>
+          <t>{'order': (1, 1, 1), 'seasonal_order': (0, 0, 0, 0), 'trend': 'ct'}</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2421,34 +2442,34 @@
         <v>12</v>
       </c>
       <c r="I8" t="n">
-        <v>28.98872871441157</v>
+        <v>32.78992575121833</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2119884645128811</v>
+        <v>0.2317081186962638</v>
       </c>
       <c r="K8" t="n">
-        <v>26.11818847473322</v>
+        <v>30.05262691099819</v>
       </c>
       <c r="L8" t="n">
-        <v>-4.842162510707955</v>
+        <v>-6.47474119068706</v>
       </c>
       <c r="M8" t="n">
-        <v>119.9019776087841</v>
+        <v>90.2722393483395</v>
       </c>
       <c r="N8" t="n">
         <v>143.1</v>
       </c>
       <c r="O8" t="n">
-        <v>31.50848739942518</v>
+        <v>17.06041459902015</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2517766915560388</v>
+        <v>0.1110036332814878</v>
       </c>
       <c r="Q8" t="n">
-        <v>24.979385265179</v>
+        <v>12.54151210494273</v>
       </c>
       <c r="R8" t="n">
-        <v>0.3145971129101873</v>
+        <v>0.7990583417494741</v>
       </c>
       <c r="S8" t="n">
         <v>6</v>
@@ -2459,26 +2480,27 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>33.21559034959205</v>
+        <v>9.993369466007872</v>
       </c>
       <c r="V8" t="b">
         <v>1</v>
       </c>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="n">
-        <v>28.98872871441157</v>
-      </c>
+      <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
-        <v>0.2119884645128811</v>
+        <v>32.78992575121833</v>
       </c>
       <c r="AA8" t="n">
-        <v>26.11818847473322</v>
+        <v>0.2317081186962638</v>
       </c>
       <c r="AB8" t="n">
-        <v>-4.842162510707955</v>
-      </c>
-      <c r="AC8" t="b">
+        <v>30.05262691099819</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-6.47474119068706</v>
+      </c>
+      <c r="AD8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2510,34 +2532,34 @@
         <v>12</v>
       </c>
       <c r="I9" t="n">
-        <v>28.7629213795795</v>
+        <v>32.36210820933314</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2124214830706999</v>
+        <v>0.2327842683626248</v>
       </c>
       <c r="K9" t="n">
-        <v>26.41340153289418</v>
+        <v>30.10163900194429</v>
       </c>
       <c r="L9" t="n">
-        <v>-4.751502088786549</v>
+        <v>-6.280964354922107</v>
       </c>
       <c r="M9" t="n">
-        <v>115.7028547999301</v>
+        <v>93.84504227080988</v>
       </c>
       <c r="N9" t="n">
         <v>143.1</v>
       </c>
       <c r="O9" t="n">
-        <v>27.07152682540695</v>
+        <v>16.32985708651442</v>
       </c>
       <c r="P9" t="n">
-        <v>0.2156839448600504</v>
+        <v>0.1083270994939781</v>
       </c>
       <c r="Q9" t="n">
-        <v>21.41380728835462</v>
+        <v>12.15540025612549</v>
       </c>
       <c r="R9" t="n">
-        <v>0.4940398405559415</v>
+        <v>0.8158992373480933</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
@@ -2548,43 +2570,48 @@
           <t>['hwes', 'arima', 'prophet']</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="n">
-        <v>28.7629213795795</v>
-      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>(0.47834786261459994, 0.47816596805680006, 0.04348616932859999)</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
-        <v>0.2124214830706999</v>
+        <v>32.36210820933314</v>
       </c>
       <c r="AA9" t="n">
-        <v>26.41340153289418</v>
+        <v>0.2327842683626248</v>
       </c>
       <c r="AB9" t="n">
-        <v>-4.751502088786549</v>
-      </c>
-      <c r="AC9" t="b">
+        <v>30.10163900194429</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-6.280964354922107</v>
+      </c>
+      <c r="AD9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>avg_level</t>
+          <t>hwes</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>combo</t>
+          <t>hwes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'how': 'simple', 'models': ('arima', 'hwes', 'prophet'), 'determine_best_by': 'ValidationMetricValue'}</t>
+          <t>{'trend': None, 'seasonal': None, 'damped_trend': False}</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -2593,117 +2620,130 @@
         <v>12</v>
       </c>
       <c r="I10" t="n">
-        <v>30.20105209678834</v>
+        <v>32.82034846925381</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2254291810116202</v>
+        <v>0.2360683178911208</v>
       </c>
       <c r="K10" t="n">
-        <v>28.76940478637961</v>
+        <v>30.55050911157757</v>
       </c>
       <c r="L10" t="n">
-        <v>-5.341024606358312</v>
+        <v>-6.488617857435266</v>
       </c>
       <c r="M10" t="n">
-        <v>101.7412359485154</v>
+        <v>95.04949088842243</v>
       </c>
       <c r="N10" t="n">
         <v>143.1</v>
       </c>
       <c r="O10" t="n">
-        <v>16.22892076253472</v>
+        <v>16.94468228690074</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1221112722022012</v>
+        <v>0.1119041572430469</v>
       </c>
       <c r="Q10" t="n">
-        <v>12.66618281126648</v>
+        <v>12.61588789130961</v>
       </c>
       <c r="R10" t="n">
-        <v>0.8181680905548865</v>
-      </c>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>['hwes', 'arima', 'prophet']</t>
-        </is>
-      </c>
+        <v>0.8017753406700401</v>
+      </c>
+      <c r="S10" t="n">
+        <v>6</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="U10" t="n">
+        <v>9.983651978305176</v>
+      </c>
+      <c r="V10" t="b">
+        <v>1</v>
+      </c>
+      <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="n">
-        <v>30.20105209678834</v>
-      </c>
+      <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
-        <v>0.2254291810116202</v>
+        <v>32.82034846925381</v>
       </c>
       <c r="AA10" t="n">
-        <v>28.76940478637961</v>
+        <v>0.2360683178911208</v>
       </c>
       <c r="AB10" t="n">
-        <v>-5.341024606358312</v>
-      </c>
-      <c r="AC10" t="b">
+        <v>30.55050911157757</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>-6.488617857435266</v>
+      </c>
+      <c r="AD10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>gbt</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>arima</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>gbt</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'order': (1, 1, 1), 'seasonal_order': (0, 0, 0, 0), 'trend': 'ct'}</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+          <t>{'max_depth': 2, 'n_estimators': 100}</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="F11" t="b">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>12</v>
       </c>
       <c r="I11" t="n">
-        <v>32.78992575121833</v>
+        <v>19.92528765556252</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2317081186962638</v>
+        <v>21.5748464118009</v>
       </c>
       <c r="K11" t="n">
-        <v>30.05262691099819</v>
+        <v>16.05654876828846</v>
       </c>
       <c r="L11" t="n">
-        <v>-6.47474119068706</v>
+        <v>-0.5967761049868441</v>
       </c>
       <c r="M11" t="n">
-        <v>90.2722393483395</v>
+        <v>10.56845917733914</v>
       </c>
       <c r="N11" t="n">
-        <v>143.1</v>
+        <v>7.299999999999983</v>
       </c>
       <c r="O11" t="n">
-        <v>17.06041459902015</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.1110036332814878</v>
-      </c>
+        <v>9.190786318521262</v>
+      </c>
+      <c r="P11" t="inlineStr"/>
       <c r="Q11" t="n">
-        <v>12.54151210494273</v>
+        <v>7.26457576837905</v>
       </c>
       <c r="R11" t="n">
-        <v>0.7990583417494741</v>
+        <v>0.7061916064030724</v>
       </c>
       <c r="S11" t="n">
         <v>6</v>
@@ -2714,85 +2754,90 @@
         </is>
       </c>
       <c r="U11" t="n">
-        <v>9.993369466007872</v>
-      </c>
-      <c r="V11" t="b">
-        <v>1</v>
-      </c>
+        <v>31.66631828995691</v>
+      </c>
+      <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="n">
-        <v>32.78992575121833</v>
-      </c>
+      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
-        <v>0.2317081186962638</v>
+        <v>78.4504502700287</v>
       </c>
       <c r="AA11" t="n">
-        <v>30.05262691099819</v>
+        <v>0.5460145967533757</v>
       </c>
       <c r="AB11" t="n">
-        <v>-6.47474119068706</v>
-      </c>
-      <c r="AC11" t="b">
+        <v>67.77115877359107</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>-41.78644213593822</v>
+      </c>
+      <c r="AD11" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>hwes</t>
+          <t>xgboost</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>hwes</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>xgboost</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>{'trend': None, 'seasonal': None, 'damped_trend': False}</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+          <t>{'max_depth': 4}</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>12</v>
       </c>
       <c r="I12" t="n">
-        <v>32.82034846925381</v>
+        <v>25.0222863676995</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2360683178911208</v>
+        <v>14.22695694111434</v>
       </c>
       <c r="K12" t="n">
-        <v>30.55050911157757</v>
+        <v>18.04098762522142</v>
       </c>
       <c r="L12" t="n">
-        <v>-6.488617857435266</v>
+        <v>-1.518191799548848</v>
       </c>
       <c r="M12" t="n">
-        <v>95.04949088842243</v>
+        <v>26.74729347229004</v>
       </c>
       <c r="N12" t="n">
-        <v>143.1</v>
+        <v>7.299999999999983</v>
       </c>
       <c r="O12" t="n">
-        <v>16.94468228690074</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.1119041572430469</v>
-      </c>
+        <v>2.718626345104153</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="n">
-        <v>12.61588789130961</v>
+        <v>2.049073522538445</v>
       </c>
       <c r="R12" t="n">
-        <v>0.8017753406700401</v>
+        <v>0.974292614933202</v>
       </c>
       <c r="S12" t="n">
         <v>6</v>
@@ -2803,57 +2848,48 @@
         </is>
       </c>
       <c r="U12" t="n">
-        <v>9.983651978305176</v>
-      </c>
-      <c r="V12" t="b">
-        <v>1</v>
-      </c>
+        <v>21.66224700979679</v>
+      </c>
+      <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="n">
-        <v>32.82034846925381</v>
-      </c>
+      <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="n">
-        <v>0.2360683178911208</v>
+        <v>109.9983196679577</v>
       </c>
       <c r="AA12" t="n">
-        <v>30.55050911157757</v>
+        <v>0.8188190567365496</v>
       </c>
       <c r="AB12" t="n">
-        <v>-6.488617857435266</v>
-      </c>
-      <c r="AC12" t="b">
+        <v>101.6035909965635</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>-83.1177011513183</v>
+      </c>
+      <c r="AD12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>weighted</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>xgboost</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'dayofyearsin', 'dayofyearcos', 'weeksin', 'weekcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
-        </is>
-      </c>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{'max_depth': 5}</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+          <t>{'how': 'weighted', 'models': ('mlr', 'knn', 'svr', 'xgboost', 'gbt', 'elasticnet', 'mlp'), 'determine_best_by': 'ValidationMetricValue'}</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -2862,91 +2898,84 @@
         <v>12</v>
       </c>
       <c r="I13" t="n">
-        <v>16.09448451040604</v>
+        <v>39.60128562526272</v>
       </c>
       <c r="J13" t="n">
-        <v>2.872699184930235</v>
+        <v>36.34495365167989</v>
       </c>
       <c r="K13" t="n">
-        <v>11.80577885111173</v>
+        <v>34.97693116002576</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.04181106965599124</v>
+        <v>-5.307443886689977</v>
       </c>
       <c r="M13" t="n">
-        <v>-11.90922832489014</v>
+        <v>72.93028163908393</v>
       </c>
       <c r="N13" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O13" t="n">
-        <v>1.101496723371816</v>
+        <v>10.28701088103086</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="n">
-        <v>0.8166510789680052</v>
+        <v>7.92056536698696</v>
       </c>
       <c r="R13" t="n">
-        <v>0.9957798753424912</v>
-      </c>
-      <c r="S13" t="n">
-        <v>6</v>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="U13" t="n">
-        <v>24.20432754381372</v>
-      </c>
+        <v>0.6319242048747931</v>
+      </c>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="n">
-        <v>35.63280363672979</v>
-      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>['mlp', 'elasticnet', 'mlr', 'knn', 'svr', 'xgboost', 'gbt']</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>(0.18834683697581542, 0.18803902975998224, 0.18778958831550313, 0.161569905839454, 0.16145691836950665, 0.09567528101466465, 0.01712243972507413)</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="n">
-        <v>0.2363669313645087</v>
+        <v>197.3457124617554</v>
       </c>
       <c r="AA13" t="n">
-        <v>29.78218400279681</v>
+        <v>1.210404847806188</v>
       </c>
       <c r="AB13" t="n">
-        <v>-7.827043821426873</v>
-      </c>
-      <c r="AC13" t="b">
+        <v>153.2066190879174</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>-269.7513833059813</v>
+      </c>
+      <c r="AD13" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>gbt</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>gbt</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'dayofyearsin', 'dayofyearcos', 'weeksin', 'weekcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
-        </is>
-      </c>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>{'max_depth': 2, 'n_estimators': 100}</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+          <t>{'how': 'simple', 'models': 'top_3', 'determine_best_by': 'ValidationMetricValue'}</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -2955,60 +2984,57 @@
         <v>12</v>
       </c>
       <c r="I14" t="n">
-        <v>17.87147906909022</v>
+        <v>71.9469114319318</v>
       </c>
       <c r="J14" t="n">
-        <v>15.26070155752357</v>
+        <v>75.22385024635092</v>
       </c>
       <c r="K14" t="n">
-        <v>14.06151707756823</v>
+        <v>63.29204867021941</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.284564213310976</v>
+        <v>-19.8189650142547</v>
       </c>
       <c r="M14" t="n">
-        <v>-4.5378216959316</v>
+        <v>116.4622062660359</v>
       </c>
       <c r="N14" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O14" t="n">
-        <v>8.876956372321729</v>
+        <v>16.80574782764307</v>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="n">
-        <v>7.014854440721088</v>
+        <v>12.47378710526542</v>
       </c>
       <c r="R14" t="n">
-        <v>0.7259138872941642</v>
-      </c>
-      <c r="S14" t="n">
-        <v>6</v>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="U14" t="n">
-        <v>30.03165310724227</v>
-      </c>
+        <v>0.01763123414509771</v>
+      </c>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>['mlp', 'elasticnet', 'mlr']</t>
+        </is>
+      </c>
       <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="n">
-        <v>37.69099336514655</v>
-      </c>
+      <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="n">
-        <v>0.2531595279643646</v>
+        <v>408.7157464360039</v>
       </c>
       <c r="AA14" t="n">
-        <v>31.22821227993218</v>
+        <v>2.594973612158374</v>
       </c>
       <c r="AB14" t="n">
-        <v>-8.876213295995749</v>
-      </c>
-      <c r="AC14" t="b">
+        <v>327.327699649084</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>-1160.336386430032</v>
+      </c>
+      <c r="AD14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3025,7 +3051,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'dayofyearsin', 'dayofyearcos', 'weeksin', 'weekcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3048,32 +3074,32 @@
         <v>12</v>
       </c>
       <c r="I15" t="n">
-        <v>217.0356495038381</v>
+        <v>217.0336818415346</v>
       </c>
       <c r="J15" t="n">
-        <v>225.8565423483551</v>
+        <v>225.8545926540665</v>
       </c>
       <c r="K15" t="n">
-        <v>192.7154337405763</v>
+        <v>192.7137544686115</v>
       </c>
       <c r="L15" t="n">
-        <v>-188.4510322514227</v>
+        <v>-188.4475971110153</v>
       </c>
       <c r="M15" t="n">
-        <v>349.4635845890697</v>
+        <v>349.4602373251853</v>
       </c>
       <c r="N15" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O15" t="n">
-        <v>16.72852145775874</v>
+        <v>16.76625713139039</v>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="n">
-        <v>12.40235726642674</v>
+        <v>12.47334348926859</v>
       </c>
       <c r="R15" t="n">
-        <v>0.02663892201456386</v>
+        <v>0.02224261433850994</v>
       </c>
       <c r="S15" t="n">
         <v>6</v>
@@ -3084,24 +3110,25 @@
         </is>
       </c>
       <c r="U15" t="n">
-        <v>9.919796606934</v>
+        <v>9.931059683765882</v>
       </c>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="n">
-        <v>1209.697221308003</v>
-      </c>
+      <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="n">
-        <v>7.559277546323455</v>
+        <v>1209.687469155379</v>
       </c>
       <c r="AA15" t="n">
-        <v>956.2688969225513</v>
+        <v>7.559220367873763</v>
       </c>
       <c r="AB15" t="n">
-        <v>-10172.45947910529</v>
-      </c>
-      <c r="AC15" t="b">
+        <v>956.2616200652577</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>-10172.29545007738</v>
+      </c>
+      <c r="AD15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12883,7 +12910,7 @@
         <v>44348</v>
       </c>
       <c r="B751" t="n">
-        <v>0.7894736842105271</v>
+        <v>-0.3499999999999986</v>
       </c>
       <c r="C751" t="inlineStr">
         <is>
@@ -12896,7 +12923,7 @@
         <v>44378</v>
       </c>
       <c r="B752" t="n">
-        <v>-1.678947368421053</v>
+        <v>0.009999999999999431</v>
       </c>
       <c r="C752" t="inlineStr">
         <is>
@@ -12909,7 +12936,7 @@
         <v>44409</v>
       </c>
       <c r="B753" t="n">
-        <v>-2.310526315789472</v>
+        <v>-2.849999999999999</v>
       </c>
       <c r="C753" t="inlineStr">
         <is>
@@ -12922,7 +12949,7 @@
         <v>44440</v>
       </c>
       <c r="B754" t="n">
-        <v>-0.7894736842105271</v>
+        <v>0.0299999999999983</v>
       </c>
       <c r="C754" t="inlineStr">
         <is>
@@ -12935,7 +12962,7 @@
         <v>44470</v>
       </c>
       <c r="B755" t="n">
-        <v>-3.515789473684209</v>
+        <v>-3.439999999999998</v>
       </c>
       <c r="C755" t="inlineStr">
         <is>
@@ -12948,7 +12975,7 @@
         <v>44501</v>
       </c>
       <c r="B756" t="n">
-        <v>-6.810526315789476</v>
+        <v>-7.1</v>
       </c>
       <c r="C756" t="inlineStr">
         <is>
@@ -12961,7 +12988,7 @@
         <v>44531</v>
       </c>
       <c r="B757" t="n">
-        <v>-6.057894736842106</v>
+        <v>-3.97</v>
       </c>
       <c r="C757" t="inlineStr">
         <is>
@@ -12974,7 +13001,7 @@
         <v>44562</v>
       </c>
       <c r="B758" t="n">
-        <v>-3.063157894736843</v>
+        <v>-1.540000000000002</v>
       </c>
       <c r="C758" t="inlineStr">
         <is>
@@ -12987,7 +13014,7 @@
         <v>44593</v>
       </c>
       <c r="B759" t="n">
-        <v>3.915789473684209</v>
+        <v>4.13</v>
       </c>
       <c r="C759" t="inlineStr">
         <is>
@@ -13000,7 +13027,7 @@
         <v>44621</v>
       </c>
       <c r="B760" t="n">
-        <v>10.18947368421053</v>
+        <v>8.02</v>
       </c>
       <c r="C760" t="inlineStr">
         <is>
@@ -13013,7 +13040,7 @@
         <v>44652</v>
       </c>
       <c r="B761" t="n">
-        <v>7.347368421052631</v>
+        <v>9.34</v>
       </c>
       <c r="C761" t="inlineStr">
         <is>
@@ -13026,7 +13053,7 @@
         <v>44682</v>
       </c>
       <c r="B762" t="n">
-        <v>5.836842105263156</v>
+        <v>3.969999999999999</v>
       </c>
       <c r="C762" t="inlineStr">
         <is>
@@ -13039,7 +13066,7 @@
         <v>44713</v>
       </c>
       <c r="B763" t="n">
-        <v>0.5894736842105265</v>
+        <v>0.8500000000000014</v>
       </c>
       <c r="C763" t="inlineStr">
         <is>
@@ -13052,7 +13079,7 @@
         <v>44743</v>
       </c>
       <c r="B764" t="n">
-        <v>-0.08421052631578956</v>
+        <v>-0.6799999999999997</v>
       </c>
       <c r="C764" t="inlineStr">
         <is>
@@ -13065,7 +13092,7 @@
         <v>44774</v>
       </c>
       <c r="B765" t="n">
-        <v>-1.910526315789472</v>
+        <v>-2.849999999999999</v>
       </c>
       <c r="C765" t="inlineStr">
         <is>
@@ -13078,7 +13105,7 @@
         <v>44805</v>
       </c>
       <c r="B766" t="n">
-        <v>-0.431578947368422</v>
+        <v>-0.8900000000000006</v>
       </c>
       <c r="C766" t="inlineStr">
         <is>
@@ -13091,7 +13118,7 @@
         <v>44835</v>
       </c>
       <c r="B767" t="n">
-        <v>-3.515789473684209</v>
+        <v>-3.439999999999998</v>
       </c>
       <c r="C767" t="inlineStr">
         <is>
@@ -13104,7 +13131,7 @@
         <v>44866</v>
       </c>
       <c r="B768" t="n">
-        <v>-6.810526315789476</v>
+        <v>-8.830000000000002</v>
       </c>
       <c r="C768" t="inlineStr">
         <is>
@@ -13117,7 +13144,7 @@
         <v>44896</v>
       </c>
       <c r="B769" t="n">
-        <v>-6.057894736842106</v>
+        <v>-3.97</v>
       </c>
       <c r="C769" t="inlineStr">
         <is>
@@ -13130,7 +13157,7 @@
         <v>44927</v>
       </c>
       <c r="B770" t="n">
-        <v>-3.063157894736843</v>
+        <v>-1.540000000000002</v>
       </c>
       <c r="C770" t="inlineStr">
         <is>
@@ -13143,7 +13170,7 @@
         <v>44958</v>
       </c>
       <c r="B771" t="n">
-        <v>3.915789473684209</v>
+        <v>4.970000000000001</v>
       </c>
       <c r="C771" t="inlineStr">
         <is>
@@ -13156,7 +13183,7 @@
         <v>44986</v>
       </c>
       <c r="B772" t="n">
-        <v>7.842105263157895</v>
+        <v>7.280000000000001</v>
       </c>
       <c r="C772" t="inlineStr">
         <is>
@@ -13169,7 +13196,7 @@
         <v>45017</v>
       </c>
       <c r="B773" t="n">
-        <v>8.752631578947371</v>
+        <v>8.940000000000001</v>
       </c>
       <c r="C773" t="inlineStr">
         <is>
@@ -13182,7 +13209,7 @@
         <v>45047</v>
       </c>
       <c r="B774" t="n">
-        <v>4.789473684210525</v>
+        <v>3.969999999999999</v>
       </c>
       <c r="C774" t="inlineStr">
         <is>
@@ -13195,7 +13222,7 @@
         <v>45078</v>
       </c>
       <c r="B775" t="n">
-        <v>0.5894736842105265</v>
+        <v>0.5700000000000003</v>
       </c>
       <c r="C775" t="inlineStr">
         <is>
@@ -13245,57 +13272,57 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>elasticnet</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>prophet</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>avg_level</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>arima</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>weighted_level</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>hwes</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>gbt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>xgboost</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>avg</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>mlp</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>elasticnet</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>weighted</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>prophet</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>weighted_level</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>avg_level</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>arima</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>hwes</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>xgboost</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>gbt</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -13312,46 +13339,46 @@
         <v>118.8</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.6736842105263149</v>
+        <v>-0.8599999999999994</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.426332306531278</v>
+        <v>2.8267494407946</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.4899354285898678</v>
+        <v>-0.06624281324630488</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0360981057756149</v>
+        <v>-0.00737587333869702</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.007375873462710292</v>
+        <v>121.2786608290207</v>
       </c>
       <c r="H2" t="n">
-        <v>-10.03709637964777</v>
+        <v>106.1613011999261</v>
       </c>
       <c r="I2" t="n">
-        <v>121.2786608290207</v>
+        <v>102.1557518823351</v>
       </c>
       <c r="J2" t="n">
-        <v>117.785010585223</v>
+        <v>99.58936177142756</v>
       </c>
       <c r="K2" t="n">
-        <v>106.1613011999261</v>
+        <v>95.04949088842243</v>
       </c>
       <c r="L2" t="n">
-        <v>102.1557518823351</v>
+        <v>-21.83940900583591</v>
       </c>
       <c r="M2" t="n">
-        <v>95.04949088842243</v>
+        <v>-44.91608810424805</v>
       </c>
       <c r="N2" t="n">
-        <v>-15.96514320373535</v>
+        <v>-2.927720925758575</v>
       </c>
       <c r="O2" t="n">
-        <v>-15.40413623015926</v>
+        <v>13.22797970211588</v>
       </c>
       <c r="P2" t="n">
-        <v>39.75755891448348</v>
+        <v>39.75755779293263</v>
       </c>
     </row>
     <row r="3">
@@ -13362,46 +13389,46 @@
         <v>138.7</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.578947368421052</v>
+        <v>-1.689999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.420115598827032</v>
+        <v>-1.25990846321783</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4878631866590306</v>
+        <v>-0.06624281750720229</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.03609810579874306</v>
+        <v>-0.007375855225168926</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.007375855351316629</v>
+        <v>113.3807601372476</v>
       </c>
       <c r="H3" t="n">
-        <v>13.48934821573684</v>
+        <v>102.827560312788</v>
       </c>
       <c r="I3" t="n">
-        <v>113.3807601372476</v>
+        <v>100.052429912694</v>
       </c>
       <c r="J3" t="n">
-        <v>110.9419025901608</v>
+        <v>98.23979275603649</v>
       </c>
       <c r="K3" t="n">
-        <v>102.827560312788</v>
+        <v>95.04949088842243</v>
       </c>
       <c r="L3" t="n">
-        <v>100.052429912694</v>
+        <v>6.382823706390362</v>
       </c>
       <c r="M3" t="n">
-        <v>95.04949088842243</v>
+        <v>0.4673192203044891</v>
       </c>
       <c r="N3" t="n">
-        <v>7.883719921112061</v>
+        <v>13.55981877092411</v>
       </c>
       <c r="O3" t="n">
-        <v>19.83041874122215</v>
+        <v>23.00033446182202</v>
       </c>
       <c r="P3" t="n">
-        <v>69.07495568106238</v>
+        <v>69.07462205819843</v>
       </c>
     </row>
     <row r="4">
@@ -13412,46 +13439,46 @@
         <v>122.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-4.442105263157893</v>
+        <v>-3.580000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.413646534405677</v>
+        <v>-5.432123017413437</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.4857068255399941</v>
+        <v>-0.06624282154268712</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.03609810582477735</v>
+        <v>-0.007375836261387075</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.007375836389527851</v>
+        <v>112.7922038068271</v>
       </c>
       <c r="H4" t="n">
-        <v>-16.34355731666859</v>
+        <v>102.1933670723997</v>
       </c>
       <c r="I4" t="n">
-        <v>112.7922038068271</v>
+        <v>98.73840652194941</v>
       </c>
       <c r="J4" t="n">
-        <v>110.3425847051174</v>
+        <v>97.58563841540412</v>
       </c>
       <c r="K4" t="n">
-        <v>102.1933670723997</v>
+        <v>95.04949088842243</v>
       </c>
       <c r="L4" t="n">
-        <v>98.73840652194941</v>
+        <v>-30.97149294047616</v>
       </c>
       <c r="M4" t="n">
-        <v>95.04949088842243</v>
+        <v>-34.81304550170898</v>
       </c>
       <c r="N4" t="n">
-        <v>-16.4487361907959</v>
+        <v>6.166503594729833</v>
       </c>
       <c r="O4" t="n">
-        <v>-34.62715114767208</v>
+        <v>32.69332991686343</v>
       </c>
       <c r="P4" t="n">
-        <v>98.15408879708407</v>
+        <v>98.15360840839435</v>
       </c>
     </row>
     <row r="5">
@@ -13462,46 +13489,46 @@
         <v>126.3</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.831578947368421</v>
+        <v>-4.07</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.408555210425551</v>
+        <v>-8.518268860255077</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.4840097113557731</v>
+        <v>-0.06624282566269812</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0360981058491987</v>
+        <v>-0.007375817663049955</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.007375817792569517</v>
+        <v>105.0621420223388</v>
       </c>
       <c r="H5" t="n">
-        <v>15.8320446848751</v>
+        <v>99.26647392293394</v>
       </c>
       <c r="I5" t="n">
-        <v>105.0621420223388</v>
+        <v>97.68778885804055</v>
       </c>
       <c r="J5" t="n">
-        <v>103.7227383785274</v>
+        <v>96.74692692576738</v>
       </c>
       <c r="K5" t="n">
-        <v>99.26647392293394</v>
+        <v>95.04949088842243</v>
       </c>
       <c r="L5" t="n">
-        <v>97.68778885804055</v>
+        <v>6.382823706390362</v>
       </c>
       <c r="M5" t="n">
-        <v>95.04949088842243</v>
+        <v>-5.528274059295654</v>
       </c>
       <c r="N5" t="n">
-        <v>7.883719921112061</v>
+        <v>21.68986916193774</v>
       </c>
       <c r="O5" t="n">
-        <v>19.83041874122215</v>
+        <v>42.30750806334375</v>
       </c>
       <c r="P5" t="n">
-        <v>126.9970434411698</v>
+        <v>126.996142833357</v>
       </c>
     </row>
     <row r="6">
@@ -13512,46 +13539,46 @@
         <v>131.2</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2578947368421056</v>
+        <v>-2.1</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.407134886452824</v>
+        <v>-9.693335279169055</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.4835362637531403</v>
+        <v>-0.06624282976778773</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.03609810587428797</v>
+        <v>-0.007375798802678496</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.007375798932309219</v>
+        <v>111.9577281062473</v>
       </c>
       <c r="H6" t="n">
-        <v>-7.606987300714778</v>
+        <v>101.2440980944599</v>
       </c>
       <c r="I6" t="n">
-        <v>111.9577281062473</v>
+        <v>96.72507528871006</v>
       </c>
       <c r="J6" t="n">
-        <v>109.4812475884456</v>
+        <v>96.58627757163283</v>
       </c>
       <c r="K6" t="n">
-        <v>101.2440980944599</v>
+        <v>95.04949088842243</v>
       </c>
       <c r="L6" t="n">
-        <v>96.72507528871006</v>
+        <v>-17.7138816079046</v>
       </c>
       <c r="M6" t="n">
-        <v>95.04949088842243</v>
+        <v>3.249172687530518</v>
       </c>
       <c r="N6" t="n">
-        <v>-17.13884162902832</v>
+        <v>24.75549974319282</v>
       </c>
       <c r="O6" t="n">
-        <v>-20.20014721079773</v>
+        <v>51.84358090595912</v>
       </c>
       <c r="P6" t="n">
-        <v>155.605664751958</v>
+        <v>155.6043613464478</v>
       </c>
     </row>
     <row r="7">
@@ -13562,46 +13589,46 @@
         <v>117.8</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.321052631578946</v>
+        <v>-0.8599999999999994</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.409081908421837</v>
+        <v>-8.71427971686551</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.4841852649636196</v>
+        <v>-0.06624283378741325</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.03609810589884432</v>
+        <v>-0.007375780441514851</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.007375780570177765</v>
+        <v>88.508425599294</v>
       </c>
       <c r="H7" t="n">
-        <v>-2.934016062133626</v>
+        <v>93.11653789115836</v>
       </c>
       <c r="I7" t="n">
-        <v>88.508425599294</v>
+        <v>95.79169718575862</v>
       </c>
       <c r="J7" t="n">
-        <v>89.57383675538944</v>
+        <v>95.12007781161981</v>
       </c>
       <c r="K7" t="n">
-        <v>93.11653789115836</v>
+        <v>95.04949088842243</v>
       </c>
       <c r="L7" t="n">
-        <v>95.79169718575862</v>
+        <v>-25.91716148152943</v>
       </c>
       <c r="M7" t="n">
-        <v>95.04949088842243</v>
+        <v>-43.05313110351562</v>
       </c>
       <c r="N7" t="n">
-        <v>-16.98393249511719</v>
+        <v>21.71148878490677</v>
       </c>
       <c r="O7" t="n">
-        <v>-11.4122576982252</v>
+        <v>61.30219361437663</v>
       </c>
       <c r="P7" t="n">
-        <v>183.9818113830515</v>
+        <v>183.9801994573588</v>
       </c>
     </row>
     <row r="8">
@@ -13612,46 +13639,46 @@
         <v>115.1</v>
       </c>
       <c r="C8" t="n">
-        <v>-5.305263157894737</v>
+        <v>-4.710000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.414011321110072</v>
+        <v>-5.713143583858779</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.4858283962510246</v>
+        <v>-0.06624283789719243</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.03609810592372042</v>
+        <v>-0.007375761592573027</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.007375761719281587</v>
+        <v>73.11734278487693</v>
       </c>
       <c r="H8" t="n">
-        <v>-4.331917615362555</v>
+        <v>87.67831420843403</v>
       </c>
       <c r="I8" t="n">
-        <v>73.11734278487693</v>
+        <v>94.86810895200274</v>
       </c>
       <c r="J8" t="n">
-        <v>76.48348230367456</v>
+        <v>94.00898212064845</v>
       </c>
       <c r="K8" t="n">
-        <v>87.67831420843403</v>
+        <v>95.04949088842243</v>
       </c>
       <c r="L8" t="n">
-        <v>94.86810895200274</v>
+        <v>-29.84251602247724</v>
       </c>
       <c r="M8" t="n">
-        <v>95.04949088842243</v>
+        <v>-23.2375316619873</v>
       </c>
       <c r="N8" t="n">
-        <v>-6.899023056030273</v>
+        <v>29.42006081547818</v>
       </c>
       <c r="O8" t="n">
-        <v>-24.14151215846267</v>
+        <v>70.6840187871634</v>
       </c>
       <c r="P8" t="n">
-        <v>212.1275677278535</v>
+        <v>212.1256749609799</v>
       </c>
     </row>
     <row r="9">
@@ -13662,46 +13689,46 @@
         <v>115.2</v>
       </c>
       <c r="C9" t="n">
-        <v>-6.115789473684213</v>
+        <v>-2.110000000000002</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.417996685410534</v>
+        <v>-1.600234497656915</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.4871568447573691</v>
+        <v>-0.06624284194890606</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.03609810594805651</v>
+        <v>-0.007375742787818884</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.007375742913516725</v>
+        <v>68.15548726509039</v>
       </c>
       <c r="H9" t="n">
-        <v>1.917533424420342</v>
+        <v>85.71758865312465</v>
       </c>
       <c r="I9" t="n">
-        <v>68.15548726509039</v>
+        <v>93.94778780586115</v>
       </c>
       <c r="J9" t="n">
-        <v>72.21527243690625</v>
+        <v>93.35297637815512</v>
       </c>
       <c r="K9" t="n">
-        <v>85.71758865312465</v>
+        <v>95.04949088842243</v>
       </c>
       <c r="L9" t="n">
-        <v>93.94778780586115</v>
+        <v>-23.5425904972807</v>
       </c>
       <c r="M9" t="n">
-        <v>95.04949088842243</v>
+        <v>-14.75483417510986</v>
       </c>
       <c r="N9" t="n">
-        <v>-1.764438986778259</v>
+        <v>38.327091989816</v>
       </c>
       <c r="O9" t="n">
-        <v>-15.69708733252478</v>
+        <v>79.98964005992558</v>
       </c>
       <c r="P9" t="n">
-        <v>240.0446067998345</v>
+        <v>240.0425387645134</v>
       </c>
     </row>
     <row r="10">
@@ -13712,46 +13739,46 @@
         <v>102.1</v>
       </c>
       <c r="C10" t="n">
-        <v>2.610526315789472</v>
+        <v>3.2</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.424426072063461</v>
+        <v>2.526288989634081</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.4892999675331249</v>
+        <v>-0.06624284595577024</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.03609810597249918</v>
+        <v>-0.007375724439957848</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.007375724563414204</v>
+        <v>68.74510987839574</v>
       </c>
       <c r="H10" t="n">
-        <v>1.559830790590749</v>
+        <v>85.60771924105889</v>
       </c>
       <c r="I10" t="n">
-        <v>68.74510987839574</v>
+        <v>93.02855695635849</v>
       </c>
       <c r="J10" t="n">
-        <v>72.64304041008509</v>
+        <v>92.93890469484828</v>
       </c>
       <c r="K10" t="n">
-        <v>85.60771924105889</v>
+        <v>95.04949088842243</v>
       </c>
       <c r="L10" t="n">
-        <v>93.02855695635849</v>
+        <v>2.127157603873985</v>
       </c>
       <c r="M10" t="n">
-        <v>95.04949088842243</v>
+        <v>-14.32335090637207</v>
       </c>
       <c r="N10" t="n">
-        <v>-17.66440010070801</v>
+        <v>49.5301088845857</v>
       </c>
       <c r="O10" t="n">
-        <v>-9.579683886777353</v>
+        <v>89.21966563368532</v>
       </c>
       <c r="P10" t="n">
-        <v>267.7349905264418</v>
+        <v>267.7326154714517</v>
       </c>
     </row>
     <row r="11">
@@ -13762,46 +13789,46 @@
         <v>140.6</v>
       </c>
       <c r="C11" t="n">
-        <v>5.963157894736841</v>
+        <v>4.7</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.428982690245899</v>
+        <v>5.676287313735113</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4908188340815893</v>
+        <v>-0.06624285009368691</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.03609810599667185</v>
+        <v>-0.007375705880088512</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.007375706002196836</v>
+        <v>100.2406918167905</v>
       </c>
       <c r="H11" t="n">
-        <v>35.25271940130121</v>
+        <v>95.7999575557505</v>
       </c>
       <c r="I11" t="n">
-        <v>100.2406918167905</v>
+        <v>92.10968996203853</v>
       </c>
       <c r="J11" t="n">
-        <v>99.21362126245155</v>
+        <v>93.86898884136406</v>
       </c>
       <c r="K11" t="n">
-        <v>95.7999575557505</v>
+        <v>95.04949088842243</v>
       </c>
       <c r="L11" t="n">
-        <v>92.10968996203853</v>
+        <v>30.81143409175561</v>
       </c>
       <c r="M11" t="n">
-        <v>95.04949088842243</v>
+        <v>33.28797149658203</v>
       </c>
       <c r="N11" t="n">
-        <v>21.33368110656738</v>
+        <v>67.90051951645556</v>
       </c>
       <c r="O11" t="n">
-        <v>37.58221675517773</v>
+        <v>98.37473210200567</v>
       </c>
       <c r="P11" t="n">
-        <v>295.2006153557922</v>
+        <v>295.1978148619908</v>
       </c>
     </row>
     <row r="12">
@@ -13812,46 +13839,46 @@
         <v>135.8</v>
       </c>
       <c r="C12" t="n">
-        <v>1.321052631578945</v>
+        <v>1.189999999999998</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.431641140300675</v>
+        <v>6.788896817895228</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.4917049780870497</v>
+        <v>-0.06624285400587837</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.03609810602094399</v>
+        <v>-0.007375687817907511</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.007375687939529696</v>
+        <v>115.5985301063296</v>
       </c>
       <c r="H12" t="n">
-        <v>19.95695653747653</v>
+        <v>100.6129884628952</v>
       </c>
       <c r="I12" t="n">
-        <v>115.5985301063296</v>
+        <v>91.19094439393348</v>
       </c>
       <c r="J12" t="n">
-        <v>112.1335897893585</v>
+        <v>94.09736241895453</v>
       </c>
       <c r="K12" t="n">
-        <v>100.6129884628952</v>
+        <v>95.04949088842243</v>
       </c>
       <c r="L12" t="n">
-        <v>91.19094439393348</v>
+        <v>-8.96735097449988</v>
       </c>
       <c r="M12" t="n">
-        <v>95.04949088842243</v>
+        <v>-12.72276592254639</v>
       </c>
       <c r="N12" t="n">
-        <v>8.229283332824707</v>
+        <v>58.7238476352881</v>
       </c>
       <c r="O12" t="n">
-        <v>9.704507495450986</v>
+        <v>107.455353933568</v>
       </c>
       <c r="P12" t="n">
-        <v>322.4427169191148</v>
+        <v>322.4396803425277</v>
       </c>
     </row>
     <row r="13">
@@ -13862,46 +13889,46 @@
         <v>143.1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.947368421052632</v>
+        <v>-0.05</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.431076006180849</v>
+        <v>5.825054634025459</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.4915165937821116</v>
+        <v>-0.06624285807981778</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.03609810604567087</v>
+        <v>-0.00737566899760278</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.007375669119814882</v>
+        <v>119.9019776087841</v>
       </c>
       <c r="H13" t="n">
-        <v>8.672464958038521</v>
+        <v>101.7412359485154</v>
       </c>
       <c r="I13" t="n">
-        <v>119.9019776087841</v>
+        <v>90.2722393483395</v>
       </c>
       <c r="J13" t="n">
-        <v>115.7028547999301</v>
+        <v>93.84504227080988</v>
       </c>
       <c r="K13" t="n">
-        <v>101.7412359485154</v>
+        <v>95.04949088842243</v>
       </c>
       <c r="L13" t="n">
-        <v>90.2722393483395</v>
+        <v>10.56845917733914</v>
       </c>
       <c r="M13" t="n">
-        <v>95.04949088842243</v>
+        <v>26.74729347229004</v>
       </c>
       <c r="N13" t="n">
-        <v>-11.90922832489014</v>
+        <v>72.93028163908393</v>
       </c>
       <c r="O13" t="n">
-        <v>-4.5378216959316</v>
+        <v>116.4622062660359</v>
       </c>
       <c r="P13" t="n">
-        <v>349.4635845890697</v>
+        <v>349.4602373251853</v>
       </c>
     </row>
   </sheetData>
@@ -13941,57 +13968,57 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>elasticnet</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>prophet</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>avg_level</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>arima</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>weighted_level</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>hwes</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>gbt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>xgboost</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>avg</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>mlp</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>elasticnet</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>weighted</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>prophet</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>weighted_level</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>avg_level</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>arima</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>hwes</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>xgboost</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>gbt</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -14005,46 +14032,46 @@
         <v>44348</v>
       </c>
       <c r="B2" t="n">
-        <v>143.8894736842105</v>
+        <v>142.75</v>
       </c>
       <c r="C2" t="n">
-        <v>142.083343418079</v>
+        <v>149.0503341460492</v>
       </c>
       <c r="D2" t="n">
-        <v>142.7872785407077</v>
+        <v>143.1120539770899</v>
       </c>
       <c r="E2" t="n">
-        <v>143.1211314737749</v>
+        <v>143.1573607304412</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1573607302691</v>
+        <v>121.2109306768289</v>
       </c>
       <c r="G2" t="n">
-        <v>145.0364787237908</v>
+        <v>120.5133424676788</v>
       </c>
       <c r="H2" t="n">
-        <v>121.2109306768289</v>
+        <v>97.2290968349859</v>
       </c>
       <c r="I2" t="n">
-        <v>121.0422867713166</v>
+        <v>120.2058796877672</v>
       </c>
       <c r="J2" t="n">
-        <v>120.5133424676788</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="K2" t="n">
-        <v>97.2290968349859</v>
+        <v>147.622953371747</v>
       </c>
       <c r="L2" t="n">
-        <v>143.0999998912215</v>
+        <v>145.705320930481</v>
       </c>
       <c r="M2" t="n">
-        <v>148.8172532081604</v>
+        <v>145.3491705989147</v>
       </c>
       <c r="N2" t="n">
-        <v>143.3237062901886</v>
+        <v>143.1951250946032</v>
       </c>
       <c r="O2" t="n">
-        <v>143.2444575053463</v>
+        <v>143.3159605762785</v>
       </c>
     </row>
     <row r="3">
@@ -14052,46 +14079,46 @@
         <v>44378</v>
       </c>
       <c r="B3" t="n">
-        <v>142.2105263157895</v>
+        <v>142.76</v>
       </c>
       <c r="C3" t="n">
-        <v>141.0515645713804</v>
+        <v>150.9613780029637</v>
       </c>
       <c r="D3" t="n">
-        <v>142.469523613755</v>
+        <v>143.1241059100375</v>
       </c>
       <c r="E3" t="n">
-        <v>143.1422847862572</v>
+        <v>143.2147214839734</v>
       </c>
       <c r="F3" t="n">
-        <v>143.2147214836273</v>
+        <v>115.3971655936528</v>
       </c>
       <c r="G3" t="n">
-        <v>149.2332627961957</v>
+        <v>118.6748958252556</v>
       </c>
       <c r="H3" t="n">
-        <v>115.3971655936528</v>
+        <v>97.52752199089267</v>
       </c>
       <c r="I3" t="n">
-        <v>116.1475737845387</v>
+        <v>120.0958123504019</v>
       </c>
       <c r="J3" t="n">
-        <v>118.6748958252556</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="K3" t="n">
-        <v>97.52752199089267</v>
+        <v>150.177743575508</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0999998912215</v>
+        <v>159.297060585022</v>
       </c>
       <c r="M3" t="n">
-        <v>161.1744881629944</v>
+        <v>148.3648688955403</v>
       </c>
       <c r="N3" t="n">
-        <v>144.5708308005843</v>
+        <v>143.2903720933962</v>
       </c>
       <c r="O3" t="n">
-        <v>143.3891688022464</v>
+        <v>143.5322888861778</v>
       </c>
     </row>
     <row r="4">
@@ -14099,46 +14126,46 @@
         <v>44409</v>
       </c>
       <c r="B4" t="n">
-        <v>139.9</v>
+        <v>139.91</v>
       </c>
       <c r="C4" t="n">
-        <v>139.5672716005801</v>
+        <v>147.8047795077601</v>
       </c>
       <c r="D4" t="n">
-        <v>142.0009356499795</v>
+        <v>143.1361558008311</v>
       </c>
       <c r="E4" t="n">
-        <v>143.1634530891842</v>
+        <v>143.2720822606962</v>
       </c>
       <c r="F4" t="n">
-        <v>143.2720822601742</v>
+        <v>113.5034203267793</v>
       </c>
       <c r="G4" t="n">
-        <v>142.6417373509361</v>
+        <v>118.0798404258526</v>
       </c>
       <c r="H4" t="n">
-        <v>113.5034203267793</v>
+        <v>97.63610105955703</v>
       </c>
       <c r="I4" t="n">
-        <v>114.5540738316936</v>
+        <v>120.0653991884817</v>
       </c>
       <c r="J4" t="n">
-        <v>118.0798404258526</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="K4" t="n">
-        <v>97.63610105955703</v>
+        <v>148.369365091948</v>
       </c>
       <c r="L4" t="n">
-        <v>143.0999998912215</v>
+        <v>152.3237157821655</v>
       </c>
       <c r="M4" t="n">
-        <v>147.3262539863586</v>
+        <v>145.8640261354667</v>
       </c>
       <c r="N4" t="n">
-        <v>139.9305946760885</v>
+        <v>143.38573098129</v>
       </c>
       <c r="O4" t="n">
-        <v>143.5339711186579</v>
+        <v>143.7489548823427</v>
       </c>
     </row>
     <row r="5">
@@ -14146,46 +14173,46 @@
         <v>44440</v>
       </c>
       <c r="B5" t="n">
-        <v>139.1105263157895</v>
+        <v>139.94</v>
       </c>
       <c r="C5" t="n">
-        <v>142.2501305345947</v>
+        <v>142.1378858070531</v>
       </c>
       <c r="D5" t="n">
-        <v>142.9214052202255</v>
+        <v>143.1482036459418</v>
       </c>
       <c r="E5" t="n">
-        <v>143.1846420665285</v>
+        <v>143.3294430602527</v>
       </c>
       <c r="F5" t="n">
-        <v>143.3294430595534</v>
+        <v>106.6635638332916</v>
       </c>
       <c r="G5" t="n">
-        <v>143.8306509322822</v>
+        <v>115.8238186974665</v>
       </c>
       <c r="H5" t="n">
-        <v>106.6635638332916</v>
+        <v>97.70789236788656</v>
       </c>
       <c r="I5" t="n">
-        <v>108.7739082568577</v>
+        <v>119.8023012497163</v>
       </c>
       <c r="J5" t="n">
-        <v>115.8238186974665</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="K5" t="n">
-        <v>97.70789236788656</v>
+        <v>148.0558052808865</v>
       </c>
       <c r="L5" t="n">
-        <v>143.0999998912215</v>
+        <v>157.703982925415</v>
       </c>
       <c r="M5" t="n">
-        <v>155.0943127632141</v>
+        <v>145.670696923228</v>
       </c>
       <c r="N5" t="n">
-        <v>136.9238392573295</v>
+        <v>143.4811736894939</v>
       </c>
       <c r="O5" t="n">
-        <v>143.679080555161</v>
+        <v>143.9658743622872</v>
       </c>
     </row>
     <row r="6">
@@ -14193,46 +14220,46 @@
         <v>44470</v>
       </c>
       <c r="B6" t="n">
-        <v>135.5947368421052</v>
+        <v>136.5</v>
       </c>
       <c r="C6" t="n">
-        <v>143.1608213873808</v>
+        <v>136.3738032577548</v>
       </c>
       <c r="D6" t="n">
-        <v>143.2511584759761</v>
+        <v>143.1602494547414</v>
       </c>
       <c r="E6" t="n">
-        <v>143.2058501585503</v>
+        <v>143.386803882874</v>
       </c>
       <c r="F6" t="n">
-        <v>143.3868038819971</v>
+        <v>111.5786596921732</v>
       </c>
       <c r="G6" t="n">
-        <v>146.3584682280425</v>
+        <v>117.4837382154931</v>
       </c>
       <c r="H6" t="n">
-        <v>111.5786596921732</v>
+        <v>97.77255506308472</v>
       </c>
       <c r="I6" t="n">
-        <v>112.9364910495767</v>
+        <v>120.0469712025408</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4837382154931</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="K6" t="n">
-        <v>97.77255506308472</v>
+        <v>150.4555185014484</v>
       </c>
       <c r="L6" t="n">
-        <v>143.0999998912215</v>
+        <v>164.296150302887</v>
       </c>
       <c r="M6" t="n">
-        <v>162.2827635765076</v>
+        <v>145.4405617371572</v>
       </c>
       <c r="N6" t="n">
-        <v>138.3203548578109</v>
+        <v>143.5767170235114</v>
       </c>
       <c r="O6" t="n">
-        <v>143.8244795498751</v>
+        <v>144.183097732919</v>
       </c>
     </row>
     <row r="7">
@@ -14240,46 +14267,46 @@
         <v>44501</v>
       </c>
       <c r="B7" t="n">
-        <v>128.7842105263158</v>
+        <v>129.4</v>
       </c>
       <c r="C7" t="n">
-        <v>134.8382780106038</v>
+        <v>128.0176800408655</v>
       </c>
       <c r="D7" t="n">
-        <v>140.5031730962812</v>
+        <v>143.1722932472848</v>
       </c>
       <c r="E7" t="n">
-        <v>143.2270765512131</v>
+        <v>143.4441647280801</v>
       </c>
       <c r="F7" t="n">
-        <v>143.4441647270266</v>
+        <v>89.82982520681512</v>
       </c>
       <c r="G7" t="n">
-        <v>138.3541677026491</v>
+        <v>110.2552204989131</v>
       </c>
       <c r="H7" t="n">
-        <v>89.82982520681512</v>
+        <v>97.83583639870257</v>
       </c>
       <c r="I7" t="n">
-        <v>94.544436990493</v>
+        <v>119.1314681950471</v>
       </c>
       <c r="J7" t="n">
-        <v>110.2552204989131</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="K7" t="n">
-        <v>97.83583639870257</v>
+        <v>142.4431286934729</v>
       </c>
       <c r="L7" t="n">
-        <v>143.0999998912215</v>
+        <v>156.277161693573</v>
       </c>
       <c r="M7" t="n">
-        <v>154.7466159820557</v>
+        <v>139.993669908686</v>
       </c>
       <c r="N7" t="n">
-        <v>127.4002781449292</v>
+        <v>143.6723546498297</v>
       </c>
       <c r="O7" t="n">
-        <v>143.970111619002</v>
+        <v>144.4006059741242</v>
       </c>
     </row>
     <row r="8">
@@ -14287,46 +14314,46 @@
         <v>44531</v>
       </c>
       <c r="B8" t="n">
-        <v>122.7263157894737</v>
+        <v>125.43</v>
       </c>
       <c r="C8" t="n">
-        <v>130.1987255459993</v>
+        <v>124.815363933563</v>
       </c>
       <c r="D8" t="n">
-        <v>138.9828580425074</v>
+        <v>143.1843350125139</v>
       </c>
       <c r="E8" t="n">
-        <v>143.2483229864393</v>
+        <v>143.501525596312</v>
       </c>
       <c r="F8" t="n">
-        <v>143.5015255950835</v>
+        <v>74.44263565948754</v>
       </c>
       <c r="G8" t="n">
-        <v>133.3292162385173</v>
+        <v>105.1471618698803</v>
       </c>
       <c r="H8" t="n">
-        <v>74.44263565948754</v>
+        <v>97.89885005893183</v>
       </c>
       <c r="I8" t="n">
-        <v>81.53356116646013</v>
+        <v>118.4924807145869</v>
       </c>
       <c r="J8" t="n">
-        <v>105.1471618698803</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="K8" t="n">
-        <v>97.89885005893183</v>
+        <v>138.0438238043548</v>
       </c>
       <c r="L8" t="n">
-        <v>143.0999998912215</v>
+        <v>149.2996521949768</v>
       </c>
       <c r="M8" t="n">
-        <v>152.98634288311</v>
+        <v>136.8548818585013</v>
       </c>
       <c r="N8" t="n">
-        <v>118.7214227042098</v>
+        <v>143.768135126296</v>
       </c>
       <c r="O8" t="n">
-        <v>144.1161306659037</v>
+        <v>144.6185447700622</v>
       </c>
     </row>
     <row r="9">
@@ -14334,46 +14361,46 @@
         <v>44562</v>
       </c>
       <c r="B9" t="n">
-        <v>119.6631578947368</v>
+        <v>123.89</v>
       </c>
       <c r="C9" t="n">
-        <v>129.0538078660505</v>
+        <v>125.0801061097166</v>
       </c>
       <c r="D9" t="n">
-        <v>138.6274277646953</v>
+        <v>143.1963747629798</v>
       </c>
       <c r="E9" t="n">
-        <v>143.2695889419495</v>
+        <v>143.5588864874884</v>
       </c>
       <c r="F9" t="n">
-        <v>143.5588864860857</v>
+        <v>69.68506594964725</v>
       </c>
       <c r="G9" t="n">
-        <v>131.2285288001663</v>
+        <v>103.5822925635865</v>
       </c>
       <c r="H9" t="n">
-        <v>69.68506594964725</v>
+        <v>97.96181184989064</v>
       </c>
       <c r="I9" t="n">
-        <v>77.51408201829267</v>
+        <v>118.3157098707237</v>
       </c>
       <c r="J9" t="n">
-        <v>103.5822925635865</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="K9" t="n">
-        <v>97.96181184989064</v>
+        <v>137.4708518954281</v>
       </c>
       <c r="L9" t="n">
-        <v>143.0999998912215</v>
+        <v>141.1755457878113</v>
       </c>
       <c r="M9" t="n">
-        <v>151.5444037675857</v>
+        <v>135.2567273023251</v>
       </c>
       <c r="N9" t="n">
-        <v>115.6578431892385</v>
+        <v>143.8640722004569</v>
       </c>
       <c r="O9" t="n">
-        <v>144.2624338891839</v>
+        <v>144.8369553509025</v>
       </c>
     </row>
     <row r="10">
@@ -14381,46 +14408,46 @@
         <v>44593</v>
       </c>
       <c r="B10" t="n">
-        <v>123.578947368421</v>
+        <v>128.02</v>
       </c>
       <c r="C10" t="n">
-        <v>131.470081451987</v>
+        <v>126.7450284697335</v>
       </c>
       <c r="D10" t="n">
-        <v>139.4590674113228</v>
+        <v>143.2084125099659</v>
       </c>
       <c r="E10" t="n">
-        <v>143.2908733823615</v>
+        <v>143.6162474011943</v>
       </c>
       <c r="F10" t="n">
-        <v>143.6162473996198</v>
+        <v>71.4537447070857</v>
       </c>
       <c r="G10" t="n">
-        <v>133.4567257805044</v>
+        <v>104.1928360626991</v>
       </c>
       <c r="H10" t="n">
-        <v>71.4537447070857</v>
+        <v>98.0247635897901</v>
       </c>
       <c r="I10" t="n">
-        <v>79.01503610870508</v>
+        <v>118.4227357648864</v>
       </c>
       <c r="J10" t="n">
-        <v>104.1928360626991</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="K10" t="n">
-        <v>98.0247635897901</v>
+        <v>141.9982749434797</v>
       </c>
       <c r="L10" t="n">
-        <v>143.0999998912215</v>
+        <v>154.3225756645203</v>
       </c>
       <c r="M10" t="n">
-        <v>156.5211393594742</v>
+        <v>139.248055913056</v>
       </c>
       <c r="N10" t="n">
-        <v>116.0478270500284</v>
+        <v>143.9601733835787</v>
       </c>
       <c r="O10" t="n">
-        <v>144.4089599318105</v>
+        <v>145.0558602395762</v>
       </c>
     </row>
     <row r="11">
@@ -14428,46 +14455,46 @@
         <v>44621</v>
       </c>
       <c r="B11" t="n">
-        <v>133.7684210526316</v>
+        <v>136.04</v>
       </c>
       <c r="C11" t="n">
-        <v>149.7658167135062</v>
+        <v>136.0427490941574</v>
       </c>
       <c r="D11" t="n">
-        <v>145.5838682748484</v>
+        <v>143.2204482309233</v>
       </c>
       <c r="E11" t="n">
-        <v>143.3121797751708</v>
+        <v>143.6736083376133</v>
       </c>
       <c r="F11" t="n">
-        <v>143.6736083358684</v>
+        <v>100.2263802320934</v>
       </c>
       <c r="G11" t="n">
-        <v>144.79544675374</v>
+        <v>113.8046978351142</v>
       </c>
       <c r="H11" t="n">
-        <v>100.2263802320934</v>
+        <v>98.08771338202779</v>
       </c>
       <c r="I11" t="n">
-        <v>103.358142354015</v>
+        <v>119.7040593639259</v>
       </c>
       <c r="J11" t="n">
-        <v>113.8046978351142</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="K11" t="n">
-        <v>98.08771338202779</v>
+        <v>161.6368682476502</v>
       </c>
       <c r="L11" t="n">
-        <v>143.0999998912215</v>
+        <v>169.0494261741638</v>
       </c>
       <c r="M11" t="n">
-        <v>158.094145989418</v>
+        <v>148.0993828132153</v>
       </c>
       <c r="N11" t="n">
-        <v>137.4616799714942</v>
+        <v>144.0564721130262</v>
       </c>
       <c r="O11" t="n">
-        <v>144.5560814873962</v>
+        <v>145.275359770542</v>
       </c>
     </row>
     <row r="12">
@@ -14475,46 +14502,46 @@
         <v>44652</v>
       </c>
       <c r="B12" t="n">
-        <v>141.1157894736842</v>
+        <v>145.38</v>
       </c>
       <c r="C12" t="n">
-        <v>154.3030536865535</v>
+        <v>140.4291317982778</v>
       </c>
       <c r="D12" t="n">
-        <v>147.1225086204372</v>
+        <v>143.2324819725617</v>
       </c>
       <c r="E12" t="n">
-        <v>143.3335028804063</v>
+        <v>143.7309692962669</v>
       </c>
       <c r="F12" t="n">
-        <v>143.7309692943519</v>
+        <v>115.6248021003925</v>
       </c>
       <c r="G12" t="n">
-        <v>146.0927954647243</v>
+        <v>118.9584882628226</v>
       </c>
       <c r="H12" t="n">
-        <v>115.6248021003925</v>
+        <v>98.15066279685391</v>
       </c>
       <c r="I12" t="n">
-        <v>116.3882462594608</v>
+        <v>120.4037894627188</v>
       </c>
       <c r="J12" t="n">
-        <v>118.9584882628226</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="K12" t="n">
-        <v>98.15066279685391</v>
+        <v>164.7080780433554</v>
       </c>
       <c r="L12" t="n">
-        <v>143.0999998912215</v>
+        <v>178.651745891571</v>
       </c>
       <c r="M12" t="n">
-        <v>156.6202133655548</v>
+        <v>152.7738173806427</v>
       </c>
       <c r="N12" t="n">
-        <v>139.3973640648236</v>
+        <v>144.1529169940571</v>
       </c>
       <c r="O12" t="n">
-        <v>144.7034702945539</v>
+        <v>145.4952997133427</v>
       </c>
     </row>
     <row r="13">
@@ -14522,46 +14549,46 @@
         <v>44682</v>
       </c>
       <c r="B13" t="n">
-        <v>146.9526315789473</v>
+        <v>149.35</v>
       </c>
       <c r="C13" t="n">
-        <v>160.0667803687844</v>
+        <v>148.6828063500248</v>
       </c>
       <c r="D13" t="n">
-        <v>149.0699855197921</v>
+        <v>143.2445137111366</v>
       </c>
       <c r="E13" t="n">
-        <v>143.3548459148288</v>
+        <v>143.7883302778489</v>
       </c>
       <c r="F13" t="n">
-        <v>143.7883302757633</v>
+        <v>121.8308469039438</v>
       </c>
       <c r="G13" t="n">
-        <v>151.6080415210202</v>
+        <v>121.0481529779039</v>
       </c>
       <c r="H13" t="n">
-        <v>121.8308469039438</v>
+        <v>98.21361213854642</v>
       </c>
       <c r="I13" t="n">
-        <v>121.6426868085886</v>
+        <v>120.7037782609586</v>
       </c>
       <c r="J13" t="n">
-        <v>121.0481529779039</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="K13" t="n">
-        <v>98.21361213854642</v>
+        <v>172.7271932121164</v>
       </c>
       <c r="L13" t="n">
-        <v>143.0999998912215</v>
+        <v>188.8854294776916</v>
       </c>
       <c r="M13" t="n">
-        <v>161.6380003452301</v>
+        <v>158.0656974660322</v>
       </c>
       <c r="N13" t="n">
-        <v>146.7350648438266</v>
+        <v>144.2495294174592</v>
       </c>
       <c r="O13" t="n">
-        <v>144.8512670778039</v>
+        <v>145.7157442633923</v>
       </c>
     </row>
     <row r="14">
@@ -14569,46 +14596,46 @@
         <v>44713</v>
       </c>
       <c r="B14" t="n">
-        <v>147.5421052631579</v>
+        <v>150.2</v>
       </c>
       <c r="C14" t="n">
-        <v>158.152804911229</v>
+        <v>155.8039457371164</v>
       </c>
       <c r="D14" t="n">
-        <v>148.4582346229161</v>
+        <v>143.2565434621469</v>
       </c>
       <c r="E14" t="n">
-        <v>143.3762076777549</v>
+        <v>143.8456912820223</v>
       </c>
       <c r="F14" t="n">
-        <v>143.8456912797645</v>
+        <v>120.0644238386848</v>
       </c>
       <c r="G14" t="n">
-        <v>153.6524269023443</v>
+        <v>120.4803283986579</v>
       </c>
       <c r="H14" t="n">
-        <v>120.0644238386848</v>
+        <v>98.27656146606735</v>
       </c>
       <c r="I14" t="n">
-        <v>120.153362845521</v>
+        <v>120.6570749647094</v>
       </c>
       <c r="J14" t="n">
-        <v>120.4803283986579</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="K14" t="n">
-        <v>98.27656146606735</v>
+        <v>174.8494593809297</v>
       </c>
       <c r="L14" t="n">
-        <v>143.0999998912215</v>
+        <v>203.2598896980286</v>
       </c>
       <c r="M14" t="n">
-        <v>168.6745198726654</v>
+        <v>162.2752283004273</v>
       </c>
       <c r="N14" t="n">
-        <v>146.3687772712637</v>
+        <v>144.3462704558584</v>
       </c>
       <c r="O14" t="n">
-        <v>144.9992926569379</v>
+        <v>145.9365766234059</v>
       </c>
     </row>
     <row r="15">
@@ -14616,46 +14643,46 @@
         <v>44743</v>
       </c>
       <c r="B15" t="n">
-        <v>147.4578947368421</v>
+        <v>149.52</v>
       </c>
       <c r="C15" t="n">
-        <v>156.096411998074</v>
+        <v>158.7921403519803</v>
       </c>
       <c r="D15" t="n">
-        <v>147.7990175687724</v>
+        <v>143.2685712298355</v>
       </c>
       <c r="E15" t="n">
-        <v>143.3975884021421</v>
+        <v>143.9030523085331</v>
       </c>
       <c r="F15" t="n">
-        <v>143.9030523061011</v>
+        <v>115.3798033702486</v>
       </c>
       <c r="G15" t="n">
-        <v>152.1569290013512</v>
+        <v>118.9397713507707</v>
       </c>
       <c r="H15" t="n">
-        <v>115.3798033702486</v>
+        <v>98.33951079084214</v>
       </c>
       <c r="I15" t="n">
-        <v>116.1955891615565</v>
+        <v>120.4834704407378</v>
       </c>
       <c r="J15" t="n">
-        <v>118.9397713507707</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="K15" t="n">
-        <v>98.33951079084214</v>
+        <v>176.579661462287</v>
       </c>
       <c r="L15" t="n">
-        <v>143.0999998912215</v>
+        <v>207.6809497833252</v>
       </c>
       <c r="M15" t="n">
-        <v>166.5751927852631</v>
+        <v>163.749521613002</v>
       </c>
       <c r="N15" t="n">
-        <v>144.5794752268129</v>
+        <v>144.4431127886964</v>
       </c>
       <c r="O15" t="n">
-        <v>145.1473853223437</v>
+        <v>146.1577148277208</v>
       </c>
     </row>
     <row r="16">
@@ -14663,46 +14690,46 @@
         <v>44774</v>
       </c>
       <c r="B16" t="n">
-        <v>145.5473684210526</v>
+        <v>146.67</v>
       </c>
       <c r="C16" t="n">
-        <v>156.0371118533886</v>
+        <v>154.2691527981541</v>
       </c>
       <c r="D16" t="n">
-        <v>147.8055043481453</v>
+        <v>143.2805970233453</v>
       </c>
       <c r="E16" t="n">
-        <v>143.418987836744</v>
+        <v>143.9604133569113</v>
       </c>
       <c r="F16" t="n">
-        <v>143.9604133543032</v>
+        <v>112.8911596392129</v>
       </c>
       <c r="G16" t="n">
-        <v>145.7558858218166</v>
+        <v>118.1312065485064</v>
       </c>
       <c r="H16" t="n">
-        <v>112.8911596392129</v>
+        <v>98.40246011508481</v>
       </c>
       <c r="I16" t="n">
-        <v>114.0953519684562</v>
+        <v>120.405360532756</v>
       </c>
       <c r="J16" t="n">
-        <v>118.1312065485064</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="K16" t="n">
-        <v>98.40246011508481</v>
+        <v>173.9697328962771</v>
       </c>
       <c r="L16" t="n">
-        <v>143.0999998912215</v>
+        <v>200.7649317741394</v>
       </c>
       <c r="M16" t="n">
-        <v>155.3783629894257</v>
+        <v>160.8728148513963</v>
       </c>
       <c r="N16" t="n">
-        <v>138.2044007741617</v>
+        <v>144.5400274198617</v>
       </c>
       <c r="O16" t="n">
-        <v>145.2955487839322</v>
+        <v>146.3790718793287</v>
       </c>
     </row>
     <row r="17">
@@ -14710,46 +14737,46 @@
         <v>44805</v>
       </c>
       <c r="B17" t="n">
-        <v>145.1157894736842</v>
+        <v>145.78</v>
       </c>
       <c r="C17" t="n">
-        <v>159.2882740875185</v>
+        <v>148.756438968833</v>
       </c>
       <c r="D17" t="n">
-        <v>148.9154849360622</v>
+        <v>143.2926208407951</v>
       </c>
       <c r="E17" t="n">
-        <v>143.4404062956245</v>
+        <v>144.0177744278289</v>
       </c>
       <c r="F17" t="n">
-        <v>144.0177744250435</v>
+        <v>106.7662999240974</v>
       </c>
       <c r="G17" t="n">
-        <v>147.9061262956189</v>
+        <v>116.1105697515144</v>
       </c>
       <c r="H17" t="n">
-        <v>106.7662999240974</v>
+        <v>98.46540943922436</v>
       </c>
       <c r="I17" t="n">
-        <v>108.9193062914944</v>
+        <v>120.1691255207257</v>
       </c>
       <c r="J17" t="n">
-        <v>116.1105697515144</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="K17" t="n">
-        <v>98.46540943922436</v>
+        <v>173.0948403761874</v>
       </c>
       <c r="L17" t="n">
-        <v>143.0999998912215</v>
+        <v>211.84396276474</v>
       </c>
       <c r="M17" t="n">
-        <v>166.3937257289886</v>
+        <v>161.3664461894896</v>
       </c>
       <c r="N17" t="n">
-        <v>134.9276745317877</v>
+        <v>144.6370298486657</v>
       </c>
       <c r="O17" t="n">
-        <v>145.443985449685</v>
+        <v>146.6006942773734</v>
       </c>
     </row>
     <row r="18">
@@ -14757,46 +14784,46 @@
         <v>44835</v>
       </c>
       <c r="B18" t="n">
-        <v>141.6</v>
+        <v>142.34</v>
       </c>
       <c r="C18" t="n">
-        <v>160.2040603626304</v>
+        <v>142.1606112238213</v>
       </c>
       <c r="D18" t="n">
-        <v>149.247013165164</v>
+        <v>143.3046426896266</v>
       </c>
       <c r="E18" t="n">
-        <v>143.4618436148351</v>
+        <v>144.0751355209892</v>
       </c>
       <c r="F18" t="n">
-        <v>144.0751355180263</v>
+        <v>109.8571862048235</v>
       </c>
       <c r="G18" t="n">
-        <v>148.2195425405977</v>
+        <v>117.161848286463</v>
       </c>
       <c r="H18" t="n">
-        <v>109.8571862048235</v>
+        <v>98.52835876334393</v>
       </c>
       <c r="I18" t="n">
-        <v>111.5386913158847</v>
+        <v>120.3336479995505</v>
       </c>
       <c r="J18" t="n">
-        <v>117.161848286463</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="K18" t="n">
-        <v>98.52835876334393</v>
+        <v>175.4945535967493</v>
       </c>
       <c r="L18" t="n">
-        <v>143.0999998912215</v>
+        <v>214.7561839580536</v>
       </c>
       <c r="M18" t="n">
-        <v>166.5112340807915</v>
+        <v>160.3864274472172</v>
       </c>
       <c r="N18" t="n">
-        <v>136.3241901322691</v>
+        <v>144.734119996897</v>
       </c>
       <c r="O18" t="n">
-        <v>145.5926533289375</v>
+        <v>146.8225817800755</v>
       </c>
     </row>
     <row r="19">
@@ -14804,46 +14831,46 @@
         <v>44866</v>
       </c>
       <c r="B19" t="n">
-        <v>134.7894736842105</v>
+        <v>133.51</v>
       </c>
       <c r="C19" t="n">
-        <v>153.1906841452333</v>
+        <v>134.1987390957643</v>
       </c>
       <c r="D19" t="n">
-        <v>146.9354934692948</v>
+        <v>143.3166625773076</v>
       </c>
       <c r="E19" t="n">
-        <v>143.483299629698</v>
+        <v>144.1324966360923</v>
       </c>
       <c r="F19" t="n">
-        <v>144.1324966329528</v>
+        <v>89.87384828047261</v>
       </c>
       <c r="G19" t="n">
-        <v>141.016071871806</v>
+        <v>110.5217187530512</v>
       </c>
       <c r="H19" t="n">
-        <v>89.87384828047261</v>
+        <v>98.59130808745961</v>
       </c>
       <c r="I19" t="n">
-        <v>94.64001281515817</v>
+        <v>119.4947608574653</v>
       </c>
       <c r="J19" t="n">
-        <v>110.5217187530512</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="K19" t="n">
-        <v>98.59130808745961</v>
+        <v>169.1714962970153</v>
       </c>
       <c r="L19" t="n">
-        <v>143.0999998912215</v>
+        <v>211.3433564662933</v>
       </c>
       <c r="M19" t="n">
-        <v>158.7272870898247</v>
+        <v>155.7061160190032</v>
       </c>
       <c r="N19" t="n">
-        <v>127.3550335041918</v>
+        <v>144.8313082466657</v>
       </c>
       <c r="O19" t="n">
-        <v>145.7415412114685</v>
+        <v>147.0447655265973</v>
       </c>
     </row>
     <row r="20">
@@ -14851,46 +14878,46 @@
         <v>44896</v>
       </c>
       <c r="B20" t="n">
-        <v>128.7315789473684</v>
+        <v>129.54</v>
       </c>
       <c r="C20" t="n">
-        <v>147.2535474626881</v>
+        <v>130.2602248941504</v>
       </c>
       <c r="D20" t="n">
-        <v>144.9827265696495</v>
+        <v>143.3286805053456</v>
       </c>
       <c r="E20" t="n">
-        <v>143.5047744761187</v>
+        <v>144.1898577734561</v>
       </c>
       <c r="F20" t="n">
-        <v>144.1898577701415</v>
+        <v>73.78828472817402</v>
       </c>
       <c r="G20" t="n">
-        <v>133.9160389876262</v>
+        <v>105.1808473436567</v>
       </c>
       <c r="H20" t="n">
-        <v>73.78828472817402</v>
+        <v>98.65425741157456</v>
       </c>
       <c r="I20" t="n">
-        <v>81.03839024680609</v>
+        <v>118.8253729917275</v>
       </c>
       <c r="J20" t="n">
-        <v>105.1808473436567</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="K20" t="n">
-        <v>98.65425741157456</v>
+        <v>163.5379274242174</v>
       </c>
       <c r="L20" t="n">
-        <v>143.0999998912215</v>
+        <v>209.862531042099</v>
       </c>
       <c r="M20" t="n">
-        <v>150.5013130068779</v>
+        <v>153.1187700878451</v>
       </c>
       <c r="N20" t="n">
-        <v>118.6761780634725</v>
+        <v>144.9286286665882</v>
       </c>
       <c r="O20" t="n">
-        <v>145.8907612021125</v>
+        <v>147.2673477209631</v>
       </c>
     </row>
     <row r="21">
@@ -14898,46 +14925,46 @@
         <v>44927</v>
       </c>
       <c r="B21" t="n">
-        <v>125.6684210526316</v>
+        <v>128</v>
       </c>
       <c r="C21" t="n">
-        <v>145.8079816145473</v>
+        <v>130.1410163044249</v>
       </c>
       <c r="D21" t="n">
-        <v>144.5271562230966</v>
+        <v>143.3406964813916</v>
       </c>
       <c r="E21" t="n">
-        <v>143.5262681250931</v>
+        <v>144.247218933138</v>
       </c>
       <c r="F21" t="n">
-        <v>144.2472189296492</v>
+        <v>68.8064577867062</v>
       </c>
       <c r="G21" t="n">
-        <v>130.9210874132807</v>
+        <v>103.5412214712057</v>
       </c>
       <c r="H21" t="n">
-        <v>68.8064577867062</v>
+        <v>98.71720673568936</v>
       </c>
       <c r="I21" t="n">
-        <v>76.82921505220671</v>
+        <v>118.6388440964284</v>
       </c>
       <c r="J21" t="n">
-        <v>103.5412214712057</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="K21" t="n">
-        <v>98.71720673568936</v>
+        <v>162.9649555152907</v>
       </c>
       <c r="L21" t="n">
-        <v>143.0999998912215</v>
+        <v>206.5284181594849</v>
       </c>
       <c r="M21" t="n">
-        <v>146.2408593058586</v>
+        <v>152.2233038122454</v>
       </c>
       <c r="N21" t="n">
-        <v>115.6125985485012</v>
+        <v>145.0261008310768</v>
       </c>
       <c r="O21" t="n">
-        <v>146.0402698053167</v>
+        <v>147.490387078701</v>
       </c>
     </row>
     <row r="22">
@@ -14945,46 +14972,46 @@
         <v>44958</v>
       </c>
       <c r="B22" t="n">
-        <v>129.5842105263158</v>
+        <v>132.97</v>
       </c>
       <c r="C22" t="n">
-        <v>150.3899730339868</v>
+        <v>132.2711873112226</v>
       </c>
       <c r="D22" t="n">
-        <v>146.0807778346344</v>
+        <v>143.352710510845</v>
       </c>
       <c r="E22" t="n">
-        <v>143.547780358905</v>
+        <v>144.3045801146721</v>
       </c>
       <c r="F22" t="n">
-        <v>144.3045801110113</v>
+        <v>72.2571192448237</v>
       </c>
       <c r="G22" t="n">
-        <v>136.4052282202991</v>
+        <v>104.7124250652831</v>
       </c>
       <c r="H22" t="n">
-        <v>72.2571192448237</v>
+        <v>98.78015605980413</v>
       </c>
       <c r="I22" t="n">
-        <v>79.75292730791219</v>
+        <v>118.8190118195351</v>
       </c>
       <c r="J22" t="n">
-        <v>104.7124250652831</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="K22" t="n">
-        <v>98.78015605980413</v>
+        <v>170.3088601149952</v>
       </c>
       <c r="L22" t="n">
-        <v>143.0999998912215</v>
+        <v>214.5128980636597</v>
       </c>
       <c r="M22" t="n">
-        <v>157.4834492564201</v>
+        <v>156.0814519744258</v>
       </c>
       <c r="N22" t="n">
-        <v>118.853516489336</v>
+        <v>145.1237349297512</v>
       </c>
       <c r="O22" t="n">
-        <v>146.1899745809064</v>
+        <v>147.7139141637365</v>
       </c>
     </row>
     <row r="23">
@@ -14992,46 +15019,46 @@
         <v>44986</v>
       </c>
       <c r="B23" t="n">
-        <v>137.4263157894736</v>
+        <v>140.25</v>
       </c>
       <c r="C23" t="n">
-        <v>170.4601648530861</v>
+        <v>143.1469940879638</v>
       </c>
       <c r="D23" t="n">
-        <v>152.7971392324162</v>
+        <v>143.3647225908962</v>
       </c>
       <c r="E23" t="n">
-        <v>143.5693115291729</v>
+        <v>144.361941318821</v>
       </c>
       <c r="F23" t="n">
-        <v>144.3619413149894</v>
+        <v>98.45767837607104</v>
       </c>
       <c r="G23" t="n">
-        <v>150.3070097579539</v>
+        <v>113.4669278837371</v>
       </c>
       <c r="H23" t="n">
-        <v>98.45767837607104</v>
+        <v>98.8431053839189</v>
       </c>
       <c r="I23" t="n">
-        <v>101.9203612171651</v>
+        <v>119.9884854450638</v>
       </c>
       <c r="J23" t="n">
-        <v>113.4669278837371</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="K23" t="n">
-        <v>98.8431053839189</v>
+        <v>193.7135657833845</v>
       </c>
       <c r="L23" t="n">
-        <v>143.0999998912215</v>
+        <v>236.6786943435669</v>
       </c>
       <c r="M23" t="n">
-        <v>165.4227593302727</v>
+        <v>166.9008190298236</v>
       </c>
       <c r="N23" t="n">
-        <v>142.0140594273326</v>
+        <v>145.2215595694277</v>
       </c>
       <c r="O23" t="n">
-        <v>146.3404965395156</v>
+        <v>147.9380147985661</v>
       </c>
     </row>
     <row r="24">
@@ -15039,46 +15066,46 @@
         <v>45017</v>
       </c>
       <c r="B24" t="n">
-        <v>146.178947368421</v>
+        <v>149.19</v>
       </c>
       <c r="C24" t="n">
-        <v>177.8804921562651</v>
+        <v>150.0511033362729</v>
       </c>
       <c r="D24" t="n">
-        <v>155.2968852310081</v>
+        <v>143.3767327380609</v>
       </c>
       <c r="E24" t="n">
-        <v>143.590860996421</v>
+        <v>144.41930254434</v>
       </c>
       <c r="F24" t="n">
-        <v>144.419302540338</v>
+        <v>114.1981959903677</v>
       </c>
       <c r="G24" t="n">
-        <v>155.8735500036798</v>
+        <v>118.734750196541</v>
       </c>
       <c r="H24" t="n">
-        <v>114.1981959903677</v>
+        <v>98.90605470803365</v>
       </c>
       <c r="I24" t="n">
-        <v>115.2398376398006</v>
+        <v>120.7030919340023</v>
       </c>
       <c r="J24" t="n">
-        <v>118.734750196541</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="K24" t="n">
-        <v>98.90605470803365</v>
+        <v>200.4466923102337</v>
       </c>
       <c r="L24" t="n">
-        <v>143.0999998912215</v>
+        <v>241.1501675605774</v>
       </c>
       <c r="M24" t="n">
-        <v>170.0598023295402</v>
+        <v>171.7359597237029</v>
       </c>
       <c r="N24" t="n">
-        <v>148.8981259295232</v>
+        <v>145.3195326366786</v>
       </c>
       <c r="O24" t="n">
-        <v>146.4911645194342</v>
+        <v>148.1625626276353</v>
       </c>
     </row>
     <row r="25">
@@ -15086,46 +15113,46 @@
         <v>45047</v>
       </c>
       <c r="B25" t="n">
-        <v>150.9684210526315</v>
+        <v>153.16</v>
       </c>
       <c r="C25" t="n">
-        <v>182.1373936121059</v>
+        <v>158.0691930182104</v>
       </c>
       <c r="D25" t="n">
-        <v>156.7421621506474</v>
+        <v>143.3887409506367</v>
       </c>
       <c r="E25" t="n">
-        <v>143.6124290521379</v>
+        <v>144.4766637918713</v>
       </c>
       <c r="F25" t="n">
-        <v>144.4766637876984</v>
+        <v>122.1937403886071</v>
       </c>
       <c r="G25" t="n">
-        <v>160.8344874025748</v>
+        <v>121.420914770659</v>
       </c>
       <c r="H25" t="n">
-        <v>122.1937403886071</v>
+        <v>98.96900403214842</v>
       </c>
       <c r="I25" t="n">
-        <v>122.0079831102964</v>
+        <v>121.0808992062218</v>
       </c>
       <c r="J25" t="n">
-        <v>121.420914770659</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="K25" t="n">
-        <v>98.96900403214842</v>
+        <v>207.735409307086</v>
       </c>
       <c r="L25" t="n">
-        <v>143.0999998912215</v>
+        <v>257.2255230903626</v>
       </c>
       <c r="M25" t="n">
-        <v>177.0010745882988</v>
+        <v>177.8103680534721</v>
       </c>
       <c r="N25" t="n">
-        <v>153.8993801580959</v>
+        <v>145.417656595334</v>
       </c>
       <c r="O25" t="n">
-        <v>146.6421331953696</v>
+        <v>148.3875650434942</v>
       </c>
     </row>
     <row r="26">
@@ -15133,46 +15160,46 @@
         <v>45078</v>
       </c>
       <c r="B26" t="n">
-        <v>151.5578947368421</v>
+        <v>153.73</v>
       </c>
       <c r="C26" t="n">
-        <v>179.2868970335045</v>
+        <v>163.4519449502926</v>
       </c>
       <c r="D26" t="n">
-        <v>155.8183125400621</v>
+        <v>143.4007472359135</v>
       </c>
       <c r="E26" t="n">
-        <v>143.6340155299054</v>
+        <v>144.5340250611218</v>
       </c>
       <c r="F26" t="n">
-        <v>144.5340250567764</v>
+        <v>118.9168854847484</v>
       </c>
       <c r="G26" t="n">
-        <v>162.4302989210163</v>
+        <v>120.3496129107444</v>
       </c>
       <c r="H26" t="n">
-        <v>118.9168854847484</v>
+        <v>99.03195335626319</v>
       </c>
       <c r="I26" t="n">
-        <v>119.2410125264713</v>
+        <v>120.9685130136507</v>
       </c>
       <c r="J26" t="n">
-        <v>120.3496129107444</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="K26" t="n">
-        <v>99.03195335626319</v>
+        <v>209.05921905685</v>
       </c>
       <c r="L26" t="n">
-        <v>143.0999998912215</v>
+        <v>259.4376574516297</v>
       </c>
       <c r="M26" t="n">
-        <v>184.1306712985039</v>
+        <v>179.547668285553</v>
       </c>
       <c r="N26" t="n">
-        <v>152.4920341158656</v>
+        <v>145.5159011611456</v>
       </c>
       <c r="O26" t="n">
-        <v>146.7932125483499</v>
+        <v>148.6129311864019</v>
       </c>
     </row>
   </sheetData>

--- a/examples/housing_different_levels_results.xlsx
+++ b/examples/housing_different_levels_results.xlsx
@@ -535,19 +535,19 @@
         <v>2.605320930480957</v>
       </c>
       <c r="F2" t="n">
-        <v>4.522953371747015</v>
+        <v>2.374517971324974</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05736073044115261</v>
+        <v>0.05736073044101056</v>
       </c>
       <c r="H2" t="n">
         <v>0.01205397708987732</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09512509460317353</v>
+        <v>0.09512509460312617</v>
       </c>
       <c r="J2" t="n">
-        <v>2.249170598914738</v>
+        <v>1.242807553334142</v>
       </c>
       <c r="K2" t="n">
         <v>97.2290968349859</v>
@@ -562,7 +562,7 @@
         <v>120.5133424676788</v>
       </c>
       <c r="O2" t="n">
-        <v>120.2058796877672</v>
+        <v>120.2142233553945</v>
       </c>
     </row>
     <row r="3">
@@ -582,19 +582,19 @@
         <v>13.59173965454102</v>
       </c>
       <c r="F3" t="n">
-        <v>2.554790203761022</v>
+        <v>1.698424656600791</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05736075353223408</v>
+        <v>0.05736075353209183</v>
       </c>
       <c r="H3" t="n">
         <v>0.01205193294762807</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09524699879305282</v>
+        <v>0.0952469987930054</v>
       </c>
       <c r="J3" t="n">
-        <v>3.015698296625599</v>
+        <v>1.66836898242793</v>
       </c>
       <c r="K3" t="n">
         <v>97.52752199089267</v>
@@ -609,7 +609,7 @@
         <v>118.6748958252556</v>
       </c>
       <c r="O3" t="n">
-        <v>120.0958123504019</v>
+        <v>120.1041017361174</v>
       </c>
     </row>
     <row r="4">
@@ -629,19 +629,19 @@
         <v>-6.973344802856445</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.808378483560016</v>
+        <v>-3.163652810079073</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05736077672276896</v>
+        <v>0.05736077672262693</v>
       </c>
       <c r="H4" t="n">
         <v>0.01204989079356267</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09535888789376008</v>
+        <v>0.09535888789371276</v>
       </c>
       <c r="J4" t="n">
-        <v>-2.500842760073597</v>
+        <v>-1.624429399985522</v>
       </c>
       <c r="K4" t="n">
         <v>97.63610105955703</v>
@@ -656,7 +656,7 @@
         <v>118.0798404258526</v>
       </c>
       <c r="O4" t="n">
-        <v>120.0653991884817</v>
+        <v>120.0736688242555</v>
       </c>
     </row>
     <row r="5">
@@ -676,19 +676,19 @@
         <v>5.380267143249512</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3135598110615716</v>
+        <v>-2.152247879284023</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05736079955651682</v>
+        <v>0.05736079955637471</v>
       </c>
       <c r="H5" t="n">
         <v>0.01204784511072887</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09544270820391317</v>
+        <v>0.0954427082038658</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.1933292122387719</v>
+        <v>-0.3878795878280942</v>
       </c>
       <c r="K5" t="n">
         <v>97.70789236788656</v>
@@ -703,7 +703,7 @@
         <v>115.8238186974665</v>
       </c>
       <c r="O5" t="n">
-        <v>119.8023012497163</v>
+        <v>119.8105578270418</v>
       </c>
     </row>
     <row r="6">
@@ -723,19 +723,19 @@
         <v>6.592167377471924</v>
       </c>
       <c r="F6" t="n">
-        <v>2.399713220561923</v>
+        <v>-0.09227490082819133</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0573608226213308</v>
+        <v>0.05736082262118872</v>
       </c>
       <c r="H6" t="n">
         <v>0.0120458087996127</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09554333401757631</v>
+        <v>0.09554333401752894</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.2301351860707184</v>
+        <v>-0.8148058712142443</v>
       </c>
       <c r="K6" t="n">
         <v>97.77255506308472</v>
@@ -750,7 +750,7 @@
         <v>117.4837382154931</v>
       </c>
       <c r="O6" t="n">
-        <v>120.0469712025408</v>
+        <v>120.0552160180741</v>
       </c>
     </row>
     <row r="7">
@@ -770,19 +770,19 @@
         <v>-8.018988609313965</v>
       </c>
       <c r="F7" t="n">
-        <v>-8.012389807975438</v>
+        <v>-10.8366606437597</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05736084520612547</v>
+        <v>0.05736084520598339</v>
       </c>
       <c r="H7" t="n">
         <v>0.01204379254340893</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09563762631825261</v>
+        <v>0.09563762631820523</v>
       </c>
       <c r="J7" t="n">
-        <v>-5.446891828471207</v>
+        <v>-3.379709449672442</v>
       </c>
       <c r="K7" t="n">
         <v>97.83583639870257</v>
@@ -797,7 +797,7 @@
         <v>110.2552204989131</v>
       </c>
       <c r="O7" t="n">
-        <v>119.1314681950471</v>
+        <v>119.1397015000497</v>
       </c>
     </row>
     <row r="8">
@@ -817,19 +817,19 @@
         <v>-6.977509498596191</v>
       </c>
       <c r="F8" t="n">
-        <v>-4.399304889118136</v>
+        <v>-7.615126565102805</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05736086823192113</v>
+        <v>0.05736086823177908</v>
       </c>
       <c r="H8" t="n">
         <v>0.01204176522905698</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09578047646631067</v>
+        <v>0.09578047646626335</v>
       </c>
       <c r="J8" t="n">
-        <v>-3.1387880501847</v>
+        <v>-1.889323150784866</v>
       </c>
       <c r="K8" t="n">
         <v>97.89885005893183</v>
@@ -844,7 +844,7 @@
         <v>105.1471618698803</v>
       </c>
       <c r="O8" t="n">
-        <v>118.4924807145869</v>
+        <v>118.5007025577477</v>
       </c>
     </row>
     <row r="9">
@@ -864,19 +864,19 @@
         <v>-8.124106407165527</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5729719089267513</v>
+        <v>-2.407205890882691</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05736089117635143</v>
+        <v>0.05736089117620938</v>
       </c>
       <c r="H9" t="n">
         <v>0.01203975046591665</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09593707416086517</v>
+        <v>0.0959370741608178</v>
       </c>
       <c r="J9" t="n">
-        <v>-1.598154556176248</v>
+        <v>-0.9553677536640504</v>
       </c>
       <c r="K9" t="n">
         <v>97.96181184989064</v>
@@ -891,7 +891,7 @@
         <v>103.5822925635865</v>
       </c>
       <c r="O9" t="n">
-        <v>118.3157098707237</v>
+        <v>118.3239202614774</v>
       </c>
     </row>
     <row r="10">
@@ -911,19 +911,19 @@
         <v>13.14702987670898</v>
       </c>
       <c r="F10" t="n">
-        <v>4.527423048051627</v>
+        <v>2.333845204687038</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05736091370590368</v>
+        <v>0.0573609137057616</v>
       </c>
       <c r="H10" t="n">
         <v>0.01203774698603866</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09610118312188261</v>
+        <v>0.09610118312183524</v>
       </c>
       <c r="J10" t="n">
-        <v>3.991328610730921</v>
+        <v>2.263701070495248</v>
       </c>
       <c r="K10" t="n">
         <v>98.0247635897901</v>
@@ -938,7 +938,7 @@
         <v>104.1928360626991</v>
       </c>
       <c r="O10" t="n">
-        <v>118.4227357648864</v>
+        <v>118.4309347050611</v>
       </c>
     </row>
     <row r="11">
@@ -958,19 +958,19 @@
         <v>14.72685050964355</v>
       </c>
       <c r="F11" t="n">
-        <v>19.63859330417052</v>
+        <v>18.42546879440268</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05736093641907108</v>
+        <v>0.05736093641892903</v>
       </c>
       <c r="H11" t="n">
         <v>0.01203572095745642</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09629872944744432</v>
+        <v>0.09629872944739697</v>
       </c>
       <c r="J11" t="n">
-        <v>8.851326900159298</v>
+        <v>4.548567825436512</v>
       </c>
       <c r="K11" t="n">
         <v>98.08771338202779</v>
@@ -985,7 +985,7 @@
         <v>113.8046978351142</v>
       </c>
       <c r="O11" t="n">
-        <v>119.7040593639259</v>
+        <v>119.712246853876</v>
       </c>
     </row>
     <row r="12">
@@ -1005,19 +1005,19 @@
         <v>9.602319717407227</v>
       </c>
       <c r="F12" t="n">
-        <v>3.071209795705204</v>
+        <v>4.628159152120355</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05736095865357879</v>
+        <v>0.05736095865343671</v>
       </c>
       <c r="H12" t="n">
         <v>0.01203374163844728</v>
       </c>
       <c r="I12" t="n">
-        <v>0.09644488103089681</v>
+        <v>0.09644488103084943</v>
       </c>
       <c r="J12" t="n">
-        <v>4.674434567427338</v>
+        <v>3.251330802398759</v>
       </c>
       <c r="K12" t="n">
         <v>98.15066279685391</v>
@@ -1032,7 +1032,7 @@
         <v>118.9584882628226</v>
       </c>
       <c r="O12" t="n">
-        <v>120.4037894627188</v>
+        <v>120.411965502513</v>
       </c>
     </row>
     <row r="13">
@@ -1052,19 +1052,19 @@
         <v>10.23368358612061</v>
       </c>
       <c r="F13" t="n">
-        <v>8.019115168760948</v>
+        <v>5.095153702732728</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05736098158198932</v>
+        <v>0.05736098158184727</v>
       </c>
       <c r="H13" t="n">
         <v>0.01203173857481943</v>
       </c>
       <c r="I13" t="n">
-        <v>0.09661242340214311</v>
+        <v>0.09661242340209576</v>
       </c>
       <c r="J13" t="n">
-        <v>5.291880085389495</v>
+        <v>3.075553983641483</v>
       </c>
       <c r="K13" t="n">
         <v>98.21361213854642</v>
@@ -1079,7 +1079,7 @@
         <v>121.0481529779039</v>
       </c>
       <c r="O13" t="n">
-        <v>120.7037782609586</v>
+        <v>120.7119428506101</v>
       </c>
     </row>
     <row r="14">
@@ -1099,19 +1099,19 @@
         <v>14.37446022033691</v>
       </c>
       <c r="F14" t="n">
-        <v>2.122266168813373</v>
+        <v>-0.1866396518347098</v>
       </c>
       <c r="G14" t="n">
-        <v>0.05736100417343787</v>
+        <v>0.05736100417329582</v>
       </c>
       <c r="H14" t="n">
         <v>0.01202975101037396</v>
       </c>
       <c r="I14" t="n">
-        <v>0.09674103839913341</v>
+        <v>0.09674103839908606</v>
       </c>
       <c r="J14" t="n">
-        <v>4.209530834395133</v>
+        <v>2.686750193066592</v>
       </c>
       <c r="K14" t="n">
         <v>98.27656146606735</v>
@@ -1126,7 +1126,7 @@
         <v>120.4803283986579</v>
       </c>
       <c r="O14" t="n">
-        <v>120.6570749647094</v>
+        <v>120.6652281042208</v>
       </c>
     </row>
     <row r="15">
@@ -1146,19 +1146,19 @@
         <v>4.421060085296631</v>
       </c>
       <c r="F15" t="n">
-        <v>1.730202081357248</v>
+        <v>-0.4358584784020574</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05736102651077446</v>
+        <v>0.05736102651063241</v>
       </c>
       <c r="H15" t="n">
         <v>0.01202776768857916</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0968423328380789</v>
+        <v>0.09684233283803155</v>
       </c>
       <c r="J15" t="n">
-        <v>1.4742933125747</v>
+        <v>0.8345247707771241</v>
       </c>
       <c r="K15" t="n">
         <v>98.33951079084214</v>
@@ -1173,7 +1173,7 @@
         <v>118.9397713507707</v>
       </c>
       <c r="O15" t="n">
-        <v>120.4834704407378</v>
+        <v>120.4916121301097</v>
       </c>
     </row>
     <row r="16">
@@ -1193,19 +1193,19 @@
         <v>-6.916018009185791</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.609928566009909</v>
+        <v>-5.101916687400027</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05736104837818609</v>
+        <v>0.05736104837804401</v>
       </c>
       <c r="H16" t="n">
         <v>0.01202579350977828</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09691463116530574</v>
+        <v>0.09691463116525838</v>
       </c>
       <c r="J16" t="n">
-        <v>-2.87670676160569</v>
+        <v>-1.871986372457609</v>
       </c>
       <c r="K16" t="n">
         <v>98.40246011508481</v>
@@ -1220,7 +1220,7 @@
         <v>118.1312065485064</v>
       </c>
       <c r="O16" t="n">
-        <v>120.405360532756</v>
+        <v>120.4134907719883</v>
       </c>
     </row>
     <row r="17">
@@ -1240,19 +1240,19 @@
         <v>11.07903099060059</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8748925200896756</v>
+        <v>-2.51531302619663</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0573610709175994</v>
+        <v>0.05736107091745732</v>
       </c>
       <c r="H17" t="n">
         <v>0.01202381744977288</v>
       </c>
       <c r="I17" t="n">
-        <v>0.09700242880401501</v>
+        <v>0.09700242880396766</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4936313380933499</v>
+        <v>0.01777549187585655</v>
       </c>
       <c r="K17" t="n">
         <v>98.46540943922436</v>
@@ -1267,7 +1267,7 @@
         <v>116.1105697515144</v>
       </c>
       <c r="O17" t="n">
-        <v>120.1691255207257</v>
+        <v>120.1772443098186</v>
       </c>
     </row>
     <row r="18">
@@ -1287,19 +1287,19 @@
         <v>2.912221193313599</v>
       </c>
       <c r="F18" t="n">
-        <v>2.399713220561923</v>
+        <v>-1.47432030183771</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0573610931603305</v>
+        <v>0.05736109316018842</v>
       </c>
       <c r="H18" t="n">
         <v>0.01202184883155155</v>
       </c>
       <c r="I18" t="n">
-        <v>0.09709014823131407</v>
+        <v>0.09709014823126672</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.9800187422723962</v>
+        <v>-1.317192792633192</v>
       </c>
       <c r="K18" t="n">
         <v>98.52835876334393</v>
@@ -1314,7 +1314,7 @@
         <v>117.161848286463</v>
       </c>
       <c r="O18" t="n">
-        <v>120.3336479995505</v>
+        <v>120.3417553385038</v>
       </c>
     </row>
     <row r="19">
@@ -1334,19 +1334,19 @@
         <v>-3.412827491760254</v>
       </c>
       <c r="F19" t="n">
-        <v>-6.323057299734075</v>
+        <v>-9.147328135518334</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05736111510307415</v>
+        <v>0.05736111510293207</v>
       </c>
       <c r="H19" t="n">
         <v>0.01201988768092122</v>
       </c>
       <c r="I19" t="n">
-        <v>0.09718824976861036</v>
+        <v>0.097188249768563</v>
       </c>
       <c r="J19" t="n">
-        <v>-4.680311428214088</v>
+        <v>-3.133384799868089</v>
       </c>
       <c r="K19" t="n">
         <v>98.59130808745961</v>
@@ -1361,7 +1361,7 @@
         <v>110.5217187530512</v>
       </c>
       <c r="O19" t="n">
-        <v>119.4947608574653</v>
+        <v>119.5028567462792</v>
       </c>
     </row>
     <row r="20">
@@ -1381,19 +1381,19 @@
         <v>-1.480825424194336</v>
       </c>
       <c r="F20" t="n">
-        <v>-5.633568872797852</v>
+        <v>-7.615126565102805</v>
       </c>
       <c r="G20" t="n">
-        <v>0.05736113736385032</v>
+        <v>0.05736113736370824</v>
       </c>
       <c r="H20" t="n">
         <v>0.01201792803799151</v>
       </c>
       <c r="I20" t="n">
-        <v>0.09732041992253748</v>
+        <v>0.09732041992249013</v>
       </c>
       <c r="J20" t="n">
-        <v>-2.587345931158039</v>
+        <v>-1.491514862906973</v>
       </c>
       <c r="K20" t="n">
         <v>98.65425741157456</v>
@@ -1408,7 +1408,7 @@
         <v>105.1808473436567</v>
       </c>
       <c r="O20" t="n">
-        <v>118.8253729917275</v>
+        <v>118.8334574304019</v>
       </c>
     </row>
     <row r="21">
@@ -1428,19 +1428,19 @@
         <v>-3.334112882614136</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.5729719089267513</v>
+        <v>-2.407205890882691</v>
       </c>
       <c r="G21" t="n">
-        <v>0.05736115968190109</v>
+        <v>0.05736115968175903</v>
       </c>
       <c r="H21" t="n">
         <v>0.01201597604602966</v>
       </c>
       <c r="I21" t="n">
-        <v>0.09747216448860661</v>
+        <v>0.09747216448855926</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.8954662755997536</v>
+        <v>-0.5670233136990355</v>
       </c>
       <c r="K21" t="n">
         <v>98.71720673568936</v>
@@ -1455,7 +1455,7 @@
         <v>103.5412214712057</v>
       </c>
       <c r="O21" t="n">
-        <v>118.6388440964284</v>
+        <v>118.6469170849633</v>
       </c>
     </row>
     <row r="22">
@@ -1475,19 +1475,19 @@
         <v>7.984479904174805</v>
       </c>
       <c r="F22" t="n">
-        <v>7.343904599704579</v>
+        <v>5.405223113937914</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0573611815340492</v>
+        <v>0.05736118153390712</v>
       </c>
       <c r="H22" t="n">
         <v>0.01201402945341101</v>
       </c>
       <c r="I22" t="n">
-        <v>0.09763409867433881</v>
+        <v>0.09763409867429144</v>
       </c>
       <c r="J22" t="n">
-        <v>3.858148162180404</v>
+        <v>2.043685448055993</v>
       </c>
       <c r="K22" t="n">
         <v>98.78015605980413</v>
@@ -1502,7 +1502,7 @@
         <v>104.7124250652831</v>
       </c>
       <c r="O22" t="n">
-        <v>118.8190118195351</v>
+        <v>118.8270733579306</v>
       </c>
     </row>
     <row r="23">
@@ -1522,19 +1522,19 @@
         <v>22.16579627990723</v>
       </c>
       <c r="F23" t="n">
-        <v>23.40470566838927</v>
+        <v>21.69989820136688</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0573612041488919</v>
+        <v>0.05736120414874982</v>
       </c>
       <c r="H23" t="n">
         <v>0.01201208005113585</v>
       </c>
       <c r="I23" t="n">
-        <v>0.09782463967653206</v>
+        <v>0.09782463967648469</v>
       </c>
       <c r="J23" t="n">
-        <v>10.81936705539781</v>
+        <v>5.438846380020414</v>
       </c>
       <c r="K23" t="n">
         <v>98.8431053839189</v>
@@ -1549,7 +1549,7 @@
         <v>113.4669278837371</v>
       </c>
       <c r="O23" t="n">
-        <v>119.9884854450638</v>
+        <v>119.9965355333198</v>
       </c>
     </row>
     <row r="24">
@@ -1569,19 +1569,19 @@
         <v>4.471473217010498</v>
       </c>
       <c r="F24" t="n">
-        <v>6.733126526849147</v>
+        <v>8.290075883264313</v>
       </c>
       <c r="G24" t="n">
-        <v>0.05736122551896977</v>
+        <v>0.05736122551882769</v>
       </c>
       <c r="H24" t="n">
         <v>0.01201014716470183</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0979730672509555</v>
+        <v>0.09797306725090815</v>
       </c>
       <c r="J24" t="n">
-        <v>4.835140693879279</v>
+        <v>3.175410330826144</v>
       </c>
       <c r="K24" t="n">
         <v>98.90605470803365</v>
@@ -1596,7 +1596,7 @@
         <v>118.734750196541</v>
       </c>
       <c r="O24" t="n">
-        <v>120.7030919340023</v>
+        <v>120.7111305721188</v>
       </c>
     </row>
     <row r="25">
@@ -1616,19 +1616,19 @@
         <v>16.07535552978516</v>
       </c>
       <c r="F25" t="n">
-        <v>7.288716996852383</v>
+        <v>4.7800938557929</v>
       </c>
       <c r="G25" t="n">
-        <v>0.05736124753136687</v>
+        <v>0.05736124753122482</v>
       </c>
       <c r="H25" t="n">
         <v>0.01200821257580742</v>
       </c>
       <c r="I25" t="n">
-        <v>0.09812395865538033</v>
+        <v>0.09812395865533301</v>
       </c>
       <c r="J25" t="n">
-        <v>6.074408329769225</v>
+        <v>3.581093550033533</v>
       </c>
       <c r="K25" t="n">
         <v>98.96900403214842</v>
@@ -1643,7 +1643,7 @@
         <v>121.420914770659</v>
       </c>
       <c r="O25" t="n">
-        <v>121.0808992062218</v>
+        <v>121.0889263941988</v>
       </c>
     </row>
     <row r="26">
@@ -1663,19 +1663,19 @@
         <v>2.21213436126709</v>
       </c>
       <c r="F26" t="n">
-        <v>1.323809749763939</v>
+        <v>-2.052081624953837</v>
       </c>
       <c r="G26" t="n">
-        <v>0.05736126925043541</v>
+        <v>0.05736126925029333</v>
       </c>
       <c r="H26" t="n">
         <v>0.01200628527679726</v>
       </c>
       <c r="I26" t="n">
-        <v>0.09824456581162144</v>
+        <v>0.09824456581157409</v>
       </c>
       <c r="J26" t="n">
-        <v>1.737300232080879</v>
+        <v>1.188603486052294</v>
       </c>
       <c r="K26" t="n">
         <v>99.03195335626319</v>
@@ -1690,7 +1690,7 @@
         <v>120.3496129107444</v>
       </c>
       <c r="O26" t="n">
-        <v>120.9685130136507</v>
+        <v>120.9765287514883</v>
       </c>
     </row>
   </sheetData>
@@ -2200,14 +2200,14 @@
         <v>7.299999999999983</v>
       </c>
       <c r="O5" t="n">
-        <v>16.95547409271852</v>
+        <v>16.95547409271899</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>12.63620530149774</v>
+        <v>12.63620530149799</v>
       </c>
       <c r="R5" t="n">
-        <v>4.896157603140328e-05</v>
+        <v>4.896157597511497e-05</v>
       </c>
       <c r="S5" t="n">
         <v>6</v>
@@ -2218,7 +2218,7 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>9.899292150601859</v>
+        <v>9.899292150603467</v>
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
@@ -2532,34 +2532,34 @@
         <v>12</v>
       </c>
       <c r="I9" t="n">
-        <v>32.36210820933314</v>
+        <v>32.36210992104071</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2327842683626248</v>
+        <v>0.2327850614591292</v>
       </c>
       <c r="K9" t="n">
-        <v>30.10163900194429</v>
+        <v>30.101729564007</v>
       </c>
       <c r="L9" t="n">
-        <v>-6.280964354922107</v>
+        <v>-6.280965125136588</v>
       </c>
       <c r="M9" t="n">
-        <v>93.84504227080988</v>
+        <v>93.84591122686628</v>
       </c>
       <c r="N9" t="n">
         <v>143.1</v>
       </c>
       <c r="O9" t="n">
-        <v>16.32985708651442</v>
+        <v>16.32983997291548</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1083270994939781</v>
+        <v>0.10832725765801</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.15540025612549</v>
+        <v>12.15541492326787</v>
       </c>
       <c r="R9" t="n">
-        <v>0.8158992373480933</v>
+        <v>0.8158996232210314</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
@@ -2577,16 +2577,16 @@
       </c>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
-        <v>32.36210820933314</v>
+        <v>32.36210992104071</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.2327842683626248</v>
+        <v>0.2327850614591292</v>
       </c>
       <c r="AB9" t="n">
-        <v>30.10163900194429</v>
+        <v>30.101729564007</v>
       </c>
       <c r="AC9" t="n">
-        <v>-6.280964354922107</v>
+        <v>-6.280965125136588</v>
       </c>
       <c r="AD9" t="b">
         <v>0</v>
@@ -2718,32 +2718,32 @@
         <v>12</v>
       </c>
       <c r="I11" t="n">
-        <v>19.92528765556252</v>
+        <v>20.43306146906674</v>
       </c>
       <c r="J11" t="n">
-        <v>21.5748464118009</v>
+        <v>17.96557555281061</v>
       </c>
       <c r="K11" t="n">
-        <v>16.05654876828846</v>
+        <v>16.43068087912656</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.5967761049868441</v>
+        <v>-0.6791972262015258</v>
       </c>
       <c r="M11" t="n">
-        <v>10.56845917733914</v>
+        <v>13.27579141385449</v>
       </c>
       <c r="N11" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O11" t="n">
-        <v>9.190786318521262</v>
+        <v>9.205520484977605</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="n">
-        <v>7.26457576837905</v>
+        <v>7.279799578285747</v>
       </c>
       <c r="R11" t="n">
-        <v>0.7061916064030724</v>
+        <v>0.70524881616664</v>
       </c>
       <c r="S11" t="n">
         <v>6</v>
@@ -2754,23 +2754,23 @@
         </is>
       </c>
       <c r="U11" t="n">
-        <v>31.66631828995691</v>
+        <v>31.16745015462885</v>
       </c>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
-        <v>78.4504502700287</v>
+        <v>76.28585049328566</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.5460145967533757</v>
+        <v>0.5396008840983628</v>
       </c>
       <c r="AB11" t="n">
-        <v>67.77115877359107</v>
+        <v>66.96842736698505</v>
       </c>
       <c r="AC11" t="n">
-        <v>-41.78644213593822</v>
+        <v>-39.4578945749419</v>
       </c>
       <c r="AD11" t="b">
         <v>0</v>
@@ -2898,32 +2898,32 @@
         <v>12</v>
       </c>
       <c r="I13" t="n">
-        <v>39.60128562526272</v>
+        <v>40.6886263233003</v>
       </c>
       <c r="J13" t="n">
-        <v>36.34495365167989</v>
+        <v>40.43562799190494</v>
       </c>
       <c r="K13" t="n">
-        <v>34.97693116002576</v>
+        <v>36.14391805414767</v>
       </c>
       <c r="L13" t="n">
-        <v>-5.307443886689977</v>
+        <v>-5.658568642639865</v>
       </c>
       <c r="M13" t="n">
-        <v>72.93028163908393</v>
+        <v>69.50322755609868</v>
       </c>
       <c r="N13" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O13" t="n">
-        <v>10.28701088103086</v>
+        <v>12.86903972795251</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="n">
-        <v>7.92056536698696</v>
+        <v>9.688726733427027</v>
       </c>
       <c r="R13" t="n">
-        <v>0.6319242048747931</v>
+        <v>0.4239619869422661</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
@@ -2936,21 +2936,21 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>(0.18834683697581542, 0.18803902975998224, 0.18778958831550313, 0.161569905839454, 0.16145691836950665, 0.09567528101466465, 0.01712243972507413)</t>
+          <t>(0.18899821314974774, 0.1886821098189652, 0.1884259453518184, 0.1614995819136979, 0.16138354917064182, 0.09382894485424277, 0.01718165574088616)</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="n">
-        <v>197.3457124617554</v>
+        <v>217.7594322309748</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.210404847806188</v>
+        <v>1.375934260481443</v>
       </c>
       <c r="AB13" t="n">
-        <v>153.2066190879174</v>
+        <v>173.4897726459658</v>
       </c>
       <c r="AC13" t="n">
-        <v>-269.7513833059813</v>
+        <v>-328.6622698028377</v>
       </c>
       <c r="AD13" t="b">
         <v>0</v>
@@ -2990,10 +2990,10 @@
         <v>75.22385024635092</v>
       </c>
       <c r="K14" t="n">
-        <v>63.29204867021941</v>
+        <v>63.2920486702194</v>
       </c>
       <c r="L14" t="n">
-        <v>-19.8189650142547</v>
+        <v>-19.81896501425469</v>
       </c>
       <c r="M14" t="n">
         <v>116.4622062660359</v>
@@ -3002,14 +3002,14 @@
         <v>7.299999999999983</v>
       </c>
       <c r="O14" t="n">
-        <v>16.80574782764307</v>
+        <v>16.80574782764318</v>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="n">
-        <v>12.47378710526542</v>
+        <v>12.47378710526552</v>
       </c>
       <c r="R14" t="n">
-        <v>0.01763123414509771</v>
+        <v>0.01763123414508549</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
@@ -13360,19 +13360,19 @@
         <v>102.1557518823351</v>
       </c>
       <c r="J2" t="n">
-        <v>99.58936177142756</v>
+        <v>99.58806918122646</v>
       </c>
       <c r="K2" t="n">
         <v>95.04949088842243</v>
       </c>
       <c r="L2" t="n">
-        <v>-21.83940900583591</v>
+        <v>-26.41258335741748</v>
       </c>
       <c r="M2" t="n">
         <v>-44.91608810424805</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.927720925758575</v>
+        <v>3.126504091981393</v>
       </c>
       <c r="O2" t="n">
         <v>13.22797970211588</v>
@@ -13410,19 +13410,19 @@
         <v>100.052429912694</v>
       </c>
       <c r="J3" t="n">
-        <v>98.23979275603649</v>
+        <v>98.23888274865497</v>
       </c>
       <c r="K3" t="n">
         <v>95.04949088842243</v>
       </c>
       <c r="L3" t="n">
-        <v>6.382823706390362</v>
+        <v>9.147640187257739</v>
       </c>
       <c r="M3" t="n">
         <v>0.4673192203044891</v>
       </c>
       <c r="N3" t="n">
-        <v>13.55981877092411</v>
+        <v>12.726296376099</v>
       </c>
       <c r="O3" t="n">
         <v>23.00033446182202</v>
@@ -13460,19 +13460,19 @@
         <v>98.73840652194941</v>
       </c>
       <c r="J4" t="n">
-        <v>97.58563841540412</v>
+        <v>97.5849674217262</v>
       </c>
       <c r="K4" t="n">
         <v>95.04949088842243</v>
       </c>
       <c r="L4" t="n">
-        <v>-30.97149294047616</v>
+        <v>-33.18793768965774</v>
       </c>
       <c r="M4" t="n">
         <v>-34.81304550170898</v>
       </c>
       <c r="N4" t="n">
-        <v>6.166503594729833</v>
+        <v>13.18925614873632</v>
       </c>
       <c r="O4" t="n">
         <v>32.69332991686343</v>
@@ -13510,19 +13510,19 @@
         <v>97.68778885804055</v>
       </c>
       <c r="J5" t="n">
-        <v>96.74692692576738</v>
+        <v>96.74644703372485</v>
       </c>
       <c r="K5" t="n">
         <v>95.04949088842243</v>
       </c>
       <c r="L5" t="n">
-        <v>6.382823706390362</v>
+        <v>9.147640187257739</v>
       </c>
       <c r="M5" t="n">
         <v>-5.528274059295654</v>
       </c>
       <c r="N5" t="n">
-        <v>21.68986916193774</v>
+        <v>21.521904531731</v>
       </c>
       <c r="O5" t="n">
         <v>42.30750806334375</v>
@@ -13560,19 +13560,19 @@
         <v>96.72507528871006</v>
       </c>
       <c r="J6" t="n">
-        <v>96.58627757163283</v>
+        <v>96.58597279194929</v>
       </c>
       <c r="K6" t="n">
         <v>95.04949088842243</v>
       </c>
       <c r="L6" t="n">
-        <v>-17.7138816079046</v>
+        <v>-16.93264531517776</v>
       </c>
       <c r="M6" t="n">
         <v>3.249172687530518</v>
       </c>
       <c r="N6" t="n">
-        <v>24.75549974319282</v>
+        <v>27.41642901949084</v>
       </c>
       <c r="O6" t="n">
         <v>51.84358090595912</v>
@@ -13610,19 +13610,19 @@
         <v>95.79169718575862</v>
       </c>
       <c r="J7" t="n">
-        <v>95.12007781161981</v>
+        <v>95.11994280833358</v>
       </c>
       <c r="K7" t="n">
         <v>95.04949088842243</v>
       </c>
       <c r="L7" t="n">
-        <v>-25.91716148152943</v>
+        <v>-24.78706343281513</v>
       </c>
       <c r="M7" t="n">
         <v>-43.05313110351562</v>
       </c>
       <c r="N7" t="n">
-        <v>21.71148878490677</v>
+        <v>28.64198786927021</v>
       </c>
       <c r="O7" t="n">
         <v>61.30219361437663</v>
@@ -13660,19 +13660,19 @@
         <v>94.86810895200274</v>
       </c>
       <c r="J8" t="n">
-        <v>94.00898212064845</v>
+        <v>94.00901511303557</v>
       </c>
       <c r="K8" t="n">
         <v>95.04949088842243</v>
       </c>
       <c r="L8" t="n">
-        <v>-29.84251602247724</v>
+        <v>-30.13286482787031</v>
       </c>
       <c r="M8" t="n">
         <v>-23.2375316619873</v>
       </c>
       <c r="N8" t="n">
-        <v>29.42006081547818</v>
+        <v>35.57531337954128</v>
       </c>
       <c r="O8" t="n">
         <v>70.6840187871634</v>
@@ -13710,19 +13710,19 @@
         <v>93.94778780586115</v>
       </c>
       <c r="J9" t="n">
-        <v>93.35297637815512</v>
+        <v>93.35317677195015</v>
       </c>
       <c r="K9" t="n">
         <v>95.04949088842243</v>
       </c>
       <c r="L9" t="n">
-        <v>-23.5425904972807</v>
+        <v>-19.05735646617634</v>
       </c>
       <c r="M9" t="n">
         <v>-14.75483417510986</v>
       </c>
       <c r="N9" t="n">
-        <v>38.327091989816</v>
+        <v>42.90544774102283</v>
       </c>
       <c r="O9" t="n">
         <v>79.98964005992558</v>
@@ -13760,19 +13760,19 @@
         <v>93.02855695635849</v>
       </c>
       <c r="J10" t="n">
-        <v>92.93890469484828</v>
+        <v>92.93927229173221</v>
       </c>
       <c r="K10" t="n">
         <v>95.04949088842243</v>
       </c>
       <c r="L10" t="n">
-        <v>2.127157603873985</v>
+        <v>1.406175139869424</v>
       </c>
       <c r="M10" t="n">
         <v>-14.32335090637207</v>
       </c>
       <c r="N10" t="n">
-        <v>49.5301088845857</v>
+        <v>50.03857538529918</v>
       </c>
       <c r="O10" t="n">
         <v>89.21966563368532</v>
@@ -13810,19 +13810,19 @@
         <v>92.10968996203853</v>
       </c>
       <c r="J11" t="n">
-        <v>93.86898884136406</v>
+        <v>93.86952357515358</v>
       </c>
       <c r="K11" t="n">
         <v>95.04949088842243</v>
       </c>
       <c r="L11" t="n">
-        <v>30.81143409175561</v>
+        <v>31.16203672587097</v>
       </c>
       <c r="M11" t="n">
         <v>33.28797149658203</v>
       </c>
       <c r="N11" t="n">
-        <v>67.90051951645556</v>
+        <v>60.94291394398157</v>
       </c>
       <c r="O11" t="n">
         <v>98.37473210200567</v>
@@ -13860,19 +13860,19 @@
         <v>91.19094439393348</v>
       </c>
       <c r="J12" t="n">
-        <v>94.09736241895453</v>
+        <v>94.0980642675629</v>
       </c>
       <c r="K12" t="n">
         <v>95.04949088842243</v>
       </c>
       <c r="L12" t="n">
-        <v>-8.96735097449988</v>
+        <v>-11.13778963255093</v>
       </c>
       <c r="M12" t="n">
         <v>-12.72276592254639</v>
       </c>
       <c r="N12" t="n">
-        <v>58.7238476352881</v>
+        <v>60.64476154268058</v>
       </c>
       <c r="O12" t="n">
         <v>107.455353933568</v>
@@ -13910,19 +13910,19 @@
         <v>90.2722393483395</v>
       </c>
       <c r="J13" t="n">
-        <v>93.84504227080988</v>
+        <v>93.84591122686628</v>
       </c>
       <c r="K13" t="n">
         <v>95.04949088842243</v>
       </c>
       <c r="L13" t="n">
-        <v>10.56845917733914</v>
+        <v>13.27579141385449</v>
       </c>
       <c r="M13" t="n">
         <v>26.74729347229004</v>
       </c>
       <c r="N13" t="n">
-        <v>72.93028163908393</v>
+        <v>69.50322755609868</v>
       </c>
       <c r="O13" t="n">
         <v>116.4622062660359</v>
@@ -14041,7 +14041,7 @@
         <v>143.1120539770899</v>
       </c>
       <c r="E2" t="n">
-        <v>143.1573607304412</v>
+        <v>143.157360730441</v>
       </c>
       <c r="F2" t="n">
         <v>121.2109306768289</v>
@@ -14053,22 +14053,22 @@
         <v>97.2290968349859</v>
       </c>
       <c r="I2" t="n">
-        <v>120.2058796877672</v>
+        <v>120.2142233553945</v>
       </c>
       <c r="J2" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K2" t="n">
-        <v>147.622953371747</v>
+        <v>145.474517971325</v>
       </c>
       <c r="L2" t="n">
         <v>145.705320930481</v>
       </c>
       <c r="M2" t="n">
-        <v>145.3491705989147</v>
+        <v>144.3428075533341</v>
       </c>
       <c r="N2" t="n">
-        <v>143.1951250946032</v>
+        <v>143.1951250946031</v>
       </c>
       <c r="O2" t="n">
         <v>143.3159605762785</v>
@@ -14088,7 +14088,7 @@
         <v>143.1241059100375</v>
       </c>
       <c r="E3" t="n">
-        <v>143.2147214839734</v>
+        <v>143.2147214839731</v>
       </c>
       <c r="F3" t="n">
         <v>115.3971655936528</v>
@@ -14100,22 +14100,22 @@
         <v>97.52752199089267</v>
       </c>
       <c r="I3" t="n">
-        <v>120.0958123504019</v>
+        <v>120.1041017361174</v>
       </c>
       <c r="J3" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K3" t="n">
-        <v>150.177743575508</v>
+        <v>147.1729426279257</v>
       </c>
       <c r="L3" t="n">
         <v>159.297060585022</v>
       </c>
       <c r="M3" t="n">
-        <v>148.3648688955403</v>
+        <v>146.011176535762</v>
       </c>
       <c r="N3" t="n">
-        <v>143.2903720933962</v>
+        <v>143.2903720933961</v>
       </c>
       <c r="O3" t="n">
         <v>143.5322888861778</v>
@@ -14135,7 +14135,7 @@
         <v>143.1361558008311</v>
       </c>
       <c r="E4" t="n">
-        <v>143.2720822606962</v>
+        <v>143.2720822606957</v>
       </c>
       <c r="F4" t="n">
         <v>113.5034203267793</v>
@@ -14147,22 +14147,22 @@
         <v>97.63610105955703</v>
       </c>
       <c r="I4" t="n">
-        <v>120.0653991884817</v>
+        <v>120.0736688242555</v>
       </c>
       <c r="J4" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K4" t="n">
-        <v>148.369365091948</v>
+        <v>144.0092898178467</v>
       </c>
       <c r="L4" t="n">
         <v>152.3237157821655</v>
       </c>
       <c r="M4" t="n">
-        <v>145.8640261354667</v>
+        <v>144.3867471357765</v>
       </c>
       <c r="N4" t="n">
-        <v>143.38573098129</v>
+        <v>143.3857309812899</v>
       </c>
       <c r="O4" t="n">
         <v>143.7489548823427</v>
@@ -14182,7 +14182,7 @@
         <v>143.1482036459418</v>
       </c>
       <c r="E5" t="n">
-        <v>143.3294430602527</v>
+        <v>143.3294430602521</v>
       </c>
       <c r="F5" t="n">
         <v>106.6635638332916</v>
@@ -14194,22 +14194,22 @@
         <v>97.70789236788656</v>
       </c>
       <c r="I5" t="n">
-        <v>119.8023012497163</v>
+        <v>119.8105578270418</v>
       </c>
       <c r="J5" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K5" t="n">
-        <v>148.0558052808865</v>
+        <v>141.8570419385626</v>
       </c>
       <c r="L5" t="n">
         <v>157.703982925415</v>
       </c>
       <c r="M5" t="n">
-        <v>145.670696923228</v>
+        <v>143.9988675479484</v>
       </c>
       <c r="N5" t="n">
-        <v>143.4811736894939</v>
+        <v>143.4811736894937</v>
       </c>
       <c r="O5" t="n">
         <v>143.9658743622872</v>
@@ -14229,7 +14229,7 @@
         <v>143.1602494547414</v>
       </c>
       <c r="E6" t="n">
-        <v>143.386803882874</v>
+        <v>143.3868038828733</v>
       </c>
       <c r="F6" t="n">
         <v>111.5786596921732</v>
@@ -14241,22 +14241,22 @@
         <v>97.77255506308472</v>
       </c>
       <c r="I6" t="n">
-        <v>120.0469712025408</v>
+        <v>120.0552160180741</v>
       </c>
       <c r="J6" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K6" t="n">
-        <v>150.4555185014484</v>
+        <v>141.7647670377345</v>
       </c>
       <c r="L6" t="n">
         <v>164.296150302887</v>
       </c>
       <c r="M6" t="n">
-        <v>145.4405617371572</v>
+        <v>143.1840616767342</v>
       </c>
       <c r="N6" t="n">
-        <v>143.5767170235114</v>
+        <v>143.5767170235113</v>
       </c>
       <c r="O6" t="n">
         <v>144.183097732919</v>
@@ -14276,7 +14276,7 @@
         <v>143.1722932472848</v>
       </c>
       <c r="E7" t="n">
-        <v>143.4441647280801</v>
+        <v>143.4441647280792</v>
       </c>
       <c r="F7" t="n">
         <v>89.82982520681512</v>
@@ -14288,22 +14288,22 @@
         <v>97.83583639870257</v>
       </c>
       <c r="I7" t="n">
-        <v>119.1314681950471</v>
+        <v>119.1397015000497</v>
       </c>
       <c r="J7" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K7" t="n">
-        <v>142.4431286934729</v>
+        <v>130.9281063939748</v>
       </c>
       <c r="L7" t="n">
         <v>156.277161693573</v>
       </c>
       <c r="M7" t="n">
-        <v>139.993669908686</v>
+        <v>139.8043522270617</v>
       </c>
       <c r="N7" t="n">
-        <v>143.6723546498297</v>
+        <v>143.6723546498295</v>
       </c>
       <c r="O7" t="n">
         <v>144.4006059741242</v>
@@ -14323,7 +14323,7 @@
         <v>143.1843350125139</v>
       </c>
       <c r="E8" t="n">
-        <v>143.501525596312</v>
+        <v>143.501525596311</v>
       </c>
       <c r="F8" t="n">
         <v>74.44263565948754</v>
@@ -14335,22 +14335,22 @@
         <v>97.89885005893183</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4924807145869</v>
+        <v>118.5007025577477</v>
       </c>
       <c r="J8" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K8" t="n">
-        <v>138.0438238043548</v>
+        <v>123.312979828872</v>
       </c>
       <c r="L8" t="n">
         <v>149.2996521949768</v>
       </c>
       <c r="M8" t="n">
-        <v>136.8548818585013</v>
+        <v>137.9150290762769</v>
       </c>
       <c r="N8" t="n">
-        <v>143.768135126296</v>
+        <v>143.7681351262957</v>
       </c>
       <c r="O8" t="n">
         <v>144.6185447700622</v>
@@ -14370,7 +14370,7 @@
         <v>143.1963747629798</v>
       </c>
       <c r="E9" t="n">
-        <v>143.5588864874884</v>
+        <v>143.5588864874872</v>
       </c>
       <c r="F9" t="n">
         <v>69.68506594964725</v>
@@ -14382,22 +14382,22 @@
         <v>97.96181184989064</v>
       </c>
       <c r="I9" t="n">
-        <v>118.3157098707237</v>
+        <v>118.3239202614774</v>
       </c>
       <c r="J9" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K9" t="n">
-        <v>137.4708518954281</v>
+        <v>120.9057739379893</v>
       </c>
       <c r="L9" t="n">
         <v>141.1755457878113</v>
       </c>
       <c r="M9" t="n">
-        <v>135.2567273023251</v>
+        <v>136.9596613226128</v>
       </c>
       <c r="N9" t="n">
-        <v>143.8640722004569</v>
+        <v>143.8640722004565</v>
       </c>
       <c r="O9" t="n">
         <v>144.8369553509025</v>
@@ -14417,7 +14417,7 @@
         <v>143.2084125099659</v>
       </c>
       <c r="E10" t="n">
-        <v>143.6162474011943</v>
+        <v>143.616247401193</v>
       </c>
       <c r="F10" t="n">
         <v>71.4537447070857</v>
@@ -14429,22 +14429,22 @@
         <v>98.0247635897901</v>
       </c>
       <c r="I10" t="n">
-        <v>118.4227357648864</v>
+        <v>118.4309347050611</v>
       </c>
       <c r="J10" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K10" t="n">
-        <v>141.9982749434797</v>
+        <v>123.2396191426763</v>
       </c>
       <c r="L10" t="n">
         <v>154.3225756645203</v>
       </c>
       <c r="M10" t="n">
-        <v>139.248055913056</v>
+        <v>139.2233623931081</v>
       </c>
       <c r="N10" t="n">
-        <v>143.9601733835787</v>
+        <v>143.9601733835784</v>
       </c>
       <c r="O10" t="n">
         <v>145.0558602395762</v>
@@ -14464,7 +14464,7 @@
         <v>143.2204482309233</v>
       </c>
       <c r="E11" t="n">
-        <v>143.6736083376133</v>
+        <v>143.6736083376119</v>
       </c>
       <c r="F11" t="n">
         <v>100.2263802320934</v>
@@ -14476,22 +14476,22 @@
         <v>98.08771338202779</v>
       </c>
       <c r="I11" t="n">
-        <v>119.7040593639259</v>
+        <v>119.712246853876</v>
       </c>
       <c r="J11" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K11" t="n">
-        <v>161.6368682476502</v>
+        <v>141.665087937079</v>
       </c>
       <c r="L11" t="n">
         <v>169.0494261741638</v>
       </c>
       <c r="M11" t="n">
-        <v>148.0993828132153</v>
+        <v>143.7719302185446</v>
       </c>
       <c r="N11" t="n">
-        <v>144.0564721130262</v>
+        <v>144.0564721130258</v>
       </c>
       <c r="O11" t="n">
         <v>145.275359770542</v>
@@ -14511,7 +14511,7 @@
         <v>143.2324819725617</v>
       </c>
       <c r="E12" t="n">
-        <v>143.7309692962669</v>
+        <v>143.7309692962654</v>
       </c>
       <c r="F12" t="n">
         <v>115.6248021003925</v>
@@ -14523,22 +14523,22 @@
         <v>98.15066279685391</v>
       </c>
       <c r="I12" t="n">
-        <v>120.4037894627188</v>
+        <v>120.411965502513</v>
       </c>
       <c r="J12" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K12" t="n">
-        <v>164.7080780433554</v>
+        <v>146.2932470891994</v>
       </c>
       <c r="L12" t="n">
         <v>178.651745891571</v>
       </c>
       <c r="M12" t="n">
-        <v>152.7738173806427</v>
+        <v>147.0232610209434</v>
       </c>
       <c r="N12" t="n">
-        <v>144.1529169940571</v>
+        <v>144.1529169940567</v>
       </c>
       <c r="O12" t="n">
         <v>145.4952997133427</v>
@@ -14558,7 +14558,7 @@
         <v>143.2445137111366</v>
       </c>
       <c r="E13" t="n">
-        <v>143.7883302778489</v>
+        <v>143.7883302778472</v>
       </c>
       <c r="F13" t="n">
         <v>121.8308469039438</v>
@@ -14570,22 +14570,22 @@
         <v>98.21361213854642</v>
       </c>
       <c r="I13" t="n">
-        <v>120.7037782609586</v>
+        <v>120.7119428506101</v>
       </c>
       <c r="J13" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K13" t="n">
-        <v>172.7271932121164</v>
+        <v>151.3884007919321</v>
       </c>
       <c r="L13" t="n">
         <v>188.8854294776916</v>
       </c>
       <c r="M13" t="n">
-        <v>158.0656974660322</v>
+        <v>150.0988150045848</v>
       </c>
       <c r="N13" t="n">
-        <v>144.2495294174592</v>
+        <v>144.2495294174587</v>
       </c>
       <c r="O13" t="n">
         <v>145.7157442633923</v>
@@ -14605,7 +14605,7 @@
         <v>143.2565434621469</v>
       </c>
       <c r="E14" t="n">
-        <v>143.8456912820223</v>
+        <v>143.8456912820205</v>
       </c>
       <c r="F14" t="n">
         <v>120.0644238386848</v>
@@ -14617,22 +14617,22 @@
         <v>98.27656146606735</v>
       </c>
       <c r="I14" t="n">
-        <v>120.6570749647094</v>
+        <v>120.6652281042208</v>
       </c>
       <c r="J14" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K14" t="n">
-        <v>174.8494593809297</v>
+        <v>151.2017611400974</v>
       </c>
       <c r="L14" t="n">
         <v>203.2598896980286</v>
       </c>
       <c r="M14" t="n">
-        <v>162.2752283004273</v>
+        <v>152.7855651976514</v>
       </c>
       <c r="N14" t="n">
-        <v>144.3462704558584</v>
+        <v>144.3462704558578</v>
       </c>
       <c r="O14" t="n">
         <v>145.9365766234059</v>
@@ -14652,7 +14652,7 @@
         <v>143.2685712298355</v>
       </c>
       <c r="E15" t="n">
-        <v>143.9030523085331</v>
+        <v>143.9030523085311</v>
       </c>
       <c r="F15" t="n">
         <v>115.3798033702486</v>
@@ -14664,22 +14664,22 @@
         <v>98.33951079084214</v>
       </c>
       <c r="I15" t="n">
-        <v>120.4834704407378</v>
+        <v>120.4916121301097</v>
       </c>
       <c r="J15" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K15" t="n">
-        <v>176.579661462287</v>
+        <v>150.7659026616953</v>
       </c>
       <c r="L15" t="n">
         <v>207.6809497833252</v>
       </c>
       <c r="M15" t="n">
-        <v>163.749521613002</v>
+        <v>153.6200899684285</v>
       </c>
       <c r="N15" t="n">
-        <v>144.4431127886964</v>
+        <v>144.4431127886959</v>
       </c>
       <c r="O15" t="n">
         <v>146.1577148277208</v>
@@ -14699,7 +14699,7 @@
         <v>143.2805970233453</v>
       </c>
       <c r="E16" t="n">
-        <v>143.9604133569113</v>
+        <v>143.9604133569092</v>
       </c>
       <c r="F16" t="n">
         <v>112.8911596392129</v>
@@ -14711,22 +14711,22 @@
         <v>98.40246011508481</v>
       </c>
       <c r="I16" t="n">
-        <v>120.405360532756</v>
+        <v>120.4134907719883</v>
       </c>
       <c r="J16" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9697328962771</v>
+        <v>145.6639859742953</v>
       </c>
       <c r="L16" t="n">
         <v>200.7649317741394</v>
       </c>
       <c r="M16" t="n">
-        <v>160.8728148513963</v>
+        <v>151.7481035959709</v>
       </c>
       <c r="N16" t="n">
-        <v>144.5400274198617</v>
+        <v>144.5400274198611</v>
       </c>
       <c r="O16" t="n">
         <v>146.3790718793287</v>
@@ -14746,7 +14746,7 @@
         <v>143.2926208407951</v>
       </c>
       <c r="E17" t="n">
-        <v>144.0177744278289</v>
+        <v>144.0177744278266</v>
       </c>
       <c r="F17" t="n">
         <v>106.7662999240974</v>
@@ -14758,22 +14758,22 @@
         <v>98.46540943922436</v>
       </c>
       <c r="I17" t="n">
-        <v>120.1691255207257</v>
+        <v>120.1772443098186</v>
       </c>
       <c r="J17" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K17" t="n">
-        <v>173.0948403761874</v>
+        <v>143.1486729480987</v>
       </c>
       <c r="L17" t="n">
         <v>211.84396276474</v>
       </c>
       <c r="M17" t="n">
-        <v>161.3664461894896</v>
+        <v>151.7658790878468</v>
       </c>
       <c r="N17" t="n">
-        <v>144.6370298486657</v>
+        <v>144.6370298486651</v>
       </c>
       <c r="O17" t="n">
         <v>146.6006942773734</v>
@@ -14793,7 +14793,7 @@
         <v>143.3046426896266</v>
       </c>
       <c r="E18" t="n">
-        <v>144.0751355209892</v>
+        <v>144.0751355209868</v>
       </c>
       <c r="F18" t="n">
         <v>109.8571862048235</v>
@@ -14805,22 +14805,22 @@
         <v>98.52835876334393</v>
       </c>
       <c r="I18" t="n">
-        <v>120.3336479995505</v>
+        <v>120.3417553385038</v>
       </c>
       <c r="J18" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K18" t="n">
-        <v>175.4945535967493</v>
+        <v>141.674352646261</v>
       </c>
       <c r="L18" t="n">
         <v>214.7561839580536</v>
       </c>
       <c r="M18" t="n">
-        <v>160.3864274472172</v>
+        <v>150.4486862952136</v>
       </c>
       <c r="N18" t="n">
-        <v>144.734119996897</v>
+        <v>144.7341199968963</v>
       </c>
       <c r="O18" t="n">
         <v>146.8225817800755</v>
@@ -14840,7 +14840,7 @@
         <v>143.3166625773076</v>
       </c>
       <c r="E19" t="n">
-        <v>144.1324966360923</v>
+        <v>144.1324966360897</v>
       </c>
       <c r="F19" t="n">
         <v>89.87384828047261</v>
@@ -14852,22 +14852,22 @@
         <v>98.59130808745961</v>
       </c>
       <c r="I19" t="n">
-        <v>119.4947608574653</v>
+        <v>119.5028567462792</v>
       </c>
       <c r="J19" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K19" t="n">
-        <v>169.1714962970153</v>
+        <v>132.5270245107426</v>
       </c>
       <c r="L19" t="n">
         <v>211.3433564662933</v>
       </c>
       <c r="M19" t="n">
-        <v>155.7061160190032</v>
+        <v>147.3153014953455</v>
       </c>
       <c r="N19" t="n">
-        <v>144.8313082466657</v>
+        <v>144.8313082466649</v>
       </c>
       <c r="O19" t="n">
         <v>147.0447655265973</v>
@@ -14887,7 +14887,7 @@
         <v>143.3286805053456</v>
       </c>
       <c r="E20" t="n">
-        <v>144.1898577734561</v>
+        <v>144.1898577734534</v>
       </c>
       <c r="F20" t="n">
         <v>73.78828472817402</v>
@@ -14899,22 +14899,22 @@
         <v>98.65425741157456</v>
       </c>
       <c r="I20" t="n">
-        <v>118.8253729917275</v>
+        <v>118.8334574304019</v>
       </c>
       <c r="J20" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K20" t="n">
-        <v>163.5379274242174</v>
+        <v>124.9118979456398</v>
       </c>
       <c r="L20" t="n">
         <v>209.862531042099</v>
       </c>
       <c r="M20" t="n">
-        <v>153.1187700878451</v>
+        <v>145.8237866324386</v>
       </c>
       <c r="N20" t="n">
-        <v>144.9286286665882</v>
+        <v>144.9286286665874</v>
       </c>
       <c r="O20" t="n">
         <v>147.2673477209631</v>
@@ -14934,7 +14934,7 @@
         <v>143.3406964813916</v>
       </c>
       <c r="E21" t="n">
-        <v>144.247218933138</v>
+        <v>144.2472189331352</v>
       </c>
       <c r="F21" t="n">
         <v>68.8064577867062</v>
@@ -14946,22 +14946,22 @@
         <v>98.71720673568936</v>
       </c>
       <c r="I21" t="n">
-        <v>118.6388440964284</v>
+        <v>118.6469170849633</v>
       </c>
       <c r="J21" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K21" t="n">
-        <v>162.9649555152907</v>
+        <v>122.5046920547571</v>
       </c>
       <c r="L21" t="n">
         <v>206.5284181594849</v>
       </c>
       <c r="M21" t="n">
-        <v>152.2233038122454</v>
+        <v>145.2567633187395</v>
       </c>
       <c r="N21" t="n">
-        <v>145.0261008310768</v>
+        <v>145.0261008310759</v>
       </c>
       <c r="O21" t="n">
         <v>147.490387078701</v>
@@ -14981,7 +14981,7 @@
         <v>143.352710510845</v>
       </c>
       <c r="E22" t="n">
-        <v>144.3045801146721</v>
+        <v>144.3045801146691</v>
       </c>
       <c r="F22" t="n">
         <v>72.2571192448237</v>
@@ -14993,22 +14993,22 @@
         <v>98.78015605980413</v>
       </c>
       <c r="I22" t="n">
-        <v>118.8190118195351</v>
+        <v>118.8270733579306</v>
       </c>
       <c r="J22" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K22" t="n">
-        <v>170.3088601149952</v>
+        <v>127.909915168695</v>
       </c>
       <c r="L22" t="n">
         <v>214.5128980636597</v>
       </c>
       <c r="M22" t="n">
-        <v>156.0814519744258</v>
+        <v>147.3004487667955</v>
       </c>
       <c r="N22" t="n">
-        <v>145.1237349297512</v>
+        <v>145.1237349297502</v>
       </c>
       <c r="O22" t="n">
         <v>147.7139141637365</v>
@@ -15028,7 +15028,7 @@
         <v>143.3647225908962</v>
       </c>
       <c r="E23" t="n">
-        <v>144.361941318821</v>
+        <v>144.3619413188179</v>
       </c>
       <c r="F23" t="n">
         <v>98.45767837607104</v>
@@ -15040,22 +15040,22 @@
         <v>98.8431053839189</v>
       </c>
       <c r="I23" t="n">
-        <v>119.9884854450638</v>
+        <v>119.9965355333198</v>
       </c>
       <c r="J23" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K23" t="n">
-        <v>193.7135657833845</v>
+        <v>149.6098133700619</v>
       </c>
       <c r="L23" t="n">
         <v>236.6786943435669</v>
       </c>
       <c r="M23" t="n">
-        <v>166.9008190298236</v>
+        <v>152.7392951468159</v>
       </c>
       <c r="N23" t="n">
-        <v>145.2215595694277</v>
+        <v>145.2215595694267</v>
       </c>
       <c r="O23" t="n">
         <v>147.9380147985661</v>
@@ -15075,7 +15075,7 @@
         <v>143.3767327380609</v>
       </c>
       <c r="E24" t="n">
-        <v>144.41930254434</v>
+        <v>144.4193025443367</v>
       </c>
       <c r="F24" t="n">
         <v>114.1981959903677</v>
@@ -15087,22 +15087,22 @@
         <v>98.90605470803365</v>
       </c>
       <c r="I24" t="n">
-        <v>120.7030919340023</v>
+        <v>120.7111305721188</v>
       </c>
       <c r="J24" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K24" t="n">
-        <v>200.4466923102337</v>
+        <v>157.8998892533262</v>
       </c>
       <c r="L24" t="n">
         <v>241.1501675605774</v>
       </c>
       <c r="M24" t="n">
-        <v>171.7359597237029</v>
+        <v>155.9147054776421</v>
       </c>
       <c r="N24" t="n">
-        <v>145.3195326366786</v>
+        <v>145.3195326366776</v>
       </c>
       <c r="O24" t="n">
         <v>148.1625626276353</v>
@@ -15122,7 +15122,7 @@
         <v>143.3887409506367</v>
       </c>
       <c r="E25" t="n">
-        <v>144.4766637918713</v>
+        <v>144.4766637918679</v>
       </c>
       <c r="F25" t="n">
         <v>122.1937403886071</v>
@@ -15134,22 +15134,22 @@
         <v>98.96900403214842</v>
       </c>
       <c r="I25" t="n">
-        <v>121.0808992062218</v>
+        <v>121.0889263941988</v>
       </c>
       <c r="J25" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K25" t="n">
-        <v>207.735409307086</v>
+        <v>162.6799831091191</v>
       </c>
       <c r="L25" t="n">
         <v>257.2255230903626</v>
       </c>
       <c r="M25" t="n">
-        <v>177.8103680534721</v>
+        <v>159.4957990276756</v>
       </c>
       <c r="N25" t="n">
-        <v>145.417656595334</v>
+        <v>145.4176565953329</v>
       </c>
       <c r="O25" t="n">
         <v>148.3875650434942</v>
@@ -15169,7 +15169,7 @@
         <v>143.4007472359135</v>
       </c>
       <c r="E26" t="n">
-        <v>144.5340250611218</v>
+        <v>144.5340250611182</v>
       </c>
       <c r="F26" t="n">
         <v>118.9168854847484</v>
@@ -15181,22 +15181,22 @@
         <v>99.03195335626319</v>
       </c>
       <c r="I26" t="n">
-        <v>120.9685130136507</v>
+        <v>120.9765287514883</v>
       </c>
       <c r="J26" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K26" t="n">
-        <v>209.05921905685</v>
+        <v>160.6279014841653</v>
       </c>
       <c r="L26" t="n">
         <v>259.4376574516297</v>
       </c>
       <c r="M26" t="n">
-        <v>179.547668285553</v>
+        <v>160.6844025137279</v>
       </c>
       <c r="N26" t="n">
-        <v>145.5159011611456</v>
+        <v>145.5159011611445</v>
       </c>
       <c r="O26" t="n">
         <v>148.6129311864019</v>

--- a/examples/housing_different_levels_results.xlsx
+++ b/examples/housing_different_levels_results.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,70 +449,60 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>mlr</t>
+          <t>knn</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>svr</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>svr</t>
+          <t>xgboost</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>gbt</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>gbt</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>weighted</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>arima</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>hwes</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>weighted</t>
+          <t>prophet</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>silverkite</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>hwes</t>
+          <t>avg_level</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>prophet</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>avg_level</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>weighted_level</t>
         </is>
@@ -523,46 +513,40 @@
         <v>44348</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2159605762784906</v>
+        <v>0.2599999999999995</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3499999999999986</v>
+        <v>5.957117550524226</v>
       </c>
       <c r="D2" t="n">
-        <v>5.950334146049205</v>
+        <v>2.605320930480957</v>
       </c>
       <c r="E2" t="n">
-        <v>2.605320930480957</v>
+        <v>3.132494226404193</v>
       </c>
       <c r="F2" t="n">
-        <v>2.374517971324974</v>
+        <v>2.988733176852344</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05736073044101056</v>
+        <v>2.982629755765246</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01205397708987732</v>
+        <v>144.266784432994</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09512509460312617</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J2" t="n">
-        <v>1.242807553334142</v>
+        <v>121.210930676829</v>
       </c>
       <c r="K2" t="n">
-        <v>97.2290968349859</v>
+        <v>106.4464056700604</v>
       </c>
       <c r="L2" t="n">
-        <v>143.0999998912215</v>
+        <v>128.7560301677762</v>
       </c>
       <c r="M2" t="n">
-        <v>121.2109306768289</v>
-      </c>
-      <c r="N2" t="n">
-        <v>120.5133424676788</v>
-      </c>
-      <c r="O2" t="n">
-        <v>120.2142233553945</v>
+        <v>128.4450053914618</v>
       </c>
     </row>
     <row r="3">
@@ -570,46 +554,40 @@
         <v>44378</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2163283098992963</v>
+        <v>1.680000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009999999999999431</v>
+        <v>1.931878701657451</v>
       </c>
       <c r="D3" t="n">
-        <v>1.911043856914492</v>
+        <v>13.59173965454102</v>
       </c>
       <c r="E3" t="n">
-        <v>13.59173965454102</v>
+        <v>1.784780165404087</v>
       </c>
       <c r="F3" t="n">
-        <v>1.698424656600791</v>
+        <v>4.747099630400639</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05736075353209183</v>
+        <v>4.344483104916458</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01205193294762807</v>
+        <v>144.5592093868451</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0952469987930054</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J3" t="n">
-        <v>1.66836898242793</v>
+        <v>115.3971655936528</v>
       </c>
       <c r="K3" t="n">
-        <v>97.52752199089267</v>
+        <v>106.4263143011974</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0999998912215</v>
+        <v>127.3706722932292</v>
       </c>
       <c r="M3" t="n">
-        <v>115.3971655936528</v>
-      </c>
-      <c r="N3" t="n">
-        <v>118.6748958252556</v>
-      </c>
-      <c r="O3" t="n">
-        <v>120.1041017361174</v>
+        <v>128.2846702813131</v>
       </c>
     </row>
     <row r="4">
@@ -617,46 +595,40 @@
         <v>44409</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2166659961649486</v>
+        <v>-1.4</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.849999999999999</v>
+        <v>-3.12917758912104</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.156598495203612</v>
+        <v>-6.973344802856445</v>
       </c>
       <c r="E4" t="n">
-        <v>-6.973344802856445</v>
+        <v>-2.575821427784892</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.163652810079073</v>
+        <v>-3.519585954940594</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05736077672262693</v>
+        <v>-3.284571468006454</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01204989079356267</v>
+        <v>144.6237951128402</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09535888789371276</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J4" t="n">
-        <v>-1.624429399985522</v>
+        <v>113.5034203267793</v>
       </c>
       <c r="K4" t="n">
-        <v>97.63610105955703</v>
+        <v>106.3759027663975</v>
       </c>
       <c r="L4" t="n">
-        <v>143.0999998912215</v>
+        <v>126.9007795243096</v>
       </c>
       <c r="M4" t="n">
-        <v>113.5034203267793</v>
-      </c>
-      <c r="N4" t="n">
-        <v>118.0798404258526</v>
-      </c>
-      <c r="O4" t="n">
-        <v>120.0736688242555</v>
+        <v>128.2098301997401</v>
       </c>
     </row>
     <row r="5">
@@ -664,46 +636,40 @@
         <v>44440</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2169194799444938</v>
+        <v>-0.3399999999999977</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0299999999999983</v>
+        <v>-5.636474164603681</v>
       </c>
       <c r="D5" t="n">
-        <v>-5.666893700706981</v>
+        <v>5.380267143249512</v>
       </c>
       <c r="E5" t="n">
-        <v>5.380267143249512</v>
+        <v>-1.573738588690297</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.152247879284023</v>
+        <v>-0.5424864025111161</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05736079955637471</v>
+        <v>-1.119005889196395</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01204784511072887</v>
+        <v>144.6385156828069</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0954427082038658</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.3878795878280942</v>
+        <v>106.6635638332916</v>
       </c>
       <c r="K5" t="n">
-        <v>97.70789236788656</v>
+        <v>106.3440355923334</v>
       </c>
       <c r="L5" t="n">
-        <v>143.0999998912215</v>
+        <v>125.1865287499134</v>
       </c>
       <c r="M5" t="n">
-        <v>106.6635638332916</v>
-      </c>
-      <c r="N5" t="n">
-        <v>115.8238186974665</v>
-      </c>
-      <c r="O5" t="n">
-        <v>119.8105578270418</v>
+        <v>127.9563178378245</v>
       </c>
     </row>
     <row r="6">
@@ -711,46 +677,40 @@
         <v>44470</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2172233706317854</v>
+        <v>-3.280000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.439999999999998</v>
+        <v>-5.73393649123871</v>
       </c>
       <c r="D6" t="n">
-        <v>-5.764082549298242</v>
+        <v>6.592167377471924</v>
       </c>
       <c r="E6" t="n">
-        <v>6.592167377471924</v>
+        <v>0.4955564814659881</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.09227490082819133</v>
+        <v>-0.4815531580751998</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05736082262118872</v>
+        <v>-1.934976449314559</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0120458087996127</v>
+        <v>144.6418437271347</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09554333401752894</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.8148058712142443</v>
+        <v>111.5786596921732</v>
       </c>
       <c r="K6" t="n">
-        <v>97.77255506308472</v>
+        <v>106.3078988285164</v>
       </c>
       <c r="L6" t="n">
-        <v>143.0999998912215</v>
+        <v>126.4071005347615</v>
       </c>
       <c r="M6" t="n">
-        <v>111.5786596921732</v>
-      </c>
-      <c r="N6" t="n">
-        <v>117.4837382154931</v>
-      </c>
-      <c r="O6" t="n">
-        <v>120.0552160180741</v>
+        <v>128.1183983828476</v>
       </c>
     </row>
     <row r="7">
@@ -758,46 +718,40 @@
         <v>44501</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2175082412052234</v>
+        <v>-6.219999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>-7.1</v>
+        <v>-8.328265070736306</v>
       </c>
       <c r="D7" t="n">
-        <v>-8.35612321688931</v>
+        <v>-8.018988609313965</v>
       </c>
       <c r="E7" t="n">
-        <v>-8.018988609313965</v>
+        <v>-9.597044752325903</v>
       </c>
       <c r="F7" t="n">
-        <v>-10.8366606437597</v>
+        <v>-8.041074608094043</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05736084520598339</v>
+        <v>-7.507772394060248</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01204379254340893</v>
+        <v>144.6425976974261</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09563762631820523</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J7" t="n">
-        <v>-3.379709449672442</v>
+        <v>89.82982520681512</v>
       </c>
       <c r="K7" t="n">
-        <v>97.83583639870257</v>
+        <v>106.267680308882</v>
       </c>
       <c r="L7" t="n">
-        <v>143.0999998912215</v>
+        <v>120.9600257760862</v>
       </c>
       <c r="M7" t="n">
-        <v>89.82982520681512</v>
-      </c>
-      <c r="N7" t="n">
-        <v>110.2552204989131</v>
-      </c>
-      <c r="O7" t="n">
-        <v>119.1397015000497</v>
+        <v>127.3271651967546</v>
       </c>
     </row>
     <row r="8">
@@ -805,46 +759,40 @@
         <v>44531</v>
       </c>
       <c r="B8" t="n">
-        <v>0.217938795937954</v>
+        <v>-6.680000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>-3.97</v>
+        <v>-3.181943763822314</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.202316107302563</v>
+        <v>-6.977509498596191</v>
       </c>
       <c r="E8" t="n">
-        <v>-6.977509498596191</v>
+        <v>-6.185731855802861</v>
       </c>
       <c r="F8" t="n">
-        <v>-7.615126565102805</v>
+        <v>-5.756296279555342</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05736086823177908</v>
+        <v>-5.426422571864524</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01204176522905698</v>
+        <v>144.6427684190898</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09578047646626335</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J8" t="n">
-        <v>-1.889323150784866</v>
+        <v>74.44263565948754</v>
       </c>
       <c r="K8" t="n">
-        <v>97.89885005893183</v>
+        <v>106.2423211157876</v>
       </c>
       <c r="L8" t="n">
-        <v>143.0999998912215</v>
+        <v>117.1069312713966</v>
       </c>
       <c r="M8" t="n">
-        <v>74.44263565948754</v>
-      </c>
-      <c r="N8" t="n">
-        <v>105.1471618698803</v>
-      </c>
-      <c r="O8" t="n">
-        <v>118.5007025577477</v>
+        <v>126.7684938357988</v>
       </c>
     </row>
     <row r="9">
@@ -852,46 +800,40 @@
         <v>44562</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2184105808403274</v>
+        <v>1.859999999999997</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.540000000000002</v>
+        <v>0.2776741563698604</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2647421761536179</v>
+        <v>-8.124106407165527</v>
       </c>
       <c r="E9" t="n">
-        <v>-8.124106407165527</v>
+        <v>-2.232154345525847</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.407205890882691</v>
+        <v>-2.054646649080379</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05736089117620938</v>
+        <v>-1.020859888833611</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01203975046591665</v>
+        <v>144.6428070808934</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0959370741608178</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.9553677536640504</v>
+        <v>69.68506594964725</v>
       </c>
       <c r="K9" t="n">
-        <v>97.96181184989064</v>
+        <v>106.1583053250758</v>
       </c>
       <c r="L9" t="n">
-        <v>143.0999998912215</v>
+        <v>115.8965445617095</v>
       </c>
       <c r="M9" t="n">
-        <v>69.68506594964725</v>
-      </c>
-      <c r="N9" t="n">
-        <v>103.5822925635865</v>
-      </c>
-      <c r="O9" t="n">
-        <v>118.3239202614774</v>
+        <v>126.5664673253489</v>
       </c>
     </row>
     <row r="10">
@@ -899,46 +841,40 @@
         <v>44593</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2189048886737055</v>
+        <v>0.8400000000000005</v>
       </c>
       <c r="C10" t="n">
-        <v>4.13</v>
+        <v>1.672734717857283</v>
       </c>
       <c r="D10" t="n">
-        <v>1.664922360016853</v>
+        <v>13.14702987670898</v>
       </c>
       <c r="E10" t="n">
-        <v>13.14702987670898</v>
+        <v>2.883572931552492</v>
       </c>
       <c r="F10" t="n">
-        <v>2.333845204687038</v>
+        <v>4.635834381529691</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0573609137057616</v>
+        <v>3.872328243386582</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01203774698603866</v>
+        <v>144.6428158359803</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09610118312183524</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J10" t="n">
-        <v>2.263701070495248</v>
+        <v>71.4537447070857</v>
       </c>
       <c r="K10" t="n">
-        <v>98.0247635897901</v>
+        <v>106.1835756179369</v>
       </c>
       <c r="L10" t="n">
-        <v>143.0999998912215</v>
+        <v>116.3450340130561</v>
       </c>
       <c r="M10" t="n">
-        <v>71.4537447070857</v>
-      </c>
-      <c r="N10" t="n">
-        <v>104.1928360626991</v>
-      </c>
-      <c r="O10" t="n">
-        <v>118.4309347050611</v>
+        <v>126.6392843589619</v>
       </c>
     </row>
     <row r="11">
@@ -946,46 +882,40 @@
         <v>44621</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2194995309658054</v>
+        <v>10.72</v>
       </c>
       <c r="C11" t="n">
-        <v>8.02</v>
+        <v>9.299175503849334</v>
       </c>
       <c r="D11" t="n">
-        <v>9.297720624423924</v>
+        <v>14.72685050964355</v>
       </c>
       <c r="E11" t="n">
-        <v>14.72685050964355</v>
+        <v>19.00509391090534</v>
       </c>
       <c r="F11" t="n">
-        <v>18.42546879440268</v>
+        <v>13.43777998109956</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05736093641892903</v>
+        <v>11.34014524110609</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01203572095745642</v>
+        <v>144.6428178186148</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09629872944739697</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J11" t="n">
-        <v>4.548567825436512</v>
+        <v>100.2263802320934</v>
       </c>
       <c r="K11" t="n">
-        <v>98.08771338202779</v>
+        <v>106.156807070408</v>
       </c>
       <c r="L11" t="n">
-        <v>143.0999998912215</v>
+        <v>123.5315012530844</v>
       </c>
       <c r="M11" t="n">
-        <v>100.2263802320934</v>
-      </c>
-      <c r="N11" t="n">
-        <v>113.8046978351142</v>
-      </c>
-      <c r="O11" t="n">
-        <v>119.712246853876</v>
+        <v>127.6554847398075</v>
       </c>
     </row>
     <row r="12">
@@ -993,46 +923,40 @@
         <v>44652</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2199399428006643</v>
+        <v>7.439999999999998</v>
       </c>
       <c r="C12" t="n">
-        <v>9.34</v>
+        <v>4.390277109021998</v>
       </c>
       <c r="D12" t="n">
-        <v>4.386382704120387</v>
+        <v>9.602319717407227</v>
       </c>
       <c r="E12" t="n">
-        <v>9.602319717407227</v>
+        <v>2.948937696762113</v>
       </c>
       <c r="F12" t="n">
-        <v>4.628159152120355</v>
+        <v>6.095383630797834</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05736095865343671</v>
+        <v>6.617595383154119</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01203374163844728</v>
+        <v>144.6428182675917</v>
       </c>
       <c r="I12" t="n">
-        <v>0.09644488103084943</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J12" t="n">
-        <v>3.251330802398759</v>
+        <v>115.6248021003925</v>
       </c>
       <c r="K12" t="n">
-        <v>98.15066279685391</v>
+        <v>106.1224254895254</v>
       </c>
       <c r="L12" t="n">
-        <v>143.0999998912215</v>
+        <v>127.3725114371828</v>
       </c>
       <c r="M12" t="n">
-        <v>115.6248021003925</v>
-      </c>
-      <c r="N12" t="n">
-        <v>118.9584882628226</v>
-      </c>
-      <c r="O12" t="n">
-        <v>120.411965502513</v>
+        <v>128.1916194992442</v>
       </c>
     </row>
     <row r="13">
@@ -1040,46 +964,40 @@
         <v>44682</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2204445500496206</v>
+        <v>-1.240000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>3.969999999999999</v>
+        <v>8.259631233900556</v>
       </c>
       <c r="D13" t="n">
-        <v>8.253674551746993</v>
+        <v>10.23368358612061</v>
       </c>
       <c r="E13" t="n">
-        <v>10.23368358612061</v>
+        <v>6.031386870045647</v>
       </c>
       <c r="F13" t="n">
-        <v>5.095153702732728</v>
+        <v>5.821175422516702</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05736098158184727</v>
+        <v>5.01515119269302</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01203173857481943</v>
+        <v>144.6428183692646</v>
       </c>
       <c r="I13" t="n">
-        <v>0.09661242340209576</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J13" t="n">
-        <v>3.075553983641483</v>
+        <v>121.8308469039438</v>
       </c>
       <c r="K13" t="n">
-        <v>98.21361213854642</v>
+        <v>106.0863863662919</v>
       </c>
       <c r="L13" t="n">
-        <v>143.0999998912215</v>
+        <v>128.9150128826804</v>
       </c>
       <c r="M13" t="n">
-        <v>121.8308469039438</v>
-      </c>
-      <c r="N13" t="n">
-        <v>121.0481529779039</v>
-      </c>
-      <c r="O13" t="n">
-        <v>120.7119428506101</v>
+        <v>128.3991697916235</v>
       </c>
     </row>
     <row r="14">
@@ -1087,46 +1005,40 @@
         <v>44713</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2208323600135884</v>
+        <v>-1.079999999999998</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8500000000000014</v>
+        <v>7.133472826853025</v>
       </c>
       <c r="D14" t="n">
-        <v>7.121139387091595</v>
+        <v>14.37446022033691</v>
       </c>
       <c r="E14" t="n">
-        <v>14.37446022033691</v>
+        <v>0.09925645560857098</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1866396518347098</v>
+        <v>5.131797375699628</v>
       </c>
       <c r="G14" t="n">
-        <v>0.05736100417329582</v>
+        <v>5.34536043288468</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01202975101037396</v>
+        <v>144.6428183922889</v>
       </c>
       <c r="I14" t="n">
-        <v>0.09674103839908606</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J14" t="n">
-        <v>2.686750193066592</v>
+        <v>120.0644238386848</v>
       </c>
       <c r="K14" t="n">
-        <v>98.27656146606735</v>
+        <v>106.0503626448521</v>
       </c>
       <c r="L14" t="n">
-        <v>143.0999998912215</v>
+        <v>128.4644011917618</v>
       </c>
       <c r="M14" t="n">
-        <v>120.0644238386848</v>
-      </c>
-      <c r="N14" t="n">
-        <v>120.4803283986579</v>
-      </c>
-      <c r="O14" t="n">
-        <v>120.6652281042208</v>
+        <v>128.322300350126</v>
       </c>
     </row>
     <row r="15">
@@ -1134,46 +1046,40 @@
         <v>44743</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2211382043148831</v>
+        <v>1.080000000000004</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.6799999999999997</v>
+        <v>3.011129212839087</v>
       </c>
       <c r="D15" t="n">
-        <v>2.988194614863885</v>
+        <v>4.421060085296631</v>
       </c>
       <c r="E15" t="n">
-        <v>4.421060085296631</v>
+        <v>-0.03670096069412773</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4358584784020574</v>
+        <v>2.118872084360398</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05736102651063241</v>
+        <v>2.479728283431286</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01202776768857916</v>
+        <v>144.6428183975029</v>
       </c>
       <c r="I15" t="n">
-        <v>0.09684233283803155</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8345247707771241</v>
+        <v>115.3798033702486</v>
       </c>
       <c r="K15" t="n">
-        <v>98.33951079084214</v>
+        <v>106.0214989133861</v>
       </c>
       <c r="L15" t="n">
-        <v>143.0999998912215</v>
+        <v>127.2860301430898</v>
       </c>
       <c r="M15" t="n">
-        <v>115.3798033702486</v>
-      </c>
-      <c r="N15" t="n">
-        <v>118.9397713507707</v>
-      </c>
-      <c r="O15" t="n">
-        <v>120.4916121301097</v>
+        <v>128.1440742450908</v>
       </c>
     </row>
     <row r="16">
@@ -1181,46 +1087,40 @@
         <v>44774</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2213570516079528</v>
+        <v>-2.580000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.849999999999999</v>
+        <v>-4.492343659496313</v>
       </c>
       <c r="D16" t="n">
-        <v>-4.522987553826191</v>
+        <v>-6.916018009185791</v>
       </c>
       <c r="E16" t="n">
-        <v>-6.916018009185791</v>
+        <v>-4.514085305105847</v>
       </c>
       <c r="F16" t="n">
-        <v>-5.101916687400027</v>
+        <v>-4.625611743446988</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05736104837804401</v>
+        <v>-4.292084363119525</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01202579350977828</v>
+        <v>144.6428183986836</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09691463116525838</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.871986372457609</v>
+        <v>112.8911596392129</v>
       </c>
       <c r="K16" t="n">
-        <v>98.40246011508481</v>
+        <v>105.9809305343816</v>
       </c>
       <c r="L16" t="n">
-        <v>143.0999998912215</v>
+        <v>126.6537271158749</v>
       </c>
       <c r="M16" t="n">
-        <v>112.8911596392129</v>
-      </c>
-      <c r="N16" t="n">
-        <v>118.1312065485064</v>
-      </c>
-      <c r="O16" t="n">
-        <v>120.4134907719883</v>
+        <v>128.0396915156067</v>
       </c>
     </row>
     <row r="17">
@@ -1228,46 +1128,40 @@
         <v>44805</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2216223980446728</v>
+        <v>-0.3399999999999977</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.8900000000000006</v>
+        <v>-5.479137583751163</v>
       </c>
       <c r="D17" t="n">
-        <v>-5.51271382932108</v>
+        <v>11.07903099060059</v>
       </c>
       <c r="E17" t="n">
-        <v>11.07903099060059</v>
+        <v>-1.956308833500823</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.51531302619663</v>
+        <v>0.8258961433371506</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05736107091745732</v>
+        <v>0.1545416826290155</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01202381744977288</v>
+        <v>144.642818398951</v>
       </c>
       <c r="I17" t="n">
-        <v>0.09700242880396766</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J17" t="n">
-        <v>0.01777549187585655</v>
+        <v>106.7662999240974</v>
       </c>
       <c r="K17" t="n">
-        <v>98.46540943922436</v>
+        <v>105.9527357516209</v>
       </c>
       <c r="L17" t="n">
-        <v>143.0999998912215</v>
+        <v>125.1154634914727</v>
       </c>
       <c r="M17" t="n">
-        <v>106.7662999240974</v>
-      </c>
-      <c r="N17" t="n">
-        <v>116.1105697515144</v>
-      </c>
-      <c r="O17" t="n">
-        <v>120.1772443098186</v>
+        <v>127.8103406568948</v>
       </c>
     </row>
     <row r="18">
@@ -1275,46 +1169,40 @@
         <v>44835</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2218875027020601</v>
+        <v>-5.139999999999998</v>
       </c>
       <c r="C18" t="n">
-        <v>-3.439999999999998</v>
+        <v>-6.562149227935627</v>
       </c>
       <c r="D18" t="n">
-        <v>-6.595827745011652</v>
+        <v>2.912221193313599</v>
       </c>
       <c r="E18" t="n">
-        <v>2.912221193313599</v>
+        <v>0.4955564814659881</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.47432030183771</v>
+        <v>-2.07359288828901</v>
       </c>
       <c r="G18" t="n">
-        <v>0.05736109316018842</v>
+        <v>-3.739597252193553</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01202184883155155</v>
+        <v>144.6428183990115</v>
       </c>
       <c r="I18" t="n">
-        <v>0.09709014823126672</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J18" t="n">
-        <v>-1.317192792633192</v>
+        <v>109.8571862048235</v>
       </c>
       <c r="K18" t="n">
-        <v>98.52835876334393</v>
+        <v>105.9030834407051</v>
       </c>
       <c r="L18" t="n">
-        <v>143.0999998912215</v>
+        <v>125.8757719839404</v>
       </c>
       <c r="M18" t="n">
-        <v>109.8571862048235</v>
-      </c>
-      <c r="N18" t="n">
-        <v>117.161848286463</v>
-      </c>
-      <c r="O18" t="n">
-        <v>120.3417553385038</v>
+        <v>127.9015205226337</v>
       </c>
     </row>
     <row r="19">
@@ -1322,46 +1210,40 @@
         <v>44866</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2221837465218357</v>
+        <v>-6.219999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>-8.830000000000002</v>
+        <v>-7.930784393408478</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.961872128057017</v>
+        <v>-3.412827491760254</v>
       </c>
       <c r="E19" t="n">
-        <v>-3.412827491760254</v>
+        <v>-7.907712244084536</v>
       </c>
       <c r="F19" t="n">
-        <v>-9.147328135518334</v>
+        <v>-6.367831032313317</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05736111510293207</v>
+        <v>-6.309162359107113</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01201988768092122</v>
+        <v>144.6428183990252</v>
       </c>
       <c r="I19" t="n">
-        <v>0.097188249768563</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J19" t="n">
-        <v>-3.133384799868089</v>
+        <v>89.87384828047261</v>
       </c>
       <c r="K19" t="n">
-        <v>98.59130808745961</v>
+        <v>105.8628649210707</v>
       </c>
       <c r="L19" t="n">
-        <v>143.0999998912215</v>
+        <v>120.8698828729475</v>
       </c>
       <c r="M19" t="n">
-        <v>89.87384828047261</v>
-      </c>
-      <c r="N19" t="n">
-        <v>110.5217187530512</v>
-      </c>
-      <c r="O19" t="n">
-        <v>119.5028567462792</v>
+        <v>127.1731318678748</v>
       </c>
     </row>
     <row r="20">
@@ -1369,46 +1251,40 @@
         <v>44896</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2225821943657706</v>
+        <v>-6.680000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>-3.97</v>
+        <v>-3.915461373318569</v>
       </c>
       <c r="D20" t="n">
-        <v>-3.938514201613873</v>
+        <v>-1.480825424194336</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.480825424194336</v>
+        <v>-6.185731855802861</v>
       </c>
       <c r="F20" t="n">
-        <v>-7.615126565102805</v>
+        <v>-4.565504663328942</v>
       </c>
       <c r="G20" t="n">
-        <v>0.05736113736370824</v>
+        <v>-4.514522781198774</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01201792803799151</v>
+        <v>144.6428183990283</v>
       </c>
       <c r="I20" t="n">
-        <v>0.09732041992249013</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J20" t="n">
-        <v>-1.491514862906973</v>
+        <v>73.78828472817402</v>
       </c>
       <c r="K20" t="n">
-        <v>98.65425741157456</v>
+        <v>105.8375057279763</v>
       </c>
       <c r="L20" t="n">
-        <v>143.0999998912215</v>
+        <v>116.8421521866</v>
       </c>
       <c r="M20" t="n">
-        <v>73.78828472817402</v>
-      </c>
-      <c r="N20" t="n">
-        <v>105.1808473436567</v>
-      </c>
-      <c r="O20" t="n">
-        <v>118.8334574304019</v>
+        <v>126.589513332812</v>
       </c>
     </row>
     <row r="21">
@@ -1416,46 +1292,40 @@
         <v>44927</v>
       </c>
       <c r="B21" t="n">
-        <v>0.2230393577378891</v>
+        <v>5.879999999999995</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.540000000000002</v>
+        <v>-0.1044294600391575</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1192085897255089</v>
+        <v>-3.334112882614136</v>
       </c>
       <c r="E21" t="n">
-        <v>-3.334112882614136</v>
+        <v>-2.232154345525847</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.407205890882691</v>
+        <v>0.05232582795521379</v>
       </c>
       <c r="G21" t="n">
-        <v>0.05736115968175903</v>
+        <v>1.389996529030856</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01201597604602966</v>
+        <v>144.642818399029</v>
       </c>
       <c r="I21" t="n">
-        <v>0.09747216448855926</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.5670233136990355</v>
+        <v>68.80645778670622</v>
       </c>
       <c r="K21" t="n">
-        <v>98.71720673568936</v>
+        <v>105.7677933847698</v>
       </c>
       <c r="L21" t="n">
-        <v>143.0999998912215</v>
+        <v>115.5792673654316</v>
       </c>
       <c r="M21" t="n">
-        <v>68.8064577867062</v>
-      </c>
-      <c r="N21" t="n">
-        <v>103.5412214712057</v>
-      </c>
-      <c r="O21" t="n">
-        <v>118.6469170849633</v>
+        <v>126.3849784338038</v>
       </c>
     </row>
     <row r="22">
@@ -1463,46 +1333,40 @@
         <v>44958</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2235270850355562</v>
+        <v>1.080000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>4.970000000000001</v>
+        <v>2.138728331990617</v>
       </c>
       <c r="D22" t="n">
-        <v>2.130171006797716</v>
+        <v>7.984479904174805</v>
       </c>
       <c r="E22" t="n">
-        <v>7.984479904174805</v>
+        <v>5.954950840803371</v>
       </c>
       <c r="F22" t="n">
-        <v>5.405223113937914</v>
+        <v>4.289539769242198</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05736118153390712</v>
+        <v>3.12936368954667</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01201402945341101</v>
+        <v>144.6428183990292</v>
       </c>
       <c r="I22" t="n">
-        <v>0.09763409867429144</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J22" t="n">
-        <v>2.043685448055993</v>
+        <v>72.25711924482371</v>
       </c>
       <c r="K22" t="n">
-        <v>98.78015605980413</v>
+        <v>105.7830460137165</v>
       </c>
       <c r="L22" t="n">
-        <v>143.0999998912215</v>
+        <v>116.4457458871977</v>
       </c>
       <c r="M22" t="n">
-        <v>72.2571192448237</v>
-      </c>
-      <c r="N22" t="n">
-        <v>104.7124250652831</v>
-      </c>
-      <c r="O22" t="n">
-        <v>118.8270733579306</v>
+        <v>126.5139485787636</v>
       </c>
     </row>
     <row r="23">
@@ -1510,46 +1374,40 @@
         <v>44986</v>
       </c>
       <c r="B23" t="n">
-        <v>0.2241006348295684</v>
+        <v>9.200000000000003</v>
       </c>
       <c r="C23" t="n">
-        <v>7.280000000000001</v>
+        <v>10.8779589718183</v>
       </c>
       <c r="D23" t="n">
-        <v>10.87580677674121</v>
+        <v>22.16579627990723</v>
       </c>
       <c r="E23" t="n">
-        <v>22.16579627990723</v>
+        <v>21.3783498221829</v>
       </c>
       <c r="F23" t="n">
-        <v>21.69989820136688</v>
+        <v>15.90552626847711</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05736120414874982</v>
+        <v>13.03709488599644</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01201208005113585</v>
+        <v>144.6428183990292</v>
       </c>
       <c r="I23" t="n">
-        <v>0.09782463967648469</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J23" t="n">
-        <v>5.438846380020414</v>
+        <v>98.45767837607104</v>
       </c>
       <c r="K23" t="n">
-        <v>98.8431053839189</v>
+        <v>105.7519916825968</v>
       </c>
       <c r="L23" t="n">
-        <v>143.0999998912215</v>
+        <v>122.9881220872296</v>
       </c>
       <c r="M23" t="n">
-        <v>98.45767837607104</v>
-      </c>
-      <c r="N23" t="n">
-        <v>113.4669278837371</v>
-      </c>
-      <c r="O23" t="n">
-        <v>119.9965355333198</v>
+        <v>127.4367394127438</v>
       </c>
     </row>
     <row r="24">
@@ -1557,46 +1415,40 @@
         <v>45017</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2245478290691949</v>
+        <v>5.859999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>8.940000000000001</v>
+        <v>6.908560823634033</v>
       </c>
       <c r="D24" t="n">
-        <v>6.904109248309029</v>
+        <v>4.471473217010498</v>
       </c>
       <c r="E24" t="n">
-        <v>4.471473217010498</v>
+        <v>6.448226844460899</v>
       </c>
       <c r="F24" t="n">
-        <v>8.290075883264313</v>
+        <v>5.922065221276357</v>
       </c>
       <c r="G24" t="n">
-        <v>0.05736122551882769</v>
+        <v>5.97086336042844</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01201014716470183</v>
+        <v>144.6428183990292</v>
       </c>
       <c r="I24" t="n">
-        <v>0.09797306725090815</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J24" t="n">
-        <v>3.175410330826144</v>
+        <v>114.1981959903677</v>
       </c>
       <c r="K24" t="n">
-        <v>98.90605470803365</v>
+        <v>105.7015801477967</v>
       </c>
       <c r="L24" t="n">
-        <v>143.0999998912215</v>
+        <v>126.9106486071038</v>
       </c>
       <c r="M24" t="n">
-        <v>114.1981959903677</v>
-      </c>
-      <c r="N24" t="n">
-        <v>118.734750196541</v>
-      </c>
-      <c r="O24" t="n">
-        <v>120.7111305721188</v>
+        <v>127.9789154212466</v>
       </c>
     </row>
     <row r="25">
@@ -1604,46 +1456,40 @@
         <v>45047</v>
       </c>
       <c r="B25" t="n">
-        <v>0.2250024158589667</v>
+        <v>-1.240000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>3.969999999999999</v>
+        <v>8.02579250984958</v>
       </c>
       <c r="D25" t="n">
-        <v>8.018089681937507</v>
+        <v>16.07535552978516</v>
       </c>
       <c r="E25" t="n">
-        <v>16.07535552978516</v>
+        <v>5.380434571626094</v>
       </c>
       <c r="F25" t="n">
-        <v>4.7800938557929</v>
+        <v>7.060395652815207</v>
       </c>
       <c r="G25" t="n">
-        <v>0.05736124753122482</v>
+        <v>6.164816768241623</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01200821257580742</v>
+        <v>144.6428183990292</v>
       </c>
       <c r="I25" t="n">
-        <v>0.09812395865533301</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J25" t="n">
-        <v>3.581093550033533</v>
+        <v>122.1937403886071</v>
       </c>
       <c r="K25" t="n">
-        <v>98.96900403214842</v>
+        <v>105.6917639936461</v>
       </c>
       <c r="L25" t="n">
-        <v>143.0999998912215</v>
+        <v>128.907080668126</v>
       </c>
       <c r="M25" t="n">
-        <v>122.1937403886071</v>
-      </c>
-      <c r="N25" t="n">
-        <v>121.420914770659</v>
-      </c>
-      <c r="O25" t="n">
-        <v>121.0889263941988</v>
+        <v>128.2603901805917</v>
       </c>
     </row>
     <row r="26">
@@ -1651,46 +1497,40 @@
         <v>45078</v>
       </c>
       <c r="B26" t="n">
-        <v>0.2253661429076317</v>
+        <v>-1.079999999999998</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5700000000000003</v>
+        <v>5.397345540863187</v>
       </c>
       <c r="D26" t="n">
-        <v>5.382751932082185</v>
+        <v>2.21213436126709</v>
       </c>
       <c r="E26" t="n">
-        <v>2.21213436126709</v>
+        <v>-2.081245364450379</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.052081624953837</v>
+        <v>1.112058634419975</v>
       </c>
       <c r="G26" t="n">
-        <v>0.05736126925029333</v>
+        <v>2.00359713717591</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01200628527679726</v>
+        <v>144.6428183990292</v>
       </c>
       <c r="I26" t="n">
-        <v>0.09824456581157409</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J26" t="n">
-        <v>1.188603486052294</v>
+        <v>118.9168854847484</v>
       </c>
       <c r="K26" t="n">
-        <v>99.03195335626319</v>
+        <v>105.6499560232032</v>
       </c>
       <c r="L26" t="n">
-        <v>143.0999998912215</v>
+        <v>128.0774149495506</v>
       </c>
       <c r="M26" t="n">
-        <v>118.9168854847484</v>
-      </c>
-      <c r="N26" t="n">
-        <v>120.3496129107444</v>
-      </c>
-      <c r="O26" t="n">
-        <v>120.9765287514883</v>
+        <v>128.127410637489</v>
       </c>
     </row>
   </sheetData>
@@ -1704,7 +1544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD15"/>
+  <dimension ref="A1:AD13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1882,7 +1722,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 10, 'weights': 'uniform'}</t>
+          <t>{'n_neighbors': 5, 'weights': 'uniform'}</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1900,32 +1740,32 @@
         <v>12</v>
       </c>
       <c r="I2" t="n">
-        <v>15.82121834752305</v>
+        <v>15.93541966814806</v>
       </c>
       <c r="J2" t="n">
-        <v>2.879756346463232</v>
+        <v>2.78966886048938</v>
       </c>
       <c r="K2" t="n">
-        <v>12.81999999999999</v>
+        <v>12.67999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.006733855290852686</v>
+        <v>-0.02131999839122667</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.05</v>
+        <v>-2.760000000000002</v>
       </c>
       <c r="N2" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O2" t="n">
-        <v>9.884424914093533</v>
+        <v>9.289217399385597</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="n">
-        <v>7.739625668449198</v>
+        <v>7.176443850267379</v>
       </c>
       <c r="R2" t="n">
-        <v>0.6601700325516441</v>
+        <v>0.6998646743732531</v>
       </c>
       <c r="S2" t="n">
         <v>6</v>
@@ -1936,23 +1776,23 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>13.27025872644036</v>
+        <v>12.94103293146777</v>
       </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="n">
-        <v>11.1462564717188</v>
+        <v>12.1076587332151</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.07670785825239984</v>
+        <v>0.08585704537941215</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.398333333333326</v>
+        <v>10.54</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.1362792422223517</v>
+        <v>-0.01914419790278643</v>
       </c>
       <c r="AD2" t="b">
         <v>1</v>
@@ -2012,14 +1852,14 @@
         <v>7.299999999999983</v>
       </c>
       <c r="O3" t="n">
-        <v>13.18354951791877</v>
+        <v>13.1851989750924</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
-        <v>10.0775715972081</v>
+        <v>10.07866745199715</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3954620485378314</v>
+        <v>0.3953107657836508</v>
       </c>
       <c r="S3" t="n">
         <v>6</v>
@@ -2030,7 +1870,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>13.2846482085337</v>
+        <v>13.28520521964032</v>
       </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
@@ -2055,65 +1895,59 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>silverkite</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>mlp</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
-        </is>
-      </c>
+          <t>silverkite</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'activation': 'tanh', 'hidden_layer_sizes': (25,), 'solver': 'lbfgs', 'random_state': 20}</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+          <t>{'changepoints': 0}</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>12</v>
       </c>
       <c r="I4" t="n">
-        <v>16.28407189340217</v>
+        <v>22.76515260318411</v>
       </c>
       <c r="J4" t="n">
-        <v>1.0548228534847</v>
+        <v>0.1526277963230041</v>
       </c>
       <c r="K4" t="n">
-        <v>12.37770713692645</v>
+        <v>20.02075773195508</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.06649996955191884</v>
+        <v>-2.602934984389738</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.06624285807981778</v>
+        <v>106.0863863662919</v>
       </c>
       <c r="N4" t="n">
-        <v>7.299999999999983</v>
+        <v>143.1</v>
       </c>
       <c r="O4" t="n">
-        <v>16.82587646781341</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
+        <v>36.7580039467544</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.3047973110368991</v>
+      </c>
       <c r="Q4" t="n">
-        <v>12.42182181574862</v>
+        <v>29.48637662661569</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01527661245887613</v>
+        <v>0.06718684989578405</v>
       </c>
       <c r="S4" t="n">
         <v>6</v>
@@ -2124,23 +1958,25 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>9.860091463813326</v>
-      </c>
-      <c r="V4" t="inlineStr"/>
+        <v>10.50143456590333</v>
+      </c>
+      <c r="V4" t="b">
+        <v>1</v>
+      </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="n">
-        <v>17.47830864520502</v>
+        <v>22.76515260318411</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.1205706720336819</v>
+        <v>0.1526277963230041</v>
       </c>
       <c r="AB4" t="n">
-        <v>13.98439294545111</v>
+        <v>20.02075773195508</v>
       </c>
       <c r="AC4" t="n">
-        <v>-1.12380237365424</v>
+        <v>-2.602934984389738</v>
       </c>
       <c r="AD4" t="b">
         <v>0</v>
@@ -2149,92 +1985,86 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>weighted_level</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>elasticnet</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
-        </is>
-      </c>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'alpha': 0.1, 'l1_ratio': 0.0}</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+          <t>{'how': 'weighted', 'models': ('arima', 'hwes', 'prophet', 'silverkite'), 'determine_best_by': 'ValidationMetricValue'}</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>12</v>
       </c>
       <c r="I5" t="n">
-        <v>16.26947225343302</v>
+        <v>28.19576192948375</v>
       </c>
       <c r="J5" t="n">
-        <v>1.006104198063623</v>
+        <v>0.1978123811481459</v>
       </c>
       <c r="K5" t="n">
-        <v>12.36789597267848</v>
+        <v>25.74061601888827</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.06458846538547647</v>
+        <v>-4.52691726401107</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.00737566899760278</v>
+        <v>100.5877347397299</v>
       </c>
       <c r="N5" t="n">
-        <v>7.299999999999983</v>
+        <v>143.1</v>
       </c>
       <c r="O5" t="n">
-        <v>16.95547409271899</v>
-      </c>
-      <c r="P5" t="inlineStr"/>
+        <v>19.60920838569268</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.1569300916366725</v>
+      </c>
       <c r="Q5" t="n">
-        <v>12.63620530149799</v>
+        <v>15.72310963705579</v>
       </c>
       <c r="R5" t="n">
-        <v>4.896157597511497e-05</v>
-      </c>
-      <c r="S5" t="n">
-        <v>6</v>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="U5" t="n">
-        <v>9.899292150603467</v>
-      </c>
+        <v>0.7345327547196137</v>
+      </c>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>['hwes', 'silverkite', 'arima', 'prophet']</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>(0.39243583056887443, 0.3844845338132556, 0.18740365102069959, 0.0356759845971704)</t>
+        </is>
+      </c>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
-        <v>17.72904696611337</v>
+        <v>28.19576192948375</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.1219620529587611</v>
+        <v>0.1978123811481459</v>
       </c>
       <c r="AB5" t="n">
-        <v>14.13156041252731</v>
+        <v>25.74061601888827</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.185174251735035</v>
+        <v>-4.52691726401107</v>
       </c>
       <c r="AD5" t="b">
         <v>0</v>
@@ -2243,23 +2073,23 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>prophet</t>
+          <t>avg_level</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>prophet</t>
+          <t>combo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'n_changepoints': 0}</t>
+          <t>{'how': 'simple', 'models': ('arima', 'hwes', 'prophet', 'silverkite'), 'determine_best_by': 'ValidationMetricValue'}</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2268,63 +2098,57 @@
         <v>12</v>
       </c>
       <c r="I6" t="n">
-        <v>28.98872871441157</v>
+        <v>27.63482075791666</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2119884645128811</v>
+        <v>0.2031462532466245</v>
       </c>
       <c r="K6" t="n">
-        <v>26.11818847473322</v>
+        <v>26.10057732877456</v>
       </c>
       <c r="L6" t="n">
-        <v>-4.842162510707955</v>
+        <v>-4.309194032713156</v>
       </c>
       <c r="M6" t="n">
-        <v>119.9019776087841</v>
+        <v>104.5662379252158</v>
       </c>
       <c r="N6" t="n">
         <v>143.1</v>
       </c>
       <c r="O6" t="n">
-        <v>31.50848739942518</v>
+        <v>19.68736338881455</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2517766915560388</v>
+        <v>0.1575047766636405</v>
       </c>
       <c r="Q6" t="n">
-        <v>24.979385265179</v>
+        <v>15.68544147075744</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3145971129101873</v>
-      </c>
-      <c r="S6" t="n">
-        <v>6</v>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="U6" t="n">
-        <v>33.21559034959205</v>
-      </c>
-      <c r="V6" t="b">
-        <v>1</v>
-      </c>
-      <c r="W6" t="inlineStr"/>
+        <v>0.7324124305264418</v>
+      </c>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>['arima', 'hwes', 'prophet', 'silverkite']</t>
+        </is>
+      </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>28.98872871441157</v>
+        <v>27.63482075791666</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.2119884645128811</v>
+        <v>0.2031462532466245</v>
       </c>
       <c r="AB6" t="n">
-        <v>26.11818847473322</v>
+        <v>26.10057732877456</v>
       </c>
       <c r="AC6" t="n">
-        <v>-4.842162510707955</v>
+        <v>-4.309194032713156</v>
       </c>
       <c r="AD6" t="b">
         <v>0</v>
@@ -2333,23 +2157,23 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>avg_level</t>
+          <t>prophet</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>combo</t>
+          <t>prophet</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'how': 'simple', 'models': ('arima', 'hwes', 'prophet'), 'determine_best_by': 'ValidationMetricValue'}</t>
+          <t>{'n_changepoints': 0}</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -2358,57 +2182,63 @@
         <v>12</v>
       </c>
       <c r="I7" t="n">
-        <v>30.20105209678834</v>
+        <v>28.98872871441158</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2254291810116202</v>
+        <v>0.2119884645128812</v>
       </c>
       <c r="K7" t="n">
-        <v>28.76940478637961</v>
+        <v>26.11818847473322</v>
       </c>
       <c r="L7" t="n">
-        <v>-5.341024606358312</v>
+        <v>-4.842162510707956</v>
       </c>
       <c r="M7" t="n">
-        <v>101.7412359485154</v>
+        <v>119.9019776087841</v>
       </c>
       <c r="N7" t="n">
         <v>143.1</v>
       </c>
       <c r="O7" t="n">
-        <v>16.22892076253472</v>
+        <v>31.50848739942518</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1221112722022012</v>
+        <v>0.2517766915560388</v>
       </c>
       <c r="Q7" t="n">
-        <v>12.66618281126648</v>
+        <v>24.979385265179</v>
       </c>
       <c r="R7" t="n">
-        <v>0.8181680905548865</v>
-      </c>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>['arima', 'hwes', 'prophet']</t>
-        </is>
-      </c>
+        <v>0.3145971129101873</v>
+      </c>
+      <c r="S7" t="n">
+        <v>6</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="U7" t="n">
+        <v>33.21559034959205</v>
+      </c>
+      <c r="V7" t="b">
+        <v>1</v>
+      </c>
+      <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>30.20105209678834</v>
+        <v>28.98872871441158</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.2254291810116202</v>
+        <v>0.2119884645128812</v>
       </c>
       <c r="AB7" t="n">
-        <v>28.76940478637961</v>
+        <v>26.11818847473322</v>
       </c>
       <c r="AC7" t="n">
-        <v>-5.341024606358312</v>
+        <v>-4.842162510707956</v>
       </c>
       <c r="AD7" t="b">
         <v>0</v>
@@ -2417,88 +2247,84 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>weighted</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>combo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'order': (1, 1, 1), 'seasonal_order': (0, 0, 0, 0), 'trend': 'ct'}</t>
+          <t>{'how': 'weighted', 'models': ('knn', 'svr', 'xgboost', 'gbt'), 'determine_best_by': 'ValidationMetricValue'}</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>12</v>
       </c>
       <c r="I8" t="n">
-        <v>32.78992575121833</v>
+        <v>14.92951844458263</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2317081186962638</v>
+        <v>4.117115587645885</v>
       </c>
       <c r="K8" t="n">
-        <v>30.05262691099819</v>
+        <v>11.03287564207577</v>
       </c>
       <c r="L8" t="n">
-        <v>-6.47474119068706</v>
+        <v>0.1035492714115651</v>
       </c>
       <c r="M8" t="n">
-        <v>90.2722393483395</v>
+        <v>7.477132781874644</v>
       </c>
       <c r="N8" t="n">
-        <v>143.1</v>
+        <v>7.299999999999983</v>
       </c>
       <c r="O8" t="n">
-        <v>17.06041459902015</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.1110036332814878</v>
-      </c>
+        <v>8.532461979987369</v>
+      </c>
+      <c r="P8" t="inlineStr"/>
       <c r="Q8" t="n">
-        <v>12.54151210494273</v>
+        <v>6.619277555414767</v>
       </c>
       <c r="R8" t="n">
-        <v>0.7990583417494741</v>
-      </c>
-      <c r="S8" t="n">
-        <v>6</v>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="U8" t="n">
-        <v>9.993369466007872</v>
-      </c>
-      <c r="V8" t="b">
-        <v>1</v>
-      </c>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
+        <v>0.7467744144466578</v>
+      </c>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>['knn', 'svr', 'xgboost', 'gbt']</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>(0.3782574024605579, 0.3718351804273653, 0.2155203805247533, 0.03438703658732344)</t>
+        </is>
+      </c>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
-        <v>32.78992575121833</v>
+        <v>31.30909349996094</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.2317081186962638</v>
+        <v>0.2164017920946291</v>
       </c>
       <c r="AB8" t="n">
-        <v>30.05262691099819</v>
+        <v>27.39264646852493</v>
       </c>
       <c r="AC8" t="n">
-        <v>-6.47474119068706</v>
+        <v>-5.814849678159757</v>
       </c>
       <c r="AD8" t="b">
         <v>0</v>
@@ -2507,23 +2333,23 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>weighted_level</t>
+          <t>arima</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>combo</t>
+          <t>arima</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>{'how': 'weighted', 'models': ('arima', 'hwes', 'prophet'), 'determine_best_by': 'ValidationMetricValue'}</t>
+          <t>{'order': (2, 1, 0), 'seasonal_order': (0, 0, 0, 0), 'trend': 'n'}</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -2532,61 +2358,63 @@
         <v>12</v>
       </c>
       <c r="I9" t="n">
-        <v>32.36210992104071</v>
+        <v>31.2214255632439</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2327850614591292</v>
+        <v>0.222043766235992</v>
       </c>
       <c r="K9" t="n">
-        <v>30.101729564007</v>
+        <v>28.80656007132531</v>
       </c>
       <c r="L9" t="n">
-        <v>-6.280965125136588</v>
+        <v>-5.776738874001598</v>
       </c>
       <c r="M9" t="n">
-        <v>93.84591122686628</v>
+        <v>97.22709683736461</v>
       </c>
       <c r="N9" t="n">
         <v>143.1</v>
       </c>
       <c r="O9" t="n">
-        <v>16.32983997291548</v>
+        <v>17.06000262857426</v>
       </c>
       <c r="P9" t="n">
-        <v>0.10832725765801</v>
+        <v>0.1109681522874506</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.15541492326787</v>
+        <v>12.53891118718837</v>
       </c>
       <c r="R9" t="n">
-        <v>0.8158996232210314</v>
-      </c>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>['hwes', 'arima', 'prophet']</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>(0.47834786261459994, 0.47816596805680006, 0.04348616932859999)</t>
-        </is>
-      </c>
+        <v>0.7990680462059006</v>
+      </c>
+      <c r="S9" t="n">
+        <v>6</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="U9" t="n">
+        <v>23.33519647855596</v>
+      </c>
+      <c r="V9" t="b">
+        <v>1</v>
+      </c>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
-        <v>32.36210992104071</v>
+        <v>31.2214255632439</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.2327850614591292</v>
+        <v>0.222043766235992</v>
       </c>
       <c r="AB9" t="n">
-        <v>30.101729564007</v>
+        <v>28.80656007132531</v>
       </c>
       <c r="AC9" t="n">
-        <v>-6.280965125136588</v>
+        <v>-5.776738874001598</v>
       </c>
       <c r="AD9" t="b">
         <v>0</v>
@@ -2641,13 +2469,13 @@
         <v>16.94468228690074</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1119041572430469</v>
+        <v>0.1119041572430496</v>
       </c>
       <c r="Q10" t="n">
-        <v>12.61588789130961</v>
+        <v>12.61588789130988</v>
       </c>
       <c r="R10" t="n">
-        <v>0.8017753406700401</v>
+        <v>0.80177534067004</v>
       </c>
       <c r="S10" t="n">
         <v>6</v>
@@ -2685,31 +2513,23 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>gbt</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>gbt</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
-        </is>
-      </c>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'max_depth': 2, 'n_estimators': 100}</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+          <t>{'how': 'simple', 'models': ('knn', 'svr', 'xgboost', 'gbt'), 'determine_best_by': 'ValidationMetricValue'}</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -2718,59 +2538,55 @@
         <v>12</v>
       </c>
       <c r="I11" t="n">
-        <v>20.43306146906674</v>
+        <v>15.58461544034422</v>
       </c>
       <c r="J11" t="n">
-        <v>17.96557555281061</v>
+        <v>8.429951387039297</v>
       </c>
       <c r="K11" t="n">
-        <v>16.43068087912656</v>
+        <v>11.79348523064633</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.6791972262015258</v>
+        <v>0.02315196837386946</v>
       </c>
       <c r="M11" t="n">
-        <v>13.27579141385449</v>
+        <v>11.74668254453476</v>
       </c>
       <c r="N11" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O11" t="n">
-        <v>9.205520484977605</v>
+        <v>7.854539464628485</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="n">
-        <v>7.279799578285747</v>
+        <v>6.164183005017644</v>
       </c>
       <c r="R11" t="n">
-        <v>0.70524881616664</v>
-      </c>
-      <c r="S11" t="n">
-        <v>6</v>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="U11" t="n">
-        <v>31.16745015462885</v>
-      </c>
+        <v>0.7854145294726544</v>
+      </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>['knn', 'svr', 'xgboost', 'gbt']</t>
+        </is>
+      </c>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
-        <v>76.28585049328566</v>
+        <v>48.49320857395637</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.5396008840983628</v>
+        <v>0.3436138444709274</v>
       </c>
       <c r="AB11" t="n">
-        <v>66.96842736698505</v>
+        <v>42.92974779661116</v>
       </c>
       <c r="AC11" t="n">
-        <v>-39.4578945749419</v>
+        <v>-15.34847073377373</v>
       </c>
       <c r="AD11" t="b">
         <v>0</v>
@@ -2779,12 +2595,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>gbt</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>gbt</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2794,7 +2610,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>{'max_depth': 4}</t>
+          <t>{'max_depth': 2, 'n_estimators': 100}</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2812,32 +2628,32 @@
         <v>12</v>
       </c>
       <c r="I12" t="n">
-        <v>25.0222863676995</v>
+        <v>19.46694365435668</v>
       </c>
       <c r="J12" t="n">
-        <v>14.22695694111434</v>
+        <v>18.7285435847308</v>
       </c>
       <c r="K12" t="n">
-        <v>18.04098762522142</v>
+        <v>15.20162186620175</v>
       </c>
       <c r="L12" t="n">
-        <v>-1.518191799548848</v>
+        <v>-0.5241593298463536</v>
       </c>
       <c r="M12" t="n">
-        <v>26.74729347229004</v>
+        <v>17.17438207182354</v>
       </c>
       <c r="N12" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O12" t="n">
-        <v>2.718626345104153</v>
+        <v>9.156909408304761</v>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="n">
-        <v>2.049073522538445</v>
+        <v>7.225098328726848</v>
       </c>
       <c r="R12" t="n">
-        <v>0.974292614933202</v>
+        <v>0.7083535491214216</v>
       </c>
       <c r="S12" t="n">
         <v>6</v>
@@ -2848,23 +2664,23 @@
         </is>
       </c>
       <c r="U12" t="n">
-        <v>21.66224700979679</v>
+        <v>31.36933547934663</v>
       </c>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="n">
-        <v>109.9983196679577</v>
+        <v>72.30330529376792</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.8188190567365496</v>
+        <v>0.5150582435043513</v>
       </c>
       <c r="AB12" t="n">
-        <v>101.6035909965635</v>
+        <v>63.50294837367826</v>
       </c>
       <c r="AC12" t="n">
-        <v>-83.1177011513183</v>
+        <v>-35.34390561198406</v>
       </c>
       <c r="AD12" t="b">
         <v>0</v>
@@ -2873,23 +2689,31 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>weighted</t>
+          <t>xgboost</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>combo</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>xgboost</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{'how': 'weighted', 'models': ('mlr', 'knn', 'svr', 'xgboost', 'gbt', 'elasticnet', 'mlp'), 'determine_best_by': 'ValidationMetricValue'}</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
+          <t>{'max_depth': 4}</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -2898,237 +2722,61 @@
         <v>12</v>
       </c>
       <c r="I13" t="n">
-        <v>40.6886263233003</v>
+        <v>25.0222863676995</v>
       </c>
       <c r="J13" t="n">
-        <v>40.43562799190494</v>
+        <v>14.22695694111434</v>
       </c>
       <c r="K13" t="n">
-        <v>36.14391805414767</v>
+        <v>18.04098762522142</v>
       </c>
       <c r="L13" t="n">
-        <v>-5.658568642639865</v>
+        <v>-1.518191799548848</v>
       </c>
       <c r="M13" t="n">
-        <v>69.50322755609868</v>
+        <v>26.74729347229004</v>
       </c>
       <c r="N13" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O13" t="n">
-        <v>12.86903972795251</v>
+        <v>2.718626345104153</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="n">
-        <v>9.688726733427027</v>
+        <v>2.049073522538445</v>
       </c>
       <c r="R13" t="n">
-        <v>0.4239619869422661</v>
-      </c>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
+        <v>0.974292614933202</v>
+      </c>
+      <c r="S13" t="n">
+        <v>6</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="U13" t="n">
+        <v>21.66224700979679</v>
+      </c>
       <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>['mlp', 'elasticnet', 'mlr', 'knn', 'svr', 'xgboost', 'gbt']</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>(0.18899821314974774, 0.1886821098189652, 0.1884259453518184, 0.1614995819136979, 0.16138354917064182, 0.09382894485424277, 0.01718165574088616)</t>
-        </is>
-      </c>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="n">
-        <v>217.7594322309748</v>
+        <v>109.9983196679577</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.375934260481443</v>
+        <v>0.8188190567365496</v>
       </c>
       <c r="AB13" t="n">
-        <v>173.4897726459658</v>
+        <v>101.6035909965635</v>
       </c>
       <c r="AC13" t="n">
-        <v>-328.6622698028377</v>
+        <v>-83.1177011513183</v>
       </c>
       <c r="AD13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>avg</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>combo</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>{'how': 'simple', 'models': 'top_3', 'determine_best_by': 'ValidationMetricValue'}</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>12</v>
-      </c>
-      <c r="I14" t="n">
-        <v>71.9469114319318</v>
-      </c>
-      <c r="J14" t="n">
-        <v>75.22385024635092</v>
-      </c>
-      <c r="K14" t="n">
-        <v>63.2920486702194</v>
-      </c>
-      <c r="L14" t="n">
-        <v>-19.81896501425469</v>
-      </c>
-      <c r="M14" t="n">
-        <v>116.4622062660359</v>
-      </c>
-      <c r="N14" t="n">
-        <v>7.299999999999983</v>
-      </c>
-      <c r="O14" t="n">
-        <v>16.80574782764318</v>
-      </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="n">
-        <v>12.47378710526552</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.01763123414508549</v>
-      </c>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>['mlp', 'elasticnet', 'mlr']</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="n">
-        <v>408.7157464360039</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>2.594973612158374</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>327.327699649084</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>-1160.336386430032</v>
-      </c>
-      <c r="AD14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>mlr</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>mlr</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
-      <c r="F15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>12</v>
-      </c>
-      <c r="I15" t="n">
-        <v>217.0336818415346</v>
-      </c>
-      <c r="J15" t="n">
-        <v>225.8545926540665</v>
-      </c>
-      <c r="K15" t="n">
-        <v>192.7137544686115</v>
-      </c>
-      <c r="L15" t="n">
-        <v>-188.4475971110153</v>
-      </c>
-      <c r="M15" t="n">
-        <v>349.4602373251853</v>
-      </c>
-      <c r="N15" t="n">
-        <v>7.299999999999983</v>
-      </c>
-      <c r="O15" t="n">
-        <v>16.76625713139039</v>
-      </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="n">
-        <v>12.47334348926859</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.02224261433850994</v>
-      </c>
-      <c r="S15" t="n">
-        <v>6</v>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="U15" t="n">
-        <v>9.931059683765882</v>
-      </c>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="n">
-        <v>1209.687469155379</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>7.559220367873763</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>956.2616200652577</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>-10172.29545007738</v>
-      </c>
-      <c r="AD15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12910,7 +12558,7 @@
         <v>44348</v>
       </c>
       <c r="B751" t="n">
-        <v>-0.3499999999999986</v>
+        <v>0.2599999999999995</v>
       </c>
       <c r="C751" t="inlineStr">
         <is>
@@ -12923,7 +12571,7 @@
         <v>44378</v>
       </c>
       <c r="B752" t="n">
-        <v>0.009999999999999431</v>
+        <v>1.680000000000001</v>
       </c>
       <c r="C752" t="inlineStr">
         <is>
@@ -12936,7 +12584,7 @@
         <v>44409</v>
       </c>
       <c r="B753" t="n">
-        <v>-2.849999999999999</v>
+        <v>-1.4</v>
       </c>
       <c r="C753" t="inlineStr">
         <is>
@@ -12949,7 +12597,7 @@
         <v>44440</v>
       </c>
       <c r="B754" t="n">
-        <v>0.0299999999999983</v>
+        <v>-0.3399999999999977</v>
       </c>
       <c r="C754" t="inlineStr">
         <is>
@@ -12962,7 +12610,7 @@
         <v>44470</v>
       </c>
       <c r="B755" t="n">
-        <v>-3.439999999999998</v>
+        <v>-3.280000000000001</v>
       </c>
       <c r="C755" t="inlineStr">
         <is>
@@ -12975,7 +12623,7 @@
         <v>44501</v>
       </c>
       <c r="B756" t="n">
-        <v>-7.1</v>
+        <v>-6.219999999999999</v>
       </c>
       <c r="C756" t="inlineStr">
         <is>
@@ -12988,7 +12636,7 @@
         <v>44531</v>
       </c>
       <c r="B757" t="n">
-        <v>-3.97</v>
+        <v>-6.680000000000001</v>
       </c>
       <c r="C757" t="inlineStr">
         <is>
@@ -13001,7 +12649,7 @@
         <v>44562</v>
       </c>
       <c r="B758" t="n">
-        <v>-1.540000000000002</v>
+        <v>1.859999999999997</v>
       </c>
       <c r="C758" t="inlineStr">
         <is>
@@ -13014,7 +12662,7 @@
         <v>44593</v>
       </c>
       <c r="B759" t="n">
-        <v>4.13</v>
+        <v>0.8400000000000005</v>
       </c>
       <c r="C759" t="inlineStr">
         <is>
@@ -13027,7 +12675,7 @@
         <v>44621</v>
       </c>
       <c r="B760" t="n">
-        <v>8.02</v>
+        <v>10.72</v>
       </c>
       <c r="C760" t="inlineStr">
         <is>
@@ -13040,7 +12688,7 @@
         <v>44652</v>
       </c>
       <c r="B761" t="n">
-        <v>9.34</v>
+        <v>7.439999999999998</v>
       </c>
       <c r="C761" t="inlineStr">
         <is>
@@ -13053,7 +12701,7 @@
         <v>44682</v>
       </c>
       <c r="B762" t="n">
-        <v>3.969999999999999</v>
+        <v>-1.240000000000001</v>
       </c>
       <c r="C762" t="inlineStr">
         <is>
@@ -13066,7 +12714,7 @@
         <v>44713</v>
       </c>
       <c r="B763" t="n">
-        <v>0.8500000000000014</v>
+        <v>-1.079999999999998</v>
       </c>
       <c r="C763" t="inlineStr">
         <is>
@@ -13079,7 +12727,7 @@
         <v>44743</v>
       </c>
       <c r="B764" t="n">
-        <v>-0.6799999999999997</v>
+        <v>1.080000000000004</v>
       </c>
       <c r="C764" t="inlineStr">
         <is>
@@ -13092,7 +12740,7 @@
         <v>44774</v>
       </c>
       <c r="B765" t="n">
-        <v>-2.849999999999999</v>
+        <v>-2.580000000000001</v>
       </c>
       <c r="C765" t="inlineStr">
         <is>
@@ -13105,7 +12753,7 @@
         <v>44805</v>
       </c>
       <c r="B766" t="n">
-        <v>-0.8900000000000006</v>
+        <v>-0.3399999999999977</v>
       </c>
       <c r="C766" t="inlineStr">
         <is>
@@ -13118,7 +12766,7 @@
         <v>44835</v>
       </c>
       <c r="B767" t="n">
-        <v>-3.439999999999998</v>
+        <v>-5.139999999999998</v>
       </c>
       <c r="C767" t="inlineStr">
         <is>
@@ -13131,7 +12779,7 @@
         <v>44866</v>
       </c>
       <c r="B768" t="n">
-        <v>-8.830000000000002</v>
+        <v>-6.219999999999999</v>
       </c>
       <c r="C768" t="inlineStr">
         <is>
@@ -13144,7 +12792,7 @@
         <v>44896</v>
       </c>
       <c r="B769" t="n">
-        <v>-3.97</v>
+        <v>-6.680000000000001</v>
       </c>
       <c r="C769" t="inlineStr">
         <is>
@@ -13157,7 +12805,7 @@
         <v>44927</v>
       </c>
       <c r="B770" t="n">
-        <v>-1.540000000000002</v>
+        <v>5.879999999999995</v>
       </c>
       <c r="C770" t="inlineStr">
         <is>
@@ -13170,7 +12818,7 @@
         <v>44958</v>
       </c>
       <c r="B771" t="n">
-        <v>4.970000000000001</v>
+        <v>1.080000000000001</v>
       </c>
       <c r="C771" t="inlineStr">
         <is>
@@ -13183,7 +12831,7 @@
         <v>44986</v>
       </c>
       <c r="B772" t="n">
-        <v>7.280000000000001</v>
+        <v>9.200000000000003</v>
       </c>
       <c r="C772" t="inlineStr">
         <is>
@@ -13196,7 +12844,7 @@
         <v>45017</v>
       </c>
       <c r="B773" t="n">
-        <v>8.940000000000001</v>
+        <v>5.859999999999999</v>
       </c>
       <c r="C773" t="inlineStr">
         <is>
@@ -13209,7 +12857,7 @@
         <v>45047</v>
       </c>
       <c r="B774" t="n">
-        <v>3.969999999999999</v>
+        <v>-1.240000000000001</v>
       </c>
       <c r="C774" t="inlineStr">
         <is>
@@ -13222,7 +12870,7 @@
         <v>45078</v>
       </c>
       <c r="B775" t="n">
-        <v>0.5700000000000003</v>
+        <v>-1.079999999999998</v>
       </c>
       <c r="C775" t="inlineStr">
         <is>
@@ -13241,7 +12889,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13272,34 +12920,34 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>silverkite</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>weighted_level</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>avg_level</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>prophet</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>avg_level</t>
-        </is>
-      </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>arima</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>weighted_level</t>
-        </is>
-      </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
           <t>hwes</t>
@@ -13307,27 +12955,17 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>gbt</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>xgboost</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>weighted</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>avg</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>mlr</t>
         </is>
       </c>
     </row>
@@ -13339,46 +12977,40 @@
         <v>118.8</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.8599999999999994</v>
+        <v>-2.679999999999998</v>
       </c>
       <c r="D2" t="n">
         <v>2.8267494407946</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.06624281324630488</v>
+        <v>106.4464056700604</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.00737587333869702</v>
+        <v>100.1191732925382</v>
       </c>
       <c r="G2" t="n">
+        <v>104.12516669316</v>
+      </c>
+      <c r="H2" t="n">
         <v>121.2786608290207</v>
       </c>
-      <c r="H2" t="n">
-        <v>106.1613011999261</v>
-      </c>
       <c r="I2" t="n">
-        <v>102.1557518823351</v>
+        <v>-10.44910162223479</v>
       </c>
       <c r="J2" t="n">
-        <v>99.58806918122646</v>
+        <v>93.72610938513647</v>
       </c>
       <c r="K2" t="n">
         <v>95.04949088842243</v>
       </c>
       <c r="L2" t="n">
-        <v>-26.41258335741748</v>
+        <v>-17.05300450014325</v>
       </c>
       <c r="M2" t="n">
+        <v>-23.44267933711955</v>
+      </c>
+      <c r="N2" t="n">
         <v>-44.91608810424805</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.126504091981393</v>
-      </c>
-      <c r="O2" t="n">
-        <v>13.22797970211588</v>
-      </c>
-      <c r="P2" t="n">
-        <v>39.75755779293263</v>
       </c>
     </row>
     <row r="3">
@@ -13389,46 +13021,40 @@
         <v>138.7</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.689999999999999</v>
+        <v>-0.7199999999999989</v>
       </c>
       <c r="D3" t="n">
         <v>-1.25990846321783</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.06624281750720229</v>
+        <v>106.4263143011974</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.007375855225168926</v>
+        <v>100.102780005432</v>
       </c>
       <c r="G3" t="n">
+        <v>102.5099851086401</v>
+      </c>
+      <c r="H3" t="n">
         <v>113.3807601372476</v>
       </c>
-      <c r="H3" t="n">
-        <v>102.827560312788</v>
-      </c>
       <c r="I3" t="n">
-        <v>100.052429912694</v>
+        <v>-0.4518161294500631</v>
       </c>
       <c r="J3" t="n">
-        <v>98.23888274865497</v>
+        <v>95.18337510769284</v>
       </c>
       <c r="K3" t="n">
         <v>95.04949088842243</v>
       </c>
       <c r="L3" t="n">
-        <v>9.147640187257739</v>
+        <v>0.9907600855182066</v>
       </c>
       <c r="M3" t="n">
+        <v>5.475629584986166</v>
+      </c>
+      <c r="N3" t="n">
         <v>0.4673192203044891</v>
-      </c>
-      <c r="N3" t="n">
-        <v>12.726296376099</v>
-      </c>
-      <c r="O3" t="n">
-        <v>23.00033446182202</v>
-      </c>
-      <c r="P3" t="n">
-        <v>69.07462205819843</v>
       </c>
     </row>
     <row r="4">
@@ -13439,46 +13065,40 @@
         <v>122.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.580000000000001</v>
+        <v>-0.3200000000000017</v>
       </c>
       <c r="D4" t="n">
         <v>-5.432123017413437</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.06624282154268712</v>
+        <v>106.3759027663975</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.007375836261387075</v>
+        <v>100.3696818902332</v>
       </c>
       <c r="G4" t="n">
+        <v>102.7601626732015</v>
+      </c>
+      <c r="H4" t="n">
         <v>112.7922038068271</v>
       </c>
-      <c r="H4" t="n">
-        <v>102.1933670723997</v>
-      </c>
       <c r="I4" t="n">
-        <v>98.73840652194941</v>
+        <v>-10.62672350579509</v>
       </c>
       <c r="J4" t="n">
-        <v>97.5849674217262</v>
+        <v>96.82305323115885</v>
       </c>
       <c r="K4" t="n">
         <v>95.04949088842243</v>
       </c>
       <c r="L4" t="n">
-        <v>-33.18793768965774</v>
+        <v>-17.28719636082889</v>
       </c>
       <c r="M4" t="n">
+        <v>-28.58361692419316</v>
+      </c>
+      <c r="N4" t="n">
         <v>-34.81304550170898</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13.18925614873632</v>
-      </c>
-      <c r="O4" t="n">
-        <v>32.69332991686343</v>
-      </c>
-      <c r="P4" t="n">
-        <v>98.15360840839435</v>
       </c>
     </row>
     <row r="5">
@@ -13489,46 +13109,40 @@
         <v>126.3</v>
       </c>
       <c r="C5" t="n">
-        <v>-4.07</v>
+        <v>-1.700000000000003</v>
       </c>
       <c r="D5" t="n">
         <v>-8.518268860255077</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.06624282566269812</v>
+        <v>106.3440355923334</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.007375817663049955</v>
+        <v>100.2203779005973</v>
       </c>
       <c r="G5" t="n">
+        <v>101.0047435451023</v>
+      </c>
+      <c r="H5" t="n">
         <v>105.0621420223388</v>
       </c>
-      <c r="H5" t="n">
-        <v>99.26647392293394</v>
-      </c>
       <c r="I5" t="n">
-        <v>97.68778885804055</v>
+        <v>-4.813594676791675</v>
       </c>
       <c r="J5" t="n">
-        <v>96.74644703372485</v>
+        <v>97.56330567731469</v>
       </c>
       <c r="K5" t="n">
         <v>95.04949088842243</v>
       </c>
       <c r="L5" t="n">
-        <v>9.147640187257739</v>
+        <v>-2.567728333641142</v>
       </c>
       <c r="M5" t="n">
+        <v>5.475629584986166</v>
+      </c>
+      <c r="N5" t="n">
         <v>-5.528274059295654</v>
-      </c>
-      <c r="N5" t="n">
-        <v>21.521904531731</v>
-      </c>
-      <c r="O5" t="n">
-        <v>42.30750806334375</v>
-      </c>
-      <c r="P5" t="n">
-        <v>126.996142833357</v>
       </c>
     </row>
     <row r="6">
@@ -13539,46 +13153,40 @@
         <v>131.2</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.1</v>
+        <v>-3.899999999999997</v>
       </c>
       <c r="D6" t="n">
         <v>-9.693335279169055</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.06624282976778773</v>
+        <v>106.3078988285164</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.007375798802678496</v>
+        <v>100.4581199087532</v>
       </c>
       <c r="G6" t="n">
+        <v>102.72711534999</v>
+      </c>
+      <c r="H6" t="n">
         <v>111.9577281062473</v>
       </c>
-      <c r="H6" t="n">
-        <v>101.2440980944599</v>
-      </c>
       <c r="I6" t="n">
-        <v>96.72507528871006</v>
+        <v>-4.951543267040784</v>
       </c>
       <c r="J6" t="n">
-        <v>96.58597279194929</v>
+        <v>97.59334357677371</v>
       </c>
       <c r="K6" t="n">
         <v>95.04949088842243</v>
       </c>
       <c r="L6" t="n">
-        <v>-16.93264531517776</v>
+        <v>-6.746614775355805</v>
       </c>
       <c r="M6" t="n">
+        <v>-16.64229650978469</v>
+      </c>
+      <c r="N6" t="n">
         <v>3.249172687530518</v>
-      </c>
-      <c r="N6" t="n">
-        <v>27.41642901949084</v>
-      </c>
-      <c r="O6" t="n">
-        <v>51.84358090595912</v>
-      </c>
-      <c r="P6" t="n">
-        <v>155.6043613464478</v>
       </c>
     </row>
     <row r="7">
@@ -13589,46 +13197,40 @@
         <v>117.8</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.8599999999999994</v>
+        <v>-3.920000000000002</v>
       </c>
       <c r="D7" t="n">
         <v>-8.71427971686551</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.06624283378741325</v>
+        <v>106.267680308882</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.007375780441514851</v>
+        <v>99.567193099162</v>
       </c>
       <c r="G7" t="n">
-        <v>88.508425599294</v>
+        <v>96.80285982896766</v>
       </c>
       <c r="H7" t="n">
-        <v>93.11653789115836</v>
+        <v>88.50842559929399</v>
       </c>
       <c r="I7" t="n">
-        <v>95.79169718575862</v>
+        <v>-14.92637333835369</v>
       </c>
       <c r="J7" t="n">
-        <v>95.11994280833358</v>
+        <v>97.38584251927224</v>
       </c>
       <c r="K7" t="n">
         <v>95.04949088842243</v>
       </c>
       <c r="L7" t="n">
-        <v>-24.78706343281513</v>
+        <v>-20.64314540309789</v>
       </c>
       <c r="M7" t="n">
+        <v>-26.88517079201042</v>
+      </c>
+      <c r="N7" t="n">
         <v>-43.05313110351562</v>
-      </c>
-      <c r="N7" t="n">
-        <v>28.64198786927021</v>
-      </c>
-      <c r="O7" t="n">
-        <v>61.30219361437663</v>
-      </c>
-      <c r="P7" t="n">
-        <v>183.9801994573588</v>
       </c>
     </row>
     <row r="8">
@@ -13639,46 +13241,40 @@
         <v>115.1</v>
       </c>
       <c r="C8" t="n">
-        <v>-4.710000000000001</v>
+        <v>-4.640000000000001</v>
       </c>
       <c r="D8" t="n">
         <v>-5.713143583858779</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.06624283789719243</v>
+        <v>106.2423211157876</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.007375761592573027</v>
+        <v>98.97834422351939</v>
       </c>
       <c r="G8" t="n">
-        <v>73.11734278487693</v>
+        <v>92.90871992461618</v>
       </c>
       <c r="H8" t="n">
-        <v>87.67831420843403</v>
+        <v>73.11734278487691</v>
       </c>
       <c r="I8" t="n">
-        <v>94.86810895200274</v>
+        <v>-9.855296011658917</v>
       </c>
       <c r="J8" t="n">
-        <v>94.00901511303557</v>
+        <v>97.2257249093778</v>
       </c>
       <c r="K8" t="n">
         <v>95.04949088842243</v>
       </c>
       <c r="L8" t="n">
-        <v>-30.13286482787031</v>
+        <v>-15.43282158062724</v>
       </c>
       <c r="M8" t="n">
+        <v>-28.14061107666289</v>
+      </c>
+      <c r="N8" t="n">
         <v>-23.2375316619873</v>
-      </c>
-      <c r="N8" t="n">
-        <v>35.57531337954128</v>
-      </c>
-      <c r="O8" t="n">
-        <v>70.6840187871634</v>
-      </c>
-      <c r="P8" t="n">
-        <v>212.1256749609799</v>
       </c>
     </row>
     <row r="9">
@@ -13689,46 +13285,40 @@
         <v>115.2</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.110000000000002</v>
+        <v>2.259999999999997</v>
       </c>
       <c r="D9" t="n">
         <v>-1.600234497656915</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.06624284194890606</v>
+        <v>106.1583053250758</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.007375742787818884</v>
+        <v>98.75926070489405</v>
       </c>
       <c r="G9" t="n">
+        <v>91.63422985149359</v>
+      </c>
+      <c r="H9" t="n">
         <v>68.15548726509039</v>
       </c>
-      <c r="H9" t="n">
-        <v>85.71758865312465</v>
-      </c>
       <c r="I9" t="n">
-        <v>93.94778780586115</v>
+        <v>-3.615942556203229</v>
       </c>
       <c r="J9" t="n">
-        <v>93.35317677195015</v>
+        <v>97.17363592738575</v>
       </c>
       <c r="K9" t="n">
         <v>95.04949088842243</v>
       </c>
       <c r="L9" t="n">
-        <v>-19.05735646617634</v>
+        <v>-8.582456398619083</v>
       </c>
       <c r="M9" t="n">
+        <v>-20.23475692170955</v>
+      </c>
+      <c r="N9" t="n">
         <v>-14.75483417510986</v>
-      </c>
-      <c r="N9" t="n">
-        <v>42.90544774102283</v>
-      </c>
-      <c r="O9" t="n">
-        <v>79.98964005992558</v>
-      </c>
-      <c r="P9" t="n">
-        <v>240.0425387645134</v>
       </c>
     </row>
     <row r="10">
@@ -13739,46 +13329,40 @@
         <v>102.1</v>
       </c>
       <c r="C10" t="n">
-        <v>3.2</v>
+        <v>0.04000000000000057</v>
       </c>
       <c r="D10" t="n">
         <v>2.526288989634081</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.06624284595577024</v>
+        <v>106.1835756179369</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.007375724439957848</v>
+        <v>98.7922134798134</v>
       </c>
       <c r="G10" t="n">
+        <v>91.79088974824802</v>
+      </c>
+      <c r="H10" t="n">
         <v>68.74510987839574</v>
       </c>
-      <c r="H10" t="n">
-        <v>85.60771924105889</v>
-      </c>
       <c r="I10" t="n">
-        <v>93.02855695635849</v>
+        <v>-2.163917684090357</v>
       </c>
       <c r="J10" t="n">
-        <v>92.93927229173221</v>
+        <v>97.18538260823703</v>
       </c>
       <c r="K10" t="n">
         <v>95.04949088842243</v>
       </c>
       <c r="L10" t="n">
-        <v>1.406175139869424</v>
+        <v>-3.167818648125966</v>
       </c>
       <c r="M10" t="n">
+        <v>-0.9142126757658759</v>
+      </c>
+      <c r="N10" t="n">
         <v>-14.32335090637207</v>
-      </c>
-      <c r="N10" t="n">
-        <v>50.03857538529918</v>
-      </c>
-      <c r="O10" t="n">
-        <v>89.21966563368532</v>
-      </c>
-      <c r="P10" t="n">
-        <v>267.7326154714517</v>
       </c>
     </row>
     <row r="11">
@@ -13789,46 +13373,40 @@
         <v>140.6</v>
       </c>
       <c r="C11" t="n">
-        <v>4.7</v>
+        <v>4.159999999999997</v>
       </c>
       <c r="D11" t="n">
         <v>5.676287313735113</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.06624285009368691</v>
+        <v>106.156807070408</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.007375705880088512</v>
+        <v>99.91018143532423</v>
       </c>
       <c r="G11" t="n">
+        <v>99.66426180171015</v>
+      </c>
+      <c r="H11" t="n">
         <v>100.2406918167905</v>
       </c>
-      <c r="H11" t="n">
-        <v>95.7999575557505</v>
-      </c>
       <c r="I11" t="n">
-        <v>92.10968996203853</v>
+        <v>12.26742249219204</v>
       </c>
       <c r="J11" t="n">
-        <v>93.86952357515358</v>
+        <v>97.21005743121962</v>
       </c>
       <c r="K11" t="n">
         <v>95.04949088842243</v>
       </c>
       <c r="L11" t="n">
-        <v>31.16203672587097</v>
+        <v>21.02469309054263</v>
       </c>
       <c r="M11" t="n">
+        <v>40.97451355185338</v>
+      </c>
+      <c r="N11" t="n">
         <v>33.28797149658203</v>
-      </c>
-      <c r="N11" t="n">
-        <v>60.94291394398157</v>
-      </c>
-      <c r="O11" t="n">
-        <v>98.37473210200567</v>
-      </c>
-      <c r="P11" t="n">
-        <v>295.1978148619908</v>
       </c>
     </row>
     <row r="12">
@@ -13839,46 +13417,40 @@
         <v>135.8</v>
       </c>
       <c r="C12" t="n">
-        <v>1.189999999999998</v>
+        <v>-0.9400000000000006</v>
       </c>
       <c r="D12" t="n">
         <v>6.788896817895228</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.06624285400587837</v>
+        <v>106.1224254895254</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.007375687817907511</v>
+        <v>100.4475470933439</v>
       </c>
       <c r="G12" t="n">
+        <v>103.49869960436</v>
+      </c>
+      <c r="H12" t="n">
         <v>115.5985301063296</v>
       </c>
-      <c r="H12" t="n">
-        <v>100.6129884628952</v>
-      </c>
       <c r="I12" t="n">
-        <v>91.19094439393348</v>
+        <v>-0.688228996621025</v>
       </c>
       <c r="J12" t="n">
-        <v>94.0980642675629</v>
+        <v>97.22435193316269</v>
       </c>
       <c r="K12" t="n">
         <v>95.04949088842243</v>
       </c>
       <c r="L12" t="n">
-        <v>-11.13778963255093</v>
+        <v>-2.55455530490537</v>
       </c>
       <c r="M12" t="n">
+        <v>-3.344352114970321</v>
+      </c>
+      <c r="N12" t="n">
         <v>-12.72276592254639</v>
-      </c>
-      <c r="N12" t="n">
-        <v>60.64476154268058</v>
-      </c>
-      <c r="O12" t="n">
-        <v>107.455353933568</v>
-      </c>
-      <c r="P12" t="n">
-        <v>322.4396803425277</v>
       </c>
     </row>
     <row r="13">
@@ -13889,46 +13461,40 @@
         <v>143.1</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.05</v>
+        <v>-2.760000000000002</v>
       </c>
       <c r="D13" t="n">
         <v>5.825054634025459</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.06624285807981778</v>
+        <v>106.0863863662919</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.00737566899760278</v>
+        <v>100.5877347397299</v>
       </c>
       <c r="G13" t="n">
+        <v>104.5662379252158</v>
+      </c>
+      <c r="H13" t="n">
         <v>119.9019776087841</v>
       </c>
-      <c r="H13" t="n">
-        <v>101.7412359485154</v>
-      </c>
       <c r="I13" t="n">
-        <v>90.2722393483395</v>
+        <v>7.477132781874644</v>
       </c>
       <c r="J13" t="n">
-        <v>93.84591122686628</v>
+        <v>97.22709683736461</v>
       </c>
       <c r="K13" t="n">
         <v>95.04949088842243</v>
       </c>
       <c r="L13" t="n">
-        <v>13.27579141385449</v>
+        <v>11.74668254453476</v>
       </c>
       <c r="M13" t="n">
+        <v>17.17438207182354</v>
+      </c>
+      <c r="N13" t="n">
         <v>26.74729347229004</v>
-      </c>
-      <c r="N13" t="n">
-        <v>69.50322755609868</v>
-      </c>
-      <c r="O13" t="n">
-        <v>116.4622062660359</v>
-      </c>
-      <c r="P13" t="n">
-        <v>349.4602373251853</v>
       </c>
     </row>
   </sheetData>
@@ -13942,7 +13508,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13968,34 +13534,34 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>silverkite</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>weighted_level</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>avg_level</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>prophet</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>avg_level</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>arima</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>weighted_level</t>
-        </is>
-      </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
           <t>hwes</t>
@@ -14003,27 +13569,17 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>gbt</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>xgboost</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>weighted</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>avg</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>mlr</t>
         </is>
       </c>
     </row>
@@ -14032,46 +13588,40 @@
         <v>44348</v>
       </c>
       <c r="B2" t="n">
-        <v>142.75</v>
+        <v>143.36</v>
       </c>
       <c r="C2" t="n">
-        <v>149.0503341460492</v>
+        <v>149.0571175505242</v>
       </c>
       <c r="D2" t="n">
-        <v>143.1120539770899</v>
+        <v>106.4464056700604</v>
       </c>
       <c r="E2" t="n">
-        <v>143.157360730441</v>
+        <v>128.4450053914618</v>
       </c>
       <c r="F2" t="n">
-        <v>121.2109306768289</v>
+        <v>128.7560301677762</v>
       </c>
       <c r="G2" t="n">
-        <v>120.5133424676788</v>
+        <v>121.210930676829</v>
       </c>
       <c r="H2" t="n">
-        <v>97.2290968349859</v>
+        <v>146.0826297557653</v>
       </c>
       <c r="I2" t="n">
-        <v>120.2142233553945</v>
+        <v>144.266784432994</v>
       </c>
       <c r="J2" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K2" t="n">
-        <v>145.474517971325</v>
+        <v>146.0887331768523</v>
       </c>
       <c r="L2" t="n">
+        <v>146.2324942264042</v>
+      </c>
+      <c r="M2" t="n">
         <v>145.705320930481</v>
-      </c>
-      <c r="M2" t="n">
-        <v>144.3428075533341</v>
-      </c>
-      <c r="N2" t="n">
-        <v>143.1951250946031</v>
-      </c>
-      <c r="O2" t="n">
-        <v>143.3159605762785</v>
       </c>
     </row>
     <row r="3">
@@ -14079,46 +13629,40 @@
         <v>44378</v>
       </c>
       <c r="B3" t="n">
-        <v>142.76</v>
+        <v>145.04</v>
       </c>
       <c r="C3" t="n">
-        <v>150.9613780029637</v>
+        <v>150.9889962521817</v>
       </c>
       <c r="D3" t="n">
-        <v>143.1241059100375</v>
+        <v>106.4263143011974</v>
       </c>
       <c r="E3" t="n">
-        <v>143.2147214839731</v>
+        <v>128.2846702813131</v>
       </c>
       <c r="F3" t="n">
+        <v>127.3706722932292</v>
+      </c>
+      <c r="G3" t="n">
         <v>115.3971655936528</v>
       </c>
-      <c r="G3" t="n">
-        <v>118.6748958252556</v>
-      </c>
       <c r="H3" t="n">
-        <v>97.52752199089267</v>
+        <v>150.4271128606817</v>
       </c>
       <c r="I3" t="n">
-        <v>120.1041017361174</v>
+        <v>144.5592093868451</v>
       </c>
       <c r="J3" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K3" t="n">
-        <v>147.1729426279257</v>
+        <v>150.835832807253</v>
       </c>
       <c r="L3" t="n">
+        <v>148.0172743918083</v>
+      </c>
+      <c r="M3" t="n">
         <v>159.297060585022</v>
-      </c>
-      <c r="M3" t="n">
-        <v>146.011176535762</v>
-      </c>
-      <c r="N3" t="n">
-        <v>143.2903720933961</v>
-      </c>
-      <c r="O3" t="n">
-        <v>143.5322888861778</v>
       </c>
     </row>
     <row r="4">
@@ -14126,46 +13670,40 @@
         <v>44409</v>
       </c>
       <c r="B4" t="n">
-        <v>139.91</v>
+        <v>143.64</v>
       </c>
       <c r="C4" t="n">
-        <v>147.8047795077601</v>
+        <v>147.8598186630606</v>
       </c>
       <c r="D4" t="n">
-        <v>143.1361558008311</v>
+        <v>106.3759027663975</v>
       </c>
       <c r="E4" t="n">
-        <v>143.2720822606957</v>
+        <v>128.2098301997401</v>
       </c>
       <c r="F4" t="n">
+        <v>126.9007795243096</v>
+      </c>
+      <c r="G4" t="n">
         <v>113.5034203267793</v>
       </c>
-      <c r="G4" t="n">
-        <v>118.0798404258526</v>
-      </c>
       <c r="H4" t="n">
-        <v>97.63610105955703</v>
+        <v>147.1425413926753</v>
       </c>
       <c r="I4" t="n">
-        <v>120.0736688242555</v>
+        <v>144.6237951128402</v>
       </c>
       <c r="J4" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K4" t="n">
-        <v>144.0092898178467</v>
+        <v>147.3162468523124</v>
       </c>
       <c r="L4" t="n">
+        <v>145.4414529640234</v>
+      </c>
+      <c r="M4" t="n">
         <v>152.3237157821655</v>
-      </c>
-      <c r="M4" t="n">
-        <v>144.3867471357765</v>
-      </c>
-      <c r="N4" t="n">
-        <v>143.3857309812899</v>
-      </c>
-      <c r="O4" t="n">
-        <v>143.7489548823427</v>
       </c>
     </row>
     <row r="5">
@@ -14173,46 +13711,40 @@
         <v>44440</v>
       </c>
       <c r="B5" t="n">
-        <v>139.94</v>
+        <v>143.3</v>
       </c>
       <c r="C5" t="n">
-        <v>142.1378858070531</v>
+        <v>142.223344498457</v>
       </c>
       <c r="D5" t="n">
-        <v>143.1482036459418</v>
+        <v>106.3440355923334</v>
       </c>
       <c r="E5" t="n">
-        <v>143.3294430602521</v>
+        <v>127.9563178378245</v>
       </c>
       <c r="F5" t="n">
+        <v>125.1865287499134</v>
+      </c>
+      <c r="G5" t="n">
         <v>106.6635638332916</v>
       </c>
-      <c r="G5" t="n">
-        <v>115.8238186974665</v>
-      </c>
       <c r="H5" t="n">
-        <v>97.70789236788656</v>
+        <v>146.0235355034789</v>
       </c>
       <c r="I5" t="n">
-        <v>119.8105578270418</v>
+        <v>144.6385156828069</v>
       </c>
       <c r="J5" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K5" t="n">
-        <v>141.8570419385626</v>
+        <v>146.7737604498013</v>
       </c>
       <c r="L5" t="n">
+        <v>143.8677143753331</v>
+      </c>
+      <c r="M5" t="n">
         <v>157.703982925415</v>
-      </c>
-      <c r="M5" t="n">
-        <v>143.9988675479484</v>
-      </c>
-      <c r="N5" t="n">
-        <v>143.4811736894937</v>
-      </c>
-      <c r="O5" t="n">
-        <v>143.9658743622872</v>
       </c>
     </row>
     <row r="6">
@@ -14220,46 +13752,40 @@
         <v>44470</v>
       </c>
       <c r="B6" t="n">
-        <v>136.5</v>
+        <v>140.02</v>
       </c>
       <c r="C6" t="n">
-        <v>136.3738032577548</v>
+        <v>136.4894080072182</v>
       </c>
       <c r="D6" t="n">
-        <v>143.1602494547414</v>
+        <v>106.3078988285164</v>
       </c>
       <c r="E6" t="n">
-        <v>143.3868038828733</v>
+        <v>128.1183983828476</v>
       </c>
       <c r="F6" t="n">
+        <v>126.4071005347615</v>
+      </c>
+      <c r="G6" t="n">
         <v>111.5786596921732</v>
       </c>
-      <c r="G6" t="n">
-        <v>117.4837382154931</v>
-      </c>
       <c r="H6" t="n">
-        <v>97.77255506308472</v>
+        <v>144.0885590541643</v>
       </c>
       <c r="I6" t="n">
-        <v>120.0552160180741</v>
+        <v>144.6418437271347</v>
       </c>
       <c r="J6" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7647670377345</v>
+        <v>146.2922072917261</v>
       </c>
       <c r="L6" t="n">
+        <v>144.3632708567991</v>
+      </c>
+      <c r="M6" t="n">
         <v>164.296150302887</v>
-      </c>
-      <c r="M6" t="n">
-        <v>143.1840616767342</v>
-      </c>
-      <c r="N6" t="n">
-        <v>143.5767170235113</v>
-      </c>
-      <c r="O6" t="n">
-        <v>144.183097732919</v>
       </c>
     </row>
     <row r="7">
@@ -14267,46 +13793,40 @@
         <v>44501</v>
       </c>
       <c r="B7" t="n">
-        <v>129.4</v>
+        <v>133.8</v>
       </c>
       <c r="C7" t="n">
-        <v>128.0176800408655</v>
+        <v>128.1611429364819</v>
       </c>
       <c r="D7" t="n">
-        <v>143.1722932472848</v>
+        <v>106.267680308882</v>
       </c>
       <c r="E7" t="n">
-        <v>143.4441647280792</v>
+        <v>127.3271651967546</v>
       </c>
       <c r="F7" t="n">
+        <v>120.9600257760862</v>
+      </c>
+      <c r="G7" t="n">
         <v>89.82982520681512</v>
       </c>
-      <c r="G7" t="n">
-        <v>110.2552204989131</v>
-      </c>
       <c r="H7" t="n">
-        <v>97.83583639870257</v>
+        <v>136.5807866601041</v>
       </c>
       <c r="I7" t="n">
-        <v>119.1397015000497</v>
+        <v>144.6425976974261</v>
       </c>
       <c r="J7" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K7" t="n">
-        <v>130.9281063939748</v>
+        <v>138.251132683632</v>
       </c>
       <c r="L7" t="n">
+        <v>134.7662261044732</v>
+      </c>
+      <c r="M7" t="n">
         <v>156.277161693573</v>
-      </c>
-      <c r="M7" t="n">
-        <v>139.8043522270617</v>
-      </c>
-      <c r="N7" t="n">
-        <v>143.6723546498295</v>
-      </c>
-      <c r="O7" t="n">
-        <v>144.4006059741242</v>
       </c>
     </row>
     <row r="8">
@@ -14314,46 +13834,40 @@
         <v>44531</v>
       </c>
       <c r="B8" t="n">
-        <v>125.43</v>
+        <v>127.12</v>
       </c>
       <c r="C8" t="n">
-        <v>124.815363933563</v>
+        <v>124.9791991726596</v>
       </c>
       <c r="D8" t="n">
-        <v>143.1843350125139</v>
+        <v>106.2423211157876</v>
       </c>
       <c r="E8" t="n">
-        <v>143.501525596311</v>
+        <v>126.7684938357988</v>
       </c>
       <c r="F8" t="n">
+        <v>117.1069312713966</v>
+      </c>
+      <c r="G8" t="n">
         <v>74.44263565948754</v>
       </c>
-      <c r="G8" t="n">
-        <v>105.1471618698803</v>
-      </c>
       <c r="H8" t="n">
-        <v>97.89885005893183</v>
+        <v>131.1543640882396</v>
       </c>
       <c r="I8" t="n">
-        <v>118.5007025577477</v>
+        <v>144.6427684190898</v>
       </c>
       <c r="J8" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K8" t="n">
-        <v>123.312979828872</v>
+        <v>132.4948364040767</v>
       </c>
       <c r="L8" t="n">
+        <v>128.5804942486703</v>
+      </c>
+      <c r="M8" t="n">
         <v>149.2996521949768</v>
-      </c>
-      <c r="M8" t="n">
-        <v>137.9150290762769</v>
-      </c>
-      <c r="N8" t="n">
-        <v>143.7681351262957</v>
-      </c>
-      <c r="O8" t="n">
-        <v>144.6185447700622</v>
       </c>
     </row>
     <row r="9">
@@ -14361,46 +13875,40 @@
         <v>44562</v>
       </c>
       <c r="B9" t="n">
-        <v>123.89</v>
+        <v>128.98</v>
       </c>
       <c r="C9" t="n">
-        <v>125.0801061097166</v>
+        <v>125.2568733290295</v>
       </c>
       <c r="D9" t="n">
-        <v>143.1963747629798</v>
+        <v>106.1583053250758</v>
       </c>
       <c r="E9" t="n">
-        <v>143.5588864874872</v>
+        <v>126.5664673253489</v>
       </c>
       <c r="F9" t="n">
+        <v>115.8965445617095</v>
+      </c>
+      <c r="G9" t="n">
         <v>69.68506594964725</v>
       </c>
-      <c r="G9" t="n">
-        <v>103.5822925635865</v>
-      </c>
       <c r="H9" t="n">
-        <v>97.96181184989064</v>
+        <v>130.133504199406</v>
       </c>
       <c r="I9" t="n">
-        <v>118.3239202614774</v>
+        <v>144.6428070808934</v>
       </c>
       <c r="J9" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K9" t="n">
-        <v>120.9057739379893</v>
+        <v>130.4401897549963</v>
       </c>
       <c r="L9" t="n">
+        <v>126.3483399031445</v>
+      </c>
+      <c r="M9" t="n">
         <v>141.1755457878113</v>
-      </c>
-      <c r="M9" t="n">
-        <v>136.9596613226128</v>
-      </c>
-      <c r="N9" t="n">
-        <v>143.8640722004565</v>
-      </c>
-      <c r="O9" t="n">
-        <v>144.8369553509025</v>
       </c>
     </row>
     <row r="10">
@@ -14408,46 +13916,40 @@
         <v>44593</v>
       </c>
       <c r="B10" t="n">
-        <v>128.02</v>
+        <v>129.82</v>
       </c>
       <c r="C10" t="n">
-        <v>126.7450284697335</v>
+        <v>126.9296080468867</v>
       </c>
       <c r="D10" t="n">
-        <v>143.2084125099659</v>
+        <v>106.1835756179369</v>
       </c>
       <c r="E10" t="n">
-        <v>143.616247401193</v>
+        <v>126.6392843589619</v>
       </c>
       <c r="F10" t="n">
+        <v>116.3450340130561</v>
+      </c>
+      <c r="G10" t="n">
         <v>71.4537447070857</v>
       </c>
-      <c r="G10" t="n">
-        <v>104.1928360626991</v>
-      </c>
       <c r="H10" t="n">
-        <v>98.0247635897901</v>
+        <v>134.0058324427926</v>
       </c>
       <c r="I10" t="n">
-        <v>118.4309347050611</v>
+        <v>144.6428158359803</v>
       </c>
       <c r="J10" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K10" t="n">
-        <v>123.2396191426763</v>
+        <v>135.076024136526</v>
       </c>
       <c r="L10" t="n">
+        <v>129.231912834697</v>
+      </c>
+      <c r="M10" t="n">
         <v>154.3225756645203</v>
-      </c>
-      <c r="M10" t="n">
-        <v>139.2233623931081</v>
-      </c>
-      <c r="N10" t="n">
-        <v>143.9601733835784</v>
-      </c>
-      <c r="O10" t="n">
-        <v>145.0558602395762</v>
       </c>
     </row>
     <row r="11">
@@ -14455,46 +13957,40 @@
         <v>44621</v>
       </c>
       <c r="B11" t="n">
-        <v>136.04</v>
+        <v>140.54</v>
       </c>
       <c r="C11" t="n">
-        <v>136.0427490941574</v>
+        <v>136.2287835507361</v>
       </c>
       <c r="D11" t="n">
-        <v>143.2204482309233</v>
+        <v>106.156807070408</v>
       </c>
       <c r="E11" t="n">
-        <v>143.6736083376119</v>
+        <v>127.6554847398075</v>
       </c>
       <c r="F11" t="n">
+        <v>123.5315012530844</v>
+      </c>
+      <c r="G11" t="n">
         <v>100.2263802320934</v>
       </c>
-      <c r="G11" t="n">
-        <v>113.8046978351142</v>
-      </c>
       <c r="H11" t="n">
-        <v>98.08771338202779</v>
+        <v>145.3459776838986</v>
       </c>
       <c r="I11" t="n">
-        <v>119.712246853876</v>
+        <v>144.6428178186148</v>
       </c>
       <c r="J11" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K11" t="n">
-        <v>141.665087937079</v>
+        <v>148.5138041176256</v>
       </c>
       <c r="L11" t="n">
+        <v>148.2370067456023</v>
+      </c>
+      <c r="M11" t="n">
         <v>169.0494261741638</v>
-      </c>
-      <c r="M11" t="n">
-        <v>143.7719302185446</v>
-      </c>
-      <c r="N11" t="n">
-        <v>144.0564721130258</v>
-      </c>
-      <c r="O11" t="n">
-        <v>145.275359770542</v>
       </c>
     </row>
     <row r="12">
@@ -14502,46 +13998,40 @@
         <v>44652</v>
       </c>
       <c r="B12" t="n">
-        <v>145.38</v>
+        <v>147.98</v>
       </c>
       <c r="C12" t="n">
-        <v>140.4291317982778</v>
+        <v>140.6190606597581</v>
       </c>
       <c r="D12" t="n">
-        <v>143.2324819725617</v>
+        <v>106.1224254895254</v>
       </c>
       <c r="E12" t="n">
-        <v>143.7309692962654</v>
+        <v>128.1916194992442</v>
       </c>
       <c r="F12" t="n">
+        <v>127.3725114371828</v>
+      </c>
+      <c r="G12" t="n">
         <v>115.6248021003925</v>
       </c>
-      <c r="G12" t="n">
-        <v>118.9584882628226</v>
-      </c>
       <c r="H12" t="n">
-        <v>98.15066279685391</v>
+        <v>151.9635730670527</v>
       </c>
       <c r="I12" t="n">
-        <v>120.411965502513</v>
+        <v>144.6428182675917</v>
       </c>
       <c r="J12" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K12" t="n">
-        <v>146.2932470891994</v>
+        <v>154.6091877484234</v>
       </c>
       <c r="L12" t="n">
+        <v>151.1859444423644</v>
+      </c>
+      <c r="M12" t="n">
         <v>178.651745891571</v>
-      </c>
-      <c r="M12" t="n">
-        <v>147.0232610209434</v>
-      </c>
-      <c r="N12" t="n">
-        <v>144.1529169940567</v>
-      </c>
-      <c r="O12" t="n">
-        <v>145.4952997133427</v>
       </c>
     </row>
     <row r="13">
@@ -14549,46 +14039,40 @@
         <v>44682</v>
       </c>
       <c r="B13" t="n">
-        <v>149.35</v>
+        <v>146.74</v>
       </c>
       <c r="C13" t="n">
-        <v>148.6828063500248</v>
+        <v>148.8786918936586</v>
       </c>
       <c r="D13" t="n">
-        <v>143.2445137111366</v>
+        <v>106.0863863662919</v>
       </c>
       <c r="E13" t="n">
-        <v>143.7883302778472</v>
+        <v>128.3991697916235</v>
       </c>
       <c r="F13" t="n">
+        <v>128.9150128826804</v>
+      </c>
+      <c r="G13" t="n">
         <v>121.8308469039438</v>
       </c>
-      <c r="G13" t="n">
-        <v>121.0481529779039</v>
-      </c>
       <c r="H13" t="n">
-        <v>98.21361213854642</v>
+        <v>156.9787242597458</v>
       </c>
       <c r="I13" t="n">
-        <v>120.7119428506101</v>
+        <v>144.6428183692646</v>
       </c>
       <c r="J13" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K13" t="n">
-        <v>151.3884007919321</v>
+        <v>160.4303631709401</v>
       </c>
       <c r="L13" t="n">
+        <v>157.2173313124101</v>
+      </c>
+      <c r="M13" t="n">
         <v>188.8854294776916</v>
-      </c>
-      <c r="M13" t="n">
-        <v>150.0988150045848</v>
-      </c>
-      <c r="N13" t="n">
-        <v>144.2495294174587</v>
-      </c>
-      <c r="O13" t="n">
-        <v>145.7157442633923</v>
       </c>
     </row>
     <row r="14">
@@ -14596,46 +14080,40 @@
         <v>44713</v>
       </c>
       <c r="B14" t="n">
-        <v>150.2</v>
+        <v>145.66</v>
       </c>
       <c r="C14" t="n">
-        <v>155.8039457371164</v>
+        <v>156.0121647205117</v>
       </c>
       <c r="D14" t="n">
-        <v>143.2565434621469</v>
+        <v>106.0503626448521</v>
       </c>
       <c r="E14" t="n">
-        <v>143.8456912820205</v>
+        <v>128.322300350126</v>
       </c>
       <c r="F14" t="n">
+        <v>128.4644011917618</v>
+      </c>
+      <c r="G14" t="n">
         <v>120.0644238386848</v>
       </c>
-      <c r="G14" t="n">
-        <v>120.4803283986579</v>
-      </c>
       <c r="H14" t="n">
-        <v>98.27656146606735</v>
+        <v>162.3240846926305</v>
       </c>
       <c r="I14" t="n">
-        <v>120.6652281042208</v>
+        <v>144.6428183922889</v>
       </c>
       <c r="J14" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K14" t="n">
-        <v>151.2017611400974</v>
+        <v>165.5621605466397</v>
       </c>
       <c r="L14" t="n">
+        <v>157.3165877680186</v>
+      </c>
+      <c r="M14" t="n">
         <v>203.2598896980286</v>
-      </c>
-      <c r="M14" t="n">
-        <v>152.7855651976514</v>
-      </c>
-      <c r="N14" t="n">
-        <v>144.3462704558578</v>
-      </c>
-      <c r="O14" t="n">
-        <v>145.9365766234059</v>
       </c>
     </row>
     <row r="15">
@@ -14643,46 +14121,40 @@
         <v>44743</v>
       </c>
       <c r="B15" t="n">
-        <v>149.52</v>
+        <v>146.74</v>
       </c>
       <c r="C15" t="n">
-        <v>158.7921403519803</v>
+        <v>159.0232939333507</v>
       </c>
       <c r="D15" t="n">
-        <v>143.2685712298355</v>
+        <v>106.0214989133861</v>
       </c>
       <c r="E15" t="n">
-        <v>143.9030523085311</v>
+        <v>128.1440742450908</v>
       </c>
       <c r="F15" t="n">
+        <v>127.2860301430898</v>
+      </c>
+      <c r="G15" t="n">
         <v>115.3798033702486</v>
       </c>
-      <c r="G15" t="n">
-        <v>118.9397713507707</v>
-      </c>
       <c r="H15" t="n">
-        <v>98.33951079084214</v>
+        <v>164.8038129760617</v>
       </c>
       <c r="I15" t="n">
-        <v>120.4916121301097</v>
+        <v>144.6428183975029</v>
       </c>
       <c r="J15" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K15" t="n">
-        <v>150.7659026616953</v>
+        <v>167.6810326310001</v>
       </c>
       <c r="L15" t="n">
+        <v>157.2798868073245</v>
+      </c>
+      <c r="M15" t="n">
         <v>207.6809497833252</v>
-      </c>
-      <c r="M15" t="n">
-        <v>153.6200899684285</v>
-      </c>
-      <c r="N15" t="n">
-        <v>144.4431127886959</v>
-      </c>
-      <c r="O15" t="n">
-        <v>146.1577148277208</v>
       </c>
     </row>
     <row r="16">
@@ -14690,46 +14162,40 @@
         <v>44774</v>
       </c>
       <c r="B16" t="n">
-        <v>146.67</v>
+        <v>144.16</v>
       </c>
       <c r="C16" t="n">
-        <v>154.2691527981541</v>
+        <v>154.5309502738544</v>
       </c>
       <c r="D16" t="n">
-        <v>143.2805970233453</v>
+        <v>105.9809305343816</v>
       </c>
       <c r="E16" t="n">
-        <v>143.9604133569092</v>
+        <v>128.0396915156067</v>
       </c>
       <c r="F16" t="n">
+        <v>126.6537271158749</v>
+      </c>
+      <c r="G16" t="n">
         <v>112.8911596392129</v>
       </c>
-      <c r="G16" t="n">
-        <v>118.1312065485064</v>
-      </c>
       <c r="H16" t="n">
-        <v>98.40246011508481</v>
+        <v>160.5117286129422</v>
       </c>
       <c r="I16" t="n">
-        <v>120.4134907719883</v>
+        <v>144.6428183986836</v>
       </c>
       <c r="J16" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K16" t="n">
-        <v>145.6639859742953</v>
+        <v>163.0554208875531</v>
       </c>
       <c r="L16" t="n">
+        <v>152.7658015022187</v>
+      </c>
+      <c r="M16" t="n">
         <v>200.7649317741394</v>
-      </c>
-      <c r="M16" t="n">
-        <v>151.7481035959709</v>
-      </c>
-      <c r="N16" t="n">
-        <v>144.5400274198611</v>
-      </c>
-      <c r="O16" t="n">
-        <v>146.3790718793287</v>
       </c>
     </row>
     <row r="17">
@@ -14737,46 +14203,40 @@
         <v>44805</v>
       </c>
       <c r="B17" t="n">
-        <v>145.78</v>
+        <v>143.82</v>
       </c>
       <c r="C17" t="n">
-        <v>148.756438968833</v>
+        <v>149.0518126901033</v>
       </c>
       <c r="D17" t="n">
-        <v>143.2926208407951</v>
+        <v>105.9527357516209</v>
       </c>
       <c r="E17" t="n">
-        <v>144.0177744278266</v>
+        <v>127.8103406568948</v>
       </c>
       <c r="F17" t="n">
+        <v>125.1154634914727</v>
+      </c>
+      <c r="G17" t="n">
         <v>106.7662999240974</v>
       </c>
-      <c r="G17" t="n">
-        <v>116.1105697515144</v>
-      </c>
       <c r="H17" t="n">
-        <v>98.46540943922436</v>
+        <v>160.6662702955712</v>
       </c>
       <c r="I17" t="n">
-        <v>120.1772443098186</v>
+        <v>144.642818398951</v>
       </c>
       <c r="J17" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K17" t="n">
-        <v>143.1486729480987</v>
+        <v>163.8813170308903</v>
       </c>
       <c r="L17" t="n">
+        <v>150.8094926687178</v>
+      </c>
+      <c r="M17" t="n">
         <v>211.84396276474</v>
-      </c>
-      <c r="M17" t="n">
-        <v>151.7658790878468</v>
-      </c>
-      <c r="N17" t="n">
-        <v>144.6370298486651</v>
-      </c>
-      <c r="O17" t="n">
-        <v>146.6006942773734</v>
       </c>
     </row>
     <row r="18">
@@ -14784,46 +14244,40 @@
         <v>44835</v>
       </c>
       <c r="B18" t="n">
-        <v>142.34</v>
+        <v>138.68</v>
       </c>
       <c r="C18" t="n">
-        <v>142.1606112238213</v>
+        <v>142.4896634621676</v>
       </c>
       <c r="D18" t="n">
-        <v>143.3046426896266</v>
+        <v>105.9030834407051</v>
       </c>
       <c r="E18" t="n">
-        <v>144.0751355209868</v>
+        <v>127.9015205226337</v>
       </c>
       <c r="F18" t="n">
+        <v>125.8757719839404</v>
+      </c>
+      <c r="G18" t="n">
         <v>109.8571862048235</v>
       </c>
-      <c r="G18" t="n">
-        <v>117.161848286463</v>
-      </c>
       <c r="H18" t="n">
-        <v>98.52835876334393</v>
+        <v>156.9266730433777</v>
       </c>
       <c r="I18" t="n">
-        <v>120.3417553385038</v>
+        <v>144.6428183990115</v>
       </c>
       <c r="J18" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K18" t="n">
-        <v>141.674352646261</v>
+        <v>161.8077241426013</v>
       </c>
       <c r="L18" t="n">
+        <v>151.3050491501838</v>
+      </c>
+      <c r="M18" t="n">
         <v>214.7561839580536</v>
-      </c>
-      <c r="M18" t="n">
-        <v>150.4486862952136</v>
-      </c>
-      <c r="N18" t="n">
-        <v>144.7341199968963</v>
-      </c>
-      <c r="O18" t="n">
-        <v>146.8225817800755</v>
       </c>
     </row>
     <row r="19">
@@ -14831,46 +14285,40 @@
         <v>44866</v>
       </c>
       <c r="B19" t="n">
-        <v>133.51</v>
+        <v>132.46</v>
       </c>
       <c r="C19" t="n">
-        <v>134.1987390957643</v>
+        <v>134.5588790687592</v>
       </c>
       <c r="D19" t="n">
-        <v>143.3166625773076</v>
+        <v>105.8628649210707</v>
       </c>
       <c r="E19" t="n">
-        <v>144.1324966360897</v>
+        <v>127.1731318678748</v>
       </c>
       <c r="F19" t="n">
+        <v>120.8698828729475</v>
+      </c>
+      <c r="G19" t="n">
         <v>89.87384828047261</v>
       </c>
-      <c r="G19" t="n">
-        <v>110.5217187530512</v>
-      </c>
       <c r="H19" t="n">
-        <v>98.59130808745961</v>
+        <v>150.6175106842705</v>
       </c>
       <c r="I19" t="n">
-        <v>119.5028567462792</v>
+        <v>144.6428183990252</v>
       </c>
       <c r="J19" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K19" t="n">
-        <v>132.5270245107426</v>
+        <v>155.439893110288</v>
       </c>
       <c r="L19" t="n">
+        <v>143.3973369060993</v>
+      </c>
+      <c r="M19" t="n">
         <v>211.3433564662933</v>
-      </c>
-      <c r="M19" t="n">
-        <v>147.3153014953455</v>
-      </c>
-      <c r="N19" t="n">
-        <v>144.8313082466649</v>
-      </c>
-      <c r="O19" t="n">
-        <v>147.0447655265973</v>
       </c>
     </row>
     <row r="20">
@@ -14878,46 +14326,40 @@
         <v>44896</v>
       </c>
       <c r="B20" t="n">
-        <v>129.54</v>
+        <v>125.78</v>
       </c>
       <c r="C20" t="n">
-        <v>130.2602248941504</v>
+        <v>130.6434176954406</v>
       </c>
       <c r="D20" t="n">
-        <v>143.3286805053456</v>
+        <v>105.8375057279763</v>
       </c>
       <c r="E20" t="n">
-        <v>144.1898577734534</v>
+        <v>126.589513332812</v>
       </c>
       <c r="F20" t="n">
+        <v>116.8421521866</v>
+      </c>
+      <c r="G20" t="n">
         <v>73.78828472817402</v>
       </c>
-      <c r="G20" t="n">
-        <v>105.1808473436567</v>
-      </c>
       <c r="H20" t="n">
-        <v>98.65425741157456</v>
+        <v>146.1029879030718</v>
       </c>
       <c r="I20" t="n">
-        <v>118.8334574304019</v>
+        <v>144.6428183990283</v>
       </c>
       <c r="J20" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K20" t="n">
-        <v>124.9118979456398</v>
+        <v>150.874388446959</v>
       </c>
       <c r="L20" t="n">
+        <v>137.2116050502964</v>
+      </c>
+      <c r="M20" t="n">
         <v>209.862531042099</v>
-      </c>
-      <c r="M20" t="n">
-        <v>145.8237866324386</v>
-      </c>
-      <c r="N20" t="n">
-        <v>144.9286286665874</v>
-      </c>
-      <c r="O20" t="n">
-        <v>147.2673477209631</v>
       </c>
     </row>
     <row r="21">
@@ -14925,46 +14367,40 @@
         <v>44927</v>
       </c>
       <c r="B21" t="n">
-        <v>128</v>
+        <v>131.66</v>
       </c>
       <c r="C21" t="n">
-        <v>130.1410163044249</v>
+        <v>130.5389882354014</v>
       </c>
       <c r="D21" t="n">
-        <v>143.3406964813916</v>
+        <v>105.7677933847698</v>
       </c>
       <c r="E21" t="n">
-        <v>144.2472189331352</v>
+        <v>126.3849784338038</v>
       </c>
       <c r="F21" t="n">
-        <v>68.8064577867062</v>
+        <v>115.5792673654316</v>
       </c>
       <c r="G21" t="n">
-        <v>103.5412214712057</v>
+        <v>68.80645778670622</v>
       </c>
       <c r="H21" t="n">
-        <v>98.71720673568936</v>
+        <v>147.4929844321026</v>
       </c>
       <c r="I21" t="n">
-        <v>118.6469170849633</v>
+        <v>144.642818399029</v>
       </c>
       <c r="J21" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K21" t="n">
-        <v>122.5046920547571</v>
+        <v>150.9267142749142</v>
       </c>
       <c r="L21" t="n">
+        <v>134.9794507047706</v>
+      </c>
+      <c r="M21" t="n">
         <v>206.5284181594849</v>
-      </c>
-      <c r="M21" t="n">
-        <v>145.2567633187395</v>
-      </c>
-      <c r="N21" t="n">
-        <v>145.0261008310759</v>
-      </c>
-      <c r="O21" t="n">
-        <v>147.490387078701</v>
       </c>
     </row>
     <row r="22">
@@ -14972,46 +14408,40 @@
         <v>44958</v>
       </c>
       <c r="B22" t="n">
-        <v>132.97</v>
+        <v>132.74</v>
       </c>
       <c r="C22" t="n">
-        <v>132.2711873112226</v>
+        <v>132.677716567392</v>
       </c>
       <c r="D22" t="n">
-        <v>143.352710510845</v>
+        <v>105.7830460137165</v>
       </c>
       <c r="E22" t="n">
-        <v>144.3045801146691</v>
+        <v>126.5139485787636</v>
       </c>
       <c r="F22" t="n">
-        <v>72.2571192448237</v>
+        <v>116.4457458871977</v>
       </c>
       <c r="G22" t="n">
-        <v>104.7124250652831</v>
+        <v>72.25711924482371</v>
       </c>
       <c r="H22" t="n">
-        <v>98.78015605980413</v>
+        <v>150.6223481216493</v>
       </c>
       <c r="I22" t="n">
-        <v>118.8270733579306</v>
+        <v>144.6428183990292</v>
       </c>
       <c r="J22" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K22" t="n">
-        <v>127.909915168695</v>
+        <v>155.2162540441564</v>
       </c>
       <c r="L22" t="n">
+        <v>140.934401545574</v>
+      </c>
+      <c r="M22" t="n">
         <v>214.5128980636597</v>
-      </c>
-      <c r="M22" t="n">
-        <v>147.3004487667955</v>
-      </c>
-      <c r="N22" t="n">
-        <v>145.1237349297502</v>
-      </c>
-      <c r="O22" t="n">
-        <v>147.7139141637365</v>
       </c>
     </row>
     <row r="23">
@@ -15019,46 +14449,40 @@
         <v>44986</v>
       </c>
       <c r="B23" t="n">
-        <v>140.25</v>
+        <v>141.94</v>
       </c>
       <c r="C23" t="n">
-        <v>143.1469940879638</v>
+        <v>143.5556755392103</v>
       </c>
       <c r="D23" t="n">
-        <v>143.3647225908962</v>
+        <v>105.7519916825968</v>
       </c>
       <c r="E23" t="n">
-        <v>144.3619413188179</v>
+        <v>127.4367394127438</v>
       </c>
       <c r="F23" t="n">
+        <v>122.9881220872296</v>
+      </c>
+      <c r="G23" t="n">
         <v>98.45767837607104</v>
       </c>
-      <c r="G23" t="n">
-        <v>113.4669278837371</v>
-      </c>
       <c r="H23" t="n">
-        <v>98.8431053839189</v>
+        <v>163.6594430076457</v>
       </c>
       <c r="I23" t="n">
-        <v>119.9965355333198</v>
+        <v>144.6428183990292</v>
       </c>
       <c r="J23" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K23" t="n">
-        <v>149.6098133700619</v>
+        <v>171.1217803126335</v>
       </c>
       <c r="L23" t="n">
+        <v>162.3127513677569</v>
+      </c>
+      <c r="M23" t="n">
         <v>236.6786943435669</v>
-      </c>
-      <c r="M23" t="n">
-        <v>152.7392951468159</v>
-      </c>
-      <c r="N23" t="n">
-        <v>145.2215595694267</v>
-      </c>
-      <c r="O23" t="n">
-        <v>147.9380147985661</v>
       </c>
     </row>
     <row r="24">
@@ -15066,46 +14490,40 @@
         <v>45017</v>
       </c>
       <c r="B24" t="n">
-        <v>149.19</v>
+        <v>147.8</v>
       </c>
       <c r="C24" t="n">
-        <v>150.0511033362729</v>
+        <v>150.4642363628444</v>
       </c>
       <c r="D24" t="n">
-        <v>143.3767327380609</v>
+        <v>105.7015801477967</v>
       </c>
       <c r="E24" t="n">
-        <v>144.4193025443367</v>
+        <v>127.9789154212466</v>
       </c>
       <c r="F24" t="n">
+        <v>126.9106486071038</v>
+      </c>
+      <c r="G24" t="n">
         <v>114.1981959903677</v>
       </c>
-      <c r="G24" t="n">
-        <v>118.734750196541</v>
-      </c>
       <c r="H24" t="n">
-        <v>98.90605470803365</v>
+        <v>169.6303063680742</v>
       </c>
       <c r="I24" t="n">
-        <v>120.7111305721188</v>
+        <v>144.6428183990292</v>
       </c>
       <c r="J24" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K24" t="n">
-        <v>157.8998892533262</v>
+        <v>177.0438455339099</v>
       </c>
       <c r="L24" t="n">
+        <v>168.7609782122178</v>
+      </c>
+      <c r="M24" t="n">
         <v>241.1501675605774</v>
-      </c>
-      <c r="M24" t="n">
-        <v>155.9147054776421</v>
-      </c>
-      <c r="N24" t="n">
-        <v>145.3195326366776</v>
-      </c>
-      <c r="O24" t="n">
-        <v>148.1625626276353</v>
       </c>
     </row>
     <row r="25">
@@ -15113,46 +14531,40 @@
         <v>45047</v>
       </c>
       <c r="B25" t="n">
-        <v>153.16</v>
+        <v>146.56</v>
       </c>
       <c r="C25" t="n">
-        <v>158.0691930182104</v>
+        <v>158.4900288726939</v>
       </c>
       <c r="D25" t="n">
-        <v>143.3887409506367</v>
+        <v>105.6917639936461</v>
       </c>
       <c r="E25" t="n">
-        <v>144.4766637918679</v>
+        <v>128.2603901805917</v>
       </c>
       <c r="F25" t="n">
+        <v>128.907080668126</v>
+      </c>
+      <c r="G25" t="n">
         <v>122.1937403886071</v>
       </c>
-      <c r="G25" t="n">
-        <v>121.420914770659</v>
-      </c>
       <c r="H25" t="n">
-        <v>98.96900403214842</v>
+        <v>175.7951231363158</v>
       </c>
       <c r="I25" t="n">
-        <v>121.0889263941988</v>
+        <v>144.6428183990292</v>
       </c>
       <c r="J25" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K25" t="n">
-        <v>162.6799831091191</v>
+        <v>184.1042411867251</v>
       </c>
       <c r="L25" t="n">
+        <v>174.1414127838439</v>
+      </c>
+      <c r="M25" t="n">
         <v>257.2255230903626</v>
-      </c>
-      <c r="M25" t="n">
-        <v>159.4957990276756</v>
-      </c>
-      <c r="N25" t="n">
-        <v>145.4176565953329</v>
-      </c>
-      <c r="O25" t="n">
-        <v>148.3875650434942</v>
       </c>
     </row>
     <row r="26">
@@ -15160,46 +14572,40 @@
         <v>45078</v>
       </c>
       <c r="B26" t="n">
-        <v>153.73</v>
+        <v>145.48</v>
       </c>
       <c r="C26" t="n">
-        <v>163.4519449502926</v>
+        <v>163.8873744135571</v>
       </c>
       <c r="D26" t="n">
-        <v>143.4007472359135</v>
+        <v>105.6499560232032</v>
       </c>
       <c r="E26" t="n">
-        <v>144.5340250611182</v>
+        <v>128.127410637489</v>
       </c>
       <c r="F26" t="n">
+        <v>128.0774149495506</v>
+      </c>
+      <c r="G26" t="n">
         <v>118.9168854847484</v>
       </c>
-      <c r="G26" t="n">
-        <v>120.3496129107444</v>
-      </c>
       <c r="H26" t="n">
-        <v>99.03195335626319</v>
+        <v>177.7987202734917</v>
       </c>
       <c r="I26" t="n">
-        <v>120.9765287514883</v>
+        <v>144.6428183990292</v>
       </c>
       <c r="J26" t="n">
         <v>143.0999998912215</v>
       </c>
       <c r="K26" t="n">
-        <v>160.6279014841653</v>
+        <v>185.2162998211451</v>
       </c>
       <c r="L26" t="n">
+        <v>172.0601674193935</v>
+      </c>
+      <c r="M26" t="n">
         <v>259.4376574516297</v>
-      </c>
-      <c r="M26" t="n">
-        <v>160.6844025137279</v>
-      </c>
-      <c r="N26" t="n">
-        <v>145.5159011611445</v>
-      </c>
-      <c r="O26" t="n">
-        <v>148.6129311864019</v>
       </c>
     </row>
   </sheetData>

--- a/examples/housing_different_levels_results.xlsx
+++ b/examples/housing_different_levels_results.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,70 +449,60 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>mlr</t>
+          <t>knn</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>svr</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>svr</t>
+          <t>lightgbm</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>mlp</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>gbt</t>
+          <t>avg_diff</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>weighted_diff</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>arima</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>hwes</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>weighted</t>
+          <t>prophet</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>silverkite</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>hwes</t>
+          <t>avg_level</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>prophet</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>avg_level</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>weighted_level</t>
         </is>
@@ -523,46 +513,40 @@
         <v>44348</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2159605762784906</v>
+        <v>0.2599999999999995</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3499999999999986</v>
+        <v>5.957117550524226</v>
       </c>
       <c r="D2" t="n">
-        <v>5.950334146049205</v>
+        <v>-2.840424008863423</v>
       </c>
       <c r="E2" t="n">
-        <v>2.605320930480957</v>
+        <v>0.01989186140956178</v>
       </c>
       <c r="F2" t="n">
-        <v>2.374517971324974</v>
+        <v>0.849146350767591</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05736073044101056</v>
+        <v>1.713150451314456</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01205397708987732</v>
+        <v>144.266784432994</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09512509460312617</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J2" t="n">
-        <v>1.242807553334142</v>
+        <v>121.210930676829</v>
       </c>
       <c r="K2" t="n">
-        <v>97.2290968349859</v>
+        <v>106.4464056700604</v>
       </c>
       <c r="L2" t="n">
-        <v>143.0999998912215</v>
+        <v>128.7560301677762</v>
       </c>
       <c r="M2" t="n">
-        <v>121.2109306768289</v>
-      </c>
-      <c r="N2" t="n">
-        <v>120.5133424676788</v>
-      </c>
-      <c r="O2" t="n">
-        <v>120.2142233553945</v>
+        <v>128.4450053914618</v>
       </c>
     </row>
     <row r="3">
@@ -570,46 +554,40 @@
         <v>44378</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2163283098992963</v>
+        <v>1.680000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009999999999999431</v>
+        <v>1.931878701657451</v>
       </c>
       <c r="D3" t="n">
-        <v>1.911043856914492</v>
+        <v>2.016277441007463</v>
       </c>
       <c r="E3" t="n">
-        <v>13.59173965454102</v>
+        <v>0.0198911864372775</v>
       </c>
       <c r="F3" t="n">
-        <v>1.698424656600791</v>
+        <v>1.412011832275548</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05736075353209183</v>
+        <v>1.13779891668527</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01205193294762807</v>
+        <v>144.5592093868451</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0952469987930054</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J3" t="n">
-        <v>1.66836898242793</v>
+        <v>115.3971655936528</v>
       </c>
       <c r="K3" t="n">
-        <v>97.52752199089267</v>
+        <v>106.4263143011974</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0999998912215</v>
+        <v>127.3706722932292</v>
       </c>
       <c r="M3" t="n">
-        <v>115.3971655936528</v>
-      </c>
-      <c r="N3" t="n">
-        <v>118.6748958252556</v>
-      </c>
-      <c r="O3" t="n">
-        <v>120.1041017361174</v>
+        <v>128.2846702813131</v>
       </c>
     </row>
     <row r="4">
@@ -617,46 +595,40 @@
         <v>44409</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2166659961649486</v>
+        <v>-1.4</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.849999999999999</v>
+        <v>-3.12917758912104</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.156598495203612</v>
+        <v>-1.77889885556875</v>
       </c>
       <c r="E4" t="n">
-        <v>-6.973344802856445</v>
+        <v>0.01989051058610869</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.163652810079073</v>
+        <v>-1.57204648352592</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05736077672262693</v>
+        <v>-1.377851274605121</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01204989079356267</v>
+        <v>144.6237951128402</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09535888789371276</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J4" t="n">
-        <v>-1.624429399985522</v>
+        <v>113.5034203267793</v>
       </c>
       <c r="K4" t="n">
-        <v>97.63610105955703</v>
+        <v>106.3759027663975</v>
       </c>
       <c r="L4" t="n">
-        <v>143.0999998912215</v>
+        <v>126.9007795243096</v>
       </c>
       <c r="M4" t="n">
-        <v>113.5034203267793</v>
-      </c>
-      <c r="N4" t="n">
-        <v>118.0798404258526</v>
-      </c>
-      <c r="O4" t="n">
-        <v>120.0736688242555</v>
+        <v>128.2098301997401</v>
       </c>
     </row>
     <row r="5">
@@ -664,46 +636,40 @@
         <v>44440</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2169194799444938</v>
+        <v>-0.3399999999999977</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0299999999999983</v>
+        <v>-5.636474164603681</v>
       </c>
       <c r="D5" t="n">
-        <v>-5.666893700706981</v>
+        <v>-6.108866714586087</v>
       </c>
       <c r="E5" t="n">
-        <v>5.380267143249512</v>
+        <v>0.0198898408148267</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.152247879284023</v>
+        <v>-3.016362759593735</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05736079955637471</v>
+        <v>-1.936266148178414</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01204784511072887</v>
+        <v>144.6385156828069</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0954427082038658</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.3878795878280942</v>
+        <v>106.6635638332916</v>
       </c>
       <c r="K5" t="n">
-        <v>97.70789236788656</v>
+        <v>106.3440355923334</v>
       </c>
       <c r="L5" t="n">
-        <v>143.0999998912215</v>
+        <v>125.1865287499134</v>
       </c>
       <c r="M5" t="n">
-        <v>106.6635638332916</v>
-      </c>
-      <c r="N5" t="n">
-        <v>115.8238186974665</v>
-      </c>
-      <c r="O5" t="n">
-        <v>119.8105578270418</v>
+        <v>127.9563178378245</v>
       </c>
     </row>
     <row r="6">
@@ -711,46 +677,40 @@
         <v>44470</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2172233706317854</v>
+        <v>-3.280000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.439999999999998</v>
+        <v>-5.73393649123871</v>
       </c>
       <c r="D6" t="n">
-        <v>-5.764082549298242</v>
+        <v>5.40739515779799</v>
       </c>
       <c r="E6" t="n">
-        <v>6.592167377471924</v>
+        <v>0.01988916968727494</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.09227490082819133</v>
+        <v>-0.8966630409383616</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05736082262118872</v>
+        <v>-2.446929014697899</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0120458087996127</v>
+        <v>144.6418437271347</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09554333401752894</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.8148058712142443</v>
+        <v>111.5786596921732</v>
       </c>
       <c r="K6" t="n">
-        <v>97.77255506308472</v>
+        <v>106.3078988285164</v>
       </c>
       <c r="L6" t="n">
-        <v>143.0999998912215</v>
+        <v>126.4071005347615</v>
       </c>
       <c r="M6" t="n">
-        <v>111.5786596921732</v>
-      </c>
-      <c r="N6" t="n">
-        <v>117.4837382154931</v>
-      </c>
-      <c r="O6" t="n">
-        <v>120.0552160180741</v>
+        <v>128.1183983828476</v>
       </c>
     </row>
     <row r="7">
@@ -758,46 +718,40 @@
         <v>44501</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2175082412052234</v>
+        <v>-6.219999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>-7.1</v>
+        <v>-8.328265070736306</v>
       </c>
       <c r="D7" t="n">
-        <v>-8.35612321688931</v>
+        <v>-11.15770207513534</v>
       </c>
       <c r="E7" t="n">
-        <v>-8.018988609313965</v>
+        <v>0.01988850568589839</v>
       </c>
       <c r="F7" t="n">
-        <v>-10.8366606437597</v>
+        <v>-6.421519660046436</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05736084520598339</v>
+        <v>-4.644534046607186</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01204379254340893</v>
+        <v>144.6425976974261</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09563762631820523</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J7" t="n">
-        <v>-3.379709449672442</v>
+        <v>89.82982520681512</v>
       </c>
       <c r="K7" t="n">
-        <v>97.83583639870257</v>
+        <v>106.267680308882</v>
       </c>
       <c r="L7" t="n">
-        <v>143.0999998912215</v>
+        <v>120.9600257760862</v>
       </c>
       <c r="M7" t="n">
-        <v>89.82982520681512</v>
-      </c>
-      <c r="N7" t="n">
-        <v>110.2552204989131</v>
-      </c>
-      <c r="O7" t="n">
-        <v>119.1397015000497</v>
+        <v>127.3271651967546</v>
       </c>
     </row>
     <row r="8">
@@ -805,46 +759,40 @@
         <v>44531</v>
       </c>
       <c r="B8" t="n">
-        <v>0.217938795937954</v>
+        <v>-6.680000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>-3.97</v>
+        <v>-3.181943763822314</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.202316107302563</v>
+        <v>-7.954178743681183</v>
       </c>
       <c r="E8" t="n">
-        <v>-6.977509498596191</v>
+        <v>0.01988783759412627</v>
       </c>
       <c r="F8" t="n">
-        <v>-7.615126565102805</v>
+        <v>-4.449058667477344</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05736086823177908</v>
+        <v>-3.181259563012673</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01204176522905698</v>
+        <v>144.6427684190898</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09578047646626335</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J8" t="n">
-        <v>-1.889323150784866</v>
+        <v>74.44263565948754</v>
       </c>
       <c r="K8" t="n">
-        <v>97.89885005893183</v>
+        <v>106.2423211157876</v>
       </c>
       <c r="L8" t="n">
-        <v>143.0999998912215</v>
+        <v>117.1069312713966</v>
       </c>
       <c r="M8" t="n">
-        <v>74.44263565948754</v>
-      </c>
-      <c r="N8" t="n">
-        <v>105.1471618698803</v>
-      </c>
-      <c r="O8" t="n">
-        <v>118.5007025577477</v>
+        <v>126.7684938357988</v>
       </c>
     </row>
     <row r="9">
@@ -852,46 +800,40 @@
         <v>44562</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2184105808403274</v>
+        <v>1.859999999999997</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.540000000000002</v>
+        <v>0.2776741563698604</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2647421761536179</v>
+        <v>-3.641202341247237</v>
       </c>
       <c r="E9" t="n">
-        <v>-8.124106407165527</v>
+        <v>0.01988717515588689</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.407205890882691</v>
+        <v>-0.3709102524303733</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05736089117620938</v>
+        <v>0.5182268321511831</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01203975046591665</v>
+        <v>144.6428070808934</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0959370741608178</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.9553677536640504</v>
+        <v>69.68506594964725</v>
       </c>
       <c r="K9" t="n">
-        <v>97.96181184989064</v>
+        <v>106.1583053250758</v>
       </c>
       <c r="L9" t="n">
-        <v>143.0999998912215</v>
+        <v>115.8965445617095</v>
       </c>
       <c r="M9" t="n">
-        <v>69.68506594964725</v>
-      </c>
-      <c r="N9" t="n">
-        <v>103.5822925635865</v>
-      </c>
-      <c r="O9" t="n">
-        <v>118.3239202614774</v>
+        <v>126.5664673253489</v>
       </c>
     </row>
     <row r="10">
@@ -899,46 +841,40 @@
         <v>44593</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2189048886737055</v>
+        <v>0.8400000000000005</v>
       </c>
       <c r="C10" t="n">
-        <v>4.13</v>
+        <v>1.672734717857283</v>
       </c>
       <c r="D10" t="n">
-        <v>1.664922360016853</v>
+        <v>-0.2475231826754716</v>
       </c>
       <c r="E10" t="n">
-        <v>13.14702987670898</v>
+        <v>0.01988651514120932</v>
       </c>
       <c r="F10" t="n">
-        <v>2.333845204687038</v>
+        <v>0.5712745125807553</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0573609137057616</v>
+        <v>0.7342859430364505</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01203774698603866</v>
+        <v>144.6428158359803</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09610118312183524</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J10" t="n">
-        <v>2.263701070495248</v>
+        <v>71.4537447070857</v>
       </c>
       <c r="K10" t="n">
-        <v>98.0247635897901</v>
+        <v>106.1835756179369</v>
       </c>
       <c r="L10" t="n">
-        <v>143.0999998912215</v>
+        <v>116.3450340130561</v>
       </c>
       <c r="M10" t="n">
-        <v>71.4537447070857</v>
-      </c>
-      <c r="N10" t="n">
-        <v>104.1928360626991</v>
-      </c>
-      <c r="O10" t="n">
-        <v>118.4309347050611</v>
+        <v>126.6392843589619</v>
       </c>
     </row>
     <row r="11">
@@ -946,46 +882,40 @@
         <v>44621</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2194995309658054</v>
+        <v>10.72</v>
       </c>
       <c r="C11" t="n">
-        <v>8.02</v>
+        <v>9.299175503849334</v>
       </c>
       <c r="D11" t="n">
-        <v>9.297720624423924</v>
+        <v>21.83566991044776</v>
       </c>
       <c r="E11" t="n">
-        <v>14.72685050964355</v>
+        <v>0.01988585398439113</v>
       </c>
       <c r="F11" t="n">
-        <v>18.42546879440268</v>
+        <v>10.46868281707037</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05736093641892903</v>
+        <v>6.65057978143534</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01203572095745642</v>
+        <v>144.6428178186148</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09629872944739697</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J11" t="n">
-        <v>4.548567825436512</v>
+        <v>100.2263802320934</v>
       </c>
       <c r="K11" t="n">
-        <v>98.08771338202779</v>
+        <v>106.156807070408</v>
       </c>
       <c r="L11" t="n">
-        <v>143.0999998912215</v>
+        <v>123.5315012530844</v>
       </c>
       <c r="M11" t="n">
-        <v>100.2263802320934</v>
-      </c>
-      <c r="N11" t="n">
-        <v>113.8046978351142</v>
-      </c>
-      <c r="O11" t="n">
-        <v>119.712246853876</v>
+        <v>127.6554847398075</v>
       </c>
     </row>
     <row r="12">
@@ -993,46 +923,40 @@
         <v>44652</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2199399428006643</v>
+        <v>7.439999999999998</v>
       </c>
       <c r="C12" t="n">
-        <v>9.34</v>
+        <v>4.390277109021998</v>
       </c>
       <c r="D12" t="n">
-        <v>4.386382704120387</v>
+        <v>2.339651676754478</v>
       </c>
       <c r="E12" t="n">
-        <v>9.602319717407227</v>
+        <v>0.01988519968514879</v>
       </c>
       <c r="F12" t="n">
-        <v>4.628159152120355</v>
+        <v>3.547453496365406</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05736095865343671</v>
+        <v>3.580466867550484</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01203374163844728</v>
+        <v>144.6428182675917</v>
       </c>
       <c r="I12" t="n">
-        <v>0.09644488103084943</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J12" t="n">
-        <v>3.251330802398759</v>
+        <v>115.6248021003925</v>
       </c>
       <c r="K12" t="n">
-        <v>98.15066279685391</v>
+        <v>106.1224254895254</v>
       </c>
       <c r="L12" t="n">
-        <v>143.0999998912215</v>
+        <v>127.3725114371828</v>
       </c>
       <c r="M12" t="n">
-        <v>115.6248021003925</v>
-      </c>
-      <c r="N12" t="n">
-        <v>118.9584882628226</v>
-      </c>
-      <c r="O12" t="n">
-        <v>120.411965502513</v>
+        <v>128.1916194992442</v>
       </c>
     </row>
     <row r="13">
@@ -1040,46 +964,40 @@
         <v>44682</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2204445500496206</v>
+        <v>-1.240000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>3.969999999999999</v>
+        <v>8.259631233900556</v>
       </c>
       <c r="D13" t="n">
-        <v>8.253674551746993</v>
+        <v>7.511485168110812</v>
       </c>
       <c r="E13" t="n">
-        <v>10.23368358612061</v>
+        <v>0.01988453825900649</v>
       </c>
       <c r="F13" t="n">
-        <v>5.095153702732728</v>
+        <v>3.637750235067593</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05736098158184727</v>
+        <v>2.28756120746856</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01203173857481943</v>
+        <v>144.6428183692646</v>
       </c>
       <c r="I13" t="n">
-        <v>0.09661242340209576</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J13" t="n">
-        <v>3.075553983641483</v>
+        <v>121.8308469039438</v>
       </c>
       <c r="K13" t="n">
-        <v>98.21361213854642</v>
+        <v>106.0863863662919</v>
       </c>
       <c r="L13" t="n">
-        <v>143.0999998912215</v>
+        <v>128.9150128826804</v>
       </c>
       <c r="M13" t="n">
-        <v>121.8308469039438</v>
-      </c>
-      <c r="N13" t="n">
-        <v>121.0481529779039</v>
-      </c>
-      <c r="O13" t="n">
-        <v>120.7119428506101</v>
+        <v>128.3991697916235</v>
       </c>
     </row>
     <row r="14">
@@ -1087,46 +1005,40 @@
         <v>44713</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2208323600135884</v>
+        <v>-1.079999999999998</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8500000000000014</v>
+        <v>7.133472826853025</v>
       </c>
       <c r="D14" t="n">
-        <v>7.121139387091595</v>
+        <v>-4.3117344883085</v>
       </c>
       <c r="E14" t="n">
-        <v>14.37446022033691</v>
+        <v>0.01988388189748491</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1866396518347098</v>
+        <v>0.4404055551105028</v>
       </c>
       <c r="G14" t="n">
-        <v>0.05736100417329582</v>
+        <v>1.603371003259901</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01202975101037396</v>
+        <v>144.6428183922889</v>
       </c>
       <c r="I14" t="n">
-        <v>0.09674103839908606</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J14" t="n">
-        <v>2.686750193066592</v>
+        <v>120.0644238386848</v>
       </c>
       <c r="K14" t="n">
-        <v>98.27656146606735</v>
+        <v>106.0503626448521</v>
       </c>
       <c r="L14" t="n">
-        <v>143.0999998912215</v>
+        <v>128.4644011917618</v>
       </c>
       <c r="M14" t="n">
-        <v>120.0644238386848</v>
-      </c>
-      <c r="N14" t="n">
-        <v>120.4803283986579</v>
-      </c>
-      <c r="O14" t="n">
-        <v>120.6652281042208</v>
+        <v>128.322300350126</v>
       </c>
     </row>
     <row r="15">
@@ -1134,46 +1046,40 @@
         <v>44743</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2211382043148831</v>
+        <v>1.080000000000004</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.6799999999999997</v>
+        <v>3.011129212839087</v>
       </c>
       <c r="D15" t="n">
-        <v>2.988194614863885</v>
+        <v>0.01577931744337551</v>
       </c>
       <c r="E15" t="n">
-        <v>4.421060085296631</v>
+        <v>0.01988322957917887</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4358584784020574</v>
+        <v>1.031697939965411</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05736102651063241</v>
+        <v>1.202637936298244</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01202776768857916</v>
+        <v>144.6428183975029</v>
       </c>
       <c r="I15" t="n">
-        <v>0.09684233283803155</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8345247707771241</v>
+        <v>115.3798033702486</v>
       </c>
       <c r="K15" t="n">
-        <v>98.33951079084214</v>
+        <v>106.0214989133861</v>
       </c>
       <c r="L15" t="n">
-        <v>143.0999998912215</v>
+        <v>127.2860301430898</v>
       </c>
       <c r="M15" t="n">
-        <v>115.3798033702486</v>
-      </c>
-      <c r="N15" t="n">
-        <v>118.9397713507707</v>
-      </c>
-      <c r="O15" t="n">
-        <v>120.4916121301097</v>
+        <v>128.1440742450908</v>
       </c>
     </row>
     <row r="16">
@@ -1181,46 +1087,40 @@
         <v>44774</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2213570516079528</v>
+        <v>-2.580000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.849999999999999</v>
+        <v>-4.492343659496313</v>
       </c>
       <c r="D16" t="n">
-        <v>-4.522987553826191</v>
+        <v>-5.811384916943084</v>
       </c>
       <c r="E16" t="n">
-        <v>-6.916018009185791</v>
+        <v>0.0198825838423744</v>
       </c>
       <c r="F16" t="n">
-        <v>-5.101916687400027</v>
+        <v>-3.215961498149256</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05736104837804401</v>
+        <v>-2.263346618918995</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01202579350977828</v>
+        <v>144.6428183986836</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09691463116525838</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.871986372457609</v>
+        <v>112.8911596392129</v>
       </c>
       <c r="K16" t="n">
-        <v>98.40246011508481</v>
+        <v>105.9809305343816</v>
       </c>
       <c r="L16" t="n">
-        <v>143.0999998912215</v>
+        <v>126.6537271158749</v>
       </c>
       <c r="M16" t="n">
-        <v>112.8911596392129</v>
-      </c>
-      <c r="N16" t="n">
-        <v>118.1312065485064</v>
-      </c>
-      <c r="O16" t="n">
-        <v>120.4134907719883</v>
+        <v>128.0396915156067</v>
       </c>
     </row>
     <row r="17">
@@ -1228,46 +1128,40 @@
         <v>44805</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2216223980446728</v>
+        <v>-0.3399999999999977</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.8900000000000006</v>
+        <v>-5.479137583751163</v>
       </c>
       <c r="D17" t="n">
-        <v>-5.51271382932108</v>
+        <v>-3.342848566840901</v>
       </c>
       <c r="E17" t="n">
-        <v>11.07903099060059</v>
+        <v>0.01988193129706417</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.51531302619663</v>
+        <v>-2.285526054823749</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05736107091745732</v>
+        <v>-1.795769932549789</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01202381744977288</v>
+        <v>144.642818398951</v>
       </c>
       <c r="I17" t="n">
-        <v>0.09700242880396766</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J17" t="n">
-        <v>0.01777549187585655</v>
+        <v>106.7662999240974</v>
       </c>
       <c r="K17" t="n">
-        <v>98.46540943922436</v>
+        <v>105.9527357516209</v>
       </c>
       <c r="L17" t="n">
-        <v>143.0999998912215</v>
+        <v>125.1154634914727</v>
       </c>
       <c r="M17" t="n">
-        <v>106.7662999240974</v>
-      </c>
-      <c r="N17" t="n">
-        <v>116.1105697515144</v>
-      </c>
-      <c r="O17" t="n">
-        <v>120.1772443098186</v>
+        <v>127.8103406568948</v>
       </c>
     </row>
     <row r="18">
@@ -1275,46 +1169,40 @@
         <v>44835</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2218875027020601</v>
+        <v>-5.139999999999998</v>
       </c>
       <c r="C18" t="n">
-        <v>-3.439999999999998</v>
+        <v>-6.562149227935627</v>
       </c>
       <c r="D18" t="n">
-        <v>-6.595827745011652</v>
+        <v>0.9471381343083221</v>
       </c>
       <c r="E18" t="n">
-        <v>2.912221193313599</v>
+        <v>0.01988128329888639</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.47432030183771</v>
+        <v>-2.683782452582104</v>
       </c>
       <c r="G18" t="n">
-        <v>0.05736109316018842</v>
+        <v>-3.3951482628975</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01202184883155155</v>
+        <v>144.6428183990115</v>
       </c>
       <c r="I18" t="n">
-        <v>0.09709014823126672</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J18" t="n">
-        <v>-1.317192792633192</v>
+        <v>109.8571862048235</v>
       </c>
       <c r="K18" t="n">
-        <v>98.52835876334393</v>
+        <v>105.9030834407051</v>
       </c>
       <c r="L18" t="n">
-        <v>143.0999998912215</v>
+        <v>125.8757719839404</v>
       </c>
       <c r="M18" t="n">
-        <v>109.8571862048235</v>
-      </c>
-      <c r="N18" t="n">
-        <v>117.161848286463</v>
-      </c>
-      <c r="O18" t="n">
-        <v>120.3417553385038</v>
+        <v>127.9015205226337</v>
       </c>
     </row>
     <row r="19">
@@ -1322,46 +1210,40 @@
         <v>44866</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2221837465218357</v>
+        <v>-6.219999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>-8.830000000000002</v>
+        <v>-7.930784393408478</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.961872128057017</v>
+        <v>-5.609368727588886</v>
       </c>
       <c r="E19" t="n">
-        <v>-3.412827491760254</v>
+        <v>0.01988063988656563</v>
       </c>
       <c r="F19" t="n">
-        <v>-9.147328135518334</v>
+        <v>-4.935068120277699</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05736111510293207</v>
+        <v>-4.338993764184368</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01201988768092122</v>
+        <v>144.6428183990252</v>
       </c>
       <c r="I19" t="n">
-        <v>0.097188249768563</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J19" t="n">
-        <v>-3.133384799868089</v>
+        <v>89.87384828047261</v>
       </c>
       <c r="K19" t="n">
-        <v>98.59130808745961</v>
+        <v>105.8628649210707</v>
       </c>
       <c r="L19" t="n">
-        <v>143.0999998912215</v>
+        <v>120.8698828729475</v>
       </c>
       <c r="M19" t="n">
-        <v>89.87384828047261</v>
-      </c>
-      <c r="N19" t="n">
-        <v>110.5217187530512</v>
-      </c>
-      <c r="O19" t="n">
-        <v>119.5028567462792</v>
+        <v>127.1731318678748</v>
       </c>
     </row>
     <row r="20">
@@ -1369,46 +1251,40 @@
         <v>44896</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2225821943657706</v>
+        <v>-6.680000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>-3.97</v>
+        <v>-3.915461373318569</v>
       </c>
       <c r="D20" t="n">
-        <v>-3.938514201613873</v>
+        <v>-8.453957375231202</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.480825424194336</v>
+        <v>0.01987999381327654</v>
       </c>
       <c r="F20" t="n">
-        <v>-7.615126565102805</v>
+        <v>-4.757384688684124</v>
       </c>
       <c r="G20" t="n">
-        <v>0.05736113736370824</v>
+        <v>-3.410880804229565</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01201792803799151</v>
+        <v>144.6428183990283</v>
       </c>
       <c r="I20" t="n">
-        <v>0.09732041992249013</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J20" t="n">
-        <v>-1.491514862906973</v>
+        <v>73.78828472817402</v>
       </c>
       <c r="K20" t="n">
-        <v>98.65425741157456</v>
+        <v>105.8375057279763</v>
       </c>
       <c r="L20" t="n">
-        <v>143.0999998912215</v>
+        <v>116.8421521866</v>
       </c>
       <c r="M20" t="n">
-        <v>73.78828472817402</v>
-      </c>
-      <c r="N20" t="n">
-        <v>105.1808473436567</v>
-      </c>
-      <c r="O20" t="n">
-        <v>118.8334574304019</v>
+        <v>126.589513332812</v>
       </c>
     </row>
     <row r="21">
@@ -1416,46 +1292,40 @@
         <v>44927</v>
       </c>
       <c r="B21" t="n">
-        <v>0.2230393577378891</v>
+        <v>5.879999999999995</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.540000000000002</v>
+        <v>-0.1044294600391575</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1192085897255089</v>
+        <v>-3.242812736705187</v>
       </c>
       <c r="E21" t="n">
-        <v>-3.334112882614136</v>
+        <v>0.01987935153702836</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.407205890882691</v>
+        <v>0.6381592886981697</v>
       </c>
       <c r="G21" t="n">
-        <v>0.05736115968175903</v>
+        <v>1.621276512205192</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01201597604602966</v>
+        <v>144.642818399029</v>
       </c>
       <c r="I21" t="n">
-        <v>0.09747216448855926</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.5670233136990355</v>
+        <v>68.80645778670622</v>
       </c>
       <c r="K21" t="n">
-        <v>98.71720673568936</v>
+        <v>105.7677933847698</v>
       </c>
       <c r="L21" t="n">
-        <v>143.0999998912215</v>
+        <v>115.5792673654316</v>
       </c>
       <c r="M21" t="n">
-        <v>68.8064577867062</v>
-      </c>
-      <c r="N21" t="n">
-        <v>103.5412214712057</v>
-      </c>
-      <c r="O21" t="n">
-        <v>118.6469170849633</v>
+        <v>126.3849784338038</v>
       </c>
     </row>
     <row r="22">
@@ -1463,46 +1333,40 @@
         <v>44958</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2235270850355562</v>
+        <v>1.080000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>4.970000000000001</v>
+        <v>2.138728331990617</v>
       </c>
       <c r="D22" t="n">
-        <v>2.130171006797716</v>
+        <v>3.493856231195092</v>
       </c>
       <c r="E22" t="n">
-        <v>7.984479904174805</v>
+        <v>0.01987871236829619</v>
       </c>
       <c r="F22" t="n">
-        <v>5.405223113937914</v>
+        <v>1.683115818888501</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05736118153390712</v>
+        <v>1.069304397338606</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01201402945341101</v>
+        <v>144.6428183990292</v>
       </c>
       <c r="I22" t="n">
-        <v>0.09763409867429144</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J22" t="n">
-        <v>2.043685448055993</v>
+        <v>72.25711924482371</v>
       </c>
       <c r="K22" t="n">
-        <v>98.78015605980413</v>
+        <v>105.7830460137165</v>
       </c>
       <c r="L22" t="n">
-        <v>143.0999998912215</v>
+        <v>116.4457458871977</v>
       </c>
       <c r="M22" t="n">
-        <v>72.2571192448237</v>
-      </c>
-      <c r="N22" t="n">
-        <v>104.7124250652831</v>
-      </c>
-      <c r="O22" t="n">
-        <v>118.8270733579306</v>
+        <v>126.5139485787636</v>
       </c>
     </row>
     <row r="23">
@@ -1510,46 +1374,40 @@
         <v>44986</v>
       </c>
       <c r="B23" t="n">
-        <v>0.2241006348295684</v>
+        <v>9.200000000000003</v>
       </c>
       <c r="C23" t="n">
-        <v>7.280000000000001</v>
+        <v>10.8779589718183</v>
       </c>
       <c r="D23" t="n">
-        <v>10.87580677674121</v>
+        <v>22.51156132997746</v>
       </c>
       <c r="E23" t="n">
-        <v>22.16579627990723</v>
+        <v>0.01987806531103331</v>
       </c>
       <c r="F23" t="n">
-        <v>21.69989820136688</v>
+        <v>10.6523495917767</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05736120414874982</v>
+        <v>6.677320564926193</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01201208005113585</v>
+        <v>144.6428183990292</v>
       </c>
       <c r="I23" t="n">
-        <v>0.09782463967648469</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J23" t="n">
-        <v>5.438846380020414</v>
+        <v>98.45767837607104</v>
       </c>
       <c r="K23" t="n">
-        <v>98.8431053839189</v>
+        <v>105.7519916825968</v>
       </c>
       <c r="L23" t="n">
-        <v>143.0999998912215</v>
+        <v>122.9881220872296</v>
       </c>
       <c r="M23" t="n">
-        <v>98.45767837607104</v>
-      </c>
-      <c r="N23" t="n">
-        <v>113.4669278837371</v>
-      </c>
-      <c r="O23" t="n">
-        <v>119.9965355333198</v>
+        <v>127.4367394127438</v>
       </c>
     </row>
     <row r="24">
@@ -1557,46 +1415,40 @@
         <v>45017</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2245478290691949</v>
+        <v>5.859999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>8.940000000000001</v>
+        <v>6.908560823634033</v>
       </c>
       <c r="D24" t="n">
-        <v>6.904109248309029</v>
+        <v>5.63142540855317</v>
       </c>
       <c r="E24" t="n">
-        <v>4.471473217010498</v>
+        <v>0.01987743389636876</v>
       </c>
       <c r="F24" t="n">
-        <v>8.290075883264313</v>
+        <v>4.604965916520893</v>
       </c>
       <c r="G24" t="n">
-        <v>0.05736122551882769</v>
+        <v>3.951200182977729</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01201014716470183</v>
+        <v>144.6428183990292</v>
       </c>
       <c r="I24" t="n">
-        <v>0.09797306725090815</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J24" t="n">
-        <v>3.175410330826144</v>
+        <v>114.1981959903677</v>
       </c>
       <c r="K24" t="n">
-        <v>98.90605470803365</v>
+        <v>105.7015801477967</v>
       </c>
       <c r="L24" t="n">
-        <v>143.0999998912215</v>
+        <v>126.9106486071038</v>
       </c>
       <c r="M24" t="n">
-        <v>114.1981959903677</v>
-      </c>
-      <c r="N24" t="n">
-        <v>118.734750196541</v>
-      </c>
-      <c r="O24" t="n">
-        <v>120.7111305721188</v>
+        <v>127.9789154212466</v>
       </c>
     </row>
     <row r="25">
@@ -1604,46 +1456,40 @@
         <v>45047</v>
       </c>
       <c r="B25" t="n">
-        <v>0.2250024158589667</v>
+        <v>-1.240000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>3.969999999999999</v>
+        <v>8.02579250984958</v>
       </c>
       <c r="D25" t="n">
-        <v>8.018089681937507</v>
+        <v>8.32494006463603</v>
       </c>
       <c r="E25" t="n">
-        <v>16.07535552978516</v>
+        <v>0.01987679598798309</v>
       </c>
       <c r="F25" t="n">
-        <v>4.7800938557929</v>
+        <v>3.782652342618398</v>
       </c>
       <c r="G25" t="n">
-        <v>0.05736124753122482</v>
+        <v>2.247742548818359</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01200821257580742</v>
+        <v>144.6428183990292</v>
       </c>
       <c r="I25" t="n">
-        <v>0.09812395865533301</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J25" t="n">
-        <v>3.581093550033533</v>
+        <v>122.1937403886071</v>
       </c>
       <c r="K25" t="n">
-        <v>98.96900403214842</v>
+        <v>105.6917639936461</v>
       </c>
       <c r="L25" t="n">
-        <v>143.0999998912215</v>
+        <v>128.907080668126</v>
       </c>
       <c r="M25" t="n">
-        <v>122.1937403886071</v>
-      </c>
-      <c r="N25" t="n">
-        <v>121.420914770659</v>
-      </c>
-      <c r="O25" t="n">
-        <v>121.0889263941988</v>
+        <v>128.2603901805917</v>
       </c>
     </row>
     <row r="26">
@@ -1651,46 +1497,40 @@
         <v>45078</v>
       </c>
       <c r="B26" t="n">
-        <v>0.2253661429076317</v>
+        <v>-1.079999999999998</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5700000000000003</v>
+        <v>5.397345540863187</v>
       </c>
       <c r="D26" t="n">
-        <v>5.382751932082185</v>
+        <v>-2.462273768456217</v>
       </c>
       <c r="E26" t="n">
-        <v>2.21213436126709</v>
+        <v>0.01987616255497926</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.052081624953837</v>
+        <v>0.4687369837404878</v>
       </c>
       <c r="G26" t="n">
-        <v>0.05736126925029333</v>
+        <v>1.163962263997381</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01200628527679726</v>
+        <v>144.6428183990292</v>
       </c>
       <c r="I26" t="n">
-        <v>0.09824456581157409</v>
+        <v>143.0999998912215</v>
       </c>
       <c r="J26" t="n">
-        <v>1.188603486052294</v>
+        <v>118.9168854847484</v>
       </c>
       <c r="K26" t="n">
-        <v>99.03195335626319</v>
+        <v>105.6499560232032</v>
       </c>
       <c r="L26" t="n">
-        <v>143.0999998912215</v>
+        <v>128.0774149495506</v>
       </c>
       <c r="M26" t="n">
-        <v>118.9168854847484</v>
-      </c>
-      <c r="N26" t="n">
-        <v>120.3496129107444</v>
-      </c>
-      <c r="O26" t="n">
-        <v>120.9765287514883</v>
+        <v>128.127410637489</v>
       </c>
     </row>
   </sheetData>
@@ -1704,7 +1544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD15"/>
+  <dimension ref="A1:AD13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1867,31 +1707,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>weighted_diff</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>knn</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
-        </is>
-      </c>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 10, 'weights': 'uniform'}</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+          <t>{'how': 'weighted', 'models': ('knn', 'svr', 'lightgbm', 'mlp'), 'determine_best_by': 'ValidationMetricValue'}</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -1900,59 +1732,59 @@
         <v>12</v>
       </c>
       <c r="I2" t="n">
-        <v>15.82121834752305</v>
+        <v>15.61661624262011</v>
       </c>
       <c r="J2" t="n">
-        <v>2.879756346463232</v>
+        <v>1.116969193959584</v>
       </c>
       <c r="K2" t="n">
-        <v>12.81999999999999</v>
+        <v>12.22487499469184</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.006733855290852686</v>
+        <v>0.01913621132871424</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.05</v>
+        <v>0.9050813300675322</v>
       </c>
       <c r="N2" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O2" t="n">
-        <v>9.884424914093533</v>
+        <v>12.13540045189101</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="n">
-        <v>7.739625668449198</v>
+        <v>9.214519533613078</v>
       </c>
       <c r="R2" t="n">
-        <v>0.6601700325516441</v>
-      </c>
-      <c r="S2" t="n">
-        <v>6</v>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="U2" t="n">
-        <v>13.27025872644036</v>
-      </c>
+        <v>0.4877675535725294</v>
+      </c>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>['mlp', 'knn', 'svr', 'lightgbm']</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>(0.37750502914397943, 0.2985219936826455, 0.289654338160286, 0.03431863901308904)</t>
+        </is>
+      </c>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="n">
-        <v>11.1462564717188</v>
+        <v>11.63627336575666</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.07670785825239984</v>
+        <v>0.08034034050417842</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.398333333333326</v>
+        <v>9.89566710046398</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.1362792422223517</v>
+        <v>0.05866734597565904</v>
       </c>
       <c r="AD2" t="b">
         <v>1</v>
@@ -1961,12 +1793,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>svr</t>
+          <t>knn</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>svr</t>
+          <t>knn</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1976,7 +1808,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'kernel': 'linear', 'C': 0.5, 'epsilon': 0.1}</t>
+          <t>{'n_neighbors': 5, 'weights': 'uniform'}</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1994,32 +1826,32 @@
         <v>12</v>
       </c>
       <c r="I3" t="n">
-        <v>15.42743090957689</v>
+        <v>15.93541966814806</v>
       </c>
       <c r="J3" t="n">
-        <v>2.663201748036615</v>
+        <v>2.78966886048938</v>
       </c>
       <c r="K3" t="n">
-        <v>12.55213186407106</v>
+        <v>12.67999999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04275733880856225</v>
+        <v>-0.02131999839122667</v>
       </c>
       <c r="M3" t="n">
-        <v>5.825054634025459</v>
+        <v>-2.760000000000002</v>
       </c>
       <c r="N3" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O3" t="n">
-        <v>13.18354951791877</v>
+        <v>9.289217399385597</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
-        <v>10.0775715972081</v>
+        <v>7.176443850267379</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3954620485378314</v>
+        <v>0.6998646743732531</v>
       </c>
       <c r="S3" t="n">
         <v>6</v>
@@ -2030,23 +1862,23 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>13.2846482085337</v>
+        <v>12.94103293146777</v>
       </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="n">
-        <v>16.46356518161705</v>
+        <v>12.1076587332151</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.1061648555155583</v>
+        <v>0.08585704537941215</v>
       </c>
       <c r="AB3" t="n">
-        <v>13.61220523137098</v>
+        <v>10.54</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.8843564925973237</v>
+        <v>-0.01914419790278643</v>
       </c>
       <c r="AD3" t="b">
         <v>0</v>
@@ -2055,31 +1887,23 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>avg_diff</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>mlp</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
-        </is>
-      </c>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'activation': 'tanh', 'hidden_layer_sizes': (25,), 'solver': 'lbfgs', 'random_state': 20}</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+          <t>{'how': 'simple', 'models': ('knn', 'svr', 'lightgbm', 'mlp'), 'determine_best_by': 'ValidationMetricValue'}</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -2088,59 +1912,55 @@
         <v>12</v>
       </c>
       <c r="I4" t="n">
-        <v>16.28407189340217</v>
+        <v>15.47824360920689</v>
       </c>
       <c r="J4" t="n">
-        <v>1.0548228534847</v>
+        <v>2.552418182298628</v>
       </c>
       <c r="K4" t="n">
-        <v>12.37770713692645</v>
+        <v>12.16352257682857</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.06649996955191884</v>
+        <v>0.03644129227673343</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.06624285807981778</v>
+        <v>1.190644314653838</v>
       </c>
       <c r="N4" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O4" t="n">
-        <v>16.82587646781341</v>
+        <v>10.53358229559637</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
-        <v>12.42182181574862</v>
+        <v>8.087380688477008</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01527661245887613</v>
-      </c>
-      <c r="S4" t="n">
-        <v>6</v>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="U4" t="n">
-        <v>9.860091463813326</v>
-      </c>
+        <v>0.6140677728207109</v>
+      </c>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>['knn', 'svr', 'lightgbm', 'mlp']</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="n">
-        <v>17.47830864520502</v>
+        <v>14.10822236423879</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.1205706720336819</v>
+        <v>0.08752140357042837</v>
       </c>
       <c r="AB4" t="n">
-        <v>13.98439294545111</v>
+        <v>11.38792048329533</v>
       </c>
       <c r="AC4" t="n">
-        <v>-1.12380237365424</v>
+        <v>-0.3837571747556285</v>
       </c>
       <c r="AD4" t="b">
         <v>0</v>
@@ -2149,12 +1969,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>svr</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>svr</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2164,12 +1984,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'alpha': 0.1, 'l1_ratio': 0.0}</t>
+          <t>{'kernel': 'linear', 'C': 0.5, 'epsilon': 0.1}</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="F5" t="b">
@@ -2182,32 +2002,32 @@
         <v>12</v>
       </c>
       <c r="I5" t="n">
-        <v>16.26947225343302</v>
+        <v>15.42743090957689</v>
       </c>
       <c r="J5" t="n">
-        <v>1.006104198063623</v>
+        <v>2.663201748036615</v>
       </c>
       <c r="K5" t="n">
-        <v>12.36789597267848</v>
+        <v>12.55213186407106</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.06458846538547647</v>
+        <v>0.04275733880856225</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.00737566899760278</v>
+        <v>5.825054634025459</v>
       </c>
       <c r="N5" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O5" t="n">
-        <v>16.95547409271899</v>
+        <v>13.1851989750924</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>12.63620530149799</v>
+        <v>10.07866745199715</v>
       </c>
       <c r="R5" t="n">
-        <v>4.896157597511497e-05</v>
+        <v>0.3953107657836508</v>
       </c>
       <c r="S5" t="n">
         <v>6</v>
@@ -2218,23 +2038,23 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>9.899292150603467</v>
+        <v>13.28520521964032</v>
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
-        <v>17.72904696611337</v>
+        <v>16.46356518161705</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.1219620529587611</v>
+        <v>0.1061648555155583</v>
       </c>
       <c r="AB5" t="n">
-        <v>14.13156041252731</v>
+        <v>13.61220523137098</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.185174251735035</v>
+        <v>-0.8843564925973237</v>
       </c>
       <c r="AD5" t="b">
         <v>0</v>
@@ -2243,59 +2063,65 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>prophet</t>
+          <t>mlp</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>prophet</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'n_changepoints': 0}</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+          <t>{'activation': 'tanh', 'hidden_layer_sizes': (25,), 'solver': 'lbfgs', 'random_state': 20}</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>12</v>
       </c>
       <c r="I6" t="n">
-        <v>28.98872871441157</v>
+        <v>16.27955076943286</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2119884645128811</v>
+        <v>1.039807053647507</v>
       </c>
       <c r="K6" t="n">
-        <v>26.11818847473322</v>
+        <v>12.37468318691936</v>
       </c>
       <c r="L6" t="n">
-        <v>-4.842162510707955</v>
+        <v>-0.06590784379298587</v>
       </c>
       <c r="M6" t="n">
-        <v>119.9019776087841</v>
+        <v>-0.04809916354221855</v>
       </c>
       <c r="N6" t="n">
-        <v>143.1</v>
+        <v>7.299999999999983</v>
       </c>
       <c r="O6" t="n">
-        <v>31.50848739942518</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.2517766915560388</v>
-      </c>
+        <v>16.84896737528232</v>
+      </c>
+      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>24.979385265179</v>
+        <v>12.47863068886881</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3145971129101873</v>
+        <v>0.01257199746119564</v>
       </c>
       <c r="S6" t="n">
         <v>6</v>
@@ -2306,25 +2132,23 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>33.21559034959205</v>
-      </c>
-      <c r="V6" t="b">
-        <v>1</v>
-      </c>
+        <v>9.875535859214741</v>
+      </c>
+      <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>28.98872871441157</v>
+        <v>17.55483187646903</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.2119884645128811</v>
+        <v>0.1209995167278683</v>
       </c>
       <c r="AB6" t="n">
-        <v>26.11818847473322</v>
+        <v>14.02975219547075</v>
       </c>
       <c r="AC6" t="n">
-        <v>-4.842162510707955</v>
+        <v>-1.142439874012582</v>
       </c>
       <c r="AD6" t="b">
         <v>0</v>
@@ -2333,23 +2157,23 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>avg_level</t>
+          <t>silverkite</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>combo</t>
+          <t>silverkite</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'how': 'simple', 'models': ('arima', 'hwes', 'prophet'), 'determine_best_by': 'ValidationMetricValue'}</t>
+          <t>{'changepoints': 0}</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -2358,57 +2182,63 @@
         <v>12</v>
       </c>
       <c r="I7" t="n">
-        <v>30.20105209678834</v>
+        <v>22.76515260318411</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2254291810116202</v>
+        <v>0.1526277963230041</v>
       </c>
       <c r="K7" t="n">
-        <v>28.76940478637961</v>
+        <v>20.02075773195508</v>
       </c>
       <c r="L7" t="n">
-        <v>-5.341024606358312</v>
+        <v>-2.602934984389738</v>
       </c>
       <c r="M7" t="n">
-        <v>101.7412359485154</v>
+        <v>106.0863863662919</v>
       </c>
       <c r="N7" t="n">
         <v>143.1</v>
       </c>
       <c r="O7" t="n">
-        <v>16.22892076253472</v>
+        <v>36.7580039467544</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1221112722022012</v>
+        <v>0.3047973110368991</v>
       </c>
       <c r="Q7" t="n">
-        <v>12.66618281126648</v>
+        <v>29.48637662661569</v>
       </c>
       <c r="R7" t="n">
-        <v>0.8181680905548865</v>
-      </c>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>['arima', 'hwes', 'prophet']</t>
-        </is>
-      </c>
+        <v>0.06718684989578405</v>
+      </c>
+      <c r="S7" t="n">
+        <v>6</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="U7" t="n">
+        <v>10.50143456590333</v>
+      </c>
+      <c r="V7" t="b">
+        <v>1</v>
+      </c>
+      <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>30.20105209678834</v>
+        <v>22.76515260318411</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.2254291810116202</v>
+        <v>0.1526277963230041</v>
       </c>
       <c r="AB7" t="n">
-        <v>28.76940478637961</v>
+        <v>20.02075773195508</v>
       </c>
       <c r="AC7" t="n">
-        <v>-5.341024606358312</v>
+        <v>-2.602934984389738</v>
       </c>
       <c r="AD7" t="b">
         <v>0</v>
@@ -2417,23 +2247,23 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>weighted_level</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>combo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'order': (1, 1, 1), 'seasonal_order': (0, 0, 0, 0), 'trend': 'ct'}</t>
+          <t>{'how': 'weighted', 'models': ('arima', 'hwes', 'prophet', 'silverkite'), 'determine_best_by': 'ValidationMetricValue'}</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -2442,63 +2272,61 @@
         <v>12</v>
       </c>
       <c r="I8" t="n">
-        <v>32.78992575121833</v>
+        <v>28.19576192948375</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2317081186962638</v>
+        <v>0.1978123811481459</v>
       </c>
       <c r="K8" t="n">
-        <v>30.05262691099819</v>
+        <v>25.74061601888827</v>
       </c>
       <c r="L8" t="n">
-        <v>-6.47474119068706</v>
+        <v>-4.52691726401107</v>
       </c>
       <c r="M8" t="n">
-        <v>90.2722393483395</v>
+        <v>100.5877347397299</v>
       </c>
       <c r="N8" t="n">
         <v>143.1</v>
       </c>
       <c r="O8" t="n">
-        <v>17.06041459902015</v>
+        <v>19.60920838569268</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1110036332814878</v>
+        <v>0.1569300916366725</v>
       </c>
       <c r="Q8" t="n">
-        <v>12.54151210494273</v>
+        <v>15.72310963705579</v>
       </c>
       <c r="R8" t="n">
-        <v>0.7990583417494741</v>
-      </c>
-      <c r="S8" t="n">
-        <v>6</v>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="U8" t="n">
-        <v>9.993369466007872</v>
-      </c>
-      <c r="V8" t="b">
-        <v>1</v>
-      </c>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
+        <v>0.7345327547196137</v>
+      </c>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>['hwes', 'silverkite', 'arima', 'prophet']</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>(0.39243583056887443, 0.3844845338132556, 0.18740365102069959, 0.0356759845971704)</t>
+        </is>
+      </c>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
-        <v>32.78992575121833</v>
+        <v>28.19576192948375</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.2317081186962638</v>
+        <v>0.1978123811481459</v>
       </c>
       <c r="AB8" t="n">
-        <v>30.05262691099819</v>
+        <v>25.74061601888827</v>
       </c>
       <c r="AC8" t="n">
-        <v>-6.47474119068706</v>
+        <v>-4.52691726401107</v>
       </c>
       <c r="AD8" t="b">
         <v>0</v>
@@ -2507,7 +2335,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>weighted_level</t>
+          <t>avg_level</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2518,7 +2346,7 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>{'how': 'weighted', 'models': ('arima', 'hwes', 'prophet'), 'determine_best_by': 'ValidationMetricValue'}</t>
+          <t>{'how': 'simple', 'models': ('arima', 'hwes', 'prophet', 'silverkite'), 'determine_best_by': 'ValidationMetricValue'}</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2532,34 +2360,34 @@
         <v>12</v>
       </c>
       <c r="I9" t="n">
-        <v>32.36210992104071</v>
+        <v>27.63482075791666</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2327850614591292</v>
+        <v>0.2031462532466245</v>
       </c>
       <c r="K9" t="n">
-        <v>30.101729564007</v>
+        <v>26.10057732877456</v>
       </c>
       <c r="L9" t="n">
-        <v>-6.280965125136588</v>
+        <v>-4.309194032713156</v>
       </c>
       <c r="M9" t="n">
-        <v>93.84591122686628</v>
+        <v>104.5662379252158</v>
       </c>
       <c r="N9" t="n">
         <v>143.1</v>
       </c>
       <c r="O9" t="n">
-        <v>16.32983997291548</v>
+        <v>19.68736338881455</v>
       </c>
       <c r="P9" t="n">
-        <v>0.10832725765801</v>
+        <v>0.1575047766636405</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.15541492326787</v>
+        <v>15.68544147075744</v>
       </c>
       <c r="R9" t="n">
-        <v>0.8158996232210314</v>
+        <v>0.7324124305264418</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
@@ -2567,26 +2395,22 @@
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr">
         <is>
-          <t>['hwes', 'arima', 'prophet']</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>(0.47834786261459994, 0.47816596805680006, 0.04348616932859999)</t>
-        </is>
-      </c>
+          <t>['arima', 'hwes', 'prophet', 'silverkite']</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
-        <v>32.36210992104071</v>
+        <v>27.63482075791666</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.2327850614591292</v>
+        <v>0.2031462532466245</v>
       </c>
       <c r="AB9" t="n">
-        <v>30.101729564007</v>
+        <v>26.10057732877456</v>
       </c>
       <c r="AC9" t="n">
-        <v>-6.280965125136588</v>
+        <v>-4.309194032713156</v>
       </c>
       <c r="AD9" t="b">
         <v>0</v>
@@ -2595,18 +2419,18 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>hwes</t>
+          <t>prophet</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>hwes</t>
+          <t>prophet</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'trend': None, 'seasonal': None, 'damped_trend': False}</t>
+          <t>{'n_changepoints': 0}</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2620,34 +2444,34 @@
         <v>12</v>
       </c>
       <c r="I10" t="n">
-        <v>32.82034846925381</v>
+        <v>28.98872871441158</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2360683178911208</v>
+        <v>0.2119884645128812</v>
       </c>
       <c r="K10" t="n">
-        <v>30.55050911157757</v>
+        <v>26.11818847473322</v>
       </c>
       <c r="L10" t="n">
-        <v>-6.488617857435266</v>
+        <v>-4.842162510707956</v>
       </c>
       <c r="M10" t="n">
-        <v>95.04949088842243</v>
+        <v>119.9019776087841</v>
       </c>
       <c r="N10" t="n">
         <v>143.1</v>
       </c>
       <c r="O10" t="n">
-        <v>16.94468228690074</v>
+        <v>31.50848739942518</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1119041572430469</v>
+        <v>0.2517766915560388</v>
       </c>
       <c r="Q10" t="n">
-        <v>12.61588789130961</v>
+        <v>24.979385265179</v>
       </c>
       <c r="R10" t="n">
-        <v>0.8017753406700401</v>
+        <v>0.3145971129101873</v>
       </c>
       <c r="S10" t="n">
         <v>6</v>
@@ -2658,7 +2482,7 @@
         </is>
       </c>
       <c r="U10" t="n">
-        <v>9.983651978305176</v>
+        <v>33.21559034959205</v>
       </c>
       <c r="V10" t="b">
         <v>1</v>
@@ -2667,16 +2491,16 @@
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
-        <v>32.82034846925381</v>
+        <v>28.98872871441158</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.2360683178911208</v>
+        <v>0.2119884645128812</v>
       </c>
       <c r="AB10" t="n">
-        <v>30.55050911157757</v>
+        <v>26.11818847473322</v>
       </c>
       <c r="AC10" t="n">
-        <v>-6.488617857435266</v>
+        <v>-4.842162510707956</v>
       </c>
       <c r="AD10" t="b">
         <v>0</v>
@@ -2685,65 +2509,59 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>gbt</t>
+          <t>arima</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>gbt</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
-        </is>
-      </c>
+          <t>arima</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'max_depth': 2, 'n_estimators': 100}</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+          <t>{'order': (2, 1, 0), 'seasonal_order': (0, 0, 0, 0), 'trend': 'n'}</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="b">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>12</v>
       </c>
       <c r="I11" t="n">
-        <v>20.43306146906674</v>
+        <v>31.2214255632439</v>
       </c>
       <c r="J11" t="n">
-        <v>17.96557555281061</v>
+        <v>0.222043766235992</v>
       </c>
       <c r="K11" t="n">
-        <v>16.43068087912656</v>
+        <v>28.80656007132531</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.6791972262015258</v>
+        <v>-5.776738874001598</v>
       </c>
       <c r="M11" t="n">
-        <v>13.27579141385449</v>
+        <v>97.22709683736461</v>
       </c>
       <c r="N11" t="n">
-        <v>7.299999999999983</v>
+        <v>143.1</v>
       </c>
       <c r="O11" t="n">
-        <v>9.205520484977605</v>
-      </c>
-      <c r="P11" t="inlineStr"/>
+        <v>17.06000262857426</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.1109681522874506</v>
+      </c>
       <c r="Q11" t="n">
-        <v>7.279799578285747</v>
+        <v>12.53891118718837</v>
       </c>
       <c r="R11" t="n">
-        <v>0.70524881616664</v>
+        <v>0.7990680462059006</v>
       </c>
       <c r="S11" t="n">
         <v>6</v>
@@ -2754,23 +2572,25 @@
         </is>
       </c>
       <c r="U11" t="n">
-        <v>31.16745015462885</v>
-      </c>
-      <c r="V11" t="inlineStr"/>
+        <v>23.33519647855596</v>
+      </c>
+      <c r="V11" t="b">
+        <v>1</v>
+      </c>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
-        <v>76.28585049328566</v>
+        <v>31.2214255632439</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.5396008840983628</v>
+        <v>0.222043766235992</v>
       </c>
       <c r="AB11" t="n">
-        <v>66.96842736698505</v>
+        <v>28.80656007132531</v>
       </c>
       <c r="AC11" t="n">
-        <v>-39.4578945749419</v>
+        <v>-5.776738874001598</v>
       </c>
       <c r="AD11" t="b">
         <v>0</v>
@@ -2779,65 +2599,59 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>hwes</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>xgboost</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
-        </is>
-      </c>
+          <t>hwes</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>{'max_depth': 4}</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+          <t>{'trend': None, 'seasonal': None, 'damped_trend': False}</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="b">
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>12</v>
       </c>
       <c r="I12" t="n">
-        <v>25.0222863676995</v>
+        <v>32.82034846925381</v>
       </c>
       <c r="J12" t="n">
-        <v>14.22695694111434</v>
+        <v>0.2360683178911208</v>
       </c>
       <c r="K12" t="n">
-        <v>18.04098762522142</v>
+        <v>30.55050911157757</v>
       </c>
       <c r="L12" t="n">
-        <v>-1.518191799548848</v>
+        <v>-6.488617857435266</v>
       </c>
       <c r="M12" t="n">
-        <v>26.74729347229004</v>
+        <v>95.04949088842243</v>
       </c>
       <c r="N12" t="n">
-        <v>7.299999999999983</v>
+        <v>143.1</v>
       </c>
       <c r="O12" t="n">
-        <v>2.718626345104153</v>
-      </c>
-      <c r="P12" t="inlineStr"/>
+        <v>16.94468228690074</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.1119041572430496</v>
+      </c>
       <c r="Q12" t="n">
-        <v>2.049073522538445</v>
+        <v>12.61588789130988</v>
       </c>
       <c r="R12" t="n">
-        <v>0.974292614933202</v>
+        <v>0.80177534067004</v>
       </c>
       <c r="S12" t="n">
         <v>6</v>
@@ -2848,23 +2662,25 @@
         </is>
       </c>
       <c r="U12" t="n">
-        <v>21.66224700979679</v>
-      </c>
-      <c r="V12" t="inlineStr"/>
+        <v>9.983651978305176</v>
+      </c>
+      <c r="V12" t="b">
+        <v>1</v>
+      </c>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="n">
-        <v>109.9983196679577</v>
+        <v>32.82034846925381</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.8188190567365496</v>
+        <v>0.2360683178911208</v>
       </c>
       <c r="AB12" t="n">
-        <v>101.6035909965635</v>
+        <v>30.55050911157757</v>
       </c>
       <c r="AC12" t="n">
-        <v>-83.1177011513183</v>
+        <v>-6.488617857435266</v>
       </c>
       <c r="AD12" t="b">
         <v>0</v>
@@ -2873,23 +2689,31 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>weighted</t>
+          <t>lightgbm</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>combo</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>lightgbm</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{'how': 'weighted', 'models': ('mlr', 'knn', 'svr', 'xgboost', 'gbt', 'elasticnet', 'mlp'), 'determine_best_by': 'ValidationMetricValue'}</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
+          <t>{'max_depth': 4}</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -2898,237 +2722,61 @@
         <v>12</v>
       </c>
       <c r="I13" t="n">
-        <v>40.6886263233003</v>
+        <v>18.57638016202524</v>
       </c>
       <c r="J13" t="n">
-        <v>40.43562799190494</v>
+        <v>7.75396528207922</v>
       </c>
       <c r="K13" t="n">
-        <v>36.14391805414767</v>
+        <v>14.78938223530544</v>
       </c>
       <c r="L13" t="n">
-        <v>-5.658568642639865</v>
+        <v>-0.3878962606376837</v>
       </c>
       <c r="M13" t="n">
-        <v>69.50322755609868</v>
+        <v>1.745621788132115</v>
       </c>
       <c r="N13" t="n">
         <v>7.299999999999983</v>
       </c>
       <c r="O13" t="n">
-        <v>12.86903972795251</v>
+        <v>7.369188123070857</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="n">
-        <v>9.688726733427027</v>
+        <v>5.77418538371439</v>
       </c>
       <c r="R13" t="n">
-        <v>0.4239619869422661</v>
-      </c>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
+        <v>0.8111147055641706</v>
+      </c>
+      <c r="S13" t="n">
+        <v>6</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="U13" t="n">
+        <v>23.19531862064523</v>
+      </c>
       <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>['mlp', 'elasticnet', 'mlr', 'knn', 'svr', 'xgboost', 'gbt']</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>(0.18899821314974774, 0.1886821098189652, 0.1884259453518184, 0.1614995819136979, 0.16138354917064182, 0.09382894485424277, 0.01718165574088616)</t>
-        </is>
-      </c>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="n">
-        <v>217.7594322309748</v>
+        <v>41.34989122634924</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.375934260481443</v>
+        <v>0.2930811328491867</v>
       </c>
       <c r="AB13" t="n">
-        <v>173.4897726459658</v>
+        <v>36.7195786360057</v>
       </c>
       <c r="AC13" t="n">
-        <v>-328.6622698028377</v>
+        <v>-10.88677484107003</v>
       </c>
       <c r="AD13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>avg</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>combo</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>{'how': 'simple', 'models': 'top_3', 'determine_best_by': 'ValidationMetricValue'}</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>12</v>
-      </c>
-      <c r="I14" t="n">
-        <v>71.9469114319318</v>
-      </c>
-      <c r="J14" t="n">
-        <v>75.22385024635092</v>
-      </c>
-      <c r="K14" t="n">
-        <v>63.2920486702194</v>
-      </c>
-      <c r="L14" t="n">
-        <v>-19.81896501425469</v>
-      </c>
-      <c r="M14" t="n">
-        <v>116.4622062660359</v>
-      </c>
-      <c r="N14" t="n">
-        <v>7.299999999999983</v>
-      </c>
-      <c r="O14" t="n">
-        <v>16.80574782764318</v>
-      </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="n">
-        <v>12.47378710526552</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.01763123414508549</v>
-      </c>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>['mlp', 'elasticnet', 'mlr']</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="n">
-        <v>408.7157464360039</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>2.594973612158374</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>327.327699649084</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>-1160.336386430032</v>
-      </c>
-      <c r="AD14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>mlr</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>mlr</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
-      <c r="F15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>12</v>
-      </c>
-      <c r="I15" t="n">
-        <v>217.0336818415346</v>
-      </c>
-      <c r="J15" t="n">
-        <v>225.8545926540665</v>
-      </c>
-      <c r="K15" t="n">
-        <v>192.7137544686115</v>
-      </c>
-      <c r="L15" t="n">
-        <v>-188.4475971110153</v>
-      </c>
-      <c r="M15" t="n">
-        <v>349.4602373251853</v>
-      </c>
-      <c r="N15" t="n">
-        <v>7.299999999999983</v>
-      </c>
-      <c r="O15" t="n">
-        <v>16.76625713139039</v>
-      </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="n">
-        <v>12.47334348926859</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.02224261433850994</v>
-      </c>
-      <c r="S15" t="n">
-        <v>6</v>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="U15" t="n">
-        <v>9.931059683765882</v>
-      </c>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="n">
-        <v>1209.687469155379</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>7.559220367873763</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>956.2616200652577</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>-10172.29545007738</v>
-      </c>
-      <c r="AD15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12910,11 +12558,11 @@
         <v>44348</v>
       </c>
       <c r="B751" t="n">
-        <v>-0.3499999999999986</v>
+        <v>1.713150451314456</v>
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>weighted_diff</t>
         </is>
       </c>
     </row>
@@ -12923,11 +12571,11 @@
         <v>44378</v>
       </c>
       <c r="B752" t="n">
-        <v>0.009999999999999431</v>
+        <v>1.13779891668527</v>
       </c>
       <c r="C752" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>weighted_diff</t>
         </is>
       </c>
     </row>
@@ -12936,11 +12584,11 @@
         <v>44409</v>
       </c>
       <c r="B753" t="n">
-        <v>-2.849999999999999</v>
+        <v>-1.377851274605121</v>
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>weighted_diff</t>
         </is>
       </c>
     </row>
@@ -12949,11 +12597,11 @@
         <v>44440</v>
       </c>
       <c r="B754" t="n">
-        <v>0.0299999999999983</v>
+        <v>-1.936266148178414</v>
       </c>
       <c r="C754" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>weighted_diff</t>
         </is>
       </c>
     </row>
@@ -12962,11 +12610,11 @@
         <v>44470</v>
       </c>
       <c r="B755" t="n">
-        <v>-3.439999999999998</v>
+        <v>-2.446929014697899</v>
       </c>
       <c r="C755" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>weighted_diff</t>
         </is>
       </c>
     </row>
@@ -12975,11 +12623,11 @@
         <v>44501</v>
       </c>
       <c r="B756" t="n">
-        <v>-7.1</v>
+        <v>-4.644534046607186</v>
       </c>
       <c r="C756" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>weighted_diff</t>
         </is>
       </c>
     </row>
@@ -12988,11 +12636,11 @@
         <v>44531</v>
       </c>
       <c r="B757" t="n">
-        <v>-3.97</v>
+        <v>-3.181259563012673</v>
       </c>
       <c r="C757" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>weighted_diff</t>
         </is>
       </c>
     </row>
@@ -13001,11 +12649,11 @@
         <v>44562</v>
       </c>
       <c r="B758" t="n">
-        <v>-1.540000000000002</v>
+        <v>0.5182268321511831</v>
       </c>
       <c r="C758" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>weighted_diff</t>
         </is>
       </c>
     </row>
@@ -13014,11 +12662,11 @@
         <v>44593</v>
       </c>
       <c r="B759" t="n">
-        <v>4.13</v>
+        <v>0.7342859430364505</v>
       </c>
       <c r="C759" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>weighted_diff</t>
         </is>
       </c>
     </row>
@@ -13027,11 +12675,11 @@
         <v>44621</v>
       </c>
       <c r="B760" t="n">
-        <v>8.02</v>
+        <v>6.65057978143534</v>
       </c>
       <c r="C760" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>weighted_diff</t>
         </is>
       </c>
     </row>
@@ -13040,11 +12688,11 @@
         <v>44652</v>
       </c>
       <c r="B761" t="n">
-        <v>9.34</v>
+        <v>3.580466867550484</v>
       </c>
       <c r="C761" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>weighted_diff</t>
         </is>
       </c>
     </row>
@@ -13053,11 +12701,11 @@
         <v>44682</v>
       </c>
       <c r="B762" t="n">
-        <v>3.969999999999999</v>
+        <v>2.28756120746856</v>
       </c>
       <c r="C762" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>weighted_diff</t>
         </is>
       </c>
     </row>
@@ -13066,11 +12714,11 @@
         <v>44713</v>
       </c>
       <c r="B763" t="n">
-        <v>0.8500000000000014</v>
+        <v>1.603371003259901</v>
       </c>
       <c r="C763" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>weighted_diff</t>
         </is>
       </c>
     </row>
@@ -13079,11 +12727,11 @@
         <v>44743</v>
       </c>
       <c r="B764" t="n">
-        <v>-0.6799999999999997</v>
+        <v>1.202637936298244</v>
       </c>
       <c r="C764" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>weighted_diff</t>
         </is>
       </c>
     </row>
@@ -13092,11 +12740,11 @@
         <v>44774</v>
       </c>
       <c r="B765" t="n">
-        <v>-2.849999999999999</v>
+        <v>-2.263346618918995</v>
       </c>
       <c r="C765" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>weighted_diff</t>
         </is>
       </c>
     </row>
@@ -13105,11 +12753,11 @@
         <v>44805</v>
       </c>
       <c r="B766" t="n">
-        <v>-0.8900000000000006</v>
+        <v>-1.795769932549789</v>
       </c>
       <c r="C766" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>weighted_diff</t>
         </is>
       </c>
     </row>
@@ -13118,11 +12766,11 @@
         <v>44835</v>
       </c>
       <c r="B767" t="n">
-        <v>-3.439999999999998</v>
+        <v>-3.3951482628975</v>
       </c>
       <c r="C767" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>weighted_diff</t>
         </is>
       </c>
     </row>
@@ -13131,11 +12779,11 @@
         <v>44866</v>
       </c>
       <c r="B768" t="n">
-        <v>-8.830000000000002</v>
+        <v>-4.338993764184368</v>
       </c>
       <c r="C768" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>weighted_diff</t>
         </is>
       </c>
     </row>
@@ -13144,11 +12792,11 @@
         <v>44896</v>
       </c>
       <c r="B769" t="n">
-        <v>-3.97</v>
+        <v>-3.410880804229565</v>
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>weighted_diff</t>
         </is>
       </c>
     </row>
@@ -13157,11 +12805,11 @@
         <v>44927</v>
       </c>
       <c r="B770" t="n">
-        <v>-1.540000000000002</v>
+        <v>1.621276512205192</v>
       </c>
       <c r="C770" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>weighted_diff</t>
         </is>
       </c>
     </row>
@@ -13170,11 +12818,11 @@
         <v>44958</v>
       </c>
       <c r="B771" t="n">
-        <v>4.970000000000001</v>
+        <v>1.069304397338606</v>
       </c>
       <c r="C771" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>weighted_diff</t>
         </is>
       </c>
     </row>
@@ -13183,11 +12831,11 @@
         <v>44986</v>
       </c>
       <c r="B772" t="n">
-        <v>7.280000000000001</v>
+        <v>6.677320564926193</v>
       </c>
       <c r="C772" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>weighted_diff</t>
         </is>
       </c>
     </row>
@@ -13196,11 +12844,11 @@
         <v>45017</v>
       </c>
       <c r="B773" t="n">
-        <v>8.940000000000001</v>
+        <v>3.951200182977729</v>
       </c>
       <c r="C773" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>weighted_diff</t>
         </is>
       </c>
     </row>
@@ -13209,11 +12857,11 @@
         <v>45047</v>
       </c>
       <c r="B774" t="n">
-        <v>3.969999999999999</v>
+        <v>2.247742548818359</v>
       </c>
       <c r="C774" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>weighted_diff</t>
         </is>
       </c>
     </row>
@@ -13222,11 +12870,11 @@
         <v>45078</v>
       </c>
       <c r="B775" t="n">
-        <v>0.5700000000000003</v>
+        <v>1.163962263997381</v>
       </c>
       <c r="C775" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>weighted_diff</t>
         </is>
       </c>
     </row>
@@ -13241,7 +12889,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13262,72 +12910,62 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>weighted_diff</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>knn</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>avg_diff</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>svr</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>mlp</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>elasticnet</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>silverkite</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>weighted_level</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>avg_level</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>prophet</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>avg_level</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>arima</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>weighted_level</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hwes</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>gbt</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>xgboost</t>
-        </is>
-      </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>weighted</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>avg</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>mlr</t>
+          <t>lightgbm</t>
         </is>
       </c>
     </row>
@@ -13339,46 +12977,40 @@
         <v>118.8</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.8599999999999994</v>
+        <v>-0.6789107870275194</v>
       </c>
       <c r="D2" t="n">
+        <v>-2.679999999999998</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-4.925230866809478</v>
+      </c>
+      <c r="F2" t="n">
         <v>2.8267494407946</v>
       </c>
-      <c r="E2" t="n">
-        <v>-0.06624281324630488</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-0.00737587333869702</v>
-      </c>
       <c r="G2" t="n">
+        <v>-0.04809911194152505</v>
+      </c>
+      <c r="H2" t="n">
+        <v>106.4464056700604</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100.1191732925382</v>
+      </c>
+      <c r="J2" t="n">
+        <v>104.12516669316</v>
+      </c>
+      <c r="K2" t="n">
         <v>121.2786608290207</v>
       </c>
-      <c r="H2" t="n">
-        <v>106.1613011999261</v>
-      </c>
-      <c r="I2" t="n">
-        <v>102.1557518823351</v>
-      </c>
-      <c r="J2" t="n">
-        <v>99.58806918122646</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>93.72610938513647</v>
+      </c>
+      <c r="M2" t="n">
         <v>95.04949088842243</v>
       </c>
-      <c r="L2" t="n">
-        <v>-26.41258335741748</v>
-      </c>
-      <c r="M2" t="n">
-        <v>-44.91608810424805</v>
-      </c>
       <c r="N2" t="n">
-        <v>3.126504091981393</v>
-      </c>
-      <c r="O2" t="n">
-        <v>13.22797970211588</v>
-      </c>
-      <c r="P2" t="n">
-        <v>39.75755779293263</v>
+        <v>-19.79957379609099</v>
       </c>
     </row>
     <row r="3">
@@ -13389,46 +13021,40 @@
         <v>138.7</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.689999999999999</v>
+        <v>-0.9501625479249531</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.7199999999999989</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-3.072161178970391</v>
+      </c>
+      <c r="F3" t="n">
         <v>-1.25990846321783</v>
       </c>
-      <c r="E3" t="n">
-        <v>-0.06624281750720229</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.007375855225168926</v>
-      </c>
       <c r="G3" t="n">
+        <v>-0.04809911685291013</v>
+      </c>
+      <c r="H3" t="n">
+        <v>106.4263143011974</v>
+      </c>
+      <c r="I3" t="n">
+        <v>100.102780005432</v>
+      </c>
+      <c r="J3" t="n">
+        <v>102.5099851086401</v>
+      </c>
+      <c r="K3" t="n">
         <v>113.3807601372476</v>
       </c>
-      <c r="H3" t="n">
-        <v>102.827560312788</v>
-      </c>
-      <c r="I3" t="n">
-        <v>100.052429912694</v>
-      </c>
-      <c r="J3" t="n">
-        <v>98.23888274865497</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
+        <v>95.18337510769284</v>
+      </c>
+      <c r="M3" t="n">
         <v>95.04949088842243</v>
       </c>
-      <c r="L3" t="n">
-        <v>9.147640187257739</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.4673192203044891</v>
-      </c>
       <c r="N3" t="n">
-        <v>12.726296376099</v>
-      </c>
-      <c r="O3" t="n">
-        <v>23.00033446182202</v>
-      </c>
-      <c r="P3" t="n">
-        <v>69.07462205819843</v>
+        <v>-10.26063713581083</v>
       </c>
     </row>
     <row r="4">
@@ -13439,46 +13065,40 @@
         <v>122.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.580000000000001</v>
+        <v>-1.707178256107502</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.3200000000000017</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-1.596153697641127</v>
+      </c>
+      <c r="F4" t="n">
         <v>-5.432123017413437</v>
       </c>
-      <c r="E4" t="n">
-        <v>-0.06624282154268712</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-0.007375836261387075</v>
-      </c>
       <c r="G4" t="n">
+        <v>-0.0480991214922426</v>
+      </c>
+      <c r="H4" t="n">
+        <v>106.3759027663975</v>
+      </c>
+      <c r="I4" t="n">
+        <v>100.3696818902332</v>
+      </c>
+      <c r="J4" t="n">
+        <v>102.7601626732015</v>
+      </c>
+      <c r="K4" t="n">
         <v>112.7922038068271</v>
       </c>
-      <c r="H4" t="n">
-        <v>102.1933670723997</v>
-      </c>
-      <c r="I4" t="n">
-        <v>98.73840652194941</v>
-      </c>
-      <c r="J4" t="n">
-        <v>97.5849674217262</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
+        <v>96.82305323115885</v>
+      </c>
+      <c r="M4" t="n">
         <v>95.04949088842243</v>
       </c>
-      <c r="L4" t="n">
-        <v>-33.18793768965774</v>
-      </c>
-      <c r="M4" t="n">
-        <v>-34.81304550170898</v>
-      </c>
       <c r="N4" t="n">
-        <v>13.18925614873632</v>
-      </c>
-      <c r="O4" t="n">
-        <v>32.69332991686343</v>
-      </c>
-      <c r="P4" t="n">
-        <v>98.15360840839435</v>
+        <v>-0.584392651658826</v>
       </c>
     </row>
     <row r="5">
@@ -13489,46 +13109,40 @@
         <v>126.3</v>
       </c>
       <c r="C5" t="n">
-        <v>-4.07</v>
+        <v>-3.10267831346131</v>
       </c>
       <c r="D5" t="n">
+        <v>-1.700000000000003</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-3.365572786033752</v>
+      </c>
+      <c r="F5" t="n">
         <v>-8.518268860255077</v>
       </c>
-      <c r="E5" t="n">
-        <v>-0.06624282566269812</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-0.007375817663049955</v>
-      </c>
       <c r="G5" t="n">
+        <v>-0.04809912623593959</v>
+      </c>
+      <c r="H5" t="n">
+        <v>106.3440355923334</v>
+      </c>
+      <c r="I5" t="n">
+        <v>100.2203779005973</v>
+      </c>
+      <c r="J5" t="n">
+        <v>101.0047435451023</v>
+      </c>
+      <c r="K5" t="n">
         <v>105.0621420223388</v>
       </c>
-      <c r="H5" t="n">
-        <v>99.26647392293394</v>
-      </c>
-      <c r="I5" t="n">
-        <v>97.68778885804055</v>
-      </c>
-      <c r="J5" t="n">
-        <v>96.74644703372485</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
+        <v>97.56330567731469</v>
+      </c>
+      <c r="M5" t="n">
         <v>95.04949088842243</v>
       </c>
-      <c r="L5" t="n">
-        <v>9.147640187257739</v>
-      </c>
-      <c r="M5" t="n">
-        <v>-5.528274059295654</v>
-      </c>
       <c r="N5" t="n">
-        <v>21.521904531731</v>
-      </c>
-      <c r="O5" t="n">
-        <v>42.30750806334375</v>
-      </c>
-      <c r="P5" t="n">
-        <v>126.996142833357</v>
+        <v>-3.195923157643989</v>
       </c>
     </row>
     <row r="6">
@@ -13539,46 +13153,40 @@
         <v>131.2</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.1</v>
+        <v>-3.736277873735196</v>
       </c>
       <c r="D6" t="n">
+        <v>-3.899999999999997</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-1.561274638140157</v>
+      </c>
+      <c r="F6" t="n">
         <v>-9.693335279169055</v>
       </c>
-      <c r="E6" t="n">
-        <v>-0.06624282976778773</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-0.007375798802678496</v>
-      </c>
       <c r="G6" t="n">
+        <v>-0.04809913096005403</v>
+      </c>
+      <c r="H6" t="n">
+        <v>106.3078988285164</v>
+      </c>
+      <c r="I6" t="n">
+        <v>100.4581199087532</v>
+      </c>
+      <c r="J6" t="n">
+        <v>102.72711534999</v>
+      </c>
+      <c r="K6" t="n">
         <v>111.9577281062473</v>
       </c>
-      <c r="H6" t="n">
-        <v>101.2440980944599</v>
-      </c>
-      <c r="I6" t="n">
-        <v>96.72507528871006</v>
-      </c>
-      <c r="J6" t="n">
-        <v>96.58597279194929</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
+        <v>97.59334357677371</v>
+      </c>
+      <c r="M6" t="n">
         <v>95.04949088842243</v>
       </c>
-      <c r="L6" t="n">
-        <v>-16.93264531517776</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3.249172687530518</v>
-      </c>
       <c r="N6" t="n">
-        <v>27.41642901949084</v>
-      </c>
-      <c r="O6" t="n">
-        <v>51.84358090595912</v>
-      </c>
-      <c r="P6" t="n">
-        <v>155.6043613464478</v>
+        <v>7.39633585756848</v>
       </c>
     </row>
     <row r="7">
@@ -13589,46 +13197,40 @@
         <v>117.8</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.8599999999999994</v>
+        <v>-4.692097941162833</v>
       </c>
       <c r="D7" t="n">
+        <v>-3.920000000000002</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-10.30669600227147</v>
+      </c>
+      <c r="F7" t="n">
         <v>-8.71427971686551</v>
       </c>
-      <c r="E7" t="n">
-        <v>-0.06624283378741325</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-0.007375780441514851</v>
-      </c>
       <c r="G7" t="n">
-        <v>88.508425599294</v>
+        <v>-0.04809913558452195</v>
       </c>
       <c r="H7" t="n">
-        <v>93.11653789115836</v>
+        <v>106.267680308882</v>
       </c>
       <c r="I7" t="n">
-        <v>95.79169718575862</v>
+        <v>99.567193099162</v>
       </c>
       <c r="J7" t="n">
-        <v>95.11994280833358</v>
+        <v>96.80285982896766</v>
       </c>
       <c r="K7" t="n">
+        <v>88.50842559929399</v>
+      </c>
+      <c r="L7" t="n">
+        <v>97.38584251927224</v>
+      </c>
+      <c r="M7" t="n">
         <v>95.04949088842243</v>
       </c>
-      <c r="L7" t="n">
-        <v>-24.78706343281513</v>
-      </c>
-      <c r="M7" t="n">
-        <v>-43.05313110351562</v>
-      </c>
       <c r="N7" t="n">
-        <v>28.64198786927021</v>
-      </c>
-      <c r="O7" t="n">
-        <v>61.30219361437663</v>
-      </c>
-      <c r="P7" t="n">
-        <v>183.9801994573588</v>
+        <v>-28.54440515663585</v>
       </c>
     </row>
     <row r="8">
@@ -13639,46 +13241,40 @@
         <v>115.1</v>
       </c>
       <c r="C8" t="n">
-        <v>-4.710000000000001</v>
+        <v>-3.700693685061113</v>
       </c>
       <c r="D8" t="n">
+        <v>-4.640000000000001</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-7.281128174744778</v>
+      </c>
+      <c r="F8" t="n">
         <v>-5.713143583858779</v>
       </c>
-      <c r="E8" t="n">
-        <v>-0.06624283789719243</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-0.007375761592573027</v>
-      </c>
       <c r="G8" t="n">
-        <v>73.11734278487693</v>
+        <v>-0.04809914031491758</v>
       </c>
       <c r="H8" t="n">
-        <v>87.67831420843403</v>
+        <v>106.2423211157876</v>
       </c>
       <c r="I8" t="n">
-        <v>94.86810895200274</v>
+        <v>98.97834422351939</v>
       </c>
       <c r="J8" t="n">
-        <v>94.00901511303557</v>
+        <v>92.90871992461618</v>
       </c>
       <c r="K8" t="n">
+        <v>73.11734278487691</v>
+      </c>
+      <c r="L8" t="n">
+        <v>97.2257249093778</v>
+      </c>
+      <c r="M8" t="n">
         <v>95.04949088842243</v>
       </c>
-      <c r="L8" t="n">
-        <v>-30.13286482787031</v>
-      </c>
-      <c r="M8" t="n">
-        <v>-23.2375316619873</v>
-      </c>
       <c r="N8" t="n">
-        <v>35.57531337954128</v>
-      </c>
-      <c r="O8" t="n">
-        <v>70.6840187871634</v>
-      </c>
-      <c r="P8" t="n">
-        <v>212.1256749609799</v>
+        <v>-18.72326997480542</v>
       </c>
     </row>
     <row r="9">
@@ -13689,46 +13285,40 @@
         <v>115.2</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.110000000000002</v>
+        <v>-0.0647133518806422</v>
       </c>
       <c r="D9" t="n">
+        <v>2.259999999999997</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-1.724346987883371</v>
+      </c>
+      <c r="F9" t="n">
         <v>-1.600234497656915</v>
       </c>
-      <c r="E9" t="n">
-        <v>-0.06624284194890606</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-0.007375742787818884</v>
-      </c>
       <c r="G9" t="n">
+        <v>-0.04809914497758427</v>
+      </c>
+      <c r="H9" t="n">
+        <v>106.1583053250758</v>
+      </c>
+      <c r="I9" t="n">
+        <v>98.75926070489405</v>
+      </c>
+      <c r="J9" t="n">
+        <v>91.63422985149359</v>
+      </c>
+      <c r="K9" t="n">
         <v>68.15548726509039</v>
       </c>
-      <c r="H9" t="n">
-        <v>85.71758865312465</v>
-      </c>
-      <c r="I9" t="n">
-        <v>93.94778780586115</v>
-      </c>
-      <c r="J9" t="n">
-        <v>93.35317677195015</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
+        <v>97.17363592738575</v>
+      </c>
+      <c r="M9" t="n">
         <v>95.04949088842243</v>
       </c>
-      <c r="L9" t="n">
-        <v>-19.05735646617634</v>
-      </c>
-      <c r="M9" t="n">
-        <v>-14.75483417510986</v>
-      </c>
       <c r="N9" t="n">
-        <v>42.90544774102283</v>
-      </c>
-      <c r="O9" t="n">
-        <v>79.98964005992558</v>
-      </c>
-      <c r="P9" t="n">
-        <v>240.0425387645134</v>
+        <v>-7.509054308898981</v>
       </c>
     </row>
     <row r="10">
@@ -13739,46 +13329,40 @@
         <v>102.1</v>
       </c>
       <c r="C10" t="n">
-        <v>3.2</v>
+        <v>0.7810484618205762</v>
       </c>
       <c r="D10" t="n">
+        <v>0.04000000000000057</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.033953704275422</v>
+      </c>
+      <c r="F10" t="n">
         <v>2.526288989634081</v>
       </c>
-      <c r="E10" t="n">
-        <v>-0.06624284595577024</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-0.007375724439957848</v>
-      </c>
       <c r="G10" t="n">
+        <v>-0.04809914958775607</v>
+      </c>
+      <c r="H10" t="n">
+        <v>106.1835756179369</v>
+      </c>
+      <c r="I10" t="n">
+        <v>98.7922134798134</v>
+      </c>
+      <c r="J10" t="n">
+        <v>91.79088974824802</v>
+      </c>
+      <c r="K10" t="n">
         <v>68.74510987839574</v>
       </c>
-      <c r="H10" t="n">
-        <v>85.60771924105889</v>
-      </c>
-      <c r="I10" t="n">
-        <v>93.02855695635849</v>
-      </c>
-      <c r="J10" t="n">
-        <v>92.93927229173221</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
+        <v>97.18538260823703</v>
+      </c>
+      <c r="M10" t="n">
         <v>95.04949088842243</v>
       </c>
-      <c r="L10" t="n">
-        <v>1.406175139869424</v>
-      </c>
-      <c r="M10" t="n">
-        <v>-14.32335090637207</v>
-      </c>
       <c r="N10" t="n">
-        <v>50.03857538529918</v>
-      </c>
-      <c r="O10" t="n">
-        <v>89.21966563368532</v>
-      </c>
-      <c r="P10" t="n">
-        <v>267.7326154714517</v>
+        <v>1.617624977055363</v>
       </c>
     </row>
     <row r="11">
@@ -13789,46 +13373,40 @@
         <v>140.6</v>
       </c>
       <c r="C11" t="n">
-        <v>4.7</v>
+        <v>3.671133623665547</v>
       </c>
       <c r="D11" t="n">
+        <v>4.159999999999997</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8.298667184501497</v>
+      </c>
+      <c r="F11" t="n">
         <v>5.676287313735113</v>
       </c>
-      <c r="E11" t="n">
-        <v>-0.06624285009368691</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.007375705880088512</v>
-      </c>
       <c r="G11" t="n">
+        <v>-0.04809915435495782</v>
+      </c>
+      <c r="H11" t="n">
+        <v>106.156807070408</v>
+      </c>
+      <c r="I11" t="n">
+        <v>99.91018143532423</v>
+      </c>
+      <c r="J11" t="n">
+        <v>99.66426180171015</v>
+      </c>
+      <c r="K11" t="n">
         <v>100.2406918167905</v>
       </c>
-      <c r="H11" t="n">
-        <v>95.7999575557505</v>
-      </c>
-      <c r="I11" t="n">
-        <v>92.10968996203853</v>
-      </c>
-      <c r="J11" t="n">
-        <v>93.86952357515358</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
+        <v>97.21005743121962</v>
+      </c>
+      <c r="M11" t="n">
         <v>95.04949088842243</v>
       </c>
-      <c r="L11" t="n">
-        <v>31.16203672587097</v>
-      </c>
-      <c r="M11" t="n">
-        <v>33.28797149658203</v>
-      </c>
       <c r="N11" t="n">
-        <v>60.94291394398157</v>
-      </c>
-      <c r="O11" t="n">
-        <v>98.37473210200567</v>
-      </c>
-      <c r="P11" t="n">
-        <v>295.1978148619908</v>
+        <v>23.40648057862584</v>
       </c>
     </row>
     <row r="12">
@@ -13839,46 +13417,40 @@
         <v>135.8</v>
       </c>
       <c r="C12" t="n">
-        <v>1.189999999999998</v>
+        <v>1.65950606639422</v>
       </c>
       <c r="D12" t="n">
+        <v>-0.9400000000000006</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.390763784153499</v>
+      </c>
+      <c r="F12" t="n">
         <v>6.788896817895228</v>
       </c>
-      <c r="E12" t="n">
-        <v>-0.06624285400587837</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.007375687817907511</v>
-      </c>
       <c r="G12" t="n">
+        <v>-0.04809915885337546</v>
+      </c>
+      <c r="H12" t="n">
+        <v>106.1224254895254</v>
+      </c>
+      <c r="I12" t="n">
+        <v>100.4475470933439</v>
+      </c>
+      <c r="J12" t="n">
+        <v>103.49869960436</v>
+      </c>
+      <c r="K12" t="n">
         <v>115.5985301063296</v>
       </c>
-      <c r="H12" t="n">
-        <v>100.6129884628952</v>
-      </c>
-      <c r="I12" t="n">
-        <v>91.19094439393348</v>
-      </c>
-      <c r="J12" t="n">
-        <v>94.0980642675629</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
+        <v>97.22435193316269</v>
+      </c>
+      <c r="M12" t="n">
         <v>95.04949088842243</v>
       </c>
-      <c r="L12" t="n">
-        <v>-11.13778963255093</v>
-      </c>
-      <c r="M12" t="n">
-        <v>-12.72276592254639</v>
-      </c>
       <c r="N12" t="n">
-        <v>60.64476154268058</v>
-      </c>
-      <c r="O12" t="n">
-        <v>107.455353933568</v>
-      </c>
-      <c r="P12" t="n">
-        <v>322.4396803425277</v>
+        <v>-0.2377425224278563</v>
       </c>
     </row>
     <row r="13">
@@ -13889,46 +13461,40 @@
         <v>143.1</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.05</v>
+        <v>0.9050813300675322</v>
       </c>
       <c r="D13" t="n">
+        <v>-2.760000000000002</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.190644314653838</v>
+      </c>
+      <c r="F13" t="n">
         <v>5.825054634025459</v>
       </c>
-      <c r="E13" t="n">
-        <v>-0.06624285807981778</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.00737566899760278</v>
-      </c>
       <c r="G13" t="n">
+        <v>-0.04809916354221855</v>
+      </c>
+      <c r="H13" t="n">
+        <v>106.0863863662919</v>
+      </c>
+      <c r="I13" t="n">
+        <v>100.5877347397299</v>
+      </c>
+      <c r="J13" t="n">
+        <v>104.5662379252158</v>
+      </c>
+      <c r="K13" t="n">
         <v>119.9019776087841</v>
       </c>
-      <c r="H13" t="n">
-        <v>101.7412359485154</v>
-      </c>
-      <c r="I13" t="n">
-        <v>90.2722393483395</v>
-      </c>
-      <c r="J13" t="n">
-        <v>93.84591122686628</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
+        <v>97.22709683736461</v>
+      </c>
+      <c r="M13" t="n">
         <v>95.04949088842243</v>
       </c>
-      <c r="L13" t="n">
-        <v>13.27579141385449</v>
-      </c>
-      <c r="M13" t="n">
-        <v>26.74729347229004</v>
-      </c>
       <c r="N13" t="n">
-        <v>69.50322755609868</v>
-      </c>
-      <c r="O13" t="n">
-        <v>116.4622062660359</v>
-      </c>
-      <c r="P13" t="n">
-        <v>349.4602373251853</v>
+        <v>1.745621788132115</v>
       </c>
     </row>
   </sheetData>
@@ -13942,7 +13508,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13958,72 +13524,62 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>weighted_diff</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>knn</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>avg_diff</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>svr</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>mlp</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>elasticnet</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>silverkite</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>weighted_level</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>avg_level</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>prophet</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>avg_level</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>arima</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>weighted_level</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hwes</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>gbt</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>xgboost</t>
-        </is>
-      </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>weighted</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>avg</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>mlr</t>
+          <t>lightgbm</t>
         </is>
       </c>
     </row>
@@ -14032,46 +13588,40 @@
         <v>44348</v>
       </c>
       <c r="B2" t="n">
-        <v>142.75</v>
+        <v>144.8131504513144</v>
       </c>
       <c r="C2" t="n">
-        <v>149.0503341460492</v>
+        <v>143.36</v>
       </c>
       <c r="D2" t="n">
-        <v>143.1120539770899</v>
+        <v>143.9491463507676</v>
       </c>
       <c r="E2" t="n">
-        <v>143.157360730441</v>
+        <v>149.0571175505242</v>
       </c>
       <c r="F2" t="n">
-        <v>121.2109306768289</v>
+        <v>143.1198918614095</v>
       </c>
       <c r="G2" t="n">
-        <v>120.5133424676788</v>
+        <v>106.4464056700604</v>
       </c>
       <c r="H2" t="n">
-        <v>97.2290968349859</v>
+        <v>128.4450053914618</v>
       </c>
       <c r="I2" t="n">
-        <v>120.2142233553945</v>
+        <v>128.7560301677762</v>
       </c>
       <c r="J2" t="n">
+        <v>121.210930676829</v>
+      </c>
+      <c r="K2" t="n">
+        <v>144.266784432994</v>
+      </c>
+      <c r="L2" t="n">
         <v>143.0999998912215</v>
       </c>
-      <c r="K2" t="n">
-        <v>145.474517971325</v>
-      </c>
-      <c r="L2" t="n">
-        <v>145.705320930481</v>
-      </c>
       <c r="M2" t="n">
-        <v>144.3428075533341</v>
-      </c>
-      <c r="N2" t="n">
-        <v>143.1951250946031</v>
-      </c>
-      <c r="O2" t="n">
-        <v>143.3159605762785</v>
+        <v>140.2595759911366</v>
       </c>
     </row>
     <row r="3">
@@ -14079,46 +13629,40 @@
         <v>44378</v>
       </c>
       <c r="B3" t="n">
-        <v>142.76</v>
+        <v>145.9509493679997</v>
       </c>
       <c r="C3" t="n">
-        <v>150.9613780029637</v>
+        <v>145.04</v>
       </c>
       <c r="D3" t="n">
-        <v>143.1241059100375</v>
+        <v>145.3611581830431</v>
       </c>
       <c r="E3" t="n">
-        <v>143.2147214839731</v>
+        <v>150.9889962521817</v>
       </c>
       <c r="F3" t="n">
+        <v>143.1397830478468</v>
+      </c>
+      <c r="G3" t="n">
+        <v>106.4263143011974</v>
+      </c>
+      <c r="H3" t="n">
+        <v>128.2846702813131</v>
+      </c>
+      <c r="I3" t="n">
+        <v>127.3706722932292</v>
+      </c>
+      <c r="J3" t="n">
         <v>115.3971655936528</v>
       </c>
-      <c r="G3" t="n">
-        <v>118.6748958252556</v>
-      </c>
-      <c r="H3" t="n">
-        <v>97.52752199089267</v>
-      </c>
-      <c r="I3" t="n">
-        <v>120.1041017361174</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
+        <v>144.5592093868451</v>
+      </c>
+      <c r="L3" t="n">
         <v>143.0999998912215</v>
       </c>
-      <c r="K3" t="n">
-        <v>147.1729426279257</v>
-      </c>
-      <c r="L3" t="n">
-        <v>159.297060585022</v>
-      </c>
       <c r="M3" t="n">
-        <v>146.011176535762</v>
-      </c>
-      <c r="N3" t="n">
-        <v>143.2903720933961</v>
-      </c>
-      <c r="O3" t="n">
-        <v>143.5322888861778</v>
+        <v>142.275853432144</v>
       </c>
     </row>
     <row r="4">
@@ -14126,46 +13670,40 @@
         <v>44409</v>
       </c>
       <c r="B4" t="n">
-        <v>139.91</v>
+        <v>144.5730980933946</v>
       </c>
       <c r="C4" t="n">
-        <v>147.8047795077601</v>
+        <v>143.64</v>
       </c>
       <c r="D4" t="n">
-        <v>143.1361558008311</v>
+        <v>143.7891116995172</v>
       </c>
       <c r="E4" t="n">
-        <v>143.2720822606957</v>
+        <v>147.8598186630606</v>
       </c>
       <c r="F4" t="n">
+        <v>143.1596735584329</v>
+      </c>
+      <c r="G4" t="n">
+        <v>106.3759027663975</v>
+      </c>
+      <c r="H4" t="n">
+        <v>128.2098301997401</v>
+      </c>
+      <c r="I4" t="n">
+        <v>126.9007795243096</v>
+      </c>
+      <c r="J4" t="n">
         <v>113.5034203267793</v>
       </c>
-      <c r="G4" t="n">
-        <v>118.0798404258526</v>
-      </c>
-      <c r="H4" t="n">
-        <v>97.63610105955703</v>
-      </c>
-      <c r="I4" t="n">
-        <v>120.0736688242555</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>144.6237951128402</v>
+      </c>
+      <c r="L4" t="n">
         <v>143.0999998912215</v>
       </c>
-      <c r="K4" t="n">
-        <v>144.0092898178467</v>
-      </c>
-      <c r="L4" t="n">
-        <v>152.3237157821655</v>
-      </c>
       <c r="M4" t="n">
-        <v>144.3867471357765</v>
-      </c>
-      <c r="N4" t="n">
-        <v>143.3857309812899</v>
-      </c>
-      <c r="O4" t="n">
-        <v>143.7489548823427</v>
+        <v>140.4969545765753</v>
       </c>
     </row>
     <row r="5">
@@ -14173,46 +13711,40 @@
         <v>44440</v>
       </c>
       <c r="B5" t="n">
-        <v>139.94</v>
+        <v>142.6368319452162</v>
       </c>
       <c r="C5" t="n">
-        <v>142.1378858070531</v>
+        <v>143.3</v>
       </c>
       <c r="D5" t="n">
-        <v>143.1482036459418</v>
+        <v>140.7727489399235</v>
       </c>
       <c r="E5" t="n">
-        <v>143.3294430602521</v>
+        <v>142.223344498457</v>
       </c>
       <c r="F5" t="n">
+        <v>143.1795633992477</v>
+      </c>
+      <c r="G5" t="n">
+        <v>106.3440355923334</v>
+      </c>
+      <c r="H5" t="n">
+        <v>127.9563178378245</v>
+      </c>
+      <c r="I5" t="n">
+        <v>125.1865287499134</v>
+      </c>
+      <c r="J5" t="n">
         <v>106.6635638332916</v>
       </c>
-      <c r="G5" t="n">
-        <v>115.8238186974665</v>
-      </c>
-      <c r="H5" t="n">
-        <v>97.70789236788656</v>
-      </c>
-      <c r="I5" t="n">
-        <v>119.8105578270418</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
+        <v>144.6385156828069</v>
+      </c>
+      <c r="L5" t="n">
         <v>143.0999998912215</v>
       </c>
-      <c r="K5" t="n">
-        <v>141.8570419385626</v>
-      </c>
-      <c r="L5" t="n">
-        <v>157.703982925415</v>
-      </c>
       <c r="M5" t="n">
-        <v>143.9988675479484</v>
-      </c>
-      <c r="N5" t="n">
-        <v>143.4811736894937</v>
-      </c>
-      <c r="O5" t="n">
-        <v>143.9658743622872</v>
+        <v>134.3880878619892</v>
       </c>
     </row>
     <row r="6">
@@ -14220,46 +13752,40 @@
         <v>44470</v>
       </c>
       <c r="B6" t="n">
-        <v>136.5</v>
+        <v>140.1899029305183</v>
       </c>
       <c r="C6" t="n">
-        <v>136.3738032577548</v>
+        <v>140.02</v>
       </c>
       <c r="D6" t="n">
-        <v>143.1602494547414</v>
+        <v>139.8760858989851</v>
       </c>
       <c r="E6" t="n">
-        <v>143.3868038828733</v>
+        <v>136.4894080072182</v>
       </c>
       <c r="F6" t="n">
+        <v>143.199452568935</v>
+      </c>
+      <c r="G6" t="n">
+        <v>106.3078988285164</v>
+      </c>
+      <c r="H6" t="n">
+        <v>128.1183983828476</v>
+      </c>
+      <c r="I6" t="n">
+        <v>126.4071005347615</v>
+      </c>
+      <c r="J6" t="n">
         <v>111.5786596921732</v>
       </c>
-      <c r="G6" t="n">
-        <v>117.4837382154931</v>
-      </c>
-      <c r="H6" t="n">
-        <v>97.77255506308472</v>
-      </c>
-      <c r="I6" t="n">
-        <v>120.0552160180741</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
+        <v>144.6418437271347</v>
+      </c>
+      <c r="L6" t="n">
         <v>143.0999998912215</v>
       </c>
-      <c r="K6" t="n">
-        <v>141.7647670377345</v>
-      </c>
-      <c r="L6" t="n">
-        <v>164.296150302887</v>
-      </c>
       <c r="M6" t="n">
-        <v>143.1840616767342</v>
-      </c>
-      <c r="N6" t="n">
-        <v>143.5767170235113</v>
-      </c>
-      <c r="O6" t="n">
-        <v>144.183097732919</v>
+        <v>139.7954830197872</v>
       </c>
     </row>
     <row r="7">
@@ -14267,46 +13793,40 @@
         <v>44501</v>
       </c>
       <c r="B7" t="n">
-        <v>129.4</v>
+        <v>135.5453688839111</v>
       </c>
       <c r="C7" t="n">
-        <v>128.0176800408655</v>
+        <v>133.8</v>
       </c>
       <c r="D7" t="n">
-        <v>143.1722932472848</v>
+        <v>133.4545662389387</v>
       </c>
       <c r="E7" t="n">
-        <v>143.4441647280792</v>
+        <v>128.1611429364819</v>
       </c>
       <c r="F7" t="n">
+        <v>143.2193410746209</v>
+      </c>
+      <c r="G7" t="n">
+        <v>106.267680308882</v>
+      </c>
+      <c r="H7" t="n">
+        <v>127.3271651967546</v>
+      </c>
+      <c r="I7" t="n">
+        <v>120.9600257760862</v>
+      </c>
+      <c r="J7" t="n">
         <v>89.82982520681512</v>
       </c>
-      <c r="G7" t="n">
-        <v>110.2552204989131</v>
-      </c>
-      <c r="H7" t="n">
-        <v>97.83583639870257</v>
-      </c>
-      <c r="I7" t="n">
-        <v>119.1397015000497</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
+        <v>144.6425976974261</v>
+      </c>
+      <c r="L7" t="n">
         <v>143.0999998912215</v>
       </c>
-      <c r="K7" t="n">
-        <v>130.9281063939748</v>
-      </c>
-      <c r="L7" t="n">
-        <v>156.277161693573</v>
-      </c>
       <c r="M7" t="n">
-        <v>139.8043522270617</v>
-      </c>
-      <c r="N7" t="n">
-        <v>143.6723546498295</v>
-      </c>
-      <c r="O7" t="n">
-        <v>144.4006059741242</v>
+        <v>128.6377809446518</v>
       </c>
     </row>
     <row r="8">
@@ -14314,46 +13834,40 @@
         <v>44531</v>
       </c>
       <c r="B8" t="n">
-        <v>125.43</v>
+        <v>132.3641093208984</v>
       </c>
       <c r="C8" t="n">
-        <v>124.815363933563</v>
+        <v>127.12</v>
       </c>
       <c r="D8" t="n">
-        <v>143.1843350125139</v>
+        <v>129.0055075714613</v>
       </c>
       <c r="E8" t="n">
-        <v>143.501525596311</v>
+        <v>124.9791991726596</v>
       </c>
       <c r="F8" t="n">
+        <v>143.239228912215</v>
+      </c>
+      <c r="G8" t="n">
+        <v>106.2423211157876</v>
+      </c>
+      <c r="H8" t="n">
+        <v>126.7684938357988</v>
+      </c>
+      <c r="I8" t="n">
+        <v>117.1069312713966</v>
+      </c>
+      <c r="J8" t="n">
         <v>74.44263565948754</v>
       </c>
-      <c r="G8" t="n">
-        <v>105.1471618698803</v>
-      </c>
-      <c r="H8" t="n">
-        <v>97.89885005893183</v>
-      </c>
-      <c r="I8" t="n">
-        <v>118.5007025577477</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
+        <v>144.6427684190898</v>
+      </c>
+      <c r="L8" t="n">
         <v>143.0999998912215</v>
       </c>
-      <c r="K8" t="n">
-        <v>123.312979828872</v>
-      </c>
-      <c r="L8" t="n">
-        <v>149.2996521949768</v>
-      </c>
       <c r="M8" t="n">
-        <v>137.9150290762769</v>
-      </c>
-      <c r="N8" t="n">
-        <v>143.7681351262957</v>
-      </c>
-      <c r="O8" t="n">
-        <v>144.6185447700622</v>
+        <v>120.6836022009707</v>
       </c>
     </row>
     <row r="9">
@@ -14361,46 +13875,40 @@
         <v>44562</v>
       </c>
       <c r="B9" t="n">
-        <v>123.89</v>
+        <v>132.8823361530496</v>
       </c>
       <c r="C9" t="n">
-        <v>125.0801061097166</v>
+        <v>128.98</v>
       </c>
       <c r="D9" t="n">
-        <v>143.1963747629798</v>
+        <v>128.6345973190309</v>
       </c>
       <c r="E9" t="n">
-        <v>143.5588864874872</v>
+        <v>125.2568733290295</v>
       </c>
       <c r="F9" t="n">
+        <v>143.2591160873709</v>
+      </c>
+      <c r="G9" t="n">
+        <v>106.1583053250758</v>
+      </c>
+      <c r="H9" t="n">
+        <v>126.5664673253489</v>
+      </c>
+      <c r="I9" t="n">
+        <v>115.8965445617095</v>
+      </c>
+      <c r="J9" t="n">
         <v>69.68506594964725</v>
       </c>
-      <c r="G9" t="n">
-        <v>103.5822925635865</v>
-      </c>
-      <c r="H9" t="n">
-        <v>97.96181184989064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>118.3239202614774</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
+        <v>144.6428070808934</v>
+      </c>
+      <c r="L9" t="n">
         <v>143.0999998912215</v>
       </c>
-      <c r="K9" t="n">
-        <v>120.9057739379893</v>
-      </c>
-      <c r="L9" t="n">
-        <v>141.1755457878113</v>
-      </c>
       <c r="M9" t="n">
-        <v>136.9596613226128</v>
-      </c>
-      <c r="N9" t="n">
-        <v>143.8640722004565</v>
-      </c>
-      <c r="O9" t="n">
-        <v>144.8369553509025</v>
+        <v>117.0423998597234</v>
       </c>
     </row>
     <row r="10">
@@ -14408,46 +13916,40 @@
         <v>44593</v>
       </c>
       <c r="B10" t="n">
-        <v>128.02</v>
+        <v>133.616622096086</v>
       </c>
       <c r="C10" t="n">
-        <v>126.7450284697335</v>
+        <v>129.82</v>
       </c>
       <c r="D10" t="n">
-        <v>143.2084125099659</v>
+        <v>129.2058718316117</v>
       </c>
       <c r="E10" t="n">
-        <v>143.616247401193</v>
+        <v>126.9296080468867</v>
       </c>
       <c r="F10" t="n">
+        <v>143.2790026025121</v>
+      </c>
+      <c r="G10" t="n">
+        <v>106.1835756179369</v>
+      </c>
+      <c r="H10" t="n">
+        <v>126.6392843589619</v>
+      </c>
+      <c r="I10" t="n">
+        <v>116.3450340130561</v>
+      </c>
+      <c r="J10" t="n">
         <v>71.4537447070857</v>
       </c>
-      <c r="G10" t="n">
-        <v>104.1928360626991</v>
-      </c>
-      <c r="H10" t="n">
-        <v>98.0247635897901</v>
-      </c>
-      <c r="I10" t="n">
-        <v>118.4309347050611</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
+        <v>144.6428158359803</v>
+      </c>
+      <c r="L10" t="n">
         <v>143.0999998912215</v>
       </c>
-      <c r="K10" t="n">
-        <v>123.2396191426763</v>
-      </c>
-      <c r="L10" t="n">
-        <v>154.3225756645203</v>
-      </c>
       <c r="M10" t="n">
-        <v>139.2233623931081</v>
-      </c>
-      <c r="N10" t="n">
-        <v>143.9601733835784</v>
-      </c>
-      <c r="O10" t="n">
-        <v>145.0558602395762</v>
+        <v>116.794876677048</v>
       </c>
     </row>
     <row r="11">
@@ -14455,46 +13957,40 @@
         <v>44621</v>
       </c>
       <c r="B11" t="n">
-        <v>136.04</v>
+        <v>140.2672018775214</v>
       </c>
       <c r="C11" t="n">
-        <v>136.0427490941574</v>
+        <v>140.54</v>
       </c>
       <c r="D11" t="n">
-        <v>143.2204482309233</v>
+        <v>139.6745546486821</v>
       </c>
       <c r="E11" t="n">
-        <v>143.6736083376119</v>
+        <v>136.2287835507361</v>
       </c>
       <c r="F11" t="n">
+        <v>143.2988884564965</v>
+      </c>
+      <c r="G11" t="n">
+        <v>106.156807070408</v>
+      </c>
+      <c r="H11" t="n">
+        <v>127.6554847398075</v>
+      </c>
+      <c r="I11" t="n">
+        <v>123.5315012530844</v>
+      </c>
+      <c r="J11" t="n">
         <v>100.2263802320934</v>
       </c>
-      <c r="G11" t="n">
-        <v>113.8046978351142</v>
-      </c>
-      <c r="H11" t="n">
-        <v>98.08771338202779</v>
-      </c>
-      <c r="I11" t="n">
-        <v>119.712246853876</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
+        <v>144.6428178186148</v>
+      </c>
+      <c r="L11" t="n">
         <v>143.0999998912215</v>
       </c>
-      <c r="K11" t="n">
-        <v>141.665087937079</v>
-      </c>
-      <c r="L11" t="n">
-        <v>169.0494261741638</v>
-      </c>
       <c r="M11" t="n">
-        <v>143.7719302185446</v>
-      </c>
-      <c r="N11" t="n">
-        <v>144.0564721130258</v>
-      </c>
-      <c r="O11" t="n">
-        <v>145.275359770542</v>
+        <v>138.6305465874957</v>
       </c>
     </row>
     <row r="12">
@@ -14502,46 +13998,40 @@
         <v>44652</v>
       </c>
       <c r="B12" t="n">
-        <v>145.38</v>
+        <v>143.8476687450718</v>
       </c>
       <c r="C12" t="n">
-        <v>140.4291317982778</v>
+        <v>147.98</v>
       </c>
       <c r="D12" t="n">
-        <v>143.2324819725617</v>
+        <v>143.2220081450475</v>
       </c>
       <c r="E12" t="n">
-        <v>143.7309692962654</v>
+        <v>140.6190606597581</v>
       </c>
       <c r="F12" t="n">
+        <v>143.3187736561816</v>
+      </c>
+      <c r="G12" t="n">
+        <v>106.1224254895254</v>
+      </c>
+      <c r="H12" t="n">
+        <v>128.1916194992442</v>
+      </c>
+      <c r="I12" t="n">
+        <v>127.3725114371828</v>
+      </c>
+      <c r="J12" t="n">
         <v>115.6248021003925</v>
       </c>
-      <c r="G12" t="n">
-        <v>118.9584882628226</v>
-      </c>
-      <c r="H12" t="n">
-        <v>98.15066279685391</v>
-      </c>
-      <c r="I12" t="n">
-        <v>120.411965502513</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
+        <v>144.6428182675917</v>
+      </c>
+      <c r="L12" t="n">
         <v>143.0999998912215</v>
       </c>
-      <c r="K12" t="n">
-        <v>146.2932470891994</v>
-      </c>
-      <c r="L12" t="n">
-        <v>178.651745891571</v>
-      </c>
       <c r="M12" t="n">
-        <v>147.0232610209434</v>
-      </c>
-      <c r="N12" t="n">
-        <v>144.1529169940567</v>
-      </c>
-      <c r="O12" t="n">
-        <v>145.4952997133427</v>
+        <v>140.9701982642502</v>
       </c>
     </row>
     <row r="13">
@@ -14549,46 +14039,40 @@
         <v>44682</v>
       </c>
       <c r="B13" t="n">
-        <v>149.35</v>
+        <v>146.1352299525404</v>
       </c>
       <c r="C13" t="n">
-        <v>148.6828063500248</v>
+        <v>146.74</v>
       </c>
       <c r="D13" t="n">
-        <v>143.2445137111366</v>
+        <v>146.859758380115</v>
       </c>
       <c r="E13" t="n">
-        <v>143.7883302778472</v>
+        <v>148.8786918936586</v>
       </c>
       <c r="F13" t="n">
+        <v>143.3386581944407</v>
+      </c>
+      <c r="G13" t="n">
+        <v>106.0863863662919</v>
+      </c>
+      <c r="H13" t="n">
+        <v>128.3991697916235</v>
+      </c>
+      <c r="I13" t="n">
+        <v>128.9150128826804</v>
+      </c>
+      <c r="J13" t="n">
         <v>121.8308469039438</v>
       </c>
-      <c r="G13" t="n">
-        <v>121.0481529779039</v>
-      </c>
-      <c r="H13" t="n">
-        <v>98.21361213854642</v>
-      </c>
-      <c r="I13" t="n">
-        <v>120.7119428506101</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
+        <v>144.6428183692646</v>
+      </c>
+      <c r="L13" t="n">
         <v>143.0999998912215</v>
       </c>
-      <c r="K13" t="n">
-        <v>151.3884007919321</v>
-      </c>
-      <c r="L13" t="n">
-        <v>188.8854294776916</v>
-      </c>
       <c r="M13" t="n">
-        <v>150.0988150045848</v>
-      </c>
-      <c r="N13" t="n">
-        <v>144.2495294174587</v>
-      </c>
-      <c r="O13" t="n">
-        <v>145.7157442633923</v>
+        <v>148.481683432361</v>
       </c>
     </row>
     <row r="14">
@@ -14596,46 +14080,40 @@
         <v>44713</v>
       </c>
       <c r="B14" t="n">
-        <v>150.2</v>
+        <v>147.7386009558003</v>
       </c>
       <c r="C14" t="n">
-        <v>155.8039457371164</v>
+        <v>145.66</v>
       </c>
       <c r="D14" t="n">
-        <v>143.2565434621469</v>
+        <v>147.3001639352256</v>
       </c>
       <c r="E14" t="n">
-        <v>143.8456912820205</v>
+        <v>156.0121647205117</v>
       </c>
       <c r="F14" t="n">
+        <v>143.3585420763382</v>
+      </c>
+      <c r="G14" t="n">
+        <v>106.0503626448521</v>
+      </c>
+      <c r="H14" t="n">
+        <v>128.322300350126</v>
+      </c>
+      <c r="I14" t="n">
+        <v>128.4644011917618</v>
+      </c>
+      <c r="J14" t="n">
         <v>120.0644238386848</v>
       </c>
-      <c r="G14" t="n">
-        <v>120.4803283986579</v>
-      </c>
-      <c r="H14" t="n">
-        <v>98.27656146606735</v>
-      </c>
-      <c r="I14" t="n">
-        <v>120.6652281042208</v>
-      </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
+        <v>144.6428183922889</v>
+      </c>
+      <c r="L14" t="n">
         <v>143.0999998912215</v>
       </c>
-      <c r="K14" t="n">
-        <v>151.2017611400974</v>
-      </c>
-      <c r="L14" t="n">
-        <v>203.2598896980286</v>
-      </c>
       <c r="M14" t="n">
-        <v>152.7855651976514</v>
-      </c>
-      <c r="N14" t="n">
-        <v>144.3462704558578</v>
-      </c>
-      <c r="O14" t="n">
-        <v>145.9365766234059</v>
+        <v>144.1699489440525</v>
       </c>
     </row>
     <row r="15">
@@ -14643,46 +14121,40 @@
         <v>44743</v>
       </c>
       <c r="B15" t="n">
-        <v>149.52</v>
+        <v>148.9412388920985</v>
       </c>
       <c r="C15" t="n">
-        <v>158.7921403519803</v>
+        <v>146.74</v>
       </c>
       <c r="D15" t="n">
-        <v>143.2685712298355</v>
+        <v>148.331861875191</v>
       </c>
       <c r="E15" t="n">
-        <v>143.9030523085311</v>
+        <v>159.0232939333507</v>
       </c>
       <c r="F15" t="n">
+        <v>143.3784253059173</v>
+      </c>
+      <c r="G15" t="n">
+        <v>106.0214989133861</v>
+      </c>
+      <c r="H15" t="n">
+        <v>128.1440742450908</v>
+      </c>
+      <c r="I15" t="n">
+        <v>127.2860301430898</v>
+      </c>
+      <c r="J15" t="n">
         <v>115.3798033702486</v>
       </c>
-      <c r="G15" t="n">
-        <v>118.9397713507707</v>
-      </c>
-      <c r="H15" t="n">
-        <v>98.33951079084214</v>
-      </c>
-      <c r="I15" t="n">
-        <v>120.4916121301097</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
+        <v>144.6428183975029</v>
+      </c>
+      <c r="L15" t="n">
         <v>143.0999998912215</v>
       </c>
-      <c r="K15" t="n">
-        <v>150.7659026616953</v>
-      </c>
-      <c r="L15" t="n">
-        <v>207.6809497833252</v>
-      </c>
       <c r="M15" t="n">
-        <v>153.6200899684285</v>
-      </c>
-      <c r="N15" t="n">
-        <v>144.4431127886959</v>
-      </c>
-      <c r="O15" t="n">
-        <v>146.1577148277208</v>
+        <v>144.1857282614959</v>
       </c>
     </row>
     <row r="16">
@@ -14690,46 +14162,40 @@
         <v>44774</v>
       </c>
       <c r="B16" t="n">
-        <v>146.67</v>
+        <v>146.6778922731795</v>
       </c>
       <c r="C16" t="n">
-        <v>154.2691527981541</v>
+        <v>144.16</v>
       </c>
       <c r="D16" t="n">
-        <v>143.2805970233453</v>
+        <v>145.1159003770417</v>
       </c>
       <c r="E16" t="n">
-        <v>143.9604133569092</v>
+        <v>154.5309502738544</v>
       </c>
       <c r="F16" t="n">
+        <v>143.3983078897597</v>
+      </c>
+      <c r="G16" t="n">
+        <v>105.9809305343816</v>
+      </c>
+      <c r="H16" t="n">
+        <v>128.0396915156067</v>
+      </c>
+      <c r="I16" t="n">
+        <v>126.6537271158749</v>
+      </c>
+      <c r="J16" t="n">
         <v>112.8911596392129</v>
       </c>
-      <c r="G16" t="n">
-        <v>118.1312065485064</v>
-      </c>
-      <c r="H16" t="n">
-        <v>98.40246011508481</v>
-      </c>
-      <c r="I16" t="n">
-        <v>120.4134907719883</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
+        <v>144.6428183986836</v>
+      </c>
+      <c r="L16" t="n">
         <v>143.0999998912215</v>
       </c>
-      <c r="K16" t="n">
-        <v>145.6639859742953</v>
-      </c>
-      <c r="L16" t="n">
-        <v>200.7649317741394</v>
-      </c>
       <c r="M16" t="n">
-        <v>151.7481035959709</v>
-      </c>
-      <c r="N16" t="n">
-        <v>144.5400274198611</v>
-      </c>
-      <c r="O16" t="n">
-        <v>146.3790718793287</v>
+        <v>138.3743433445528</v>
       </c>
     </row>
     <row r="17">
@@ -14737,46 +14203,40 @@
         <v>44805</v>
       </c>
       <c r="B17" t="n">
-        <v>145.78</v>
+        <v>144.8821223406297</v>
       </c>
       <c r="C17" t="n">
-        <v>148.756438968833</v>
+        <v>143.82</v>
       </c>
       <c r="D17" t="n">
-        <v>143.2926208407951</v>
+        <v>142.8303743222179</v>
       </c>
       <c r="E17" t="n">
-        <v>144.0177744278266</v>
+        <v>149.0518126901033</v>
       </c>
       <c r="F17" t="n">
+        <v>143.4181898210568</v>
+      </c>
+      <c r="G17" t="n">
+        <v>105.9527357516209</v>
+      </c>
+      <c r="H17" t="n">
+        <v>127.8103406568948</v>
+      </c>
+      <c r="I17" t="n">
+        <v>125.1154634914727</v>
+      </c>
+      <c r="J17" t="n">
         <v>106.7662999240974</v>
       </c>
-      <c r="G17" t="n">
-        <v>116.1105697515144</v>
-      </c>
-      <c r="H17" t="n">
-        <v>98.46540943922436</v>
-      </c>
-      <c r="I17" t="n">
-        <v>120.1772443098186</v>
-      </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
+        <v>144.642818398951</v>
+      </c>
+      <c r="L17" t="n">
         <v>143.0999998912215</v>
       </c>
-      <c r="K17" t="n">
-        <v>143.1486729480987</v>
-      </c>
-      <c r="L17" t="n">
-        <v>211.84396276474</v>
-      </c>
       <c r="M17" t="n">
-        <v>151.7658790878468</v>
-      </c>
-      <c r="N17" t="n">
-        <v>144.6370298486651</v>
-      </c>
-      <c r="O17" t="n">
-        <v>146.6006942773734</v>
+        <v>135.0314947777119</v>
       </c>
     </row>
     <row r="18">
@@ -14784,46 +14244,40 @@
         <v>44835</v>
       </c>
       <c r="B18" t="n">
-        <v>142.34</v>
+        <v>141.4869740777322</v>
       </c>
       <c r="C18" t="n">
-        <v>142.1606112238213</v>
+        <v>138.68</v>
       </c>
       <c r="D18" t="n">
-        <v>143.3046426896266</v>
+        <v>140.1465918696358</v>
       </c>
       <c r="E18" t="n">
-        <v>144.0751355209868</v>
+        <v>142.4896634621676</v>
       </c>
       <c r="F18" t="n">
+        <v>143.4380711043557</v>
+      </c>
+      <c r="G18" t="n">
+        <v>105.9030834407051</v>
+      </c>
+      <c r="H18" t="n">
+        <v>127.9015205226337</v>
+      </c>
+      <c r="I18" t="n">
+        <v>125.8757719839404</v>
+      </c>
+      <c r="J18" t="n">
         <v>109.8571862048235</v>
       </c>
-      <c r="G18" t="n">
-        <v>117.161848286463</v>
-      </c>
-      <c r="H18" t="n">
-        <v>98.52835876334393</v>
-      </c>
-      <c r="I18" t="n">
-        <v>120.3417553385038</v>
-      </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
+        <v>144.6428183990115</v>
+      </c>
+      <c r="L18" t="n">
         <v>143.0999998912215</v>
       </c>
-      <c r="K18" t="n">
-        <v>141.674352646261</v>
-      </c>
-      <c r="L18" t="n">
-        <v>214.7561839580536</v>
-      </c>
       <c r="M18" t="n">
-        <v>150.4486862952136</v>
-      </c>
-      <c r="N18" t="n">
-        <v>144.7341199968963</v>
-      </c>
-      <c r="O18" t="n">
-        <v>146.8225817800755</v>
+        <v>135.9786329120202</v>
       </c>
     </row>
     <row r="19">
@@ -14831,46 +14285,40 @@
         <v>44866</v>
       </c>
       <c r="B19" t="n">
-        <v>133.51</v>
+        <v>137.1479803135479</v>
       </c>
       <c r="C19" t="n">
-        <v>134.1987390957643</v>
+        <v>132.46</v>
       </c>
       <c r="D19" t="n">
-        <v>143.3166625773076</v>
+        <v>135.2115237493582</v>
       </c>
       <c r="E19" t="n">
-        <v>144.1324966360897</v>
+        <v>134.5588790687592</v>
       </c>
       <c r="F19" t="n">
+        <v>143.4579517442423</v>
+      </c>
+      <c r="G19" t="n">
+        <v>105.8628649210707</v>
+      </c>
+      <c r="H19" t="n">
+        <v>127.1731318678748</v>
+      </c>
+      <c r="I19" t="n">
+        <v>120.8698828729475</v>
+      </c>
+      <c r="J19" t="n">
         <v>89.87384828047261</v>
       </c>
-      <c r="G19" t="n">
-        <v>110.5217187530512</v>
-      </c>
-      <c r="H19" t="n">
-        <v>98.59130808745961</v>
-      </c>
-      <c r="I19" t="n">
-        <v>119.5028567462792</v>
-      </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
+        <v>144.6428183990252</v>
+      </c>
+      <c r="L19" t="n">
         <v>143.0999998912215</v>
       </c>
-      <c r="K19" t="n">
-        <v>132.5270245107426</v>
-      </c>
-      <c r="L19" t="n">
-        <v>211.3433564662933</v>
-      </c>
       <c r="M19" t="n">
-        <v>147.3153014953455</v>
-      </c>
-      <c r="N19" t="n">
-        <v>144.8313082466649</v>
-      </c>
-      <c r="O19" t="n">
-        <v>147.0447655265973</v>
+        <v>130.3692641844314</v>
       </c>
     </row>
     <row r="20">
@@ -14878,46 +14326,40 @@
         <v>44896</v>
       </c>
       <c r="B20" t="n">
-        <v>129.54</v>
+        <v>133.7370995093183</v>
       </c>
       <c r="C20" t="n">
-        <v>130.2602248941504</v>
+        <v>125.78</v>
       </c>
       <c r="D20" t="n">
-        <v>143.3286805053456</v>
+        <v>130.454139060674</v>
       </c>
       <c r="E20" t="n">
-        <v>144.1898577734534</v>
+        <v>130.6434176954406</v>
       </c>
       <c r="F20" t="n">
+        <v>143.4778317380555</v>
+      </c>
+      <c r="G20" t="n">
+        <v>105.8375057279763</v>
+      </c>
+      <c r="H20" t="n">
+        <v>126.589513332812</v>
+      </c>
+      <c r="I20" t="n">
+        <v>116.8421521866</v>
+      </c>
+      <c r="J20" t="n">
         <v>73.78828472817402</v>
       </c>
-      <c r="G20" t="n">
-        <v>105.1808473436567</v>
-      </c>
-      <c r="H20" t="n">
-        <v>98.65425741157456</v>
-      </c>
-      <c r="I20" t="n">
-        <v>118.8334574304019</v>
-      </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
+        <v>144.6428183990283</v>
+      </c>
+      <c r="L20" t="n">
         <v>143.0999998912215</v>
       </c>
-      <c r="K20" t="n">
-        <v>124.9118979456398</v>
-      </c>
-      <c r="L20" t="n">
-        <v>209.862531042099</v>
-      </c>
       <c r="M20" t="n">
-        <v>145.8237866324386</v>
-      </c>
-      <c r="N20" t="n">
-        <v>144.9286286665874</v>
-      </c>
-      <c r="O20" t="n">
-        <v>147.2673477209631</v>
+        <v>121.9153068092002</v>
       </c>
     </row>
     <row r="21">
@@ -14925,46 +14367,40 @@
         <v>44927</v>
       </c>
       <c r="B21" t="n">
-        <v>128</v>
+        <v>135.3583760215235</v>
       </c>
       <c r="C21" t="n">
-        <v>130.1410163044249</v>
+        <v>131.66</v>
       </c>
       <c r="D21" t="n">
-        <v>143.3406964813916</v>
+        <v>131.0922983493722</v>
       </c>
       <c r="E21" t="n">
-        <v>144.2472189331352</v>
+        <v>130.5389882354014</v>
       </c>
       <c r="F21" t="n">
-        <v>68.8064577867062</v>
+        <v>143.4977110895925</v>
       </c>
       <c r="G21" t="n">
-        <v>103.5412214712057</v>
+        <v>105.7677933847698</v>
       </c>
       <c r="H21" t="n">
-        <v>98.71720673568936</v>
+        <v>126.3849784338038</v>
       </c>
       <c r="I21" t="n">
-        <v>118.6469170849633</v>
+        <v>115.5792673654316</v>
       </c>
       <c r="J21" t="n">
+        <v>68.80645778670622</v>
+      </c>
+      <c r="K21" t="n">
+        <v>144.642818399029</v>
+      </c>
+      <c r="L21" t="n">
         <v>143.0999998912215</v>
       </c>
-      <c r="K21" t="n">
-        <v>122.5046920547571</v>
-      </c>
-      <c r="L21" t="n">
-        <v>206.5284181594849</v>
-      </c>
       <c r="M21" t="n">
-        <v>145.2567633187395</v>
-      </c>
-      <c r="N21" t="n">
-        <v>145.0261008310759</v>
-      </c>
-      <c r="O21" t="n">
-        <v>147.490387078701</v>
+        <v>118.672494072495</v>
       </c>
     </row>
     <row r="22">
@@ -14972,46 +14408,40 @@
         <v>44958</v>
       </c>
       <c r="B22" t="n">
-        <v>132.97</v>
+        <v>136.4276804188621</v>
       </c>
       <c r="C22" t="n">
-        <v>132.2711873112226</v>
+        <v>132.74</v>
       </c>
       <c r="D22" t="n">
-        <v>143.352710510845</v>
+        <v>132.7754141682607</v>
       </c>
       <c r="E22" t="n">
-        <v>144.3045801146691</v>
+        <v>132.677716567392</v>
       </c>
       <c r="F22" t="n">
-        <v>72.2571192448237</v>
+        <v>143.5175898019608</v>
       </c>
       <c r="G22" t="n">
-        <v>104.7124250652831</v>
+        <v>105.7830460137165</v>
       </c>
       <c r="H22" t="n">
-        <v>98.78015605980413</v>
+        <v>126.5139485787636</v>
       </c>
       <c r="I22" t="n">
-        <v>118.8270733579306</v>
+        <v>116.4457458871977</v>
       </c>
       <c r="J22" t="n">
+        <v>72.25711924482371</v>
+      </c>
+      <c r="K22" t="n">
+        <v>144.6428183990292</v>
+      </c>
+      <c r="L22" t="n">
         <v>143.0999998912215</v>
       </c>
-      <c r="K22" t="n">
-        <v>127.909915168695</v>
-      </c>
-      <c r="L22" t="n">
-        <v>214.5128980636597</v>
-      </c>
       <c r="M22" t="n">
-        <v>147.3004487667955</v>
-      </c>
-      <c r="N22" t="n">
-        <v>145.1237349297502</v>
-      </c>
-      <c r="O22" t="n">
-        <v>147.7139141637365</v>
+        <v>122.1663503036901</v>
       </c>
     </row>
     <row r="23">
@@ -15019,46 +14449,40 @@
         <v>44986</v>
       </c>
       <c r="B23" t="n">
-        <v>140.25</v>
+        <v>143.1050009837883</v>
       </c>
       <c r="C23" t="n">
-        <v>143.1469940879638</v>
+        <v>141.94</v>
       </c>
       <c r="D23" t="n">
-        <v>143.3647225908962</v>
+        <v>143.4277637600374</v>
       </c>
       <c r="E23" t="n">
-        <v>144.3619413188179</v>
+        <v>143.5556755392103</v>
       </c>
       <c r="F23" t="n">
+        <v>143.5374678672719</v>
+      </c>
+      <c r="G23" t="n">
+        <v>105.7519916825968</v>
+      </c>
+      <c r="H23" t="n">
+        <v>127.4367394127438</v>
+      </c>
+      <c r="I23" t="n">
+        <v>122.9881220872296</v>
+      </c>
+      <c r="J23" t="n">
         <v>98.45767837607104</v>
       </c>
-      <c r="G23" t="n">
-        <v>113.4669278837371</v>
-      </c>
-      <c r="H23" t="n">
-        <v>98.8431053839189</v>
-      </c>
-      <c r="I23" t="n">
-        <v>119.9965355333198</v>
-      </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
+        <v>144.6428183990292</v>
+      </c>
+      <c r="L23" t="n">
         <v>143.0999998912215</v>
       </c>
-      <c r="K23" t="n">
-        <v>149.6098133700619</v>
-      </c>
-      <c r="L23" t="n">
-        <v>236.6786943435669</v>
-      </c>
       <c r="M23" t="n">
-        <v>152.7392951468159</v>
-      </c>
-      <c r="N23" t="n">
-        <v>145.2215595694267</v>
-      </c>
-      <c r="O23" t="n">
-        <v>147.9380147985661</v>
+        <v>144.6779116336675</v>
       </c>
     </row>
     <row r="24">
@@ -15066,46 +14490,40 @@
         <v>45017</v>
       </c>
       <c r="B24" t="n">
-        <v>149.19</v>
+        <v>147.056201166766</v>
       </c>
       <c r="C24" t="n">
-        <v>150.0511033362729</v>
+        <v>147.8</v>
       </c>
       <c r="D24" t="n">
-        <v>143.3767327380609</v>
+        <v>148.0327296765583</v>
       </c>
       <c r="E24" t="n">
-        <v>144.4193025443367</v>
+        <v>150.4642363628444</v>
       </c>
       <c r="F24" t="n">
+        <v>143.5573453011682</v>
+      </c>
+      <c r="G24" t="n">
+        <v>105.7015801477967</v>
+      </c>
+      <c r="H24" t="n">
+        <v>127.9789154212466</v>
+      </c>
+      <c r="I24" t="n">
+        <v>126.9106486071038</v>
+      </c>
+      <c r="J24" t="n">
         <v>114.1981959903677</v>
       </c>
-      <c r="G24" t="n">
-        <v>118.734750196541</v>
-      </c>
-      <c r="H24" t="n">
-        <v>98.90605470803365</v>
-      </c>
-      <c r="I24" t="n">
-        <v>120.7111305721188</v>
-      </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
+        <v>144.6428183990292</v>
+      </c>
+      <c r="L24" t="n">
         <v>143.0999998912215</v>
       </c>
-      <c r="K24" t="n">
-        <v>157.8998892533262</v>
-      </c>
-      <c r="L24" t="n">
-        <v>241.1501675605774</v>
-      </c>
       <c r="M24" t="n">
-        <v>155.9147054776421</v>
-      </c>
-      <c r="N24" t="n">
-        <v>145.3195326366776</v>
-      </c>
-      <c r="O24" t="n">
-        <v>148.1625626276353</v>
+        <v>150.3093370422207</v>
       </c>
     </row>
     <row r="25">
@@ -15113,46 +14531,40 @@
         <v>45047</v>
       </c>
       <c r="B25" t="n">
-        <v>153.16</v>
+        <v>149.3039437155844</v>
       </c>
       <c r="C25" t="n">
-        <v>158.0691930182104</v>
+        <v>146.56</v>
       </c>
       <c r="D25" t="n">
-        <v>143.3887409506367</v>
+        <v>151.8153820191767</v>
       </c>
       <c r="E25" t="n">
-        <v>144.4766637918679</v>
+        <v>158.4900288726939</v>
       </c>
       <c r="F25" t="n">
+        <v>143.5772220971562</v>
+      </c>
+      <c r="G25" t="n">
+        <v>105.6917639936461</v>
+      </c>
+      <c r="H25" t="n">
+        <v>128.2603901805917</v>
+      </c>
+      <c r="I25" t="n">
+        <v>128.907080668126</v>
+      </c>
+      <c r="J25" t="n">
         <v>122.1937403886071</v>
       </c>
-      <c r="G25" t="n">
-        <v>121.420914770659</v>
-      </c>
-      <c r="H25" t="n">
-        <v>98.96900403214842</v>
-      </c>
-      <c r="I25" t="n">
-        <v>121.0889263941988</v>
-      </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
+        <v>144.6428183990292</v>
+      </c>
+      <c r="L25" t="n">
         <v>143.0999998912215</v>
       </c>
-      <c r="K25" t="n">
-        <v>162.6799831091191</v>
-      </c>
-      <c r="L25" t="n">
-        <v>257.2255230903626</v>
-      </c>
       <c r="M25" t="n">
-        <v>159.4957990276756</v>
-      </c>
-      <c r="N25" t="n">
-        <v>145.4176565953329</v>
-      </c>
-      <c r="O25" t="n">
-        <v>148.3875650434942</v>
+        <v>158.6342771068567</v>
       </c>
     </row>
     <row r="26">
@@ -15160,46 +14572,40 @@
         <v>45078</v>
       </c>
       <c r="B26" t="n">
-        <v>153.73</v>
+        <v>150.4679059795817</v>
       </c>
       <c r="C26" t="n">
-        <v>163.4519449502926</v>
+        <v>145.48</v>
       </c>
       <c r="D26" t="n">
-        <v>143.4007472359135</v>
+        <v>152.2841190029172</v>
       </c>
       <c r="E26" t="n">
-        <v>144.5340250611182</v>
+        <v>163.8873744135571</v>
       </c>
       <c r="F26" t="n">
+        <v>143.5970982597112</v>
+      </c>
+      <c r="G26" t="n">
+        <v>105.6499560232032</v>
+      </c>
+      <c r="H26" t="n">
+        <v>128.127410637489</v>
+      </c>
+      <c r="I26" t="n">
+        <v>128.0774149495506</v>
+      </c>
+      <c r="J26" t="n">
         <v>118.9168854847484</v>
       </c>
-      <c r="G26" t="n">
-        <v>120.3496129107444</v>
-      </c>
-      <c r="H26" t="n">
-        <v>99.03195335626319</v>
-      </c>
-      <c r="I26" t="n">
-        <v>120.9765287514883</v>
-      </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
+        <v>144.6428183990292</v>
+      </c>
+      <c r="L26" t="n">
         <v>143.0999998912215</v>
       </c>
-      <c r="K26" t="n">
-        <v>160.6279014841653</v>
-      </c>
-      <c r="L26" t="n">
-        <v>259.4376574516297</v>
-      </c>
       <c r="M26" t="n">
-        <v>160.6844025137279</v>
-      </c>
-      <c r="N26" t="n">
-        <v>145.5159011611445</v>
-      </c>
-      <c r="O26" t="n">
-        <v>148.6129311864019</v>
+        <v>156.1720033384005</v>
       </c>
     </row>
   </sheetData>

--- a/examples/housing_different_levels_results.xlsx
+++ b/examples/housing_different_levels_results.xlsx
@@ -1707,84 +1707,88 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>weighted_diff</t>
+          <t>silverkite</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>combo</t>
+          <t>silverkite</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'how': 'weighted', 'models': ('knn', 'svr', 'lightgbm', 'mlp'), 'determine_best_by': 'ValidationMetricValue'}</t>
+          <t>{'changepoints': 0}</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
         <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>12</v>
       </c>
       <c r="I2" t="n">
-        <v>15.61661624262011</v>
+        <v>22.76515260318411</v>
       </c>
       <c r="J2" t="n">
-        <v>1.116969193959584</v>
+        <v>0.1526277963230041</v>
       </c>
       <c r="K2" t="n">
-        <v>12.22487499469184</v>
+        <v>20.02075773195508</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01913621132871424</v>
+        <v>-2.602934984389738</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9050813300675322</v>
+        <v>106.0863863662919</v>
       </c>
       <c r="N2" t="n">
-        <v>7.299999999999983</v>
+        <v>143.1</v>
       </c>
       <c r="O2" t="n">
-        <v>12.13540045189101</v>
-      </c>
-      <c r="P2" t="inlineStr"/>
+        <v>36.7580039467544</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.3047973110368991</v>
+      </c>
       <c r="Q2" t="n">
-        <v>9.214519533613078</v>
+        <v>29.48637662661569</v>
       </c>
       <c r="R2" t="n">
-        <v>0.4877675535725294</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>['mlp', 'knn', 'svr', 'lightgbm']</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>(0.37750502914397943, 0.2985219936826455, 0.289654338160286, 0.03431863901308904)</t>
-        </is>
-      </c>
+        <v>0.06718684989578405</v>
+      </c>
+      <c r="S2" t="n">
+        <v>6</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="U2" t="n">
+        <v>10.50143456590333</v>
+      </c>
+      <c r="V2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="n">
-        <v>11.63627336575666</v>
+        <v>22.76515260318411</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.08034034050417842</v>
+        <v>0.1526277963230041</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.89566710046398</v>
+        <v>20.02075773195508</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.05866734597565904</v>
+        <v>-2.602934984389738</v>
       </c>
       <c r="AD2" t="b">
         <v>1</v>
@@ -1793,92 +1797,86 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>weighted_level</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>knn</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
-        </is>
-      </c>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 5, 'weights': 'uniform'}</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+          <t>{'how': 'weighted', 'models': ('arima', 'hwes', 'prophet', 'silverkite'), 'determine_best_by': 'ValidationMetricValue'}</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>12</v>
       </c>
       <c r="I3" t="n">
-        <v>15.93541966814806</v>
+        <v>28.19576192948375</v>
       </c>
       <c r="J3" t="n">
-        <v>2.78966886048938</v>
+        <v>0.1978123811481459</v>
       </c>
       <c r="K3" t="n">
-        <v>12.67999999999999</v>
+        <v>25.74061601888827</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.02131999839122667</v>
+        <v>-4.52691726401107</v>
       </c>
       <c r="M3" t="n">
-        <v>-2.760000000000002</v>
+        <v>100.5877347397299</v>
       </c>
       <c r="N3" t="n">
-        <v>7.299999999999983</v>
+        <v>143.1</v>
       </c>
       <c r="O3" t="n">
-        <v>9.289217399385597</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
+        <v>19.60920838569268</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.1569300916366725</v>
+      </c>
       <c r="Q3" t="n">
-        <v>7.176443850267379</v>
+        <v>15.72310963705579</v>
       </c>
       <c r="R3" t="n">
-        <v>0.6998646743732531</v>
-      </c>
-      <c r="S3" t="n">
-        <v>6</v>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="U3" t="n">
-        <v>12.94103293146777</v>
-      </c>
+        <v>0.7345327547196137</v>
+      </c>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>['hwes', 'silverkite', 'arima', 'prophet']</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>(0.39243583056887443, 0.3844845338132556, 0.18740365102069959, 0.0356759845971704)</t>
+        </is>
+      </c>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="n">
-        <v>12.1076587332151</v>
+        <v>28.19576192948375</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.08585704537941215</v>
+        <v>0.1978123811481459</v>
       </c>
       <c r="AB3" t="n">
-        <v>10.54</v>
+        <v>25.74061601888827</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.01914419790278643</v>
+        <v>-4.52691726401107</v>
       </c>
       <c r="AD3" t="b">
         <v>0</v>
@@ -1887,7 +1885,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>avg_diff</t>
+          <t>avg_level</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1898,7 +1896,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'how': 'simple', 'models': ('knn', 'svr', 'lightgbm', 'mlp'), 'determine_best_by': 'ValidationMetricValue'}</t>
+          <t>{'how': 'simple', 'models': ('arima', 'hwes', 'prophet', 'silverkite'), 'determine_best_by': 'ValidationMetricValue'}</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1906,38 +1904,40 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>12</v>
       </c>
       <c r="I4" t="n">
-        <v>15.47824360920689</v>
+        <v>27.63482075791666</v>
       </c>
       <c r="J4" t="n">
-        <v>2.552418182298628</v>
+        <v>0.2031462532466245</v>
       </c>
       <c r="K4" t="n">
-        <v>12.16352257682857</v>
+        <v>26.10057732877456</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03644129227673343</v>
+        <v>-4.309194032713156</v>
       </c>
       <c r="M4" t="n">
-        <v>1.190644314653838</v>
+        <v>104.5662379252158</v>
       </c>
       <c r="N4" t="n">
-        <v>7.299999999999983</v>
+        <v>143.1</v>
       </c>
       <c r="O4" t="n">
-        <v>10.53358229559637</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
+        <v>19.68736338881455</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.1575047766636405</v>
+      </c>
       <c r="Q4" t="n">
-        <v>8.087380688477008</v>
+        <v>15.68544147075744</v>
       </c>
       <c r="R4" t="n">
-        <v>0.6140677728207109</v>
+        <v>0.7324124305264418</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -1945,22 +1945,22 @@
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr">
         <is>
-          <t>['knn', 'svr', 'lightgbm', 'mlp']</t>
+          <t>['arima', 'hwes', 'prophet', 'silverkite']</t>
         </is>
       </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="n">
-        <v>14.10822236423879</v>
+        <v>27.63482075791666</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.08752140357042837</v>
+        <v>0.2031462532466245</v>
       </c>
       <c r="AB4" t="n">
-        <v>11.38792048329533</v>
+        <v>26.10057732877456</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.3837571747556285</v>
+        <v>-4.309194032713156</v>
       </c>
       <c r="AD4" t="b">
         <v>0</v>
@@ -1969,65 +1969,59 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>svr</t>
+          <t>prophet</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>svr</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
-        </is>
-      </c>
+          <t>prophet</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'kernel': 'linear', 'C': 0.5, 'epsilon': 0.1}</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+          <t>{'n_changepoints': 0}</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>12</v>
       </c>
       <c r="I5" t="n">
-        <v>15.42743090957689</v>
+        <v>28.98872871441158</v>
       </c>
       <c r="J5" t="n">
-        <v>2.663201748036615</v>
+        <v>0.2119884645128812</v>
       </c>
       <c r="K5" t="n">
-        <v>12.55213186407106</v>
+        <v>26.11818847473322</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04275733880856225</v>
+        <v>-4.842162510707956</v>
       </c>
       <c r="M5" t="n">
-        <v>5.825054634025459</v>
+        <v>119.9019776087841</v>
       </c>
       <c r="N5" t="n">
-        <v>7.299999999999983</v>
+        <v>143.1</v>
       </c>
       <c r="O5" t="n">
-        <v>13.1851989750924</v>
-      </c>
-      <c r="P5" t="inlineStr"/>
+        <v>31.50848739942518</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.2517766915560388</v>
+      </c>
       <c r="Q5" t="n">
-        <v>10.07866745199715</v>
+        <v>24.979385265179</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3953107657836508</v>
+        <v>0.3145971129101873</v>
       </c>
       <c r="S5" t="n">
         <v>6</v>
@@ -2038,23 +2032,25 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>13.28520521964032</v>
-      </c>
-      <c r="V5" t="inlineStr"/>
+        <v>33.21559034959205</v>
+      </c>
+      <c r="V5" t="b">
+        <v>1</v>
+      </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
-        <v>16.46356518161705</v>
+        <v>28.98872871441158</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.1061648555155583</v>
+        <v>0.2119884645128812</v>
       </c>
       <c r="AB5" t="n">
-        <v>13.61220523137098</v>
+        <v>26.11818847473322</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.8843564925973237</v>
+        <v>-4.842162510707956</v>
       </c>
       <c r="AD5" t="b">
         <v>0</v>
@@ -2063,65 +2059,59 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>arima</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>mlp</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
-        </is>
-      </c>
+          <t>arima</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'activation': 'tanh', 'hidden_layer_sizes': (25,), 'solver': 'lbfgs', 'random_state': 20}</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+          <t>{'order': (2, 1, 0), 'seasonal_order': (0, 0, 0, 0), 'trend': 'n'}</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="b">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>12</v>
       </c>
       <c r="I6" t="n">
-        <v>16.27955076943286</v>
+        <v>31.2214255632439</v>
       </c>
       <c r="J6" t="n">
-        <v>1.039807053647507</v>
+        <v>0.222043766235992</v>
       </c>
       <c r="K6" t="n">
-        <v>12.37468318691936</v>
+        <v>28.80656007132531</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.06590784379298587</v>
+        <v>-5.776738874001598</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.04809916354221855</v>
+        <v>97.22709683736461</v>
       </c>
       <c r="N6" t="n">
-        <v>7.299999999999983</v>
+        <v>143.1</v>
       </c>
       <c r="O6" t="n">
-        <v>16.84896737528232</v>
-      </c>
-      <c r="P6" t="inlineStr"/>
+        <v>17.06000262857426</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.1109681522874506</v>
+      </c>
       <c r="Q6" t="n">
-        <v>12.47863068886881</v>
+        <v>12.53891118718837</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01257199746119564</v>
+        <v>0.7990680462059006</v>
       </c>
       <c r="S6" t="n">
         <v>6</v>
@@ -2132,23 +2122,25 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>9.875535859214741</v>
-      </c>
-      <c r="V6" t="inlineStr"/>
+        <v>23.33519647855596</v>
+      </c>
+      <c r="V6" t="b">
+        <v>1</v>
+      </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>17.55483187646903</v>
+        <v>31.2214255632439</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.1209995167278683</v>
+        <v>0.222043766235992</v>
       </c>
       <c r="AB6" t="n">
-        <v>14.02975219547075</v>
+        <v>28.80656007132531</v>
       </c>
       <c r="AC6" t="n">
-        <v>-1.142439874012582</v>
+        <v>-5.776738874001598</v>
       </c>
       <c r="AD6" t="b">
         <v>0</v>
@@ -2157,18 +2149,18 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>silverkite</t>
+          <t>hwes</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>silverkite</t>
+          <t>hwes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'changepoints': 0}</t>
+          <t>{'trend': None, 'seasonal': None, 'damped_trend': False}</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -2182,34 +2174,34 @@
         <v>12</v>
       </c>
       <c r="I7" t="n">
-        <v>22.76515260318411</v>
+        <v>32.82034846925381</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1526277963230041</v>
+        <v>0.2360683178911208</v>
       </c>
       <c r="K7" t="n">
-        <v>20.02075773195508</v>
+        <v>30.55050911157757</v>
       </c>
       <c r="L7" t="n">
-        <v>-2.602934984389738</v>
+        <v>-6.488617857435266</v>
       </c>
       <c r="M7" t="n">
-        <v>106.0863863662919</v>
+        <v>95.04949088842243</v>
       </c>
       <c r="N7" t="n">
         <v>143.1</v>
       </c>
       <c r="O7" t="n">
-        <v>36.7580039467544</v>
+        <v>16.94468228690074</v>
       </c>
       <c r="P7" t="n">
-        <v>0.3047973110368991</v>
+        <v>0.1119041572430496</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.48637662661569</v>
+        <v>12.61588789130988</v>
       </c>
       <c r="R7" t="n">
-        <v>0.06718684989578405</v>
+        <v>0.80177534067004</v>
       </c>
       <c r="S7" t="n">
         <v>6</v>
@@ -2220,7 +2212,7 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>10.50143456590333</v>
+        <v>9.983651978305176</v>
       </c>
       <c r="V7" t="b">
         <v>1</v>
@@ -2229,16 +2221,16 @@
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>22.76515260318411</v>
+        <v>32.82034846925381</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.1526277963230041</v>
+        <v>0.2360683178911208</v>
       </c>
       <c r="AB7" t="n">
-        <v>20.02075773195508</v>
+        <v>30.55050911157757</v>
       </c>
       <c r="AC7" t="n">
-        <v>-2.602934984389738</v>
+        <v>-6.488617857435266</v>
       </c>
       <c r="AD7" t="b">
         <v>0</v>
@@ -2247,86 +2239,92 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>weighted_level</t>
+          <t>mlp</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>combo</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'how': 'weighted', 'models': ('arima', 'hwes', 'prophet', 'silverkite'), 'determine_best_by': 'ValidationMetricValue'}</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+          <t>{'activation': 'tanh', 'hidden_layer_sizes': (25,), 'solver': 'lbfgs', 'random_state': 20}</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>12</v>
       </c>
       <c r="I8" t="n">
-        <v>28.19576192948375</v>
+        <v>16.27955076943286</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1978123811481459</v>
+        <v>1.039807053647507</v>
       </c>
       <c r="K8" t="n">
-        <v>25.74061601888827</v>
+        <v>12.37468318691936</v>
       </c>
       <c r="L8" t="n">
-        <v>-4.52691726401107</v>
+        <v>-0.06590784379298587</v>
       </c>
       <c r="M8" t="n">
-        <v>100.5877347397299</v>
+        <v>-0.04809916354221855</v>
       </c>
       <c r="N8" t="n">
-        <v>143.1</v>
+        <v>7.299999999999983</v>
       </c>
       <c r="O8" t="n">
-        <v>19.60920838569268</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.1569300916366725</v>
-      </c>
+        <v>16.84896737528232</v>
+      </c>
+      <c r="P8" t="inlineStr"/>
       <c r="Q8" t="n">
-        <v>15.72310963705579</v>
+        <v>12.47863068886881</v>
       </c>
       <c r="R8" t="n">
-        <v>0.7345327547196137</v>
-      </c>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
+        <v>0.01257199746119564</v>
+      </c>
+      <c r="S8" t="n">
+        <v>6</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="U8" t="n">
+        <v>9.875535859214741</v>
+      </c>
       <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>['hwes', 'silverkite', 'arima', 'prophet']</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>(0.39243583056887443, 0.3844845338132556, 0.18740365102069959, 0.0356759845971704)</t>
-        </is>
-      </c>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
-        <v>28.19576192948375</v>
+        <v>33.07680015815105</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.1978123811481459</v>
+        <v>0.2381572428865664</v>
       </c>
       <c r="AB8" t="n">
-        <v>25.74061601888827</v>
+        <v>30.81264434049505</v>
       </c>
       <c r="AC8" t="n">
-        <v>-4.52691726401107</v>
+        <v>-6.606104225958601</v>
       </c>
       <c r="AD8" t="b">
         <v>0</v>
@@ -2335,82 +2333,92 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>avg_level</t>
+          <t>knn</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>combo</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+          <t>knn</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>{'how': 'simple', 'models': ('arima', 'hwes', 'prophet', 'silverkite'), 'determine_best_by': 'ValidationMetricValue'}</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>{'n_neighbors': 5, 'weights': 'uniform'}</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>12</v>
       </c>
       <c r="I9" t="n">
-        <v>27.63482075791666</v>
+        <v>15.93541966814806</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2031462532466245</v>
+        <v>2.78966886048938</v>
       </c>
       <c r="K9" t="n">
-        <v>26.10057732877456</v>
+        <v>12.67999999999999</v>
       </c>
       <c r="L9" t="n">
-        <v>-4.309194032713156</v>
+        <v>-0.02131999839122667</v>
       </c>
       <c r="M9" t="n">
-        <v>104.5662379252158</v>
+        <v>-2.760000000000002</v>
       </c>
       <c r="N9" t="n">
-        <v>143.1</v>
+        <v>7.299999999999983</v>
       </c>
       <c r="O9" t="n">
-        <v>19.68736338881455</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.1575047766636405</v>
-      </c>
+        <v>9.289217399385597</v>
+      </c>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="n">
-        <v>15.68544147075744</v>
+        <v>7.176443850267379</v>
       </c>
       <c r="R9" t="n">
-        <v>0.7324124305264418</v>
-      </c>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
+        <v>0.6998646743732531</v>
+      </c>
+      <c r="S9" t="n">
+        <v>6</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="U9" t="n">
+        <v>12.94103293146777</v>
+      </c>
       <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>['arima', 'hwes', 'prophet', 'silverkite']</t>
-        </is>
-      </c>
+      <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
-        <v>27.63482075791666</v>
+        <v>42.6508077297488</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.2031462532466245</v>
+        <v>0.3210967525197754</v>
       </c>
       <c r="AB9" t="n">
-        <v>26.10057732877456</v>
+        <v>40.98</v>
       </c>
       <c r="AC9" t="n">
-        <v>-4.309194032713156</v>
+        <v>-11.64648444470193</v>
       </c>
       <c r="AD9" t="b">
         <v>0</v>
@@ -2419,88 +2427,84 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>prophet</t>
+          <t>weighted_diff</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>prophet</t>
+          <t>combo</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'n_changepoints': 0}</t>
+          <t>{'how': 'weighted', 'models': ('knn', 'svr', 'lightgbm', 'mlp'), 'determine_best_by': 'ValidationMetricValue'}</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>1</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>12</v>
       </c>
       <c r="I10" t="n">
-        <v>28.98872871441158</v>
+        <v>15.61661624262011</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2119884645128812</v>
+        <v>1.116969193959584</v>
       </c>
       <c r="K10" t="n">
-        <v>26.11818847473322</v>
+        <v>12.22487499469184</v>
       </c>
       <c r="L10" t="n">
-        <v>-4.842162510707956</v>
+        <v>0.01913621132871424</v>
       </c>
       <c r="M10" t="n">
-        <v>119.9019776087841</v>
+        <v>0.9050813300675322</v>
       </c>
       <c r="N10" t="n">
-        <v>143.1</v>
+        <v>7.299999999999983</v>
       </c>
       <c r="O10" t="n">
-        <v>31.50848739942518</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.2517766915560388</v>
-      </c>
+        <v>12.13540045189101</v>
+      </c>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="n">
-        <v>24.979385265179</v>
+        <v>9.214519533613078</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3145971129101873</v>
-      </c>
-      <c r="S10" t="n">
-        <v>6</v>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="U10" t="n">
-        <v>33.21559034959205</v>
-      </c>
-      <c r="V10" t="b">
-        <v>1</v>
-      </c>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
+        <v>0.4877675535725294</v>
+      </c>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>['mlp', 'knn', 'svr', 'lightgbm']</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>(0.37750502914397943, 0.2985219936826455, 0.289654338160286, 0.03431863901308904)</t>
+        </is>
+      </c>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
-        <v>28.98872871441158</v>
+        <v>42.92214522967643</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.2119884645128812</v>
+        <v>0.3249606615407484</v>
       </c>
       <c r="AB10" t="n">
-        <v>26.11818847473322</v>
+        <v>41.37462951003231</v>
       </c>
       <c r="AC10" t="n">
-        <v>-4.842162510707956</v>
+        <v>-11.80790603870531</v>
       </c>
       <c r="AD10" t="b">
         <v>0</v>
@@ -2509,88 +2513,80 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>avg_diff</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>combo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'order': (2, 1, 0), 'seasonal_order': (0, 0, 0, 0), 'trend': 'n'}</t>
+          <t>{'how': 'simple', 'models': ('knn', 'svr', 'lightgbm', 'mlp'), 'determine_best_by': 'ValidationMetricValue'}</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>1</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>12</v>
       </c>
       <c r="I11" t="n">
-        <v>31.2214255632439</v>
+        <v>15.47824360920689</v>
       </c>
       <c r="J11" t="n">
-        <v>0.222043766235992</v>
+        <v>2.552418182298628</v>
       </c>
       <c r="K11" t="n">
-        <v>28.80656007132531</v>
+        <v>12.16352257682857</v>
       </c>
       <c r="L11" t="n">
-        <v>-5.776738874001598</v>
+        <v>0.03644129227673343</v>
       </c>
       <c r="M11" t="n">
-        <v>97.22709683736461</v>
+        <v>1.190644314653838</v>
       </c>
       <c r="N11" t="n">
-        <v>143.1</v>
+        <v>7.299999999999983</v>
       </c>
       <c r="O11" t="n">
-        <v>17.06000262857426</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.1109681522874506</v>
-      </c>
+        <v>10.53358229559637</v>
+      </c>
+      <c r="P11" t="inlineStr"/>
       <c r="Q11" t="n">
-        <v>12.53891118718837</v>
+        <v>8.087380688477008</v>
       </c>
       <c r="R11" t="n">
-        <v>0.7990680462059006</v>
-      </c>
-      <c r="S11" t="n">
-        <v>6</v>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="U11" t="n">
-        <v>23.33519647855596</v>
-      </c>
-      <c r="V11" t="b">
-        <v>1</v>
-      </c>
-      <c r="W11" t="inlineStr"/>
+        <v>0.6140677728207109</v>
+      </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>['knn', 'svr', 'lightgbm', 'mlp']</t>
+        </is>
+      </c>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
-        <v>31.2214255632439</v>
+        <v>52.19324316698118</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.222043766235992</v>
+        <v>0.4017411998726552</v>
       </c>
       <c r="AB11" t="n">
-        <v>28.80656007132531</v>
+        <v>50.75748502303693</v>
       </c>
       <c r="AC11" t="n">
-        <v>-5.776738874001598</v>
+        <v>-17.93842511294336</v>
       </c>
       <c r="AD11" t="b">
         <v>0</v>
@@ -2599,59 +2595,65 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>hwes</t>
+          <t>svr</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>hwes</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>svr</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>{'trend': None, 'seasonal': None, 'damped_trend': False}</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+          <t>{'kernel': 'linear', 'C': 0.5, 'epsilon': 0.1}</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>12</v>
       </c>
       <c r="I12" t="n">
-        <v>32.82034846925381</v>
+        <v>15.42743090957689</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2360683178911208</v>
+        <v>2.663201748036615</v>
       </c>
       <c r="K12" t="n">
-        <v>30.55050911157757</v>
+        <v>12.55213186407106</v>
       </c>
       <c r="L12" t="n">
-        <v>-6.488617857435266</v>
+        <v>0.04275733880856225</v>
       </c>
       <c r="M12" t="n">
-        <v>95.04949088842243</v>
+        <v>5.825054634025459</v>
       </c>
       <c r="N12" t="n">
-        <v>143.1</v>
+        <v>7.299999999999983</v>
       </c>
       <c r="O12" t="n">
-        <v>16.94468228690074</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.1119041572430496</v>
-      </c>
+        <v>13.1851989750924</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="n">
-        <v>12.61588789130988</v>
+        <v>10.07866745199715</v>
       </c>
       <c r="R12" t="n">
-        <v>0.80177534067004</v>
+        <v>0.3953107657836508</v>
       </c>
       <c r="S12" t="n">
         <v>6</v>
@@ -2662,25 +2664,23 @@
         </is>
       </c>
       <c r="U12" t="n">
-        <v>9.983651978305176</v>
-      </c>
-      <c r="V12" t="b">
-        <v>1</v>
-      </c>
+        <v>13.28520521964032</v>
+      </c>
+      <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="n">
-        <v>32.82034846925381</v>
+        <v>53.02427216351563</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.2360683178911208</v>
+        <v>0.4043486804474548</v>
       </c>
       <c r="AB12" t="n">
-        <v>30.55050911157757</v>
+        <v>50.93445481629846</v>
       </c>
       <c r="AC12" t="n">
-        <v>-6.488617857435266</v>
+        <v>-18.54630743389545</v>
       </c>
       <c r="AD12" t="b">
         <v>0</v>
@@ -2765,16 +2765,16 @@
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="n">
-        <v>41.34989122634924</v>
+        <v>82.53036552683987</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.2930811328491867</v>
+        <v>0.6433621236368247</v>
       </c>
       <c r="AB13" t="n">
-        <v>36.7195786360057</v>
+        <v>80.3028409353542</v>
       </c>
       <c r="AC13" t="n">
-        <v>-10.88677484107003</v>
+        <v>-46.35249105377765</v>
       </c>
       <c r="AD13" t="b">
         <v>0</v>
@@ -12558,11 +12558,11 @@
         <v>44348</v>
       </c>
       <c r="B751" t="n">
-        <v>1.713150451314456</v>
+        <v>106.4464056700604</v>
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>weighted_diff</t>
+          <t>silverkite</t>
         </is>
       </c>
     </row>
@@ -12571,11 +12571,11 @@
         <v>44378</v>
       </c>
       <c r="B752" t="n">
-        <v>1.13779891668527</v>
+        <v>106.4263143011974</v>
       </c>
       <c r="C752" t="inlineStr">
         <is>
-          <t>weighted_diff</t>
+          <t>silverkite</t>
         </is>
       </c>
     </row>
@@ -12584,11 +12584,11 @@
         <v>44409</v>
       </c>
       <c r="B753" t="n">
-        <v>-1.377851274605121</v>
+        <v>106.3759027663975</v>
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t>weighted_diff</t>
+          <t>silverkite</t>
         </is>
       </c>
     </row>
@@ -12597,11 +12597,11 @@
         <v>44440</v>
       </c>
       <c r="B754" t="n">
-        <v>-1.936266148178414</v>
+        <v>106.3440355923334</v>
       </c>
       <c r="C754" t="inlineStr">
         <is>
-          <t>weighted_diff</t>
+          <t>silverkite</t>
         </is>
       </c>
     </row>
@@ -12610,11 +12610,11 @@
         <v>44470</v>
       </c>
       <c r="B755" t="n">
-        <v>-2.446929014697899</v>
+        <v>106.3078988285164</v>
       </c>
       <c r="C755" t="inlineStr">
         <is>
-          <t>weighted_diff</t>
+          <t>silverkite</t>
         </is>
       </c>
     </row>
@@ -12623,11 +12623,11 @@
         <v>44501</v>
       </c>
       <c r="B756" t="n">
-        <v>-4.644534046607186</v>
+        <v>106.267680308882</v>
       </c>
       <c r="C756" t="inlineStr">
         <is>
-          <t>weighted_diff</t>
+          <t>silverkite</t>
         </is>
       </c>
     </row>
@@ -12636,11 +12636,11 @@
         <v>44531</v>
       </c>
       <c r="B757" t="n">
-        <v>-3.181259563012673</v>
+        <v>106.2423211157876</v>
       </c>
       <c r="C757" t="inlineStr">
         <is>
-          <t>weighted_diff</t>
+          <t>silverkite</t>
         </is>
       </c>
     </row>
@@ -12649,11 +12649,11 @@
         <v>44562</v>
       </c>
       <c r="B758" t="n">
-        <v>0.5182268321511831</v>
+        <v>106.1583053250758</v>
       </c>
       <c r="C758" t="inlineStr">
         <is>
-          <t>weighted_diff</t>
+          <t>silverkite</t>
         </is>
       </c>
     </row>
@@ -12662,11 +12662,11 @@
         <v>44593</v>
       </c>
       <c r="B759" t="n">
-        <v>0.7342859430364505</v>
+        <v>106.1835756179369</v>
       </c>
       <c r="C759" t="inlineStr">
         <is>
-          <t>weighted_diff</t>
+          <t>silverkite</t>
         </is>
       </c>
     </row>
@@ -12675,11 +12675,11 @@
         <v>44621</v>
       </c>
       <c r="B760" t="n">
-        <v>6.65057978143534</v>
+        <v>106.156807070408</v>
       </c>
       <c r="C760" t="inlineStr">
         <is>
-          <t>weighted_diff</t>
+          <t>silverkite</t>
         </is>
       </c>
     </row>
@@ -12688,11 +12688,11 @@
         <v>44652</v>
       </c>
       <c r="B761" t="n">
-        <v>3.580466867550484</v>
+        <v>106.1224254895254</v>
       </c>
       <c r="C761" t="inlineStr">
         <is>
-          <t>weighted_diff</t>
+          <t>silverkite</t>
         </is>
       </c>
     </row>
@@ -12701,11 +12701,11 @@
         <v>44682</v>
       </c>
       <c r="B762" t="n">
-        <v>2.28756120746856</v>
+        <v>106.0863863662919</v>
       </c>
       <c r="C762" t="inlineStr">
         <is>
-          <t>weighted_diff</t>
+          <t>silverkite</t>
         </is>
       </c>
     </row>
@@ -12714,11 +12714,11 @@
         <v>44713</v>
       </c>
       <c r="B763" t="n">
-        <v>1.603371003259901</v>
+        <v>106.0503626448521</v>
       </c>
       <c r="C763" t="inlineStr">
         <is>
-          <t>weighted_diff</t>
+          <t>silverkite</t>
         </is>
       </c>
     </row>
@@ -12727,11 +12727,11 @@
         <v>44743</v>
       </c>
       <c r="B764" t="n">
-        <v>1.202637936298244</v>
+        <v>106.0214989133861</v>
       </c>
       <c r="C764" t="inlineStr">
         <is>
-          <t>weighted_diff</t>
+          <t>silverkite</t>
         </is>
       </c>
     </row>
@@ -12740,11 +12740,11 @@
         <v>44774</v>
       </c>
       <c r="B765" t="n">
-        <v>-2.263346618918995</v>
+        <v>105.9809305343816</v>
       </c>
       <c r="C765" t="inlineStr">
         <is>
-          <t>weighted_diff</t>
+          <t>silverkite</t>
         </is>
       </c>
     </row>
@@ -12753,11 +12753,11 @@
         <v>44805</v>
       </c>
       <c r="B766" t="n">
-        <v>-1.795769932549789</v>
+        <v>105.9527357516209</v>
       </c>
       <c r="C766" t="inlineStr">
         <is>
-          <t>weighted_diff</t>
+          <t>silverkite</t>
         </is>
       </c>
     </row>
@@ -12766,11 +12766,11 @@
         <v>44835</v>
       </c>
       <c r="B767" t="n">
-        <v>-3.3951482628975</v>
+        <v>105.9030834407051</v>
       </c>
       <c r="C767" t="inlineStr">
         <is>
-          <t>weighted_diff</t>
+          <t>silverkite</t>
         </is>
       </c>
     </row>
@@ -12779,11 +12779,11 @@
         <v>44866</v>
       </c>
       <c r="B768" t="n">
-        <v>-4.338993764184368</v>
+        <v>105.8628649210707</v>
       </c>
       <c r="C768" t="inlineStr">
         <is>
-          <t>weighted_diff</t>
+          <t>silverkite</t>
         </is>
       </c>
     </row>
@@ -12792,11 +12792,11 @@
         <v>44896</v>
       </c>
       <c r="B769" t="n">
-        <v>-3.410880804229565</v>
+        <v>105.8375057279763</v>
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>weighted_diff</t>
+          <t>silverkite</t>
         </is>
       </c>
     </row>
@@ -12805,11 +12805,11 @@
         <v>44927</v>
       </c>
       <c r="B770" t="n">
-        <v>1.621276512205192</v>
+        <v>105.7677933847698</v>
       </c>
       <c r="C770" t="inlineStr">
         <is>
-          <t>weighted_diff</t>
+          <t>silverkite</t>
         </is>
       </c>
     </row>
@@ -12818,11 +12818,11 @@
         <v>44958</v>
       </c>
       <c r="B771" t="n">
-        <v>1.069304397338606</v>
+        <v>105.7830460137165</v>
       </c>
       <c r="C771" t="inlineStr">
         <is>
-          <t>weighted_diff</t>
+          <t>silverkite</t>
         </is>
       </c>
     </row>
@@ -12831,11 +12831,11 @@
         <v>44986</v>
       </c>
       <c r="B772" t="n">
-        <v>6.677320564926193</v>
+        <v>105.7519916825968</v>
       </c>
       <c r="C772" t="inlineStr">
         <is>
-          <t>weighted_diff</t>
+          <t>silverkite</t>
         </is>
       </c>
     </row>
@@ -12844,11 +12844,11 @@
         <v>45017</v>
       </c>
       <c r="B773" t="n">
-        <v>3.951200182977729</v>
+        <v>105.7015801477967</v>
       </c>
       <c r="C773" t="inlineStr">
         <is>
-          <t>weighted_diff</t>
+          <t>silverkite</t>
         </is>
       </c>
     </row>
@@ -12857,11 +12857,11 @@
         <v>45047</v>
       </c>
       <c r="B774" t="n">
-        <v>2.247742548818359</v>
+        <v>105.6917639936461</v>
       </c>
       <c r="C774" t="inlineStr">
         <is>
-          <t>weighted_diff</t>
+          <t>silverkite</t>
         </is>
       </c>
     </row>
@@ -12870,11 +12870,11 @@
         <v>45078</v>
       </c>
       <c r="B775" t="n">
-        <v>1.163962263997381</v>
+        <v>105.6499560232032</v>
       </c>
       <c r="C775" t="inlineStr">
         <is>
-          <t>weighted_diff</t>
+          <t>silverkite</t>
         </is>
       </c>
     </row>
@@ -12910,57 +12910,57 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>silverkite</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>weighted_level</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>avg_level</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>prophet</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>arima</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>hwes</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>knn</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>weighted_diff</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>knn</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>avg_diff</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>svr</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>mlp</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>silverkite</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>weighted_level</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>avg_level</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>prophet</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>arima</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>hwes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
@@ -12977,37 +12977,37 @@
         <v>118.8</v>
       </c>
       <c r="C2" t="n">
+        <v>106.4464056700604</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100.1191732925382</v>
+      </c>
+      <c r="E2" t="n">
+        <v>104.12516669316</v>
+      </c>
+      <c r="F2" t="n">
+        <v>121.2786608290207</v>
+      </c>
+      <c r="G2" t="n">
+        <v>93.72610938513647</v>
+      </c>
+      <c r="H2" t="n">
+        <v>95.04949088842243</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.04809911194152505</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-2.679999999999998</v>
+      </c>
+      <c r="K2" t="n">
         <v>-0.6789107870275194</v>
       </c>
-      <c r="D2" t="n">
-        <v>-2.679999999999998</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="L2" t="n">
         <v>-4.925230866809478</v>
       </c>
-      <c r="F2" t="n">
+      <c r="M2" t="n">
         <v>2.8267494407946</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-0.04809911194152505</v>
-      </c>
-      <c r="H2" t="n">
-        <v>106.4464056700604</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100.1191732925382</v>
-      </c>
-      <c r="J2" t="n">
-        <v>104.12516669316</v>
-      </c>
-      <c r="K2" t="n">
-        <v>121.2786608290207</v>
-      </c>
-      <c r="L2" t="n">
-        <v>93.72610938513647</v>
-      </c>
-      <c r="M2" t="n">
-        <v>95.04949088842243</v>
       </c>
       <c r="N2" t="n">
         <v>-19.79957379609099</v>
@@ -13021,37 +13021,37 @@
         <v>138.7</v>
       </c>
       <c r="C3" t="n">
+        <v>106.4263143011974</v>
+      </c>
+      <c r="D3" t="n">
+        <v>100.102780005432</v>
+      </c>
+      <c r="E3" t="n">
+        <v>102.5099851086401</v>
+      </c>
+      <c r="F3" t="n">
+        <v>113.3807601372476</v>
+      </c>
+      <c r="G3" t="n">
+        <v>95.18337510769284</v>
+      </c>
+      <c r="H3" t="n">
+        <v>95.04949088842243</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.04809911685291013</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.7199999999999989</v>
+      </c>
+      <c r="K3" t="n">
         <v>-0.9501625479249531</v>
       </c>
-      <c r="D3" t="n">
-        <v>-0.7199999999999989</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="L3" t="n">
         <v>-3.072161178970391</v>
       </c>
-      <c r="F3" t="n">
+      <c r="M3" t="n">
         <v>-1.25990846321783</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-0.04809911685291013</v>
-      </c>
-      <c r="H3" t="n">
-        <v>106.4263143011974</v>
-      </c>
-      <c r="I3" t="n">
-        <v>100.102780005432</v>
-      </c>
-      <c r="J3" t="n">
-        <v>102.5099851086401</v>
-      </c>
-      <c r="K3" t="n">
-        <v>113.3807601372476</v>
-      </c>
-      <c r="L3" t="n">
-        <v>95.18337510769284</v>
-      </c>
-      <c r="M3" t="n">
-        <v>95.04949088842243</v>
       </c>
       <c r="N3" t="n">
         <v>-10.26063713581083</v>
@@ -13065,37 +13065,37 @@
         <v>122.5</v>
       </c>
       <c r="C4" t="n">
+        <v>106.3759027663975</v>
+      </c>
+      <c r="D4" t="n">
+        <v>100.3696818902332</v>
+      </c>
+      <c r="E4" t="n">
+        <v>102.7601626732015</v>
+      </c>
+      <c r="F4" t="n">
+        <v>112.7922038068271</v>
+      </c>
+      <c r="G4" t="n">
+        <v>96.82305323115885</v>
+      </c>
+      <c r="H4" t="n">
+        <v>95.04949088842243</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.0480991214922426</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-0.3200000000000017</v>
+      </c>
+      <c r="K4" t="n">
         <v>-1.707178256107502</v>
       </c>
-      <c r="D4" t="n">
-        <v>-0.3200000000000017</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="L4" t="n">
         <v>-1.596153697641127</v>
       </c>
-      <c r="F4" t="n">
+      <c r="M4" t="n">
         <v>-5.432123017413437</v>
-      </c>
-      <c r="G4" t="n">
-        <v>-0.0480991214922426</v>
-      </c>
-      <c r="H4" t="n">
-        <v>106.3759027663975</v>
-      </c>
-      <c r="I4" t="n">
-        <v>100.3696818902332</v>
-      </c>
-      <c r="J4" t="n">
-        <v>102.7601626732015</v>
-      </c>
-      <c r="K4" t="n">
-        <v>112.7922038068271</v>
-      </c>
-      <c r="L4" t="n">
-        <v>96.82305323115885</v>
-      </c>
-      <c r="M4" t="n">
-        <v>95.04949088842243</v>
       </c>
       <c r="N4" t="n">
         <v>-0.584392651658826</v>
@@ -13109,37 +13109,37 @@
         <v>126.3</v>
       </c>
       <c r="C5" t="n">
+        <v>106.3440355923334</v>
+      </c>
+      <c r="D5" t="n">
+        <v>100.2203779005973</v>
+      </c>
+      <c r="E5" t="n">
+        <v>101.0047435451023</v>
+      </c>
+      <c r="F5" t="n">
+        <v>105.0621420223388</v>
+      </c>
+      <c r="G5" t="n">
+        <v>97.56330567731469</v>
+      </c>
+      <c r="H5" t="n">
+        <v>95.04949088842243</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.04809912623593959</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-1.700000000000003</v>
+      </c>
+      <c r="K5" t="n">
         <v>-3.10267831346131</v>
       </c>
-      <c r="D5" t="n">
-        <v>-1.700000000000003</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="L5" t="n">
         <v>-3.365572786033752</v>
       </c>
-      <c r="F5" t="n">
+      <c r="M5" t="n">
         <v>-8.518268860255077</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-0.04809912623593959</v>
-      </c>
-      <c r="H5" t="n">
-        <v>106.3440355923334</v>
-      </c>
-      <c r="I5" t="n">
-        <v>100.2203779005973</v>
-      </c>
-      <c r="J5" t="n">
-        <v>101.0047435451023</v>
-      </c>
-      <c r="K5" t="n">
-        <v>105.0621420223388</v>
-      </c>
-      <c r="L5" t="n">
-        <v>97.56330567731469</v>
-      </c>
-      <c r="M5" t="n">
-        <v>95.04949088842243</v>
       </c>
       <c r="N5" t="n">
         <v>-3.195923157643989</v>
@@ -13153,37 +13153,37 @@
         <v>131.2</v>
       </c>
       <c r="C6" t="n">
+        <v>106.3078988285164</v>
+      </c>
+      <c r="D6" t="n">
+        <v>100.4581199087532</v>
+      </c>
+      <c r="E6" t="n">
+        <v>102.72711534999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>111.9577281062473</v>
+      </c>
+      <c r="G6" t="n">
+        <v>97.59334357677371</v>
+      </c>
+      <c r="H6" t="n">
+        <v>95.04949088842243</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.04809913096005403</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-3.899999999999997</v>
+      </c>
+      <c r="K6" t="n">
         <v>-3.736277873735196</v>
       </c>
-      <c r="D6" t="n">
-        <v>-3.899999999999997</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="L6" t="n">
         <v>-1.561274638140157</v>
       </c>
-      <c r="F6" t="n">
+      <c r="M6" t="n">
         <v>-9.693335279169055</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-0.04809913096005403</v>
-      </c>
-      <c r="H6" t="n">
-        <v>106.3078988285164</v>
-      </c>
-      <c r="I6" t="n">
-        <v>100.4581199087532</v>
-      </c>
-      <c r="J6" t="n">
-        <v>102.72711534999</v>
-      </c>
-      <c r="K6" t="n">
-        <v>111.9577281062473</v>
-      </c>
-      <c r="L6" t="n">
-        <v>97.59334357677371</v>
-      </c>
-      <c r="M6" t="n">
-        <v>95.04949088842243</v>
       </c>
       <c r="N6" t="n">
         <v>7.39633585756848</v>
@@ -13197,37 +13197,37 @@
         <v>117.8</v>
       </c>
       <c r="C7" t="n">
+        <v>106.267680308882</v>
+      </c>
+      <c r="D7" t="n">
+        <v>99.567193099162</v>
+      </c>
+      <c r="E7" t="n">
+        <v>96.80285982896766</v>
+      </c>
+      <c r="F7" t="n">
+        <v>88.50842559929399</v>
+      </c>
+      <c r="G7" t="n">
+        <v>97.38584251927224</v>
+      </c>
+      <c r="H7" t="n">
+        <v>95.04949088842243</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.04809913558452195</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-3.920000000000002</v>
+      </c>
+      <c r="K7" t="n">
         <v>-4.692097941162833</v>
       </c>
-      <c r="D7" t="n">
-        <v>-3.920000000000002</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="L7" t="n">
         <v>-10.30669600227147</v>
       </c>
-      <c r="F7" t="n">
+      <c r="M7" t="n">
         <v>-8.71427971686551</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-0.04809913558452195</v>
-      </c>
-      <c r="H7" t="n">
-        <v>106.267680308882</v>
-      </c>
-      <c r="I7" t="n">
-        <v>99.567193099162</v>
-      </c>
-      <c r="J7" t="n">
-        <v>96.80285982896766</v>
-      </c>
-      <c r="K7" t="n">
-        <v>88.50842559929399</v>
-      </c>
-      <c r="L7" t="n">
-        <v>97.38584251927224</v>
-      </c>
-      <c r="M7" t="n">
-        <v>95.04949088842243</v>
       </c>
       <c r="N7" t="n">
         <v>-28.54440515663585</v>
@@ -13241,37 +13241,37 @@
         <v>115.1</v>
       </c>
       <c r="C8" t="n">
+        <v>106.2423211157876</v>
+      </c>
+      <c r="D8" t="n">
+        <v>98.97834422351939</v>
+      </c>
+      <c r="E8" t="n">
+        <v>92.90871992461618</v>
+      </c>
+      <c r="F8" t="n">
+        <v>73.11734278487691</v>
+      </c>
+      <c r="G8" t="n">
+        <v>97.2257249093778</v>
+      </c>
+      <c r="H8" t="n">
+        <v>95.04949088842243</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.04809914031491758</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-4.640000000000001</v>
+      </c>
+      <c r="K8" t="n">
         <v>-3.700693685061113</v>
       </c>
-      <c r="D8" t="n">
-        <v>-4.640000000000001</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="L8" t="n">
         <v>-7.281128174744778</v>
       </c>
-      <c r="F8" t="n">
+      <c r="M8" t="n">
         <v>-5.713143583858779</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-0.04809914031491758</v>
-      </c>
-      <c r="H8" t="n">
-        <v>106.2423211157876</v>
-      </c>
-      <c r="I8" t="n">
-        <v>98.97834422351939</v>
-      </c>
-      <c r="J8" t="n">
-        <v>92.90871992461618</v>
-      </c>
-      <c r="K8" t="n">
-        <v>73.11734278487691</v>
-      </c>
-      <c r="L8" t="n">
-        <v>97.2257249093778</v>
-      </c>
-      <c r="M8" t="n">
-        <v>95.04949088842243</v>
       </c>
       <c r="N8" t="n">
         <v>-18.72326997480542</v>
@@ -13285,37 +13285,37 @@
         <v>115.2</v>
       </c>
       <c r="C9" t="n">
+        <v>106.1583053250758</v>
+      </c>
+      <c r="D9" t="n">
+        <v>98.75926070489405</v>
+      </c>
+      <c r="E9" t="n">
+        <v>91.63422985149359</v>
+      </c>
+      <c r="F9" t="n">
+        <v>68.15548726509039</v>
+      </c>
+      <c r="G9" t="n">
+        <v>97.17363592738575</v>
+      </c>
+      <c r="H9" t="n">
+        <v>95.04949088842243</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.04809914497758427</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.259999999999997</v>
+      </c>
+      <c r="K9" t="n">
         <v>-0.0647133518806422</v>
       </c>
-      <c r="D9" t="n">
-        <v>2.259999999999997</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="L9" t="n">
         <v>-1.724346987883371</v>
       </c>
-      <c r="F9" t="n">
+      <c r="M9" t="n">
         <v>-1.600234497656915</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-0.04809914497758427</v>
-      </c>
-      <c r="H9" t="n">
-        <v>106.1583053250758</v>
-      </c>
-      <c r="I9" t="n">
-        <v>98.75926070489405</v>
-      </c>
-      <c r="J9" t="n">
-        <v>91.63422985149359</v>
-      </c>
-      <c r="K9" t="n">
-        <v>68.15548726509039</v>
-      </c>
-      <c r="L9" t="n">
-        <v>97.17363592738575</v>
-      </c>
-      <c r="M9" t="n">
-        <v>95.04949088842243</v>
       </c>
       <c r="N9" t="n">
         <v>-7.509054308898981</v>
@@ -13329,37 +13329,37 @@
         <v>102.1</v>
       </c>
       <c r="C10" t="n">
+        <v>106.1835756179369</v>
+      </c>
+      <c r="D10" t="n">
+        <v>98.7922134798134</v>
+      </c>
+      <c r="E10" t="n">
+        <v>91.79088974824802</v>
+      </c>
+      <c r="F10" t="n">
+        <v>68.74510987839574</v>
+      </c>
+      <c r="G10" t="n">
+        <v>97.18538260823703</v>
+      </c>
+      <c r="H10" t="n">
+        <v>95.04949088842243</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.04809914958775607</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.04000000000000057</v>
+      </c>
+      <c r="K10" t="n">
         <v>0.7810484618205762</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.04000000000000057</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="L10" t="n">
         <v>1.033953704275422</v>
       </c>
-      <c r="F10" t="n">
+      <c r="M10" t="n">
         <v>2.526288989634081</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-0.04809914958775607</v>
-      </c>
-      <c r="H10" t="n">
-        <v>106.1835756179369</v>
-      </c>
-      <c r="I10" t="n">
-        <v>98.7922134798134</v>
-      </c>
-      <c r="J10" t="n">
-        <v>91.79088974824802</v>
-      </c>
-      <c r="K10" t="n">
-        <v>68.74510987839574</v>
-      </c>
-      <c r="L10" t="n">
-        <v>97.18538260823703</v>
-      </c>
-      <c r="M10" t="n">
-        <v>95.04949088842243</v>
       </c>
       <c r="N10" t="n">
         <v>1.617624977055363</v>
@@ -13373,37 +13373,37 @@
         <v>140.6</v>
       </c>
       <c r="C11" t="n">
+        <v>106.156807070408</v>
+      </c>
+      <c r="D11" t="n">
+        <v>99.91018143532423</v>
+      </c>
+      <c r="E11" t="n">
+        <v>99.66426180171015</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100.2406918167905</v>
+      </c>
+      <c r="G11" t="n">
+        <v>97.21005743121962</v>
+      </c>
+      <c r="H11" t="n">
+        <v>95.04949088842243</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.04809915435495782</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.159999999999997</v>
+      </c>
+      <c r="K11" t="n">
         <v>3.671133623665547</v>
       </c>
-      <c r="D11" t="n">
-        <v>4.159999999999997</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="L11" t="n">
         <v>8.298667184501497</v>
       </c>
-      <c r="F11" t="n">
+      <c r="M11" t="n">
         <v>5.676287313735113</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-0.04809915435495782</v>
-      </c>
-      <c r="H11" t="n">
-        <v>106.156807070408</v>
-      </c>
-      <c r="I11" t="n">
-        <v>99.91018143532423</v>
-      </c>
-      <c r="J11" t="n">
-        <v>99.66426180171015</v>
-      </c>
-      <c r="K11" t="n">
-        <v>100.2406918167905</v>
-      </c>
-      <c r="L11" t="n">
-        <v>97.21005743121962</v>
-      </c>
-      <c r="M11" t="n">
-        <v>95.04949088842243</v>
       </c>
       <c r="N11" t="n">
         <v>23.40648057862584</v>
@@ -13417,37 +13417,37 @@
         <v>135.8</v>
       </c>
       <c r="C12" t="n">
+        <v>106.1224254895254</v>
+      </c>
+      <c r="D12" t="n">
+        <v>100.4475470933439</v>
+      </c>
+      <c r="E12" t="n">
+        <v>103.49869960436</v>
+      </c>
+      <c r="F12" t="n">
+        <v>115.5985301063296</v>
+      </c>
+      <c r="G12" t="n">
+        <v>97.22435193316269</v>
+      </c>
+      <c r="H12" t="n">
+        <v>95.04949088842243</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.04809915885337546</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.9400000000000006</v>
+      </c>
+      <c r="K12" t="n">
         <v>1.65950606639422</v>
       </c>
-      <c r="D12" t="n">
-        <v>-0.9400000000000006</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="L12" t="n">
         <v>1.390763784153499</v>
       </c>
-      <c r="F12" t="n">
+      <c r="M12" t="n">
         <v>6.788896817895228</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-0.04809915885337546</v>
-      </c>
-      <c r="H12" t="n">
-        <v>106.1224254895254</v>
-      </c>
-      <c r="I12" t="n">
-        <v>100.4475470933439</v>
-      </c>
-      <c r="J12" t="n">
-        <v>103.49869960436</v>
-      </c>
-      <c r="K12" t="n">
-        <v>115.5985301063296</v>
-      </c>
-      <c r="L12" t="n">
-        <v>97.22435193316269</v>
-      </c>
-      <c r="M12" t="n">
-        <v>95.04949088842243</v>
       </c>
       <c r="N12" t="n">
         <v>-0.2377425224278563</v>
@@ -13461,37 +13461,37 @@
         <v>143.1</v>
       </c>
       <c r="C13" t="n">
+        <v>106.0863863662919</v>
+      </c>
+      <c r="D13" t="n">
+        <v>100.5877347397299</v>
+      </c>
+      <c r="E13" t="n">
+        <v>104.5662379252158</v>
+      </c>
+      <c r="F13" t="n">
+        <v>119.9019776087841</v>
+      </c>
+      <c r="G13" t="n">
+        <v>97.22709683736461</v>
+      </c>
+      <c r="H13" t="n">
+        <v>95.04949088842243</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.04809916354221855</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-2.760000000000002</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.9050813300675322</v>
       </c>
-      <c r="D13" t="n">
-        <v>-2.760000000000002</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="L13" t="n">
         <v>1.190644314653838</v>
       </c>
-      <c r="F13" t="n">
+      <c r="M13" t="n">
         <v>5.825054634025459</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-0.04809916354221855</v>
-      </c>
-      <c r="H13" t="n">
-        <v>106.0863863662919</v>
-      </c>
-      <c r="I13" t="n">
-        <v>100.5877347397299</v>
-      </c>
-      <c r="J13" t="n">
-        <v>104.5662379252158</v>
-      </c>
-      <c r="K13" t="n">
-        <v>119.9019776087841</v>
-      </c>
-      <c r="L13" t="n">
-        <v>97.22709683736461</v>
-      </c>
-      <c r="M13" t="n">
-        <v>95.04949088842243</v>
       </c>
       <c r="N13" t="n">
         <v>1.745621788132115</v>
@@ -13524,57 +13524,57 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>silverkite</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>weighted_level</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>avg_level</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>prophet</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>arima</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>hwes</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>knn</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>weighted_diff</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>knn</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>avg_diff</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>svr</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>mlp</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>silverkite</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>weighted_level</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>avg_level</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>prophet</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>arima</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>hwes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -13588,37 +13588,37 @@
         <v>44348</v>
       </c>
       <c r="B2" t="n">
+        <v>106.4464056700604</v>
+      </c>
+      <c r="C2" t="n">
+        <v>128.4450053914618</v>
+      </c>
+      <c r="D2" t="n">
+        <v>128.7560301677762</v>
+      </c>
+      <c r="E2" t="n">
+        <v>121.210930676829</v>
+      </c>
+      <c r="F2" t="n">
+        <v>144.266784432994</v>
+      </c>
+      <c r="G2" t="n">
+        <v>143.0999998912215</v>
+      </c>
+      <c r="H2" t="n">
+        <v>143.1198918614095</v>
+      </c>
+      <c r="I2" t="n">
+        <v>143.36</v>
+      </c>
+      <c r="J2" t="n">
         <v>144.8131504513144</v>
       </c>
-      <c r="C2" t="n">
-        <v>143.36</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="K2" t="n">
         <v>143.9491463507676</v>
       </c>
-      <c r="E2" t="n">
+      <c r="L2" t="n">
         <v>149.0571175505242</v>
-      </c>
-      <c r="F2" t="n">
-        <v>143.1198918614095</v>
-      </c>
-      <c r="G2" t="n">
-        <v>106.4464056700604</v>
-      </c>
-      <c r="H2" t="n">
-        <v>128.4450053914618</v>
-      </c>
-      <c r="I2" t="n">
-        <v>128.7560301677762</v>
-      </c>
-      <c r="J2" t="n">
-        <v>121.210930676829</v>
-      </c>
-      <c r="K2" t="n">
-        <v>144.266784432994</v>
-      </c>
-      <c r="L2" t="n">
-        <v>143.0999998912215</v>
       </c>
       <c r="M2" t="n">
         <v>140.2595759911366</v>
@@ -13629,37 +13629,37 @@
         <v>44378</v>
       </c>
       <c r="B3" t="n">
+        <v>106.4263143011974</v>
+      </c>
+      <c r="C3" t="n">
+        <v>128.2846702813131</v>
+      </c>
+      <c r="D3" t="n">
+        <v>127.3706722932292</v>
+      </c>
+      <c r="E3" t="n">
+        <v>115.3971655936528</v>
+      </c>
+      <c r="F3" t="n">
+        <v>144.5592093868451</v>
+      </c>
+      <c r="G3" t="n">
+        <v>143.0999998912215</v>
+      </c>
+      <c r="H3" t="n">
+        <v>143.1397830478468</v>
+      </c>
+      <c r="I3" t="n">
+        <v>145.04</v>
+      </c>
+      <c r="J3" t="n">
         <v>145.9509493679997</v>
       </c>
-      <c r="C3" t="n">
-        <v>145.04</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="K3" t="n">
         <v>145.3611581830431</v>
       </c>
-      <c r="E3" t="n">
+      <c r="L3" t="n">
         <v>150.9889962521817</v>
-      </c>
-      <c r="F3" t="n">
-        <v>143.1397830478468</v>
-      </c>
-      <c r="G3" t="n">
-        <v>106.4263143011974</v>
-      </c>
-      <c r="H3" t="n">
-        <v>128.2846702813131</v>
-      </c>
-      <c r="I3" t="n">
-        <v>127.3706722932292</v>
-      </c>
-      <c r="J3" t="n">
-        <v>115.3971655936528</v>
-      </c>
-      <c r="K3" t="n">
-        <v>144.5592093868451</v>
-      </c>
-      <c r="L3" t="n">
-        <v>143.0999998912215</v>
       </c>
       <c r="M3" t="n">
         <v>142.275853432144</v>
@@ -13670,37 +13670,37 @@
         <v>44409</v>
       </c>
       <c r="B4" t="n">
+        <v>106.3759027663975</v>
+      </c>
+      <c r="C4" t="n">
+        <v>128.2098301997401</v>
+      </c>
+      <c r="D4" t="n">
+        <v>126.9007795243096</v>
+      </c>
+      <c r="E4" t="n">
+        <v>113.5034203267793</v>
+      </c>
+      <c r="F4" t="n">
+        <v>144.6237951128402</v>
+      </c>
+      <c r="G4" t="n">
+        <v>143.0999998912215</v>
+      </c>
+      <c r="H4" t="n">
+        <v>143.1596735584329</v>
+      </c>
+      <c r="I4" t="n">
+        <v>143.64</v>
+      </c>
+      <c r="J4" t="n">
         <v>144.5730980933946</v>
       </c>
-      <c r="C4" t="n">
-        <v>143.64</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="K4" t="n">
         <v>143.7891116995172</v>
       </c>
-      <c r="E4" t="n">
+      <c r="L4" t="n">
         <v>147.8598186630606</v>
-      </c>
-      <c r="F4" t="n">
-        <v>143.1596735584329</v>
-      </c>
-      <c r="G4" t="n">
-        <v>106.3759027663975</v>
-      </c>
-      <c r="H4" t="n">
-        <v>128.2098301997401</v>
-      </c>
-      <c r="I4" t="n">
-        <v>126.9007795243096</v>
-      </c>
-      <c r="J4" t="n">
-        <v>113.5034203267793</v>
-      </c>
-      <c r="K4" t="n">
-        <v>144.6237951128402</v>
-      </c>
-      <c r="L4" t="n">
-        <v>143.0999998912215</v>
       </c>
       <c r="M4" t="n">
         <v>140.4969545765753</v>
@@ -13711,37 +13711,37 @@
         <v>44440</v>
       </c>
       <c r="B5" t="n">
+        <v>106.3440355923334</v>
+      </c>
+      <c r="C5" t="n">
+        <v>127.9563178378245</v>
+      </c>
+      <c r="D5" t="n">
+        <v>125.1865287499134</v>
+      </c>
+      <c r="E5" t="n">
+        <v>106.6635638332916</v>
+      </c>
+      <c r="F5" t="n">
+        <v>144.6385156828069</v>
+      </c>
+      <c r="G5" t="n">
+        <v>143.0999998912215</v>
+      </c>
+      <c r="H5" t="n">
+        <v>143.1795633992477</v>
+      </c>
+      <c r="I5" t="n">
+        <v>143.3</v>
+      </c>
+      <c r="J5" t="n">
         <v>142.6368319452162</v>
       </c>
-      <c r="C5" t="n">
-        <v>143.3</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="K5" t="n">
         <v>140.7727489399235</v>
       </c>
-      <c r="E5" t="n">
+      <c r="L5" t="n">
         <v>142.223344498457</v>
-      </c>
-      <c r="F5" t="n">
-        <v>143.1795633992477</v>
-      </c>
-      <c r="G5" t="n">
-        <v>106.3440355923334</v>
-      </c>
-      <c r="H5" t="n">
-        <v>127.9563178378245</v>
-      </c>
-      <c r="I5" t="n">
-        <v>125.1865287499134</v>
-      </c>
-      <c r="J5" t="n">
-        <v>106.6635638332916</v>
-      </c>
-      <c r="K5" t="n">
-        <v>144.6385156828069</v>
-      </c>
-      <c r="L5" t="n">
-        <v>143.0999998912215</v>
       </c>
       <c r="M5" t="n">
         <v>134.3880878619892</v>
@@ -13752,37 +13752,37 @@
         <v>44470</v>
       </c>
       <c r="B6" t="n">
+        <v>106.3078988285164</v>
+      </c>
+      <c r="C6" t="n">
+        <v>128.1183983828476</v>
+      </c>
+      <c r="D6" t="n">
+        <v>126.4071005347615</v>
+      </c>
+      <c r="E6" t="n">
+        <v>111.5786596921732</v>
+      </c>
+      <c r="F6" t="n">
+        <v>144.6418437271347</v>
+      </c>
+      <c r="G6" t="n">
+        <v>143.0999998912215</v>
+      </c>
+      <c r="H6" t="n">
+        <v>143.199452568935</v>
+      </c>
+      <c r="I6" t="n">
+        <v>140.02</v>
+      </c>
+      <c r="J6" t="n">
         <v>140.1899029305183</v>
       </c>
-      <c r="C6" t="n">
-        <v>140.02</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="K6" t="n">
         <v>139.8760858989851</v>
       </c>
-      <c r="E6" t="n">
+      <c r="L6" t="n">
         <v>136.4894080072182</v>
-      </c>
-      <c r="F6" t="n">
-        <v>143.199452568935</v>
-      </c>
-      <c r="G6" t="n">
-        <v>106.3078988285164</v>
-      </c>
-      <c r="H6" t="n">
-        <v>128.1183983828476</v>
-      </c>
-      <c r="I6" t="n">
-        <v>126.4071005347615</v>
-      </c>
-      <c r="J6" t="n">
-        <v>111.5786596921732</v>
-      </c>
-      <c r="K6" t="n">
-        <v>144.6418437271347</v>
-      </c>
-      <c r="L6" t="n">
-        <v>143.0999998912215</v>
       </c>
       <c r="M6" t="n">
         <v>139.7954830197872</v>
@@ -13793,37 +13793,37 @@
         <v>44501</v>
       </c>
       <c r="B7" t="n">
+        <v>106.267680308882</v>
+      </c>
+      <c r="C7" t="n">
+        <v>127.3271651967546</v>
+      </c>
+      <c r="D7" t="n">
+        <v>120.9600257760862</v>
+      </c>
+      <c r="E7" t="n">
+        <v>89.82982520681512</v>
+      </c>
+      <c r="F7" t="n">
+        <v>144.6425976974261</v>
+      </c>
+      <c r="G7" t="n">
+        <v>143.0999998912215</v>
+      </c>
+      <c r="H7" t="n">
+        <v>143.2193410746209</v>
+      </c>
+      <c r="I7" t="n">
+        <v>133.8</v>
+      </c>
+      <c r="J7" t="n">
         <v>135.5453688839111</v>
       </c>
-      <c r="C7" t="n">
-        <v>133.8</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="K7" t="n">
         <v>133.4545662389387</v>
       </c>
-      <c r="E7" t="n">
+      <c r="L7" t="n">
         <v>128.1611429364819</v>
-      </c>
-      <c r="F7" t="n">
-        <v>143.2193410746209</v>
-      </c>
-      <c r="G7" t="n">
-        <v>106.267680308882</v>
-      </c>
-      <c r="H7" t="n">
-        <v>127.3271651967546</v>
-      </c>
-      <c r="I7" t="n">
-        <v>120.9600257760862</v>
-      </c>
-      <c r="J7" t="n">
-        <v>89.82982520681512</v>
-      </c>
-      <c r="K7" t="n">
-        <v>144.6425976974261</v>
-      </c>
-      <c r="L7" t="n">
-        <v>143.0999998912215</v>
       </c>
       <c r="M7" t="n">
         <v>128.6377809446518</v>
@@ -13834,37 +13834,37 @@
         <v>44531</v>
       </c>
       <c r="B8" t="n">
+        <v>106.2423211157876</v>
+      </c>
+      <c r="C8" t="n">
+        <v>126.7684938357988</v>
+      </c>
+      <c r="D8" t="n">
+        <v>117.1069312713966</v>
+      </c>
+      <c r="E8" t="n">
+        <v>74.44263565948754</v>
+      </c>
+      <c r="F8" t="n">
+        <v>144.6427684190898</v>
+      </c>
+      <c r="G8" t="n">
+        <v>143.0999998912215</v>
+      </c>
+      <c r="H8" t="n">
+        <v>143.239228912215</v>
+      </c>
+      <c r="I8" t="n">
+        <v>127.12</v>
+      </c>
+      <c r="J8" t="n">
         <v>132.3641093208984</v>
       </c>
-      <c r="C8" t="n">
-        <v>127.12</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="K8" t="n">
         <v>129.0055075714613</v>
       </c>
-      <c r="E8" t="n">
+      <c r="L8" t="n">
         <v>124.9791991726596</v>
-      </c>
-      <c r="F8" t="n">
-        <v>143.239228912215</v>
-      </c>
-      <c r="G8" t="n">
-        <v>106.2423211157876</v>
-      </c>
-      <c r="H8" t="n">
-        <v>126.7684938357988</v>
-      </c>
-      <c r="I8" t="n">
-        <v>117.1069312713966</v>
-      </c>
-      <c r="J8" t="n">
-        <v>74.44263565948754</v>
-      </c>
-      <c r="K8" t="n">
-        <v>144.6427684190898</v>
-      </c>
-      <c r="L8" t="n">
-        <v>143.0999998912215</v>
       </c>
       <c r="M8" t="n">
         <v>120.6836022009707</v>
@@ -13875,37 +13875,37 @@
         <v>44562</v>
       </c>
       <c r="B9" t="n">
+        <v>106.1583053250758</v>
+      </c>
+      <c r="C9" t="n">
+        <v>126.5664673253489</v>
+      </c>
+      <c r="D9" t="n">
+        <v>115.8965445617095</v>
+      </c>
+      <c r="E9" t="n">
+        <v>69.68506594964725</v>
+      </c>
+      <c r="F9" t="n">
+        <v>144.6428070808934</v>
+      </c>
+      <c r="G9" t="n">
+        <v>143.0999998912215</v>
+      </c>
+      <c r="H9" t="n">
+        <v>143.2591160873709</v>
+      </c>
+      <c r="I9" t="n">
+        <v>128.98</v>
+      </c>
+      <c r="J9" t="n">
         <v>132.8823361530496</v>
       </c>
-      <c r="C9" t="n">
-        <v>128.98</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="K9" t="n">
         <v>128.6345973190309</v>
       </c>
-      <c r="E9" t="n">
+      <c r="L9" t="n">
         <v>125.2568733290295</v>
-      </c>
-      <c r="F9" t="n">
-        <v>143.2591160873709</v>
-      </c>
-      <c r="G9" t="n">
-        <v>106.1583053250758</v>
-      </c>
-      <c r="H9" t="n">
-        <v>126.5664673253489</v>
-      </c>
-      <c r="I9" t="n">
-        <v>115.8965445617095</v>
-      </c>
-      <c r="J9" t="n">
-        <v>69.68506594964725</v>
-      </c>
-      <c r="K9" t="n">
-        <v>144.6428070808934</v>
-      </c>
-      <c r="L9" t="n">
-        <v>143.0999998912215</v>
       </c>
       <c r="M9" t="n">
         <v>117.0423998597234</v>
@@ -13916,37 +13916,37 @@
         <v>44593</v>
       </c>
       <c r="B10" t="n">
+        <v>106.1835756179369</v>
+      </c>
+      <c r="C10" t="n">
+        <v>126.6392843589619</v>
+      </c>
+      <c r="D10" t="n">
+        <v>116.3450340130561</v>
+      </c>
+      <c r="E10" t="n">
+        <v>71.4537447070857</v>
+      </c>
+      <c r="F10" t="n">
+        <v>144.6428158359803</v>
+      </c>
+      <c r="G10" t="n">
+        <v>143.0999998912215</v>
+      </c>
+      <c r="H10" t="n">
+        <v>143.2790026025121</v>
+      </c>
+      <c r="I10" t="n">
+        <v>129.82</v>
+      </c>
+      <c r="J10" t="n">
         <v>133.616622096086</v>
       </c>
-      <c r="C10" t="n">
-        <v>129.82</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="K10" t="n">
         <v>129.2058718316117</v>
       </c>
-      <c r="E10" t="n">
+      <c r="L10" t="n">
         <v>126.9296080468867</v>
-      </c>
-      <c r="F10" t="n">
-        <v>143.2790026025121</v>
-      </c>
-      <c r="G10" t="n">
-        <v>106.1835756179369</v>
-      </c>
-      <c r="H10" t="n">
-        <v>126.6392843589619</v>
-      </c>
-      <c r="I10" t="n">
-        <v>116.3450340130561</v>
-      </c>
-      <c r="J10" t="n">
-        <v>71.4537447070857</v>
-      </c>
-      <c r="K10" t="n">
-        <v>144.6428158359803</v>
-      </c>
-      <c r="L10" t="n">
-        <v>143.0999998912215</v>
       </c>
       <c r="M10" t="n">
         <v>116.794876677048</v>
@@ -13957,37 +13957,37 @@
         <v>44621</v>
       </c>
       <c r="B11" t="n">
+        <v>106.156807070408</v>
+      </c>
+      <c r="C11" t="n">
+        <v>127.6554847398075</v>
+      </c>
+      <c r="D11" t="n">
+        <v>123.5315012530844</v>
+      </c>
+      <c r="E11" t="n">
+        <v>100.2263802320934</v>
+      </c>
+      <c r="F11" t="n">
+        <v>144.6428178186148</v>
+      </c>
+      <c r="G11" t="n">
+        <v>143.0999998912215</v>
+      </c>
+      <c r="H11" t="n">
+        <v>143.2988884564965</v>
+      </c>
+      <c r="I11" t="n">
+        <v>140.54</v>
+      </c>
+      <c r="J11" t="n">
         <v>140.2672018775214</v>
       </c>
-      <c r="C11" t="n">
-        <v>140.54</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="K11" t="n">
         <v>139.6745546486821</v>
       </c>
-      <c r="E11" t="n">
+      <c r="L11" t="n">
         <v>136.2287835507361</v>
-      </c>
-      <c r="F11" t="n">
-        <v>143.2988884564965</v>
-      </c>
-      <c r="G11" t="n">
-        <v>106.156807070408</v>
-      </c>
-      <c r="H11" t="n">
-        <v>127.6554847398075</v>
-      </c>
-      <c r="I11" t="n">
-        <v>123.5315012530844</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100.2263802320934</v>
-      </c>
-      <c r="K11" t="n">
-        <v>144.6428178186148</v>
-      </c>
-      <c r="L11" t="n">
-        <v>143.0999998912215</v>
       </c>
       <c r="M11" t="n">
         <v>138.6305465874957</v>
@@ -13998,37 +13998,37 @@
         <v>44652</v>
       </c>
       <c r="B12" t="n">
+        <v>106.1224254895254</v>
+      </c>
+      <c r="C12" t="n">
+        <v>128.1916194992442</v>
+      </c>
+      <c r="D12" t="n">
+        <v>127.3725114371828</v>
+      </c>
+      <c r="E12" t="n">
+        <v>115.6248021003925</v>
+      </c>
+      <c r="F12" t="n">
+        <v>144.6428182675917</v>
+      </c>
+      <c r="G12" t="n">
+        <v>143.0999998912215</v>
+      </c>
+      <c r="H12" t="n">
+        <v>143.3187736561816</v>
+      </c>
+      <c r="I12" t="n">
+        <v>147.98</v>
+      </c>
+      <c r="J12" t="n">
         <v>143.8476687450718</v>
       </c>
-      <c r="C12" t="n">
-        <v>147.98</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="K12" t="n">
         <v>143.2220081450475</v>
       </c>
-      <c r="E12" t="n">
+      <c r="L12" t="n">
         <v>140.6190606597581</v>
-      </c>
-      <c r="F12" t="n">
-        <v>143.3187736561816</v>
-      </c>
-      <c r="G12" t="n">
-        <v>106.1224254895254</v>
-      </c>
-      <c r="H12" t="n">
-        <v>128.1916194992442</v>
-      </c>
-      <c r="I12" t="n">
-        <v>127.3725114371828</v>
-      </c>
-      <c r="J12" t="n">
-        <v>115.6248021003925</v>
-      </c>
-      <c r="K12" t="n">
-        <v>144.6428182675917</v>
-      </c>
-      <c r="L12" t="n">
-        <v>143.0999998912215</v>
       </c>
       <c r="M12" t="n">
         <v>140.9701982642502</v>
@@ -14039,37 +14039,37 @@
         <v>44682</v>
       </c>
       <c r="B13" t="n">
+        <v>106.0863863662919</v>
+      </c>
+      <c r="C13" t="n">
+        <v>128.3991697916235</v>
+      </c>
+      <c r="D13" t="n">
+        <v>128.9150128826804</v>
+      </c>
+      <c r="E13" t="n">
+        <v>121.8308469039438</v>
+      </c>
+      <c r="F13" t="n">
+        <v>144.6428183692646</v>
+      </c>
+      <c r="G13" t="n">
+        <v>143.0999998912215</v>
+      </c>
+      <c r="H13" t="n">
+        <v>143.3386581944407</v>
+      </c>
+      <c r="I13" t="n">
+        <v>146.74</v>
+      </c>
+      <c r="J13" t="n">
         <v>146.1352299525404</v>
       </c>
-      <c r="C13" t="n">
-        <v>146.74</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="K13" t="n">
         <v>146.859758380115</v>
       </c>
-      <c r="E13" t="n">
+      <c r="L13" t="n">
         <v>148.8786918936586</v>
-      </c>
-      <c r="F13" t="n">
-        <v>143.3386581944407</v>
-      </c>
-      <c r="G13" t="n">
-        <v>106.0863863662919</v>
-      </c>
-      <c r="H13" t="n">
-        <v>128.3991697916235</v>
-      </c>
-      <c r="I13" t="n">
-        <v>128.9150128826804</v>
-      </c>
-      <c r="J13" t="n">
-        <v>121.8308469039438</v>
-      </c>
-      <c r="K13" t="n">
-        <v>144.6428183692646</v>
-      </c>
-      <c r="L13" t="n">
-        <v>143.0999998912215</v>
       </c>
       <c r="M13" t="n">
         <v>148.481683432361</v>
@@ -14080,37 +14080,37 @@
         <v>44713</v>
       </c>
       <c r="B14" t="n">
+        <v>106.0503626448521</v>
+      </c>
+      <c r="C14" t="n">
+        <v>128.322300350126</v>
+      </c>
+      <c r="D14" t="n">
+        <v>128.4644011917618</v>
+      </c>
+      <c r="E14" t="n">
+        <v>120.0644238386848</v>
+      </c>
+      <c r="F14" t="n">
+        <v>144.6428183922889</v>
+      </c>
+      <c r="G14" t="n">
+        <v>143.0999998912215</v>
+      </c>
+      <c r="H14" t="n">
+        <v>143.3585420763382</v>
+      </c>
+      <c r="I14" t="n">
+        <v>145.66</v>
+      </c>
+      <c r="J14" t="n">
         <v>147.7386009558003</v>
       </c>
-      <c r="C14" t="n">
-        <v>145.66</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="K14" t="n">
         <v>147.3001639352256</v>
       </c>
-      <c r="E14" t="n">
+      <c r="L14" t="n">
         <v>156.0121647205117</v>
-      </c>
-      <c r="F14" t="n">
-        <v>143.3585420763382</v>
-      </c>
-      <c r="G14" t="n">
-        <v>106.0503626448521</v>
-      </c>
-      <c r="H14" t="n">
-        <v>128.322300350126</v>
-      </c>
-      <c r="I14" t="n">
-        <v>128.4644011917618</v>
-      </c>
-      <c r="J14" t="n">
-        <v>120.0644238386848</v>
-      </c>
-      <c r="K14" t="n">
-        <v>144.6428183922889</v>
-      </c>
-      <c r="L14" t="n">
-        <v>143.0999998912215</v>
       </c>
       <c r="M14" t="n">
         <v>144.1699489440525</v>
@@ -14121,37 +14121,37 @@
         <v>44743</v>
       </c>
       <c r="B15" t="n">
+        <v>106.0214989133861</v>
+      </c>
+      <c r="C15" t="n">
+        <v>128.1440742450908</v>
+      </c>
+      <c r="D15" t="n">
+        <v>127.2860301430898</v>
+      </c>
+      <c r="E15" t="n">
+        <v>115.3798033702486</v>
+      </c>
+      <c r="F15" t="n">
+        <v>144.6428183975029</v>
+      </c>
+      <c r="G15" t="n">
+        <v>143.0999998912215</v>
+      </c>
+      <c r="H15" t="n">
+        <v>143.3784253059173</v>
+      </c>
+      <c r="I15" t="n">
+        <v>146.74</v>
+      </c>
+      <c r="J15" t="n">
         <v>148.9412388920985</v>
       </c>
-      <c r="C15" t="n">
-        <v>146.74</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="K15" t="n">
         <v>148.331861875191</v>
       </c>
-      <c r="E15" t="n">
+      <c r="L15" t="n">
         <v>159.0232939333507</v>
-      </c>
-      <c r="F15" t="n">
-        <v>143.3784253059173</v>
-      </c>
-      <c r="G15" t="n">
-        <v>106.0214989133861</v>
-      </c>
-      <c r="H15" t="n">
-        <v>128.1440742450908</v>
-      </c>
-      <c r="I15" t="n">
-        <v>127.2860301430898</v>
-      </c>
-      <c r="J15" t="n">
-        <v>115.3798033702486</v>
-      </c>
-      <c r="K15" t="n">
-        <v>144.6428183975029</v>
-      </c>
-      <c r="L15" t="n">
-        <v>143.0999998912215</v>
       </c>
       <c r="M15" t="n">
         <v>144.1857282614959</v>
@@ -14162,37 +14162,37 @@
         <v>44774</v>
       </c>
       <c r="B16" t="n">
+        <v>105.9809305343816</v>
+      </c>
+      <c r="C16" t="n">
+        <v>128.0396915156067</v>
+      </c>
+      <c r="D16" t="n">
+        <v>126.6537271158749</v>
+      </c>
+      <c r="E16" t="n">
+        <v>112.8911596392129</v>
+      </c>
+      <c r="F16" t="n">
+        <v>144.6428183986836</v>
+      </c>
+      <c r="G16" t="n">
+        <v>143.0999998912215</v>
+      </c>
+      <c r="H16" t="n">
+        <v>143.3983078897597</v>
+      </c>
+      <c r="I16" t="n">
+        <v>144.16</v>
+      </c>
+      <c r="J16" t="n">
         <v>146.6778922731795</v>
       </c>
-      <c r="C16" t="n">
-        <v>144.16</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="K16" t="n">
         <v>145.1159003770417</v>
       </c>
-      <c r="E16" t="n">
+      <c r="L16" t="n">
         <v>154.5309502738544</v>
-      </c>
-      <c r="F16" t="n">
-        <v>143.3983078897597</v>
-      </c>
-      <c r="G16" t="n">
-        <v>105.9809305343816</v>
-      </c>
-      <c r="H16" t="n">
-        <v>128.0396915156067</v>
-      </c>
-      <c r="I16" t="n">
-        <v>126.6537271158749</v>
-      </c>
-      <c r="J16" t="n">
-        <v>112.8911596392129</v>
-      </c>
-      <c r="K16" t="n">
-        <v>144.6428183986836</v>
-      </c>
-      <c r="L16" t="n">
-        <v>143.0999998912215</v>
       </c>
       <c r="M16" t="n">
         <v>138.3743433445528</v>
@@ -14203,37 +14203,37 @@
         <v>44805</v>
       </c>
       <c r="B17" t="n">
+        <v>105.9527357516209</v>
+      </c>
+      <c r="C17" t="n">
+        <v>127.8103406568948</v>
+      </c>
+      <c r="D17" t="n">
+        <v>125.1154634914727</v>
+      </c>
+      <c r="E17" t="n">
+        <v>106.7662999240974</v>
+      </c>
+      <c r="F17" t="n">
+        <v>144.642818398951</v>
+      </c>
+      <c r="G17" t="n">
+        <v>143.0999998912215</v>
+      </c>
+      <c r="H17" t="n">
+        <v>143.4181898210568</v>
+      </c>
+      <c r="I17" t="n">
+        <v>143.82</v>
+      </c>
+      <c r="J17" t="n">
         <v>144.8821223406297</v>
       </c>
-      <c r="C17" t="n">
-        <v>143.82</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="K17" t="n">
         <v>142.8303743222179</v>
       </c>
-      <c r="E17" t="n">
+      <c r="L17" t="n">
         <v>149.0518126901033</v>
-      </c>
-      <c r="F17" t="n">
-        <v>143.4181898210568</v>
-      </c>
-      <c r="G17" t="n">
-        <v>105.9527357516209</v>
-      </c>
-      <c r="H17" t="n">
-        <v>127.8103406568948</v>
-      </c>
-      <c r="I17" t="n">
-        <v>125.1154634914727</v>
-      </c>
-      <c r="J17" t="n">
-        <v>106.7662999240974</v>
-      </c>
-      <c r="K17" t="n">
-        <v>144.642818398951</v>
-      </c>
-      <c r="L17" t="n">
-        <v>143.0999998912215</v>
       </c>
       <c r="M17" t="n">
         <v>135.0314947777119</v>
@@ -14244,37 +14244,37 @@
         <v>44835</v>
       </c>
       <c r="B18" t="n">
+        <v>105.9030834407051</v>
+      </c>
+      <c r="C18" t="n">
+        <v>127.9015205226337</v>
+      </c>
+      <c r="D18" t="n">
+        <v>125.8757719839404</v>
+      </c>
+      <c r="E18" t="n">
+        <v>109.8571862048235</v>
+      </c>
+      <c r="F18" t="n">
+        <v>144.6428183990115</v>
+      </c>
+      <c r="G18" t="n">
+        <v>143.0999998912215</v>
+      </c>
+      <c r="H18" t="n">
+        <v>143.4380711043557</v>
+      </c>
+      <c r="I18" t="n">
+        <v>138.68</v>
+      </c>
+      <c r="J18" t="n">
         <v>141.4869740777322</v>
       </c>
-      <c r="C18" t="n">
-        <v>138.68</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="K18" t="n">
         <v>140.1465918696358</v>
       </c>
-      <c r="E18" t="n">
+      <c r="L18" t="n">
         <v>142.4896634621676</v>
-      </c>
-      <c r="F18" t="n">
-        <v>143.4380711043557</v>
-      </c>
-      <c r="G18" t="n">
-        <v>105.9030834407051</v>
-      </c>
-      <c r="H18" t="n">
-        <v>127.9015205226337</v>
-      </c>
-      <c r="I18" t="n">
-        <v>125.8757719839404</v>
-      </c>
-      <c r="J18" t="n">
-        <v>109.8571862048235</v>
-      </c>
-      <c r="K18" t="n">
-        <v>144.6428183990115</v>
-      </c>
-      <c r="L18" t="n">
-        <v>143.0999998912215</v>
       </c>
       <c r="M18" t="n">
         <v>135.9786329120202</v>
@@ -14285,37 +14285,37 @@
         <v>44866</v>
       </c>
       <c r="B19" t="n">
+        <v>105.8628649210707</v>
+      </c>
+      <c r="C19" t="n">
+        <v>127.1731318678748</v>
+      </c>
+      <c r="D19" t="n">
+        <v>120.8698828729475</v>
+      </c>
+      <c r="E19" t="n">
+        <v>89.87384828047261</v>
+      </c>
+      <c r="F19" t="n">
+        <v>144.6428183990252</v>
+      </c>
+      <c r="G19" t="n">
+        <v>143.0999998912215</v>
+      </c>
+      <c r="H19" t="n">
+        <v>143.4579517442423</v>
+      </c>
+      <c r="I19" t="n">
+        <v>132.46</v>
+      </c>
+      <c r="J19" t="n">
         <v>137.1479803135479</v>
       </c>
-      <c r="C19" t="n">
-        <v>132.46</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="K19" t="n">
         <v>135.2115237493582</v>
       </c>
-      <c r="E19" t="n">
+      <c r="L19" t="n">
         <v>134.5588790687592</v>
-      </c>
-      <c r="F19" t="n">
-        <v>143.4579517442423</v>
-      </c>
-      <c r="G19" t="n">
-        <v>105.8628649210707</v>
-      </c>
-      <c r="H19" t="n">
-        <v>127.1731318678748</v>
-      </c>
-      <c r="I19" t="n">
-        <v>120.8698828729475</v>
-      </c>
-      <c r="J19" t="n">
-        <v>89.87384828047261</v>
-      </c>
-      <c r="K19" t="n">
-        <v>144.6428183990252</v>
-      </c>
-      <c r="L19" t="n">
-        <v>143.0999998912215</v>
       </c>
       <c r="M19" t="n">
         <v>130.3692641844314</v>
@@ -14326,37 +14326,37 @@
         <v>44896</v>
       </c>
       <c r="B20" t="n">
+        <v>105.8375057279763</v>
+      </c>
+      <c r="C20" t="n">
+        <v>126.589513332812</v>
+      </c>
+      <c r="D20" t="n">
+        <v>116.8421521866</v>
+      </c>
+      <c r="E20" t="n">
+        <v>73.78828472817402</v>
+      </c>
+      <c r="F20" t="n">
+        <v>144.6428183990283</v>
+      </c>
+      <c r="G20" t="n">
+        <v>143.0999998912215</v>
+      </c>
+      <c r="H20" t="n">
+        <v>143.4778317380555</v>
+      </c>
+      <c r="I20" t="n">
+        <v>125.78</v>
+      </c>
+      <c r="J20" t="n">
         <v>133.7370995093183</v>
       </c>
-      <c r="C20" t="n">
-        <v>125.78</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="K20" t="n">
         <v>130.454139060674</v>
       </c>
-      <c r="E20" t="n">
+      <c r="L20" t="n">
         <v>130.6434176954406</v>
-      </c>
-      <c r="F20" t="n">
-        <v>143.4778317380555</v>
-      </c>
-      <c r="G20" t="n">
-        <v>105.8375057279763</v>
-      </c>
-      <c r="H20" t="n">
-        <v>126.589513332812</v>
-      </c>
-      <c r="I20" t="n">
-        <v>116.8421521866</v>
-      </c>
-      <c r="J20" t="n">
-        <v>73.78828472817402</v>
-      </c>
-      <c r="K20" t="n">
-        <v>144.6428183990283</v>
-      </c>
-      <c r="L20" t="n">
-        <v>143.0999998912215</v>
       </c>
       <c r="M20" t="n">
         <v>121.9153068092002</v>
@@ -14367,37 +14367,37 @@
         <v>44927</v>
       </c>
       <c r="B21" t="n">
+        <v>105.7677933847698</v>
+      </c>
+      <c r="C21" t="n">
+        <v>126.3849784338038</v>
+      </c>
+      <c r="D21" t="n">
+        <v>115.5792673654316</v>
+      </c>
+      <c r="E21" t="n">
+        <v>68.80645778670622</v>
+      </c>
+      <c r="F21" t="n">
+        <v>144.642818399029</v>
+      </c>
+      <c r="G21" t="n">
+        <v>143.0999998912215</v>
+      </c>
+      <c r="H21" t="n">
+        <v>143.4977110895925</v>
+      </c>
+      <c r="I21" t="n">
+        <v>131.66</v>
+      </c>
+      <c r="J21" t="n">
         <v>135.3583760215235</v>
       </c>
-      <c r="C21" t="n">
-        <v>131.66</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="K21" t="n">
         <v>131.0922983493722</v>
       </c>
-      <c r="E21" t="n">
+      <c r="L21" t="n">
         <v>130.5389882354014</v>
-      </c>
-      <c r="F21" t="n">
-        <v>143.4977110895925</v>
-      </c>
-      <c r="G21" t="n">
-        <v>105.7677933847698</v>
-      </c>
-      <c r="H21" t="n">
-        <v>126.3849784338038</v>
-      </c>
-      <c r="I21" t="n">
-        <v>115.5792673654316</v>
-      </c>
-      <c r="J21" t="n">
-        <v>68.80645778670622</v>
-      </c>
-      <c r="K21" t="n">
-        <v>144.642818399029</v>
-      </c>
-      <c r="L21" t="n">
-        <v>143.0999998912215</v>
       </c>
       <c r="M21" t="n">
         <v>118.672494072495</v>
@@ -14408,37 +14408,37 @@
         <v>44958</v>
       </c>
       <c r="B22" t="n">
+        <v>105.7830460137165</v>
+      </c>
+      <c r="C22" t="n">
+        <v>126.5139485787636</v>
+      </c>
+      <c r="D22" t="n">
+        <v>116.4457458871977</v>
+      </c>
+      <c r="E22" t="n">
+        <v>72.25711924482371</v>
+      </c>
+      <c r="F22" t="n">
+        <v>144.6428183990292</v>
+      </c>
+      <c r="G22" t="n">
+        <v>143.0999998912215</v>
+      </c>
+      <c r="H22" t="n">
+        <v>143.5175898019608</v>
+      </c>
+      <c r="I22" t="n">
+        <v>132.74</v>
+      </c>
+      <c r="J22" t="n">
         <v>136.4276804188621</v>
       </c>
-      <c r="C22" t="n">
-        <v>132.74</v>
-      </c>
-      <c r="D22" t="n">
+      <c r="K22" t="n">
         <v>132.7754141682607</v>
       </c>
-      <c r="E22" t="n">
+      <c r="L22" t="n">
         <v>132.677716567392</v>
-      </c>
-      <c r="F22" t="n">
-        <v>143.5175898019608</v>
-      </c>
-      <c r="G22" t="n">
-        <v>105.7830460137165</v>
-      </c>
-      <c r="H22" t="n">
-        <v>126.5139485787636</v>
-      </c>
-      <c r="I22" t="n">
-        <v>116.4457458871977</v>
-      </c>
-      <c r="J22" t="n">
-        <v>72.25711924482371</v>
-      </c>
-      <c r="K22" t="n">
-        <v>144.6428183990292</v>
-      </c>
-      <c r="L22" t="n">
-        <v>143.0999998912215</v>
       </c>
       <c r="M22" t="n">
         <v>122.1663503036901</v>
@@ -14449,37 +14449,37 @@
         <v>44986</v>
       </c>
       <c r="B23" t="n">
+        <v>105.7519916825968</v>
+      </c>
+      <c r="C23" t="n">
+        <v>127.4367394127438</v>
+      </c>
+      <c r="D23" t="n">
+        <v>122.9881220872296</v>
+      </c>
+      <c r="E23" t="n">
+        <v>98.45767837607104</v>
+      </c>
+      <c r="F23" t="n">
+        <v>144.6428183990292</v>
+      </c>
+      <c r="G23" t="n">
+        <v>143.0999998912215</v>
+      </c>
+      <c r="H23" t="n">
+        <v>143.5374678672719</v>
+      </c>
+      <c r="I23" t="n">
+        <v>141.94</v>
+      </c>
+      <c r="J23" t="n">
         <v>143.1050009837883</v>
       </c>
-      <c r="C23" t="n">
-        <v>141.94</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="K23" t="n">
         <v>143.4277637600374</v>
       </c>
-      <c r="E23" t="n">
+      <c r="L23" t="n">
         <v>143.5556755392103</v>
-      </c>
-      <c r="F23" t="n">
-        <v>143.5374678672719</v>
-      </c>
-      <c r="G23" t="n">
-        <v>105.7519916825968</v>
-      </c>
-      <c r="H23" t="n">
-        <v>127.4367394127438</v>
-      </c>
-      <c r="I23" t="n">
-        <v>122.9881220872296</v>
-      </c>
-      <c r="J23" t="n">
-        <v>98.45767837607104</v>
-      </c>
-      <c r="K23" t="n">
-        <v>144.6428183990292</v>
-      </c>
-      <c r="L23" t="n">
-        <v>143.0999998912215</v>
       </c>
       <c r="M23" t="n">
         <v>144.6779116336675</v>
@@ -14490,37 +14490,37 @@
         <v>45017</v>
       </c>
       <c r="B24" t="n">
+        <v>105.7015801477967</v>
+      </c>
+      <c r="C24" t="n">
+        <v>127.9789154212466</v>
+      </c>
+      <c r="D24" t="n">
+        <v>126.9106486071038</v>
+      </c>
+      <c r="E24" t="n">
+        <v>114.1981959903677</v>
+      </c>
+      <c r="F24" t="n">
+        <v>144.6428183990292</v>
+      </c>
+      <c r="G24" t="n">
+        <v>143.0999998912215</v>
+      </c>
+      <c r="H24" t="n">
+        <v>143.5573453011682</v>
+      </c>
+      <c r="I24" t="n">
+        <v>147.8</v>
+      </c>
+      <c r="J24" t="n">
         <v>147.056201166766</v>
       </c>
-      <c r="C24" t="n">
-        <v>147.8</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="K24" t="n">
         <v>148.0327296765583</v>
       </c>
-      <c r="E24" t="n">
+      <c r="L24" t="n">
         <v>150.4642363628444</v>
-      </c>
-      <c r="F24" t="n">
-        <v>143.5573453011682</v>
-      </c>
-      <c r="G24" t="n">
-        <v>105.7015801477967</v>
-      </c>
-      <c r="H24" t="n">
-        <v>127.9789154212466</v>
-      </c>
-      <c r="I24" t="n">
-        <v>126.9106486071038</v>
-      </c>
-      <c r="J24" t="n">
-        <v>114.1981959903677</v>
-      </c>
-      <c r="K24" t="n">
-        <v>144.6428183990292</v>
-      </c>
-      <c r="L24" t="n">
-        <v>143.0999998912215</v>
       </c>
       <c r="M24" t="n">
         <v>150.3093370422207</v>
@@ -14531,37 +14531,37 @@
         <v>45047</v>
       </c>
       <c r="B25" t="n">
+        <v>105.6917639936461</v>
+      </c>
+      <c r="C25" t="n">
+        <v>128.2603901805917</v>
+      </c>
+      <c r="D25" t="n">
+        <v>128.907080668126</v>
+      </c>
+      <c r="E25" t="n">
+        <v>122.1937403886071</v>
+      </c>
+      <c r="F25" t="n">
+        <v>144.6428183990292</v>
+      </c>
+      <c r="G25" t="n">
+        <v>143.0999998912215</v>
+      </c>
+      <c r="H25" t="n">
+        <v>143.5772220971562</v>
+      </c>
+      <c r="I25" t="n">
+        <v>146.56</v>
+      </c>
+      <c r="J25" t="n">
         <v>149.3039437155844</v>
       </c>
-      <c r="C25" t="n">
-        <v>146.56</v>
-      </c>
-      <c r="D25" t="n">
+      <c r="K25" t="n">
         <v>151.8153820191767</v>
       </c>
-      <c r="E25" t="n">
+      <c r="L25" t="n">
         <v>158.4900288726939</v>
-      </c>
-      <c r="F25" t="n">
-        <v>143.5772220971562</v>
-      </c>
-      <c r="G25" t="n">
-        <v>105.6917639936461</v>
-      </c>
-      <c r="H25" t="n">
-        <v>128.2603901805917</v>
-      </c>
-      <c r="I25" t="n">
-        <v>128.907080668126</v>
-      </c>
-      <c r="J25" t="n">
-        <v>122.1937403886071</v>
-      </c>
-      <c r="K25" t="n">
-        <v>144.6428183990292</v>
-      </c>
-      <c r="L25" t="n">
-        <v>143.0999998912215</v>
       </c>
       <c r="M25" t="n">
         <v>158.6342771068567</v>
@@ -14572,37 +14572,37 @@
         <v>45078</v>
       </c>
       <c r="B26" t="n">
+        <v>105.6499560232032</v>
+      </c>
+      <c r="C26" t="n">
+        <v>128.127410637489</v>
+      </c>
+      <c r="D26" t="n">
+        <v>128.0774149495506</v>
+      </c>
+      <c r="E26" t="n">
+        <v>118.9168854847484</v>
+      </c>
+      <c r="F26" t="n">
+        <v>144.6428183990292</v>
+      </c>
+      <c r="G26" t="n">
+        <v>143.0999998912215</v>
+      </c>
+      <c r="H26" t="n">
+        <v>143.5970982597112</v>
+      </c>
+      <c r="I26" t="n">
+        <v>145.48</v>
+      </c>
+      <c r="J26" t="n">
         <v>150.4679059795817</v>
       </c>
-      <c r="C26" t="n">
-        <v>145.48</v>
-      </c>
-      <c r="D26" t="n">
+      <c r="K26" t="n">
         <v>152.2841190029172</v>
       </c>
-      <c r="E26" t="n">
+      <c r="L26" t="n">
         <v>163.8873744135571</v>
-      </c>
-      <c r="F26" t="n">
-        <v>143.5970982597112</v>
-      </c>
-      <c r="G26" t="n">
-        <v>105.6499560232032</v>
-      </c>
-      <c r="H26" t="n">
-        <v>128.127410637489</v>
-      </c>
-      <c r="I26" t="n">
-        <v>128.0774149495506</v>
-      </c>
-      <c r="J26" t="n">
-        <v>118.9168854847484</v>
-      </c>
-      <c r="K26" t="n">
-        <v>144.6428183990292</v>
-      </c>
-      <c r="L26" t="n">
-        <v>143.0999998912215</v>
       </c>
       <c r="M26" t="n">
         <v>156.1720033384005</v>

--- a/examples/housing_different_levels_results.xlsx
+++ b/examples/housing_different_levels_results.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD13"/>
+  <dimension ref="A1:AC13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,30 +561,25 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>integration</t>
+          <t>LevelTestSetRMSE</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>LevelTestSetRMSE</t>
+          <t>LevelTestSetMAPE</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>LevelTestSetMAPE</t>
+          <t>LevelTestSetMAE</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>LevelTestSetMAE</t>
+          <t>LevelTestSetR2</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>LevelTestSetR2</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>best_model</t>
         </is>
@@ -667,20 +662,19 @@
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
+      <c r="Y2" t="n">
+        <v>11.50454635250166</v>
+      </c>
       <c r="Z2" t="n">
-        <v>11.50454635250166</v>
+        <v>0.07152673974036526</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.07152673974036526</v>
+        <v>9.240909090909083</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.240909090909083</v>
-      </c>
-      <c r="AC2" t="n">
         <v>0.2898691261953685</v>
       </c>
-      <c r="AD2" t="b">
+      <c r="AC2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -761,20 +755,19 @@
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
+      <c r="Y3" t="n">
+        <v>13.94133807414187</v>
+      </c>
       <c r="Z3" t="n">
-        <v>13.94133807414187</v>
+        <v>0.08400850153712426</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.08400850153712426</v>
+        <v>11.20822104323386</v>
       </c>
       <c r="AB3" t="n">
-        <v>11.20822104323386</v>
-      </c>
-      <c r="AC3" t="n">
         <v>-0.04281751236428444</v>
       </c>
-      <c r="AD3" t="b">
+      <c r="AC3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -845,20 +838,19 @@
         </is>
       </c>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
+      <c r="Y4" t="n">
+        <v>15.95562595517319</v>
+      </c>
       <c r="Z4" t="n">
-        <v>15.95562595517319</v>
+        <v>0.08463658450209122</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.08463658450209122</v>
+        <v>11.62973176371296</v>
       </c>
       <c r="AB4" t="n">
-        <v>11.62973176371296</v>
-      </c>
-      <c r="AC4" t="n">
         <v>-0.3659257472569961</v>
       </c>
-      <c r="AD4" t="b">
+      <c r="AC4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -933,20 +925,19 @@
           <t>(0.5037345640809529, 0.25429622959167214, 0.19617515504728839, 0.045794051280086616)</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr"/>
+      <c r="Y5" t="n">
+        <v>19.01500041075325</v>
+      </c>
       <c r="Z5" t="n">
-        <v>19.01500041075325</v>
+        <v>0.1053342218885207</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.1053342218885207</v>
+        <v>14.41635614744408</v>
       </c>
       <c r="AB5" t="n">
-        <v>14.41635614744408</v>
-      </c>
-      <c r="AC5" t="n">
         <v>-0.9399568777075085</v>
       </c>
-      <c r="AD5" t="b">
+      <c r="AC5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1019,20 +1010,19 @@
           <t>(0.36019251399354146, 0.3067822594850791, 0.3002804525219665, 0.032744773999412856)</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr"/>
+      <c r="Y6" t="n">
+        <v>17.9737837677888</v>
+      </c>
       <c r="Z6" t="n">
-        <v>17.9737837677888</v>
+        <v>0.1223593271827317</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.1223593271827317</v>
+        <v>16.24685207735399</v>
       </c>
       <c r="AB6" t="n">
-        <v>16.24685207735399</v>
-      </c>
-      <c r="AC6" t="n">
         <v>-0.7333187035969146</v>
       </c>
-      <c r="AD6" t="b">
+      <c r="AC6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1109,20 +1099,19 @@
       </c>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
+      <c r="Y7" t="n">
+        <v>25.70272656117796</v>
+      </c>
       <c r="Z7" t="n">
-        <v>25.70272656117796</v>
+        <v>0.1669132378341833</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.1669132378341833</v>
+        <v>22.46905138817626</v>
       </c>
       <c r="AB7" t="n">
-        <v>22.46905138817626</v>
-      </c>
-      <c r="AC7" t="n">
         <v>-2.544522928958464</v>
       </c>
-      <c r="AD7" t="b">
+      <c r="AC7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1191,20 +1180,19 @@
         </is>
       </c>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
+      <c r="Y8" t="n">
+        <v>25.19599673944087</v>
+      </c>
       <c r="Z8" t="n">
-        <v>25.19599673944087</v>
+        <v>0.1815874552421515</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.1815874552421515</v>
+        <v>23.74514568272906</v>
       </c>
       <c r="AB8" t="n">
-        <v>23.74514568272906</v>
-      </c>
-      <c r="AC8" t="n">
         <v>-2.406139925925294</v>
       </c>
-      <c r="AD8" t="b">
+      <c r="AC8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1281,20 +1269,19 @@
       </c>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
+      <c r="Y9" t="n">
+        <v>30.33700974622201</v>
+      </c>
       <c r="Z9" t="n">
-        <v>30.33700974622201</v>
+        <v>0.2269011128061198</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.2269011128061198</v>
+        <v>28.42448725688142</v>
       </c>
       <c r="AB9" t="n">
-        <v>28.42448725688142</v>
-      </c>
-      <c r="AC9" t="n">
         <v>-3.937930126879786</v>
       </c>
-      <c r="AD9" t="b">
+      <c r="AC9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1375,20 +1362,19 @@
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
+      <c r="Y10" t="n">
+        <v>31.47398903447037</v>
+      </c>
       <c r="Z10" t="n">
-        <v>31.47398903447037</v>
+        <v>0.2281955095649519</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.2281955095649519</v>
+        <v>29.55968443862372</v>
       </c>
       <c r="AB10" t="n">
-        <v>29.55968443862372</v>
-      </c>
-      <c r="AC10" t="n">
         <v>-4.314996421108336</v>
       </c>
-      <c r="AD10" t="b">
+      <c r="AC10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1465,20 +1451,19 @@
       </c>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
+      <c r="Y11" t="n">
+        <v>37.57781705891842</v>
+      </c>
       <c r="Z11" t="n">
-        <v>37.57781705891842</v>
+        <v>0.2720657434018182</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.2720657434018182</v>
+        <v>35.29012664347849</v>
       </c>
       <c r="AB11" t="n">
-        <v>35.29012664347849</v>
-      </c>
-      <c r="AC11" t="n">
         <v>-6.576392991771236</v>
       </c>
-      <c r="AD11" t="b">
+      <c r="AC11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1555,20 +1540,19 @@
       </c>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
+      <c r="Y12" t="n">
+        <v>55.72628524530543</v>
+      </c>
       <c r="Z12" t="n">
-        <v>55.72628524530543</v>
+        <v>0.3943586482825821</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.3943586482825821</v>
+        <v>47.33335337499</v>
       </c>
       <c r="AB12" t="n">
-        <v>47.33335337499</v>
-      </c>
-      <c r="AC12" t="n">
         <v>-15.66171054155644</v>
       </c>
-      <c r="AD12" t="b">
+      <c r="AC12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1649,20 +1633,19 @@
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
+      <c r="Y13" t="n">
+        <v>52.95829019512777</v>
+      </c>
       <c r="Z13" t="n">
-        <v>52.95829019512777</v>
+        <v>0.4060312443887784</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.4060312443887784</v>
+        <v>51.52886386728682</v>
       </c>
       <c r="AB13" t="n">
-        <v>51.52886386728682</v>
-      </c>
-      <c r="AC13" t="n">
         <v>-14.04760242843781</v>
       </c>
-      <c r="AD13" t="b">
+      <c r="AC13" t="b">
         <v>0</v>
       </c>
     </row>

--- a/examples/housing_different_levels_results.xlsx
+++ b/examples/housing_different_levels_results.xlsx
@@ -603,7 +603,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 11, 'weights': 'uniform'}</t>
+          <t>{'n_neighbors': 12, 'weights': 'uniform'}</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -621,32 +621,32 @@
         <v>12</v>
       </c>
       <c r="I2" t="n">
-        <v>14.16666731485981</v>
+        <v>14.22850311613719</v>
       </c>
       <c r="J2" t="n">
-        <v>1.01624248723056</v>
+        <v>2.004169617333215</v>
       </c>
       <c r="K2" t="n">
-        <v>10.95151515151515</v>
+        <v>11.18055555555555</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08819337856099618</v>
+        <v>0.07633180333035183</v>
       </c>
       <c r="M2" t="n">
-        <v>2.009090909090911</v>
+        <v>2.408333333333335</v>
       </c>
       <c r="N2" t="n">
-        <v>12.19999999999999</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>10.00783824268783</v>
+        <v>10.03397015105871</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="n">
-        <v>7.839749969656511</v>
+        <v>7.861597701149426</v>
       </c>
       <c r="R2" t="n">
-        <v>0.6513618617468129</v>
+        <v>0.6507760642306453</v>
       </c>
       <c r="S2" t="n">
         <v>6</v>
@@ -657,22 +657,22 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>15.37717979351883</v>
+        <v>15.21438730342167</v>
       </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>11.50454635250166</v>
+        <v>12.23336692017793</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.07152673974036526</v>
+        <v>0.07737981629220926</v>
       </c>
       <c r="AA2" t="n">
-        <v>9.240909090909083</v>
+        <v>10.09722222222222</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.2898691261953685</v>
+        <v>0.2657598923722978</v>
       </c>
       <c r="AC2" t="b">
         <v>1</v>
@@ -681,91 +681,81 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>avg_level</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>mlp</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
-        </is>
-      </c>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'activation': 'relu', 'hidden_layer_sizes': (25, 25), 'solver': 'adam', 'random_state': 20}</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+          <t>{'how': 'simple', 'models': ('arima', 'hwes', 'prophet', 'silverkite'), 'determine_best_by': 'ValidationMetricValue'}</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>12</v>
       </c>
       <c r="I3" t="n">
-        <v>14.49394886140646</v>
+        <v>16.82548594235659</v>
       </c>
       <c r="J3" t="n">
-        <v>1.381343183370294</v>
+        <v>0.08761238068695283</v>
       </c>
       <c r="K3" t="n">
-        <v>10.99039111799059</v>
+        <v>12.15863164449115</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04557721083183719</v>
+        <v>-0.3889331146079409</v>
       </c>
       <c r="M3" t="n">
-        <v>1.769949422710348</v>
+        <v>116.305842805747</v>
       </c>
       <c r="N3" t="n">
-        <v>12.19999999999999</v>
+        <v>153.7</v>
       </c>
       <c r="O3" t="n">
-        <v>11.02379517441024</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
+        <v>18.18411946658562</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.1452703438397715</v>
+      </c>
       <c r="Q3" t="n">
-        <v>8.604648123338993</v>
+        <v>14.4315688168406</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5769841795461985</v>
-      </c>
-      <c r="S3" t="n">
-        <v>6</v>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="U3" t="n">
-        <v>13.58461264718911</v>
-      </c>
+        <v>0.7716884307044599</v>
+      </c>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>['arima', 'hwes', 'prophet', 'silverkite']</t>
+        </is>
+      </c>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="n">
-        <v>13.94133807414187</v>
+        <v>16.82548594235659</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.08400850153712426</v>
+        <v>0.08761238068695283</v>
       </c>
       <c r="AA3" t="n">
-        <v>11.20822104323386</v>
+        <v>12.15863164449115</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.04281751236428444</v>
+        <v>-0.3889331146079409</v>
       </c>
       <c r="AC3" t="b">
         <v>0</v>
@@ -774,7 +764,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>avg_level</t>
+          <t>weighted_diff</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -785,7 +775,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'how': 'simple', 'models': ('arima', 'hwes', 'prophet', 'silverkite'), 'determine_best_by': 'ValidationMetricValue'}</t>
+          <t>{'how': 'weighted', 'models': ('knn', 'svr', 'lightgbm', 'mlp'), 'determine_best_by': 'ValidationMetricValue'}</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -793,40 +783,38 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>12</v>
       </c>
       <c r="I4" t="n">
-        <v>15.95562595517319</v>
+        <v>14.04284853810733</v>
       </c>
       <c r="J4" t="n">
-        <v>0.08463658450209122</v>
+        <v>1.171521125834264</v>
       </c>
       <c r="K4" t="n">
-        <v>11.62973176371296</v>
+        <v>10.99775885168122</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.3659257472569961</v>
+        <v>0.1002787308278921</v>
       </c>
       <c r="M4" t="n">
-        <v>116.2996916973775</v>
+        <v>1.66064059576309</v>
       </c>
       <c r="N4" t="n">
-        <v>152.6</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>18.2100490478532</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.1459495204093696</v>
-      </c>
+        <v>7.168441694696444</v>
+      </c>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
-        <v>14.46506752591869</v>
+        <v>5.562850841508931</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7709676413089528</v>
+        <v>0.8217588779464765</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -834,21 +822,25 @@
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr">
         <is>
-          <t>['arima', 'hwes', 'prophet', 'silverkite']</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr"/>
+          <t>['mlp', 'svr', 'knn', 'lightgbm']</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>(0.3635036707621742, 0.30451744799212555, 0.29893309299459336, 0.033045788251106746)</t>
+        </is>
+      </c>
       <c r="Y4" t="n">
-        <v>15.95562595517319</v>
+        <v>14.08488979717847</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.08463658450209122</v>
+        <v>0.0932948421607067</v>
       </c>
       <c r="AA4" t="n">
-        <v>11.62973176371296</v>
+        <v>12.39124337585794</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.3659257472569961</v>
+        <v>0.02668591787661367</v>
       </c>
       <c r="AC4" t="b">
         <v>0</v>
@@ -857,85 +849,91 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>weighted_level</t>
+          <t>mlp</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>combo</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'how': 'weighted', 'models': ('arima', 'hwes', 'prophet', 'silverkite'), 'determine_best_by': 'ValidationMetricValue'}</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t>{'activation': 'tanh', 'hidden_layer_sizes': (25, 25), 'solver': 'lbfgs', 'random_state': 20}</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="F5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>12</v>
       </c>
       <c r="I5" t="n">
-        <v>19.01500041075325</v>
+        <v>14.80458787117379</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1053342218885207</v>
+        <v>2.95886509848357</v>
       </c>
       <c r="K5" t="n">
-        <v>14.41635614744408</v>
+        <v>11.44828188063539</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.9399568777075085</v>
+        <v>2.254693110448347e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>111.4653610194684</v>
+        <v>-0.01614030960090598</v>
       </c>
       <c r="N5" t="n">
-        <v>152.6</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>21.05679870024671</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.1715736889023986</v>
-      </c>
+        <v>2.531990898132157</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>16.79522354834335</v>
+        <v>1.486006574750009</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6937618409620231</v>
-      </c>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
+        <v>0.9777626683430962</v>
+      </c>
+      <c r="S5" t="n">
+        <v>6</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="U5" t="n">
+        <v>13.33848185399014</v>
+      </c>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>['silverkite', 'hwes', 'arima', 'prophet']</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>(0.5037345640809529, 0.25429622959167214, 0.19617515504728839, 0.045794051280086616)</t>
-        </is>
-      </c>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
       <c r="Y5" t="n">
-        <v>19.01500041075325</v>
+        <v>15.71581956871457</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.1053342218885207</v>
+        <v>0.09689321712760175</v>
       </c>
       <c r="AA5" t="n">
-        <v>14.41635614744408</v>
+        <v>11.37145706861502</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.9399568777075085</v>
+        <v>-0.2117699219081495</v>
       </c>
       <c r="AC5" t="b">
         <v>0</v>
@@ -944,7 +942,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>weighted_diff</t>
+          <t>weighted_level</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -955,7 +953,7 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'how': 'weighted', 'models': ('knn', 'svr', 'lightgbm', 'mlp'), 'determine_best_by': 'ValidationMetricValue'}</t>
+          <t>{'how': 'weighted', 'models': ('arima', 'hwes', 'prophet', 'silverkite'), 'determine_best_by': 'ValidationMetricValue'}</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -963,38 +961,40 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>12</v>
       </c>
       <c r="I6" t="n">
-        <v>14.08300974631136</v>
+        <v>19.79679752196467</v>
       </c>
       <c r="J6" t="n">
-        <v>1.37489756682438</v>
+        <v>0.108172067537125</v>
       </c>
       <c r="K6" t="n">
-        <v>10.89564198509431</v>
+        <v>14.92560566108566</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09893045578599846</v>
+        <v>-0.9228082757567833</v>
       </c>
       <c r="M6" t="n">
-        <v>2.015375770577819</v>
+        <v>111.5849725126394</v>
       </c>
       <c r="N6" t="n">
-        <v>12.19999999999999</v>
+        <v>153.7</v>
       </c>
       <c r="O6" t="n">
-        <v>10.71809329118767</v>
-      </c>
-      <c r="P6" t="inlineStr"/>
+        <v>20.95716454579657</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.1703951929135483</v>
+      </c>
       <c r="Q6" t="n">
-        <v>8.352700290189141</v>
+        <v>16.71671384960074</v>
       </c>
       <c r="R6" t="n">
-        <v>0.6001202563308676</v>
+        <v>0.6967446902083916</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
@@ -1002,25 +1002,25 @@
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr">
         <is>
-          <t>['mlp', 'svr', 'knn', 'lightgbm']</t>
+          <t>['silverkite', 'hwes', 'arima', 'prophet']</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>(0.36019251399354146, 0.3067822594850791, 0.3002804525219665, 0.032744773999412856)</t>
+          <t>(0.5019899009055527, 0.2534643116581455, 0.19891034189943338, 0.04563544553686843)</t>
         </is>
       </c>
       <c r="Y6" t="n">
-        <v>17.9737837677888</v>
+        <v>19.79679752196467</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.1223593271827317</v>
+        <v>0.108172067537125</v>
       </c>
       <c r="AA6" t="n">
-        <v>16.24685207735399</v>
+        <v>14.92560566108566</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.7333187035969146</v>
+        <v>-0.9228082757567833</v>
       </c>
       <c r="AC6" t="b">
         <v>0</v>
@@ -1029,87 +1029,79 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>silverkite</t>
+          <t>avg_diff</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>silverkite</t>
+          <t>combo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'changepoints': 0}</t>
+          <t>{'how': 'simple', 'models': ('knn', 'svr', 'lightgbm', 'mlp'), 'determine_best_by': 'ValidationMetricValue'}</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
         <v>1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>12</v>
       </c>
       <c r="I7" t="n">
-        <v>25.70272656117796</v>
+        <v>13.68034952896693</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1669132378341833</v>
+        <v>3.168543862444703</v>
       </c>
       <c r="K7" t="n">
-        <v>22.46905138817626</v>
+        <v>10.70914468215184</v>
       </c>
       <c r="L7" t="n">
-        <v>-2.544522928958464</v>
+        <v>0.1461296150533532</v>
       </c>
       <c r="M7" t="n">
-        <v>106.2338828998023</v>
+        <v>1.838934019808727</v>
       </c>
       <c r="N7" t="n">
-        <v>152.6</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>36.77394383061074</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.3050006965720575</v>
-      </c>
+        <v>7.330008596525627</v>
+      </c>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>29.50796043694521</v>
+        <v>5.706972285614134</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0659824612737987</v>
-      </c>
-      <c r="S7" t="n">
-        <v>6</v>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="U7" t="n">
-        <v>11.68845992118647</v>
-      </c>
-      <c r="V7" t="b">
-        <v>1</v>
-      </c>
-      <c r="W7" t="inlineStr"/>
+        <v>0.8136337094859196</v>
+      </c>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>['knn', 'svr', 'lightgbm', 'mlp']</t>
+        </is>
+      </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="n">
-        <v>25.70272656117796</v>
+        <v>21.37861009237981</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.1669132378341833</v>
+        <v>0.1475654850903531</v>
       </c>
       <c r="AA7" t="n">
-        <v>22.46905138817626</v>
+        <v>19.63997557881413</v>
       </c>
       <c r="AB7" t="n">
-        <v>-2.544522928958464</v>
+        <v>-1.242358428779846</v>
       </c>
       <c r="AC7" t="b">
         <v>0</v>
@@ -1118,79 +1110,87 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>avg_diff</t>
+          <t>silverkite</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>combo</t>
+          <t>silverkite</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'how': 'simple', 'models': ('knn', 'svr', 'lightgbm', 'mlp'), 'determine_best_by': 'ValidationMetricValue'}</t>
+          <t>{'changepoints': 0}</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
         <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>12</v>
       </c>
       <c r="I8" t="n">
-        <v>14.0022437519326</v>
+        <v>26.4677176240956</v>
       </c>
       <c r="J8" t="n">
-        <v>3.853676448811445</v>
+        <v>0.1694565306591863</v>
       </c>
       <c r="K8" t="n">
-        <v>11.17215498522569</v>
+        <v>22.98017752425462</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1092360786151042</v>
+        <v>-2.436996465381102</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2401580029218365</v>
+        <v>106.2584873332802</v>
       </c>
       <c r="N8" t="n">
-        <v>12.19999999999999</v>
+        <v>153.7</v>
       </c>
       <c r="O8" t="n">
-        <v>9.779093902942991</v>
-      </c>
-      <c r="P8" t="inlineStr"/>
+        <v>36.78361932495064</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.3050783036754306</v>
+      </c>
       <c r="Q8" t="n">
-        <v>7.626375805690235</v>
+        <v>29.51702582639153</v>
       </c>
       <c r="R8" t="n">
-        <v>0.6671170341583041</v>
-      </c>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>['knn', 'svr', 'lightgbm', 'mlp']</t>
-        </is>
-      </c>
+        <v>0.06577327654797127</v>
+      </c>
+      <c r="S8" t="n">
+        <v>6</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="U8" t="n">
+        <v>11.69273758932886</v>
+      </c>
+      <c r="V8" t="b">
+        <v>1</v>
+      </c>
+      <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="n">
-        <v>25.19599673944087</v>
+        <v>26.4677176240956</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.1815874552421515</v>
+        <v>0.1694565306591863</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.74514568272906</v>
+        <v>22.98017752425462</v>
       </c>
       <c r="AB8" t="n">
-        <v>-2.406139925925294</v>
+        <v>-2.436996465381102</v>
       </c>
       <c r="AC8" t="b">
         <v>0</v>
@@ -1224,34 +1224,34 @@
         <v>12</v>
       </c>
       <c r="I9" t="n">
-        <v>30.33700974622201</v>
+        <v>30.77216523826975</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2269011128061198</v>
+        <v>0.2299572546927127</v>
       </c>
       <c r="K9" t="n">
-        <v>28.42448725688142</v>
+        <v>28.95782059021475</v>
       </c>
       <c r="L9" t="n">
-        <v>-3.937930126879786</v>
+        <v>-3.645818209158476</v>
       </c>
       <c r="M9" t="n">
         <v>119.9728810514455</v>
       </c>
       <c r="N9" t="n">
-        <v>152.6</v>
+        <v>153.7</v>
       </c>
       <c r="O9" t="n">
-        <v>31.50532420621939</v>
+        <v>31.51159397014147</v>
       </c>
       <c r="P9" t="n">
-        <v>0.2517366391108156</v>
+        <v>0.2518008778436727</v>
       </c>
       <c r="Q9" t="n">
-        <v>24.97620196742389</v>
+        <v>24.9836981425155</v>
       </c>
       <c r="R9" t="n">
-        <v>0.3144446556726795</v>
+        <v>0.3143790002142021</v>
       </c>
       <c r="S9" t="n">
         <v>6</v>
@@ -1270,16 +1270,16 @@
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="n">
-        <v>30.33700974622201</v>
+        <v>30.77216523826975</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.2269011128061198</v>
+        <v>0.2299572546927127</v>
       </c>
       <c r="AA9" t="n">
-        <v>28.42448725688142</v>
+        <v>28.95782059021475</v>
       </c>
       <c r="AB9" t="n">
-        <v>-3.937930126879786</v>
+        <v>-3.645818209158476</v>
       </c>
       <c r="AC9" t="b">
         <v>0</v>
@@ -1321,32 +1321,32 @@
         <v>12</v>
       </c>
       <c r="I10" t="n">
-        <v>14.2998351840783</v>
+        <v>14.2064372145417</v>
       </c>
       <c r="J10" t="n">
-        <v>2.096791423360109</v>
+        <v>2.288488903830905</v>
       </c>
       <c r="K10" t="n">
-        <v>11.50102381601369</v>
+        <v>11.36971118784312</v>
       </c>
       <c r="L10" t="n">
-        <v>0.07097069138220535</v>
+        <v>0.07919447514551492</v>
       </c>
       <c r="M10" t="n">
-        <v>3.163255760337611</v>
+        <v>2.882632143679769</v>
       </c>
       <c r="N10" t="n">
-        <v>12.19999999999999</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
-        <v>13.31089761248025</v>
+        <v>13.17490396583428</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="n">
-        <v>10.15725719112676</v>
+        <v>10.05843218618325</v>
       </c>
       <c r="R10" t="n">
-        <v>0.383250189061759</v>
+        <v>0.3979212358511663</v>
       </c>
       <c r="S10" t="n">
         <v>6</v>
@@ -1357,22 +1357,22 @@
         </is>
       </c>
       <c r="U10" t="n">
-        <v>15.18264591724112</v>
+        <v>15.05215053346217</v>
       </c>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="n">
-        <v>31.47398903447037</v>
+        <v>33.21520819684512</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.2281955095649519</v>
+        <v>0.2382176409442703</v>
       </c>
       <c r="AA10" t="n">
-        <v>29.55968443862372</v>
+        <v>31.06827811688126</v>
       </c>
       <c r="AB10" t="n">
-        <v>-4.314996421108336</v>
+        <v>-4.412776042453927</v>
       </c>
       <c r="AC10" t="b">
         <v>0</v>
@@ -1406,34 +1406,34 @@
         <v>12</v>
       </c>
       <c r="I11" t="n">
-        <v>37.57781705891842</v>
+        <v>38.27870107321678</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2720657434018182</v>
+        <v>0.2744861329849597</v>
       </c>
       <c r="K11" t="n">
-        <v>35.29012664347849</v>
+        <v>35.82345997681183</v>
       </c>
       <c r="L11" t="n">
-        <v>-6.576392991771236</v>
+        <v>-6.188867593762677</v>
       </c>
       <c r="M11" t="n">
         <v>95.89197878827419</v>
       </c>
       <c r="N11" t="n">
-        <v>152.6</v>
+        <v>153.7</v>
       </c>
       <c r="O11" t="n">
-        <v>11.10223870686376</v>
+        <v>11.00987506314031</v>
       </c>
       <c r="P11" t="n">
-        <v>0.07963900266729232</v>
+        <v>0.07919454520276557</v>
       </c>
       <c r="Q11" t="n">
-        <v>8.585475972739614</v>
+        <v>8.561000308398292</v>
       </c>
       <c r="R11" t="n">
-        <v>0.9148674315730889</v>
+        <v>0.9163033358826781</v>
       </c>
       <c r="S11" t="n">
         <v>6</v>
@@ -1452,16 +1452,16 @@
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="n">
-        <v>37.57781705891842</v>
+        <v>38.27870107321678</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.2720657434018182</v>
+        <v>0.2744861329849597</v>
       </c>
       <c r="AA11" t="n">
-        <v>35.29012664347849</v>
+        <v>35.82345997681183</v>
       </c>
       <c r="AB11" t="n">
-        <v>-6.576392991771236</v>
+        <v>-6.188867593762677</v>
       </c>
       <c r="AC11" t="b">
         <v>0</v>
@@ -1470,59 +1470,65 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lightgbm</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>arima</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>lightgbm</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>{'order': (0, 1, 2), 'seasonal_order': (0, 1, 1, 12), 'trend': 'n'}</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+          <t>{'max_depth': 4}</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>12</v>
       </c>
       <c r="I12" t="n">
-        <v>55.72628524530543</v>
+        <v>16.09182274601781</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3943586482825821</v>
+        <v>10.01672085989683</v>
       </c>
       <c r="K12" t="n">
-        <v>47.33335337499</v>
+        <v>11.82556364834888</v>
       </c>
       <c r="L12" t="n">
-        <v>-15.66171054155644</v>
+        <v>-0.181430134172387</v>
       </c>
       <c r="M12" t="n">
-        <v>143.100024049988</v>
+        <v>2.080910911822711</v>
       </c>
       <c r="N12" t="n">
-        <v>152.6</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
-        <v>11.58677318236536</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.08053009633992614</v>
-      </c>
+        <v>7.250217387581412</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="n">
-        <v>8.658026228968021</v>
+        <v>5.755350871454016</v>
       </c>
       <c r="R12" t="n">
-        <v>0.9072744056845896</v>
+        <v>0.8176690268260493</v>
       </c>
       <c r="S12" t="n">
         <v>6</v>
@@ -1533,24 +1539,22 @@
         </is>
       </c>
       <c r="U12" t="n">
-        <v>23.91714865948699</v>
-      </c>
-      <c r="V12" t="b">
-        <v>1</v>
-      </c>
+        <v>22.93894949796026</v>
+      </c>
+      <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="n">
-        <v>55.72628524530543</v>
+        <v>49.74528739968223</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.3943586482825821</v>
+        <v>0.3794060509214841</v>
       </c>
       <c r="AA12" t="n">
-        <v>47.33335337499</v>
+        <v>48.56391687683225</v>
       </c>
       <c r="AB12" t="n">
-        <v>-15.66171054155644</v>
+        <v>-11.14087503136859</v>
       </c>
       <c r="AC12" t="b">
         <v>0</v>
@@ -1559,65 +1563,59 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>lightgbm</t>
+          <t>arima</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>lightgbm</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
-        </is>
-      </c>
+          <t>arima</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{'max_depth': 4}</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+          <t>{'order': (0, 1, 2), 'seasonal_order': (0, 1, 1, 12), 'trend': 'n'}</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>12</v>
       </c>
       <c r="I13" t="n">
-        <v>17.74894942843471</v>
+        <v>55.67026891966506</v>
       </c>
       <c r="J13" t="n">
-        <v>12.38350133256141</v>
+        <v>0.3916318054054712</v>
       </c>
       <c r="K13" t="n">
-        <v>13.2935578993978</v>
+        <v>46.98335337499</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.4312406259691073</v>
+        <v>-14.20522106524192</v>
       </c>
       <c r="M13" t="n">
-        <v>-5.981664080451525</v>
+        <v>143.100024049988</v>
       </c>
       <c r="N13" t="n">
-        <v>12.19999999999999</v>
+        <v>153.7</v>
       </c>
       <c r="O13" t="n">
-        <v>7.25659071373309</v>
-      </c>
-      <c r="P13" t="inlineStr"/>
+        <v>11.58603488376122</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.08054474772223835</v>
+      </c>
       <c r="Q13" t="n">
-        <v>5.671006693885891</v>
+        <v>8.660024401428648</v>
       </c>
       <c r="R13" t="n">
-        <v>0.8167012105812986</v>
+        <v>0.9073142367210271</v>
       </c>
       <c r="S13" t="n">
         <v>6</v>
@@ -1628,22 +1626,24 @@
         </is>
       </c>
       <c r="U13" t="n">
-        <v>23.38183955669675</v>
-      </c>
-      <c r="V13" t="inlineStr"/>
+        <v>23.78234639391161</v>
+      </c>
+      <c r="V13" t="b">
+        <v>1</v>
+      </c>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="n">
-        <v>52.95829019512777</v>
+        <v>55.67026891966506</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.4060312443887784</v>
+        <v>0.3916318054054712</v>
       </c>
       <c r="AA13" t="n">
-        <v>51.52886386728682</v>
+        <v>46.98335337499</v>
       </c>
       <c r="AB13" t="n">
-        <v>-14.04760242843781</v>
+        <v>-14.20522106524192</v>
       </c>
       <c r="AC13" t="b">
         <v>0</v>
@@ -1681,34 +1681,34 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>avg_level</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>weighted_diff</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>mlp</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>avg_level</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>weighted_level</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>weighted_diff</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>avg_diff</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>silverkite</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>avg_diff</t>
-        </is>
-      </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>prophet</t>
@@ -1726,12 +1726,12 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>lightgbm</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>arima</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>lightgbm</t>
         </is>
       </c>
     </row>
@@ -1740,40 +1740,40 @@
         <v>44378</v>
       </c>
       <c r="B2" t="n">
-        <v>154.3818181818182</v>
+        <v>153.95</v>
       </c>
       <c r="C2" t="n">
-        <v>152.1889716490186</v>
+        <v>132.4976675093273</v>
       </c>
       <c r="D2" t="n">
-        <v>132.0262955776408</v>
+        <v>148.3946701371894</v>
       </c>
       <c r="E2" t="n">
-        <v>127.9767825272104</v>
+        <v>137.6646843948878</v>
       </c>
       <c r="F2" t="n">
-        <v>153.3455619910308</v>
+        <v>128.43410020671</v>
       </c>
       <c r="G2" t="n">
-        <v>106.6063981863529</v>
+        <v>149.2725740241389</v>
       </c>
       <c r="H2" t="n">
-        <v>151.6980004681879</v>
+        <v>106.6330347753317</v>
       </c>
       <c r="I2" t="n">
-        <v>115.4955179982616</v>
+        <v>115.5138783093065</v>
       </c>
       <c r="J2" t="n">
-        <v>154.5033726050261</v>
+        <v>155.5875851605928</v>
       </c>
       <c r="K2" t="n">
-        <v>154.0957256504427</v>
+        <v>153.9862164813903</v>
       </c>
       <c r="L2" t="n">
-        <v>151.9075404755059</v>
+        <v>149.8880265410753</v>
       </c>
       <c r="M2" t="n">
-        <v>145.7178394368887</v>
+        <v>153.8575404712806</v>
       </c>
     </row>
     <row r="3">
@@ -1781,40 +1781,40 @@
         <v>44409</v>
       </c>
       <c r="B3" t="n">
-        <v>152.1181818181818</v>
+        <v>151.225</v>
       </c>
       <c r="C3" t="n">
-        <v>147.3083056340157</v>
+        <v>128.5632550558494</v>
       </c>
       <c r="D3" t="n">
-        <v>128.4430823580989</v>
+        <v>148.3201394284359</v>
       </c>
       <c r="E3" t="n">
-        <v>125.0289719956408</v>
+        <v>142.7932644153652</v>
       </c>
       <c r="F3" t="n">
-        <v>149.7566546950189</v>
+        <v>125.1223492976604</v>
       </c>
       <c r="G3" t="n">
-        <v>106.5561894405796</v>
+        <v>147.835620983353</v>
       </c>
       <c r="H3" t="n">
-        <v>147.8641379322362</v>
+        <v>106.5828558883751</v>
       </c>
       <c r="I3" t="n">
-        <v>113.6068505568538</v>
+        <v>113.6266355163633</v>
       </c>
       <c r="J3" t="n">
-        <v>151.2812407913577</v>
+        <v>152.4387241916499</v>
       </c>
       <c r="K3" t="n">
-        <v>147.1337308592784</v>
+        <v>145.6379999454644</v>
       </c>
       <c r="L3" t="n">
-        <v>146.4755585756836</v>
+        <v>144.8854953263969</v>
       </c>
       <c r="M3" t="n">
-        <v>140.7488234853898</v>
+        <v>148.4055288731948</v>
       </c>
     </row>
     <row r="4">
@@ -1822,40 +1822,40 @@
         <v>44440</v>
       </c>
       <c r="B4" t="n">
-        <v>151.7818181818182</v>
+        <v>149.8833333333333</v>
       </c>
       <c r="C4" t="n">
-        <v>142.7851002470697</v>
+        <v>126.3967505891562</v>
       </c>
       <c r="D4" t="n">
-        <v>126.6547103121286</v>
+        <v>148.2802506756854</v>
       </c>
       <c r="E4" t="n">
-        <v>124.6686057460053</v>
+        <v>148.3859548910144</v>
       </c>
       <c r="F4" t="n">
-        <v>146.3317831051921</v>
+        <v>124.3773557850479</v>
       </c>
       <c r="G4" t="n">
-        <v>106.5247268855633</v>
+        <v>147.8863062326953</v>
       </c>
       <c r="H4" t="n">
-        <v>145.6671984948921</v>
+        <v>106.5514533022693</v>
       </c>
       <c r="I4" t="n">
-        <v>106.773023978155</v>
+        <v>106.7942987196834</v>
       </c>
       <c r="J4" t="n">
-        <v>145.5666364903554</v>
+        <v>146.7732893225171</v>
       </c>
       <c r="K4" t="n">
-        <v>147.5633276128011</v>
+        <v>144.557580526612</v>
       </c>
       <c r="L4" t="n">
-        <v>145.7577627719949</v>
+        <v>146.5026473839165</v>
       </c>
       <c r="M4" t="n">
-        <v>142.5352390603254</v>
+        <v>147.6836698080603</v>
       </c>
     </row>
     <row r="5">
@@ -1863,40 +1863,40 @@
         <v>44470</v>
       </c>
       <c r="B5" t="n">
-        <v>147.9454545454545</v>
+        <v>145.3916666666667</v>
       </c>
       <c r="C5" t="n">
-        <v>139.3444120424413</v>
+        <v>127.8742986065948</v>
       </c>
       <c r="D5" t="n">
-        <v>128.4902621657772</v>
+        <v>137.4122022642</v>
       </c>
       <c r="E5" t="n">
-        <v>125.4678346987083</v>
+        <v>126.7360613160789</v>
       </c>
       <c r="F5" t="n">
-        <v>142.1594276277056</v>
+        <v>124.81275197406</v>
       </c>
       <c r="G5" t="n">
-        <v>106.488543972524</v>
+        <v>140.317494067162</v>
       </c>
       <c r="H5" t="n">
-        <v>142.8904611028918</v>
+        <v>106.5153775611231</v>
       </c>
       <c r="I5" t="n">
-        <v>111.695540179932</v>
+        <v>111.7180291153352</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5249404209967</v>
+        <v>141.1781423917964</v>
       </c>
       <c r="K5" t="n">
-        <v>149.4602658698178</v>
+        <v>145.0234668712084</v>
       </c>
       <c r="L5" t="n">
-        <v>146.3166986408353</v>
+        <v>147.9641058941062</v>
       </c>
       <c r="M5" t="n">
-        <v>144.7470374026748</v>
+        <v>148.2403208787124</v>
       </c>
     </row>
     <row r="6">
@@ -1904,40 +1904,40 @@
         <v>44501</v>
       </c>
       <c r="B6" t="n">
-        <v>141.1272727272727</v>
+        <v>139.575</v>
       </c>
       <c r="C6" t="n">
-        <v>129.6647050206024</v>
+        <v>115.6676678433657</v>
       </c>
       <c r="D6" t="n">
-        <v>116.6426669478881</v>
+        <v>130.8642082308515</v>
       </c>
       <c r="E6" t="n">
-        <v>118.6969591285809</v>
+        <v>121.1866033649387</v>
       </c>
       <c r="F6" t="n">
-        <v>133.7988424045071</v>
+        <v>117.6564647435517</v>
       </c>
       <c r="G6" t="n">
-        <v>106.4487554463286</v>
+        <v>133.055410722731</v>
       </c>
       <c r="H6" t="n">
-        <v>134.1272449208032</v>
+        <v>106.4755957685348</v>
       </c>
       <c r="I6" t="n">
-        <v>89.9523392574614</v>
+        <v>89.97556673826084</v>
       </c>
       <c r="J6" t="n">
-        <v>131.4272088329993</v>
+        <v>133.0460632812277</v>
       </c>
       <c r="K6" t="n">
-        <v>136.8729302228965</v>
+        <v>131.0060918014692</v>
       </c>
       <c r="L6" t="n">
-        <v>133.2966428648658</v>
+        <v>138.4139762447576</v>
       </c>
       <c r="M6" t="n">
-        <v>134.2897931023382</v>
+        <v>135.213417065198</v>
       </c>
     </row>
     <row r="7">
@@ -1945,40 +1945,40 @@
         <v>44531</v>
       </c>
       <c r="B7" t="n">
-        <v>136.4454545454545</v>
+        <v>135.0833333333333</v>
       </c>
       <c r="C7" t="n">
-        <v>127.2422745109219</v>
+        <v>108.0567464257306</v>
       </c>
       <c r="D7" t="n">
-        <v>109.3502621525774</v>
+        <v>124.2318439807028</v>
       </c>
       <c r="E7" t="n">
-        <v>114.9001837066233</v>
+        <v>109.8244633226946</v>
       </c>
       <c r="F7" t="n">
-        <v>130.3257354987283</v>
+        <v>113.5255098849623</v>
       </c>
       <c r="G7" t="n">
-        <v>106.4244320329822</v>
+        <v>126.438536743989</v>
       </c>
       <c r="H7" t="n">
-        <v>129.8056572427595</v>
+        <v>106.4513112885158</v>
       </c>
       <c r="I7" t="n">
-        <v>74.56768117659506</v>
+        <v>74.59057628197009</v>
       </c>
       <c r="J7" t="n">
-        <v>128.2842210872611</v>
+        <v>130.0669710901059</v>
       </c>
       <c r="K7" t="n">
-        <v>130.3262201347407</v>
+        <v>123.1943115900514</v>
       </c>
       <c r="L7" t="n">
-        <v>126.0827152659916</v>
+        <v>130.7793792298222</v>
       </c>
       <c r="M7" t="n">
-        <v>127.2506788274005</v>
+        <v>127.9907865423853</v>
       </c>
     </row>
     <row r="8">
@@ -1986,40 +1986,40 @@
         <v>44562</v>
       </c>
       <c r="B8" t="n">
-        <v>134.7</v>
+        <v>133.45</v>
       </c>
       <c r="C8" t="n">
-        <v>127.1492883440049</v>
+        <v>106.9561716549003</v>
       </c>
       <c r="D8" t="n">
-        <v>108.5138604413795</v>
+        <v>124.6835321698445</v>
       </c>
       <c r="E8" t="n">
-        <v>114.9382918886823</v>
+        <v>112.2231221126181</v>
       </c>
       <c r="F8" t="n">
-        <v>129.8162353139654</v>
+        <v>113.3011237873767</v>
       </c>
       <c r="G8" t="n">
-        <v>106.3402304321978</v>
+        <v>126.2950327742175</v>
       </c>
       <c r="H8" t="n">
-        <v>128.8590235950924</v>
+        <v>106.3671960885267</v>
       </c>
       <c r="I8" t="n">
-        <v>69.81079504118955</v>
+        <v>69.83300767337042</v>
       </c>
       <c r="J8" t="n">
-        <v>128.6925904415752</v>
+        <v>130.4805829183345</v>
       </c>
       <c r="K8" t="n">
-        <v>130.4119778507169</v>
+        <v>122.2329604782409</v>
       </c>
       <c r="L8" t="n">
-        <v>127.4924384414138</v>
+        <v>129.0264260659173</v>
       </c>
       <c r="M8" t="n">
-        <v>124.8942155947896</v>
+        <v>129.3915223794633</v>
       </c>
     </row>
     <row r="9">
@@ -2027,40 +2027,40 @@
         <v>44593</v>
       </c>
       <c r="B9" t="n">
-        <v>140.1090909090909</v>
+        <v>137.4833333333333</v>
       </c>
       <c r="C9" t="n">
-        <v>126.1834896504655</v>
+        <v>105.5070688300885</v>
       </c>
       <c r="D9" t="n">
-        <v>107.3369623654171</v>
+        <v>123.7014518864911</v>
       </c>
       <c r="E9" t="n">
-        <v>113.4597474815821</v>
+        <v>104.6607635881191</v>
       </c>
       <c r="F9" t="n">
-        <v>131.7321243945014</v>
+        <v>111.5464258246694</v>
       </c>
       <c r="G9" t="n">
-        <v>106.3659562444796</v>
+        <v>126.1600765820028</v>
       </c>
       <c r="H9" t="n">
-        <v>130.6776554820055</v>
+        <v>106.3929326279485</v>
       </c>
       <c r="I9" t="n">
-        <v>71.57527692726529</v>
+        <v>71.59600711245099</v>
       </c>
       <c r="J9" t="n">
-        <v>130.6879748029573</v>
+        <v>132.1838454531994</v>
       </c>
       <c r="K9" t="n">
-        <v>125.2916451427793</v>
+        <v>116.0132761254618</v>
       </c>
       <c r="L9" t="n">
-        <v>126.1149711471442</v>
+        <v>130.3123639533595</v>
       </c>
       <c r="M9" t="n">
-        <v>125.7300665655085</v>
+        <v>128.0260594544927</v>
       </c>
     </row>
     <row r="10">
@@ -2068,40 +2068,40 @@
         <v>44621</v>
       </c>
       <c r="B10" t="n">
-        <v>147.2272727272727</v>
+        <v>145.4916666666666</v>
       </c>
       <c r="C10" t="n">
-        <v>140.3753064860478</v>
+        <v>120.319768202976</v>
       </c>
       <c r="D10" t="n">
-        <v>122.3903931084949</v>
+        <v>135.6022432957785</v>
       </c>
       <c r="E10" t="n">
-        <v>121.8405871736171</v>
+        <v>121.5071059829638</v>
       </c>
       <c r="F10" t="n">
-        <v>142.4538425359932</v>
+        <v>119.7081210984004</v>
       </c>
       <c r="G10" t="n">
-        <v>106.3394966510337</v>
+        <v>138.7811931590677</v>
       </c>
       <c r="H10" t="n">
-        <v>142.5506237102043</v>
+        <v>106.3665187432992</v>
       </c>
       <c r="I10" t="n">
-        <v>100.3515501395884</v>
+        <v>100.376708096785</v>
       </c>
       <c r="J10" t="n">
-        <v>140.2310544284417</v>
+        <v>141.5261525904151</v>
       </c>
       <c r="K10" t="n">
-        <v>140.844504135025</v>
+        <v>130.5944946787199</v>
       </c>
       <c r="L10" t="n">
-        <v>142.0260215083324</v>
+        <v>146.5998473962252</v>
       </c>
       <c r="M10" t="n">
-        <v>142.3688611990551</v>
+        <v>143.9413512930998</v>
       </c>
     </row>
     <row r="11">
@@ -2109,40 +2109,40 @@
         <v>44652</v>
       </c>
       <c r="B11" t="n">
-        <v>156.4545454545454</v>
+        <v>153.825</v>
       </c>
       <c r="C11" t="n">
-        <v>139.8315265972159</v>
+        <v>125.9900530963768</v>
       </c>
       <c r="D11" t="n">
-        <v>128.369902286232</v>
+        <v>145.0919493983244</v>
       </c>
       <c r="E11" t="n">
-        <v>124.3946745672138</v>
+        <v>137.0042006379895</v>
       </c>
       <c r="F11" t="n">
-        <v>146.6551404393075</v>
+        <v>121.9569539772289</v>
       </c>
       <c r="G11" t="n">
-        <v>106.3054474839765</v>
+        <v>146.3054754173165</v>
       </c>
       <c r="H11" t="n">
-        <v>146.8479206909925</v>
+        <v>106.3325187556736</v>
       </c>
       <c r="I11" t="n">
-        <v>115.7555329679471</v>
+        <v>115.7824765021553</v>
       </c>
       <c r="J11" t="n">
-        <v>145.1496393906311</v>
+        <v>145.7927420618826</v>
       </c>
       <c r="K11" t="n">
-        <v>144.0946662615578</v>
+        <v>132.5914512527482</v>
       </c>
       <c r="L11" t="n">
-        <v>147.3239624314465</v>
+        <v>148.5999589693942</v>
       </c>
       <c r="M11" t="n">
-        <v>145.9559713215777</v>
+        <v>149.2537658749299</v>
       </c>
     </row>
     <row r="12">
@@ -2150,40 +2150,40 @@
         <v>44682</v>
       </c>
       <c r="B12" t="n">
-        <v>161.1727272727273</v>
+        <v>158.35</v>
       </c>
       <c r="C12" t="n">
-        <v>147.0474730037781</v>
+        <v>130.3819918678925</v>
       </c>
       <c r="D12" t="n">
-        <v>132.6370379604328</v>
+        <v>150.9856368322987</v>
       </c>
       <c r="E12" t="n">
-        <v>127.213194103877</v>
+        <v>141.7770788512231</v>
       </c>
       <c r="F12" t="n">
-        <v>153.3398323495953</v>
+        <v>124.8497779732041</v>
       </c>
       <c r="G12" t="n">
-        <v>106.2692361550237</v>
+        <v>152.3421132422536</v>
       </c>
       <c r="H12" t="n">
-        <v>153.3997096691629</v>
+        <v>106.2964528319635</v>
       </c>
       <c r="I12" t="n">
-        <v>121.9396413981421</v>
+        <v>122.0342899105219</v>
       </c>
       <c r="J12" t="n">
-        <v>153.1829097003134</v>
+        <v>154.3216998659661</v>
       </c>
       <c r="K12" t="n">
-        <v>151.1696509618887</v>
+        <v>139.3295992468435</v>
       </c>
       <c r="L12" t="n">
-        <v>151.1696233266766</v>
+        <v>154.9196742518254</v>
       </c>
       <c r="M12" t="n">
-        <v>152.195728699833</v>
+        <v>153.8676254822412</v>
       </c>
     </row>
     <row r="13">
@@ -2191,40 +2191,40 @@
         <v>44713</v>
       </c>
       <c r="B13" t="n">
-        <v>163.0545454545454</v>
+        <v>159.7916666666667</v>
       </c>
       <c r="C13" t="n">
-        <v>154.7071303229725</v>
+        <v>132.3150474941507</v>
       </c>
       <c r="D13" t="n">
-        <v>135.3459953100616</v>
+        <v>150.6206791471032</v>
       </c>
       <c r="E13" t="n">
-        <v>129.9417855716226</v>
+        <v>133.4371767819307</v>
       </c>
       <c r="F13" t="n">
-        <v>158.8749917716992</v>
+        <v>126.8444384030804</v>
       </c>
       <c r="G13" t="n">
-        <v>106.2338828998023</v>
+        <v>152.4593013014497</v>
       </c>
       <c r="H13" t="n">
-        <v>156.8949334019483</v>
+        <v>106.2584873332802</v>
       </c>
       <c r="I13" t="n">
-        <v>120.6082384338299</v>
+        <v>120.6487637190253</v>
       </c>
       <c r="J13" t="n">
-        <v>160.7211747343273</v>
+        <v>161.6602837291052</v>
       </c>
       <c r="K13" t="n">
-        <v>158.2845630246604</v>
+        <v>144.0181964667727</v>
       </c>
       <c r="L13" t="n">
-        <v>156.2572968819537</v>
+        <v>154.9480780280965</v>
       </c>
       <c r="M13" t="n">
-        <v>149.0968830959479</v>
+        <v>158.3347424575246</v>
       </c>
     </row>
     <row r="14">
@@ -2232,40 +2232,40 @@
         <v>44743</v>
       </c>
       <c r="B14" t="n">
-        <v>163.5454545454545</v>
+        <v>160.4416666666667</v>
       </c>
       <c r="C14" t="n">
-        <v>155.4061481619381</v>
+        <v>131.9406665908128</v>
       </c>
       <c r="D14" t="n">
-        <v>135.2384125797547</v>
+        <v>150.333745679756</v>
       </c>
       <c r="E14" t="n">
-        <v>130.7964910439198</v>
+        <v>129.6904750828677</v>
       </c>
       <c r="F14" t="n">
-        <v>160.0116808933882</v>
+        <v>127.4286773122251</v>
       </c>
       <c r="G14" t="n">
-        <v>106.2054967032602</v>
+        <v>152.0825490113438</v>
       </c>
       <c r="H14" t="n">
-        <v>157.0804775399756</v>
+        <v>106.2327123403857</v>
       </c>
       <c r="I14" t="n">
-        <v>115.5205859923558</v>
+        <v>115.5464893609609</v>
       </c>
       <c r="J14" t="n">
-        <v>163.4659058377211</v>
+        <v>164.7109417640559</v>
       </c>
       <c r="K14" t="n">
-        <v>161.4291944862068</v>
+        <v>145.9955620662014</v>
       </c>
       <c r="L14" t="n">
-        <v>157.7983731371958</v>
+        <v>153.4871125317849</v>
       </c>
       <c r="M14" t="n">
-        <v>145.9044016147888</v>
+        <v>159.9879025957032</v>
       </c>
     </row>
     <row r="15">
@@ -2273,40 +2273,40 @@
         <v>44774</v>
       </c>
       <c r="B15" t="n">
-        <v>160.2272727272727</v>
+        <v>156.1666666666667</v>
       </c>
       <c r="C15" t="n">
-        <v>149.1794805440937</v>
+        <v>127.8567725572209</v>
       </c>
       <c r="D15" t="n">
-        <v>131.4974830802823</v>
+        <v>149.4989201215407</v>
       </c>
       <c r="E15" t="n">
-        <v>127.8211254673853</v>
+        <v>135.1455014224588</v>
       </c>
       <c r="F15" t="n">
-        <v>155.4064232586479</v>
+        <v>124.0970122348798</v>
       </c>
       <c r="G15" t="n">
-        <v>106.1650626828959</v>
+        <v>149.7889606321798</v>
       </c>
       <c r="H15" t="n">
-        <v>153.262093233148</v>
+        <v>106.1923554220021</v>
       </c>
       <c r="I15" t="n">
-        <v>113.0288619038941</v>
+        <v>113.0535361272307</v>
       </c>
       <c r="J15" t="n">
-        <v>159.1654399922344</v>
+        <v>160.299284056763</v>
       </c>
       <c r="K15" t="n">
-        <v>154.5103920265984</v>
+        <v>137.7060491885062</v>
       </c>
       <c r="L15" t="n">
-        <v>152.2856157077408</v>
+        <v>147.5443903828308</v>
       </c>
       <c r="M15" t="n">
-        <v>144.4761796689914</v>
+        <v>154.4751494911448</v>
       </c>
     </row>
     <row r="16">
@@ -2314,40 +2314,40 @@
         <v>44805</v>
       </c>
       <c r="B16" t="n">
-        <v>159.8909090909091</v>
+        <v>157.4833333333333</v>
       </c>
       <c r="C16" t="n">
-        <v>144.6511984420997</v>
+        <v>125.8808425520626</v>
       </c>
       <c r="D16" t="n">
-        <v>129.8967515519668</v>
+        <v>144.6556527789147</v>
       </c>
       <c r="E16" t="n">
-        <v>127.5059286008041</v>
+        <v>125.3350600395706</v>
       </c>
       <c r="F16" t="n">
-        <v>151.7476728099108</v>
+        <v>123.400632886659</v>
       </c>
       <c r="G16" t="n">
-        <v>106.1373983691458</v>
+        <v>145.9868005977361</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9948421597753</v>
+        <v>106.1647123651346</v>
       </c>
       <c r="I16" t="n">
-        <v>106.8983524307602</v>
+        <v>106.9214652579649</v>
       </c>
       <c r="J16" t="n">
-        <v>153.5929733495533</v>
+        <v>154.9623250983751</v>
       </c>
       <c r="K16" t="n">
-        <v>154.9834355039088</v>
+        <v>136.6839021591409</v>
       </c>
       <c r="L16" t="n">
-        <v>151.5678199040522</v>
+        <v>146.1664839196654</v>
       </c>
       <c r="M16" t="n">
-        <v>137.8442877565393</v>
+        <v>153.7532904260103</v>
       </c>
     </row>
     <row r="17">
@@ -2355,40 +2355,40 @@
         <v>44835</v>
       </c>
       <c r="B17" t="n">
-        <v>155.7</v>
+        <v>152.9916666666666</v>
       </c>
       <c r="C17" t="n">
-        <v>140.2728863596377</v>
+        <v>126.9093107594699</v>
       </c>
       <c r="D17" t="n">
-        <v>131.280255043314</v>
+        <v>140.717419381366</v>
       </c>
       <c r="E17" t="n">
-        <v>128.2252495289356</v>
+        <v>123.3439009227579</v>
       </c>
       <c r="F17" t="n">
-        <v>146.9815209221561</v>
+        <v>123.759876982795</v>
       </c>
       <c r="G17" t="n">
-        <v>106.0876424894313</v>
+        <v>143.2507294706701</v>
       </c>
       <c r="H17" t="n">
-        <v>146.0775969577309</v>
+        <v>106.1150551261771</v>
       </c>
       <c r="I17" t="n">
-        <v>109.9825455356793</v>
+        <v>110.0046136222263</v>
       </c>
       <c r="J17" t="n">
-        <v>146.9180922051298</v>
+        <v>148.6106509623604</v>
       </c>
       <c r="K17" t="n">
-        <v>156.9240763752532</v>
+        <v>137.2076327928136</v>
       </c>
       <c r="L17" t="n">
-        <v>152.1267557728925</v>
+        <v>148.0566993308954</v>
       </c>
       <c r="M17" t="n">
-        <v>141.4194092661561</v>
+        <v>154.3099414966624</v>
       </c>
     </row>
     <row r="18">
@@ -2396,40 +2396,40 @@
         <v>44866</v>
       </c>
       <c r="B18" t="n">
-        <v>147.5818181818182</v>
+        <v>147.175</v>
       </c>
       <c r="C18" t="n">
-        <v>131.2272313278417</v>
+        <v>115.1546289864964</v>
       </c>
       <c r="D18" t="n">
-        <v>119.8817650041572</v>
+        <v>131.7783819775551</v>
       </c>
       <c r="E18" t="n">
-        <v>121.5458050994089</v>
+        <v>110.6773881410639</v>
       </c>
       <c r="F18" t="n">
-        <v>138.7198616317526</v>
+        <v>116.6980227214287</v>
       </c>
       <c r="G18" t="n">
-        <v>106.0478539632359</v>
+        <v>134.8315764677998</v>
       </c>
       <c r="H18" t="n">
-        <v>138.2208063453584</v>
+        <v>106.0752733335888</v>
       </c>
       <c r="I18" t="n">
-        <v>89.99180531613817</v>
+        <v>90.01252787245218</v>
       </c>
       <c r="J18" t="n">
-        <v>139.2596458549604</v>
+        <v>140.8977265229067</v>
       </c>
       <c r="K18" t="n">
-        <v>144.3807007403317</v>
+        <v>123.2476770567967</v>
       </c>
       <c r="L18" t="n">
-        <v>139.106699996923</v>
+        <v>140.5761912072287</v>
       </c>
       <c r="M18" t="n">
-        <v>134.8145300168136</v>
+        <v>141.283037683148</v>
       </c>
     </row>
     <row r="19">
@@ -2437,40 +2437,40 @@
         <v>44896</v>
       </c>
       <c r="B19" t="n">
-        <v>142.9</v>
+        <v>142.5333333333333</v>
       </c>
       <c r="C19" t="n">
-        <v>127.6538676155283</v>
+        <v>107.3816631105012</v>
       </c>
       <c r="D19" t="n">
-        <v>112.4240949472574</v>
+        <v>129.8145852988415</v>
       </c>
       <c r="E19" t="n">
-        <v>117.7279767563223</v>
+        <v>112.8339344755851</v>
       </c>
       <c r="F19" t="n">
-        <v>134.6671310679958</v>
+        <v>112.5493337044864</v>
       </c>
       <c r="G19" t="n">
-        <v>106.0235305498895</v>
+        <v>131.5278359679825</v>
       </c>
       <c r="H19" t="n">
-        <v>133.6662975266944</v>
+        <v>106.0509888535698</v>
       </c>
       <c r="I19" t="n">
-        <v>73.90186726323417</v>
+        <v>73.92236208240112</v>
       </c>
       <c r="J19" t="n">
-        <v>135.4881113206352</v>
+        <v>137.1935264623042</v>
       </c>
       <c r="K19" t="n">
-        <v>137.8782095778571</v>
+        <v>115.4928943456985</v>
       </c>
       <c r="L19" t="n">
-        <v>131.8927723980488</v>
+        <v>133.5505496007072</v>
       </c>
       <c r="M19" t="n">
-        <v>128.6232111706142</v>
+        <v>134.0604071603352</v>
       </c>
     </row>
     <row r="20">
@@ -2478,40 +2478,40 @@
         <v>44927</v>
       </c>
       <c r="B20" t="n">
-        <v>141.1545454545454</v>
+        <v>140.9</v>
       </c>
       <c r="C20" t="n">
-        <v>126.8964085444674</v>
+        <v>106.2435458213304</v>
       </c>
       <c r="D20" t="n">
-        <v>111.5466523993913</v>
+        <v>130.6936767560097</v>
       </c>
       <c r="E20" t="n">
-        <v>117.7742144537777</v>
+        <v>116.7601098845216</v>
       </c>
       <c r="F20" t="n">
-        <v>133.814478004758</v>
+        <v>112.3362043583586</v>
       </c>
       <c r="G20" t="n">
-        <v>105.9532459876451</v>
+        <v>131.5712411940719</v>
       </c>
       <c r="H20" t="n">
-        <v>132.3947097741938</v>
+        <v>105.9807907498576</v>
       </c>
       <c r="I20" t="n">
-        <v>68.92242137831491</v>
+        <v>68.94412753823028</v>
       </c>
       <c r="J20" t="n">
-        <v>135.593563967453</v>
+        <v>137.2311031407688</v>
       </c>
       <c r="K20" t="n">
-        <v>138.0084466581341</v>
+        <v>114.5881219998204</v>
       </c>
       <c r="L20" t="n">
-        <v>133.302495573471</v>
+        <v>131.3937517509972</v>
       </c>
       <c r="M20" t="n">
-        <v>125.9343211303093</v>
+        <v>135.4611429974133</v>
       </c>
     </row>
     <row r="21">
@@ -2519,40 +2519,40 @@
         <v>44958</v>
       </c>
       <c r="B21" t="n">
-        <v>146.5636363636363</v>
+        <v>144.9333333333333</v>
       </c>
       <c r="C21" t="n">
-        <v>127.010535804555</v>
+        <v>105.2292965947732</v>
       </c>
       <c r="D21" t="n">
-        <v>110.8010307790977</v>
+        <v>130.3289715991755</v>
       </c>
       <c r="E21" t="n">
-        <v>116.3795917439044</v>
+        <v>110.1055453220372</v>
       </c>
       <c r="F21" t="n">
-        <v>136.4958910733911</v>
+        <v>110.6681669316382</v>
       </c>
       <c r="G21" t="n">
-        <v>105.9693492543153</v>
+        <v>132.8431683762219</v>
       </c>
       <c r="H21" t="n">
-        <v>136.0783649575838</v>
+        <v>105.9969059745956</v>
       </c>
       <c r="I21" t="n">
-        <v>72.37689029583798</v>
+        <v>72.39999957721915</v>
       </c>
       <c r="J21" t="n">
-        <v>138.2006369433937</v>
+        <v>139.418472104525</v>
       </c>
       <c r="K21" t="n">
-        <v>132.932855287036</v>
+        <v>108.4246007548354</v>
       </c>
       <c r="L21" t="n">
-        <v>131.9250282792014</v>
+        <v>136.915322744992</v>
       </c>
       <c r="M21" t="n">
-        <v>132.5386507187503</v>
+        <v>134.0956800724427</v>
       </c>
     </row>
     <row r="22">
@@ -2560,40 +2560,40 @@
         <v>44986</v>
       </c>
       <c r="B22" t="n">
-        <v>153.0090909090909</v>
+        <v>152.325</v>
       </c>
       <c r="C22" t="n">
-        <v>142.5524064909494</v>
+        <v>119.4171092750887</v>
       </c>
       <c r="D22" t="n">
-        <v>125.2257919935251</v>
+        <v>137.921256779442</v>
       </c>
       <c r="E22" t="n">
-        <v>124.6526911248586</v>
+        <v>114.1234690596684</v>
       </c>
       <c r="F22" t="n">
-        <v>147.9414996166347</v>
+        <v>118.725420439685</v>
       </c>
       <c r="G22" t="n">
-        <v>105.938595167941</v>
+        <v>142.9299761140151</v>
       </c>
       <c r="H22" t="n">
-        <v>149.2666960866798</v>
+        <v>105.9661963083532</v>
       </c>
       <c r="I22" t="n">
-        <v>98.5977750341558</v>
+        <v>98.62969906955379</v>
       </c>
       <c r="J22" t="n">
-        <v>148.8001845284396</v>
+        <v>150.3436428371683</v>
       </c>
       <c r="K22" t="n">
-        <v>148.5307191316143</v>
+        <v>123.0615698113981</v>
       </c>
       <c r="L22" t="n">
-        <v>147.8360786403896</v>
+        <v>154.9277925592238</v>
       </c>
       <c r="M22" t="n">
-        <v>152.7051024182397</v>
+        <v>150.0109719110498</v>
       </c>
     </row>
     <row r="23">
@@ -2601,40 +2601,40 @@
         <v>45017</v>
       </c>
       <c r="B23" t="n">
-        <v>163.7545454545454</v>
+        <v>162.95</v>
       </c>
       <c r="C23" t="n">
-        <v>145.0064944981804</v>
+        <v>125.1878871630982</v>
       </c>
       <c r="D23" t="n">
-        <v>131.3026702954707</v>
+        <v>145.2930127649041</v>
       </c>
       <c r="E23" t="n">
-        <v>127.2266529762641</v>
+        <v>119.5365130944099</v>
       </c>
       <c r="F23" t="n">
-        <v>154.5136713584388</v>
+        <v>120.9967156187884</v>
       </c>
       <c r="G23" t="n">
-        <v>105.8883864221677</v>
+        <v>149.7981008926216</v>
       </c>
       <c r="H23" t="n">
-        <v>156.1426804425972</v>
+        <v>105.9160174213966</v>
       </c>
       <c r="I23" t="n">
-        <v>114.3621240181975</v>
+        <v>114.3982774226594</v>
       </c>
       <c r="J23" t="n">
-        <v>156.0735817378529</v>
+        <v>157.1586080390742</v>
       </c>
       <c r="K23" t="n">
-        <v>151.8261511780141</v>
+        <v>125.1138673154568</v>
       </c>
       <c r="L23" t="n">
-        <v>153.1340195635036</v>
+        <v>159.5472824370024</v>
       </c>
       <c r="M23" t="n">
-        <v>159.7361000798106</v>
+        <v>155.3233864928799</v>
       </c>
     </row>
     <row r="24">
@@ -2642,40 +2642,40 @@
         <v>45047</v>
       </c>
       <c r="B24" t="n">
-        <v>168.4727272727272</v>
+        <v>166.1833333333333</v>
       </c>
       <c r="C24" t="n">
-        <v>151.2637431954074</v>
+        <v>130.0461892993539</v>
       </c>
       <c r="D24" t="n">
-        <v>136.0417944506019</v>
+        <v>150.1126041403723</v>
       </c>
       <c r="E24" t="n">
-        <v>130.1532960077581</v>
+        <v>122.4348136474089</v>
       </c>
       <c r="F24" t="n">
-        <v>160.8451195949183</v>
+        <v>123.998215434557</v>
       </c>
       <c r="G24" t="n">
-        <v>105.8787548915089</v>
+        <v>155.4160531329964</v>
       </c>
       <c r="H24" t="n">
-        <v>162.7398893259137</v>
+        <v>105.9065274913857</v>
       </c>
       <c r="I24" t="n">
-        <v>122.3620700252358</v>
+        <v>122.4340339305842</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9416581012216</v>
+        <v>165.4818495446546</v>
       </c>
       <c r="K24" t="n">
-        <v>158.9466724269292</v>
+        <v>131.9069496752545</v>
       </c>
       <c r="L24" t="n">
-        <v>156.9796804587338</v>
+        <v>167.5642160065888</v>
       </c>
       <c r="M24" t="n">
-        <v>167.2814287342989</v>
+        <v>159.9372461001912</v>
       </c>
     </row>
     <row r="25">
@@ -2683,40 +2683,40 @@
         <v>45078</v>
       </c>
       <c r="B25" t="n">
-        <v>170.1</v>
+        <v>167.625</v>
       </c>
       <c r="C25" t="n">
-        <v>155.8308933654892</v>
+        <v>131.5695167522808</v>
       </c>
       <c r="D25" t="n">
-        <v>138.3317432618003</v>
+        <v>156.1906361190144</v>
       </c>
       <c r="E25" t="n">
-        <v>132.812003950468</v>
+        <v>133.2163632364327</v>
       </c>
       <c r="F25" t="n">
-        <v>164.8149887073488</v>
+        <v>125.9279246604064</v>
       </c>
       <c r="G25" t="n">
-        <v>105.8375460269971</v>
+        <v>160.0216277283903</v>
       </c>
       <c r="H25" t="n">
-        <v>165.7032261335224</v>
+        <v>105.8652931192709</v>
       </c>
       <c r="I25" t="n">
-        <v>119.3146837688129</v>
+        <v>119.3583331309786</v>
       </c>
       <c r="J25" t="n">
-        <v>169.9659340088346</v>
+        <v>171.0923198860647</v>
       </c>
       <c r="K25" t="n">
-        <v>166.1073892373801</v>
+        <v>136.650077683399</v>
       </c>
       <c r="L25" t="n">
-        <v>162.0673540140109</v>
+        <v>168.152827791064</v>
       </c>
       <c r="M25" t="n">
-        <v>166.9160771597663</v>
+        <v>164.4043630754746</v>
       </c>
     </row>
     <row r="26">
@@ -2724,40 +2724,40 @@
         <v>45108</v>
       </c>
       <c r="B26" t="n">
-        <v>170.5909090909091</v>
+        <v>168.275</v>
       </c>
       <c r="C26" t="n">
-        <v>153.9303984110037</v>
+        <v>131.5363864330244</v>
       </c>
       <c r="D26" t="n">
-        <v>138.5629034379354</v>
+        <v>160.3186081301871</v>
       </c>
       <c r="E26" t="n">
-        <v>133.7300597707026</v>
+        <v>143.0171018492803</v>
       </c>
       <c r="F26" t="n">
-        <v>164.611877443046</v>
+        <v>126.5762548999315</v>
       </c>
       <c r="G26" t="n">
-        <v>105.7910222534923</v>
+        <v>162.853909104979</v>
       </c>
       <c r="H26" t="n">
-        <v>165.336201498817</v>
+        <v>105.8188084076284</v>
       </c>
       <c r="I26" t="n">
-        <v>115.5540660036691</v>
+        <v>115.5876406523621</v>
       </c>
       <c r="J26" t="n">
-        <v>171.1918187484779</v>
+        <v>172.352245330277</v>
       </c>
       <c r="K26" t="n">
-        <v>169.2980952253274</v>
+        <v>138.6815734584539</v>
       </c>
       <c r="L26" t="n">
-        <v>163.6084302692529</v>
+        <v>167.7712892403588</v>
       </c>
       <c r="M26" t="n">
-        <v>165.6316797448776</v>
+        <v>166.0575232136532</v>
       </c>
     </row>
   </sheetData>

--- a/examples/housing_different_levels_results.xlsx
+++ b/examples/housing_different_levels_results.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC13"/>
+  <dimension ref="A1:AD14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,115 +471,120 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>DynamicallyTested</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Integration</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>TestSetLength</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>TestSetRMSE</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>TestSetMAPE</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>TestSetMAE</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>TestSetR2</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>LastTestSetPrediction</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>LastTestSetActual</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>InSampleRMSE</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>InSampleMAPE</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>InSampleMAE</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>InSampleR2</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>ValidationSetLength</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>ValidationMetric</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>ValidationMetricValue</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>univariate</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>models</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>weights</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>LevelTestSetRMSE</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>LevelTestSetMAPE</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>LevelTestSetMAE</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>LevelTestSetR2</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>best_model</t>
         </is>
@@ -588,183 +593,199 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 12, 'weights': 'uniform'}</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
-      <c r="F2" t="b">
+          <t>{'alpha': 2.0, 'l1_ratio': 1.0}</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Not Dynamically</t>
+        </is>
+      </c>
+      <c r="G2" t="b">
         <v>1</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>12</v>
       </c>
-      <c r="I2" t="n">
-        <v>14.22850311613719</v>
-      </c>
       <c r="J2" t="n">
-        <v>2.004169617333215</v>
+        <v>9.956728606663262</v>
       </c>
       <c r="K2" t="n">
-        <v>11.18055555555555</v>
+        <v>2.650378327542448</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07633180333035183</v>
+        <v>7.228983556294978</v>
       </c>
       <c r="M2" t="n">
-        <v>2.408333333333335</v>
+        <v>0.5488002736238082</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>10.28546549987908</v>
       </c>
       <c r="O2" t="n">
-        <v>10.03397015105871</v>
-      </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="n">
-        <v>7.861597701149426</v>
-      </c>
+        <v>8.600000000000023</v>
+      </c>
+      <c r="P2" t="n">
+        <v>12.0328075863954</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>0.6507760642306453</v>
+        <v>9.383773683234672</v>
       </c>
       <c r="S2" t="n">
+        <v>0.4978055252394018</v>
+      </c>
+      <c r="T2" t="n">
         <v>6</v>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="U2" t="n">
-        <v>15.21438730342167</v>
-      </c>
-      <c r="V2" t="inlineStr"/>
+      <c r="V2" t="n">
+        <v>11.59870887046128</v>
+      </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="n">
-        <v>12.23336692017793</v>
-      </c>
+      <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="n">
-        <v>0.07737981629220926</v>
+        <v>11.49070567300793</v>
       </c>
       <c r="AA2" t="n">
-        <v>10.09722222222222</v>
+        <v>0.07640265504003452</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.2657598923722978</v>
-      </c>
-      <c r="AC2" t="b">
+        <v>10.13386698793731</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.3601367402747107</v>
+      </c>
+      <c r="AD2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>avg_level</t>
+          <t>knn</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>combo</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>knn</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'how': 'simple', 'models': ('arima', 'hwes', 'prophet', 'silverkite'), 'determine_best_by': 'ValidationMetricValue'}</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
+          <t>{'n_neighbors': 12, 'weights': 'uniform'}</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Not Dynamically</t>
+        </is>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
       </c>
       <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
         <v>12</v>
       </c>
-      <c r="I3" t="n">
-        <v>16.82548594235659</v>
-      </c>
       <c r="J3" t="n">
-        <v>0.08761238068695283</v>
+        <v>14.24919182243655</v>
       </c>
       <c r="K3" t="n">
-        <v>12.15863164449115</v>
+        <v>2.005919859581277</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.3889331146079409</v>
+        <v>11.23055555555555</v>
       </c>
       <c r="M3" t="n">
-        <v>116.305842805747</v>
+        <v>0.07590641725962632</v>
       </c>
       <c r="N3" t="n">
-        <v>153.7</v>
+        <v>2.408333333333335</v>
       </c>
       <c r="O3" t="n">
-        <v>18.18411946658562</v>
+        <v>8.600000000000023</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1452703438397715</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>14.4315688168406</v>
-      </c>
+        <v>10.02513079762945</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>0.7716884307044599</v>
-      </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>['arima', 'hwes', 'prophet', 'silverkite']</t>
-        </is>
-      </c>
+        <v>7.855379310344827</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.6514074661154218</v>
+      </c>
+      <c r="T3" t="n">
+        <v>6</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
+        <v>15.21438730342167</v>
+      </c>
+      <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="n">
-        <v>16.82548594235659</v>
-      </c>
+      <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="n">
-        <v>0.08761238068695283</v>
+        <v>12.30746113286721</v>
       </c>
       <c r="AA3" t="n">
-        <v>12.15863164449115</v>
+        <v>0.0776661571213545</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.3889331146079409</v>
-      </c>
-      <c r="AC3" t="b">
+        <v>10.14722222222222</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.2659414207823876</v>
+      </c>
+      <c r="AD3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>weighted_diff</t>
+          <t>avg_level</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -775,424 +796,441 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'how': 'weighted', 'models': ('knn', 'svr', 'lightgbm', 'mlp'), 'determine_best_by': 'ValidationMetricValue'}</t>
+          <t>{'how': 'simple', 'models': ('arima', 'hwes', 'prophet', 'silverkite'), 'determine_best_by': 'ValidationMetricValue'}</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="b">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Not Tuned</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>12</v>
       </c>
-      <c r="I4" t="n">
-        <v>14.04284853810733</v>
-      </c>
       <c r="J4" t="n">
-        <v>1.171521125834264</v>
+        <v>15.20096606813602</v>
       </c>
       <c r="K4" t="n">
-        <v>10.99775885168122</v>
+        <v>0.07926591197677597</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1002787308278921</v>
+        <v>10.96011310550019</v>
       </c>
       <c r="M4" t="n">
-        <v>1.66064059576309</v>
+        <v>-0.1197888841638914</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>120.6338708069169</v>
       </c>
       <c r="O4" t="n">
-        <v>7.168441694696444</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
+        <v>154.3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>18.02398432036044</v>
+      </c>
       <c r="Q4" t="n">
-        <v>5.562850841508931</v>
+        <v>0.1444883622374272</v>
       </c>
       <c r="R4" t="n">
-        <v>0.8217588779464765</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
+        <v>14.32205087010169</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.7757005295493604</v>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>['mlp', 'svr', 'knn', 'lightgbm']</t>
-        </is>
-      </c>
+      <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr">
         <is>
-          <t>(0.3635036707621742, 0.30451744799212555, 0.29893309299459336, 0.033045788251106746)</t>
-        </is>
-      </c>
-      <c r="Y4" t="n">
-        <v>14.08488979717847</v>
-      </c>
+          <t>['arima', 'hwes', 'prophet', 'silverkite']</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="n">
-        <v>0.0932948421607067</v>
+        <v>15.20096606813602</v>
       </c>
       <c r="AA4" t="n">
-        <v>12.39124337585794</v>
+        <v>0.07926591197677597</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.02668591787661367</v>
-      </c>
-      <c r="AC4" t="b">
+        <v>10.96011310550019</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-0.1197888841638914</v>
+      </c>
+      <c r="AD4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>weighted_level</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>mlp</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
-        </is>
-      </c>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'activation': 'tanh', 'hidden_layer_sizes': (25, 25), 'solver': 'lbfgs', 'random_state': 20}</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
+          <t>{'how': 'weighted', 'models': ('arima', 'hwes', 'prophet', 'silverkite'), 'determine_best_by': 'ValidationMetricValue'}</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Not Tuned</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>12</v>
       </c>
-      <c r="I5" t="n">
-        <v>14.80458787117379</v>
-      </c>
       <c r="J5" t="n">
-        <v>2.95886509848357</v>
+        <v>18.1221229240184</v>
       </c>
       <c r="K5" t="n">
-        <v>11.44828188063539</v>
+        <v>0.1019200045342403</v>
       </c>
       <c r="L5" t="n">
-        <v>2.254693110448347e-05</v>
+        <v>13.95247765272757</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.01614030960090598</v>
+        <v>-0.5915193264217484</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>115.9469996426223</v>
       </c>
       <c r="O5" t="n">
-        <v>2.531990898132157</v>
-      </c>
-      <c r="P5" t="inlineStr"/>
+        <v>154.3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>20.71745886056775</v>
+      </c>
       <c r="Q5" t="n">
-        <v>1.486006574750009</v>
+        <v>0.1689947891075268</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9777626683430962</v>
+        <v>16.54298603447979</v>
       </c>
       <c r="S5" t="n">
-        <v>6</v>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="U5" t="n">
-        <v>13.33848185399014</v>
-      </c>
+        <v>0.7036536267072252</v>
+      </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="n">
-        <v>15.71581956871457</v>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>['silverkite', 'hwes', 'arima', 'prophet']</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>(0.5006804958313218, 0.2560597413960723, 0.1977433540606674, 0.04551640871193835)</t>
+        </is>
       </c>
       <c r="Z5" t="n">
-        <v>0.09689321712760175</v>
+        <v>18.1221229240184</v>
       </c>
       <c r="AA5" t="n">
-        <v>11.37145706861502</v>
+        <v>0.1019200045342403</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.2117699219081495</v>
-      </c>
-      <c r="AC5" t="b">
+        <v>13.95247765272757</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.5915193264217484</v>
+      </c>
+      <c r="AD5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>weighted_level</t>
+          <t>silverkite</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>combo</t>
+          <t>silverkite</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'how': 'weighted', 'models': ('arima', 'hwes', 'prophet', 'silverkite'), 'determine_best_by': 'ValidationMetricValue'}</t>
+          <t>{'changepoints': 0}</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="b">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Not Dynamically</t>
+        </is>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>12</v>
       </c>
-      <c r="I6" t="n">
-        <v>19.79679752196467</v>
-      </c>
       <c r="J6" t="n">
-        <v>0.108172067537125</v>
+        <v>26.55562683748546</v>
       </c>
       <c r="K6" t="n">
-        <v>14.92560566108566</v>
+        <v>0.1696648171065561</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.9228082757567833</v>
+        <v>23.02807311996528</v>
       </c>
       <c r="M6" t="n">
-        <v>111.5849725126394</v>
+        <v>-2.417487127820877</v>
       </c>
       <c r="N6" t="n">
-        <v>153.7</v>
+        <v>106.261037790605</v>
       </c>
       <c r="O6" t="n">
-        <v>20.95716454579657</v>
+        <v>154.3</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1703951929135483</v>
+        <v>36.78472798258684</v>
       </c>
       <c r="Q6" t="n">
-        <v>16.71671384960074</v>
+        <v>0.3050851029708435</v>
       </c>
       <c r="R6" t="n">
-        <v>0.6967446902083916</v>
-      </c>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>['silverkite', 'hwes', 'arima', 'prophet']</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>(0.5019899009055527, 0.2534643116581455, 0.19891034189943338, 0.04563544553686843)</t>
-        </is>
-      </c>
-      <c r="Y6" t="n">
-        <v>19.79679752196467</v>
-      </c>
+        <v>29.51787617803975</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.06575293074360633</v>
+      </c>
+      <c r="T6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="V6" t="n">
+        <v>11.69313794128677</v>
+      </c>
+      <c r="W6" t="b">
+        <v>1</v>
+      </c>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>0.108172067537125</v>
+        <v>26.55562683748546</v>
       </c>
       <c r="AA6" t="n">
-        <v>14.92560566108566</v>
+        <v>0.1696648171065561</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.9228082757567833</v>
-      </c>
-      <c r="AC6" t="b">
+        <v>23.02807311996528</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>-2.417487127820877</v>
+      </c>
+      <c r="AD6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>avg_diff</t>
+          <t>hwes</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>combo</t>
+          <t>hwes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'how': 'simple', 'models': ('knn', 'svr', 'lightgbm', 'mlp'), 'determine_best_by': 'ValidationMetricValue'}</t>
+          <t>{'trend': 'mul', 'seasonal': 'add', 'damped_trend': True}</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="b">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Not Dynamically</t>
+        </is>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
+        <v>12</v>
+      </c>
+      <c r="J7" t="n">
+        <v>29.66280686915766</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.2105116090294364</v>
+      </c>
+      <c r="L7" t="n">
+        <v>27.45008226217017</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-3.264010458031977</v>
+      </c>
+      <c r="N7" t="n">
+        <v>113.2015403356291</v>
+      </c>
+      <c r="O7" t="n">
+        <v>154.3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>10.91921186571837</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.08017996755887818</v>
+      </c>
+      <c r="R7" t="n">
+        <v>8.566032247601143</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.9176792664276275</v>
+      </c>
+      <c r="T7" t="n">
+        <v>6</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="V7" t="n">
+        <v>21.47617407590851</v>
+      </c>
+      <c r="W7" t="b">
         <v>1</v>
       </c>
-      <c r="H7" t="n">
-        <v>12</v>
-      </c>
-      <c r="I7" t="n">
-        <v>13.68034952896693</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.168543862444703</v>
-      </c>
-      <c r="K7" t="n">
-        <v>10.70914468215184</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.1461296150533532</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.838934019808727</v>
-      </c>
-      <c r="N7" t="n">
-        <v>8</v>
-      </c>
-      <c r="O7" t="n">
-        <v>7.330008596525627</v>
-      </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="n">
-        <v>5.706972285614134</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.8136337094859196</v>
-      </c>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>['knn', 'svr', 'lightgbm', 'mlp']</t>
-        </is>
-      </c>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="n">
-        <v>21.37861009237981</v>
-      </c>
+      <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>0.1475654850903531</v>
+        <v>29.66280686915766</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.63997557881413</v>
+        <v>0.2105116090294364</v>
       </c>
       <c r="AB7" t="n">
-        <v>-1.242358428779846</v>
-      </c>
-      <c r="AC7" t="b">
+        <v>27.45008226217017</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-3.264010458031977</v>
+      </c>
+      <c r="AD7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>silverkite</t>
+          <t>weighted_diff</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>silverkite</t>
+          <t>combo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'changepoints': 0}</t>
+          <t>{'how': 'weighted', 'models': ('knn', 'svr', 'lightgbm', 'mlp', 'elasticnet'), 'determine_best_by': 'ValidationMetricValue'}</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="b">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Not Tuned</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>12</v>
       </c>
-      <c r="I8" t="n">
-        <v>26.4677176240956</v>
-      </c>
       <c r="J8" t="n">
-        <v>0.1694565306591863</v>
+        <v>13.26767862424098</v>
       </c>
       <c r="K8" t="n">
-        <v>22.98017752425462</v>
+        <v>2.935922220105798</v>
       </c>
       <c r="L8" t="n">
-        <v>-2.436996465381102</v>
+        <v>9.600838409809461</v>
       </c>
       <c r="M8" t="n">
-        <v>106.2584873332802</v>
+        <v>0.1988287154503586</v>
       </c>
       <c r="N8" t="n">
-        <v>153.7</v>
+        <v>6.761927538896269</v>
       </c>
       <c r="O8" t="n">
-        <v>36.78361932495064</v>
+        <v>8.600000000000023</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3050783036754306</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>29.51702582639153</v>
-      </c>
+        <v>12.23432651089301</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
-        <v>0.06577327654797127</v>
+        <v>9.393374855869787</v>
       </c>
       <c r="S8" t="n">
-        <v>6</v>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="U8" t="n">
-        <v>11.69273758932886</v>
-      </c>
-      <c r="V8" t="b">
-        <v>1</v>
-      </c>
+        <v>0.4808437106045435</v>
+      </c>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="n">
-        <v>26.4677176240956</v>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>['mlp', 'elasticnet', 'svr', 'knn', 'lightgbm']</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>(0.3000046595957007, 0.2964636979138124, 0.19083468348716437, 0.1854238081309861, 0.027273150872336428)</t>
+        </is>
       </c>
       <c r="Z8" t="n">
-        <v>0.1694565306591863</v>
+        <v>33.80061271421366</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.98017752425462</v>
+        <v>0.2287249093243035</v>
       </c>
       <c r="AB8" t="n">
-        <v>-2.436996465381102</v>
-      </c>
-      <c r="AC8" t="b">
+        <v>30.40835334226649</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-4.536597073057269</v>
+      </c>
+      <c r="AD8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1214,74 +1252,79 @@
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="b">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Not Dynamically</t>
+        </is>
+      </c>
+      <c r="G9" t="b">
         <v>1</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>12</v>
       </c>
-      <c r="I9" t="n">
-        <v>30.77216523826975</v>
-      </c>
       <c r="J9" t="n">
-        <v>0.2299572546927127</v>
+        <v>30.82740445360642</v>
       </c>
       <c r="K9" t="n">
-        <v>28.95782059021475</v>
+        <v>0.2302101922377014</v>
       </c>
       <c r="L9" t="n">
-        <v>-3.645818209158476</v>
+        <v>29.00782059021475</v>
       </c>
       <c r="M9" t="n">
+        <v>-3.605403574072794</v>
+      </c>
+      <c r="N9" t="n">
         <v>119.9728810514455</v>
       </c>
-      <c r="N9" t="n">
-        <v>153.7</v>
-      </c>
       <c r="O9" t="n">
-        <v>31.51159397014147</v>
+        <v>154.3</v>
       </c>
       <c r="P9" t="n">
-        <v>0.2518008778436727</v>
+        <v>31.51240778559105</v>
       </c>
       <c r="Q9" t="n">
-        <v>24.9836981425155</v>
+        <v>0.2518073451441327</v>
       </c>
       <c r="R9" t="n">
-        <v>0.3143790002142021</v>
+        <v>24.98442510902486</v>
       </c>
       <c r="S9" t="n">
+        <v>0.3143699841834792</v>
+      </c>
+      <c r="T9" t="n">
         <v>6</v>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>29.89636326348532</v>
       </c>
-      <c r="V9" t="b">
+      <c r="W9" t="b">
         <v>1</v>
       </c>
-      <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="n">
-        <v>30.77216523826975</v>
-      </c>
+      <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
-        <v>0.2299572546927127</v>
+        <v>30.82740445360642</v>
       </c>
       <c r="AA9" t="n">
-        <v>28.95782059021475</v>
+        <v>0.2302101922377014</v>
       </c>
       <c r="AB9" t="n">
-        <v>-3.645818209158476</v>
-      </c>
-      <c r="AC9" t="b">
+        <v>29.00782059021475</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-3.605403574072794</v>
+      </c>
+      <c r="AD9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1298,7 +1341,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1311,341 +1354,445 @@
           <t>minmax</t>
         </is>
       </c>
-      <c r="F10" t="b">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Not Dynamically</t>
+        </is>
+      </c>
+      <c r="G10" t="b">
         <v>1</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>12</v>
       </c>
-      <c r="I10" t="n">
-        <v>14.2064372145417</v>
-      </c>
       <c r="J10" t="n">
-        <v>2.288488903830905</v>
+        <v>14.22580754093759</v>
       </c>
       <c r="K10" t="n">
-        <v>11.36971118784312</v>
+        <v>2.292326474417683</v>
       </c>
       <c r="L10" t="n">
-        <v>0.07919447514551492</v>
+        <v>11.42008632098418</v>
       </c>
       <c r="M10" t="n">
-        <v>2.882632143679769</v>
+        <v>0.07893697973758751</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>2.882627174536632</v>
       </c>
       <c r="O10" t="n">
-        <v>13.17490396583428</v>
-      </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="n">
-        <v>10.05843218618325</v>
-      </c>
+        <v>8.600000000000023</v>
+      </c>
+      <c r="P10" t="n">
+        <v>13.13947780344381</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>0.3979212358511663</v>
+        <v>10.02835840776086</v>
       </c>
       <c r="S10" t="n">
+        <v>0.4011828950700207</v>
+      </c>
+      <c r="T10" t="n">
         <v>6</v>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="U10" t="n">
-        <v>15.05215053346217</v>
-      </c>
-      <c r="V10" t="inlineStr"/>
+      <c r="V10" t="n">
+        <v>15.03819849985716</v>
+      </c>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="n">
-        <v>33.21520819684512</v>
-      </c>
+      <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
-        <v>0.2382176409442703</v>
+        <v>33.29522479426575</v>
       </c>
       <c r="AA10" t="n">
-        <v>31.06827811688126</v>
+        <v>0.2385087267824854</v>
       </c>
       <c r="AB10" t="n">
-        <v>-4.412776042453927</v>
-      </c>
-      <c r="AC10" t="b">
+        <v>31.12677462225648</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>-4.372268074681979</v>
+      </c>
+      <c r="AD10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>hwes</t>
+          <t>avg_diff</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>hwes</t>
+          <t>combo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'trend': 'mul', 'seasonal': 'add', 'damped_trend': False}</t>
+          <t>{'how': 'simple', 'models': ('knn', 'svr', 'lightgbm', 'mlp', 'elasticnet'), 'determine_best_by': 'ValidationMetricValue'}</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="b">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Not Tuned</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>12</v>
       </c>
-      <c r="I11" t="n">
-        <v>38.27870107321678</v>
-      </c>
       <c r="J11" t="n">
-        <v>0.2744861329849597</v>
+        <v>12.75602508585566</v>
       </c>
       <c r="K11" t="n">
-        <v>35.82345997681183</v>
+        <v>3.647960151794353</v>
       </c>
       <c r="L11" t="n">
-        <v>-6.188867593762677</v>
+        <v>9.433168680739763</v>
       </c>
       <c r="M11" t="n">
-        <v>95.89197878827419</v>
+        <v>0.2594298250277597</v>
       </c>
       <c r="N11" t="n">
-        <v>153.7</v>
+        <v>4.98000219248428</v>
       </c>
       <c r="O11" t="n">
-        <v>11.00987506314031</v>
+        <v>8.600000000000023</v>
       </c>
       <c r="P11" t="n">
-        <v>0.07919454520276557</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>8.561000308398292</v>
-      </c>
+        <v>11.29004763072921</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>0.9163033358826781</v>
+        <v>8.718008519116069</v>
       </c>
       <c r="S11" t="n">
-        <v>6</v>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="U11" t="n">
-        <v>21.6062308047156</v>
-      </c>
-      <c r="V11" t="b">
-        <v>1</v>
-      </c>
+        <v>0.5578908183360554</v>
+      </c>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="n">
-        <v>38.27870107321678</v>
-      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>['knn', 'svr', 'lightgbm', 'mlp', 'elasticnet']</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
-        <v>0.2744861329849597</v>
+        <v>36.12877747143796</v>
       </c>
       <c r="AA11" t="n">
-        <v>35.82345997681183</v>
+        <v>0.2550048827066065</v>
       </c>
       <c r="AB11" t="n">
-        <v>-6.188867593762677</v>
-      </c>
-      <c r="AC11" t="b">
+        <v>33.51494066516689</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>-5.325579308284916</v>
+      </c>
+      <c r="AD11" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>lightgbm</t>
+          <t>arima</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>lightgbm</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19', 't^2', 't^3']</t>
-        </is>
-      </c>
+          <t>arima</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>{'max_depth': 4}</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
-      <c r="F12" t="b">
+          <t>{'order': (0, 1, 2), 'seasonal_order': (0, 1, 1, 12), 'trend': 'n'}</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Not Dynamically</t>
+        </is>
+      </c>
+      <c r="G12" t="b">
         <v>1</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>12</v>
+      </c>
+      <c r="J12" t="n">
+        <v>55.68005782309162</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.3919335016592729</v>
+      </c>
+      <c r="L12" t="n">
+        <v>47.03335337499001</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-14.02426129859499</v>
+      </c>
+      <c r="N12" t="n">
+        <v>143.100024049988</v>
+      </c>
+      <c r="O12" t="n">
+        <v>154.3</v>
+      </c>
+      <c r="P12" t="n">
+        <v>11.58644876774325</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.08054923381196277</v>
+      </c>
+      <c r="R12" t="n">
+        <v>8.660803619781996</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.9073111833254927</v>
+      </c>
+      <c r="T12" t="n">
+        <v>6</v>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="V12" t="n">
+        <v>23.80840187832859</v>
+      </c>
+      <c r="W12" t="b">
         <v>1</v>
       </c>
-      <c r="H12" t="n">
-        <v>12</v>
-      </c>
-      <c r="I12" t="n">
-        <v>16.09182274601781</v>
-      </c>
-      <c r="J12" t="n">
-        <v>10.01672085989683</v>
-      </c>
-      <c r="K12" t="n">
-        <v>11.82556364834888</v>
-      </c>
-      <c r="L12" t="n">
-        <v>-0.181430134172387</v>
-      </c>
-      <c r="M12" t="n">
-        <v>2.080910911822711</v>
-      </c>
-      <c r="N12" t="n">
-        <v>8</v>
-      </c>
-      <c r="O12" t="n">
-        <v>7.250217387581412</v>
-      </c>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="n">
-        <v>5.755350871454016</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.8176690268260493</v>
-      </c>
-      <c r="S12" t="n">
-        <v>6</v>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="U12" t="n">
-        <v>22.93894949796026</v>
-      </c>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="n">
-        <v>49.74528739968223</v>
-      </c>
+      <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="n">
-        <v>0.3794060509214841</v>
+        <v>55.68005782309162</v>
       </c>
       <c r="AA12" t="n">
-        <v>48.56391687683225</v>
+        <v>0.3919335016592729</v>
       </c>
       <c r="AB12" t="n">
-        <v>-11.14087503136859</v>
-      </c>
-      <c r="AC12" t="b">
+        <v>47.03335337499001</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>-14.02426129859499</v>
+      </c>
+      <c r="AD12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lightgbm</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>arima</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>lightgbm</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{'order': (0, 1, 2), 'seasonal_order': (0, 1, 1, 12), 'trend': 'n'}</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="b">
+          <t>{'max_depth': 2}</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Not Dynamically</t>
+        </is>
+      </c>
+      <c r="G13" t="b">
         <v>1</v>
       </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
       <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
         <v>12</v>
       </c>
-      <c r="I13" t="n">
-        <v>55.67026891966506</v>
-      </c>
       <c r="J13" t="n">
-        <v>0.3916318054054712</v>
+        <v>15.08747219838924</v>
       </c>
       <c r="K13" t="n">
-        <v>46.98335337499</v>
+        <v>7.868889123213035</v>
       </c>
       <c r="L13" t="n">
-        <v>-14.20522106524192</v>
+        <v>10.76954127709949</v>
       </c>
       <c r="M13" t="n">
-        <v>143.100024049988</v>
+        <v>-0.03602075065961485</v>
       </c>
       <c r="N13" t="n">
-        <v>153.7</v>
+        <v>0.2974577864519554</v>
       </c>
       <c r="O13" t="n">
-        <v>11.58603488376122</v>
+        <v>8.600000000000023</v>
       </c>
       <c r="P13" t="n">
-        <v>0.08054474772223835</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>8.660024401428648</v>
-      </c>
+        <v>9.320871922951323</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
       <c r="R13" t="n">
-        <v>0.9073142367210271</v>
+        <v>7.292338253172074</v>
       </c>
       <c r="S13" t="n">
+        <v>0.6986639667766382</v>
+      </c>
+      <c r="T13" t="n">
         <v>6</v>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="U13" t="n">
-        <v>23.78234639391161</v>
-      </c>
-      <c r="V13" t="b">
-        <v>1</v>
+      <c r="V13" t="n">
+        <v>20.36408550401416</v>
       </c>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="n">
-        <v>55.67026891966506</v>
-      </c>
+      <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="n">
-        <v>0.3916318054054712</v>
+        <v>60.32924215063278</v>
       </c>
       <c r="AA13" t="n">
-        <v>46.98335337499</v>
+        <v>0.4496113111775727</v>
       </c>
       <c r="AB13" t="n">
-        <v>-14.20522106524192</v>
-      </c>
-      <c r="AC13" t="b">
+        <v>57.51493546535716</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>-16.63800707598961</v>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>{'activation': 'tanh', 'hidden_layer_sizes': (25, 25), 'solver': 'lbfgs', 'random_state': 20}</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Not Dynamically</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>12</v>
+      </c>
+      <c r="J14" t="n">
+        <v>18.10899728218212</v>
+      </c>
+      <c r="K14" t="n">
+        <v>8.43392829503477</v>
+      </c>
+      <c r="L14" t="n">
+        <v>12.96195628889159</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-0.4925342142263982</v>
+      </c>
+      <c r="N14" t="n">
+        <v>9.0261271682204</v>
+      </c>
+      <c r="O14" t="n">
+        <v>8.600000000000023</v>
+      </c>
+      <c r="P14" t="n">
+        <v>16.97973886907075</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>12.64373466445569</v>
+      </c>
+      <c r="S14" t="n">
+        <v>-3.552713678800501e-15</v>
+      </c>
+      <c r="T14" t="n">
+        <v>6</v>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="V14" t="n">
+        <v>11.48340815456375</v>
+      </c>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="n">
+        <v>72.95969672820053</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.4859195134707201</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>64.14675305236273</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>-24.79644220807279</v>
+      </c>
+      <c r="AD14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1660,7 +1807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1676,62 +1823,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>elasticnet</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>knn</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>avg_level</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>weighted_level</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>silverkite</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>hwes</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>weighted_diff</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>prophet</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>svr</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>avg_diff</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>arima</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>lightgbm</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>mlp</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>weighted_level</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>avg_diff</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>silverkite</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>prophet</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>svr</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>hwes</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>lightgbm</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>arima</t>
         </is>
       </c>
     </row>
@@ -1740,40 +1892,43 @@
         <v>44378</v>
       </c>
       <c r="B2" t="n">
-        <v>153.95</v>
+        <v>159.3419710693526</v>
       </c>
       <c r="C2" t="n">
-        <v>132.4976675093273</v>
+        <v>154.5583333333333</v>
       </c>
       <c r="D2" t="n">
-        <v>148.3946701371894</v>
+        <v>133.5359982590729</v>
       </c>
       <c r="E2" t="n">
-        <v>137.6646843948878</v>
+        <v>129.5406605667929</v>
       </c>
       <c r="F2" t="n">
-        <v>128.43410020671</v>
+        <v>106.6355380940402</v>
       </c>
       <c r="G2" t="n">
-        <v>149.2725740241389</v>
+        <v>157.7247329922549</v>
       </c>
       <c r="H2" t="n">
-        <v>106.6330347753317</v>
+        <v>156.0264166432467</v>
       </c>
       <c r="I2" t="n">
-        <v>115.5138783093065</v>
+        <v>115.5154619322586</v>
       </c>
       <c r="J2" t="n">
-        <v>155.5875851605928</v>
+        <v>155.7359013246499</v>
       </c>
       <c r="K2" t="n">
-        <v>153.9862164813903</v>
+        <v>154.7538528809553</v>
       </c>
       <c r="L2" t="n">
-        <v>149.8880265410753</v>
+        <v>154.2682600177379</v>
       </c>
       <c r="M2" t="n">
-        <v>153.8575404712806</v>
+        <v>149.7173335278767</v>
+      </c>
+      <c r="N2" t="n">
+        <v>154.415725149564</v>
       </c>
     </row>
     <row r="3">
@@ -1781,40 +1936,43 @@
         <v>44409</v>
       </c>
       <c r="B3" t="n">
-        <v>151.225</v>
+        <v>154.447159532815</v>
       </c>
       <c r="C3" t="n">
-        <v>128.5632550558494</v>
+        <v>151.1083333333333</v>
       </c>
       <c r="D3" t="n">
-        <v>148.3201394284359</v>
+        <v>130.4959010024299</v>
       </c>
       <c r="E3" t="n">
-        <v>142.7932644153652</v>
+        <v>127.1294204592387</v>
       </c>
       <c r="F3" t="n">
-        <v>125.1223492976604</v>
+        <v>106.5853620249925</v>
       </c>
       <c r="G3" t="n">
-        <v>147.835620983353</v>
+        <v>152.9463303951067</v>
       </c>
       <c r="H3" t="n">
-        <v>106.5828558883751</v>
+        <v>153.2271139059621</v>
       </c>
       <c r="I3" t="n">
-        <v>113.6266355163633</v>
+        <v>113.6284413642046</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4387241916499</v>
+        <v>152.1561011688114</v>
       </c>
       <c r="K3" t="n">
-        <v>145.6379999454644</v>
+        <v>151.9519010929906</v>
       </c>
       <c r="L3" t="n">
-        <v>144.8854953263969</v>
+        <v>148.8234702254157</v>
       </c>
       <c r="M3" t="n">
-        <v>148.4055288731948</v>
+        <v>147.5164611308655</v>
+      </c>
+      <c r="N3" t="n">
+        <v>154.5314502991279</v>
       </c>
     </row>
     <row r="4">
@@ -1822,40 +1980,43 @@
         <v>44440</v>
       </c>
       <c r="B4" t="n">
-        <v>149.8833333333333</v>
+        <v>153.1172681395695</v>
       </c>
       <c r="C4" t="n">
-        <v>126.3967505891562</v>
+        <v>152.775</v>
       </c>
       <c r="D4" t="n">
-        <v>148.2802506756854</v>
+        <v>128.8372437636031</v>
       </c>
       <c r="E4" t="n">
-        <v>148.3859548910144</v>
+        <v>126.9034181803819</v>
       </c>
       <c r="F4" t="n">
-        <v>124.3773557850479</v>
+        <v>106.553965064259</v>
       </c>
       <c r="G4" t="n">
-        <v>147.8863062326953</v>
+        <v>153.8967489676586</v>
       </c>
       <c r="H4" t="n">
-        <v>106.5514533022693</v>
+        <v>151.9561793379225</v>
       </c>
       <c r="I4" t="n">
-        <v>106.7942987196834</v>
+        <v>106.7962880337393</v>
       </c>
       <c r="J4" t="n">
-        <v>146.7732893225171</v>
+        <v>146.1224054411499</v>
       </c>
       <c r="K4" t="n">
-        <v>144.557580526612</v>
+        <v>150.3297476404911</v>
       </c>
       <c r="L4" t="n">
-        <v>146.5026473839165</v>
+        <v>148.1019729887558</v>
       </c>
       <c r="M4" t="n">
-        <v>147.6836698080603</v>
+        <v>144.9868891730441</v>
+      </c>
+      <c r="N4" t="n">
+        <v>154.6471754486919</v>
       </c>
     </row>
     <row r="5">
@@ -1863,40 +2024,43 @@
         <v>44470</v>
       </c>
       <c r="B5" t="n">
-        <v>145.3916666666667</v>
+        <v>154.7643538715</v>
       </c>
       <c r="C5" t="n">
-        <v>127.8742986065948</v>
+        <v>150.7333333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>137.4122022642</v>
+        <v>130.5173628647413</v>
       </c>
       <c r="E5" t="n">
-        <v>126.7360613160789</v>
+        <v>127.5462587444791</v>
       </c>
       <c r="F5" t="n">
-        <v>124.81275197406</v>
+        <v>106.5178894708137</v>
       </c>
       <c r="G5" t="n">
-        <v>140.317494067162</v>
+        <v>155.1725007388551</v>
       </c>
       <c r="H5" t="n">
-        <v>106.5153775611231</v>
+        <v>150.9945407531612</v>
       </c>
       <c r="I5" t="n">
-        <v>111.7180291153352</v>
+        <v>111.7202361335611</v>
       </c>
       <c r="J5" t="n">
-        <v>141.1781423917964</v>
+        <v>140.2074588925843</v>
       </c>
       <c r="K5" t="n">
-        <v>145.0234668712084</v>
+        <v>149.2573981988623</v>
       </c>
       <c r="L5" t="n">
-        <v>147.9641058941062</v>
+        <v>148.6588251157353</v>
       </c>
       <c r="M5" t="n">
-        <v>148.2403208787124</v>
+        <v>145.8189442986381</v>
+      </c>
+      <c r="N5" t="n">
+        <v>154.7629005982558</v>
       </c>
     </row>
     <row r="6">
@@ -1904,40 +2068,43 @@
         <v>44501</v>
       </c>
       <c r="B6" t="n">
-        <v>139.575</v>
+        <v>144.8584785927811</v>
       </c>
       <c r="C6" t="n">
-        <v>115.6676678433657</v>
+        <v>141.8833333333334</v>
       </c>
       <c r="D6" t="n">
-        <v>130.8642082308515</v>
+        <v>118.5201863800425</v>
       </c>
       <c r="E6" t="n">
-        <v>121.1866033649387</v>
+        <v>120.5858570338796</v>
       </c>
       <c r="F6" t="n">
-        <v>117.6564647435517</v>
+        <v>106.4781132810161</v>
       </c>
       <c r="G6" t="n">
-        <v>133.055410722731</v>
+        <v>141.9919810794577</v>
       </c>
       <c r="H6" t="n">
-        <v>106.4755957685348</v>
+        <v>144.5442358775526</v>
       </c>
       <c r="I6" t="n">
-        <v>89.97556673826084</v>
+        <v>89.97811993873144</v>
       </c>
       <c r="J6" t="n">
-        <v>133.0460632812277</v>
+        <v>131.7068618134347</v>
       </c>
       <c r="K6" t="n">
-        <v>131.0060918014692</v>
+        <v>141.7386865788011</v>
       </c>
       <c r="L6" t="n">
-        <v>138.4139762447576</v>
+        <v>135.6325312209646</v>
       </c>
       <c r="M6" t="n">
-        <v>135.213417065198</v>
+        <v>135.3661334066367</v>
+      </c>
+      <c r="N6" t="n">
+        <v>154.8786257478198</v>
       </c>
     </row>
     <row r="7">
@@ -1945,40 +2112,43 @@
         <v>44531</v>
       </c>
       <c r="B7" t="n">
-        <v>135.0833333333333</v>
+        <v>146.1372598092776</v>
       </c>
       <c r="C7" t="n">
-        <v>108.0567464257306</v>
+        <v>137.4333333333333</v>
       </c>
       <c r="D7" t="n">
-        <v>124.2318439807028</v>
+        <v>110.5602449037279</v>
       </c>
       <c r="E7" t="n">
-        <v>109.8244633226946</v>
+        <v>116.087296926607</v>
       </c>
       <c r="F7" t="n">
-        <v>113.5255098849623</v>
+        <v>106.4538423695216</v>
       </c>
       <c r="G7" t="n">
-        <v>126.438536743989</v>
+        <v>132.7828568244197</v>
       </c>
       <c r="H7" t="n">
-        <v>106.4513112885158</v>
+        <v>143.3282767356472</v>
       </c>
       <c r="I7" t="n">
-        <v>74.59057628197009</v>
+        <v>74.59360698271273</v>
       </c>
       <c r="J7" t="n">
-        <v>130.0669710901059</v>
+        <v>128.3658569903998</v>
       </c>
       <c r="K7" t="n">
-        <v>123.1943115900514</v>
+        <v>139.2341973892185</v>
       </c>
       <c r="L7" t="n">
-        <v>130.7793792298222</v>
+        <v>128.4106734382575</v>
       </c>
       <c r="M7" t="n">
-        <v>127.9907865423853</v>
+        <v>129.2401859156979</v>
+      </c>
+      <c r="N7" t="n">
+        <v>154.9943508973838</v>
       </c>
     </row>
     <row r="8">
@@ -1986,40 +2156,43 @@
         <v>44562</v>
       </c>
       <c r="B8" t="n">
-        <v>133.45</v>
+        <v>147.2059846307624</v>
       </c>
       <c r="C8" t="n">
-        <v>106.9561716549003</v>
+        <v>138.925</v>
       </c>
       <c r="D8" t="n">
-        <v>124.6835321698445</v>
+        <v>108.9712101361083</v>
       </c>
       <c r="E8" t="n">
-        <v>112.2231221126181</v>
+        <v>115.3590839975137</v>
       </c>
       <c r="F8" t="n">
-        <v>113.3011237873767</v>
+        <v>106.369725374985</v>
       </c>
       <c r="G8" t="n">
-        <v>126.2950327742175</v>
+        <v>129.8667422647688</v>
       </c>
       <c r="H8" t="n">
-        <v>106.3671960885267</v>
+        <v>143.8914946425636</v>
       </c>
       <c r="I8" t="n">
-        <v>69.83300767337042</v>
+        <v>69.83616567694125</v>
       </c>
       <c r="J8" t="n">
-        <v>130.4805829183345</v>
+        <v>128.3537010643772</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2329604782409</v>
+        <v>139.3078637663798</v>
       </c>
       <c r="L8" t="n">
-        <v>129.0264260659173</v>
+        <v>129.8122072277382</v>
       </c>
       <c r="M8" t="n">
-        <v>129.3915223794633</v>
+        <v>126.944557089812</v>
+      </c>
+      <c r="N8" t="n">
+        <v>155.1100760469477</v>
       </c>
     </row>
     <row r="9">
@@ -2027,40 +2200,43 @@
         <v>44593</v>
       </c>
       <c r="B9" t="n">
-        <v>137.4833333333333</v>
+        <v>140.9162955726619</v>
       </c>
       <c r="C9" t="n">
-        <v>105.5070688300885</v>
+        <v>140.0166666666667</v>
       </c>
       <c r="D9" t="n">
-        <v>123.7014518864911</v>
+        <v>107.7206030774895</v>
       </c>
       <c r="E9" t="n">
-        <v>104.6607635881191</v>
+        <v>113.7930317658923</v>
       </c>
       <c r="F9" t="n">
-        <v>111.5464258246694</v>
+        <v>106.3954678735738</v>
       </c>
       <c r="G9" t="n">
-        <v>126.1600765820028</v>
+        <v>124.4424220388966</v>
       </c>
       <c r="H9" t="n">
-        <v>106.3929326279485</v>
+        <v>142.5028935821861</v>
       </c>
       <c r="I9" t="n">
-        <v>71.59600711245099</v>
+        <v>71.59884240342421</v>
       </c>
       <c r="J9" t="n">
-        <v>132.1838454531994</v>
+        <v>129.5097021068528</v>
       </c>
       <c r="K9" t="n">
-        <v>116.0132761254618</v>
+        <v>138.6569435979528</v>
       </c>
       <c r="L9" t="n">
-        <v>130.3123639533595</v>
+        <v>128.4456799940632</v>
       </c>
       <c r="M9" t="n">
-        <v>128.0260594544927</v>
+        <v>127.6162524470709</v>
+      </c>
+      <c r="N9" t="n">
+        <v>155.2258011965117</v>
       </c>
     </row>
     <row r="10">
@@ -2068,40 +2244,43 @@
         <v>44621</v>
       </c>
       <c r="B10" t="n">
-        <v>145.4916666666666</v>
+        <v>156.7022140490295</v>
       </c>
       <c r="C10" t="n">
-        <v>120.319768202976</v>
+        <v>153.4916666666667</v>
       </c>
       <c r="D10" t="n">
-        <v>135.6022432957785</v>
+        <v>122.5728757093828</v>
       </c>
       <c r="E10" t="n">
-        <v>121.5071059829638</v>
+        <v>122.0112731315025</v>
       </c>
       <c r="F10" t="n">
-        <v>119.7081210984004</v>
+        <v>106.3690582836884</v>
       </c>
       <c r="G10" t="n">
-        <v>138.7811931590677</v>
+        <v>139.1828328446327</v>
       </c>
       <c r="H10" t="n">
-        <v>106.3665187432992</v>
+        <v>152.0163684817803</v>
       </c>
       <c r="I10" t="n">
-        <v>100.376708096785</v>
+        <v>100.3790199687336</v>
       </c>
       <c r="J10" t="n">
-        <v>141.5261525904151</v>
+        <v>138.3759973971932</v>
       </c>
       <c r="K10" t="n">
-        <v>130.5944946787199</v>
+        <v>150.7657610178108</v>
       </c>
       <c r="L10" t="n">
-        <v>146.5998473962252</v>
+        <v>144.3605917404765</v>
       </c>
       <c r="M10" t="n">
-        <v>143.9413512930998</v>
+        <v>149.9174006300891</v>
+      </c>
+      <c r="N10" t="n">
+        <v>155.3415263460756</v>
       </c>
     </row>
     <row r="11">
@@ -2109,40 +2288,43 @@
         <v>44652</v>
       </c>
       <c r="B11" t="n">
-        <v>153.825</v>
+        <v>147.1278262559996</v>
       </c>
       <c r="C11" t="n">
-        <v>125.9900530963768</v>
+        <v>160.8</v>
       </c>
       <c r="D11" t="n">
-        <v>145.0919493983244</v>
+        <v>129.5222815712843</v>
       </c>
       <c r="E11" t="n">
-        <v>137.0042006379895</v>
+        <v>125.5675146009755</v>
       </c>
       <c r="F11" t="n">
-        <v>121.9569539772289</v>
+        <v>106.3350629169357</v>
       </c>
       <c r="G11" t="n">
-        <v>146.3054754173165</v>
+        <v>146.2976138794135</v>
       </c>
       <c r="H11" t="n">
-        <v>106.3325187556736</v>
+        <v>151.2463342450829</v>
       </c>
       <c r="I11" t="n">
-        <v>115.7824765021553</v>
+        <v>115.7847268098776</v>
       </c>
       <c r="J11" t="n">
-        <v>145.7927420618826</v>
+        <v>142.0022940455102</v>
       </c>
       <c r="K11" t="n">
-        <v>132.5914512527482</v>
+        <v>150.9622780886579</v>
       </c>
       <c r="L11" t="n">
-        <v>148.5999589693942</v>
+        <v>149.6717226789103</v>
       </c>
       <c r="M11" t="n">
-        <v>149.2537658749299</v>
+        <v>149.4240186461404</v>
+      </c>
+      <c r="N11" t="n">
+        <v>155.4572514956396</v>
       </c>
     </row>
     <row r="12">
@@ -2150,40 +2332,43 @@
         <v>44682</v>
       </c>
       <c r="B12" t="n">
-        <v>158.35</v>
+        <v>155.6888743076309</v>
       </c>
       <c r="C12" t="n">
-        <v>130.3819918678925</v>
+        <v>161.275</v>
       </c>
       <c r="D12" t="n">
-        <v>150.9856368322987</v>
+        <v>134.5888301886341</v>
       </c>
       <c r="E12" t="n">
-        <v>141.7770788512231</v>
+        <v>129.1626392655149</v>
       </c>
       <c r="F12" t="n">
-        <v>124.8497779732041</v>
+        <v>106.2989957631332</v>
       </c>
       <c r="G12" t="n">
-        <v>152.3421132422536</v>
+        <v>155.7337944902173</v>
       </c>
       <c r="H12" t="n">
-        <v>106.2964528319635</v>
+        <v>155.5990289523477</v>
       </c>
       <c r="I12" t="n">
-        <v>122.0342899105219</v>
+        <v>122.0368294497014</v>
       </c>
       <c r="J12" t="n">
-        <v>154.3216998659661</v>
+        <v>150.0085630915861</v>
       </c>
       <c r="K12" t="n">
-        <v>139.3295992468435</v>
+        <v>155.5964357583556</v>
       </c>
       <c r="L12" t="n">
-        <v>154.9196742518254</v>
+        <v>154.2857010514847</v>
       </c>
       <c r="M12" t="n">
-        <v>153.8676254822412</v>
+        <v>155.4367647473574</v>
+      </c>
+      <c r="N12" t="n">
+        <v>155.5729766452035</v>
       </c>
     </row>
     <row r="13">
@@ -2191,40 +2376,43 @@
         <v>44713</v>
       </c>
       <c r="B13" t="n">
-        <v>159.7916666666667</v>
+        <v>165.9534628027525</v>
       </c>
       <c r="C13" t="n">
-        <v>132.3150474941507</v>
+        <v>162.4083333333333</v>
       </c>
       <c r="D13" t="n">
-        <v>150.6206791471032</v>
+        <v>137.3993757177633</v>
       </c>
       <c r="E13" t="n">
-        <v>133.4371767819307</v>
+        <v>132.0565323323392</v>
       </c>
       <c r="F13" t="n">
-        <v>126.8444384030804</v>
+        <v>106.261037790605</v>
       </c>
       <c r="G13" t="n">
-        <v>152.4593013014497</v>
+        <v>163.8370320870373</v>
       </c>
       <c r="H13" t="n">
-        <v>106.2584873332802</v>
+        <v>160.1588276006625</v>
       </c>
       <c r="I13" t="n">
-        <v>120.6487637190253</v>
+        <v>120.658797426521</v>
       </c>
       <c r="J13" t="n">
-        <v>161.6602837291052</v>
+        <v>156.9554431280367</v>
       </c>
       <c r="K13" t="n">
-        <v>144.0181964667727</v>
+        <v>158.8936477776877</v>
       </c>
       <c r="L13" t="n">
-        <v>154.9480780280965</v>
+        <v>158.8406355668901</v>
       </c>
       <c r="M13" t="n">
-        <v>158.3347424575246</v>
+        <v>153.4622978295485</v>
+      </c>
+      <c r="N13" t="n">
+        <v>155.6887017947675</v>
       </c>
     </row>
     <row r="14">
@@ -2232,40 +2420,43 @@
         <v>44743</v>
       </c>
       <c r="B14" t="n">
-        <v>160.4416666666667</v>
+        <v>172.5958511723624</v>
       </c>
       <c r="C14" t="n">
-        <v>131.9406665908128</v>
+        <v>163.0333333333333</v>
       </c>
       <c r="D14" t="n">
-        <v>150.333745679756</v>
+        <v>137.3860491422743</v>
       </c>
       <c r="E14" t="n">
-        <v>129.6904750828677</v>
+        <v>133.0175354887371</v>
       </c>
       <c r="F14" t="n">
-        <v>127.4286773122251</v>
+        <v>106.2352700661455</v>
       </c>
       <c r="G14" t="n">
-        <v>152.0825490113438</v>
+        <v>167.2924771290407</v>
       </c>
       <c r="H14" t="n">
-        <v>106.2327123403857</v>
+        <v>162.7593865058295</v>
       </c>
       <c r="I14" t="n">
-        <v>115.5464893609609</v>
+        <v>115.5490512454531</v>
       </c>
       <c r="J14" t="n">
-        <v>164.7109417640559</v>
+        <v>159.5332833166132</v>
       </c>
       <c r="K14" t="n">
-        <v>145.9955620662014</v>
+        <v>160.803578903759</v>
       </c>
       <c r="L14" t="n">
-        <v>153.4871125317849</v>
+        <v>160.4673981284581</v>
       </c>
       <c r="M14" t="n">
-        <v>159.9879025957032</v>
+        <v>153.0509997521549</v>
+      </c>
+      <c r="N14" t="n">
+        <v>155.8044269443315</v>
       </c>
     </row>
     <row r="15">
@@ -2273,40 +2464,43 @@
         <v>44774</v>
       </c>
       <c r="B15" t="n">
-        <v>156.1666666666667</v>
+        <v>166.0173149245287</v>
       </c>
       <c r="C15" t="n">
-        <v>127.8567725572209</v>
+        <v>158.85</v>
       </c>
       <c r="D15" t="n">
-        <v>149.4989201215407</v>
+        <v>134.1696509458509</v>
       </c>
       <c r="E15" t="n">
-        <v>135.1455014224588</v>
+        <v>130.5596420502839</v>
       </c>
       <c r="F15" t="n">
-        <v>124.0970122348798</v>
+        <v>106.1949154309407</v>
       </c>
       <c r="G15" t="n">
-        <v>149.7889606321798</v>
+        <v>162.4722814728362</v>
       </c>
       <c r="H15" t="n">
-        <v>106.1923554220021</v>
+        <v>158.9750497868433</v>
       </c>
       <c r="I15" t="n">
-        <v>113.0535361272307</v>
+        <v>113.055975234074</v>
       </c>
       <c r="J15" t="n">
-        <v>160.299284056763</v>
+        <v>154.6436962302429</v>
       </c>
       <c r="K15" t="n">
-        <v>137.7060491885062</v>
+        <v>156.5233725486482</v>
       </c>
       <c r="L15" t="n">
-        <v>147.5443903828308</v>
+        <v>154.9554316455527</v>
       </c>
       <c r="M15" t="n">
-        <v>154.4751494911448</v>
+        <v>147.1856994945737</v>
+      </c>
+      <c r="N15" t="n">
+        <v>155.9201520938954</v>
       </c>
     </row>
     <row r="16">
@@ -2314,40 +2508,43 @@
         <v>44805</v>
       </c>
       <c r="B16" t="n">
-        <v>157.4833333333333</v>
+        <v>166.2214978400067</v>
       </c>
       <c r="C16" t="n">
-        <v>125.8808425520626</v>
+        <v>159.3416666666667</v>
       </c>
       <c r="D16" t="n">
-        <v>144.6556527789147</v>
+        <v>132.6764460637265</v>
       </c>
       <c r="E16" t="n">
-        <v>125.3350600395706</v>
+        <v>130.3566079858278</v>
       </c>
       <c r="F16" t="n">
-        <v>123.400632886659</v>
+        <v>106.1672793326401</v>
       </c>
       <c r="G16" t="n">
-        <v>145.9868005977361</v>
+        <v>163.3805862279496</v>
       </c>
       <c r="H16" t="n">
-        <v>106.1647123651346</v>
+        <v>157.9814914997498</v>
       </c>
       <c r="I16" t="n">
-        <v>106.9214652579649</v>
+        <v>106.9239842854234</v>
       </c>
       <c r="J16" t="n">
-        <v>154.9623250983751</v>
+        <v>148.9119384278659</v>
       </c>
       <c r="K16" t="n">
-        <v>136.6839021591409</v>
+        <v>154.9075225192286</v>
       </c>
       <c r="L16" t="n">
-        <v>146.1664839196654</v>
+        <v>154.2339344088927</v>
       </c>
       <c r="M16" t="n">
-        <v>153.7532904260103</v>
+        <v>144.0266324181443</v>
+      </c>
+      <c r="N16" t="n">
+        <v>156.0358772434594</v>
       </c>
     </row>
     <row r="17">
@@ -2355,40 +2552,43 @@
         <v>44835</v>
       </c>
       <c r="B17" t="n">
-        <v>152.9916666666666</v>
+        <v>167.1302027791241</v>
       </c>
       <c r="C17" t="n">
-        <v>126.9093107594699</v>
+        <v>157.7916666666667</v>
       </c>
       <c r="D17" t="n">
-        <v>140.717419381366</v>
+        <v>133.8822437067818</v>
       </c>
       <c r="E17" t="n">
-        <v>123.3439009227579</v>
+        <v>130.8979766886332</v>
       </c>
       <c r="F17" t="n">
-        <v>123.759876982795</v>
+        <v>106.1176214429189</v>
       </c>
       <c r="G17" t="n">
-        <v>143.2507294706701</v>
+        <v>164.6139141887849</v>
       </c>
       <c r="H17" t="n">
-        <v>106.1150551261771</v>
+        <v>156.7375104991199</v>
       </c>
       <c r="I17" t="n">
-        <v>110.0046136222263</v>
+        <v>110.006652659551</v>
       </c>
       <c r="J17" t="n">
-        <v>148.6106509623604</v>
+        <v>142.1868350545454</v>
       </c>
       <c r="K17" t="n">
-        <v>137.2076327928136</v>
+        <v>153.6237988874196</v>
       </c>
       <c r="L17" t="n">
-        <v>148.0566993308954</v>
+        <v>154.7907865358723</v>
       </c>
       <c r="M17" t="n">
-        <v>154.3099414966624</v>
+        <v>144.8586875437383</v>
+      </c>
+      <c r="N17" t="n">
+        <v>156.1516023930233</v>
       </c>
     </row>
     <row r="18">
@@ -2396,40 +2596,43 @@
         <v>44866</v>
       </c>
       <c r="B18" t="n">
-        <v>147.175</v>
+        <v>158.1317253827126</v>
       </c>
       <c r="C18" t="n">
-        <v>115.1546289864964</v>
+        <v>148.9416666666667</v>
       </c>
       <c r="D18" t="n">
-        <v>131.7783819775551</v>
+        <v>122.312030840727</v>
       </c>
       <c r="E18" t="n">
-        <v>110.6773881410639</v>
+        <v>124.0063153059719</v>
       </c>
       <c r="F18" t="n">
-        <v>116.6980227214287</v>
+        <v>106.0778452531214</v>
       </c>
       <c r="G18" t="n">
-        <v>134.8315764677998</v>
+        <v>151.3906713795615</v>
       </c>
       <c r="H18" t="n">
-        <v>106.0752733335888</v>
+        <v>150.6952566678409</v>
       </c>
       <c r="I18" t="n">
-        <v>90.01252787245218</v>
+        <v>90.0151140891235</v>
       </c>
       <c r="J18" t="n">
-        <v>140.8977265229067</v>
+        <v>134.0362434778351</v>
       </c>
       <c r="K18" t="n">
-        <v>123.2476770567967</v>
+        <v>146.886373420199</v>
       </c>
       <c r="L18" t="n">
-        <v>140.5761912072287</v>
+        <v>141.7644926411016</v>
       </c>
       <c r="M18" t="n">
-        <v>141.283037683148</v>
+        <v>137.0549040311934</v>
+      </c>
+      <c r="N18" t="n">
+        <v>156.2673275425873</v>
       </c>
     </row>
     <row r="19">
@@ -2437,40 +2640,43 @@
         <v>44896</v>
       </c>
       <c r="B19" t="n">
-        <v>142.5333333333333</v>
+        <v>158.8749082895045</v>
       </c>
       <c r="C19" t="n">
-        <v>107.3816631105012</v>
+        <v>142.625</v>
       </c>
       <c r="D19" t="n">
-        <v>129.8145852988415</v>
+        <v>114.1649729792262</v>
       </c>
       <c r="E19" t="n">
-        <v>112.8339344755851</v>
+        <v>119.464631856114</v>
       </c>
       <c r="F19" t="n">
-        <v>112.5493337044864</v>
+        <v>106.0535743416269</v>
       </c>
       <c r="G19" t="n">
-        <v>131.5278359679825</v>
+        <v>142.1385351753422</v>
       </c>
       <c r="H19" t="n">
-        <v>106.0509888535698</v>
+        <v>148.8286567652272</v>
       </c>
       <c r="I19" t="n">
-        <v>73.92236208240112</v>
+        <v>73.92514754154135</v>
       </c>
       <c r="J19" t="n">
-        <v>137.1935264623042</v>
+        <v>129.878117703358</v>
       </c>
       <c r="K19" t="n">
-        <v>115.4928943456985</v>
+        <v>143.8128363510954</v>
       </c>
       <c r="L19" t="n">
-        <v>133.5505496007072</v>
+        <v>134.5426348583944</v>
       </c>
       <c r="M19" t="n">
-        <v>134.0604071603352</v>
+        <v>131.3031030704634</v>
+      </c>
+      <c r="N19" t="n">
+        <v>156.3830526921512</v>
       </c>
     </row>
     <row r="20">
@@ -2478,40 +2684,43 @@
         <v>44927</v>
       </c>
       <c r="B20" t="n">
-        <v>140.9</v>
+        <v>158.8848179094579</v>
       </c>
       <c r="C20" t="n">
-        <v>106.2435458213304</v>
+        <v>144.1166666666667</v>
       </c>
       <c r="D20" t="n">
-        <v>130.6936767560097</v>
+        <v>112.5134241537735</v>
       </c>
       <c r="E20" t="n">
-        <v>116.7601098845216</v>
+        <v>118.7222550831153</v>
       </c>
       <c r="F20" t="n">
-        <v>112.3362043583586</v>
+        <v>105.9833694873133</v>
       </c>
       <c r="G20" t="n">
-        <v>131.5712411940719</v>
+        <v>139.1791302926611</v>
       </c>
       <c r="H20" t="n">
-        <v>105.9807907498576</v>
+        <v>148.9774907137402</v>
       </c>
       <c r="I20" t="n">
-        <v>68.94412753823028</v>
+        <v>68.9470281872446</v>
       </c>
       <c r="J20" t="n">
-        <v>137.2311031407688</v>
+        <v>129.3984355689329</v>
       </c>
       <c r="K20" t="n">
-        <v>114.5881219998204</v>
+        <v>143.4986369319579</v>
       </c>
       <c r="L20" t="n">
-        <v>131.3937517509972</v>
+        <v>135.9441686478752</v>
       </c>
       <c r="M20" t="n">
-        <v>135.4611429974133</v>
+        <v>128.5944866730167</v>
+      </c>
+      <c r="N20" t="n">
+        <v>156.4987778417152</v>
       </c>
     </row>
     <row r="21">
@@ -2519,40 +2728,43 @@
         <v>44958</v>
       </c>
       <c r="B21" t="n">
-        <v>144.9333333333333</v>
+        <v>152.1425907577025</v>
       </c>
       <c r="C21" t="n">
-        <v>105.2292965947732</v>
+        <v>146.1583333333333</v>
       </c>
       <c r="D21" t="n">
-        <v>130.3289715991755</v>
+        <v>111.6728786590491</v>
       </c>
       <c r="E21" t="n">
-        <v>110.1055453220372</v>
+        <v>117.2173130764658</v>
       </c>
       <c r="F21" t="n">
-        <v>110.6681669316382</v>
+        <v>105.9994957483446</v>
       </c>
       <c r="G21" t="n">
-        <v>132.8431683762219</v>
+        <v>133.7112516796448</v>
       </c>
       <c r="H21" t="n">
-        <v>105.9969059745956</v>
+        <v>147.8082707032907</v>
       </c>
       <c r="I21" t="n">
-        <v>72.39999957721915</v>
+        <v>72.40312579400704</v>
       </c>
       <c r="J21" t="n">
-        <v>139.418472104525</v>
+        <v>130.9600097685568</v>
       </c>
       <c r="K21" t="n">
-        <v>108.4246007548354</v>
+        <v>143.7615879618614</v>
       </c>
       <c r="L21" t="n">
-        <v>136.915322744992</v>
+        <v>134.5776414142001</v>
       </c>
       <c r="M21" t="n">
-        <v>134.0956800724427</v>
+        <v>132.9325029584351</v>
+      </c>
+      <c r="N21" t="n">
+        <v>156.6145029912792</v>
       </c>
     </row>
     <row r="22">
@@ -2560,40 +2772,43 @@
         <v>44986</v>
       </c>
       <c r="B22" t="n">
-        <v>152.325</v>
+        <v>171.7495265816165</v>
       </c>
       <c r="C22" t="n">
-        <v>119.4171092750887</v>
+        <v>156.9416666666667</v>
       </c>
       <c r="D22" t="n">
-        <v>137.921256779442</v>
+        <v>125.8753149094123</v>
       </c>
       <c r="E22" t="n">
-        <v>114.1234690596684</v>
+        <v>125.3060610070459</v>
       </c>
       <c r="F22" t="n">
-        <v>118.725420439685</v>
+        <v>105.9687902557937</v>
       </c>
       <c r="G22" t="n">
-        <v>142.9299761140151</v>
+        <v>148.4078462270033</v>
       </c>
       <c r="H22" t="n">
-        <v>105.9661963083532</v>
+        <v>158.1784307778016</v>
       </c>
       <c r="I22" t="n">
-        <v>98.62969906955379</v>
+        <v>98.63206999423868</v>
       </c>
       <c r="J22" t="n">
-        <v>150.3436428371683</v>
+        <v>141.3337197810457</v>
       </c>
       <c r="K22" t="n">
-        <v>123.0615698113981</v>
+        <v>155.9234774680607</v>
       </c>
       <c r="L22" t="n">
-        <v>154.9277925592238</v>
+        <v>150.4925531606134</v>
       </c>
       <c r="M22" t="n">
-        <v>150.0109719110498</v>
+        <v>152.8622461701316</v>
+      </c>
+      <c r="N22" t="n">
+        <v>156.7302281408431</v>
       </c>
     </row>
     <row r="23">
@@ -2601,40 +2816,43 @@
         <v>45017</v>
       </c>
       <c r="B23" t="n">
-        <v>162.95</v>
+        <v>164.4267303008221</v>
       </c>
       <c r="C23" t="n">
-        <v>125.1878871630982</v>
+        <v>166.1916666666667</v>
       </c>
       <c r="D23" t="n">
-        <v>145.2930127649041</v>
+        <v>132.9004784337166</v>
       </c>
       <c r="E23" t="n">
-        <v>119.5365130944099</v>
+        <v>128.8594530759262</v>
       </c>
       <c r="F23" t="n">
-        <v>120.9967156187884</v>
+        <v>105.9186141867459</v>
       </c>
       <c r="G23" t="n">
-        <v>149.7981008926216</v>
+        <v>155.4785632072004</v>
       </c>
       <c r="H23" t="n">
-        <v>105.9160174213966</v>
+        <v>159.0483050454663</v>
       </c>
       <c r="I23" t="n">
-        <v>114.3982774226594</v>
+        <v>114.4010522418728</v>
       </c>
       <c r="J23" t="n">
-        <v>157.1586080390742</v>
+        <v>147.4545558221267</v>
       </c>
       <c r="K23" t="n">
-        <v>125.1138673154568</v>
+        <v>158.4572001606733</v>
       </c>
       <c r="L23" t="n">
-        <v>159.5472824370024</v>
+        <v>155.8036840990472</v>
       </c>
       <c r="M23" t="n">
-        <v>155.3233864928799</v>
+        <v>157.3670947233437</v>
+      </c>
+      <c r="N23" t="n">
+        <v>156.8459532904071</v>
       </c>
     </row>
     <row r="24">
@@ -2642,40 +2860,43 @@
         <v>45047</v>
       </c>
       <c r="B24" t="n">
-        <v>166.1833333333333</v>
+        <v>172.3508913705789</v>
       </c>
       <c r="C24" t="n">
-        <v>130.0461892993539</v>
+        <v>166.6666666666667</v>
       </c>
       <c r="D24" t="n">
-        <v>150.1126041403723</v>
+        <v>138.4087424399823</v>
       </c>
       <c r="E24" t="n">
-        <v>122.4348136474089</v>
+        <v>132.5377699907855</v>
       </c>
       <c r="F24" t="n">
-        <v>123.998215434557</v>
+        <v>105.9091276144887</v>
       </c>
       <c r="G24" t="n">
-        <v>155.4160531329964</v>
+        <v>164.8704419234709</v>
       </c>
       <c r="H24" t="n">
-        <v>105.9065274913857</v>
+        <v>163.1548100877723</v>
       </c>
       <c r="I24" t="n">
-        <v>122.4340339305842</v>
+        <v>122.437737750348</v>
       </c>
       <c r="J24" t="n">
-        <v>165.4818495446546</v>
+        <v>155.1570861561889</v>
       </c>
       <c r="K24" t="n">
-        <v>131.9069496752545</v>
+        <v>162.9075452538902</v>
       </c>
       <c r="L24" t="n">
-        <v>167.5642160065888</v>
+        <v>160.4176624716216</v>
       </c>
       <c r="M24" t="n">
-        <v>159.9372461001912</v>
+        <v>163.4014036360452</v>
+      </c>
+      <c r="N24" t="n">
+        <v>156.961678439971</v>
       </c>
     </row>
     <row r="25">
@@ -2683,81 +2904,43 @@
         <v>45078</v>
       </c>
       <c r="B25" t="n">
-        <v>167.625</v>
+        <v>178.8467139633944</v>
       </c>
       <c r="C25" t="n">
-        <v>131.5695167522808</v>
+        <v>168.1416666666667</v>
       </c>
       <c r="D25" t="n">
-        <v>156.1906361190144</v>
+        <v>140.7837948318385</v>
       </c>
       <c r="E25" t="n">
-        <v>133.2163632364327</v>
+        <v>135.3415113815587</v>
       </c>
       <c r="F25" t="n">
-        <v>125.9279246604064</v>
+        <v>105.8679007802696</v>
       </c>
       <c r="G25" t="n">
-        <v>160.0216277283903</v>
+        <v>172.9291496224562</v>
       </c>
       <c r="H25" t="n">
-        <v>105.8652931192709</v>
+        <v>166.2477953859823</v>
       </c>
       <c r="I25" t="n">
-        <v>119.3583331309786</v>
+        <v>119.3655319376011</v>
       </c>
       <c r="J25" t="n">
-        <v>171.0923198860647</v>
+        <v>160.2640583191508</v>
       </c>
       <c r="K25" t="n">
-        <v>136.650077683399</v>
+        <v>164.6985590903124</v>
       </c>
       <c r="L25" t="n">
-        <v>168.152827791064</v>
+        <v>164.972596987027</v>
       </c>
       <c r="M25" t="n">
-        <v>164.4043630754746</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>45108</v>
-      </c>
-      <c r="B26" t="n">
-        <v>168.275</v>
-      </c>
-      <c r="C26" t="n">
-        <v>131.5363864330244</v>
-      </c>
-      <c r="D26" t="n">
-        <v>160.3186081301871</v>
-      </c>
-      <c r="E26" t="n">
-        <v>143.0171018492803</v>
-      </c>
-      <c r="F26" t="n">
-        <v>126.5762548999315</v>
-      </c>
-      <c r="G26" t="n">
-        <v>162.853909104979</v>
-      </c>
-      <c r="H26" t="n">
-        <v>105.8188084076284</v>
-      </c>
-      <c r="I26" t="n">
-        <v>115.5876406523621</v>
-      </c>
-      <c r="J26" t="n">
-        <v>172.352245330277</v>
-      </c>
-      <c r="K26" t="n">
-        <v>138.6815734584539</v>
-      </c>
-      <c r="L26" t="n">
-        <v>167.7712892403588</v>
-      </c>
-      <c r="M26" t="n">
-        <v>166.0575232136532</v>
+        <v>159.1629529128153</v>
+      </c>
+      <c r="N25" t="n">
+        <v>157.077403589535</v>
       </c>
     </row>
   </sheetData>

--- a/examples/housing_different_levels_results.xlsx
+++ b/examples/housing_different_levels_results.xlsx
@@ -593,12 +593,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>knn</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>knn</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -608,14 +608,16 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'alpha': 2.0, 'l1_ratio': 1.0}</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Not Dynamically</t>
-        </is>
+          <t>{'n_neighbors': 12, 'weights': 'uniform'}</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -627,32 +629,32 @@
         <v>12</v>
       </c>
       <c r="J2" t="n">
-        <v>9.956728606663262</v>
+        <v>14.24919182243655</v>
       </c>
       <c r="K2" t="n">
-        <v>2.650378327542448</v>
+        <v>2.005919859581277</v>
       </c>
       <c r="L2" t="n">
-        <v>7.228983556294978</v>
+        <v>11.23055555555555</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5488002736238082</v>
+        <v>0.07590641725962632</v>
       </c>
       <c r="N2" t="n">
-        <v>10.28546549987908</v>
+        <v>2.408333333333335</v>
       </c>
       <c r="O2" t="n">
         <v>8.600000000000023</v>
       </c>
       <c r="P2" t="n">
-        <v>12.0328075863954</v>
+        <v>10.02513079762945</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>9.383773683234672</v>
+        <v>7.855379310344827</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4978055252394018</v>
+        <v>0.6514074661154218</v>
       </c>
       <c r="T2" t="n">
         <v>6</v>
@@ -663,22 +665,22 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>11.59870887046128</v>
+        <v>15.21438730342167</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="n">
-        <v>11.49070567300793</v>
+        <v>12.30746113286721</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.07640265504003452</v>
+        <v>0.0776661571213545</v>
       </c>
       <c r="AB2" t="n">
-        <v>10.13386698793731</v>
+        <v>10.14722222222222</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.3601367402747107</v>
+        <v>0.2659414207823876</v>
       </c>
       <c r="AD2" t="b">
         <v>1</v>
@@ -687,96 +689,82 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>avg_level</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>knn</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
-        </is>
-      </c>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 12, 'weights': 'uniform'}</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Not Dynamically</t>
-        </is>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
+          <t>{'how': 'simple', 'models': ('arima', 'hwes', 'prophet', 'silverkite'), 'determine_best_by': 'ValidationMetricValue'}</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>12</v>
       </c>
       <c r="J3" t="n">
-        <v>14.24919182243655</v>
+        <v>15.20096606813602</v>
       </c>
       <c r="K3" t="n">
-        <v>2.005919859581277</v>
+        <v>0.07926591197677597</v>
       </c>
       <c r="L3" t="n">
-        <v>11.23055555555555</v>
+        <v>10.96011310550019</v>
       </c>
       <c r="M3" t="n">
-        <v>0.07590641725962632</v>
+        <v>-0.1197888841638914</v>
       </c>
       <c r="N3" t="n">
-        <v>2.408333333333335</v>
+        <v>120.6338708069169</v>
       </c>
       <c r="O3" t="n">
-        <v>8.600000000000023</v>
+        <v>154.3</v>
       </c>
       <c r="P3" t="n">
-        <v>10.02513079762945</v>
-      </c>
-      <c r="Q3" t="inlineStr"/>
+        <v>18.02398432036044</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.1444883622374272</v>
+      </c>
       <c r="R3" t="n">
-        <v>7.855379310344827</v>
+        <v>14.32205087010169</v>
       </c>
       <c r="S3" t="n">
-        <v>0.6514074661154218</v>
-      </c>
-      <c r="T3" t="n">
-        <v>6</v>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="V3" t="n">
-        <v>15.21438730342167</v>
-      </c>
+        <v>0.7757005295493604</v>
+      </c>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>['arima', 'hwes', 'prophet', 'silverkite']</t>
+        </is>
+      </c>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="n">
-        <v>12.30746113286721</v>
+        <v>15.20096606813602</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.0776661571213545</v>
+        <v>0.07926591197677597</v>
       </c>
       <c r="AB3" t="n">
-        <v>10.14722222222222</v>
+        <v>10.96011310550019</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.2659414207823876</v>
+        <v>-0.1197888841638914</v>
       </c>
       <c r="AD3" t="b">
         <v>0</v>
@@ -785,84 +773,94 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>avg_level</t>
+          <t>mlp</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>combo</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'how': 'simple', 'models': ('arima', 'hwes', 'prophet', 'silverkite'), 'determine_best_by': 'ValidationMetricValue'}</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Not Tuned</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
+          <t>{'activation': 'tanh', 'hidden_layer_sizes': (25, 25), 'solver': 'adam', 'random_state': 20}</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>pt</t>
+        </is>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>12</v>
       </c>
       <c r="J4" t="n">
-        <v>15.20096606813602</v>
+        <v>14.92954405738234</v>
       </c>
       <c r="K4" t="n">
-        <v>0.07926591197677597</v>
+        <v>2.582425408251861</v>
       </c>
       <c r="L4" t="n">
-        <v>10.96011310550019</v>
+        <v>11.40608929277311</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.1197888841638914</v>
+        <v>-0.01444516804033147</v>
       </c>
       <c r="N4" t="n">
-        <v>120.6338708069169</v>
+        <v>1.718607513334995</v>
       </c>
       <c r="O4" t="n">
-        <v>154.3</v>
+        <v>8.600000000000023</v>
       </c>
       <c r="P4" t="n">
-        <v>18.02398432036044</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.1444883622374272</v>
-      </c>
+        <v>10.90820722836179</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
-        <v>14.32205087010169</v>
+        <v>8.333468090920878</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7757005295493604</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
+        <v>0.5872902339842373</v>
+      </c>
+      <c r="T4" t="n">
+        <v>6</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
+        <v>10.36735629217854</v>
+      </c>
       <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>['arima', 'hwes', 'prophet', 'silverkite']</t>
-        </is>
-      </c>
+      <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="n">
-        <v>15.20096606813602</v>
+        <v>14.2520525329766</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.07926591197677597</v>
+        <v>0.08832067882317061</v>
       </c>
       <c r="AB4" t="n">
-        <v>10.96011310550019</v>
+        <v>10.50220286716312</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.1197888841638914</v>
+        <v>0.01565213902185425</v>
       </c>
       <c r="AD4" t="b">
         <v>0</v>
@@ -886,10 +884,8 @@
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Not Tuned</t>
-        </is>
+      <c r="F5" t="b">
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
@@ -961,92 +957,84 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>silverkite</t>
+          <t>weighted_diff</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>silverkite</t>
+          <t>combo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'changepoints': 0}</t>
+          <t>{'how': 'weighted', 'models': ('knn', 'svr', 'lightgbm', 'mlp', 'elasticnet'), 'determine_best_by': 'ValidationMetricValue'}</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Not Dynamically</t>
-        </is>
-      </c>
-      <c r="G6" t="b">
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
         <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>12</v>
       </c>
       <c r="J6" t="n">
-        <v>26.55562683748546</v>
+        <v>12.58031027408624</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1696648171065561</v>
+        <v>0.9551976968381481</v>
       </c>
       <c r="L6" t="n">
-        <v>23.02807311996528</v>
+        <v>9.425476384243284</v>
       </c>
       <c r="M6" t="n">
-        <v>-2.417487127820877</v>
+        <v>0.2796920745336009</v>
       </c>
       <c r="N6" t="n">
-        <v>106.261037790605</v>
+        <v>4.885134254831581</v>
       </c>
       <c r="O6" t="n">
-        <v>154.3</v>
+        <v>8.600000000000023</v>
       </c>
       <c r="P6" t="n">
-        <v>36.78472798258684</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.3050851029708435</v>
-      </c>
+        <v>10.86194350213236</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>29.51787617803975</v>
+        <v>8.421668001314595</v>
       </c>
       <c r="S6" t="n">
-        <v>0.06575293074360633</v>
-      </c>
-      <c r="T6" t="n">
-        <v>6</v>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="V6" t="n">
-        <v>11.69313794128677</v>
-      </c>
-      <c r="W6" t="b">
-        <v>1</v>
-      </c>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
+        <v>0.5907835673454328</v>
+      </c>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>['mlp', 'elasticnet', 'svr', 'knn', 'lightgbm']</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>(0.3184036172082561, 0.2914458403381978, 0.1831481560980646, 0.17805660297291276, 0.02894578338256874)</t>
+        </is>
+      </c>
       <c r="Z6" t="n">
-        <v>26.55562683748546</v>
+        <v>15.69602153059849</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.1696648171065561</v>
+        <v>0.1027911624538593</v>
       </c>
       <c r="AB6" t="n">
-        <v>23.02807311996528</v>
+        <v>13.8190006749926</v>
       </c>
       <c r="AC6" t="n">
-        <v>-2.417487127820877</v>
+        <v>-0.1939137240654614</v>
       </c>
       <c r="AD6" t="b">
         <v>0</v>
@@ -1055,64 +1043,64 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>hwes</t>
+          <t>elasticnet</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>hwes</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>elasticnet</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'trend': 'mul', 'seasonal': 'add', 'damped_trend': True}</t>
+          <t>{'alpha': 1.0, 'l1_ratio': 1.0}</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Not Dynamically</t>
-        </is>
+      <c r="F7" t="b">
+        <v>1</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>12</v>
       </c>
       <c r="J7" t="n">
-        <v>29.66280686915766</v>
+        <v>9.889504237227525</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2105116090294364</v>
+        <v>0.9880403401730518</v>
       </c>
       <c r="L7" t="n">
-        <v>27.45008226217017</v>
+        <v>6.923244356046017</v>
       </c>
       <c r="M7" t="n">
-        <v>-3.264010458031977</v>
+        <v>0.5548723930966784</v>
       </c>
       <c r="N7" t="n">
-        <v>113.2015403356291</v>
+        <v>11.56893754961369</v>
       </c>
       <c r="O7" t="n">
-        <v>154.3</v>
+        <v>8.600000000000023</v>
       </c>
       <c r="P7" t="n">
-        <v>10.91921186571837</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.08017996755887818</v>
-      </c>
+        <v>11.81710542046874</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
-        <v>8.566032247601143</v>
+        <v>9.194604727731607</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9176792664276275</v>
+        <v>0.5156489942673415</v>
       </c>
       <c r="T7" t="n">
         <v>6</v>
@@ -1123,24 +1111,22 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>21.47617407590851</v>
-      </c>
-      <c r="W7" t="b">
-        <v>1</v>
-      </c>
+        <v>11.29837132798284</v>
+      </c>
+      <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>29.66280686915766</v>
+        <v>20.50689541438721</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.2105116090294364</v>
+        <v>0.1370747710073457</v>
       </c>
       <c r="AB7" t="n">
-        <v>27.45008226217017</v>
+        <v>18.30831416796834</v>
       </c>
       <c r="AC7" t="n">
-        <v>-3.264010458031977</v>
+        <v>-1.037950381607124</v>
       </c>
       <c r="AD7" t="b">
         <v>0</v>
@@ -1149,7 +1135,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>weighted_diff</t>
+          <t>avg_diff</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1160,14 +1146,12 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'how': 'weighted', 'models': ('knn', 'svr', 'lightgbm', 'mlp', 'elasticnet'), 'determine_best_by': 'ValidationMetricValue'}</t>
+          <t>{'how': 'simple', 'models': ('knn', 'svr', 'lightgbm', 'mlp', 'elasticnet'), 'determine_best_by': 'ValidationMetricValue'}</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Not Tuned</t>
-        </is>
+      <c r="F8" t="b">
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
@@ -1177,32 +1161,32 @@
         <v>12</v>
       </c>
       <c r="J8" t="n">
-        <v>13.26767862424098</v>
+        <v>12.22613234027798</v>
       </c>
       <c r="K8" t="n">
-        <v>2.935922220105798</v>
+        <v>2.281921886746886</v>
       </c>
       <c r="L8" t="n">
-        <v>9.600838409809461</v>
+        <v>9.10147202761466</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1988287154503586</v>
+        <v>0.3196793189141381</v>
       </c>
       <c r="N8" t="n">
-        <v>6.761927538896269</v>
+        <v>3.776095795491338</v>
       </c>
       <c r="O8" t="n">
         <v>8.600000000000023</v>
       </c>
       <c r="P8" t="n">
-        <v>12.23432651089301</v>
+        <v>10.47963976810514</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
-        <v>9.393374855869787</v>
+        <v>8.146049687708414</v>
       </c>
       <c r="S8" t="n">
-        <v>0.4808437106045435</v>
+        <v>0.6190827023675967</v>
       </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
@@ -1210,25 +1194,21 @@
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr">
         <is>
-          <t>['mlp', 'elasticnet', 'svr', 'knn', 'lightgbm']</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>(0.3000046595957007, 0.2964636979138124, 0.19083468348716437, 0.1854238081309861, 0.027273150872336428)</t>
-        </is>
-      </c>
+          <t>['knn', 'svr', 'lightgbm', 'mlp', 'elasticnet']</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
-        <v>33.80061271421366</v>
+        <v>23.70854130325607</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.2287249093243035</v>
+        <v>0.1649517742885372</v>
       </c>
       <c r="AB8" t="n">
-        <v>30.40835334226649</v>
+        <v>21.87976979762497</v>
       </c>
       <c r="AC8" t="n">
-        <v>-4.536597073057269</v>
+        <v>-1.723977032940819</v>
       </c>
       <c r="AD8" t="b">
         <v>0</v>
@@ -1237,25 +1217,23 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>prophet</t>
+          <t>silverkite</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>prophet</t>
+          <t>silverkite</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>{'n_changepoints': 0}</t>
+          <t>{'changepoints': 0}</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Not Dynamically</t>
-        </is>
+      <c r="F9" t="b">
+        <v>1</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -1267,34 +1245,34 @@
         <v>12</v>
       </c>
       <c r="J9" t="n">
-        <v>30.82740445360642</v>
+        <v>26.55562683748546</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2302101922377014</v>
+        <v>0.1696648171065561</v>
       </c>
       <c r="L9" t="n">
-        <v>29.00782059021475</v>
+        <v>23.02807311996528</v>
       </c>
       <c r="M9" t="n">
-        <v>-3.605403574072794</v>
+        <v>-2.417487127820877</v>
       </c>
       <c r="N9" t="n">
-        <v>119.9728810514455</v>
+        <v>106.261037790605</v>
       </c>
       <c r="O9" t="n">
         <v>154.3</v>
       </c>
       <c r="P9" t="n">
-        <v>31.51240778559105</v>
+        <v>36.78472798258684</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.2518073451441327</v>
+        <v>0.3050851029708435</v>
       </c>
       <c r="R9" t="n">
-        <v>24.98442510902486</v>
+        <v>29.51787617803975</v>
       </c>
       <c r="S9" t="n">
-        <v>0.3143699841834792</v>
+        <v>0.06575293074360633</v>
       </c>
       <c r="T9" t="n">
         <v>6</v>
@@ -1305,7 +1283,7 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>29.89636326348532</v>
+        <v>11.69313794128677</v>
       </c>
       <c r="W9" t="b">
         <v>1</v>
@@ -1313,16 +1291,16 @@
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
-        <v>30.82740445360642</v>
+        <v>26.55562683748546</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.2302101922377014</v>
+        <v>0.1696648171065561</v>
       </c>
       <c r="AB9" t="n">
-        <v>29.00782059021475</v>
+        <v>23.02807311996528</v>
       </c>
       <c r="AC9" t="n">
-        <v>-3.605403574072794</v>
+        <v>-2.417487127820877</v>
       </c>
       <c r="AD9" t="b">
         <v>0</v>
@@ -1331,70 +1309,62 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>svr</t>
+          <t>hwes</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>svr</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
-        </is>
-      </c>
+          <t>hwes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'kernel': 'linear', 'C': 0.5, 'epsilon': 0.1}</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Not Dynamically</t>
-        </is>
+          <t>{'trend': 'mul', 'seasonal': 'add', 'damped_trend': True}</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="b">
+        <v>1</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>12</v>
       </c>
       <c r="J10" t="n">
-        <v>14.22580754093759</v>
+        <v>29.66280686915766</v>
       </c>
       <c r="K10" t="n">
-        <v>2.292326474417683</v>
+        <v>0.2105116090294364</v>
       </c>
       <c r="L10" t="n">
-        <v>11.42008632098418</v>
+        <v>27.45008226217017</v>
       </c>
       <c r="M10" t="n">
-        <v>0.07893697973758751</v>
+        <v>-3.264010458031977</v>
       </c>
       <c r="N10" t="n">
-        <v>2.882627174536632</v>
+        <v>113.2015403356291</v>
       </c>
       <c r="O10" t="n">
-        <v>8.600000000000023</v>
+        <v>154.3</v>
       </c>
       <c r="P10" t="n">
-        <v>13.13947780344381</v>
-      </c>
-      <c r="Q10" t="inlineStr"/>
+        <v>10.91921186571837</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.08017996755887818</v>
+      </c>
       <c r="R10" t="n">
-        <v>10.02835840776086</v>
+        <v>8.566032247601143</v>
       </c>
       <c r="S10" t="n">
-        <v>0.4011828950700207</v>
+        <v>0.9176792664276275</v>
       </c>
       <c r="T10" t="n">
         <v>6</v>
@@ -1405,22 +1375,24 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>15.03819849985716</v>
-      </c>
-      <c r="W10" t="inlineStr"/>
+        <v>21.47617407590851</v>
+      </c>
+      <c r="W10" t="b">
+        <v>1</v>
+      </c>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
-        <v>33.29522479426575</v>
+        <v>29.66280686915766</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.2385087267824854</v>
+        <v>0.2105116090294364</v>
       </c>
       <c r="AB10" t="n">
-        <v>31.12677462225648</v>
+        <v>27.45008226217017</v>
       </c>
       <c r="AC10" t="n">
-        <v>-4.372268074681979</v>
+        <v>-3.264010458031977</v>
       </c>
       <c r="AD10" t="b">
         <v>0</v>
@@ -1429,82 +1401,90 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>avg_diff</t>
+          <t>prophet</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>combo</t>
+          <t>prophet</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'how': 'simple', 'models': ('knn', 'svr', 'lightgbm', 'mlp', 'elasticnet'), 'determine_best_by': 'ValidationMetricValue'}</t>
+          <t>{'n_changepoints': 0}</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Not Tuned</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>12</v>
       </c>
       <c r="J11" t="n">
-        <v>12.75602508585566</v>
+        <v>30.82740445360642</v>
       </c>
       <c r="K11" t="n">
-        <v>3.647960151794353</v>
+        <v>0.2302101922377014</v>
       </c>
       <c r="L11" t="n">
-        <v>9.433168680739763</v>
+        <v>29.00782059021475</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2594298250277597</v>
+        <v>-3.605403574072794</v>
       </c>
       <c r="N11" t="n">
-        <v>4.98000219248428</v>
+        <v>119.9728810514455</v>
       </c>
       <c r="O11" t="n">
-        <v>8.600000000000023</v>
+        <v>154.3</v>
       </c>
       <c r="P11" t="n">
-        <v>11.29004763072921</v>
-      </c>
-      <c r="Q11" t="inlineStr"/>
+        <v>31.51240778559105</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.2518073451441327</v>
+      </c>
       <c r="R11" t="n">
-        <v>8.718008519116069</v>
+        <v>24.98442510902486</v>
       </c>
       <c r="S11" t="n">
-        <v>0.5578908183360554</v>
-      </c>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>['knn', 'svr', 'lightgbm', 'mlp', 'elasticnet']</t>
-        </is>
-      </c>
+        <v>0.3143699841834792</v>
+      </c>
+      <c r="T11" t="n">
+        <v>6</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="V11" t="n">
+        <v>29.89636326348532</v>
+      </c>
+      <c r="W11" t="b">
+        <v>1</v>
+      </c>
+      <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
-        <v>36.12877747143796</v>
+        <v>30.82740445360642</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.2550048827066065</v>
+        <v>0.2302101922377014</v>
       </c>
       <c r="AB11" t="n">
-        <v>33.51494066516689</v>
+        <v>29.00782059021475</v>
       </c>
       <c r="AC11" t="n">
-        <v>-5.325579308284916</v>
+        <v>-3.605403574072794</v>
       </c>
       <c r="AD11" t="b">
         <v>0</v>
@@ -1513,64 +1493,68 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>svr</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>arima</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>svr</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>{'order': (0, 1, 2), 'seasonal_order': (0, 1, 1, 12), 'trend': 'n'}</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Not Dynamically</t>
-        </is>
+          <t>{'kernel': 'linear', 'C': 0.5, 'epsilon': 0.1}</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>12</v>
       </c>
       <c r="J12" t="n">
-        <v>55.68005782309162</v>
+        <v>14.22430552913185</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3919335016592729</v>
+        <v>2.283848613333041</v>
       </c>
       <c r="L12" t="n">
-        <v>47.03335337499001</v>
+        <v>11.41811351772209</v>
       </c>
       <c r="M12" t="n">
-        <v>-14.02426129859499</v>
+        <v>0.07913146774701818</v>
       </c>
       <c r="N12" t="n">
-        <v>143.100024049988</v>
+        <v>2.887142794722719</v>
       </c>
       <c r="O12" t="n">
-        <v>154.3</v>
+        <v>8.600000000000023</v>
       </c>
       <c r="P12" t="n">
-        <v>11.58644876774325</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.08054923381196277</v>
-      </c>
+        <v>13.13949597266035</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>8.660803619781996</v>
+        <v>10.0283713439507</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9073111833254927</v>
+        <v>0.4011812389851548</v>
       </c>
       <c r="T12" t="n">
         <v>6</v>
@@ -1581,24 +1565,22 @@
         </is>
       </c>
       <c r="V12" t="n">
-        <v>23.80840187832859</v>
-      </c>
-      <c r="W12" t="b">
-        <v>1</v>
-      </c>
+        <v>15.03854518788069</v>
+      </c>
+      <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="n">
-        <v>55.68005782309162</v>
+        <v>33.25013667552012</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.3919335016592729</v>
+        <v>0.2381959297637569</v>
       </c>
       <c r="AB12" t="n">
-        <v>47.03335337499001</v>
+        <v>31.08605604300426</v>
       </c>
       <c r="AC12" t="n">
-        <v>-14.02426129859499</v>
+        <v>-4.357727764320964</v>
       </c>
       <c r="AD12" t="b">
         <v>0</v>
@@ -1607,70 +1589,62 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>lightgbm</t>
+          <t>arima</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>lightgbm</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
-        </is>
-      </c>
+          <t>arima</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{'max_depth': 2}</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Not Dynamically</t>
-        </is>
+          <t>{'order': (0, 1, 2), 'seasonal_order': (0, 1, 1, 12), 'trend': 'n'}</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="b">
+        <v>1</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>12</v>
       </c>
       <c r="J13" t="n">
-        <v>15.08747219838924</v>
+        <v>55.68005782309162</v>
       </c>
       <c r="K13" t="n">
-        <v>7.868889123213035</v>
+        <v>0.3919335016592729</v>
       </c>
       <c r="L13" t="n">
-        <v>10.76954127709949</v>
+        <v>47.03335337499001</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.03602075065961485</v>
+        <v>-14.02426129859499</v>
       </c>
       <c r="N13" t="n">
-        <v>0.2974577864519554</v>
+        <v>143.100024049988</v>
       </c>
       <c r="O13" t="n">
-        <v>8.600000000000023</v>
+        <v>154.3</v>
       </c>
       <c r="P13" t="n">
-        <v>9.320871922951323</v>
-      </c>
-      <c r="Q13" t="inlineStr"/>
+        <v>11.58644876774325</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.08054923381196277</v>
+      </c>
       <c r="R13" t="n">
-        <v>7.292338253172074</v>
+        <v>8.660803619781996</v>
       </c>
       <c r="S13" t="n">
-        <v>0.6986639667766382</v>
+        <v>0.9073111833254927</v>
       </c>
       <c r="T13" t="n">
         <v>6</v>
@@ -1681,22 +1655,24 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>20.36408550401416</v>
-      </c>
-      <c r="W13" t="inlineStr"/>
+        <v>23.80840187832859</v>
+      </c>
+      <c r="W13" t="b">
+        <v>1</v>
+      </c>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="n">
-        <v>60.32924215063278</v>
+        <v>55.68005782309162</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.4496113111775727</v>
+        <v>0.3919335016592729</v>
       </c>
       <c r="AB13" t="n">
-        <v>57.51493546535716</v>
+        <v>47.03335337499001</v>
       </c>
       <c r="AC13" t="n">
-        <v>-16.63800707598961</v>
+        <v>-14.02426129859499</v>
       </c>
       <c r="AD13" t="b">
         <v>0</v>
@@ -1705,12 +1681,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>lightgbm</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>lightgbm</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1720,14 +1696,16 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>{'activation': 'tanh', 'hidden_layer_sizes': (25, 25), 'solver': 'lbfgs', 'random_state': 20}</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Not Dynamically</t>
-        </is>
+          <t>{'max_depth': 2}</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -1739,32 +1717,32 @@
         <v>12</v>
       </c>
       <c r="J14" t="n">
-        <v>18.10899728218212</v>
+        <v>15.08747219838924</v>
       </c>
       <c r="K14" t="n">
-        <v>8.43392829503477</v>
+        <v>7.868889123213035</v>
       </c>
       <c r="L14" t="n">
-        <v>12.96195628889159</v>
+        <v>10.76954127709949</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.4925342142263982</v>
+        <v>-0.03602075065961485</v>
       </c>
       <c r="N14" t="n">
-        <v>9.0261271682204</v>
+        <v>0.2974577864519554</v>
       </c>
       <c r="O14" t="n">
         <v>8.600000000000023</v>
       </c>
       <c r="P14" t="n">
-        <v>16.97973886907075</v>
+        <v>9.320871922951323</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="n">
-        <v>12.64373466445569</v>
+        <v>7.292338253172074</v>
       </c>
       <c r="S14" t="n">
-        <v>-3.552713678800501e-15</v>
+        <v>0.6986639667766382</v>
       </c>
       <c r="T14" t="n">
         <v>6</v>
@@ -1775,22 +1753,22 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>11.48340815456375</v>
+        <v>20.36408550401416</v>
       </c>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="n">
-        <v>72.95969672820053</v>
+        <v>60.32924215063278</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.4859195134707201</v>
+        <v>0.4496113111775727</v>
       </c>
       <c r="AB14" t="n">
-        <v>64.14675305236273</v>
+        <v>57.51493546535716</v>
       </c>
       <c r="AC14" t="n">
-        <v>-24.79644220807279</v>
+        <v>-16.63800707598961</v>
       </c>
       <c r="AD14" t="b">
         <v>0</v>
@@ -1823,67 +1801,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>knn</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>avg_level</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>weighted_level</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>weighted_diff</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>elasticnet</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>knn</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>avg_level</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>weighted_level</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>avg_diff</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>silverkite</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>hwes</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>weighted_diff</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>prophet</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>svr</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>avg_diff</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>arima</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>lightgbm</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>mlp</t>
         </is>
       </c>
     </row>
@@ -1892,43 +1870,43 @@
         <v>44378</v>
       </c>
       <c r="B2" t="n">
-        <v>159.3419710693526</v>
+        <v>154.5583333333333</v>
       </c>
       <c r="C2" t="n">
-        <v>154.5583333333333</v>
+        <v>133.5359982590729</v>
       </c>
       <c r="D2" t="n">
-        <v>133.5359982590729</v>
+        <v>153.4675713761895</v>
       </c>
       <c r="E2" t="n">
         <v>129.5406605667929</v>
       </c>
       <c r="F2" t="n">
+        <v>155.639529531782</v>
+      </c>
+      <c r="G2" t="n">
+        <v>159.2005945873714</v>
+      </c>
+      <c r="H2" t="n">
+        <v>154.5359338833142</v>
+      </c>
+      <c r="I2" t="n">
         <v>106.6355380940402</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>157.7247329922549</v>
       </c>
-      <c r="H2" t="n">
-        <v>156.0264166432467</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>115.5154619322586</v>
       </c>
-      <c r="J2" t="n">
-        <v>155.7359013246499</v>
-      </c>
-      <c r="K2" t="n">
-        <v>154.7538528809553</v>
-      </c>
       <c r="L2" t="n">
+        <v>155.7358365917999</v>
+      </c>
+      <c r="M2" t="n">
         <v>154.2682600177379</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>149.7173335278767</v>
-      </c>
-      <c r="N2" t="n">
-        <v>154.415725149564</v>
       </c>
     </row>
     <row r="3">
@@ -1936,43 +1914,43 @@
         <v>44409</v>
       </c>
       <c r="B3" t="n">
-        <v>154.447159532815</v>
+        <v>151.1083333333333</v>
       </c>
       <c r="C3" t="n">
-        <v>151.1083333333333</v>
+        <v>130.4959010024299</v>
       </c>
       <c r="D3" t="n">
-        <v>130.4959010024299</v>
+        <v>150.175563391712</v>
       </c>
       <c r="E3" t="n">
         <v>127.1294204592387</v>
       </c>
       <c r="F3" t="n">
+        <v>152.0013118727918</v>
+      </c>
+      <c r="G3" t="n">
+        <v>154.8897102472281</v>
+      </c>
+      <c r="H3" t="n">
+        <v>151.1692143054213</v>
+      </c>
+      <c r="I3" t="n">
         <v>106.5853620249925</v>
       </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
         <v>152.9463303951067</v>
       </c>
-      <c r="H3" t="n">
-        <v>153.2271139059621</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>113.6284413642046</v>
       </c>
-      <c r="J3" t="n">
-        <v>152.1561011688114</v>
-      </c>
-      <c r="K3" t="n">
-        <v>151.9519010929906</v>
-      </c>
       <c r="L3" t="n">
+        <v>152.1560034239677</v>
+      </c>
+      <c r="M3" t="n">
         <v>148.8234702254157</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>147.5164611308655</v>
-      </c>
-      <c r="N3" t="n">
-        <v>154.5314502991279</v>
       </c>
     </row>
     <row r="4">
@@ -1980,43 +1958,43 @@
         <v>44440</v>
       </c>
       <c r="B4" t="n">
-        <v>153.1172681395695</v>
+        <v>152.775</v>
       </c>
       <c r="C4" t="n">
-        <v>152.775</v>
+        <v>128.8372437636031</v>
       </c>
       <c r="D4" t="n">
-        <v>128.8372437636031</v>
+        <v>147.45496762109</v>
       </c>
       <c r="E4" t="n">
         <v>126.9034181803819</v>
       </c>
       <c r="F4" t="n">
+        <v>149.6863783983006</v>
+      </c>
+      <c r="G4" t="n">
+        <v>152.9437202897851</v>
+      </c>
+      <c r="H4" t="n">
+        <v>148.8565599449406</v>
+      </c>
+      <c r="I4" t="n">
         <v>106.553965064259</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
         <v>153.8967489676586</v>
       </c>
-      <c r="H4" t="n">
-        <v>151.9561793379225</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>106.7962880337393</v>
       </c>
-      <c r="J4" t="n">
-        <v>146.1224054411499</v>
-      </c>
-      <c r="K4" t="n">
-        <v>150.3297476404911</v>
-      </c>
       <c r="L4" t="n">
+        <v>146.1222226407837</v>
+      </c>
+      <c r="M4" t="n">
         <v>148.1019729887558</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>144.9868891730441</v>
-      </c>
-      <c r="N4" t="n">
-        <v>154.6471754486919</v>
       </c>
     </row>
     <row r="5">
@@ -2024,43 +2002,43 @@
         <v>44470</v>
       </c>
       <c r="B5" t="n">
-        <v>154.7643538715</v>
+        <v>150.7333333333333</v>
       </c>
       <c r="C5" t="n">
-        <v>150.7333333333333</v>
+        <v>130.5173628647413</v>
       </c>
       <c r="D5" t="n">
-        <v>130.5173628647413</v>
+        <v>144.4703729159697</v>
       </c>
       <c r="E5" t="n">
         <v>127.5462587444791</v>
       </c>
       <c r="F5" t="n">
+        <v>147.3827369780437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>153.1820289496157</v>
+      </c>
+      <c r="H5" t="n">
+        <v>146.8823578766268</v>
+      </c>
+      <c r="I5" t="n">
         <v>106.5178894708137</v>
       </c>
-      <c r="G5" t="n">
+      <c r="J5" t="n">
         <v>155.1725007388551</v>
       </c>
-      <c r="H5" t="n">
-        <v>150.9945407531612</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>111.7202361335611</v>
       </c>
-      <c r="J5" t="n">
-        <v>140.2074588925843</v>
-      </c>
-      <c r="K5" t="n">
-        <v>149.2573981988623</v>
-      </c>
       <c r="L5" t="n">
+        <v>140.2071098855771</v>
+      </c>
+      <c r="M5" t="n">
         <v>148.6588251157353</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>145.8189442986381</v>
-      </c>
-      <c r="N5" t="n">
-        <v>154.7629005982558</v>
       </c>
     </row>
     <row r="6">
@@ -2068,43 +2046,43 @@
         <v>44501</v>
       </c>
       <c r="B6" t="n">
-        <v>144.8584785927811</v>
+        <v>141.8833333333334</v>
       </c>
       <c r="C6" t="n">
-        <v>141.8833333333334</v>
+        <v>118.5201863800425</v>
       </c>
       <c r="D6" t="n">
-        <v>118.5201863800425</v>
+        <v>135.583821489731</v>
       </c>
       <c r="E6" t="n">
         <v>120.5858570338796</v>
       </c>
       <c r="F6" t="n">
+        <v>137.8409777219998</v>
+      </c>
+      <c r="G6" t="n">
+        <v>141.9381763248339</v>
+      </c>
+      <c r="H6" t="n">
+        <v>137.2955510888398</v>
+      </c>
+      <c r="I6" t="n">
         <v>106.4781132810161</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
         <v>141.9919810794577</v>
       </c>
-      <c r="H6" t="n">
-        <v>144.5442358775526</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>89.97811993873144</v>
       </c>
-      <c r="J6" t="n">
-        <v>131.7068618134347</v>
-      </c>
-      <c r="K6" t="n">
-        <v>141.7386865788011</v>
-      </c>
       <c r="L6" t="n">
+        <v>131.7062908896642</v>
+      </c>
+      <c r="M6" t="n">
         <v>135.6325312209646</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>135.3661334066367</v>
-      </c>
-      <c r="N6" t="n">
-        <v>154.8786257478198</v>
       </c>
     </row>
     <row r="7">
@@ -2112,43 +2090,43 @@
         <v>44531</v>
       </c>
       <c r="B7" t="n">
-        <v>146.1372598092776</v>
+        <v>137.4333333333333</v>
       </c>
       <c r="C7" t="n">
-        <v>137.4333333333333</v>
+        <v>110.5602449037279</v>
       </c>
       <c r="D7" t="n">
-        <v>110.5602449037279</v>
+        <v>131.396151141661</v>
       </c>
       <c r="E7" t="n">
         <v>116.087296926607</v>
       </c>
       <c r="F7" t="n">
+        <v>134.8340150606744</v>
+      </c>
+      <c r="G7" t="n">
+        <v>141.6226328094978</v>
+      </c>
+      <c r="H7" t="n">
+        <v>133.6114541621247</v>
+      </c>
+      <c r="I7" t="n">
         <v>106.4538423695216</v>
       </c>
-      <c r="G7" t="n">
+      <c r="J7" t="n">
         <v>132.7828568244197</v>
       </c>
-      <c r="H7" t="n">
-        <v>143.3282767356472</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>74.59360698271273</v>
       </c>
-      <c r="J7" t="n">
-        <v>128.3658569903998</v>
-      </c>
-      <c r="K7" t="n">
-        <v>139.2341973892185</v>
-      </c>
       <c r="L7" t="n">
+        <v>128.3649676104336</v>
+      </c>
+      <c r="M7" t="n">
         <v>128.4106734382575</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>129.2401859156979</v>
-      </c>
-      <c r="N7" t="n">
-        <v>154.9943508973838</v>
       </c>
     </row>
     <row r="8">
@@ -2156,43 +2134,43 @@
         <v>44562</v>
       </c>
       <c r="B8" t="n">
-        <v>147.2059846307624</v>
+        <v>138.925</v>
       </c>
       <c r="C8" t="n">
-        <v>138.925</v>
+        <v>108.9712101361083</v>
       </c>
       <c r="D8" t="n">
-        <v>108.9712101361083</v>
+        <v>128.5373769087033</v>
       </c>
       <c r="E8" t="n">
         <v>115.3590839975137</v>
       </c>
       <c r="F8" t="n">
+        <v>134.0117440440598</v>
+      </c>
+      <c r="G8" t="n">
+        <v>141.2490285203862</v>
+      </c>
+      <c r="H8" t="n">
+        <v>132.8016810934368</v>
+      </c>
+      <c r="I8" t="n">
         <v>106.369725374985</v>
       </c>
-      <c r="G8" t="n">
+      <c r="J8" t="n">
         <v>129.8667422647688</v>
       </c>
-      <c r="H8" t="n">
-        <v>143.8914946425636</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>69.83616567694125</v>
       </c>
-      <c r="J8" t="n">
-        <v>128.3537010643772</v>
-      </c>
-      <c r="K8" t="n">
-        <v>139.3078637663798</v>
-      </c>
       <c r="L8" t="n">
+        <v>128.3524429482826</v>
+      </c>
+      <c r="M8" t="n">
         <v>129.8122072277382</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>126.944557089812</v>
-      </c>
-      <c r="N8" t="n">
-        <v>155.1100760469477</v>
       </c>
     </row>
     <row r="9">
@@ -2200,43 +2178,43 @@
         <v>44593</v>
       </c>
       <c r="B9" t="n">
-        <v>140.9162955726619</v>
+        <v>140.0166666666667</v>
       </c>
       <c r="C9" t="n">
-        <v>140.0166666666667</v>
+        <v>107.7206030774895</v>
       </c>
       <c r="D9" t="n">
-        <v>107.7206030774895</v>
+        <v>125.7743184403326</v>
       </c>
       <c r="E9" t="n">
         <v>113.7930317658923</v>
       </c>
       <c r="F9" t="n">
+        <v>131.6538251492148</v>
+      </c>
+      <c r="G9" t="n">
+        <v>134.7173551380287</v>
+      </c>
+      <c r="H9" t="n">
+        <v>131.5265388541406</v>
+      </c>
+      <c r="I9" t="n">
         <v>106.3954678735738</v>
       </c>
-      <c r="G9" t="n">
+      <c r="J9" t="n">
         <v>124.4424220388966</v>
       </c>
-      <c r="H9" t="n">
-        <v>142.5028935821861</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>71.59884240342421</v>
       </c>
-      <c r="J9" t="n">
-        <v>129.5097021068528</v>
-      </c>
-      <c r="K9" t="n">
-        <v>138.6569435979528</v>
-      </c>
       <c r="L9" t="n">
+        <v>129.5081015786041</v>
+      </c>
+      <c r="M9" t="n">
         <v>128.4456799940632</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>127.6162524470709</v>
-      </c>
-      <c r="N9" t="n">
-        <v>155.2258011965117</v>
       </c>
     </row>
     <row r="10">
@@ -2244,43 +2222,43 @@
         <v>44621</v>
       </c>
       <c r="B10" t="n">
-        <v>156.7022140490295</v>
+        <v>153.4916666666667</v>
       </c>
       <c r="C10" t="n">
-        <v>153.4916666666667</v>
+        <v>122.5728757093828</v>
       </c>
       <c r="D10" t="n">
-        <v>122.5728757093828</v>
+        <v>139.0943137859178</v>
       </c>
       <c r="E10" t="n">
         <v>122.0112731315025</v>
       </c>
       <c r="F10" t="n">
+        <v>145.2390709816861</v>
+      </c>
+      <c r="G10" t="n">
+        <v>150.7597709533803</v>
+      </c>
+      <c r="H10" t="n">
+        <v>146.327436847134</v>
+      </c>
+      <c r="I10" t="n">
         <v>106.3690582836884</v>
       </c>
-      <c r="G10" t="n">
+      <c r="J10" t="n">
         <v>139.1828328446327</v>
       </c>
-      <c r="H10" t="n">
-        <v>152.0163684817803</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>100.3790199687336</v>
       </c>
-      <c r="J10" t="n">
-        <v>138.3759973971932</v>
-      </c>
-      <c r="K10" t="n">
-        <v>150.7657610178108</v>
-      </c>
       <c r="L10" t="n">
+        <v>138.3740321996159</v>
+      </c>
+      <c r="M10" t="n">
         <v>144.3605917404765</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>149.9174006300891</v>
-      </c>
-      <c r="N10" t="n">
-        <v>155.3415263460756</v>
       </c>
     </row>
     <row r="11">
@@ -2288,43 +2266,43 @@
         <v>44652</v>
       </c>
       <c r="B11" t="n">
-        <v>147.1278262559996</v>
+        <v>160.8</v>
       </c>
       <c r="C11" t="n">
-        <v>160.8</v>
+        <v>129.5222815712843</v>
       </c>
       <c r="D11" t="n">
-        <v>129.5222815712843</v>
+        <v>142.125354617528</v>
       </c>
       <c r="E11" t="n">
         <v>125.5675146009755</v>
       </c>
       <c r="F11" t="n">
+        <v>145.7365382342782</v>
+      </c>
+      <c r="G11" t="n">
+        <v>142.4606234983249</v>
+      </c>
+      <c r="H11" t="n">
+        <v>147.3620210797532</v>
+      </c>
+      <c r="I11" t="n">
         <v>106.3350629169357</v>
       </c>
-      <c r="G11" t="n">
+      <c r="J11" t="n">
         <v>146.2976138794135</v>
       </c>
-      <c r="H11" t="n">
-        <v>151.2463342450829</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>115.7847268098776</v>
       </c>
-      <c r="J11" t="n">
-        <v>142.0022940455102</v>
-      </c>
-      <c r="K11" t="n">
-        <v>150.9622780886579</v>
-      </c>
       <c r="L11" t="n">
+        <v>142.0001086367726</v>
+      </c>
+      <c r="M11" t="n">
         <v>149.6717226789103</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>149.4240186461404</v>
-      </c>
-      <c r="N11" t="n">
-        <v>155.4572514956396</v>
       </c>
     </row>
     <row r="12">
@@ -2332,43 +2310,43 @@
         <v>44682</v>
       </c>
       <c r="B12" t="n">
-        <v>155.6888743076309</v>
+        <v>161.275</v>
       </c>
       <c r="C12" t="n">
-        <v>161.275</v>
+        <v>134.5888301886341</v>
       </c>
       <c r="D12" t="n">
-        <v>134.5888301886341</v>
+        <v>150.4494762686879</v>
       </c>
       <c r="E12" t="n">
         <v>129.1626392655149</v>
       </c>
       <c r="F12" t="n">
+        <v>153.0893444296155</v>
+      </c>
+      <c r="G12" t="n">
+        <v>152.6767664187237</v>
+      </c>
+      <c r="H12" t="n">
+        <v>153.9688436597911</v>
+      </c>
+      <c r="I12" t="n">
         <v>106.2989957631332</v>
       </c>
-      <c r="G12" t="n">
+      <c r="J12" t="n">
         <v>155.7337944902173</v>
       </c>
-      <c r="H12" t="n">
-        <v>155.5990289523477</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
         <v>122.0368294497014</v>
       </c>
-      <c r="J12" t="n">
-        <v>150.0085630915861</v>
-      </c>
-      <c r="K12" t="n">
-        <v>155.5964357583556</v>
-      </c>
       <c r="L12" t="n">
+        <v>150.0062108641862</v>
+      </c>
+      <c r="M12" t="n">
         <v>154.2857010514847</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>155.4367647473574</v>
-      </c>
-      <c r="N12" t="n">
-        <v>155.5729766452035</v>
       </c>
     </row>
     <row r="13">
@@ -2376,43 +2354,43 @@
         <v>44713</v>
       </c>
       <c r="B13" t="n">
-        <v>165.9534628027525</v>
+        <v>162.4083333333333</v>
       </c>
       <c r="C13" t="n">
-        <v>162.4083333333333</v>
+        <v>137.3993757177633</v>
       </c>
       <c r="D13" t="n">
-        <v>137.3993757177633</v>
+        <v>152.6749986889439</v>
       </c>
       <c r="E13" t="n">
         <v>132.0565323323392</v>
       </c>
       <c r="F13" t="n">
+        <v>158.5054388957448</v>
+      </c>
+      <c r="G13" t="n">
+        <v>163.9671856820416</v>
+      </c>
+      <c r="H13" t="n">
+        <v>157.8931606330131</v>
+      </c>
+      <c r="I13" t="n">
         <v>106.261037790605</v>
       </c>
-      <c r="G13" t="n">
+      <c r="J13" t="n">
         <v>163.8370320870373</v>
       </c>
-      <c r="H13" t="n">
-        <v>160.1588276006625</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="K13" t="n">
         <v>120.658797426521</v>
       </c>
-      <c r="J13" t="n">
-        <v>156.9554431280367</v>
-      </c>
-      <c r="K13" t="n">
-        <v>158.8936477776877</v>
-      </c>
       <c r="L13" t="n">
+        <v>156.9529876311977</v>
+      </c>
+      <c r="M13" t="n">
         <v>158.8406355668901</v>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>153.4622978295485</v>
-      </c>
-      <c r="N13" t="n">
-        <v>155.6887017947675</v>
       </c>
     </row>
     <row r="14">
@@ -2420,43 +2398,43 @@
         <v>44743</v>
       </c>
       <c r="B14" t="n">
-        <v>172.5958511723624</v>
+        <v>163.0333333333333</v>
       </c>
       <c r="C14" t="n">
-        <v>163.0333333333333</v>
+        <v>137.3860491422743</v>
       </c>
       <c r="D14" t="n">
-        <v>137.3860491422743</v>
+        <v>151.5546201740461</v>
       </c>
       <c r="E14" t="n">
         <v>133.0175354887371</v>
       </c>
       <c r="F14" t="n">
+        <v>160.7692246028583</v>
+      </c>
+      <c r="G14" t="n">
+        <v>170.9977262668219</v>
+      </c>
+      <c r="H14" t="n">
+        <v>159.6334902882005</v>
+      </c>
+      <c r="I14" t="n">
         <v>106.2352700661455</v>
       </c>
-      <c r="G14" t="n">
+      <c r="J14" t="n">
         <v>167.2924771290407</v>
       </c>
-      <c r="H14" t="n">
-        <v>162.7593865058295</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="K14" t="n">
         <v>115.5490512454531</v>
       </c>
-      <c r="J14" t="n">
-        <v>159.5332833166132</v>
-      </c>
-      <c r="K14" t="n">
-        <v>160.803578903759</v>
-      </c>
       <c r="L14" t="n">
+        <v>159.5307719146462</v>
+      </c>
+      <c r="M14" t="n">
         <v>160.4673981284581</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>153.0509997521549</v>
-      </c>
-      <c r="N14" t="n">
-        <v>155.8044269443315</v>
       </c>
     </row>
     <row r="15">
@@ -2464,43 +2442,43 @@
         <v>44774</v>
       </c>
       <c r="B15" t="n">
-        <v>166.0173149245287</v>
+        <v>158.85</v>
       </c>
       <c r="C15" t="n">
-        <v>158.85</v>
+        <v>134.1696509458509</v>
       </c>
       <c r="D15" t="n">
-        <v>134.1696509458509</v>
+        <v>148.6627386730985</v>
       </c>
       <c r="E15" t="n">
         <v>130.5596420502839</v>
       </c>
       <c r="F15" t="n">
+        <v>156.3831256386924</v>
+      </c>
+      <c r="G15" t="n">
+        <v>165.31865169804</v>
+      </c>
+      <c r="H15" t="n">
+        <v>154.9316482976512</v>
+      </c>
+      <c r="I15" t="n">
         <v>106.1949154309407</v>
       </c>
-      <c r="G15" t="n">
+      <c r="J15" t="n">
         <v>162.4722814728362</v>
       </c>
-      <c r="H15" t="n">
-        <v>158.9750497868433</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="K15" t="n">
         <v>113.055975234074</v>
       </c>
-      <c r="J15" t="n">
-        <v>154.6436962302429</v>
-      </c>
-      <c r="K15" t="n">
-        <v>156.5233725486482</v>
-      </c>
       <c r="L15" t="n">
+        <v>154.6411516225435</v>
+      </c>
+      <c r="M15" t="n">
         <v>154.9554316455527</v>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>147.1856994945737</v>
-      </c>
-      <c r="N15" t="n">
-        <v>155.9201520938954</v>
       </c>
     </row>
     <row r="16">
@@ -2508,43 +2486,43 @@
         <v>44805</v>
       </c>
       <c r="B16" t="n">
-        <v>166.2214978400067</v>
+        <v>159.3416666666667</v>
       </c>
       <c r="C16" t="n">
-        <v>159.3416666666667</v>
+        <v>132.6764460637265</v>
       </c>
       <c r="D16" t="n">
-        <v>132.6764460637265</v>
+        <v>146.1849866955017</v>
       </c>
       <c r="E16" t="n">
         <v>130.3566079858278</v>
       </c>
       <c r="F16" t="n">
+        <v>154.2288491078903</v>
+      </c>
+      <c r="G16" t="n">
+        <v>164.2492338655322</v>
+      </c>
+      <c r="H16" t="n">
+        <v>152.5423653168955</v>
+      </c>
+      <c r="I16" t="n">
         <v>106.1672793326401</v>
       </c>
-      <c r="G16" t="n">
+      <c r="J16" t="n">
         <v>163.3805862279496</v>
       </c>
-      <c r="H16" t="n">
-        <v>157.9814914997498</v>
-      </c>
-      <c r="I16" t="n">
+      <c r="K16" t="n">
         <v>106.9239842854234</v>
       </c>
-      <c r="J16" t="n">
-        <v>148.9119384278659</v>
-      </c>
-      <c r="K16" t="n">
-        <v>154.9075225192286</v>
-      </c>
       <c r="L16" t="n">
+        <v>148.9093069386325</v>
+      </c>
+      <c r="M16" t="n">
         <v>154.2339344088927</v>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>144.0266324181443</v>
-      </c>
-      <c r="N16" t="n">
-        <v>156.0358772434594</v>
       </c>
     </row>
     <row r="17">
@@ -2552,43 +2530,43 @@
         <v>44835</v>
       </c>
       <c r="B17" t="n">
-        <v>167.1302027791241</v>
+        <v>157.7916666666667</v>
       </c>
       <c r="C17" t="n">
-        <v>157.7916666666667</v>
+        <v>133.8822437067818</v>
       </c>
       <c r="D17" t="n">
-        <v>133.8822437067818</v>
+        <v>142.9341620966446</v>
       </c>
       <c r="E17" t="n">
         <v>130.8979766886332</v>
       </c>
       <c r="F17" t="n">
+        <v>151.3284692272751</v>
+      </c>
+      <c r="G17" t="n">
+        <v>162.9396271802461</v>
+      </c>
+      <c r="H17" t="n">
+        <v>150.1416337902328</v>
+      </c>
+      <c r="I17" t="n">
         <v>106.1176214429189</v>
       </c>
-      <c r="G17" t="n">
+      <c r="J17" t="n">
         <v>164.6139141887849</v>
       </c>
-      <c r="H17" t="n">
-        <v>156.7375104991199</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="K17" t="n">
         <v>110.006652659551</v>
       </c>
-      <c r="J17" t="n">
-        <v>142.1868350545454</v>
-      </c>
-      <c r="K17" t="n">
-        <v>153.6237988874196</v>
-      </c>
       <c r="L17" t="n">
+        <v>142.184025463868</v>
+      </c>
+      <c r="M17" t="n">
         <v>154.7907865358723</v>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>144.8586875437383</v>
-      </c>
-      <c r="N17" t="n">
-        <v>156.1516023930233</v>
       </c>
     </row>
     <row r="18">
@@ -2596,43 +2574,43 @@
         <v>44866</v>
       </c>
       <c r="B18" t="n">
-        <v>158.1317253827126</v>
+        <v>148.9416666666667</v>
       </c>
       <c r="C18" t="n">
-        <v>148.9416666666667</v>
+        <v>122.312030840727</v>
       </c>
       <c r="D18" t="n">
-        <v>122.312030840727</v>
+        <v>134.6739662436187</v>
       </c>
       <c r="E18" t="n">
         <v>124.0063153059719</v>
       </c>
       <c r="F18" t="n">
+        <v>142.217707327885</v>
+      </c>
+      <c r="G18" t="n">
+        <v>152.0072891524214</v>
+      </c>
+      <c r="H18" t="n">
+        <v>141.3421997589992</v>
+      </c>
+      <c r="I18" t="n">
         <v>106.0778452531214</v>
       </c>
-      <c r="G18" t="n">
+      <c r="J18" t="n">
         <v>151.3906713795615</v>
       </c>
-      <c r="H18" t="n">
-        <v>150.6952566678409</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="K18" t="n">
         <v>90.0151140891235</v>
       </c>
-      <c r="J18" t="n">
-        <v>134.0362434778351</v>
-      </c>
-      <c r="K18" t="n">
-        <v>146.886373420199</v>
-      </c>
       <c r="L18" t="n">
+        <v>134.0331727010957</v>
+      </c>
+      <c r="M18" t="n">
         <v>141.7644926411016</v>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>137.0549040311934</v>
-      </c>
-      <c r="N18" t="n">
-        <v>156.2673275425873</v>
       </c>
     </row>
     <row r="19">
@@ -2640,43 +2618,43 @@
         <v>44896</v>
       </c>
       <c r="B19" t="n">
-        <v>158.8749082895045</v>
+        <v>142.625</v>
       </c>
       <c r="C19" t="n">
-        <v>142.625</v>
+        <v>114.1649729792262</v>
       </c>
       <c r="D19" t="n">
-        <v>114.1649729792262</v>
+        <v>129.1897205658705</v>
       </c>
       <c r="E19" t="n">
         <v>119.464631856114</v>
       </c>
       <c r="F19" t="n">
+        <v>138.0082051912415</v>
+      </c>
+      <c r="G19" t="n">
+        <v>150.5989138631599</v>
+      </c>
+      <c r="H19" t="n">
+        <v>136.7182851469822</v>
+      </c>
+      <c r="I19" t="n">
         <v>106.0535743416269</v>
       </c>
-      <c r="G19" t="n">
+      <c r="J19" t="n">
         <v>142.1385351753422</v>
       </c>
-      <c r="H19" t="n">
-        <v>148.8286567652272</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="K19" t="n">
         <v>73.92514754154135</v>
       </c>
-      <c r="J19" t="n">
-        <v>129.878117703358</v>
-      </c>
-      <c r="K19" t="n">
-        <v>143.8128363510954</v>
-      </c>
       <c r="L19" t="n">
+        <v>129.874688235417</v>
+      </c>
+      <c r="M19" t="n">
         <v>134.5426348583944</v>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>131.3031030704634</v>
-      </c>
-      <c r="N19" t="n">
-        <v>156.3830526921512</v>
       </c>
     </row>
     <row r="20">
@@ -2684,43 +2662,43 @@
         <v>44927</v>
       </c>
       <c r="B20" t="n">
-        <v>158.8848179094579</v>
+        <v>144.1166666666667</v>
       </c>
       <c r="C20" t="n">
-        <v>144.1166666666667</v>
+        <v>112.5134241537735</v>
       </c>
       <c r="D20" t="n">
-        <v>112.5134241537735</v>
+        <v>125.5096002496734</v>
       </c>
       <c r="E20" t="n">
         <v>118.7222550831153</v>
       </c>
       <c r="F20" t="n">
+        <v>136.401678166588</v>
+      </c>
+      <c r="G20" t="n">
+        <v>148.7665572343548</v>
+      </c>
+      <c r="H20" t="n">
+        <v>135.276380540287</v>
+      </c>
+      <c r="I20" t="n">
         <v>105.9833694873133</v>
       </c>
-      <c r="G20" t="n">
+      <c r="J20" t="n">
         <v>139.1791302926611</v>
       </c>
-      <c r="H20" t="n">
-        <v>148.9774907137402</v>
-      </c>
-      <c r="I20" t="n">
+      <c r="K20" t="n">
         <v>68.9470281872446</v>
       </c>
-      <c r="J20" t="n">
-        <v>129.3984355689329</v>
-      </c>
-      <c r="K20" t="n">
-        <v>143.4986369319579</v>
-      </c>
       <c r="L20" t="n">
+        <v>129.3945918777231</v>
+      </c>
+      <c r="M20" t="n">
         <v>135.9441686478752</v>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>128.5944866730167</v>
-      </c>
-      <c r="N20" t="n">
-        <v>156.4987778417152</v>
       </c>
     </row>
     <row r="21">
@@ -2728,43 +2706,43 @@
         <v>44958</v>
       </c>
       <c r="B21" t="n">
-        <v>152.1425907577025</v>
+        <v>146.1583333333333</v>
       </c>
       <c r="C21" t="n">
-        <v>146.1583333333333</v>
+        <v>111.6728786590491</v>
       </c>
       <c r="D21" t="n">
-        <v>111.6728786590491</v>
+        <v>125.0655266724929</v>
       </c>
       <c r="E21" t="n">
         <v>117.2173130764658</v>
       </c>
       <c r="F21" t="n">
+        <v>135.0597814260644</v>
+      </c>
+      <c r="G21" t="n">
+        <v>141.9881877040522</v>
+      </c>
+      <c r="H21" t="n">
+        <v>135.4200631414891</v>
+      </c>
+      <c r="I21" t="n">
         <v>105.9994957483446</v>
       </c>
-      <c r="G21" t="n">
+      <c r="J21" t="n">
         <v>133.7112516796448</v>
       </c>
-      <c r="H21" t="n">
-        <v>147.8082707032907</v>
-      </c>
-      <c r="I21" t="n">
+      <c r="K21" t="n">
         <v>72.40312579400704</v>
       </c>
-      <c r="J21" t="n">
-        <v>130.9600097685568</v>
-      </c>
-      <c r="K21" t="n">
-        <v>143.7615879618614</v>
-      </c>
       <c r="L21" t="n">
+        <v>130.9557650391314</v>
+      </c>
+      <c r="M21" t="n">
         <v>134.5776414142001</v>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>132.9325029584351</v>
-      </c>
-      <c r="N21" t="n">
-        <v>156.6145029912792</v>
       </c>
     </row>
     <row r="22">
@@ -2772,43 +2750,43 @@
         <v>44986</v>
       </c>
       <c r="B22" t="n">
-        <v>171.7495265816165</v>
+        <v>156.9416666666667</v>
       </c>
       <c r="C22" t="n">
-        <v>156.9416666666667</v>
+        <v>125.8753149094123</v>
       </c>
       <c r="D22" t="n">
-        <v>125.8753149094123</v>
+        <v>134.8179983983201</v>
       </c>
       <c r="E22" t="n">
         <v>125.3060610070459</v>
       </c>
       <c r="F22" t="n">
+        <v>148.2770668205326</v>
+      </c>
+      <c r="G22" t="n">
+        <v>161.5982922596216</v>
+      </c>
+      <c r="H22" t="n">
+        <v>149.5098572223323</v>
+      </c>
+      <c r="I22" t="n">
         <v>105.9687902557937</v>
       </c>
-      <c r="G22" t="n">
+      <c r="J22" t="n">
         <v>148.4078462270033</v>
       </c>
-      <c r="H22" t="n">
-        <v>158.1784307778016</v>
-      </c>
-      <c r="I22" t="n">
+      <c r="K22" t="n">
         <v>98.63206999423868</v>
       </c>
-      <c r="J22" t="n">
-        <v>141.3337197810457</v>
-      </c>
-      <c r="K22" t="n">
-        <v>155.9234774680607</v>
-      </c>
       <c r="L22" t="n">
+        <v>141.3290826169213</v>
+      </c>
+      <c r="M22" t="n">
         <v>150.4925531606134</v>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>152.8622461701316</v>
-      </c>
-      <c r="N22" t="n">
-        <v>156.7302281408431</v>
       </c>
     </row>
     <row r="23">
@@ -2816,43 +2794,43 @@
         <v>45017</v>
       </c>
       <c r="B23" t="n">
-        <v>164.4267303008221</v>
+        <v>166.1916666666667</v>
       </c>
       <c r="C23" t="n">
-        <v>166.1916666666667</v>
+        <v>132.9004784337166</v>
       </c>
       <c r="D23" t="n">
-        <v>132.9004784337166</v>
+        <v>142.3417813905625</v>
       </c>
       <c r="E23" t="n">
         <v>128.8594530759262</v>
       </c>
       <c r="F23" t="n">
+        <v>151.9232117230142</v>
+      </c>
+      <c r="G23" t="n">
+        <v>155.9442567546717</v>
+      </c>
+      <c r="H23" t="n">
+        <v>153.8588896158388</v>
+      </c>
+      <c r="I23" t="n">
         <v>105.9186141867459</v>
       </c>
-      <c r="G23" t="n">
+      <c r="J23" t="n">
         <v>155.4785632072004</v>
       </c>
-      <c r="H23" t="n">
-        <v>159.0483050454663</v>
-      </c>
-      <c r="I23" t="n">
+      <c r="K23" t="n">
         <v>114.4010522418728</v>
       </c>
-      <c r="J23" t="n">
-        <v>147.4545558221267</v>
-      </c>
-      <c r="K23" t="n">
-        <v>158.4572001606733</v>
-      </c>
       <c r="L23" t="n">
+        <v>147.4496485439488</v>
+      </c>
+      <c r="M23" t="n">
         <v>155.8036840990472</v>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>157.3670947233437</v>
-      </c>
-      <c r="N23" t="n">
-        <v>156.8459532904071</v>
       </c>
     </row>
     <row r="24">
@@ -2860,43 +2838,43 @@
         <v>45047</v>
       </c>
       <c r="B24" t="n">
-        <v>172.3508913705789</v>
+        <v>166.6666666666667</v>
       </c>
       <c r="C24" t="n">
-        <v>166.6666666666667</v>
+        <v>138.4087424399823</v>
       </c>
       <c r="D24" t="n">
-        <v>138.4087424399823</v>
+        <v>149.1873921157916</v>
       </c>
       <c r="E24" t="n">
         <v>132.5377699907855</v>
       </c>
       <c r="F24" t="n">
+        <v>158.7361662007173</v>
+      </c>
+      <c r="G24" t="n">
+        <v>166.1120888858633</v>
+      </c>
+      <c r="H24" t="n">
+        <v>160.1039088729698</v>
+      </c>
+      <c r="I24" t="n">
         <v>105.9091276144887</v>
       </c>
-      <c r="G24" t="n">
+      <c r="J24" t="n">
         <v>164.8704419234709</v>
       </c>
-      <c r="H24" t="n">
-        <v>163.1548100877723</v>
-      </c>
-      <c r="I24" t="n">
+      <c r="K24" t="n">
         <v>122.437737750348</v>
       </c>
-      <c r="J24" t="n">
-        <v>155.1570861561889</v>
-      </c>
-      <c r="K24" t="n">
-        <v>162.9075452538902</v>
-      </c>
       <c r="L24" t="n">
+        <v>155.1519930604816</v>
+      </c>
+      <c r="M24" t="n">
         <v>160.4176624716216</v>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>163.4014036360452</v>
-      </c>
-      <c r="N24" t="n">
-        <v>156.961678439971</v>
       </c>
     </row>
     <row r="25">
@@ -2904,43 +2882,43 @@
         <v>45078</v>
       </c>
       <c r="B25" t="n">
-        <v>178.8467139633944</v>
+        <v>168.1416666666667</v>
       </c>
       <c r="C25" t="n">
-        <v>168.1416666666667</v>
+        <v>140.7837948318385</v>
       </c>
       <c r="D25" t="n">
-        <v>140.7837948318385</v>
+        <v>150.5594695262953</v>
       </c>
       <c r="E25" t="n">
         <v>135.3415113815587</v>
       </c>
       <c r="F25" t="n">
+        <v>162.5711074398681</v>
+      </c>
+      <c r="G25" t="n">
+        <v>174.0820275648829</v>
+      </c>
+      <c r="H25" t="n">
+        <v>162.4409951992929</v>
+      </c>
+      <c r="I25" t="n">
         <v>105.8679007802696</v>
       </c>
-      <c r="G25" t="n">
+      <c r="J25" t="n">
         <v>172.9291496224562</v>
       </c>
-      <c r="H25" t="n">
-        <v>166.2477953859823</v>
-      </c>
-      <c r="I25" t="n">
+      <c r="K25" t="n">
         <v>119.3655319376011</v>
       </c>
-      <c r="J25" t="n">
-        <v>160.2640583191508</v>
-      </c>
-      <c r="K25" t="n">
-        <v>164.6985590903124</v>
-      </c>
       <c r="L25" t="n">
+        <v>160.2588593258037</v>
+      </c>
+      <c r="M25" t="n">
         <v>164.972596987027</v>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>159.1629529128153</v>
-      </c>
-      <c r="N25" t="n">
-        <v>157.077403589535</v>
       </c>
     </row>
   </sheetData>

--- a/examples/housing_different_levels_results.xlsx
+++ b/examples/housing_different_levels_results.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD14"/>
+  <dimension ref="A1:AE14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,125 +466,130 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Observations</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Tuned</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>DynamicallyTested</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Integration</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>TestSetLength</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>TestSetRMSE</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>TestSetMAPE</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>TestSetMAE</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>TestSetR2</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>LastTestSetPrediction</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>LastTestSetActual</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>InSampleRMSE</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>InSampleMAPE</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>InSampleMAE</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>InSampleR2</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>ValidationSetLength</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>ValidationMetric</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>ValidationMetricValue</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>univariate</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>models</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>weights</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>LevelTestSetRMSE</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>LevelTestSetMAPE</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>LevelTestSetMAE</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>LevelTestSetR2</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>best_model</t>
         </is>
@@ -593,12 +598,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -608,268 +613,273 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 12, 'weights': 'uniform'}</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
+          <t>{'alpha': 1.3, 'l1_ratio': 1.0}</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>749</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" t="b">
         <v>1</v>
       </c>
       <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
         <v>12</v>
       </c>
-      <c r="J2" t="n">
-        <v>14.24919182243655</v>
-      </c>
       <c r="K2" t="n">
-        <v>2.005919859581277</v>
+        <v>9.902651929001417</v>
       </c>
       <c r="L2" t="n">
-        <v>11.23055555555555</v>
+        <v>2.572323594374564</v>
       </c>
       <c r="M2" t="n">
-        <v>0.07590641725962632</v>
+        <v>7.170047035456705</v>
       </c>
       <c r="N2" t="n">
-        <v>2.408333333333335</v>
+        <v>0.5536880484219917</v>
       </c>
       <c r="O2" t="n">
+        <v>10.27900784150738</v>
+      </c>
+      <c r="P2" t="n">
         <v>8.600000000000023</v>
       </c>
-      <c r="P2" t="n">
-        <v>10.02513079762945</v>
-      </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="n">
-        <v>7.855379310344827</v>
-      </c>
+      <c r="Q2" t="n">
+        <v>12.05240000938119</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>0.6514074661154218</v>
+        <v>9.386526075224372</v>
       </c>
       <c r="T2" t="n">
+        <v>0.4961687971781187</v>
+      </c>
+      <c r="U2" t="n">
         <v>6</v>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="V2" t="n">
-        <v>15.21438730342167</v>
-      </c>
-      <c r="W2" t="inlineStr"/>
+      <c r="W2" t="n">
+        <v>9.710460564204618</v>
+      </c>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="n">
-        <v>12.30746113286721</v>
-      </c>
+      <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
-        <v>0.0776661571213545</v>
+        <v>11.19009846171499</v>
       </c>
       <c r="AB2" t="n">
-        <v>10.14722222222222</v>
+        <v>0.07437667846228523</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.2659414207823876</v>
-      </c>
-      <c r="AD2" t="b">
+        <v>9.852848717787184</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.3931776210440495</v>
+      </c>
+      <c r="AE2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>avg_level</t>
+          <t>knn</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>combo</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>knn</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'how': 'simple', 'models': ('arima', 'hwes', 'prophet', 'silverkite'), 'determine_best_by': 'ValidationMetricValue'}</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>0</v>
+          <t>{'n_neighbors': 12, 'weights': 'uniform'}</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>749</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
       </c>
       <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
         <v>12</v>
       </c>
-      <c r="J3" t="n">
-        <v>15.20096606813602</v>
-      </c>
       <c r="K3" t="n">
-        <v>0.07926591197677597</v>
+        <v>14.24919182243655</v>
       </c>
       <c r="L3" t="n">
-        <v>10.96011310550019</v>
+        <v>2.005919859581277</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.1197888841638914</v>
+        <v>11.23055555555555</v>
       </c>
       <c r="N3" t="n">
-        <v>120.6338708069169</v>
+        <v>0.07590641725962632</v>
       </c>
       <c r="O3" t="n">
-        <v>154.3</v>
+        <v>2.408333333333335</v>
       </c>
       <c r="P3" t="n">
-        <v>18.02398432036044</v>
+        <v>8.600000000000023</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1444883622374272</v>
-      </c>
-      <c r="R3" t="n">
-        <v>14.32205087010169</v>
-      </c>
+        <v>10.02513079762945</v>
+      </c>
+      <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
-        <v>0.7757005295493604</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>['arima', 'hwes', 'prophet', 'silverkite']</t>
-        </is>
-      </c>
+        <v>7.855379310344827</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.6514074661154218</v>
+      </c>
+      <c r="U3" t="n">
+        <v>6</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="W3" t="n">
+        <v>15.21438730342167</v>
+      </c>
+      <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="n">
-        <v>15.20096606813602</v>
-      </c>
+      <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="n">
-        <v>0.07926591197677597</v>
+        <v>12.30746113286721</v>
       </c>
       <c r="AB3" t="n">
-        <v>10.96011310550019</v>
+        <v>0.0776661571213545</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.1197888841638914</v>
-      </c>
-      <c r="AD3" t="b">
+        <v>10.14722222222222</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.2659414207823876</v>
+      </c>
+      <c r="AE3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>avg_level</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>mlp</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
-        </is>
-      </c>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'activation': 'tanh', 'hidden_layer_sizes': (25, 25), 'solver': 'adam', 'random_state': 20}</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>pt</t>
-        </is>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
+          <t>{'how': 'simple', 'models': ('arima', 'hwes', 'prophet', 'silverkite'), 'determine_best_by': 'ValidationMetricValue'}</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>750</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>12</v>
       </c>
-      <c r="J4" t="n">
-        <v>14.92954405738234</v>
-      </c>
       <c r="K4" t="n">
-        <v>2.582425408251861</v>
+        <v>15.20096606813602</v>
       </c>
       <c r="L4" t="n">
-        <v>11.40608929277311</v>
+        <v>0.07926591197677597</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.01444516804033147</v>
+        <v>10.96011310550019</v>
       </c>
       <c r="N4" t="n">
-        <v>1.718607513334995</v>
+        <v>-0.1197888841638914</v>
       </c>
       <c r="O4" t="n">
-        <v>8.600000000000023</v>
+        <v>120.6338708069169</v>
       </c>
       <c r="P4" t="n">
-        <v>10.90820722836179</v>
-      </c>
-      <c r="Q4" t="inlineStr"/>
+        <v>154.3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>18.02398432036044</v>
+      </c>
       <c r="R4" t="n">
-        <v>8.333468090920878</v>
+        <v>0.1444883622374272</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5872902339842373</v>
+        <v>14.32205087010169</v>
       </c>
       <c r="T4" t="n">
-        <v>6</v>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="V4" t="n">
-        <v>10.36735629217854</v>
-      </c>
+        <v>0.7757005295493604</v>
+      </c>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="n">
-        <v>14.2520525329766</v>
-      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>['arima', 'hwes', 'prophet', 'silverkite']</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="n">
-        <v>0.08832067882317061</v>
+        <v>15.20096606813602</v>
       </c>
       <c r="AB4" t="n">
-        <v>10.50220286716312</v>
+        <v>0.07926591197677597</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.01565213902185425</v>
-      </c>
-      <c r="AD4" t="b">
+        <v>10.96011310550019</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>-0.1197888841638914</v>
+      </c>
+      <c r="AE4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>weighted_level</t>
+          <t>weighted_diff</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -880,255 +890,268 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'how': 'weighted', 'models': ('arima', 'hwes', 'prophet', 'silverkite'), 'determine_best_by': 'ValidationMetricValue'}</t>
+          <t>{'how': 'weighted', 'models': ('knn', 'svr', 'lightgbm', 'mlp', 'elasticnet'), 'determine_best_by': 'ValidationMetricValue'}</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="b">
+      <c r="F5" t="n">
+        <v>749</v>
+      </c>
+      <c r="G5" t="b">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
         <v>12</v>
       </c>
-      <c r="J5" t="n">
-        <v>18.1221229240184</v>
-      </c>
       <c r="K5" t="n">
-        <v>0.1019200045342403</v>
+        <v>12.43634488446768</v>
       </c>
       <c r="L5" t="n">
-        <v>13.95247765272757</v>
+        <v>1.358061124247253</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.5915193264217484</v>
+        <v>9.383522888848175</v>
       </c>
       <c r="N5" t="n">
-        <v>115.9469996426223</v>
+        <v>0.2960837303878853</v>
       </c>
       <c r="O5" t="n">
-        <v>154.3</v>
+        <v>4.78164479726391</v>
       </c>
       <c r="P5" t="n">
-        <v>20.71745886056775</v>
+        <v>8.600000000000023</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1689947891075268</v>
-      </c>
-      <c r="R5" t="n">
-        <v>16.54298603447979</v>
-      </c>
+        <v>10.96033845318762</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>0.7036536267072252</v>
-      </c>
-      <c r="T5" t="inlineStr"/>
+        <v>8.493305819963101</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.5833360596111696</v>
+      </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>['silverkite', 'hwes', 'arima', 'prophet']</t>
-        </is>
-      </c>
+      <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>(0.5006804958313218, 0.2560597413960723, 0.1977433540606674, 0.04551640871193835)</t>
-        </is>
-      </c>
-      <c r="Z5" t="n">
-        <v>18.1221229240184</v>
+          <t>['elasticnet', 'mlp', 'svr', 'knn', 'lightgbm']</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>(0.3255042834443134, 0.30314459202263966, 0.17318663333770723, 0.168573192700402, 0.029591298494937582)</t>
+        </is>
       </c>
       <c r="AA5" t="n">
-        <v>0.1019200045342403</v>
+        <v>13.25775557399023</v>
       </c>
       <c r="AB5" t="n">
-        <v>13.95247765272757</v>
+        <v>0.08619397138974612</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.5915193264217484</v>
-      </c>
-      <c r="AD5" t="b">
+        <v>11.50649443118646</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.1482075452744196</v>
+      </c>
+      <c r="AE5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>weighted_diff</t>
+          <t>mlp</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>combo</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'how': 'weighted', 'models': ('knn', 'svr', 'lightgbm', 'mlp', 'elasticnet'), 'determine_best_by': 'ValidationMetricValue'}</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
+          <t>{'activation': 'tanh', 'hidden_layer_sizes': (25, 25), 'solver': 'adam', 'random_state': 20}</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>pt</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>749</v>
+      </c>
+      <c r="G6" t="b">
         <v>1</v>
       </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
       <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
         <v>12</v>
       </c>
-      <c r="J6" t="n">
-        <v>12.58031027408624</v>
-      </c>
       <c r="K6" t="n">
-        <v>0.9551976968381481</v>
+        <v>14.92954405738234</v>
       </c>
       <c r="L6" t="n">
-        <v>9.425476384243284</v>
+        <v>2.582425408251861</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2796920745336009</v>
+        <v>11.40608929277311</v>
       </c>
       <c r="N6" t="n">
-        <v>4.885134254831581</v>
+        <v>-0.01444516804033147</v>
       </c>
       <c r="O6" t="n">
+        <v>1.718607513334995</v>
+      </c>
+      <c r="P6" t="n">
         <v>8.600000000000023</v>
       </c>
-      <c r="P6" t="n">
-        <v>10.86194350213236</v>
-      </c>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="n">
-        <v>8.421668001314595</v>
-      </c>
+      <c r="Q6" t="n">
+        <v>10.95509040993115</v>
+      </c>
+      <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>0.5907835673454328</v>
-      </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>['mlp', 'elasticnet', 'svr', 'knn', 'lightgbm']</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>(0.3184036172082561, 0.2914458403381978, 0.1831481560980646, 0.17805660297291276, 0.02894578338256874)</t>
-        </is>
-      </c>
-      <c r="Z6" t="n">
-        <v>15.69602153059849</v>
-      </c>
+        <v>8.349557484933303</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.5837349792028876</v>
+      </c>
+      <c r="U6" t="n">
+        <v>6</v>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="W6" t="n">
+        <v>10.49466529325489</v>
+      </c>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="n">
-        <v>0.1027911624538593</v>
+        <v>14.2520525329766</v>
       </c>
       <c r="AB6" t="n">
-        <v>13.8190006749926</v>
+        <v>0.08832067882317061</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.1939137240654614</v>
-      </c>
-      <c r="AD6" t="b">
+        <v>10.50220286716312</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.01565213902185425</v>
+      </c>
+      <c r="AE6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>weighted_level</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>elasticnet</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
-        </is>
-      </c>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'alpha': 1.0, 'l1_ratio': 1.0}</t>
+          <t>{'how': 'weighted', 'models': ('arima', 'hwes', 'prophet', 'silverkite'), 'determine_best_by': 'ValidationMetricValue'}</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="b">
-        <v>1</v>
+      <c r="F7" t="n">
+        <v>750</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>12</v>
       </c>
-      <c r="J7" t="n">
-        <v>9.889504237227525</v>
-      </c>
       <c r="K7" t="n">
-        <v>0.9880403401730518</v>
+        <v>18.1221229240184</v>
       </c>
       <c r="L7" t="n">
-        <v>6.923244356046017</v>
+        <v>0.1019200045342403</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5548723930966784</v>
+        <v>13.95247765272757</v>
       </c>
       <c r="N7" t="n">
-        <v>11.56893754961369</v>
+        <v>-0.5915193264217484</v>
       </c>
       <c r="O7" t="n">
-        <v>8.600000000000023</v>
+        <v>115.9469996426223</v>
       </c>
       <c r="P7" t="n">
-        <v>11.81710542046874</v>
-      </c>
-      <c r="Q7" t="inlineStr"/>
+        <v>154.3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>20.71745886056775</v>
+      </c>
       <c r="R7" t="n">
-        <v>9.194604727731607</v>
+        <v>0.1689947891075268</v>
       </c>
       <c r="S7" t="n">
-        <v>0.5156489942673415</v>
+        <v>16.54298603447979</v>
       </c>
       <c r="T7" t="n">
-        <v>6</v>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="V7" t="n">
-        <v>11.29837132798284</v>
-      </c>
+        <v>0.7036536267072252</v>
+      </c>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="n">
-        <v>20.50689541438721</v>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>['silverkite', 'hwes', 'arima', 'prophet']</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>(0.5006804958313218, 0.2560597413960723, 0.1977433540606674, 0.04551640871193835)</t>
+        </is>
       </c>
       <c r="AA7" t="n">
-        <v>0.1370747710073457</v>
+        <v>18.1221229240184</v>
       </c>
       <c r="AB7" t="n">
-        <v>18.30831416796834</v>
+        <v>0.1019200045342403</v>
       </c>
       <c r="AC7" t="n">
-        <v>-1.037950381607124</v>
-      </c>
-      <c r="AD7" t="b">
+        <v>13.95247765272757</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.5915193264217484</v>
+      </c>
+      <c r="AE7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1150,67 +1173,70 @@
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="b">
+      <c r="F8" t="n">
+        <v>749</v>
+      </c>
+      <c r="G8" t="b">
         <v>0</v>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="n">
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>12</v>
       </c>
-      <c r="J8" t="n">
-        <v>12.22613234027798</v>
-      </c>
       <c r="K8" t="n">
-        <v>2.281921886746886</v>
+        <v>12.21128224587584</v>
       </c>
       <c r="L8" t="n">
-        <v>9.10147202761466</v>
+        <v>1.796404057906117</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3196793189141381</v>
+        <v>9.032284538687277</v>
       </c>
       <c r="N8" t="n">
-        <v>3.776095795491338</v>
+        <v>0.3213309762843835</v>
       </c>
       <c r="O8" t="n">
+        <v>3.518109853870077</v>
+      </c>
+      <c r="P8" t="n">
         <v>8.600000000000023</v>
       </c>
-      <c r="P8" t="n">
-        <v>10.47963976810514</v>
-      </c>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="n">
-        <v>8.146049687708414</v>
-      </c>
+      <c r="Q8" t="n">
+        <v>10.5215648765257</v>
+      </c>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>0.6190827023675967</v>
-      </c>
-      <c r="T8" t="inlineStr"/>
+        <v>8.167985771618239</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.6160287912895632</v>
+      </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr">
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>['knn', 'svr', 'lightgbm', 'mlp', 'elasticnet']</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="n">
-        <v>23.70854130325607</v>
-      </c>
+      <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="n">
-        <v>0.1649517742885372</v>
+        <v>21.57354778675276</v>
       </c>
       <c r="AB8" t="n">
-        <v>21.87976979762497</v>
+        <v>0.1486428412379291</v>
       </c>
       <c r="AC8" t="n">
-        <v>-1.723977032940819</v>
-      </c>
-      <c r="AD8" t="b">
+        <v>19.79725231620246</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-1.255469273319976</v>
+      </c>
+      <c r="AE8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1232,77 +1258,80 @@
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="b">
-        <v>1</v>
+      <c r="F9" t="n">
+        <v>750</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>12</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>26.55562683748546</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>0.1696648171065561</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>23.02807311996528</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>-2.417487127820877</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>106.261037790605</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>154.3</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>36.78472798258684</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>0.3050851029708435</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>29.51787617803975</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>0.06575293074360633</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>6</v>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>11.69313794128677</v>
       </c>
-      <c r="W9" t="b">
+      <c r="X9" t="b">
         <v>1</v>
       </c>
-      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="n">
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="n">
         <v>26.55562683748546</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AB9" t="n">
         <v>0.1696648171065561</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AC9" t="n">
         <v>23.02807311996528</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AD9" t="n">
         <v>-2.417487127820877</v>
       </c>
-      <c r="AD9" t="b">
+      <c r="AE9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1324,77 +1353,80 @@
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="b">
-        <v>1</v>
+      <c r="F10" t="n">
+        <v>750</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>12</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>29.66280686915766</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>0.2105116090294364</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>27.45008226217017</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>-3.264010458031977</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>113.2015403356291</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>154.3</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>10.91921186571837</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>0.08017996755887818</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>8.566032247601143</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>0.9176792664276275</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>6</v>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>21.47617407590851</v>
       </c>
-      <c r="W10" t="b">
+      <c r="X10" t="b">
         <v>1</v>
       </c>
-      <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="n">
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="n">
         <v>29.66280686915766</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AB10" t="n">
         <v>0.2105116090294364</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AC10" t="n">
         <v>27.45008226217017</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AD10" t="n">
         <v>-3.264010458031977</v>
       </c>
-      <c r="AD10" t="b">
+      <c r="AE10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1416,77 +1448,80 @@
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="b">
-        <v>1</v>
+      <c r="F11" t="n">
+        <v>750</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>12</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>30.82740445360642</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>0.2302101922377014</v>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>29.00782059021475</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>-3.605403574072794</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>119.9728810514455</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>154.3</v>
       </c>
-      <c r="P11" t="n">
+      <c r="Q11" t="n">
         <v>31.51240778559105</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="R11" t="n">
         <v>0.2518073451441327</v>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>24.98442510902486</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>0.3143699841834792</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>6</v>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>29.89636326348532</v>
       </c>
-      <c r="W11" t="b">
+      <c r="X11" t="b">
         <v>1</v>
       </c>
-      <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="n">
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="n">
         <v>30.82740445360642</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AB11" t="n">
         <v>0.2302101922377014</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AC11" t="n">
         <v>29.00782059021475</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AD11" t="n">
         <v>-3.605403574072794</v>
       </c>
-      <c r="AD11" t="b">
+      <c r="AE11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1516,73 +1551,76 @@
           <t>minmax</t>
         </is>
       </c>
-      <c r="F12" t="b">
-        <v>1</v>
+      <c r="F12" t="n">
+        <v>749</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
         <v>12</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>14.22430552913185</v>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>2.283848613333041</v>
       </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
         <v>11.41811351772209</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>0.07913146774701818</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>2.887142794722719</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>8.600000000000023</v>
       </c>
-      <c r="P12" t="n">
-        <v>13.13949597266035</v>
-      </c>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="n">
-        <v>10.0283713439507</v>
-      </c>
+      <c r="Q12" t="n">
+        <v>13.17665414363269</v>
+      </c>
+      <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>0.4011812389851548</v>
+        <v>10.05599202034097</v>
       </c>
       <c r="T12" t="n">
+        <v>0.3977895605518927</v>
+      </c>
+      <c r="U12" t="n">
         <v>6</v>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="V12" t="n">
-        <v>15.03854518788069</v>
-      </c>
-      <c r="W12" t="inlineStr"/>
+      <c r="W12" t="n">
+        <v>15.05258355144947</v>
+      </c>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="n">
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="n">
         <v>33.25013667552012</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AB12" t="n">
         <v>0.2381959297637569</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AC12" t="n">
         <v>31.08605604300426</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AD12" t="n">
         <v>-4.357727764320964</v>
       </c>
-      <c r="AD12" t="b">
+      <c r="AE12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1604,77 +1642,80 @@
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="b">
-        <v>1</v>
+      <c r="F13" t="n">
+        <v>750</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>12</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>55.68005782309162</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>0.3919335016592729</v>
       </c>
-      <c r="L13" t="n">
+      <c r="M13" t="n">
         <v>47.03335337499001</v>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>-14.02426129859499</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>143.100024049988</v>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
         <v>154.3</v>
       </c>
-      <c r="P13" t="n">
+      <c r="Q13" t="n">
         <v>11.58644876774325</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="R13" t="n">
         <v>0.08054923381196277</v>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>8.660803619781996</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>0.9073111833254927</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>6</v>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>23.80840187832859</v>
       </c>
-      <c r="W13" t="b">
+      <c r="X13" t="b">
         <v>1</v>
       </c>
-      <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="n">
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="n">
         <v>55.68005782309162</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AB13" t="n">
         <v>0.3919335016592729</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AC13" t="n">
         <v>47.03335337499001</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AD13" t="n">
         <v>-14.02426129859499</v>
       </c>
-      <c r="AD13" t="b">
+      <c r="AE13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1704,73 +1745,76 @@
           <t>minmax</t>
         </is>
       </c>
-      <c r="F14" t="b">
-        <v>1</v>
+      <c r="F14" t="n">
+        <v>749</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
         <v>12</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>15.08747219838924</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>7.868889123213035</v>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
         <v>10.76954127709949</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>-0.03602075065961485</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>0.2974577864519554</v>
       </c>
-      <c r="O14" t="n">
+      <c r="P14" t="n">
         <v>8.600000000000023</v>
       </c>
-      <c r="P14" t="n">
-        <v>9.320871922951323</v>
-      </c>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="n">
-        <v>7.292338253172074</v>
-      </c>
+      <c r="Q14" t="n">
+        <v>9.306629757769668</v>
+      </c>
+      <c r="R14" t="inlineStr"/>
       <c r="S14" t="n">
-        <v>0.6986639667766382</v>
+        <v>7.268316356519059</v>
       </c>
       <c r="T14" t="n">
+        <v>0.6995841379330299</v>
+      </c>
+      <c r="U14" t="n">
         <v>6</v>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="V14" t="n">
-        <v>20.36408550401416</v>
-      </c>
-      <c r="W14" t="inlineStr"/>
+      <c r="W14" t="n">
+        <v>20.08879530095971</v>
+      </c>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="n">
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="n">
         <v>60.32924215063278</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AB14" t="n">
         <v>0.4496113111775727</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AC14" t="n">
         <v>57.51493546535716</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AD14" t="n">
         <v>-16.63800707598961</v>
       </c>
-      <c r="AD14" t="b">
+      <c r="AE14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1801,32 +1845,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>elasticnet</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>knn</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>avg_level</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>weighted_diff</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>mlp</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>weighted_level</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>weighted_diff</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>elasticnet</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1870,25 +1914,25 @@
         <v>44378</v>
       </c>
       <c r="B2" t="n">
+        <v>158.7992090473758</v>
+      </c>
+      <c r="C2" t="n">
         <v>154.5583333333333</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>133.5359982590729</v>
       </c>
-      <c r="D2" t="n">
-        <v>153.4675713761895</v>
-      </c>
       <c r="E2" t="n">
+        <v>155.6104193313884</v>
+      </c>
+      <c r="F2" t="n">
+        <v>153.4670217678987</v>
+      </c>
+      <c r="G2" t="n">
         <v>129.5406605667929</v>
       </c>
-      <c r="F2" t="n">
-        <v>155.639529531782</v>
-      </c>
-      <c r="G2" t="n">
-        <v>159.2005945873714</v>
-      </c>
       <c r="H2" t="n">
-        <v>154.5359338833142</v>
+        <v>154.2232053693796</v>
       </c>
       <c r="I2" t="n">
         <v>106.6355380940402</v>
@@ -1900,13 +1944,13 @@
         <v>115.5154619322586</v>
       </c>
       <c r="L2" t="n">
-        <v>155.7358365917999</v>
+        <v>155.5700099169691</v>
       </c>
       <c r="M2" t="n">
         <v>154.2682600177379</v>
       </c>
       <c r="N2" t="n">
-        <v>149.7173335278767</v>
+        <v>148.7214527813213</v>
       </c>
     </row>
     <row r="3">
@@ -1914,25 +1958,25 @@
         <v>44409</v>
       </c>
       <c r="B3" t="n">
+        <v>154.4029773424122</v>
+      </c>
+      <c r="C3" t="n">
         <v>151.1083333333333</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>130.4959010024299</v>
       </c>
-      <c r="D3" t="n">
-        <v>150.175563391712</v>
-      </c>
       <c r="E3" t="n">
+        <v>151.9032087370406</v>
+      </c>
+      <c r="F3" t="n">
+        <v>150.1177743467056</v>
+      </c>
+      <c r="G3" t="n">
         <v>127.1294204592387</v>
       </c>
-      <c r="F3" t="n">
-        <v>152.0013118727918</v>
-      </c>
-      <c r="G3" t="n">
-        <v>154.8897102472281</v>
-      </c>
       <c r="H3" t="n">
-        <v>151.1692143054213</v>
+        <v>150.8996846453115</v>
       </c>
       <c r="I3" t="n">
         <v>106.5853620249925</v>
@@ -1944,13 +1988,13 @@
         <v>113.6284413642046</v>
       </c>
       <c r="L3" t="n">
-        <v>152.1560034239677</v>
+        <v>151.9564741314531</v>
       </c>
       <c r="M3" t="n">
         <v>148.8234702254157</v>
       </c>
       <c r="N3" t="n">
-        <v>147.5164611308655</v>
+        <v>146.9128640726533</v>
       </c>
     </row>
     <row r="4">
@@ -1958,25 +2002,25 @@
         <v>44440</v>
       </c>
       <c r="B4" t="n">
+        <v>152.7763478640812</v>
+      </c>
+      <c r="C4" t="n">
         <v>152.775</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>128.8372437636031</v>
       </c>
-      <c r="D4" t="n">
-        <v>147.45496762109</v>
-      </c>
       <c r="E4" t="n">
+        <v>149.7415942896548</v>
+      </c>
+      <c r="F4" t="n">
+        <v>147.4811886770815</v>
+      </c>
+      <c r="G4" t="n">
         <v>126.9034181803819</v>
       </c>
-      <c r="F4" t="n">
-        <v>149.6863783983006</v>
-      </c>
-      <c r="G4" t="n">
-        <v>152.9437202897851</v>
-      </c>
       <c r="H4" t="n">
-        <v>148.8565599449406</v>
+        <v>148.7448569495595</v>
       </c>
       <c r="I4" t="n">
         <v>106.553965064259</v>
@@ -1988,13 +2032,13 @@
         <v>106.7962880337393</v>
       </c>
       <c r="L4" t="n">
-        <v>146.1222226407837</v>
+        <v>145.8849488064909</v>
       </c>
       <c r="M4" t="n">
         <v>148.1019729887558</v>
       </c>
       <c r="N4" t="n">
-        <v>144.9868891730441</v>
+        <v>144.8067994001438</v>
       </c>
     </row>
     <row r="5">
@@ -2002,25 +2046,25 @@
         <v>44470</v>
       </c>
       <c r="B5" t="n">
+        <v>154.2175198679189</v>
+      </c>
+      <c r="C5" t="n">
         <v>150.7333333333333</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>130.5173628647413</v>
       </c>
-      <c r="D5" t="n">
-        <v>144.4703729159697</v>
-      </c>
       <c r="E5" t="n">
+        <v>148.0017547458285</v>
+      </c>
+      <c r="F5" t="n">
+        <v>144.6265589497182</v>
+      </c>
+      <c r="G5" t="n">
         <v>127.5462587444791</v>
       </c>
-      <c r="F5" t="n">
-        <v>147.3827369780437</v>
-      </c>
-      <c r="G5" t="n">
-        <v>153.1820289496157</v>
-      </c>
       <c r="H5" t="n">
-        <v>146.8823578766268</v>
+        <v>147.0546001137574</v>
       </c>
       <c r="I5" t="n">
         <v>106.5178894708137</v>
@@ -2032,13 +2076,13 @@
         <v>111.7202361335611</v>
       </c>
       <c r="L5" t="n">
-        <v>140.2071098855771</v>
+        <v>139.9546132768486</v>
       </c>
       <c r="M5" t="n">
         <v>148.6588251157353</v>
       </c>
       <c r="N5" t="n">
-        <v>145.8189442986381</v>
+        <v>145.740975140968</v>
       </c>
     </row>
     <row r="6">
@@ -2046,25 +2090,25 @@
         <v>44501</v>
       </c>
       <c r="B6" t="n">
+        <v>144.1350916144025</v>
+      </c>
+      <c r="C6" t="n">
         <v>141.8833333333334</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>118.5201863800425</v>
       </c>
-      <c r="D6" t="n">
-        <v>135.583821489731</v>
-      </c>
       <c r="E6" t="n">
+        <v>138.7638927908714</v>
+      </c>
+      <c r="F6" t="n">
+        <v>135.6913658442832</v>
+      </c>
+      <c r="G6" t="n">
         <v>120.5858570338796</v>
       </c>
-      <c r="F6" t="n">
-        <v>137.8409777219998</v>
-      </c>
-      <c r="G6" t="n">
-        <v>141.9381763248339</v>
-      </c>
       <c r="H6" t="n">
-        <v>137.2955510888398</v>
+        <v>137.782486580714</v>
       </c>
       <c r="I6" t="n">
         <v>106.4781132810161</v>
@@ -2076,13 +2120,13 @@
         <v>89.97811993873144</v>
       </c>
       <c r="L6" t="n">
-        <v>131.7062908896642</v>
+        <v>131.5404830124376</v>
       </c>
       <c r="M6" t="n">
         <v>135.6325312209646</v>
       </c>
       <c r="N6" t="n">
-        <v>135.3661334066367</v>
+        <v>135.6621590991136</v>
       </c>
     </row>
     <row r="7">
@@ -2090,25 +2134,25 @@
         <v>44531</v>
       </c>
       <c r="B7" t="n">
+        <v>145.4080760158442</v>
+      </c>
+      <c r="C7" t="n">
         <v>137.4333333333333</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>110.5602449037279</v>
       </c>
-      <c r="D7" t="n">
-        <v>131.396151141661</v>
-      </c>
       <c r="E7" t="n">
+        <v>136.4583929369673</v>
+      </c>
+      <c r="F7" t="n">
+        <v>131.5957394040541</v>
+      </c>
+      <c r="G7" t="n">
         <v>116.087296926607</v>
       </c>
-      <c r="F7" t="n">
-        <v>134.8340150606744</v>
-      </c>
-      <c r="G7" t="n">
-        <v>141.6226328094978</v>
-      </c>
       <c r="H7" t="n">
-        <v>133.6114541621247</v>
+        <v>134.5694337642888</v>
       </c>
       <c r="I7" t="n">
         <v>106.4538423695216</v>
@@ -2120,13 +2164,13 @@
         <v>74.59360698271273</v>
       </c>
       <c r="L7" t="n">
-        <v>128.3649676104336</v>
+        <v>128.2816103437062</v>
       </c>
       <c r="M7" t="n">
         <v>128.4106734382575</v>
       </c>
       <c r="N7" t="n">
-        <v>129.2401859156979</v>
+        <v>130.1284097245064</v>
       </c>
     </row>
     <row r="8">
@@ -2134,25 +2178,25 @@
         <v>44562</v>
       </c>
       <c r="B8" t="n">
+        <v>146.3485760593025</v>
+      </c>
+      <c r="C8" t="n">
         <v>138.925</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>108.9712101361083</v>
       </c>
-      <c r="D8" t="n">
-        <v>128.5373769087033</v>
-      </c>
       <c r="E8" t="n">
+        <v>136.1314477424989</v>
+      </c>
+      <c r="F8" t="n">
+        <v>128.7133191445484</v>
+      </c>
+      <c r="G8" t="n">
         <v>115.3590839975137</v>
       </c>
-      <c r="F8" t="n">
-        <v>134.0117440440598</v>
-      </c>
-      <c r="G8" t="n">
-        <v>141.2490285203862</v>
-      </c>
       <c r="H8" t="n">
-        <v>132.8016810934368</v>
+        <v>134.3328815154942</v>
       </c>
       <c r="I8" t="n">
         <v>106.369725374985</v>
@@ -2164,13 +2208,13 @@
         <v>69.83616567694125</v>
       </c>
       <c r="L8" t="n">
-        <v>128.3524429482826</v>
+        <v>128.357719834448</v>
       </c>
       <c r="M8" t="n">
         <v>129.8122072277382</v>
       </c>
       <c r="N8" t="n">
-        <v>126.944557089812</v>
+        <v>129.319792539172</v>
       </c>
     </row>
     <row r="9">
@@ -2178,25 +2222,25 @@
         <v>44593</v>
       </c>
       <c r="B9" t="n">
+        <v>140.1731985490464</v>
+      </c>
+      <c r="C9" t="n">
         <v>140.0166666666667</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>107.7206030774895</v>
       </c>
-      <c r="D9" t="n">
-        <v>125.7743184403326</v>
-      </c>
       <c r="E9" t="n">
+        <v>133.8446758011814</v>
+      </c>
+      <c r="F9" t="n">
+        <v>126.2945123365564</v>
+      </c>
+      <c r="G9" t="n">
         <v>113.7930317658923</v>
       </c>
-      <c r="F9" t="n">
-        <v>131.6538251492148</v>
-      </c>
-      <c r="G9" t="n">
-        <v>134.7173551380287</v>
-      </c>
       <c r="H9" t="n">
-        <v>131.5265388541406</v>
+        <v>133.4429211570699</v>
       </c>
       <c r="I9" t="n">
         <v>106.3954678735738</v>
@@ -2208,13 +2252,13 @@
         <v>71.59884240342421</v>
       </c>
       <c r="L9" t="n">
-        <v>129.5081015786041</v>
+        <v>129.6267619782217</v>
       </c>
       <c r="M9" t="n">
         <v>128.4456799940632</v>
       </c>
       <c r="N9" t="n">
-        <v>127.6162524470709</v>
+        <v>131.1034662548581</v>
       </c>
     </row>
     <row r="10">
@@ -2222,25 +2266,25 @@
         <v>44621</v>
       </c>
       <c r="B10" t="n">
+        <v>155.3282959238043</v>
+      </c>
+      <c r="C10" t="n">
         <v>153.4916666666667</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>122.5728757093828</v>
       </c>
-      <c r="D10" t="n">
-        <v>139.0943137859178</v>
-      </c>
       <c r="E10" t="n">
+        <v>146.8490078877527</v>
+      </c>
+      <c r="F10" t="n">
+        <v>138.9236049498558</v>
+      </c>
+      <c r="G10" t="n">
         <v>122.0112731315025</v>
       </c>
-      <c r="F10" t="n">
-        <v>145.2390709816861</v>
-      </c>
-      <c r="G10" t="n">
-        <v>150.7597709533803</v>
-      </c>
       <c r="H10" t="n">
-        <v>146.327436847134</v>
+        <v>146.4067364459819</v>
       </c>
       <c r="I10" t="n">
         <v>106.3690582836884</v>
@@ -2252,13 +2296,13 @@
         <v>100.3790199687336</v>
       </c>
       <c r="L10" t="n">
-        <v>138.3740321996159</v>
+        <v>138.4999641913241</v>
       </c>
       <c r="M10" t="n">
         <v>144.3605917404765</v>
       </c>
       <c r="N10" t="n">
-        <v>149.9174006300891</v>
+        <v>145.7901504982587</v>
       </c>
     </row>
     <row r="11">
@@ -2266,25 +2310,25 @@
         <v>44652</v>
       </c>
       <c r="B11" t="n">
+        <v>145.517811401481</v>
+      </c>
+      <c r="C11" t="n">
         <v>160.8</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>129.5222815712843</v>
       </c>
-      <c r="D11" t="n">
-        <v>142.125354617528</v>
-      </c>
       <c r="E11" t="n">
+        <v>146.4411566457296</v>
+      </c>
+      <c r="F11" t="n">
+        <v>141.8809239844413</v>
+      </c>
+      <c r="G11" t="n">
         <v>125.5675146009755</v>
       </c>
-      <c r="F11" t="n">
-        <v>145.7365382342782</v>
-      </c>
-      <c r="G11" t="n">
-        <v>142.4606234983249</v>
-      </c>
       <c r="H11" t="n">
-        <v>147.3620210797532</v>
+        <v>147.3689603711817</v>
       </c>
       <c r="I11" t="n">
         <v>106.3350629169357</v>
@@ -2296,13 +2340,13 @@
         <v>115.7847268098776</v>
       </c>
       <c r="L11" t="n">
-        <v>142.0001086367726</v>
+        <v>142.1778055942709</v>
       </c>
       <c r="M11" t="n">
         <v>149.6717226789103</v>
       </c>
       <c r="N11" t="n">
-        <v>149.4240186461404</v>
+        <v>146.4682608757153</v>
       </c>
     </row>
     <row r="12">
@@ -2310,25 +2354,25 @@
         <v>44682</v>
       </c>
       <c r="B12" t="n">
+        <v>154.4316603895961</v>
+      </c>
+      <c r="C12" t="n">
         <v>161.275</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>134.5888301886341</v>
       </c>
-      <c r="D12" t="n">
-        <v>150.4494762686879</v>
-      </c>
       <c r="E12" t="n">
+        <v>153.454777323381</v>
+      </c>
+      <c r="F12" t="n">
+        <v>150.2273436674125</v>
+      </c>
+      <c r="G12" t="n">
         <v>129.1626392655149</v>
       </c>
-      <c r="F12" t="n">
-        <v>153.0893444296155</v>
-      </c>
-      <c r="G12" t="n">
-        <v>152.6767664187237</v>
-      </c>
       <c r="H12" t="n">
-        <v>153.9688436597911</v>
+        <v>153.3486469576516</v>
       </c>
       <c r="I12" t="n">
         <v>106.2989957631332</v>
@@ -2340,13 +2384,13 @@
         <v>122.0368294497014</v>
       </c>
       <c r="L12" t="n">
-        <v>150.0062108641862</v>
+        <v>150.1304077510188</v>
       </c>
       <c r="M12" t="n">
         <v>154.2857010514847</v>
       </c>
       <c r="N12" t="n">
-        <v>155.4367647473574</v>
+        <v>150.6788229802307</v>
       </c>
     </row>
     <row r="13">
@@ -2354,25 +2398,25 @@
         <v>44713</v>
       </c>
       <c r="B13" t="n">
+        <v>165.0735337264939</v>
+      </c>
+      <c r="C13" t="n">
         <v>162.4083333333333</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>137.3993757177633</v>
       </c>
-      <c r="D13" t="n">
-        <v>152.6749986889439</v>
-      </c>
       <c r="E13" t="n">
+        <v>158.988073230044</v>
+      </c>
+      <c r="F13" t="n">
+        <v>152.5191479726159</v>
+      </c>
+      <c r="G13" t="n">
         <v>132.0565323323392</v>
       </c>
-      <c r="F13" t="n">
-        <v>158.5054388957448</v>
-      </c>
-      <c r="G13" t="n">
-        <v>163.9671856820416</v>
-      </c>
       <c r="H13" t="n">
-        <v>157.8931606330131</v>
+        <v>157.5317938065493</v>
       </c>
       <c r="I13" t="n">
         <v>106.261037790605</v>
@@ -2384,13 +2428,13 @@
         <v>120.658797426521</v>
       </c>
       <c r="L13" t="n">
-        <v>156.9529876311977</v>
+        <v>156.9611327091151</v>
       </c>
       <c r="M13" t="n">
         <v>158.8406355668901</v>
       </c>
       <c r="N13" t="n">
-        <v>153.4622978295485</v>
+        <v>150.6968212911885</v>
       </c>
     </row>
     <row r="14">
@@ -2398,25 +2442,25 @@
         <v>44743</v>
       </c>
       <c r="B14" t="n">
+        <v>171.7645794638347</v>
+      </c>
+      <c r="C14" t="n">
         <v>163.0333333333333</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>137.3860491422743</v>
       </c>
-      <c r="D14" t="n">
-        <v>151.5546201740461</v>
-      </c>
       <c r="E14" t="n">
+        <v>161.3771949252066</v>
+      </c>
+      <c r="F14" t="n">
+        <v>151.5246597840385</v>
+      </c>
+      <c r="G14" t="n">
         <v>133.0175354887371</v>
       </c>
-      <c r="F14" t="n">
-        <v>160.7692246028583</v>
-      </c>
-      <c r="G14" t="n">
-        <v>170.9977262668219</v>
-      </c>
       <c r="H14" t="n">
-        <v>159.6334902882005</v>
+        <v>159.1829853624664</v>
       </c>
       <c r="I14" t="n">
         <v>106.2352700661455</v>
@@ -2428,13 +2472,13 @@
         <v>115.5490512454531</v>
       </c>
       <c r="L14" t="n">
-        <v>159.5307719146462</v>
+        <v>159.3987585793463</v>
       </c>
       <c r="M14" t="n">
         <v>160.4673981284581</v>
       </c>
       <c r="N14" t="n">
-        <v>153.0509997521549</v>
+        <v>150.1935956517792</v>
       </c>
     </row>
     <row r="15">
@@ -2442,25 +2486,25 @@
         <v>44774</v>
       </c>
       <c r="B15" t="n">
+        <v>165.3232734144235</v>
+      </c>
+      <c r="C15" t="n">
         <v>158.85</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>134.1696509458509</v>
       </c>
-      <c r="D15" t="n">
-        <v>148.6627386730985</v>
-      </c>
       <c r="E15" t="n">
+        <v>156.6547598666638</v>
+      </c>
+      <c r="F15" t="n">
+        <v>148.5573546417366</v>
+      </c>
+      <c r="G15" t="n">
         <v>130.5596420502839</v>
       </c>
-      <c r="F15" t="n">
-        <v>156.3831256386924</v>
-      </c>
-      <c r="G15" t="n">
-        <v>165.31865169804</v>
-      </c>
       <c r="H15" t="n">
-        <v>154.9316482976512</v>
+        <v>154.34645361038</v>
       </c>
       <c r="I15" t="n">
         <v>106.1949154309407</v>
@@ -2472,13 +2516,13 @@
         <v>113.055975234074</v>
       </c>
       <c r="L15" t="n">
-        <v>154.6411516225435</v>
+        <v>154.4706806571432</v>
       </c>
       <c r="M15" t="n">
         <v>154.9554316455527</v>
       </c>
       <c r="N15" t="n">
-        <v>147.1856994945737</v>
+        <v>144.5309593385967</v>
       </c>
     </row>
     <row r="16">
@@ -2486,25 +2530,25 @@
         <v>44805</v>
       </c>
       <c r="B16" t="n">
+        <v>165.4144051156462</v>
+      </c>
+      <c r="C16" t="n">
         <v>159.3416666666667</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>132.6764460637265</v>
       </c>
-      <c r="D16" t="n">
-        <v>146.1849866955017</v>
-      </c>
       <c r="E16" t="n">
+        <v>154.9290879895387</v>
+      </c>
+      <c r="F16" t="n">
+        <v>146.2022015354928</v>
+      </c>
+      <c r="G16" t="n">
         <v>130.3566079858278</v>
       </c>
-      <c r="F16" t="n">
-        <v>154.2288491078903</v>
-      </c>
-      <c r="G16" t="n">
-        <v>164.2492338655322</v>
-      </c>
       <c r="H16" t="n">
-        <v>152.5423653168955</v>
+        <v>151.985248349529</v>
       </c>
       <c r="I16" t="n">
         <v>106.1672793326401</v>
@@ -2516,13 +2560,13 @@
         <v>106.9239842854234</v>
       </c>
       <c r="L16" t="n">
-        <v>148.9093069386325</v>
+        <v>148.708960340595</v>
       </c>
       <c r="M16" t="n">
         <v>154.2339344088927</v>
       </c>
       <c r="N16" t="n">
-        <v>144.0266324181443</v>
+        <v>140.2590080892442</v>
       </c>
     </row>
     <row r="17">
@@ -2530,25 +2574,25 @@
         <v>44835</v>
       </c>
       <c r="B17" t="n">
+        <v>166.0340388294437</v>
+      </c>
+      <c r="C17" t="n">
         <v>157.7916666666667</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>133.8822437067818</v>
       </c>
-      <c r="D17" t="n">
-        <v>142.9341620966446</v>
-      </c>
       <c r="E17" t="n">
+        <v>152.8523311435144</v>
+      </c>
+      <c r="F17" t="n">
+        <v>143.080086607131</v>
+      </c>
+      <c r="G17" t="n">
         <v>130.8979766886332</v>
       </c>
-      <c r="F17" t="n">
-        <v>151.3284692272751</v>
-      </c>
-      <c r="G17" t="n">
-        <v>162.9396271802461</v>
-      </c>
       <c r="H17" t="n">
-        <v>150.1416337902328</v>
+        <v>150.4610004934122</v>
       </c>
       <c r="I17" t="n">
         <v>106.1176214429189</v>
@@ -2560,13 +2604,13 @@
         <v>110.006652659551</v>
       </c>
       <c r="L17" t="n">
-        <v>142.184025463868</v>
+        <v>141.9879524122444</v>
       </c>
       <c r="M17" t="n">
         <v>154.7907865358723</v>
       </c>
       <c r="N17" t="n">
-        <v>144.8586875437383</v>
+        <v>143.4112579515753</v>
       </c>
     </row>
     <row r="18">
@@ -2574,25 +2618,25 @@
         <v>44866</v>
       </c>
       <c r="B18" t="n">
+        <v>156.6569818433282</v>
+      </c>
+      <c r="C18" t="n">
         <v>148.9416666666667</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>122.312030840727</v>
       </c>
-      <c r="D18" t="n">
-        <v>134.6739662436187</v>
-      </c>
       <c r="E18" t="n">
+        <v>144.103416389355</v>
+      </c>
+      <c r="F18" t="n">
+        <v>134.7181414184909</v>
+      </c>
+      <c r="G18" t="n">
         <v>124.0063153059719</v>
       </c>
-      <c r="F18" t="n">
-        <v>142.217707327885</v>
-      </c>
-      <c r="G18" t="n">
-        <v>152.0072891524214</v>
-      </c>
       <c r="H18" t="n">
-        <v>141.3421997589992</v>
+        <v>141.6803914785506</v>
       </c>
       <c r="I18" t="n">
         <v>106.0778452531214</v>
@@ -2604,13 +2648,13 @@
         <v>90.0151140891235</v>
       </c>
       <c r="L18" t="n">
-        <v>134.0331727010957</v>
+        <v>133.926783080904</v>
       </c>
       <c r="M18" t="n">
         <v>141.7644926411016</v>
       </c>
       <c r="N18" t="n">
-        <v>137.0549040311934</v>
+        <v>134.1583843833632</v>
       </c>
     </row>
     <row r="19">
@@ -2618,25 +2662,25 @@
         <v>44896</v>
       </c>
       <c r="B19" t="n">
+        <v>157.2379678810412</v>
+      </c>
+      <c r="C19" t="n">
         <v>142.625</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>114.1649729792262</v>
       </c>
-      <c r="D19" t="n">
-        <v>129.1897205658705</v>
-      </c>
       <c r="E19" t="n">
+        <v>140.7246880605559</v>
+      </c>
+      <c r="F19" t="n">
+        <v>129.3169153093454</v>
+      </c>
+      <c r="G19" t="n">
         <v>119.464631856114</v>
       </c>
-      <c r="F19" t="n">
-        <v>138.0082051912415</v>
-      </c>
-      <c r="G19" t="n">
-        <v>150.5989138631599</v>
-      </c>
       <c r="H19" t="n">
-        <v>136.7182851469822</v>
+        <v>137.5356690722383</v>
       </c>
       <c r="I19" t="n">
         <v>106.0535743416269</v>
@@ -2648,13 +2692,13 @@
         <v>73.92514754154135</v>
       </c>
       <c r="L19" t="n">
-        <v>129.874688235417</v>
+        <v>129.8738271620489</v>
       </c>
       <c r="M19" t="n">
         <v>134.5426348583944</v>
       </c>
       <c r="N19" t="n">
-        <v>131.3031030704634</v>
+        <v>128.624635008756</v>
       </c>
     </row>
     <row r="20">
@@ -2662,25 +2706,25 @@
         <v>44927</v>
       </c>
       <c r="B20" t="n">
+        <v>156.9602196007386</v>
+      </c>
+      <c r="C20" t="n">
         <v>144.1166666666667</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>112.5134241537735</v>
       </c>
-      <c r="D20" t="n">
-        <v>125.5096002496734</v>
-      </c>
       <c r="E20" t="n">
+        <v>139.6369022415475</v>
+      </c>
+      <c r="F20" t="n">
+        <v>125.6061836414364</v>
+      </c>
+      <c r="G20" t="n">
         <v>118.7222550831153</v>
       </c>
-      <c r="F20" t="n">
-        <v>136.401678166588</v>
-      </c>
-      <c r="G20" t="n">
-        <v>148.7665572343548</v>
-      </c>
       <c r="H20" t="n">
-        <v>135.276380540287</v>
+        <v>136.5609591579334</v>
       </c>
       <c r="I20" t="n">
         <v>105.9833694873133</v>
@@ -2692,13 +2736,13 @@
         <v>68.9470281872446</v>
       </c>
       <c r="L20" t="n">
-        <v>129.3945918777231</v>
+        <v>129.500461091488</v>
       </c>
       <c r="M20" t="n">
         <v>135.9441686478752</v>
       </c>
       <c r="N20" t="n">
-        <v>128.5944866730167</v>
+        <v>126.6212647893373</v>
       </c>
     </row>
     <row r="21">
@@ -2706,25 +2750,25 @@
         <v>44958</v>
       </c>
       <c r="B21" t="n">
+        <v>150.1107340855679</v>
+      </c>
+      <c r="C21" t="n">
         <v>146.1583333333333</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>111.6728786590491</v>
       </c>
-      <c r="D21" t="n">
-        <v>125.0655266724929</v>
-      </c>
       <c r="E21" t="n">
+        <v>138.008917894477</v>
+      </c>
+      <c r="F21" t="n">
+        <v>125.1369704278868</v>
+      </c>
+      <c r="G21" t="n">
         <v>117.2173130764658</v>
       </c>
-      <c r="F21" t="n">
-        <v>135.0597814260644</v>
-      </c>
-      <c r="G21" t="n">
-        <v>141.9881877040522</v>
-      </c>
       <c r="H21" t="n">
-        <v>135.4200631414891</v>
+        <v>136.5761709075202</v>
       </c>
       <c r="I21" t="n">
         <v>105.9994957483446</v>
@@ -2736,13 +2780,13 @@
         <v>72.40312579400704</v>
       </c>
       <c r="L21" t="n">
-        <v>130.9557650391314</v>
+        <v>131.1802983891669</v>
       </c>
       <c r="M21" t="n">
         <v>134.5776414142001</v>
       </c>
       <c r="N21" t="n">
-        <v>132.9325029584351</v>
+        <v>130.2945183016463</v>
       </c>
     </row>
     <row r="22">
@@ -2750,25 +2794,25 @@
         <v>44986</v>
       </c>
       <c r="B22" t="n">
+        <v>169.9909621703721</v>
+      </c>
+      <c r="C22" t="n">
         <v>156.9416666666667</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>125.8753149094123</v>
       </c>
-      <c r="D22" t="n">
-        <v>134.8179983983201</v>
-      </c>
       <c r="E22" t="n">
+        <v>151.6557256465416</v>
+      </c>
+      <c r="F22" t="n">
+        <v>135.171945126651</v>
+      </c>
+      <c r="G22" t="n">
         <v>125.3060610070459</v>
       </c>
-      <c r="F22" t="n">
-        <v>148.2770668205326</v>
-      </c>
-      <c r="G22" t="n">
-        <v>161.5982922596216</v>
-      </c>
       <c r="H22" t="n">
-        <v>149.5098572223323</v>
+        <v>150.3113569992324</v>
       </c>
       <c r="I22" t="n">
         <v>105.9687902557937</v>
@@ -2780,13 +2824,13 @@
         <v>98.63206999423868</v>
       </c>
       <c r="L22" t="n">
-        <v>141.3290826169213</v>
+        <v>141.5426941466512</v>
       </c>
       <c r="M22" t="n">
         <v>150.4925531606134</v>
       </c>
       <c r="N22" t="n">
-        <v>152.8622461701316</v>
+        <v>147.9095168858211</v>
       </c>
     </row>
     <row r="23">
@@ -2794,25 +2838,25 @@
         <v>45017</v>
       </c>
       <c r="B23" t="n">
+        <v>162.5441278968059</v>
+      </c>
+      <c r="C23" t="n">
         <v>166.1916666666667</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>132.9004784337166</v>
       </c>
-      <c r="D23" t="n">
-        <v>142.3417813905625</v>
-      </c>
       <c r="E23" t="n">
+        <v>154.170914915597</v>
+      </c>
+      <c r="F23" t="n">
+        <v>142.3610532446919</v>
+      </c>
+      <c r="G23" t="n">
         <v>128.8594530759262</v>
       </c>
-      <c r="F23" t="n">
-        <v>151.9232117230142</v>
-      </c>
-      <c r="G23" t="n">
-        <v>155.9442567546717</v>
-      </c>
       <c r="H23" t="n">
-        <v>153.8588896158388</v>
+        <v>154.2687746759843</v>
       </c>
       <c r="I23" t="n">
         <v>105.9186141867459</v>
@@ -2824,13 +2868,13 @@
         <v>114.4010522418728</v>
       </c>
       <c r="L23" t="n">
-        <v>147.4496485439488</v>
+        <v>147.6786307006316</v>
       </c>
       <c r="M23" t="n">
         <v>155.8036840990472</v>
       </c>
       <c r="N23" t="n">
-        <v>157.3670947233437</v>
+        <v>152.5683948711254</v>
       </c>
     </row>
     <row r="24">
@@ -2838,25 +2882,25 @@
         <v>45047</v>
       </c>
       <c r="B24" t="n">
+        <v>171.0071566779579</v>
+      </c>
+      <c r="C24" t="n">
         <v>166.6666666666667</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>138.4087424399823</v>
       </c>
-      <c r="D24" t="n">
-        <v>149.1873921157916</v>
-      </c>
       <c r="E24" t="n">
+        <v>160.6217388022296</v>
+      </c>
+      <c r="F24" t="n">
+        <v>149.3539120822425</v>
+      </c>
+      <c r="G24" t="n">
         <v>132.5377699907855</v>
       </c>
-      <c r="F24" t="n">
-        <v>158.7361662007173</v>
-      </c>
-      <c r="G24" t="n">
-        <v>166.1120888858633</v>
-      </c>
       <c r="H24" t="n">
-        <v>160.1039088729698</v>
+        <v>160.1476367957812</v>
       </c>
       <c r="I24" t="n">
         <v>105.9091276144887</v>
@@ -2868,13 +2912,13 @@
         <v>122.437737750348</v>
       </c>
       <c r="L24" t="n">
-        <v>155.1519930604816</v>
+        <v>155.3233915458923</v>
       </c>
       <c r="M24" t="n">
         <v>160.4176624716216</v>
       </c>
       <c r="N24" t="n">
-        <v>163.4014036360452</v>
+        <v>158.3870570061465</v>
       </c>
     </row>
     <row r="25">
@@ -2882,25 +2926,25 @@
         <v>45078</v>
       </c>
       <c r="B25" t="n">
+        <v>177.7519649006346</v>
+      </c>
+      <c r="C25" t="n">
         <v>168.1416666666667</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>140.7837948318385</v>
       </c>
-      <c r="D25" t="n">
-        <v>150.5594695262953</v>
-      </c>
       <c r="E25" t="n">
+        <v>164.2797673848019</v>
+      </c>
+      <c r="F25" t="n">
+        <v>150.7982647505864</v>
+      </c>
+      <c r="G25" t="n">
         <v>135.3415113815587</v>
       </c>
-      <c r="F25" t="n">
-        <v>162.5711074398681</v>
-      </c>
-      <c r="G25" t="n">
-        <v>174.0820275648829</v>
-      </c>
       <c r="H25" t="n">
-        <v>162.4409951992929</v>
+        <v>162.4617977254687</v>
       </c>
       <c r="I25" t="n">
         <v>105.8679007802696</v>
@@ -2912,13 +2956,13 @@
         <v>119.3655319376011</v>
       </c>
       <c r="L25" t="n">
-        <v>160.2588593258037</v>
+        <v>160.3350542973623</v>
       </c>
       <c r="M25" t="n">
         <v>164.972596987027</v>
       </c>
       <c r="N25" t="n">
-        <v>159.1629529128153</v>
+        <v>155.2820380120935</v>
       </c>
     </row>
   </sheetData>

--- a/examples/housing_different_levels_results.xlsx
+++ b/examples/housing_different_levels_results.xlsx
@@ -598,93 +598,85 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>avg_level</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>elasticnet</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
-        </is>
-      </c>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'alpha': 1.3, 'l1_ratio': 1.0}</t>
+          <t>{'how': 'simple', 'models': ('arima', 'hwes', 'prophet', 'silverkite'), 'determine_best_by': 'ValidationMetricValue'}</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>12</v>
       </c>
       <c r="K2" t="n">
-        <v>9.902651929001417</v>
+        <v>15.20096606813602</v>
       </c>
       <c r="L2" t="n">
-        <v>2.572323594374564</v>
+        <v>0.07926591197677597</v>
       </c>
       <c r="M2" t="n">
-        <v>7.170047035456705</v>
+        <v>10.96011310550019</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5536880484219917</v>
+        <v>-0.1197888841638914</v>
       </c>
       <c r="O2" t="n">
-        <v>10.27900784150738</v>
+        <v>120.6338708069169</v>
       </c>
       <c r="P2" t="n">
-        <v>8.600000000000023</v>
+        <v>154.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>12.05240000938119</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
+        <v>18.02398432036044</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.1444883622374272</v>
+      </c>
       <c r="S2" t="n">
-        <v>9.386526075224372</v>
+        <v>14.32205087010169</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4961687971781187</v>
-      </c>
-      <c r="U2" t="n">
-        <v>6</v>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="W2" t="n">
-        <v>9.710460564204618</v>
-      </c>
+        <v>0.7757005295493604</v>
+      </c>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>['arima', 'hwes', 'prophet', 'silverkite']</t>
+        </is>
+      </c>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
-        <v>11.19009846171499</v>
+        <v>15.20096606813602</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.07437667846228523</v>
+        <v>0.07926591197677597</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.852848717787184</v>
+        <v>10.96011310550019</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.3931776210440495</v>
+        <v>-0.1197888841638914</v>
       </c>
       <c r="AE2" t="b">
         <v>1</v>
@@ -693,12 +685,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>elasticnet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -708,14 +700,10 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 12, 'weights': 'uniform'}</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+          <t>{'alpha': 1.3, 'l1_ratio': 1.0}</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
         <v>749</v>
       </c>
@@ -732,32 +720,32 @@
         <v>12</v>
       </c>
       <c r="K3" t="n">
-        <v>14.24919182243655</v>
+        <v>14.02642592524194</v>
       </c>
       <c r="L3" t="n">
-        <v>2.005919859581277</v>
+        <v>6.663780491287947</v>
       </c>
       <c r="M3" t="n">
-        <v>11.23055555555555</v>
+        <v>10.2331159818476</v>
       </c>
       <c r="N3" t="n">
-        <v>0.07590641725962632</v>
+        <v>0.104574344698823</v>
       </c>
       <c r="O3" t="n">
-        <v>2.408333333333335</v>
+        <v>8.795879531155014</v>
       </c>
       <c r="P3" t="n">
         <v>8.600000000000023</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.02513079762945</v>
+        <v>12.05240000938119</v>
       </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
-        <v>7.855379310344827</v>
+        <v>9.386526075224372</v>
       </c>
       <c r="T3" t="n">
-        <v>0.6514074661154218</v>
+        <v>0.4961687971781187</v>
       </c>
       <c r="U3" t="n">
         <v>6</v>
@@ -768,22 +756,22 @@
         </is>
       </c>
       <c r="W3" t="n">
-        <v>15.21438730342167</v>
+        <v>9.710460564204618</v>
       </c>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="n">
-        <v>12.30746113286721</v>
+        <v>12.83287437311246</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.0776661571213545</v>
+        <v>0.08414943396922821</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.14722222222222</v>
+        <v>11.11989880828007</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.2659414207823876</v>
+        <v>0.2019287636698676</v>
       </c>
       <c r="AE3" t="b">
         <v>0</v>
@@ -792,85 +780,97 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>avg_level</t>
+          <t>knn</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>combo</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>knn</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'how': 'simple', 'models': ('arima', 'hwes', 'prophet', 'silverkite'), 'determine_best_by': 'ValidationMetricValue'}</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>{'n_neighbors': 12, 'weights': 'uniform'}</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="F4" t="n">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>12</v>
       </c>
       <c r="K4" t="n">
-        <v>15.20096606813602</v>
+        <v>14.23905606395988</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07926591197677597</v>
+        <v>1.978142081803499</v>
       </c>
       <c r="M4" t="n">
-        <v>10.96011310550019</v>
+        <v>11.15555555555555</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1197888841638914</v>
+        <v>0.07722060521125995</v>
       </c>
       <c r="O4" t="n">
-        <v>120.6338708069169</v>
+        <v>2.408333333333335</v>
       </c>
       <c r="P4" t="n">
-        <v>154.3</v>
+        <v>8.600000000000023</v>
       </c>
       <c r="Q4" t="n">
-        <v>18.02398432036044</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.1444883622374272</v>
-      </c>
+        <v>10.02513079762945</v>
+      </c>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>14.32205087010169</v>
+        <v>7.855379310344827</v>
       </c>
       <c r="T4" t="n">
-        <v>0.7757005295493604</v>
-      </c>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+        <v>0.6514074661154218</v>
+      </c>
+      <c r="U4" t="n">
+        <v>6</v>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="W4" t="n">
+        <v>15.21438730342167</v>
+      </c>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>['arima', 'hwes', 'prophet', 'silverkite']</t>
-        </is>
-      </c>
+      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="n">
-        <v>15.20096606813602</v>
+        <v>13.34551483471895</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.07926591197677597</v>
+        <v>0.08558887597196209</v>
       </c>
       <c r="AC4" t="n">
-        <v>10.96011310550019</v>
+        <v>11.35555555555555</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.1197888841638914</v>
+        <v>0.1368933998148608</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
@@ -879,28 +879,38 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>weighted_diff</t>
+          <t>mlp</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>combo</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'how': 'weighted', 'models': ('knn', 'svr', 'lightgbm', 'mlp', 'elasticnet'), 'determine_best_by': 'ValidationMetricValue'}</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t>{'activation': 'tanh', 'hidden_layer_sizes': (25, 25), 'solver': 'adam', 'random_state': 20}</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>pt</t>
+        </is>
+      </c>
       <c r="F5" t="n">
         <v>749</v>
       </c>
       <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
@@ -908,58 +918,58 @@
         <v>12</v>
       </c>
       <c r="K5" t="n">
-        <v>12.43634488446768</v>
+        <v>14.85447878694572</v>
       </c>
       <c r="L5" t="n">
-        <v>1.358061124247253</v>
+        <v>2.585685464449352</v>
       </c>
       <c r="M5" t="n">
-        <v>9.383522888848175</v>
+        <v>11.37220259577465</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2960837303878853</v>
+        <v>-0.004269617908296164</v>
       </c>
       <c r="O5" t="n">
-        <v>4.78164479726391</v>
+        <v>1.334564331320183</v>
       </c>
       <c r="P5" t="n">
         <v>8.600000000000023</v>
       </c>
       <c r="Q5" t="n">
-        <v>10.96033845318762</v>
+        <v>10.95509040993115</v>
       </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>8.493305819963101</v>
+        <v>8.349557484933303</v>
       </c>
       <c r="T5" t="n">
-        <v>0.5833360596111696</v>
-      </c>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+        <v>0.5837349792028876</v>
+      </c>
+      <c r="U5" t="n">
+        <v>6</v>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="W5" t="n">
+        <v>10.49466529325489</v>
+      </c>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>['elasticnet', 'mlp', 'svr', 'knn', 'lightgbm']</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>(0.3255042834443134, 0.30314459202263966, 0.17318663333770723, 0.168573192700402, 0.029591298494937582)</t>
-        </is>
-      </c>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
-        <v>13.25775557399023</v>
+        <v>14.11780046733003</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.08619397138974612</v>
+        <v>0.08774390897430785</v>
       </c>
       <c r="AC5" t="n">
-        <v>11.50649443118646</v>
+        <v>10.45437897023222</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.1482075452744196</v>
+        <v>0.03410959473383657</v>
       </c>
       <c r="AE5" t="b">
         <v>0</v>
@@ -968,38 +978,28 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>weighted_diff</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>mlp</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
-        </is>
-      </c>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'activation': 'tanh', 'hidden_layer_sizes': (25, 25), 'solver': 'adam', 'random_state': 20}</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>pt</t>
-        </is>
-      </c>
+          <t>{'how': 'weighted', 'models': ('knn', 'svr', 'lightgbm', 'mlp', 'elasticnet'), 'determine_best_by': 'ValidationMetricValue'}</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
         <v>749</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
         <v>1</v>
       </c>
@@ -1007,58 +1007,58 @@
         <v>12</v>
       </c>
       <c r="K6" t="n">
-        <v>14.92954405738234</v>
+        <v>14.06643831528819</v>
       </c>
       <c r="L6" t="n">
-        <v>2.582425408251861</v>
+        <v>3.236159312861689</v>
       </c>
       <c r="M6" t="n">
-        <v>11.40608929277311</v>
+        <v>10.89030449317112</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.01444516804033147</v>
+        <v>0.09945839810020141</v>
       </c>
       <c r="O6" t="n">
-        <v>1.718607513334995</v>
+        <v>4.131308785034894</v>
       </c>
       <c r="P6" t="n">
         <v>8.600000000000023</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.95509040993115</v>
+        <v>10.96033845318762</v>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>8.349557484933303</v>
+        <v>8.493305819963101</v>
       </c>
       <c r="T6" t="n">
-        <v>0.5837349792028876</v>
-      </c>
-      <c r="U6" t="n">
-        <v>6</v>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="W6" t="n">
-        <v>10.49466529325489</v>
-      </c>
+        <v>0.5833360596111696</v>
+      </c>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>['elasticnet', 'mlp', 'svr', 'knn', 'lightgbm']</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>(0.3255042834443134, 0.30314459202263966, 0.17318663333770723, 0.168573192700402, 0.029591298494937582)</t>
+        </is>
+      </c>
       <c r="AA6" t="n">
-        <v>14.2520525329766</v>
+        <v>14.00311511770182</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.08832067882317061</v>
+        <v>0.08825769765263415</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.50220286716312</v>
+        <v>11.80390819437053</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.01565213902185425</v>
+        <v>0.04973859406297942</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>12</v>
       </c>
       <c r="K8" t="n">
-        <v>12.21128224587584</v>
+        <v>14.66167871994874</v>
       </c>
       <c r="L8" t="n">
-        <v>1.796404057906117</v>
+        <v>4.061117710739125</v>
       </c>
       <c r="M8" t="n">
-        <v>9.032284538687277</v>
+        <v>11.86800595245978</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3213309762843835</v>
+        <v>0.02163054454323887</v>
       </c>
       <c r="O8" t="n">
-        <v>3.518109853870077</v>
+        <v>2.814699401397537</v>
       </c>
       <c r="P8" t="n">
         <v>8.600000000000023</v>
@@ -1225,16 +1225,16 @@
       </c>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="n">
-        <v>21.57354778675276</v>
+        <v>21.16790987339128</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.1486428412379291</v>
+        <v>0.1415081247027928</v>
       </c>
       <c r="AC8" t="n">
-        <v>19.79725231620246</v>
+        <v>18.9541726153532</v>
       </c>
       <c r="AD8" t="n">
-        <v>-1.255469273319976</v>
+        <v>-1.171449473548766</v>
       </c>
       <c r="AE8" t="b">
         <v>0</v>
@@ -1567,19 +1567,19 @@
         <v>12</v>
       </c>
       <c r="K12" t="n">
-        <v>14.22430552913185</v>
+        <v>14.23932284272253</v>
       </c>
       <c r="L12" t="n">
-        <v>2.283848613333041</v>
+        <v>2.273497786112829</v>
       </c>
       <c r="M12" t="n">
-        <v>11.41811351772209</v>
+        <v>11.43275866049344</v>
       </c>
       <c r="N12" t="n">
-        <v>0.07913146774701818</v>
+        <v>0.07718602704116251</v>
       </c>
       <c r="O12" t="n">
-        <v>2.887142794722719</v>
+        <v>2.870925929199943</v>
       </c>
       <c r="P12" t="n">
         <v>8.600000000000023</v>
@@ -1609,16 +1609,16 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="n">
-        <v>33.25013667552012</v>
+        <v>33.25991020784068</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.2381959297637569</v>
+        <v>0.2382320181181875</v>
       </c>
       <c r="AC12" t="n">
-        <v>31.08605604300426</v>
+        <v>31.09109103444199</v>
       </c>
       <c r="AD12" t="n">
-        <v>-4.357727764320964</v>
+        <v>-4.36087792408701</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
@@ -1627,23 +1627,31 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lightgbm</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>arima</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>lightgbm</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{'order': (0, 1, 2), 'seasonal_order': (0, 1, 1, 12), 'trend': 'n'}</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
+          <t>{'max_depth': 2}</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="F13" t="n">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -1652,40 +1660,38 @@
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>12</v>
       </c>
       <c r="K13" t="n">
-        <v>55.68005782309162</v>
+        <v>19.93839987751195</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3919335016592729</v>
+        <v>11.44345074190408</v>
       </c>
       <c r="M13" t="n">
-        <v>47.03335337499001</v>
+        <v>17.05625082906309</v>
       </c>
       <c r="N13" t="n">
-        <v>-14.02426129859499</v>
+        <v>-0.8093229502565604</v>
       </c>
       <c r="O13" t="n">
-        <v>143.100024049988</v>
+        <v>-1.336206118020788</v>
       </c>
       <c r="P13" t="n">
-        <v>154.3</v>
+        <v>8.600000000000023</v>
       </c>
       <c r="Q13" t="n">
-        <v>11.58644876774325</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0.08054923381196277</v>
-      </c>
+        <v>9.306629757769668</v>
+      </c>
+      <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>8.660803619781996</v>
+        <v>7.268316356519059</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9073111833254927</v>
+        <v>0.6995841379330299</v>
       </c>
       <c r="U13" t="n">
         <v>6</v>
@@ -1696,24 +1702,22 @@
         </is>
       </c>
       <c r="W13" t="n">
-        <v>23.80840187832859</v>
-      </c>
-      <c r="X13" t="b">
-        <v>1</v>
-      </c>
+        <v>20.08879530095971</v>
+      </c>
+      <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="n">
-        <v>55.68005782309162</v>
+        <v>52.0723913502541</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.3919335016592729</v>
+        <v>0.3853294569681934</v>
       </c>
       <c r="AC13" t="n">
-        <v>47.03335337499001</v>
+        <v>49.78907506937475</v>
       </c>
       <c r="AD13" t="n">
-        <v>-14.02426129859499</v>
+        <v>-12.14040702977866</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
@@ -1722,31 +1726,23 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>lightgbm</t>
+          <t>arima</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>lightgbm</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR12', 'AR24', 'monthsin', 'monthcos', 'year', 'COVID19', 't', 't_COVID19']</t>
-        </is>
-      </c>
+          <t>arima</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>{'max_depth': 2}</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+          <t>{'order': (0, 1, 2), 'seasonal_order': (0, 1, 1, 12), 'trend': 'n'}</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -1755,38 +1751,40 @@
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>12</v>
       </c>
       <c r="K14" t="n">
-        <v>15.08747219838924</v>
+        <v>55.68005782309162</v>
       </c>
       <c r="L14" t="n">
-        <v>7.868889123213035</v>
+        <v>0.3919335016592729</v>
       </c>
       <c r="M14" t="n">
-        <v>10.76954127709949</v>
+        <v>47.03335337499001</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.03602075065961485</v>
+        <v>-14.02426129859499</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2974577864519554</v>
+        <v>143.100024049988</v>
       </c>
       <c r="P14" t="n">
-        <v>8.600000000000023</v>
+        <v>154.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.306629757769668</v>
-      </c>
-      <c r="R14" t="inlineStr"/>
+        <v>11.58644876774325</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.08054923381196277</v>
+      </c>
       <c r="S14" t="n">
-        <v>7.268316356519059</v>
+        <v>8.660803619781996</v>
       </c>
       <c r="T14" t="n">
-        <v>0.6995841379330299</v>
+        <v>0.9073111833254927</v>
       </c>
       <c r="U14" t="n">
         <v>6</v>
@@ -1797,22 +1795,24 @@
         </is>
       </c>
       <c r="W14" t="n">
-        <v>20.08879530095971</v>
-      </c>
-      <c r="X14" t="inlineStr"/>
+        <v>23.80840187832859</v>
+      </c>
+      <c r="X14" t="b">
+        <v>1</v>
+      </c>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="n">
-        <v>60.32924215063278</v>
+        <v>55.68005782309162</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.4496113111775727</v>
+        <v>0.3919335016592729</v>
       </c>
       <c r="AC14" t="n">
-        <v>57.51493546535716</v>
+        <v>47.03335337499001</v>
       </c>
       <c r="AD14" t="n">
-        <v>-16.63800707598961</v>
+        <v>-14.02426129859499</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
@@ -1845,29 +1845,29 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>avg_level</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>elasticnet</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>knn</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>avg_level</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>weighted_diff</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>mlp</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>weighted_level</t>
@@ -1900,12 +1900,12 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>lightgbm</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>arima</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>lightgbm</t>
         </is>
       </c>
     </row>
@@ -1914,19 +1914,19 @@
         <v>44378</v>
       </c>
       <c r="B2" t="n">
+        <v>133.5359982590729</v>
+      </c>
+      <c r="C2" t="n">
         <v>158.7992090473758</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>154.5583333333333</v>
       </c>
-      <c r="D2" t="n">
-        <v>133.5359982590729</v>
-      </c>
       <c r="E2" t="n">
+        <v>153.4670217678987</v>
+      </c>
+      <c r="F2" t="n">
         <v>155.6104193313884</v>
-      </c>
-      <c r="F2" t="n">
-        <v>153.4670217678987</v>
       </c>
       <c r="G2" t="n">
         <v>129.5406605667929</v>
@@ -1947,10 +1947,10 @@
         <v>155.5700099169691</v>
       </c>
       <c r="M2" t="n">
+        <v>148.7214527813213</v>
+      </c>
+      <c r="N2" t="n">
         <v>154.2682600177379</v>
-      </c>
-      <c r="N2" t="n">
-        <v>148.7214527813213</v>
       </c>
     </row>
     <row r="3">
@@ -1958,19 +1958,19 @@
         <v>44409</v>
       </c>
       <c r="B3" t="n">
+        <v>130.4959010024299</v>
+      </c>
+      <c r="C3" t="n">
         <v>154.4029773424122</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>151.1083333333333</v>
       </c>
-      <c r="D3" t="n">
-        <v>130.4959010024299</v>
-      </c>
       <c r="E3" t="n">
+        <v>150.1177743467056</v>
+      </c>
+      <c r="F3" t="n">
         <v>151.9032087370406</v>
-      </c>
-      <c r="F3" t="n">
-        <v>150.1177743467056</v>
       </c>
       <c r="G3" t="n">
         <v>127.1294204592387</v>
@@ -1991,10 +1991,10 @@
         <v>151.9564741314531</v>
       </c>
       <c r="M3" t="n">
+        <v>146.9128640726533</v>
+      </c>
+      <c r="N3" t="n">
         <v>148.8234702254157</v>
-      </c>
-      <c r="N3" t="n">
-        <v>146.9128640726533</v>
       </c>
     </row>
     <row r="4">
@@ -2002,19 +2002,19 @@
         <v>44440</v>
       </c>
       <c r="B4" t="n">
+        <v>128.8372437636031</v>
+      </c>
+      <c r="C4" t="n">
         <v>152.7763478640812</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>152.775</v>
       </c>
-      <c r="D4" t="n">
-        <v>128.8372437636031</v>
-      </c>
       <c r="E4" t="n">
+        <v>147.4811886770815</v>
+      </c>
+      <c r="F4" t="n">
         <v>149.7415942896548</v>
-      </c>
-      <c r="F4" t="n">
-        <v>147.4811886770815</v>
       </c>
       <c r="G4" t="n">
         <v>126.9034181803819</v>
@@ -2035,10 +2035,10 @@
         <v>145.8849488064909</v>
       </c>
       <c r="M4" t="n">
+        <v>144.8067994001438</v>
+      </c>
+      <c r="N4" t="n">
         <v>148.1019729887558</v>
-      </c>
-      <c r="N4" t="n">
-        <v>144.8067994001438</v>
       </c>
     </row>
     <row r="5">
@@ -2046,19 +2046,19 @@
         <v>44470</v>
       </c>
       <c r="B5" t="n">
+        <v>130.5173628647413</v>
+      </c>
+      <c r="C5" t="n">
         <v>154.2175198679189</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>150.7333333333333</v>
       </c>
-      <c r="D5" t="n">
-        <v>130.5173628647413</v>
-      </c>
       <c r="E5" t="n">
+        <v>144.6265589497182</v>
+      </c>
+      <c r="F5" t="n">
         <v>148.0017547458285</v>
-      </c>
-      <c r="F5" t="n">
-        <v>144.6265589497182</v>
       </c>
       <c r="G5" t="n">
         <v>127.5462587444791</v>
@@ -2079,10 +2079,10 @@
         <v>139.9546132768486</v>
       </c>
       <c r="M5" t="n">
+        <v>145.740975140968</v>
+      </c>
+      <c r="N5" t="n">
         <v>148.6588251157353</v>
-      </c>
-      <c r="N5" t="n">
-        <v>145.740975140968</v>
       </c>
     </row>
     <row r="6">
@@ -2090,19 +2090,19 @@
         <v>44501</v>
       </c>
       <c r="B6" t="n">
+        <v>118.5201863800425</v>
+      </c>
+      <c r="C6" t="n">
         <v>144.1350916144025</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>141.8833333333334</v>
       </c>
-      <c r="D6" t="n">
-        <v>118.5201863800425</v>
-      </c>
       <c r="E6" t="n">
+        <v>135.6913658442832</v>
+      </c>
+      <c r="F6" t="n">
         <v>138.7638927908714</v>
-      </c>
-      <c r="F6" t="n">
-        <v>135.6913658442832</v>
       </c>
       <c r="G6" t="n">
         <v>120.5858570338796</v>
@@ -2123,10 +2123,10 @@
         <v>131.5404830124376</v>
       </c>
       <c r="M6" t="n">
+        <v>135.6621590991136</v>
+      </c>
+      <c r="N6" t="n">
         <v>135.6325312209646</v>
-      </c>
-      <c r="N6" t="n">
-        <v>135.6621590991136</v>
       </c>
     </row>
     <row r="7">
@@ -2134,19 +2134,19 @@
         <v>44531</v>
       </c>
       <c r="B7" t="n">
+        <v>110.5602449037279</v>
+      </c>
+      <c r="C7" t="n">
         <v>145.4080760158442</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>137.4333333333333</v>
       </c>
-      <c r="D7" t="n">
-        <v>110.5602449037279</v>
-      </c>
       <c r="E7" t="n">
+        <v>131.5957394040541</v>
+      </c>
+      <c r="F7" t="n">
         <v>136.4583929369673</v>
-      </c>
-      <c r="F7" t="n">
-        <v>131.5957394040541</v>
       </c>
       <c r="G7" t="n">
         <v>116.087296926607</v>
@@ -2167,10 +2167,10 @@
         <v>128.2816103437062</v>
       </c>
       <c r="M7" t="n">
+        <v>130.1284097245064</v>
+      </c>
+      <c r="N7" t="n">
         <v>128.4106734382575</v>
-      </c>
-      <c r="N7" t="n">
-        <v>130.1284097245064</v>
       </c>
     </row>
     <row r="8">
@@ -2178,19 +2178,19 @@
         <v>44562</v>
       </c>
       <c r="B8" t="n">
+        <v>108.9712101361083</v>
+      </c>
+      <c r="C8" t="n">
         <v>146.3485760593025</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>138.925</v>
       </c>
-      <c r="D8" t="n">
-        <v>108.9712101361083</v>
-      </c>
       <c r="E8" t="n">
+        <v>128.7133191445484</v>
+      </c>
+      <c r="F8" t="n">
         <v>136.1314477424989</v>
-      </c>
-      <c r="F8" t="n">
-        <v>128.7133191445484</v>
       </c>
       <c r="G8" t="n">
         <v>115.3590839975137</v>
@@ -2211,10 +2211,10 @@
         <v>128.357719834448</v>
       </c>
       <c r="M8" t="n">
+        <v>129.319792539172</v>
+      </c>
+      <c r="N8" t="n">
         <v>129.8122072277382</v>
-      </c>
-      <c r="N8" t="n">
-        <v>129.319792539172</v>
       </c>
     </row>
     <row r="9">
@@ -2222,19 +2222,19 @@
         <v>44593</v>
       </c>
       <c r="B9" t="n">
+        <v>107.7206030774895</v>
+      </c>
+      <c r="C9" t="n">
         <v>140.1731985490464</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>140.0166666666667</v>
       </c>
-      <c r="D9" t="n">
-        <v>107.7206030774895</v>
-      </c>
       <c r="E9" t="n">
+        <v>126.2945123365564</v>
+      </c>
+      <c r="F9" t="n">
         <v>133.8446758011814</v>
-      </c>
-      <c r="F9" t="n">
-        <v>126.2945123365564</v>
       </c>
       <c r="G9" t="n">
         <v>113.7930317658923</v>
@@ -2255,10 +2255,10 @@
         <v>129.6267619782217</v>
       </c>
       <c r="M9" t="n">
+        <v>131.1034662548581</v>
+      </c>
+      <c r="N9" t="n">
         <v>128.4456799940632</v>
-      </c>
-      <c r="N9" t="n">
-        <v>131.1034662548581</v>
       </c>
     </row>
     <row r="10">
@@ -2266,19 +2266,19 @@
         <v>44621</v>
       </c>
       <c r="B10" t="n">
+        <v>122.5728757093828</v>
+      </c>
+      <c r="C10" t="n">
         <v>155.3282959238043</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>153.4916666666667</v>
       </c>
-      <c r="D10" t="n">
-        <v>122.5728757093828</v>
-      </c>
       <c r="E10" t="n">
+        <v>138.9236049498558</v>
+      </c>
+      <c r="F10" t="n">
         <v>146.8490078877527</v>
-      </c>
-      <c r="F10" t="n">
-        <v>138.9236049498558</v>
       </c>
       <c r="G10" t="n">
         <v>122.0112731315025</v>
@@ -2299,10 +2299,10 @@
         <v>138.4999641913241</v>
       </c>
       <c r="M10" t="n">
+        <v>145.7901504982587</v>
+      </c>
+      <c r="N10" t="n">
         <v>144.3605917404765</v>
-      </c>
-      <c r="N10" t="n">
-        <v>145.7901504982587</v>
       </c>
     </row>
     <row r="11">
@@ -2310,19 +2310,19 @@
         <v>44652</v>
       </c>
       <c r="B11" t="n">
+        <v>129.5222815712843</v>
+      </c>
+      <c r="C11" t="n">
         <v>145.517811401481</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>160.8</v>
       </c>
-      <c r="D11" t="n">
-        <v>129.5222815712843</v>
-      </c>
       <c r="E11" t="n">
+        <v>141.8809239844413</v>
+      </c>
+      <c r="F11" t="n">
         <v>146.4411566457296</v>
-      </c>
-      <c r="F11" t="n">
-        <v>141.8809239844413</v>
       </c>
       <c r="G11" t="n">
         <v>125.5675146009755</v>
@@ -2343,10 +2343,10 @@
         <v>142.1778055942709</v>
       </c>
       <c r="M11" t="n">
+        <v>146.4682608757153</v>
+      </c>
+      <c r="N11" t="n">
         <v>149.6717226789103</v>
-      </c>
-      <c r="N11" t="n">
-        <v>146.4682608757153</v>
       </c>
     </row>
     <row r="12">
@@ -2354,19 +2354,19 @@
         <v>44682</v>
       </c>
       <c r="B12" t="n">
+        <v>134.5888301886341</v>
+      </c>
+      <c r="C12" t="n">
         <v>154.4316603895961</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>161.275</v>
       </c>
-      <c r="D12" t="n">
-        <v>134.5888301886341</v>
-      </c>
       <c r="E12" t="n">
+        <v>150.2273436674125</v>
+      </c>
+      <c r="F12" t="n">
         <v>153.454777323381</v>
-      </c>
-      <c r="F12" t="n">
-        <v>150.2273436674125</v>
       </c>
       <c r="G12" t="n">
         <v>129.1626392655149</v>
@@ -2387,10 +2387,10 @@
         <v>150.1304077510188</v>
       </c>
       <c r="M12" t="n">
+        <v>150.6788229802307</v>
+      </c>
+      <c r="N12" t="n">
         <v>154.2857010514847</v>
-      </c>
-      <c r="N12" t="n">
-        <v>150.6788229802307</v>
       </c>
     </row>
     <row r="13">
@@ -2398,19 +2398,19 @@
         <v>44713</v>
       </c>
       <c r="B13" t="n">
+        <v>137.3993757177633</v>
+      </c>
+      <c r="C13" t="n">
         <v>165.0735337264939</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>162.4083333333333</v>
       </c>
-      <c r="D13" t="n">
-        <v>137.3993757177633</v>
-      </c>
       <c r="E13" t="n">
+        <v>152.5191479726159</v>
+      </c>
+      <c r="F13" t="n">
         <v>158.988073230044</v>
-      </c>
-      <c r="F13" t="n">
-        <v>152.5191479726159</v>
       </c>
       <c r="G13" t="n">
         <v>132.0565323323392</v>
@@ -2431,10 +2431,10 @@
         <v>156.9611327091151</v>
       </c>
       <c r="M13" t="n">
+        <v>150.6968212911885</v>
+      </c>
+      <c r="N13" t="n">
         <v>158.8406355668901</v>
-      </c>
-      <c r="N13" t="n">
-        <v>150.6968212911885</v>
       </c>
     </row>
     <row r="14">
@@ -2442,19 +2442,19 @@
         <v>44743</v>
       </c>
       <c r="B14" t="n">
+        <v>137.3860491422743</v>
+      </c>
+      <c r="C14" t="n">
         <v>171.7645794638347</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>163.0333333333333</v>
       </c>
-      <c r="D14" t="n">
-        <v>137.3860491422743</v>
-      </c>
       <c r="E14" t="n">
+        <v>151.5246597840385</v>
+      </c>
+      <c r="F14" t="n">
         <v>161.3771949252066</v>
-      </c>
-      <c r="F14" t="n">
-        <v>151.5246597840385</v>
       </c>
       <c r="G14" t="n">
         <v>133.0175354887371</v>
@@ -2475,10 +2475,10 @@
         <v>159.3987585793463</v>
       </c>
       <c r="M14" t="n">
+        <v>150.1935956517792</v>
+      </c>
+      <c r="N14" t="n">
         <v>160.4673981284581</v>
-      </c>
-      <c r="N14" t="n">
-        <v>150.1935956517792</v>
       </c>
     </row>
     <row r="15">
@@ -2486,19 +2486,19 @@
         <v>44774</v>
       </c>
       <c r="B15" t="n">
+        <v>134.1696509458509</v>
+      </c>
+      <c r="C15" t="n">
         <v>165.3232734144235</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>158.85</v>
       </c>
-      <c r="D15" t="n">
-        <v>134.1696509458509</v>
-      </c>
       <c r="E15" t="n">
+        <v>148.5573546417366</v>
+      </c>
+      <c r="F15" t="n">
         <v>156.6547598666638</v>
-      </c>
-      <c r="F15" t="n">
-        <v>148.5573546417366</v>
       </c>
       <c r="G15" t="n">
         <v>130.5596420502839</v>
@@ -2519,10 +2519,10 @@
         <v>154.4706806571432</v>
       </c>
       <c r="M15" t="n">
+        <v>144.5309593385967</v>
+      </c>
+      <c r="N15" t="n">
         <v>154.9554316455527</v>
-      </c>
-      <c r="N15" t="n">
-        <v>144.5309593385967</v>
       </c>
     </row>
     <row r="16">
@@ -2530,19 +2530,19 @@
         <v>44805</v>
       </c>
       <c r="B16" t="n">
+        <v>132.6764460637265</v>
+      </c>
+      <c r="C16" t="n">
         <v>165.4144051156462</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>159.3416666666667</v>
       </c>
-      <c r="D16" t="n">
-        <v>132.6764460637265</v>
-      </c>
       <c r="E16" t="n">
+        <v>146.2022015354928</v>
+      </c>
+      <c r="F16" t="n">
         <v>154.9290879895387</v>
-      </c>
-      <c r="F16" t="n">
-        <v>146.2022015354928</v>
       </c>
       <c r="G16" t="n">
         <v>130.3566079858278</v>
@@ -2563,10 +2563,10 @@
         <v>148.708960340595</v>
       </c>
       <c r="M16" t="n">
+        <v>140.2590080892442</v>
+      </c>
+      <c r="N16" t="n">
         <v>154.2339344088927</v>
-      </c>
-      <c r="N16" t="n">
-        <v>140.2590080892442</v>
       </c>
     </row>
     <row r="17">
@@ -2574,19 +2574,19 @@
         <v>44835</v>
       </c>
       <c r="B17" t="n">
+        <v>133.8822437067818</v>
+      </c>
+      <c r="C17" t="n">
         <v>166.0340388294437</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>157.7916666666667</v>
       </c>
-      <c r="D17" t="n">
-        <v>133.8822437067818</v>
-      </c>
       <c r="E17" t="n">
+        <v>143.080086607131</v>
+      </c>
+      <c r="F17" t="n">
         <v>152.8523311435144</v>
-      </c>
-      <c r="F17" t="n">
-        <v>143.080086607131</v>
       </c>
       <c r="G17" t="n">
         <v>130.8979766886332</v>
@@ -2607,10 +2607,10 @@
         <v>141.9879524122444</v>
       </c>
       <c r="M17" t="n">
+        <v>143.4112579515753</v>
+      </c>
+      <c r="N17" t="n">
         <v>154.7907865358723</v>
-      </c>
-      <c r="N17" t="n">
-        <v>143.4112579515753</v>
       </c>
     </row>
     <row r="18">
@@ -2618,19 +2618,19 @@
         <v>44866</v>
       </c>
       <c r="B18" t="n">
+        <v>122.312030840727</v>
+      </c>
+      <c r="C18" t="n">
         <v>156.6569818433282</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>148.9416666666667</v>
       </c>
-      <c r="D18" t="n">
-        <v>122.312030840727</v>
-      </c>
       <c r="E18" t="n">
+        <v>134.7181414184909</v>
+      </c>
+      <c r="F18" t="n">
         <v>144.103416389355</v>
-      </c>
-      <c r="F18" t="n">
-        <v>134.7181414184909</v>
       </c>
       <c r="G18" t="n">
         <v>124.0063153059719</v>
@@ -2651,10 +2651,10 @@
         <v>133.926783080904</v>
       </c>
       <c r="M18" t="n">
+        <v>134.1583843833632</v>
+      </c>
+      <c r="N18" t="n">
         <v>141.7644926411016</v>
-      </c>
-      <c r="N18" t="n">
-        <v>134.1583843833632</v>
       </c>
     </row>
     <row r="19">
@@ -2662,19 +2662,19 @@
         <v>44896</v>
       </c>
       <c r="B19" t="n">
+        <v>114.1649729792262</v>
+      </c>
+      <c r="C19" t="n">
         <v>157.2379678810412</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>142.625</v>
       </c>
-      <c r="D19" t="n">
-        <v>114.1649729792262</v>
-      </c>
       <c r="E19" t="n">
+        <v>129.3169153093454</v>
+      </c>
+      <c r="F19" t="n">
         <v>140.7246880605559</v>
-      </c>
-      <c r="F19" t="n">
-        <v>129.3169153093454</v>
       </c>
       <c r="G19" t="n">
         <v>119.464631856114</v>
@@ -2695,10 +2695,10 @@
         <v>129.8738271620489</v>
       </c>
       <c r="M19" t="n">
+        <v>128.624635008756</v>
+      </c>
+      <c r="N19" t="n">
         <v>134.5426348583944</v>
-      </c>
-      <c r="N19" t="n">
-        <v>128.624635008756</v>
       </c>
     </row>
     <row r="20">
@@ -2706,19 +2706,19 @@
         <v>44927</v>
       </c>
       <c r="B20" t="n">
+        <v>112.5134241537735</v>
+      </c>
+      <c r="C20" t="n">
         <v>156.9602196007386</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>144.1166666666667</v>
       </c>
-      <c r="D20" t="n">
-        <v>112.5134241537735</v>
-      </c>
       <c r="E20" t="n">
+        <v>125.6061836414364</v>
+      </c>
+      <c r="F20" t="n">
         <v>139.6369022415475</v>
-      </c>
-      <c r="F20" t="n">
-        <v>125.6061836414364</v>
       </c>
       <c r="G20" t="n">
         <v>118.7222550831153</v>
@@ -2739,10 +2739,10 @@
         <v>129.500461091488</v>
       </c>
       <c r="M20" t="n">
+        <v>126.6212647893373</v>
+      </c>
+      <c r="N20" t="n">
         <v>135.9441686478752</v>
-      </c>
-      <c r="N20" t="n">
-        <v>126.6212647893373</v>
       </c>
     </row>
     <row r="21">
@@ -2750,19 +2750,19 @@
         <v>44958</v>
       </c>
       <c r="B21" t="n">
+        <v>111.6728786590491</v>
+      </c>
+      <c r="C21" t="n">
         <v>150.1107340855679</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>146.1583333333333</v>
       </c>
-      <c r="D21" t="n">
-        <v>111.6728786590491</v>
-      </c>
       <c r="E21" t="n">
+        <v>125.1369704278868</v>
+      </c>
+      <c r="F21" t="n">
         <v>138.008917894477</v>
-      </c>
-      <c r="F21" t="n">
-        <v>125.1369704278868</v>
       </c>
       <c r="G21" t="n">
         <v>117.2173130764658</v>
@@ -2783,10 +2783,10 @@
         <v>131.1802983891669</v>
       </c>
       <c r="M21" t="n">
+        <v>130.2945183016463</v>
+      </c>
+      <c r="N21" t="n">
         <v>134.5776414142001</v>
-      </c>
-      <c r="N21" t="n">
-        <v>130.2945183016463</v>
       </c>
     </row>
     <row r="22">
@@ -2794,19 +2794,19 @@
         <v>44986</v>
       </c>
       <c r="B22" t="n">
+        <v>125.8753149094123</v>
+      </c>
+      <c r="C22" t="n">
         <v>169.9909621703721</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>156.9416666666667</v>
       </c>
-      <c r="D22" t="n">
-        <v>125.8753149094123</v>
-      </c>
       <c r="E22" t="n">
+        <v>135.171945126651</v>
+      </c>
+      <c r="F22" t="n">
         <v>151.6557256465416</v>
-      </c>
-      <c r="F22" t="n">
-        <v>135.171945126651</v>
       </c>
       <c r="G22" t="n">
         <v>125.3060610070459</v>
@@ -2827,10 +2827,10 @@
         <v>141.5426941466512</v>
       </c>
       <c r="M22" t="n">
+        <v>147.9095168858211</v>
+      </c>
+      <c r="N22" t="n">
         <v>150.4925531606134</v>
-      </c>
-      <c r="N22" t="n">
-        <v>147.9095168858211</v>
       </c>
     </row>
     <row r="23">
@@ -2838,19 +2838,19 @@
         <v>45017</v>
       </c>
       <c r="B23" t="n">
+        <v>132.9004784337166</v>
+      </c>
+      <c r="C23" t="n">
         <v>162.5441278968059</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>166.1916666666667</v>
       </c>
-      <c r="D23" t="n">
-        <v>132.9004784337166</v>
-      </c>
       <c r="E23" t="n">
+        <v>142.3610532446919</v>
+      </c>
+      <c r="F23" t="n">
         <v>154.170914915597</v>
-      </c>
-      <c r="F23" t="n">
-        <v>142.3610532446919</v>
       </c>
       <c r="G23" t="n">
         <v>128.8594530759262</v>
@@ -2871,10 +2871,10 @@
         <v>147.6786307006316</v>
       </c>
       <c r="M23" t="n">
+        <v>152.5683948711254</v>
+      </c>
+      <c r="N23" t="n">
         <v>155.8036840990472</v>
-      </c>
-      <c r="N23" t="n">
-        <v>152.5683948711254</v>
       </c>
     </row>
     <row r="24">
@@ -2882,19 +2882,19 @@
         <v>45047</v>
       </c>
       <c r="B24" t="n">
+        <v>138.4087424399823</v>
+      </c>
+      <c r="C24" t="n">
         <v>171.0071566779579</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>166.6666666666667</v>
       </c>
-      <c r="D24" t="n">
-        <v>138.4087424399823</v>
-      </c>
       <c r="E24" t="n">
+        <v>149.3539120822425</v>
+      </c>
+      <c r="F24" t="n">
         <v>160.6217388022296</v>
-      </c>
-      <c r="F24" t="n">
-        <v>149.3539120822425</v>
       </c>
       <c r="G24" t="n">
         <v>132.5377699907855</v>
@@ -2915,10 +2915,10 @@
         <v>155.3233915458923</v>
       </c>
       <c r="M24" t="n">
+        <v>158.3870570061465</v>
+      </c>
+      <c r="N24" t="n">
         <v>160.4176624716216</v>
-      </c>
-      <c r="N24" t="n">
-        <v>158.3870570061465</v>
       </c>
     </row>
     <row r="25">
@@ -2926,19 +2926,19 @@
         <v>45078</v>
       </c>
       <c r="B25" t="n">
+        <v>140.7837948318385</v>
+      </c>
+      <c r="C25" t="n">
         <v>177.7519649006346</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>168.1416666666667</v>
       </c>
-      <c r="D25" t="n">
-        <v>140.7837948318385</v>
-      </c>
       <c r="E25" t="n">
+        <v>150.7982647505864</v>
+      </c>
+      <c r="F25" t="n">
         <v>164.2797673848019</v>
-      </c>
-      <c r="F25" t="n">
-        <v>150.7982647505864</v>
       </c>
       <c r="G25" t="n">
         <v>135.3415113815587</v>
@@ -2959,10 +2959,10 @@
         <v>160.3350542973623</v>
       </c>
       <c r="M25" t="n">
+        <v>155.2820380120935</v>
+      </c>
+      <c r="N25" t="n">
         <v>164.972596987027</v>
-      </c>
-      <c r="N25" t="n">
-        <v>155.2820380120935</v>
       </c>
     </row>
   </sheetData>
